--- a/WIP_outputs_param_apmv.xlsx
+++ b/WIP_outputs_param_apmv.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="53">
   <si>
     <t>index</t>
   </si>
@@ -70,100 +70,103 @@
     <t>epw</t>
   </si>
   <si>
-    <t>[0.13527765467277328, 0.1336764000352811, 0.13409348718468542, 0.1346004107427489, 0.13505340417615652, 0.13718983338873167, 0.13992262830551747, 0.14502767197267183, 0.14841137254056305, 0.14856654462072957, 0.136572340539956, 0.1327352555726969, 0.1336889300052205, 0.1360008663010823, 0.13704362248253785, 0.13665258294382435, 0.13485304652260424, 0.13119094176936397, 0.12755006480426018, 0.11489689526504103, 0.1299403218298231, 0.13383493792520573, 0.13466151068836685, 0.13399767326601164, 0.13417130390459656, 0.1353506985641494, 0.13530122977651685, 0.13434338877748175, 0.13413613552377796, 0.13954917229864197, 0.1467648615708682, 0.15901272746685688, 0.1404539413467749, 0.13607201798520446, 0.13120981920907035, 0.12757166475986476, 0.13065713149626987, 0.13643375879751654, 0.13808742962544898, 0.13499291620304218, 0.13053236629906448, 0.13060681332153554, 0.13146549419551354, 0.1316416890829674, 0.13102141774783094, 0.13115716131619198, 0.12954403738120016, 0.13019353437066716, 0.13648181653513777, 0.13451896726964999, 0.13473987394137424, 0.13535935487922135, 0.13444174106803639, 0.13443113388421615, 0.13947372674643557, 0.1468357025586916, 0.14585574268388216, 0.14404187694833173, 0.1409129491451251, 0.13621152464143502, 0.13269084363566533, 0.1333624562235568, 0.1309994029651136, 0.13346226593527424, 0.13241519613953853, 0.12294780954876282, 0.13061548429575612, 0.1273465242668764, 0.1342880385532375, 0.13532880818072138, 0.13508520305917662, 0.13639783281008452, 0.13531106486364916, 0.13498195584485354, 0.1351232923582368, 0.13541216623041788, 0.13558433541666495, 0.13801260800326134, 0.14046344181687168, 0.15163597216531557, 0.14490588532256107, 0.14017354330509782, 0.13707549053660076, 0.13402742850520116, 0.13459730388923935, 0.13700632980895608, 0.13260661046476663, 0.13683997591003536, 0.13172779280363664, 0.12824986252010914, 0.13225856480780684, 0.11559553516303332, 0.12872879352508765, 0.1331389733323103, 0.1336316939642339, 0.13300316623379874, 0.13483853308433005, 0.13520112935809195, 0.13559406774439683, 0.13462604015622195, 0.13466851644972927, 0.13926364267652494, 0.14661838763695792, 0.1451794526974882, 0.1501388805556, 0.13792954580586567, 0.13439284567405732, 0.13332719203886909, 0.1337202109301404, 0.13589536128052074, 0.13571458827454114, 0.13402945858420587, 0.1326377607148795, 0.11601498980309521, 0.12738904831153766, 0.1317876856065102, 0.13531773148702664, 0.13482664834022848, 0.13469956611306003, 0.13491121758482252, 0.13451163700986135, 0.13458107415446818, 0.1339238604333839, 0.13473056724253435, 0.13492486922941888, 0.13793115103856335, 0.14278538437860713, 0.14508977586694047, 0.15152217414567362, 0.1389800479569321, 0.13369469991103675, 0.13197424455394235, 0.13411193013063286, 0.12086699427607454, 0.1308692822788811, 0.13391059108259523, 0.1360871752456831, 0.13201239293111836, 0.12754385355728104, 0.12968380426262033, 0.13291028543234193, 0.13408430359349074, 0.1337867093117833, 0.13336436795554965, 0.13468188516532, 0.135257361071599, 0.13433469376991936, 0.13595382425672817, 0.13573244677435048, 0.1376374869685525, 0.14371448847410564, 0.1548736727190374, 0.1495676266656799, 0.1429271286263715, 0.13478212451776114, 0.1323311253833422, 0.13351495191389492, 0.1358281902301838, 0.1368555980001453, 0.13683769210859428, 0.13475172749484207, 0.1307586066136872, 0.12486155471597211, 0.11483277419750508, 0.13114452331661341, 0.1333228524293488, 0.13304118058341996, 0.13376842091751148, 0.1343002894330622, 0.1346805900698832, 0.1345137555384656, 0.134062710947303, 0.13427388666279236, 0.14044137977585805, 0.1494546076518073, 0.15495979914159733, 0.14664105304149347, 0.13703927636278365, 0.13446328380256348, 0.13337999720696733, 0.13491100991468807, 0.13561921724018883, 0.13453166106446915, 0.13491051449338057, 0.13409182736609482, 0.1321829316122064, 0.12869569089484303, 0.11934199624732456, 0.12553301434455133, 0.13576889086971572, 0.13522154433260278, 0.13379207296648174, 0.1336718687358625, 0.133701816638691, 0.13274012834463067, 0.133751026780088, 0.13345828324548978, 0.13834328798064552, 0.1462247629113433, 0.15059462413297728, 0.14594797563956416, 0.139762294588448, 0.13268125565485867, 0.12642265123397245, 0.13062946686450033, 0.1378911961728031, 0.140541190491564, 0.13952922078861238, 0.13623229710434318, 0.13143708782042893, 0.12860125299379557, 0.11914178901328186, 0.12900472990518286, 0.1328299646833349, 0.12984614038639075, 0.12181290342423422, 0.12509765881283955, 0.12876735949480672, 0.1308489055310654, 0.13197173947117405, 0.13224020305824877, 0.13825172644550748, 0.15117100633619038, 0.15719453245636997, 0.14817428878607766, 0.14208061325427238, 0.13613143419690796, 0.132162350849418, 0.1320858965588718, 0.137181150500767, 0.1390587314768745, 0.13968956920883088, 0.13732672051909472, 0.1297263618592483, 0.12452141909136087, 0.1255840951412317, 0.1312655149939377, 0.13340588237760248, 0.13503790538225266, 0.13468451443077553, 0.133909415159282, 0.13411467551956172, 0.13408631674620833, 0.1335888637437667, 0.13284893126891836, 0.13884927354407872, 0.14745781813127762, 0.1545585143899094, 0.14714865370066132, 0.13886612515675278, 0.13290575692143422, 0.1266213282748074, 0.13041802845698755, 0.13416301796719177, 0.1405352266216874, 0.13933473835816385, 0.13688880096420178, 0.13257014496504255, 0.12755905487466535, 0.12444873956172754, 0.12427366718296941, 0.13296486566351076, 0.1349587583838761, 0.1344530355821096, 0.13379604228983508, 0.13531624070547194, 0.13434977486182595, 0.13393476048714273, 0.1338766439312686, 0.1383544553196556, 0.14612062691276037, 0.1512521622923952, 0.14381422130198562, 0.1363622125785663, 0.13222818880364248, 0.12441198718068697, 0.12742522693609776, 0.13730305466352968, 0.13988220406206756, 0.14099312611759965, 0.1357929755101476, 0.12906685959057299, 0.12252208310024394, 0.12515032456010688, 0.12839356884984596, 0.12885612551259187, 0.13430369033799272, 0.14184566481823516, 0.13479457154684357, 0.1388786416158653, 0.13535890458199595, 0.1343250705674701, 0.13390731606995768, 0.13809730567409587, 0.14532422424333002, 0.15203634769049126, 0.14370020897307234, 0.13664756661741498, 0.13443020975421252, 0.13368932289947025, 0.13285371461095452, 0.13455009024003334, 0.13592040711337952, 0.12960088694683766, 0.13065175434605805, 0.11762273672618868, 0.13067233201439774, 0.13343548539733188, 0.13451820189955208, 0.1342138812022117, 0.13407582306764845, 0.1350728370264952, 0.1336465271220021, 0.13469286217911305, 0.1355427076259764, 0.13454988832360185, 0.13536661663476726, 0.13947013350466744, 0.14719075602227374, 0.15634088850278174, 0.14388257690062545, 0.1376502055270886, 0.13538641624349956, 0.1334773417963412, 0.13315742955762042, 0.13546432155849567, 0.13618761872233792, 0.13484650633428527, 0.13243620645408982, 0.1308834535534043, 0.13022131451917288, 0.11484794574938895, 0.13034512231422576, 0.13454002703309995, 0.13505745910608935, 0.13288579042932339, 0.13631496045228098, 0.13510143031518995, 0.13581647201530117, 0.13434088570698358, 0.1341569993115665, 0.13714443264788348, 0.14145493090195146, 0.1572817138551659, 0.1399921541446584, 0.13843339696408133, 0.13598836098907158, 0.13439065603165945, 0.13453581145392382, 0.13601180591123477, 0.1357809241288194, 0.1339113427263288, 0.12969133646488928, 0.13203044584044102, 0.1301600764935677, 0.1169445779449259, 0.1314089006350959, 0.13375044078757223, 0.13404258857610665, 0.13526867671991188, 0.13420641610968195, 0.13458888952474962, 0.13587657536912148, 0.13495307183224226, 0.13499095444403766, 0.13537111524431164, 0.1356110905487452, 0.1404128516236641, 0.1455484217733554, 0.14266841925676352, 0.1347490892298482, 0.13590345425576214, 0.13670562895404806, 0.13441111867576094, 0.13471515278857757, 0.1342467266271614, 0.13411846146758394, 0.13368072493780242, 0.13339136034370955, 0.11879605883036824, 0.13140544039608257, 0.13302363793592734, 0.13158500478361937, 0.13380029564330062, 0.13369030101108173, 0.1347953330043114, 0.134316117338611, 0.1346557900629536, 0.13475809731472357, 0.13527162463081485, 0.13534550505472073, 0.14745984505402698, 0.13892024277912318, 0.14155873676062228, 0.1416295028561839, 0.1393046275114664, 0.13541010581012175, 0.13595744784455563, 0.13145035936391447, 0.13308011542048306, 0.13197505156704328, 0.1295389335985365, 0.12387022141566657, 0.12475138815472199, 0.13108625991378253, 0.13330008921013106, 0.1360825296897106, 0.13680570132591527, 0.13304212415174407, 0.13450859617446767, 0.13335201602401991, 0.1334361773379599, 0.1331403455520281, 0.13409408557918143, 0.13770256975752068, 0.14664020618119872, 0.14132863073299998, 0.1408046480651177, 0.13501274091144233, 0.13705169795108496, 0.14379240931884332, 0.1401470788118884, 0.1432474728295117, 0.13802044922102638, 0.13357907183753023, 0.13008266953183922, 0.12007783441846835, 0.1237794112061028, 0.13152272913510252, 0.1352922484622591, 0.13664397286798272, 0.13574128413066588, 0.13476327486181666, 0.13406013572121742, 0.13535490413211776, 0.1347899998786322, 0.13435902175633577, 0.13755013962961857, 0.14997119683106394, 0.1449590880222541, 0.14703638458107726, 0.142996295937412, 0.1331630143728695, 0.12687086679731438, 0.12702287867009354, 0.13424923123978974, 0.13903649691124045, 0.13814955581855495, 0.13697414223145546, 0.12993264582251837, 0.12385348773584155, 0.12923145221642776, 0.13504840526014258, 0.13339485646942897, 0.13443489055377808, 0.13454491965260476, 0.13355329882050138, 0.13431780957755432, 0.136969076917001, 0.13496713041314914, 0.13503505656375311, 0.13857834855980256, 0.14482053834949435, 0.15406310745565002, 0.14067337553372972, 0.1373666727298102, 0.13433812820616836, 0.13387210842173095, 0.13364805910163297, 0.13557508932296083, 0.1349627335852605, 0.1343533232065646, 0.1320972510273688, 0.11633667453717995, 0.12688764202086097, 0.13295211778867191, 0.13431418596943703, 0.13447638398747688, 0.13466737137655166, 0.13508056901039686, 0.1354108120268463, 0.13429786003345742, 0.13498482603547457, 0.13490301458463808, 0.13439683466492122, 0.13587080751153344, 0.14193682644120095, 0.1499669191127662, 0.14721860016991392, 0.14005076021410187, 0.13760898930944734, 0.13536997119404678, 0.13428122368008424, 0.13578970786275268, 0.13636244207188955, 0.13568034833134873, 0.1344804433954736, 0.13121587483525024, 0.1291670261680261, 0.11441569749764464, 0.12936212922030113, 0.13353420886026182, 0.13416646086795156, 0.13407465552601283, 0.13498037284843764, 0.13510854109730752, 0.13499705829627218, 0.13508677873516822, 0.13468671034112656, 0.13612924548117813, 0.13982946231303325, 0.15350440855313705, 0.14537465970458824, 0.13841071806252545, 0.13426547931787483, 0.13868166908266125, 0.13412460387182787, 0.13523374401553057, 0.13295713534102205, 0.13738940123660062, 0.13326830597187858, 0.12174742282810506, 0.12001089025404081, 0.12667526314831815, 0.13355112982491638, 0.13429008102472695, 0.13559737408407704, 0.1351338095820836, 0.13495787353194474, 0.13400990482218758, 0.13395984644594316, 0.13367725917558185, 0.1345490889578713, 0.13496546717863156, 0.13544822563410733, 0.1426095834696971, 0.13588585788448557, 0.14111069912280302, 0.136228588547372, 0.1416837643218669, 0.1342231815264783, 0.13951658632962347, 0.13915982662684165, 0.13664718339616563, 0.12887402884006505, 0.13114778766211613, 0.12983518544292838, 0.12637579336380336, 0.13627482376876973, 0.1350242323857317, 0.13457796843751405, 0.13398462276685896, 0.13342806923425868, 0.13503280796363581, 0.13423392482242555, 0.1340379256140433, 0.13370603804973333, 0.13703857706767333, 0.14673621819847227, 0.1504086306571962, 0.14786837320390187, 0.14100608217613556, 0.13704742942408013, 0.13204079545572356, 0.13271177475068616, 0.13690436267479517, 0.1390222449070209, 0.1369945364372933, 0.1315986460232815, 0.12922374743954826, 0.1167296684660864, 0.12293013639923613, 0.1302315002141486, 0.13310346260690184, 0.1345222124928079, 0.1344723614585878, 0.13602673641576957, 0.1327195384163562, 0.13486205476370403, 0.13497293822845002, 0.1375651367580731, 0.13951196897244036, 0.1474975056486281, 0.15219391970415821, 0.15208823531835194, 0.13863016130844993, 0.13569579412879504, 0.13376961672081353, 0.13326231617047116, 0.13528951137728296, 0.13595586972779514, 0.13658670487345134, 0.13492075619710645, 0.13003208496431054, 0.12508247439631787, 0.11686994904617558, 0.13037533582577124, 0.13415271911523818, 0.1352075266440145, 0.13617427181721006, 0.13470560343438007, 0.13431180811880974, 0.13376169153097364, 0.13447367833066995, 0.13463871492462662, 0.13527991407047252, 0.1397130931464417, 0.14164545476903365, 0.1398420875761129, 0.1382175855242018, 0.1448767542390175, 0.1413190326150985, 0.1376442020284732, 0.13553117819567026, 0.13660571617022818, 0.1358319298969253, 0.13421621002130063, 0.1315761600269, 0.11422847030063556, 0.12817761036665806, 0.1336489451943981, 0.1344817458879761, 0.1351985138364292, 0.13516340886984068, 0.13566858605896825, 0.13509891522330866, 0.13516090000339162, 0.135079307714792, 0.13456923166628926, 0.13682248880163286, 0.14098239344202346, 0.14601606610129828, 0.1514811985999974, 0.13907693756921194, 0.13620990064180696, 0.13313778196715914, 0.13255806765961312, 0.13553101871557335, 0.13633287895430504, 0.1363942699716434, 0.13418647082257604, 0.130769715116176, 0.12831856790143537, 0.11760102776282988, 0.13183862615140077, 0.1340389618092841, 0.13429604004821785, 0.13294371833814111, 0.13323646467716532, 0.1347012801512937, 0.13503077029882884, 0.13570717369836394, 0.1360296320879905, 0.13550415851028957, 0.1391937341380973, 0.15101791841483056, 0.1483198862975085, 0.13927063087018798, 0.13748383236535322, 0.1356774077641105, 0.13555787858367893, 0.13509643033876742, 0.13518933730889135, 0.13420758217028791, 0.13247421885211852, 0.13200388544949762, 0.12966105457257968, 0.11370537786584335, 0.13131643721158953, 0.13395035390901486, 0.13461584982964733, 0.13461832780683586, 0.13473153482313763, 0.134935682558701, 0.13481424872648462, 0.13363878305368046, 0.13373550667664327, 0.13842053852383565, 0.14463975390022904, 0.15716828151348497, 0.14559717125866664, 0.1379160733312225, 0.13543099769440103, 0.13270231238404404, 0.13243318179709143, 0.13518976122373466, 0.1367855259514779, 0.13643510348869095, 0.1343396637704465, 0.1309433637571449, 0.12773408855461985, 0.11552657412875418, 0.12979466748918145, 0.13349507781575762, 0.134239559253451, 0.13383247987363103, 0.13364883624501347, 0.1340219331445137, 0.1343054329042244, 0.13443917465717478, 0.13456202566428566, 0.13916679596466308, 0.14603243820873893, 0.1578453894122671, 0.14415501536955636, 0.13754653806656889, 0.13480372381029146, 0.13253863421441733, 0.13285259869503785, 0.13519718459555627, 0.13640963682076604, 0.13631782414772478, 0.13504732159536362, 0.13075266869719443, 0.12908402714843087, 0.12883017302921912, 0.13185417601208677, 0.11937397489720952, 0.1317113919772707, 0.13361467291750118, 0.13415878033530892, 0.13552393087741876, 0.13497012525290694, 0.13441883538854113, 0.13451788309823745, 0.13539117419849436, 0.13661388104726468, 0.14201458267379907, 0.1375158260992125, 0.14447610323039825, 0.14668970948556323, 0.13670765597577406, 0.1362745996094225, 0.13599373971297965, 0.13550249769210057, 0.1338786149381186, 0.1318418251416559, 0.1315484986498414, 0.11928945021623279, 0.12644573374658477, 0.13425223148402168, 0.134441930369613, 0.1349312084691721, 0.13545183108569345, 0.13537553367124863, 0.13606034562747313, 0.13609984986598073, 0.13565994977954862, 0.1351873456095907, 0.1379398589063426, 0.1507029743752372, 0.15108887686914327, 0.14133685671466448, 0.1379593563015862, 0.1349200858581424, 0.13239346063010407, 0.13267813382468596, 0.13512681656391104, 0.13569051789988343, 0.1361407345330781, 0.13295039513578608, 0.1282781105297716, 0.12970583616637513, 0.11695119885686271, 0.13099656695483, 0.1334489091379768, 0.13275981341349327, 0.1338394282422455, 0.13477717471627293, 0.13500642418004252, 0.13439602170185258, 0.13487424793156513, 0.1350170319549416, 0.1372031285931791, 0.14498409831556125, 0.15579363029814214, 0.14009836080853896, 0.13732418520817768, 0.13473088788988974, 0.13224429070743962, 0.13287174257179993, 0.13519595067546075, 0.1360963885146505, 0.1360580255191718, 0.1342579804310122, 0.13080644265283622, 0.12795316027776313, 0.1321232267071884, 0.13366882702834537, 0.1326478748386778, 0.12618857565581312, 0.12622628747991751, 0.13518283567941378, 0.146957490226403, 0.13192760003171472, 0.1263431399297485, 0.13084061898569013, 0.13480864180575486, 0.13986133331552872, 0.1501582919692393, 0.1320815624851391, 0.15137287956311865, 0.1388357844963992, 0.13373390600844062, 0.1346277450224986, 0.13544623737991787, 0.13524790989623242, 0.13290967189304947, 0.13059565438548795, 0.12131237983679898, 0.12431107405445256, 0.13268591872035476, 0.13371989587085634, 0.13449120101350834, 0.1338492757245933, 0.1332688376947413, 0.13445439552412047, 0.13356211352704175, 0.13476260082450303, 0.13434827683849968, 0.13416265163554547, 0.13837502722332778, 0.14546627721121194, 0.1563205520968203, 0.14780271330085262, 0.13800153638210771, 0.1351403585850588, 0.1337672268561734, 0.13241168100525572, 0.13378593045078177, 0.13019247724599894, 0.13226131314213763, 0.12544330719318816, 0.12370523187980696, 0.12990966781424054, 0.12896852782314835, 0.13451261843647647, 0.13585255595186005, 0.13712983072655835, 0.13397160982099868, 0.1345806399812701, 0.13523487461602998, 0.13523340048377167, 0.13396153154133714, 0.13764466854030485, 0.13484490372138155, 0.13533107400896233, 0.14606490144764486, 0.14015291489666443, 0.14523433027619956, 0.13612850463385087, 0.12896475330687324, 0.13864826779151007, 0.14218927224329359, 0.1386774179969256, 0.138179544026601, 0.135245423483792, 0.13163976625918758, 0.1186215444935919, 0.12220138555824585, 0.13347339899156674, 0.1346560650395311, 0.13548669260309562, 0.13456274803299959, 0.13487054330296971, 0.13506587902405473, 0.13527243549529172, 0.13532036902061986, 0.13577143887248766, 0.13825990071471905, 0.1436693455028084, 0.15818420742684292, 0.14494441106079872, 0.13837071110118765, 0.13528525489722756, 0.13263800226741992, 0.13414606980675658, 0.13580049540117592, 0.13598385827470577, 0.1357765174826793, 0.1340317291365706, 0.13104111773502744, 0.1287345256126562, 0.11663824390055931, 0.12798085262089673, 0.1334430125618136, 0.13424491700726032, 0.13534928757450151, 0.134484675700467, 0.13473336982476916, 0.1347669138472323, 0.13503747870228122, 0.13485472527028783, 0.13813657763323492, 0.1438273599860446, 0.1593411014324473, 0.14005132641076382, 0.13794942451388073, 0.13409238590024744, 0.1320945038288807, 0.13316125471326307, 0.13534851460759204, 0.13630456637244662, 0.13649618896718438, 0.13481545792211427, 0.13143428758685813, 0.12783013632326876, 0.11901888455223784, 0.12596263204313426, 0.13358799551038258, 0.13480460082887746, 0.1345314245872217, 0.1337310063006796, 0.13377395229552944, 0.1350726753351226, 0.1354942171513567, 0.13517142755356795, 0.1366532319761066, 0.1437468403541964, 0.1579239251980976, 0.1402304706594438, 0.1394067751398029, 0.13671940782048833, 0.13397213616466033, 0.13409005488770234, 0.13568954698774774, 0.13588204626906478, 0.13475730214543832, 0.13231096945509346, 0.13049906178316084, 0.13072890814157362, 0.12908075240540365, 0.12526479092857273, 0.12633108273969673, 0.13476486605437962, 0.1350339430274441, 0.13443767965241957, 0.13454201012507616, 0.13497769536439527, 0.13437352392160953, 0.13451406360501092, 0.1360864629616194, 0.1361381199958456, 0.13541531382551478, 0.13327432750484783, 0.14225478425936913, 0.14836099890510968, 0.14252575910566756, 0.13602523417550072, 0.13597808699355649, 0.13627684247031346, 0.13643108966806042, 0.13424486057093013, 0.1312699867297953, 0.12158161360800546, 0.12404315903739832, 0.13339980618074043, 0.133590239728666, 0.1337299992220504, 0.1342342017542729, 0.13450196023970054, 0.13467681749977933, 0.1342543919117091, 0.13490307058591858, 0.1345479439536681, 0.1367481030034389, 0.14015973893203001, 0.13983298008403186, 0.14710024367739674, 0.14573190674331252, 0.1372720273963355, 0.1365035235261455, 0.13465044930062633, 0.1348173192020303, 0.13590832705905956, 0.1322088618617104, 0.1349559892991102, 0.1280841738509609, 0.11771675997416316, 0.13355760246740642, 0.13376698152831834, 0.13358813801906289, 0.13313286417070191, 0.13437375646694258, 0.13543067844423723, 0.13565183477755807, 0.13426968188631802, 0.1339869314166127, 0.13498338730950618, 0.13434818311710764, 0.13651001101319052, 0.1422606005401456, 0.1373886131282306, 0.13711139218879634, 0.13641923217580484, 0.13580994188016898, 0.13539058107885285, 0.13477607618623835, 0.13432318592924783, 0.13539928444191654, 0.13401570556427722, 0.13305338797339192, 0.13306901743525662, 0.12917064530929281, 0.13462124946745935, 0.13408275989633725, 0.1349939733572416, 0.13479162383236765, 0.13493218410967422, 0.13571019244955243, 0.13557937357942793, 0.13480156022854803, 0.1354400966100199, 0.13860437728682476, 0.14596230706655058, 0.1588060671294067, 0.14457350887812406, 0.13888801996705788, 0.13564324129530367, 0.13342912944553428, 0.13268967030028922, 0.13430460664633717, 0.13543750208398772, 0.13638175070351624, 0.13388700395646766, 0.13072559399264377, 0.12696756299445308, 0.11647007123093626, 0.12982946759956882, 0.13315997250071585, 0.13459245814945678, 0.13472615239605842, 0.1339756078598009, 0.13485488030972376, 0.13460833816270093, 0.13428746897513097, 0.13494766194003513, 0.1378993727758069, 0.14600940757392902, 0.1592190903865122, 0.1426158077408211, 0.13868729041829675, 0.1353903029734158, 0.13285410748517046, 0.13226850358602368, 0.13508977488246998, 0.13618314723319064, 0.13558250909194847, 0.13362631132083558, 0.1312097804309625, 0.12876620264137018, 0.12128978800293506, 0.12468987708462576, 0.13333951258788576, 0.1336054811859379, 0.13378100342904808, 0.13528107109976534, 0.13512460544160573, 0.13418572476246798, 0.13546101004906955, 0.13520226050766557, 0.1357975591363665, 0.1385419426963886, 0.15423761632517188, 0.14213030393657933, 0.13691544736996822, 0.13626248546196296, 0.1348512365994681, 0.1349038345843012, 0.13350424839413952, 0.1332007858873052, 0.13395593540839085, 0.13355073563562136, 0.13313715990027616, 0.13321119778774793, 0.11768564661400316, 0.1315802104037256, 0.1341745832875831, 0.13526218711475513, 0.13474950224723792, 0.13441944162190067, 0.1349471974364047, 0.1351358268190573, 0.13481390468407103, 0.1345507906313019, 0.135067298055447, 0.13891115796195916, 0.15547857785109911, 0.14091786088509717, 0.13663199357641412, 0.13501506189829574, 0.1340674247531971, 0.13478181668109424, 0.13462109108364886, 0.13389498169203454, 0.12553658959028, 0.12696451485672536, 0.13948304872533998, 0.1364088187688325, 0.12998264742572246, 0.12270726861290487, 0.13229207725670047, 0.13563377607773616, 0.13446122559008922, 0.1329086226602553, 0.13654977211447455, 0.1357280047374606, 0.13514860878007262, 0.13398512554939626, 0.13451366892202762, 0.13778149915754637, 0.14590514886622338, 0.1398611082819618, 0.14447665787808606, 0.13586849999416964, 0.12775996840644022, 0.1349619677408098, 0.1296534879149087, 0.13353625972353989, 0.13655938127780784, 0.13124435196479103, 0.13192729328522715, 0.13241346199301116, 0.13656130093715868, 0.13427911178991797, 0.13465599763594258, 0.13483605519729822, 0.13473519683543775, 0.1355915864914874, 0.13385407387740947, 0.13337026978194658, 0.13463166651999364, 0.1349416568887573, 0.1373565705878678, 0.14591027499517042, 0.14826623385475188, 0.14862522415658994, 0.14192536783181137, 0.13617951415081966, 0.13332630050597868, 0.13122915566722873, 0.1344663571392733, 0.13652287061243898, 0.13658821390608014, 0.13250941955877124, 0.1206082053463282, 0.11879459136589936, 0.13236460086986568, 0.1294289181041606, 0.13488480812643244, 0.13360876862073898, 0.13380020069880638, 0.13371674908443493, 0.1366729595657913, 0.13775312257164926, 0.1359702949522107, 0.1341785166658567, 0.13495757044531645, 0.14002960508702136, 0.15192103720727765, 0.14739189509865272, 0.14631026715023002, 0.1432166140033334, 0.13598082719804422, 0.1327639646375228, 0.13430345888935286, 0.13648738842615823, 0.1371491427191795, 0.13347016155248176, 0.12740658214607017, 0.12407347801883668, 0.1189230436550807, 0.13224587162956353, 0.13361036866471723, 0.13407111353003398, 0.13478154732794134, 0.13489320959479792, 0.1353377490357929, 0.1345704533867193, 0.13429208645768928, 0.13512893268556478, 0.1370492115990637, 0.1453954099066462, 0.15930048681537443, 0.146771227735147, 0.13857341260077222, 0.13523655634941634, 0.13323843446927722, 0.13221611373252565, 0.13453912385261058, 0.13575845700890837, 0.1360054133730769, 0.13435798912795197, 0.13084765636789583, 0.12861092337172286, 0.12160202813772558, 0.12464440939402076, 0.13384234106421986, 0.1338451892634648, 0.1343413340144185, 0.134467925195794, 0.13423282389778604, 0.13458683266297136, 0.13423072511526854, 0.13389472369791053, 0.13727154964464158, 0.14358443494298925, 0.15796234415445046, 0.13972963102533617, 0.1392516402952867, 0.13720136663618018, 0.13487487216129104, 0.13351057340737815, 0.13502672150233966, 0.13526791553040488, 0.13367263923608422, 0.13218055781052593, 0.13054842052996293, 0.130566013044608, 0.12598202476405038, 0.12225257322401474, 0.1335802571397989, 0.13508492044559292, 0.13501860713920258, 0.13323987162208437, 0.1343563943927864, 0.13495804569396522, 0.13357475070959993, 0.13285064038433306, 0.1360200076131901, 0.13492726117615306, 0.14308149422613936, 0.13466765750596435, 0.1393955348687031, 0.13946186655454085, 0.1436211994017029, 0.1396252166321884, 0.12677875017915483, 0.1289062816555647, 0.13833354460735567, 0.13981906886274345, 0.143064149021598, 0.12977522303339328, 0.11804881926332907, 0.13130670992137716, 0.13425676878233445, 0.13440004350743892, 0.13330007890412476, 0.13148875160818477, 0.13312518560259204, 0.13517719508206297, 0.1337297155395193, 0.1315865346136528, 0.13211462306777136, 0.14414744680839872, 0.1543467188419974, 0.15083816053429103, 0.1429071430652914, 0.13599390155494837, 0.1297151670920852, 0.1285862000008107, 0.13426172472658743, 0.13790722772049535, 0.13767273098393254, 0.13502604477838168, 0.12866637245477827, 0.12388890009178283, 0.12202324225637752, 0.13158337998130795, 0.13293876256318746, 0.133002479685405, 0.13246821434199052, 0.1329294223409081, 0.13408340030362986, 0.13371603564633702, 0.1346260825509759, 0.1357393781001605, 0.13674295116556026, 0.13908923777559667, 0.14255584438149507, 0.14297238984550878, 0.13970355473242776, 0.1375396766766876, 0.13499439536430666, 0.13228694953831624, 0.13279039323626735, 0.1314138295741529, 0.13354604225216485, 0.131997040020888, 0.13057025477729603, 0.1319302374162065, 0.13401171669772952, 0.13519143699694447, 0.13647666751513934, 0.13752224202057087, 0.13692482701456785, 0.13582926110898455, 0.13467608799816538, 0.135522313049672, 0.13532248180289294, 0.13615764873157762, 0.13567746524958677, 0.1389249907580468, 0.1426836569542059, 0.14725392220299038, 0.14604545816444692, 0.1357620929010556, 0.13499196386960777, 0.13512857125610722, 0.13557303770980011, 0.13574987698010862, 0.1349376181926423, 0.1327611626300409, 0.1302111589946933, 0.11901223779954555, 0.12823628328610173, 0.1339066030247322, 0.13469149281246262, 0.13492599003370476, 0.13440528576992858, 0.13503050371268932, 0.1330306800252338, 0.135819642513201, 0.13374275150528916, 0.13489640681382245, 0.1366667048042637, 0.14488405268908153, 0.15885458037364808, 0.14167787991928635, 0.1382481649546165, 0.13542176636950884, 0.13281212165039677, 0.1326975822398257, 0.1356359356379561, 0.13516601520840701, 0.13405012919162682, 0.13126455031707557, 0.12744654075285733, 0.11928782557088996, 0.1229151673517519, 0.13295940674847753, 0.13604559251148435, 0.1312046117631218, 0.13708852131861735, 0.13452304150235686, 0.1342845370851424, 0.13593092124453138, 0.1351895031048213, 0.13445721719535528, 0.13606071733548944, 0.13732206738940722, 0.1451570877801319, 0.1410167984017884, 0.136620930437233, 0.13423159216249442, 0.13427336228511744, 0.1404966034694975, 0.14006551041166573, 0.14011928112708136, 0.13541873103500765, 0.13360574765775857, 0.12596720343299397, 0.123579727580807, 0.1266750479611379, 0.13174879453821606, 0.13296607664490442, 0.13419365115215756, 0.13447384623980044, 0.13514167961561363, 0.13518619109592434, 0.1350144910123677, 0.13369513857868293, 0.13320266707841422, 0.1350335039241846, 0.14710584984117195, 0.15769256215248026, 0.15240392854383863, 0.14269396463176512, 0.13667190505272442, 0.13379078304101763, 0.1328488346722475, 0.13502265419468798, 0.13475148953115956, 0.13371475602443386, 0.13242905451764686, 0.13046631238729278, 0.1308196845657556, 0.11654204942600908, 0.1305419508029014, 0.13414488133891192, 0.13419011484094476, 0.13442324783602336, 0.13557773382078217, 0.134706021097727, 0.13386263273424856, 0.13452493040442828, 0.134652835703822, 0.13587641401542064, 0.14101084094774788, 0.15976110344397795, 0.14337576837543994, 0.1397834931321711, 0.13654525704245138, 0.13373319807561299, 0.13316451105026325, 0.13490702087674097, 0.13526806412363912, 0.13394595974753926, 0.131725782300112, 0.13035576086552492, 0.13039572744529818, 0.1259583017839183, 0.12153808804046007, 0.13343565854924974, 0.13442425488896897, 0.13450796145508148, 0.1341677815880954, 0.13434842515318207, 0.134569562176174, 0.13474635059858264, 0.13468162472365888, 0.13606988572194745, 0.14365294946757265, 0.15997113834709942, 0.1430594728383153, 0.13941091440517464, 0.13571258979878784, 0.13284230885712803, 0.13292074096079728, 0.13525410806914293, 0.13549429208420094, 0.1351134606990048, 0.13157566110670213, 0.12976853554704273, 0.13088426386336774, 0.12954775407022615, 0.12971684673975634, 0.12207363368155767, 0.13390693756638275, 0.13481213046637597, 0.13491130204299193, 0.13336528029916425, 0.13609152237764066, 0.13488529692612328, 0.13446760826725912, 0.13397710685485562, 0.13757771832892743, 0.14318728536106903, 0.1542683368029308, 0.13872005537400187, 0.13722556292934251, 0.13483425490951192, 0.1312695309202901, 0.13408328496592156, 0.13424077268867193, 0.13654891169615335, 0.13204250033299844, 0.13076538333484009, 0.11565320720951966, 0.1309931866062414, 0.13503905792635604, 0.13438736548823763, 0.13445351965358096, 0.13558925097503297, 0.13470772883887266, 0.1347262171640529, 0.1352481615967525, 0.13433050077518718, 0.13388327785032825, 0.13534164709901136, 0.14577916775352487, 0.15631827753443772, 0.14367793662826664, 0.13889077979057277, 0.13581256218391102, 0.13310578540588844, 0.1317775435474651, 0.13395677907278264, 0.13586138252510657, 0.13548226400073768, 0.1334962709042973, 0.12990571254307895, 0.12859424207152986, 0.12979861347636773, 0.12186642647136309, 0.13287924062631426, 0.13373318559704686, 0.1347449754330581, 0.1338674032974689, 0.1341666839516853, 0.13538786885051102, 0.13517261016701507, 0.1347164789025617, 0.13483254661689412, 0.1451679450024818, 0.16199968030708564, 0.1418030086636536, 0.1392020603672441, 0.13551795993547486, 0.13267053815920055, 0.13206824081293836, 0.1339760032967593, 0.13602137659473412, 0.13569723385457655, 0.1334376352557206, 0.12976243606835144, 0.12929646965363742, 0.12940886975716342, 0.13215171517502566, 0.12647506725275684, 0.12579481670389195, 0.13455865386793328, 0.1339496368438599, 0.13387443194785617, 0.13455887292701885, 0.13488202408244346, 0.13474001204271188, 0.13515663791486657, 0.14297002667421968, 0.16064918269730008, 0.14127935194573704, 0.14061273446421446, 0.13628941073327985, 0.13293465587685013, 0.13302581420408496, 0.13501775483225872, 0.13424152813039994, 0.13257072814665083, 0.12934046151027984, 0.1307769202408248, 0.1307984056078382, 0.11701478453157248, 0.13156433954475175, 0.13390477463060904, 0.13429537269558783, 0.1359543564414475, 0.13421643080416618, 0.135316154343278, 0.13499197949258976, 0.1357284428253345, 0.1347970932728045, 0.13399888760692194, 0.136482519548471, 0.15179238044368168, 0.13849862187070572, 0.13919529679766995, 0.13959075789702705, 0.13711254431758216, 0.1343779651002851, 0.13294534258980817, 0.1309364057979264, 0.1332943322094233, 0.13354332341109057, 0.12223255092221685, 0.1284616693596526, 0.12840005861565115, 0.13517230533572486, 0.13249821170515494, 0.1347721577489874, 0.1326298512522841, 0.1335491581026513, 0.13474738593505944, 0.13404393377994325, 0.13232789738354153, 0.13378525481515804, 0.1329649371228018, 0.1350742455113725, 0.14712483091789472, 0.1448413079962735, 0.14457121049473423, 0.1416576674978226, 0.14202887024172176, 0.13702868015143652, 0.13478456649600282, 0.12541913618271566, 0.1316496216473908, 0.13055601354392846, 0.13052970573981107, 0.13067585806015866, 0.13058787388724824, 0.13193446496049463, 0.1320315999331633, 0</t>
-  </si>
-  <si>
-    <t>[0.25780464001245296, 0.25612094618645925, 0.256581078485863, 0.25736387449097803, 0.2577343617598115, 0.25995539133890033, 0.2625477154692062, 0.26788644116276966, 0.26961879605389755, 0.27274363593922507, 0.2595123347511726, 0.2551941694902839, 0.25642967649210296, 0.25849417644895545, 0.259574085492573, 0.259128115119262, 0.25733230332942875, 0.25368512246293556, 0.24970595446765928, 0.23717192184032135, 0.25244653690932656, 0.25641752305146087, 0.25726634733011333, 0.2560805161114616, 0.25673927652477796, 0.2579943457517593, 0.2578811681325066, 0.25735606094762914, 0.2567290240250962, 0.2620870815588939, 0.2697187752738297, 0.282285316721195, 0.2629077293390354, 0.258462419336642, 0.2534094531378693, 0.24957040977827627, 0.25301879409864725, 0.25898263512140307, 0.2606916923055554, 0.25747441283076594, 0.252872214474206, 0.2531409328609711, 0.2541523880504087, 0.2530954624036336, 0.2549053731277405, 0.25375990798908715, 0.25182558525316173, 0.25231290492477026, 0.25916067397324594, 0.2571931106303259, 0.25743361197505404, 0.2580500478213579, 0.25706937770139154, 0.2568785701326029, 0.26202013098815585, 0.26989463652414875, 0.267038255764184, 0.2671438070936782, 0.26376231565526764, 0.2591588880311209, 0.2551205215151436, 0.25583098146567407, 0.25341670379424025, 0.2559379738092033, 0.2548641560780746, 0.24501926551785455, 0.25370980101209367, 0.24956106385288876, 0.25632915504728293, 0.2576763263567886, 0.2576951827903791, 0.25895869701838403, 0.2578435565580081, 0.25753455289661226, 0.2576690526035245, 0.2579713717243177, 0.2582040270738629, 0.26074433135524405, 0.2632138020514533, 0.27452883619006846, 0.26786681420102765, 0.2625866009404898, 0.25943619598744777, 0.2565013818180301, 0.25715467201991354, 0.25955190110909937, 0.25505441496899245, 0.2595183451935856, 0.2541841411009918, 0.2505945024908889, 0.25502605222621727, 0.23770302455913403, 0.25104943425862936, 0.2554217044012472, 0.25621071462269773, 0.25595436372796887, 0.2574643521343831, 0.25772807611133053, 0.2581923567695264, 0.25716890586477714, 0.2571551201704106, 0.2619279839902779, 0.26985409888248285, 0.26779023621050607, 0.27294337056704515, 0.26083785569759593, 0.25690764065323984, 0.2558432114571473, 0.2562632951168603, 0.2584295621114285, 0.25819318519842815, 0.25655970210473406, 0.2551761891758005, 0.23637843616061524, 0.2512856105938588, 0.25436831734872795, 0.25778945145347737, 0.2573189821451695, 0.257275770555356, 0.2574377441893199, 0.25744936305577204, 0.25719607536676053, 0.256513803382165, 0.25722866870138866, 0.25746341433686587, 0.2606017400338602, 0.2655688293246025, 0.2666868382624599, 0.273761502866777, 0.26370294372986397, 0.2560273342439637, 0.25418576894519107, 0.2496614672490517, 0.24907428115488395, 0.25378542283186833, 0.2565139614429508, 0.25835851567171936, 0.254391378304767, 0.249853104940944, 0.25136880519182153, 0.2553491113976883, 0.25661809991018564, 0.256165308595198, 0.2557199981449412, 0.25718714998748293, 0.2577641722895118, 0.25677917702024394, 0.2584728465397725, 0.258289484800396, 0.26019479753620206, 0.2666768139728061, 0.279521196090659, 0.272344681193653, 0.2660547254046755, 0.25736395103634085, 0.2548218767727232, 0.25615704725864086, 0.2583963483261985, 0.25934728160825166, 0.25937726756387514, 0.2572931339366732, 0.253021239550739, 0.24692576582149087, 0.23630466697287522, 0.2544979426809026, 0.2555909674130148, 0.2552239401951161, 0.25635194402731093, 0.2567398964823785, 0.25705763240989227, 0.25688731951968086, 0.25647464292386307, 0.2567343984676557, 0.2631098319956602, 0.27322092306448015, 0.2782729701127746, 0.2696729052111146, 0.2593906421930906, 0.2568556632868099, 0.2559145048225182, 0.25752180235342276, 0.2581157840113544, 0.25708743115300065, 0.2574755293078133, 0.25662195924025855, 0.25466533916897266, 0.25106365545631065, 0.24118976645900683, 0.24790098414007403, 0.2584731474434412, 0.2578834965561215, 0.2563733122236579, 0.2557482033953889, 0.25617026297664386, 0.2552927970726561, 0.2563401401168815, 0.25583004885924965, 0.2606214679714417, 0.2693692040911384, 0.2719293682493461, 0.2690243516503197, 0.262557016689495, 0.254811435084159, 0.2487500656040761, 0.2531752508447391, 0.2606569592616575, 0.263360303912719, 0.26224801459626196, 0.25834734875843196, 0.25377892395189905, 0.2510504918518459, 0.24013373187343293, 0.2531716170220688, 0.25546323282749356, 0.25216705140658213, 0.24366434087885783, 0.24717222197642744, 0.25110677254906905, 0.2532192901740462, 0.25436293677100974, 0.2546529791794417, 0.26090433620598064, 0.274408470572316, 0.280894300563805, 0.27116808799065645, 0.26485668678516056, 0.258716719567126, 0.2546345410663017, 0.2545346244341379, 0.2597712286249482, 0.26169908836635164, 0.2623887104983896, 0.2599418743587236, 0.25208342450848104, 0.246791179194186, 0.24809653353381078, 0.2537284970236667, 0.2560279982420271, 0.2575794536079325, 0.25732302521732936, 0.2564723187657137, 0.25646820741426196, 0.25655815975058216, 0.2559493260159936, 0.25522851442966127, 0.2611354400208666, 0.2709026961525361, 0.2776884160640127, 0.2698018522847054, 0.2616677462741496, 0.25522275753297546, 0.2485774170821824, 0.2527675497000588, 0.25661114905049587, 0.263316084413027, 0.2620307073595571, 0.25954968917323595, 0.2550135125947593, 0.2498764882368769, 0.24676148514666352, 0.24695590076951213, 0.2555458158846345, 0.2576080655277518, 0.25705321885104987, 0.2562995072942615, 0.25795861026239175, 0.2568628073854875, 0.2564837989873097, 0.2561820149524445, 0.2609846645018214, 0.26883379778993016, 0.27402659226808534, 0.26670771596541615, 0.25871810563033143, 0.25443740909939755, 0.2463434694632369, 0.24965627400797905, 0.2599625211292806, 0.26261339175395004, 0.2637657936500743, 0.258338010004606, 0.25140883666033603, 0.2447227267514777, 0.24742985634273384, 0.2507305499249283, 0.2512547470480609, 0.25696616822688867, 0.2648289859097512, 0.2572936199443046, 0.2617866616474896, 0.2581607216102481, 0.2568837666550832, 0.2560039413553746, 0.2605528169517644, 0.26807363107500476, 0.2749480874098678, 0.26669606846609173, 0.2590595793769391, 0.2569587763870768, 0.2562336338765658, 0.2553187612939947, 0.257086383916672, 0.25840613331201473, 0.25172409635294074, 0.25055106358498086, 0.2418860706240025, 0.2536309524957328, 0.2560109552389099, 0.25707628755957485, 0.2567474062102451, 0.25639200847990484, 0.25754457491096144, 0.2561413864733623, 0.2575851455275256, 0.25822979915389804, 0.2572095581442277, 0.2579510402423094, 0.2621005910954453, 0.2701670856597793, 0.2793865689144443, 0.2666210947094665, 0.260092056800008, 0.2578399462790628, 0.25596325236027473, 0.2556650316263227, 0.25800053155661506, 0.2587356263498736, 0.257349557192513, 0.2549558631099315, 0.25341839242967723, 0.2527983112563577, 0.23685262355143022, 0.25276732182996253, 0.25712271369573664, 0.25765908315582786, 0.2552992657661228, 0.2590313194692741, 0.25764806602205864, 0.2583313646343695, 0.25683608029490157, 0.2564922664337261, 0.2597875758742052, 0.2640729451043274, 0.28063120023030635, 0.26239047343478056, 0.26085501587694554, 0.2584646794019661, 0.25695992904924714, 0.25710200480484113, 0.2585271823705208, 0.25824671848613606, 0.25637010220747786, 0.25221283559890023, 0.25473783862613153, 0.2527308194455955, 0.23886498801270872, 0.25393125105182374, 0.25636390600962744, 0.2565723286220547, 0.2578150552759349, 0.25670092737201466, 0.25710875610860345, 0.2584867829451079, 0.25704304218713725, 0.25732088989235175, 0.25777107658835813, 0.2579895731930317, 0.2633092453758726, 0.26582282101599347, 0.26840336736796644, 0.2569842973651035, 0.25838769572210385, 0.25925594045826156, 0.2568095243691273, 0.25729425337821366, 0.2568368104739502, 0.25669081471986005, 0.25621012057849746, 0.2558996162608437, 0.2407711079271646, 0.25386156835875, 0.25546258942196043, 0.2538880246402212, 0.25692794171422323, 0.25616263075094764, 0.2573669475330595, 0.2567818565930046, 0.25716722397532554, 0.257252230353686, 0.2577858776833212, 0.25781994844964734, 0.2704436876152643, 0.26132449538833447, 0.26329705342218296, 0.25697857962272286, 0.2571091808564154, 0.2560308809861136, 0.2581450331360727, 0.254287428326524, 0.25686930790164425, 0.2555755957018166, 0.2555180934967585, 0.2556964521175413, 0.24749749514986963, 0.2533194389280953, 0.25564976566181946, 0.2586392954809052, 0.25944078189921976, 0.25542494826166995, 0.2570241055114765, 0.25581237045626354, 0.2559050327279052, 0.2555945385361425, 0.2566131769475594, 0.2603457071831557, 0.2695109009806951, 0.2639989793534091, 0.26395901896256296, 0.2580214304267703, 0.2598643661987888, 0.2666121092165559, 0.2613381344340155, 0.26602113470352456, 0.26080546334697974, 0.25608276081069736, 0.2504026983116144, 0.24465992522419314, 0.24626897913034154, 0.2544779592974404, 0.25778529533534206, 0.2592006393612842, 0.2582821937555371, 0.2572454341821056, 0.2564859946245766, 0.257851061719465, 0.2572450978213339, 0.25679898918540717, 0.26007559493577365, 0.2735811050687409, 0.26834351741362145, 0.26972572540491596, 0.2655277481248038, 0.25537239321711586, 0.2489514879597521, 0.24908827998499752, 0.2567419064418353, 0.2617483353929283, 0.2608235864555892, 0.2596275820751565, 0.25236316059603553, 0.24635876962218936, 0.2519310484133536, 0.25769824825434534, 0.25596133671711235, 0.25705340086571876, 0.25690284537871855, 0.25608115950208826, 0.2570868468240839, 0.2597706958421091, 0.25770915409113976, 0.2577266700269145, 0.26122068062883486, 0.2676294191790765, 0.2750478299545977, 0.2653912206498755, 0.25981002894509414, 0.25681456668201014, 0.25639900888412676, 0.2561806162744536, 0.2581342667915731, 0.25742422206614696, 0.25693381291499484, 0.2546008917149862, 0.23815657963534909, 0.24924852698275982, 0.255489230618474, 0.25688984399658615, 0.2565238471178077, 0.2572213376879287, 0.2576944284722004, 0.2580050462830157, 0.25731994080257964, 0.2576436839219482, 0.2575806360322695, 0.2569079762840502, 0.2583903001587108, 0.26464006201343726, 0.2728629561244583, 0.27003366824845215, 0.26281730767953154, 0.26004298758677163, 0.257821444372553, 0.2567680071590031, 0.25837924237277193, 0.2589636828388086, 0.2582169693917846, 0.2569766176849943, 0.25373467804517097, 0.2516008217011692, 0.23647153823465847, 0.2518108074065188, 0.25607580886504266, 0.25671358751106077, 0.2564047807046151, 0.2574438439699072, 0.2576875417804238, 0.2575573608169344, 0.25764091018616386, 0.2576729950661987, 0.25859754823094444, 0.2625935671971387, 0.27657592389561186, 0.2683238676423125, 0.2608496802106317, 0.256637892062461, 0.2614460679735919, 0.2565805886302556, 0.2577338274281337, 0.25542551064745767, 0.260145817889248, 0.25577427921654755, 0.24384985662809022, 0.24208214651317425, 0.24894382621474595, 0.25615241063346733, 0.2571293148178423, 0.258206044838376, 0.2577196003346856, 0.25752800374063944, 0.2565062391359335, 0.25640505784105433, 0.25608796164928704, 0.2567958065726075, 0.2574125870250071, 0.25790304403841224, 0.2653625029795695, 0.2584829874204657, 0.2639011591087465, 0.25855252390649686, 0.2645177394239644, 0.25660892671479946, 0.26219359211993876, 0.2615695654270189, 0.2590501422021761, 0.2510397778785847, 0.25242140917413475, 0.2539247937867131, 0.2486501784365884, 0.25891095925362567, 0.25799264569318536, 0.2572672611304467, 0.25644946671457, 0.2558053683379726, 0.25747486224761634, 0.25635875939246816, 0.25614618560795704, 0.2559417865903107, 0.2594632395568152, 0.2698537185848043, 0.2742055717210497, 0.27049874358823556, 0.2634784751208628, 0.2594776535013245, 0.2543857911095569, 0.2551547927902298, 0.25953658523838236, 0.26172222732698847, 0.25956505563232635, 0.253943397557393, 0.25160374069049857, 0.2386227686772928, 0.24523635083906617, 0.25305683257989947, 0.25589367102773913, 0.25692642341456434, 0.2569290807588014, 0.25860471723847284, 0.2551352530327627, 0.257348201172494, 0.2574190486154084, 0.2601737498253682, 0.26220021648651426, 0.27105212554627384, 0.27415868254294834, 0.2751629148048877, 0.2630702846452456, 0.2581208527256668, 0.2562529804977573, 0.2557923979269518, 0.25781865682476995, 0.25844745794957635, 0.2590703054088293, 0.2574135099096934, 0.2522245640327002, 0.2472160102524175, 0.23926067547264895, 0.2529029937794834, 0.2567404919026033, 0.25730710986416494, 0.2586527417734204, 0.25722020684797214, 0.25685588535252185, 0.2563971352324617, 0.2570825366152005, 0.25719213786767364, 0.25777849082879495, 0.2623028795349686, 0.26451836927180156, 0.2623793033513637, 0.2606670536821906, 0.26622111114690045, 0.26432272879332747, 0.2616191702510308, 0.2582217289765789, 0.2591384583483025, 0.2582782944950026, 0.256670687160611, 0.25406142353750827, 0.23608366952343332, 0.2505834833432152, 0.2561896067904804, 0.256760103099486, 0.25755714625717224, 0.2576796126080332, 0.2583084814936756, 0.25767242320869993, 0.25772151319840103, 0.25763647241368287, 0.25755032093253355, 0.25940107035171805, 0.2638245007091805, 0.2666604871060138, 0.2767212956445345, 0.2615257524907996, 0.25857959959159654, 0.2556163033526854, 0.25507708500303816, 0.25809543445861993, 0.25887954526686646, 0.2588980974986222, 0.2566918141763859, 0.2532754438018375, 0.24361115262804942, 0.24530299772236544, 0.25600122036458267, 0.2566921442864181, 0.25684439419353006, 0.2552315838401018, 0.25561386970597666, 0.257224868048719, 0.25756762103034614, 0.25829542821797474, 0.25867166746496234, 0.25806339999741557, 0.26179593085311764, 0.274075160346352, 0.2714320413838483, 0.26169391478785764, 0.2598970271699194, 0.2581773086082892, 0.258066483989601, 0.2576312864139208, 0.25772017083353954, 0.2567181013117196, 0.2549775976047723, 0.25456099582713737, 0.25188626129422775, 0.23476676894585768, 0.25488492715113154, 0.2566073842517117, 0.25715725128481964, 0.2566751499603289, 0.25720591212628696, 0.25748359653640923, 0.2573439517528902, 0.25627262528336925, 0.25626674419817247, 0.2610767182354589, 0.2674399982160946, 0.28031120813060567, 0.2683741122829994, 0.26036217254070604, 0.25788692951877246, 0.25519934034487807, 0.25496516956640214, 0.2577517215933386, 0.2593568450970688, 0.2588964096963166, 0.25681591928429653, 0.253481381793399, 0.24997256499596446, 0.23775868083667473, 0.2522942272108664, 0.2560319144952519, 0.2568020708154161, 0.25636078926054007, 0.25592656368463956, 0.2565962258842703, 0.25682923965961846, 0.2571844903040131, 0.25718411543372127, 0.2616012986213412, 0.26885921812352254, 0.2809585941733852, 0.2668523223172931, 0.26000195100694007, 0.257247726752817, 0.255019485945433, 0.2555007406866137, 0.2576921181696423, 0.25887480864798756, 0.25883731476047994, 0.25756956802088044, 0.2532512215682932, 0.25171460972609133, 0.2515057725679756, 0.2544341677988412, 0.24121706033325593, 0.25422099479566246, 0.2560652895653107, 0.2566886877428386, 0.25737950939068577, 0.25742472706402064, 0.2567890836130442, 0.2570233608349957, 0.25793628357181636, 0.2592028156694048, 0.26501334234995405, 0.2599057180639584, 0.26537930412473304, 0.27091787626407327, 0.26002760065667146, 0.25875191792216334, 0.258541047488662, 0.25797721923920064, 0.25634343564602974, 0.25432901789528634, 0.2541029555658611, 0.24116050432546152, 0.24877164501105495, 0.25685604447278243, 0.25699586740955704, 0.2573182832069962, 0.2579741217091614, 0.25784371896658764, 0.2585414849505713, 0.2585705416327743, 0.258098745925515, 0.25771686101924796, 0.260596313741912, 0.27377859767217677, 0.27382879811386024, 0.2637244270420292, 0.2603381924294263, 0.2572703468226108, 0.25481681514711196, 0.25536196699242364, 0.2578003817358618, 0.258194602789622, 0.25865068128928675, 0.2554376682871365, 0.2508000309193373, 0.25230481896355833, 0.2389528097721746, 0.25347394492903697, 0.2559907888687776, 0.2552295964871135, 0.25635330016312596, 0.2572944213159733, 0.2575929104773433, 0.25682119216537513, 0.25728976213004096, 0.2574200392841149, 0.2599736045660162, 0.2678332163392188, 0.2790818644354602, 0.2625209237984276, 0.25976990424137963, 0.257136591914306, 0.25474897638307176, 0.25541332794812205, 0.2577160695230821, 0.2585902025603351, 0.25853761929543656, 0.2567062989879284, 0.253266661411697, 0.2505384001204374, 0.25482929392947024, 0.2563125930079817, 0.25511001768618563, 0.24478016328675853, 0.25175976775129694, 0.257920631229329, 0.26641310079853814, 0.2647827572724312, 0.2557386555364942, 0.254668902806018, 0.2568568045104242, 0.26029432158436877, 0.24904063324031991, 0.2562984925214639, 0.28229888721031476, 0.26219373227581383, 0.25625187747268385, 0.25721487106294494, 0.2580815443451328, 0.2577946591501262, 0.2553885340365172, 0.25311725756111253, 0.24347230876070433, 0.24650229799199777, 0.2552191128059274, 0.25619263110327906, 0.2568649186747406, 0.25628021496659387, 0.2557003195349086, 0.2571218527272931, 0.2561455212826254, 0.2572747293106791, 0.2568418771059375, 0.2566126904575732, 0.2610259137934066, 0.26833657287143137, 0.27944113854260016, 0.2708298225776691, 0.26039665793140127, 0.2575801288656709, 0.2563503470886583, 0.25482980167980446, 0.2560814055858133, 0.2524685447355324, 0.2546290547167861, 0.24490446586685763, 0.24873840123528404, 0.2516530854967497, 0.2508876026080504, 0.25733162220732103, 0.2587276495693268, 0.26039177760492216, 0.2566732403948797, 0.2571080065166514, 0.25779350369345777, 0.2577848639027322, 0.2563922592990506, 0.2604272197223419, 0.25735773624010266, 0.25777683352354436, 0.2689657908820574, 0.2626308732057124, 0.2665137399885744, 0.2592985197196624, 0.25203544810735096, 0.26133535977612865, 0.26478616496804147, 0.26114774406071034, 0.2606691108752086, 0.2576735822023386, 0.2539930671783529, 0.24119620422544616, 0.24457848078218083, 0.25557045783886073, 0.2572476824872225, 0.258331399964332, 0.2577890310455546, 0.2575437769382713, 0.25767406006407306, 0.2578002696253104, 0.2578513682201025, 0.2583592857019767, 0.2609807212616802, 0.26679311871270145, 0.28135718328139164, 0.26762666259913387, 0.2607780575161632, 0.2576913138693657, 0.2551229630163238, 0.2567018090355875, 0.25834270951172145, 0.25847026371792364, 0.2582889542767582, 0.25650333300326256, 0.25357564649852227, 0.2513577933407352, 0.23866925885701784, 0.250318801167617, 0.25600019559569204, 0.2568124884998313, 0.2579660224040305, 0.25700138894289787, 0.2568698846943654, 0.25726516376202685, 0.25754410660213084, 0.2574053280186496, 0.2607927242919303, 0.2665867160399082, 0.28263376933154555, 0.26237693126832273, 0.2603445910886034, 0.2564861162915693, 0.2545827991034633, 0.2556864346498064, 0.2579063645498896, 0.25879245279192387, 0.2590152963880449, 0.2573670053563263, 0.25395801672519247, 0.2503115890234377, 0.23807186916395714, 0.25123231314991185, 0.25637211093932205, 0.25743321462738655, 0.2571007476862964, 0.25623925527851743, 0.2558023281835469, 0.2576345158035718, 0.2580990783826989, 0.25775263786549535, 0.25923050514895524, 0.266562955221107, 0.28117129166096905, 0.2627558421848958, 0.261833562715243, 0.2591071200563054, 0.256422611351089, 0.25660459870768, 0.25817527439913085, 0.2583669753664042, 0.2572517850328999, 0.25489078997017467, 0.25306765277203597, 0.2533378370459399, 0.25172215714603924, 0.24165629932320173, 0.25424518165807153, 0.25757840791062403, 0.25764374333469814, 0.2569593329511819, 0.2570473622736132, 0.25753834178164414, 0.25688892043722095, 0.2570237893506091, 0.2586914250533627, 0.2586806686864332, 0.2578576918508152, 0.2555050720219857, 0.26508159711458296, 0.27119657929615343, 0.26563533540771717, 0.2584952247231738, 0.2584850031049078, 0.258838354202188, 0.25891810181327873, 0.25669294626359523, 0.25376841410297396, 0.24383171416286661, 0.24616681642497854, 0.2559255094772075, 0.2561136096148135, 0.2562278114809825, 0.25677046987339774, 0.25684873856236856, 0.2572104164371838, 0.25680582412016567, 0.2573961384830854, 0.25720573861229445, 0.2593354420185961, 0.262925055623304, 0.2623129807017099, 0.268208747525051, 0.27055934135561216, 0.25971072179478855, 0.2589055218816439, 0.2570481836662168, 0.2572724496791879, 0.25835180664127666, 0.2546572019726538, 0.2581277845451564, 0.24771882877132134, 0.24204678734001459, 0.25658621002847215, 0.25628190833748166, 0.2561181278720199, 0.25556769829744813, 0.25694220504487436, 0.25795388036895306, 0.25819166486110295, 0.25694144655988016, 0.25662310131012767, 0.2575865448238251, 0.25679918898705906, 0.2590388963113707, 0.2649945383718111, 0.25983613086613444, 0.2595887664040455, 0.25888621082632834, 0.2582570781158194, 0.25782952260830777, 0.25723495391816925, 0.25677887852948855, 0.2579351632234129, 0.2565124141763317, 0.2555550441677788, 0.25555528269659983, 0.2513578633116815, 0.2572974442197477, 0.25723453471573393, 0.25753715467924515, 0.25732185459048235, 0.25747900348066516, 0.25830917196245134, 0.25819918435420974, 0.2573374932020452, 0.25801114490149907, 0.26132806078409476, 0.2688708516710707, 0.2819799059726162, 0.26718983127617213, 0.26131262127089355, 0.25806667761084007, 0.2559520772076456, 0.2551797282496184, 0.25683716500362125, 0.25807212322145073, 0.25887682764090025, 0.25636620540663785, 0.253257494311883, 0.24915398334949798, 0.2387870937791722, 0.2523265557889909, 0.25569573114702066, 0.25721965199494234, 0.25723416999466764, 0.25601557322659335, 0.25743085026870766, 0.2571657826323512, 0.2569148512628258, 0.2575792237894959, 0.2605770467999628, 0.2689555036443258, 0.2824695730532681, 0.265052459646993, 0.2611218776106186, 0.25781421108236247, 0.25537139082169164, 0.2548053765697616, 0.2577275458314758, 0.25867247836676416, 0.25805734318268614, 0.2561755932522022, 0.2537304687863426, 0.2513685520401618, 0.2435716085707813, 0.24692636328225617, 0.2558743082089128, 0.25612290814103333, 0.2563044140279891, 0.25785901081543655, 0.25772510847459673, 0.2565518158358196, 0.25793186486589137, 0.2576330780329606, 0.2582163937638653, 0.2612235763204489, 0.2773185147298222, 0.2649101888609718, 0.2593866835989097, 0.2587430639257566, 0.2573203258863654, 0.25740539455146866, 0.25600138788148463, 0.2557080924027052, 0.2565359636245737, 0.2561352321252709, 0.25572891663322295, 0.25580425154317427, 0.23961020952381298, 0.2540532301125394, 0.25673722058132736, 0.2578191597826455, 0.2572894786383498, 0.2564762728552723, 0.25746701011269946, 0.25767254696131453, 0.25729809967225026, 0.2570455972329948, 0.25762845710453547, 0.26146973453496436, 0.27882968561131655, 0.263472367002956, 0.2590590796400006, 0.25749742997538666, 0.2566217270911229, 0.25733581877596173, 0.25713792486028564, 0.256446209992348, 0.24771603067362635, 0.2491649805322664, 0.26201433078071423, 0.2587160246820695, 0.24806684998525952, 0.2488043186122915, 0.256001457339981, 0.2583662331555756, 0.25697736151415457, 0.25530796039698544, 0.2591666891109917, 0.25830646934044615, 0.2576448009976374, 0.2563848306711957, 0.2569170052660861, 0.26036577265512023, 0.268976130852395, 0.2624098720293535, 0.2647347864911063, 0.267738101178068, 0.2543511781561371, 0.24746511839118931, 0.26094839438628215, 0.2589324758858386, 0.260633359567414, 0.25421122447059735, 0.2539777128204112, 0.24558099665250854, 0.25261688320311676, 0.2558656006185961, 0.25703328441644435, 0.25737429082895685, 0.257333620925329, 0.25821216677400044, 0.2563641351150003, 0.25579392745268764, 0.2570938953554313, 0.25745162732846105, 0.25997355186612137, 0.26879033449903356, 0.2712376514048631, 0.2712861198757986, 0.26509957820911473, 0.25856960665248485, 0.25582179399965926, 0.2533567109466556, 0.2567563312841777, 0.2589416975169602, 0.2592878743630795, 0.2548509161740855, 0.24032683035759808, 0.24301875182769803, 0.25392230970484736, 0.2519089908706643, 0.2574352947898309, 0.2560481498386981, 0.25620154529547773, 0.25616458709370016, 0.25928063911285343, 0.2604160373245202, 0.25848707344594984, 0.2565851285146758, 0.2574134073556668, 0.26274557074181265, 0.27564794104740487, 0.2691072782122547, 0.2694294582083739, 0.2661222934961703, 0.259809790569182, 0.25500955715329754, 0.25652039011153344, 0.25888550014186146, 0.25976464272201577, 0.25592028326567084, 0.24966780116103218, 0.24510042601393708, 0.2420008031792491, 0.2544929289062277, 0.25616220126581296, 0.25640267301355196, 0.2573084604355796, 0.25825100037600585, 0.25826230816044576, 0.25728702160178984, 0.2567973990812498, 0.25742022540010717, 0.25962589945827846, 0.2685142290870202, 0.2825808004809989, 0.26957614493586896, 0.26100651005713876, 0.25765995762180216, 0.25570934012974944, 0.2547447289472403, 0.2570814878906454, 0.2582841960561531, 0.2584793685874412, 0.25684486791094413, 0.2534085681493992, 0.25122903141965364, 0.24375747444804494, 0.24691042333599422, 0.25638296382008646, 0.2564067520985804, 0.25690110501709973, 0.25703879567716253, 0.2566614624654131, 0.25703054727976465, 0.2566486906067533, 0.25642634772044054, 0.25988107878136424, 0.2663440024187174, 0.2811747019222055, 0.26224510440224275, 0.261719000182845, 0.25965200920213316, 0.2573680415131631, 0.25597903964948443, 0.25751327476814206, 0.25772862919972606, 0.25621095732027, 0.25477870884826453, 0.2531360767673417, 0.2531372469029994, 0.24412983641850663, 0.24832780190878587, 0.25643152287463383, 0.2577300030712139, 0.2575830811932711, 0.25568384976418984, 0.2569214539193166, 0.25710928351068474, 0.25602093264646686, 0.25545027562650363, 0.2589599482487434, 0.2584888409227233, 0.26588408816786835, 0.25680504644902497, 0.2620578205224395, 0.260316198025303, 0.2664291113082075, 0.2647188880750759, 0.2429550133206049, 0.2566275382242573, 0.26109287496765277, 0.262527171156918, 0.26615371526099285, 0.24957881576111976, 0.2400360222626153, 0.25667957369151345, 0.25688089715383033, 0.2568988013769206, 0.255792018862578, 0.2540105373465152, 0.2554726269205916, 0.25769006614858675, 0.2561622920271134, 0.25354648250702727, 0.25409355655346594, 0.2666858504714049, 0.2776269526795651, 0.27340061077746314, 0.2658193243204845, 0.2586026389261276, 0.25172826181895874, 0.2510385567422054, 0.2568839232414633, 0.26061391858591404, 0.26036662723330456, 0.25754876211494276, 0.2510430296499409, 0.2463379153578821, 0.24432049279385945, 0.2538350018494187, 0.2544641341241895, 0.2553666575378989, 0.2550797493087066, 0.25534192058217475, 0.2565264574706768, 0.25611673573367594, 0.25715924873463486, 0.25829250228795947, 0.2593122327323713, 0.26174565397881305, 0.2651811519449833, 0.2663299311611204, 0.26271459281583454, 0.2598165086803736, 0.25746022462425017, 0.2547297821210755, 0.25525444662323554, 0.25376893330863604, 0.2559147345651267, 0.25436523854676313, 0.25289774268105975, 0.2545462293682702, 0.2569939373404341, 0.25773608303550105, 0.25897842641170926, 0.2604808966695404, 0.2603219189075049, 0.2587537553012025, 0.2573821800992313, 0.25826261337446355, 0.2580411353079095, 0.25886676750804566, 0.25836098890657827, 0.2615029568306071, 0.26544090029456063, 0.26995709518626443, 0.2691072621052764, 0.25822259333367015, 0.2574912709449302, 0.2576893481728458, 0.25810213884892413, 0.258234924563213, 0.2574250375244052, 0.25531378557134904, 0.25274599197455855, 0.23858003565409427, 0.2530521813144244, 0.25659123307539106, 0.25729038660971887, 0.2575325590257948, 0.2567580518517218, 0.2574893098845467, 0.2554460416539668, 0.25869578968362067, 0.25638301829920446, 0.2575356492314691, 0.2594333061133478, 0.26765827672608905, 0.28211475997222, 0.26404534119311013, 0.26066789249637906, 0.25786071669881283, 0.2553366711951406, 0.2552516812035222, 0.25819950531095764, 0.25776183142256365, 0.2565821956454198, 0.25377835769084817, 0.24959621213607308, 0.24007180955382781, 0.2465217351211804, 0.25517804678165246, 0.25855889809453575, 0.25395129212006073, 0.2595285150339306, 0.25715167851619963, 0.2567723081176036, 0.25850640834583133, 0.25774538913979256, 0.2569101453496792, 0.25857597311956676, 0.25999465620388995, 0.26775788883382, 0.26351664977152894, 0.25902220877942334, 0.2564997606431047, 0.256768356270585, 0.26313286163269484, 0.2622999638492479, 0.2626286842736685, 0.2578607560505599, 0.2560371391787453, 0.2483850107175799, 0.2458840034515141, 0.2489098023591759, 0.25419213799056595, 0.25587910506310696, 0.25660025746048004, 0.25694289137696175, 0.2576253516792685, 0.2576733868295536, 0.2574875410807789, 0.256110911428921, 0.25558730637285404, 0.25748900134954883, 0.2701139546141061, 0.2820832955389847, 0.27536716963319036, 0.2659235720645871, 0.2590567103256664, 0.2562723712875749, 0.25535058364351554, 0.2575786432301576, 0.25730178632903605, 0.2562161264988575, 0.2549534132522734, 0.2530224612246576, 0.25340772700127967, 0.23845693957479272, 0.2529840897605578, 0.25669874169696055, 0.2567341937594945, 0.2569826850383931, 0.2576266276084594, 0.25705394466840886, 0.25629514551705024, 0.25710306438695524, 0.2574757297412603, 0.2586964297618352, 0.26388286899364777, 0.28311326151025745, 0.26572496496497827, 0.26212978217192345, 0.258917128738855, 0.2561644578725021, 0.2557067730841254, 0.25751808913080493, 0.25781053859562364, 0.25642839648750115, 0.25424919134264984, 0.2529111767189897, 0.25297913501470476, 0.2481580323808141, 0.24374052605601906, 0.2559969998113938, 0.25701296243113597, 0.25705395304335205, 0.2567035365459048, 0.2564900040610237, 0.2570289228001884, 0.25727368746495544, 0.2571957748543929, 0.25855082306291344, 0.266290969034571, 0.28324678616775384, 0.2655357501398856, 0.26181730694418864, 0.2581838329021951, 0.25530120513771926, 0.2554900299605717, 0.2577839900560969, 0.25797918900426176, 0.2576288437375583, 0.2540604888828472, 0.25233354207579456, 0.2534774717749598, 0.25220461153737006, 0.2447988701717981, 0.25112652534208607, 0.25683802289734814, 0.25731534410252704, 0.2575603211476645, 0.25579924847541974, 0.258720738778257, 0.25742656149907095, 0.25698290566718396, 0.25624460946646616, 0.2602833688910146, 0.2647287274648275, 0.2780655082846299, 0.2618824432565576, 0.25970776675243384, 0.2572885480622794, 0.2537666397339355, 0.2566500552288715, 0.25674765551703077, 0.2591752926310748, 0.25435660968445856, 0.25329988191588465, 0.23758301321456757, 0.25343635062699776, 0.2576372230880135, 0.2569152040959602, 0.2565823553337688, 0.25813931601137763, 0.2571074365460157, 0.25716098667339105, 0.25785787455535797, 0.2568374373020534, 0.2566078174872491, 0.2580306704209924, 0.2686570813147909, 0.2794027714929596, 0.26631720725537306, 0.2613768217932182, 0.25818853886711696, 0.2555391786896191, 0.2543883052047887, 0.25654492773132964, 0.258403259280936, 0.257971586553531, 0.25599264519851667, 0.25243932993277446, 0.25114650078134976, 0.2482525891694575, 0.24779566628945107, 0.2556399613163221, 0.2562582976233799, 0.25730083686802135, 0.2563824859769874, 0.25653037459258293, 0.2579177232428181, 0.25762384534787736, 0.25726236226192417, 0.2573603600235021, 0.26807504605061955, 0.2854385589119039, 0.2640799541788386, 0.2616296642493931, 0.25789662370706673, 0.25512423436433673, 0.25455243736418615, 0.25651215496698226, 0.2585539390106297, 0.25825286913384227, 0.2559983987095712, 0.2522921629169975, 0.2519508264860845, 0.2520811644472161, 0.25473449526510866, 0.24539281862872894, 0.2511997436646338, 0.25726704736751904, 0.2564720322121676, 0.25634766412783894, 0.2570611462355396, 0.257410070173653, 0.25711767827788284, 0.25765488601121334, 0.265761356430116, 0.28406584668163254, 0.2636006061605061, 0.26299466878817873, 0.2586623615705568, 0.2554318254411001, 0.25563968374482227, 0.25757060633187906, 0.25672661203027863, 0.25512125194824997, 0.25190904179611656, 0.2534487738588475, 0.2533133079154734, 0.2389582224813227, 0.2540268641856276, 0.25645463323410456, 0.25677071343365726, 0.25870807489757125, 0.25674403988382627, 0.25783726475458113, 0.2575416788858764, 0.2583041571818879, 0.2573515650896525, 0.2563510574366606, 0.25915364120272266, 0.2748678461069034, 0.26123772377295246, 0.26173479780146747, 0.26210147621590907, 0.25955682985021844, 0.2568436202759632, 0.25549939751731787, 0.2534406527765005, 0.25589845559297947, 0.25620816320845996, 0.24414906382299942, 0.2507190524358442, 0.25066830169673104, 0.25777860084827336, 0.254903138747466, 0.2574918766961357, 0.25504649156056985, 0.2559296904985859, 0.2568969017022735, 0.25620989528917676, 0.25448724719021093, 0.25611535749173986, 0.2552883214854815, 0.25746205270523687, 0.27000873356928273, 0.2685308466190826, 0.26784980965090993, 0.2617139262422581, 0.26517533662457704, 0.260087491426886, 0.2575562029120236, 0.24836219508144586, 0.2555112845572936, 0.25808532840446446, 0.2533458013954159, 0.24913358820713752, 0.25223746073903797, 0.2543369396135458, 0.2542342455613386, 0.2535413328276129, 0.2525127492178825, 0.2532379625941881, 0.2542890407414434, 0.2570325600246747, 0.259741789625815, 0.25835025299580305, 0.25638369178940307, 0.259965286766146, 0.2758667961034072, 0.2702347871647961, 0.2723803242745873, 0.268986739169806, 0.2601531481992234, 0.2518712226662443, 0.2542977500795441, 0.26131955036863397, 0.26130718114440926, 0.2572206391522966, 0.24997613632326407, 0.23924621176198924, 0.24681780912651355, 0.25213013142062984, 0.2541806889</t>
-  </si>
-  <si>
-    <t>[0.3312122081823306, 0.32983550807593426, 0.3302388258330855, 0.33090012023571325, 0.3312254544992846, 0.33302593858409174, 0.3352154205564068, 0.33947690285953724, 0.3393983724936524, 0.3438650859843558, 0.33368639812063644, 0.3291205288027779, 0.3301399378245164, 0.3318458666961105, 0.332669370512005, 0.3323048763093433, 0.33086680549890873, 0.32791744809787704, 0.3244083570291235, 0.3144070754840783, 0.3269323852738395, 0.3297905687546638, 0.33094225794417437, 0.3302690063856215, 0.3304086105579052, 0.3314466592571721, 0.33135315504098156, 0.33092978904623066, 0.3303793034948215, 0.3347293594695102, 0.34098421246901145, 0.3510897708657599, 0.33523698073221614, 0.33164076448311514, 0.32744621919024486, 0.3243479545577666, 0.32728973174774395, 0.33220826204361525, 0.3336154425509401, 0.3309565938517588, 0.32716659625366346, 0.32752481588336463, 0.3284422626285435, 0.3275887614795079, 0.329125572002633, 0.3279911081751951, 0.32620413157194755, 0.3268068937954527, 0.33223469014039025, 0.33095981932999446, 0.33100839382813513, 0.3314875645972553, 0.3306650748982726, 0.330275150120934, 0.33466866924831873, 0.34129669327110385, 0.3386935599118391, 0.338715716878302, 0.3359996987033039, 0.3322484123414558, 0.32896556643604014, 0.32959411977193703, 0.3276296339117193, 0.3297012025894958, 0.3288279784908721, 0.3211577481711218, 0.32796151485973063, 0.3243580737850335, 0.3301260240657444, 0.331636273018504, 0.33154134229357674, 0.33245411604805997, 0.3313904286250869, 0.3310499566854383, 0.33116336993899637, 0.3314195538465457, 0.3316748975392217, 0.3337072167532831, 0.33565883352310305, 0.344898765696059, 0.3395493673046033, 0.3349790320632846, 0.33244398121828644, 0.3301437401548716, 0.33082230598891277, 0.3326605344589326, 0.32899165428568894, 0.33274090549667107, 0.3282829775970747, 0.32528814470450046, 0.3227135986158826, 0.31821522341528635, 0.32857564367260167, 0.32986426430596943, 0.3300060123398378, 0.32971496320447374, 0.3309779431360029, 0.33121961980906794, 0.3316143014122572, 0.3307506660607135, 0.33068411431683997, 0.33463234865821306, 0.34089741999794326, 0.33784980018648153, 0.343659413911473, 0.3352618772536949, 0.3304375144284801, 0.32966143789777325, 0.33002414871948166, 0.331738916746472, 0.33159342084894716, 0.33027490216098804, 0.32921050280761693, 0.3126279882671074, 0.32671080471976627, 0.32843618144605485, 0.3315376081840688, 0.3309869186116951, 0.33084152497614155, 0.33094609967837557, 0.3309862670034147, 0.33076971994869736, 0.3301770086842741, 0.33077352980464675, 0.33098918106009484, 0.3335775405668782, 0.33751071406997957, 0.3384960209514328, 0.34409113585356893, 0.33629624131019015, 0.32976198413122637, 0.32803888786448016, 0.3197795101257504, 0.32838997911634954, 0.32816623520004157, 0.3302606367662173, 0.33176414957192873, 0.32780742472238283, 0.32397910641109084, 0.3260148202066408, 0.3291582127091243, 0.330202034921503, 0.32980183823971426, 0.32948229383932215, 0.3307235722728065, 0.33112479297823083, 0.33036242945264677, 0.33155887878979057, 0.33167315412116566, 0.3331820942352092, 0.3385062766896643, 0.3493714006467093, 0.34301041832417994, 0.33806634455907664, 0.3311880807586591, 0.32883577317252494, 0.32976382028411966, 0.3320027537113779, 0.3324704928261288, 0.3324755882338381, 0.3308115610649997, 0.32720774151835136, 0.3221630572447191, 0.3136836461882344, 0.32815548488989277, 0.32986670346612024, 0.32902040839908137, 0.3299380491300255, 0.3302606497938774, 0.330562972442289, 0.33044071461878316, 0.3301006791486194, 0.3303418696066052, 0.3355891868222644, 0.34434639295381336, 0.34812873437043795, 0.34114901385666063, 0.33238457334307964, 0.3303905592801652, 0.32971980807638257, 0.3310570434670233, 0.3314963780518221, 0.3306370309059697, 0.33103294489282603, 0.3303095618289082, 0.32873557527253416, 0.3257125831919722, 0.3152714007024457, 0.3247615139152055, 0.33204389433797715, 0.3312311333870896, 0.3299958136197242, 0.3300208362303562, 0.32996662365475776, 0.3291359807536782, 0.33003481027142056, 0.32939767367855005, 0.33327623266506606, 0.34097369310549624, 0.3426793822524628, 0.34021417526173287, 0.33495183476945467, 0.3284334270532176, 0.32375798618475626, 0.3274850192280621, 0.33365795279743443, 0.33586479523324697, 0.3349157321232865, 0.33170793843808116, 0.32765468662779135, 0.3257669955245172, 0.31707116869429397, 0.32761484831065935, 0.3293846087062291, 0.3261975898695677, 0.3192965099684431, 0.32235267204219625, 0.325665478654926, 0.3274391740050177, 0.32838523187002583, 0.32867634803988666, 0.3333864115418866, 0.34490134097906583, 0.35020826529988075, 0.34223219217306666, 0.33705585705034163, 0.332026564335179, 0.3286764045537366, 0.3285764974595553, 0.33286968856056637, 0.33444471926371716, 0.33503725462275025, 0.33302499779861783, 0.32654244155727397, 0.32221231340739775, 0.323363692963356, 0.32793431048698257, 0.32995619733675335, 0.3311277883314638, 0.33061471231759315, 0.33022974878046696, 0.3303559122828791, 0.3302229029339225, 0.32955272913932093, 0.32887492923567335, 0.3338143017261932, 0.3422677694981513, 0.3474689026920162, 0.3408634258216878, 0.33458390659372794, 0.32892003931209385, 0.3234811963664996, 0.3270865883212645, 0.3302415163590103, 0.33583590032969796, 0.33475048357626264, 0.33273604450131894, 0.3290182233321904, 0.32466039305377975, 0.3222100221397242, 0.3226840315584795, 0.3294913434258064, 0.3311792009706003, 0.33069931284017656, 0.3300492307060005, 0.33137098909771867, 0.33041876870604286, 0.3301992714956726, 0.33007959070511583, 0.33382704628258536, 0.3402658012111998, 0.34284346548368805, 0.3401975584823247, 0.33170659868309, 0.3283201723628111, 0.32158078398687645, 0.3244853119399114, 0.33306949282111437, 0.33523629321737314, 0.33618374128561346, 0.3316916278087796, 0.3259895435386749, 0.3204923182549934, 0.32273685623722775, 0.3254412906589748, 0.32586615705357763, 0.3306367651436763, 0.3371843742666936, 0.3308337608030525, 0.33445055438307225, 0.33112726239413676, 0.33051968845334234, 0.33014505567066327, 0.3336777660778158, 0.33969857862499975, 0.345084751937347, 0.338764678753821, 0.33220114934786665, 0.3305595368909027, 0.32997950406322313, 0.32924058619746477, 0.3306639280659098, 0.3317277821830355, 0.32604667953954974, 0.32519399029885004, 0.31832644812298283, 0.32785661329822574, 0.32956413791893724, 0.33051181962447823, 0.3304631221331264, 0.3302773885402561, 0.331134805895811, 0.3298713614391564, 0.3308723478131855, 0.3317526470708629, 0.3308610674669333, 0.3313365374958754, 0.33486591690605955, 0.3413885870768993, 0.348664437548809, 0.3384410842895121, 0.3330108145305322, 0.331224073429592, 0.3297484597596103, 0.3295257524132001, 0.33143080713746437, 0.3319635665175989, 0.33086854641819613, 0.3289803122786161, 0.3277797784937404, 0.32723276821664987, 0.31398074707938395, 0.32710927056039696, 0.33074967529312677, 0.3311943690892158, 0.32882937403527973, 0.33240787270963823, 0.3310748500989796, 0.33173390557627824, 0.33047937561632074, 0.33031283700099484, 0.33290298737627133, 0.3364249574583386, 0.34935771727347603, 0.33531124090190506, 0.3336041520720214, 0.33170269294031113, 0.33055067900831614, 0.33068753245455185, 0.3318346533847715, 0.33155861708832984, 0.3300539801708718, 0.32678973255847654, 0.32890559083930393, 0.3272508640815465, 0.3155035189901119, 0.32814178006314837, 0.33016750184713123, 0.33005285236828213, 0.33117752827514385, 0.3303127241312038, 0.3306707632390184, 0.3318587944011119, 0.33104610521834493, 0.3309090706421903, 0.33139611097676974, 0.33152456748537035, 0.3354652500359944, 0.33568664866494596, 0.3424077724960237, 0.3303243154494969, 0.3316992504317962, 0.3324512111081354, 0.3304010647480489, 0.33081403610578186, 0.33045161364388453, 0.3303724326965675, 0.33000378963614324, 0.32976454769876234, 0.31707795305404896, 0.32789975802188714, 0.32931354813557895, 0.328191166806932, 0.3305428997677, 0.32987949314541304, 0.3309428720172036, 0.3303882427083387, 0.3307257824832287, 0.330751406023422, 0.33122544008500465, 0.3312043335787587, 0.3415946848301701, 0.3343380646273781, 0.335675295419624, 0.3294153507427063, 0.3315524649771849, 0.3298721263506604, 0.3315796566910007, 0.3283603406337317, 0.33043648845887363, 0.32942892515392436, 0.3294176449762451, 0.3294424797009236, 0.32300526323315065, 0.32727126977472537, 0.329260349564239, 0.33188307316444815, 0.33257031403080844, 0.3291854219950523, 0.33056743746011324, 0.32956433928639045, 0.329636474115308, 0.32501818524244885, 0.3193895609953541, 0.33022376910254453, 0.3409040798784786, 0.33637764327549724, 0.3365138459335886, 0.3322288331196716, 0.3330556777776355, 0.3386079921870078, 0.3333560688104684, 0.33745601264641606, 0.3338824438181683, 0.3298787805031336, 0.3239243348845273, 0.32208429769059305, 0.32198357788398424, 0.3284712659642847, 0.331146654603792, 0.3323398052873638, 0.33160371512841, 0.3307785523644326, 0.33011586044264046, 0.33125442126924604, 0.3307665962023239, 0.3303840105066688, 0.33305431240941874, 0.3444618772100838, 0.3405517855724179, 0.3394898398286179, 0.33786186761678255, 0.32934793116394423, 0.32400186281425575, 0.3239096944145924, 0.3304825768645201, 0.33460203974319463, 0.33381930446918523, 0.3328468465649286, 0.32684264438818433, 0.3220929529333072, 0.32679255712761407, 0.33117900787820603, 0.32942884218488167, 0.33077356467755065, 0.33073626768256764, 0.32987712270200464, 0.3306732488386505, 0.33295695034255185, 0.33124091363891733, 0.3312353133284847, 0.3340960793954986, 0.33920913644940914, 0.3451218599387756, 0.33751267038568783, 0.33283250973587747, 0.3304121805796077, 0.33016404837239666, 0.3300439990472381, 0.3314957662885862, 0.33088688551852247, 0.3305810688065976, 0.3286117760362052, 0.3148617784574098, 0.3242695852375847, 0.32925146439865854, 0.3306140315603279, 0.33064071053040084, 0.3308327654990852, 0.33121997071055215, 0.3314570712194896, 0.3308753484256642, 0.3311658396728572, 0.33108710041107087, 0.33052390872448206, 0.3317120354515887, 0.33676827353798683, 0.34195114875808774, 0.3415621485174037, 0.3368792090667407, 0.33293997447074836, 0.33119853046995185, 0.33038692449285934, 0.3316949711518368, 0.3321404181410926, 0.33155585114927927, 0.3305664546972795, 0.32797640241672893, 0.3261657209609043, 0.3136869799386747, 0.32640005631582314, 0.32973795843589293, 0.3304201178909862, 0.330251968421998, 0.33106374186005033, 0.33120086111741764, 0.33108094256862225, 0.33114661574796156, 0.33115419531692225, 0.33193019255161665, 0.33516718679429275, 0.3450006374144274, 0.3419643712955048, 0.33348969262192485, 0.330172869729594, 0.33432233326942407, 0.3301788795123935, 0.33118404917148914, 0.3292120127192946, 0.33330304750248835, 0.32957957065257043, 0.31966042483907725, 0.3182547763401347, 0.32402236226287834, 0.33007506440361395, 0.3307301328817198, 0.3316491670766644, 0.3312463899549519, 0.331064588525018, 0.33018958696648104, 0.33002890607241137, 0.329760866565678, 0.33012763713785753, 0.33074463883593613, 0.3311054109760206, 0.3377101570633331, 0.33200261125297276, 0.33627665221327385, 0.3317900298683016, 0.3368018943501871, 0.3301660672281637, 0.3348224337516225, 0.3341421043378862, 0.33214060245810334, 0.3238914780402568, 0.3282089282631806, 0.328878818216257, 0.3234830407943578, 0.33204618702651134, 0.3316316356852332, 0.33095021124805085, 0.33023205752459994, 0.3294945195412305, 0.33062343501870206, 0.32981023640486656, 0.3297176819206453, 0.3296054554195453, 0.33253433065351995, 0.34124824455237984, 0.3446760866080565, 0.3410487376469414, 0.3360981214539023, 0.3327392186859646, 0.3285318580998586, 0.32917264595215273, 0.3327817791187811, 0.3345510656289572, 0.33272218575085094, 0.3280505095380431, 0.32616940175494014, 0.3159231721953039, 0.32093369431957125, 0.32747632135167565, 0.3295604227303085, 0.3304799933011482, 0.3304679963977238, 0.331876433540512, 0.32883659359497014, 0.3302515054085862, 0.3308431935023341, 0.33325948716065656, 0.3348514975555929, 0.3424769149354097, 0.34534535068278, 0.34523101692237246, 0.3358194155148933, 0.3314367345569765, 0.33002146087679846, 0.32973789972062506, 0.3312964887914616, 0.3318156995527984, 0.3322274081863504, 0.3308751186754119, 0.3264874738578093, 0.322445678565155, 0.3150795873836616, 0.3277586851843089, 0.33048299031373296, 0.3315086699072631, 0.3322496484006733, 0.33089991663135904, 0.3304600693239443, 0.3300933901612954, 0.33067176610088017, 0.3307640845991064, 0.3312114415527015, 0.33495340473450713, 0.33674377639884906, 0.3349481325858758, 0.33348515279072566, 0.3368545401549044, 0.3368652755863686, 0.3344937324791443, 0.3327187138749514, 0.33249323890948534, 0.3315920591639114, 0.33032338050644433, 0.32811486975230375, 0.31195846452277715, 0.326631364031626, 0.32971080256422564, 0.3307400800630257, 0.33128534486118805, 0.33126543203489445, 0.3317258565989191, 0.331182436871572, 0.33120722348346743, 0.33113012401303277, 0.33108267336028113, 0.3325967595430864, 0.3360945958304864, 0.338477083006628, 0.346755347530072, 0.33412925848753755, 0.33176705944727, 0.32945937079224863, 0.329114341702488, 0.3314865216197747, 0.33213071124264454, 0.33220969673507533, 0.3303372266150563, 0.3276190497209124, 0.319579703433084, 0.3208865111917634, 0.3298214814792762, 0.3302590955909726, 0.33045632650883167, 0.32922045997925936, 0.32945713667062665, 0.3307464408302796, 0.33106922493926905, 0.33169169987793506, 0.33203992827545964, 0.3315030028547466, 0.33460182792900145, 0.3444615838971444, 0.3425204997021678, 0.33429508496003635, 0.3329150381774229, 0.3314950616387426, 0.33144671929890657, 0.3311356795912966, 0.33118688822797776, 0.33036379541579236, 0.32896053992671964, 0.32867160144437496, 0.32626097618180533, 0.3123660503507751, 0.32883242013085684, 0.330272322777405, 0.33074935142815615, 0.3307569180451053, 0.3308429858727168, 0.330999800740867, 0.330885412478918, 0.3300051329533425, 0.32994020098284677, 0.3339677789117725, 0.3391540006723022, 0.3494796115877685, 0.33984864837383233, 0.3332305292788989, 0.3312633267973903, 0.32915617824265814, 0.32896698334672386, 0.33123420766321227, 0.33252501280172736, 0.33209434630859186, 0.3304118966115707, 0.3277549902805788, 0.32470249667020085, 0.3148917454012094, 0.32681477436995576, 0.3298448318334099, 0.33008020285925405, 0.3300908931664268, 0.32991145850791376, 0.3302730746255669, 0.330446023768752, 0.3307509571997446, 0.3307590418277461, 0.33442837818114124, 0.3403005403934216, 0.3484939260315687, 0.34006263882532245, 0.33290765703360453, 0.3307520014358254, 0.32902110978519344, 0.32943120194877856, 0.33117993762381637, 0.33205911420303064, 0.3320699955351747, 0.3310597677400707, 0.32760892916484974, 0.3264530988141983, 0.3263149844392904, 0.32860022972545866, 0.3154738699276698, 0.3297147010046165, 0.32985875456615416, 0.3303990247361785, 0.3315724356313345, 0.3310494525034031, 0.3305359530056354, 0.33057666688464615, 0.33131592081120204, 0.3323840795405384, 0.3369427006879521, 0.3328538134362978, 0.33586601600030114, 0.34232261452674684, 0.33448910313681873, 0.33199371266369954, 0.3317986249425855, 0.33135108722333706, 0.33004771862120874, 0.3284563622965679, 0.32830996358808745, 0.3153361228918136, 0.32585231920917157, 0.3302960027049972, 0.3306642461113704, 0.33103665839157786, 0.331503341789292, 0.3314559238776919, 0.33206670570186647, 0.3320703477431561, 0.3316734070455798, 0.3312424595035571, 0.3335885730720915, 0.34181230565074716, 0.346537365022025, 0.3358702192598945, 0.3331672929930631, 0.33068647210233415, 0.32878145592142854, 0.32937839323396756, 0.3313174037004117, 0.3315460460251359, 0.3319143836294231, 0.3293122224948599, 0.3256172551106655, 0.32688579002860557, 0.3156336585071304, 0.3277616247801162, 0.3298140760953965, 0.3291496802522295, 0.3298783078124579, 0.33085637123254735, 0.33114092216417584, 0.330542287810719, 0.33093355996423507, 0.33106876270034724, 0.3329334632485157, 0.33940242244527696, 0.34861362292856796, 0.3348750517878643, 0.3327581204621693, 0.3307154821298277, 0.3287734105780012, 0.3293377008602741, 0.3311916322121103, 0.33185473467666704, 0.33180214205153075, 0.3303155585473759, 0.3275726179526373, 0.3254311881121074, 0.32900896011567843, 0.3301936120232243, 0.3290606438991408, 0.31832764977973443, 0.3281757218718731, 0.3314709586353894, 0.3325153239401331, 0.3310186347110897, 0.33020507149843975, 0.3273474467400688, 0.3309118312525949, 0.33525915364377007, 0.3436706622925713, 0.32862750706590127, 0.3428626406912225, 0.3359007920722709, 0.3300147586603595, 0.3307989731656893, 0.3315004548634331, 0.33120306578818615, 0.32927512039363255, 0.327476615356557, 0.31938525649264987, 0.3219231096816196, 0.32906120968667646, 0.32994572759733315, 0.3306548574448845, 0.3300488513364013, 0.32949503274872144, 0.33071198815248576, 0.3298388284440314, 0.33080888102302025, 0.33045781295039717, 0.33010587114537643, 0.33384833460690855, 0.3400167670501592, 0.3488401891541315, 0.341922336822287, 0.3332122203488339, 0.33103386792987627, 0.330057039250013, 0.32873224074397506, 0.32971066795580234, 0.3267650462675662, 0.3285995652819001, 0.3191530412403832, 0.3253209661727829, 0.32632256986356617, 0.32543616308217843, 0.33078541610179113, 0.3319205343377086, 0.33387206174082834, 0.33046683700089613, 0.33071243280368207, 0.33127014305535185, 0.3312541881013778, 0.3300393199504516, 0.33352519623540244, 0.33089278588974363, 0.3311677091484943, 0.34034352787748096, 0.33514875273411243, 0.3383027494888133, 0.3322471609271285, 0.32647332293844084, 0.33415633036993087, 0.33685643450484964, 0.3338710142294003, 0.33350588659413855, 0.33107249135244005, 0.32807060586658177, 0.31789170775833836, 0.3201198805727262, 0.32947259397655343, 0.33074998510690506, 0.3316967330537189, 0.3316124912628789, 0.33118282136024435, 0.331196423083923, 0.33126500565892913, 0.33131856365242823, 0.331737070486533, 0.33392173883859294, 0.33850950639958, 0.35043963648493553, 0.3391569171573281, 0.3335319638414575, 0.3310684620638158, 0.3290935510642429, 0.33037749811247824, 0.33169078359358, 0.33175206691397596, 0.33162669783388554, 0.3301687881604359, 0.32786532048785405, 0.3261341410719338, 0.31544556208421365, 0.32511238985105423, 0.32983139297777364, 0.3300935724896853, 0.3313843910903706, 0.330599355188625, 0.33093625139365695, 0.33092354759210235, 0.3311460206956925, 0.3309423072993905, 0.333767736173984, 0.33840099567015897, 0.35137274150478853, 0.33480068775431104, 0.3332694748878215, 0.330090792678785, 0.32864645074827004, 0.3295555379234005, 0.3313048298181829, 0.3320123101130122, 0.33221180649057297, 0.33088386797908853, 0.32821769876731016, 0.3251296653299376, 0.3149498607191005, 0.32597027705806025, 0.3301254833764859, 0.33101744092150653, 0.33033347756144366, 0.3299759658729802, 0.3300750406964117, 0.3311832100447153, 0.3315248451474025, 0.3312467240263574, 0.3323868080165013, 0.33843903288419735, 0.3487557407237669, 0.3366824117243736, 0.33440811040332474, 0.33218053721490715, 0.33014349890759426, 0.3303212415862922, 0.33151499491463826, 0.3316684474083906, 0.3307851488972549, 0.32898504594038497, 0.32749079054308733, 0.32773601378948114, 0.32647700379640154, 0.31654549859792724, 0.32958533629686093, 0.3311637906660139, 0.3311841363809409, 0.33033343437192264, 0.3304678177312041, 0.3309535000344564, 0.33050778759871435, 0.3306121524161899, 0.332016708854886, 0.3319613792548319, 0.3310951833770473, 0.3291423036148911, 0.3373162900585072, 0.34041741375064943, 0.33971575234182777, 0.33155717512893773, 0.33172480684138295, 0.33204072818137614, 0.3321584265406811, 0.3303064030924101, 0.3279819583006565, 0.31978863933509466, 0.32158999573734887, 0.329752984044047, 0.3298083122100827, 0.32992847216756466, 0.3304304694490485, 0.3306480124031012, 0.33086916877077915, 0.3304521939104437, 0.3309067866180204, 0.3307626607480185, 0.33251663108058543, 0.3353928824268555, 0.33520181046547703, 0.3396297725009922, 0.3418164077649888, 0.3327026934953388, 0.3320497848123348, 0.33055605831888696, 0.3307912770092789, 0.3316268824571547, 0.32858045749305825, 0.3319797233687923, 0.3194679402495592, 0.32151085163216675, 0.3305510832278704, 0.3296438525767252, 0.32990876114176726, 0.3296414134050519, 0.3305205605853287, 0.33140680963693564, 0.3315935882431766, 0.33054789032484433, 0.3303001755273318, 0.3310750984115642, 0.3304108605928741, 0.3322464236397096, 0.33698070073124137, 0.33292207101083976, 0.332576382846488, 0.3320682078241039, 0.3315624635440499, 0.3311916576459803, 0.33074697972471306, 0.33037843049455207, 0.33136282019616736, 0.33019620590058446, 0.3294328981889753, 0.32940199970535905, 0.3257407124052798, 0.3308132282380919, 0.3309722117733926, 0.33109434770504326, 0.3308799454007389, 0.3310023147340569, 0.3317289566746244, 0.33161576321814007, 0.3308870077829046, 0.33144226713824604, 0.33419944445199473, 0.34026458808615917, 0.3509014120120628, 0.3387536508167341, 0.3339717198516489, 0.3313827263036011, 0.3297912696906828, 0.32912520232376424, 0.33046939962681315, 0.3314484077759419, 0.3321010877523684, 0.33007355552100964, 0.32759684292243, 0.3240316359873901, 0.3157539375502159, 0.3268380971056065, 0.32949351905749635, 0.3308015038246796, 0.3308447639219101, 0.33022514050268803, 0.33098806088029314, 0.3307461968979975, 0.33050209151277793, 0.33109478779597823, 0.33357167968668927, 0.3403793838363039, 0.3512420404695024, 0.3369362828875592, 0.3338273756543808, 0.3311821047145744, 0.32928415848671033, 0.3288742828443972, 0.33121275737945527, 0.331952436525019, 0.33141514793924604, 0.3299325711126215, 0.3280239420995406, 0.32594409890074744, 0.31967704782633377, 0.3222821909836104, 0.32971837608565796, 0.32990043275487185, 0.3299022873696811, 0.33130915090237584, 0.33126808750758446, 0.33036164489507813, 0.33143501991849494, 0.3312485612656301, 0.33175851492803154, 0.33401863113341773, 0.3471875756170368, 0.33705663775624667, 0.33248057068552, 0.3319457312263787, 0.3308044418327571, 0.33091272044905934, 0.3297579192573682, 0.32956362645240483, 0.3302540886256415, 0.32996952837038646, 0.32960439155465854, 0.32968672151911704, 0.31610397067565726, 0.3282047950672935, 0.3302748087403456, 0.33126835764370327, 0.33087250903758597, 0.33059343827701954, 0.33111694527573393, 0.3311971635799494, 0.3308586377017366, 0.33063951604379777, 0.33110883009879016, 0.3342841237496683, 0.34838378555712873, 0.33582444556841917, 0.33221685014795127, 0.3310124430057097, 0.3302802250651828, 0.3308708561601636, 0.3307108228727517, 0.3301573423558396, 0.3228090383998972, 0.32327414109936387, 0.328362368412549, 0.32891370540988724, 0.3263241817999507, 0.33067315929149155, 0.33070985240648326, 0.3319437988280253, 0.3306072204725868, 0.3291498007183864, 0.33241915616679235, 0.33166831934366015, 0.33113067401906837, 0.3300520624072573, 0.3304745158413498, 0.33331490082236503, 0.3404787693994198, 0.3350195636628988, 0.3350210422910737, 0.3407992875609766, 0.3257525121576039, 0.3255756921393935, 0.3336946276655108, 0.33204318273618, 0.33418718890788845, 0.3284488947957771, 0.32767251866553715, 0.31966619613313824, 0.3287156903393263, 0.32982371509407316, 0.3306608736241116, 0.33092030893844365, 0.330884167241134, 0.3316102688645134, 0.3300617927992467, 0.32952995575912164, 0.3306135734173929, 0.3309547098530407, 0.3330326472154978, 0.340344789522474, 0.3406757027969564, 0.3422591727593056, 0.338659406734046, 0.33187804390411274, 0.32960021417717483, 0.3273839359494311, 0.3302461136886095, 0.33206325617334514, 0.332387694923958, 0.3287422862426564, 0.3171897640578297, 0.3190352556651382, 0.3286057238372178, 0.3263223986271049, 0.3309068311675362, 0.3297297924589901, 0.3298847859875323, 0.3292825645978488, 0.33183174536836335, 0.333345452940861, 0.3318033221331577, 0.33019408602890177, 0.33089805080277807, 0.3353331744989514, 0.34638868094754804, 0.34060187725433916, 0.34059907147478996, 0.3379529875605994, 0.3332787488667352, 0.3287888605098198, 0.33008362162583654, 0.3320239532974291, 0.3327872022118519, 0.3296982105078973, 0.32455454214974394, 0.32090698712854365, 0.318639663258661, 0.3281772547054926, 0.32993308522176223, 0.33015955524271046, 0.33080705712383285, 0.3316159868417274, 0.3318259978108729, 0.33120242544437956, 0.3304264904236853, 0.3306623147691605, 0.33256399432079026, 0.34036595622155885, 0.3515678628378369, 0.3408129180867849, 0.333745795196426, 0.33113584843219374, 0.3295374075333787, 0.32879802118239004, 0.3307611642522161, 0.33169661787294724, 0.3317476095707297, 0.3305101946129527, 0.3277636181950298, 0.3260548097737647, 0.3165907240353453, 0.3252509470581388, 0.3303065268501322, 0.3301703997038554, 0.3303979903777093, 0.3306142649495895, 0.3304560484691277, 0.3307036570551338, 0.33039514343366344, 0.33013201603708847, 0.3329853102701013, 0.33845623197524327, 0.34871037550931355, 0.33628221531833374, 0.3343349474015236, 0.33266295907495624, 0.33086132885759495, 0.3297461604255236, 0.33098636988476016, 0.33114014563790617, 0.33001625099525117, 0.32882669585381546, 0.32752248826565533, 0.3275723343302045, 0.31994746916214306, 0.32347961246483853, 0.33017633368618754, 0.3312713738052312, 0.3311048094452293, 0.32932960192864463, 0.33062643761997207, 0.3311161280016323, 0.3298551899949362, 0.32927756702582744, 0.3322993432895635, 0.331802420006544, 0.3379334170830257, 0.33023561096551735, 0.3347410929755259, 0.3323927240412484, 0.3376720728852487, 0.3387083192296636, 0.3186951098202165, 0.33118115203344917, 0.34398673493309667, 0.33354864338944634, 0.3278625767104509, 0.3215801154101743, 0.31968969069866154, 0.33068263452723307, 0.3307755504367698, 0.33063185029467185, 0.3296164451223442, 0.32806952782817506, 0.3292458443018215, 0.3311314743229288, 0.3298797902111887, 0.32733175111365104, 0.3278444505007641, 0.3383335922803135, 0.3475369242956962, 0.3435899876262502, 0.3376988455417898, 0.33174643068994863, 0.3260511961202854, 0.32571046007301624, 0.33054050520126005, 0.3335986759894433, 0.3334022363196729, 0.3310475054844133, 0.3255615761309422, 0.32070817573268035, 0.32127620910751714, 0.328176798585559, 0.3292159107610098, 0.3292464702584787, 0.3289721565148795, 0.32903667616781923, 0.3295028661589872, 0.32916195180420044, 0.3301407459588201, 0.33112330373172366, 0.3319539274939931, 0.3344124327478486, 0.33732494844127964, 0.3383614099038064, 0.3356676119681647, 0.33268575248509197, 0.33094492277020227, 0.32871025444051266, 0.32916291096942946, 0.3278484988951639, 0.32961897611992136, 0.3283832285466946, 0.3275938986541327, 0.3288087571334421, 0.3305676734356124, 0.33119129202654113, 0.33222205278722194, 0.3334709115741434, 0.33386061291920877, 0.3322986576769192, 0.33096107217195647, 0.3316269666918557, 0.3314653634050789, 0.3321647067586418, 0.3317389518149438, 0.33430974933068947, 0.3374617922841852, 0.33934087354091996, 0.34179374834514165, 0.3320497282300178, 0.3309642472986795, 0.3310991392676253, 0.33149974816267386, 0.3315649099868101, 0.3309838193735768, 0.3292709019714355, 0.3272341354287779, 0.31523273562785853, 0.32738739785253257, 0.32992597193250306, 0.3308641079401532, 0.33108360545785676, 0.33057469091679353, 0.33111061746602805, 0.3293790533623276, 0.3320439325823717, 0.33004408254439177, 0.33107467737297974, 0.33264750032404194, 0.33928555664564186, 0.35016662213739685, 0.33696284071399024, 0.33346379655686387, 0.3312256777025571, 0.32925923539948315, 0.3292291126869547, 0.3315850588976868, 0.33118016479561113, 0.33021682282232856, 0.32800074804801727, 0.3242869497007866, 0.31671007220700204, 0.32184125993486307, 0.3295155171144269, 0.33198487252286896, 0.3280167679880581, 0.3324929647085854, 0.33095029296512085, 0.3304218144386563, 0.3318646682678209, 0.33122608679524873, 0.33036165786470484, 0.3316403255454183, 0.33324197340494793, 0.33946929937815895, 0.33595290912818193, 0.3321225770452225, 0.32988330887924844, 0.3304014163220884, 0.33507030544085364, 0.33502308730202285, 0.33502435067026654, 0.3313015283191931, 0.3298133657887367, 0.32246033316904005, 0.32255961026047925, 0.3240948617289674, 0.32890555521803494, 0.3296525941912159, 0.3302612249615206, 0.33052743877609525, 0.33109961579320935, 0.3311230817453061, 0.3309685497724794, 0.32983100469516863, 0.329376551003552, 0.33094089414919964, 0.341378457215741, 0.350688715599845, 0.3451345838027999, 0.33943428857465757, 0.3320682308198033, 0.32994616909013424, 0.32926304842826726, 0.33107073947231286, 0.33084624087498016, 0.32996021845336365, 0.32896813344549136, 0.3274471810839384, 0.32778999479667625, 0.3151983587199902, 0.327322268028774, 0.3303887081942352, 0.3302577409486796, 0.3305798676888552, 0.3316998312773529, 0.3308234143893778, 0.33007256455563044, 0.33069177569918745, 0.33102725024184326, 0.3320278051931918, 0.3359390287100135, 0.3521456207865547, 0.3374374718982441, 0.33456356581488383, 0.3320232691030937, 0.32988737509629373, 0.32959397282959707, 0.33103011892841966, 0.3312249238255412, 0.33012114621653, 0.32842656331016323, 0.3273703099769976, 0.3274156316826662, 0.3198887610483872, 0.3228643545650194, 0.3301004285257577, 0.33068169499133104, 0.33025420742101613, 0.3304287383989036, 0.3306242457764017, 0.3307175607618387, 0.33084495971379985, 0.3307763138885383, 0.3319080831854588, 0.33816184226467727, 0.3518984836676336, 0.3373132543484034, 0.33439678441417336, 0.33149648849118807, 0.32921718425493246, 0.3294784974119798, 0.33124129484814935, 0.3313600463255509, 0.3311025819472576, 0.3282238576776825, 0.32688110964845685, 0.32785330061812445, 0.32054677601660636, 0.322640785467562, 0.33006607180345543, 0.3306976014068462, 0.3308241572381188, 0.33115753755782057, 0.32940602985460926, 0.33197758131880956, 0.3309341759353836, 0.3305863705563213, 0.33011354235019713, 0.33320024975983276, 0.33688958627612303, 0.3477891221581379, 0.33457638447654503, 0.332715036766352, 0.33078677634706116, 0.3280063445951041, 0.330355052367369, 0.3303933551186764, 0.33236774301634686, 0.32839172186967575, 0.3276235656319149, 0.31305591467506216, 0.32878409287699556, 0.3311212596173103, 0.3305150681845717, 0.33062288152816904, 0.3316150080867246, 0.33081118237828916, 0.3308707435069859, 0.33130194096885257, 0.33048201731281285, 0.3302919851730237, 0.33143507565158914, 0.34010368811839947, 0.34875516219052116, 0.33811723090572415, 0.3340056188895535, 0.3314418782900859, 0.32940596786480053, 0.3284881079001975, 0.3302457467760771, 0.3318138554392133, 0.3314334041692663, 0.32978517567472204, 0.3269618217049624, 0.3258792626522484, 0.3204762820723035, 0.32588021197322553, 0.3296436152421128, 0.3300151421156818, 0.33072983102815995, 0.3300447833200494, 0.3303947768015337, 0.33147395354335324, 0.3312809179166434, 0.3308131596038909, 0.33090701179660037, 0.3398894614473964, 0.3536819304151925, 0.3360669619285071, 0.3341821346731051, 0.3312162345469281, 0.32905605205416694, 0.3286179916796997, 0.3302892912924224, 0.33185034574882, 0.3315962796068273, 0.329771378153174, 0.3268433982763523, 0.32664706740251076, 0.326780538715596, 0.32885238811507617, 0.3189803108789246, 0.32766089666143455, 0.3309328024111359, 0.33009132114092665, 0.3299923097039104, 0.3306644020826566, 0.33093821253015737, 0.3308905571673474, 0.3312827355729904, 0.33774067116629275, 0.35255224117692235, 0.3357527992476914, 0.3352750322574664, 0.3318206710352809, 0.3293213954180434, 0.32952346873048405, 0.33113056189227946, 0.33035635028098215, 0.32912908177010985, 0.3265407795892891, 0.32782899858095466, 0.32766245902888264, 0.3155887028632734, 0.3281909992233816, 0.3301907957976916, 0.3303782005298623, 0.3321460608459805, 0.3299889213135619, 0.33121629926369117, 0.3310184218682979, 0.3316891894510822, 0.3309111235829359, 0.33016341163342694, 0.3322409767277129, 0.34528932506952076, 0.33402569319553505, 0.33439730976261317, 0.3346639643996531, 0.3326677600185765, 0.330431374502964, 0.3293849567972739, 0.32771840893043735, 0.32979334331697246, 0.33003950007069016, 0.317848143587084, 0.3273159377724331, 0.3255182570722216, 0.3314475574974753, 0.32884659501212393, 0.33100705953848747, 0.32893526602248657, 0.3295819809385392, 0.33019445525982627, 0.3296972840836951, 0.32833889789715487, 0.32975632795400667, 0.32908658076288966, 0.33039603207073504, 0.34102452584220994, 0.3403864743055804, 0.3400365404933792, 0.33385489231522064, 0.33685735920107035, 0.3332825562698136, 0.33111199367167626, 0.3217380178990272, 0.33124717481837246, 0.3311899936071787, 0.3258970550541903, 0.3257617136550665, 0.3266198389642722, 0.32828049453050356, 0.32813771427725585, 0.32761122008107174, 0.3263386054701837, 0.32730394391995205, 0.32832659484460053, 0.3306606772442005, 0.33292445435753815, 0.33173261411263266, 0.330083862490964, 0.33306789135153864, 0.34609443816380897, 0.3420386053824032, 0.3432306418299707, 0.3402458892702421, 0.333051003420982, 0.326269087404065, 0.328335481037341, 0.3341671273358906, 0.33414410352931484, 0.3307685629233776, 0.3248170943796631, 0.3163028948942063, 0.32194488034528107, 0.326887852426209, 0.32819386089917274, 0.3282559833453745, 0.32</t>
-  </si>
-  <si>
-    <t>[-0.1750834416700795, -0.1939458504862325, -0.1192789376997974, -0.044908675306577515, 0.01652005206913529, 0.06339511193487951, 0.10236985468491026, 0.1415174840712212, 0.14354812892557275, 0.1408097904019614, 0.142999399268625, 0.13776171299637194, 0.13657926720712332, 0.13725310018009496, 0.1374051668987425, 0.13571990626607547, 0.13087162253537202, 0.124117022965867, 0.12170130404549624, 0.11954118875454778, 0.0846428297150703, 0.0001524555376564591, -0.0922632037943877, -0.1732671848653502, -0.24557926989868628, -0.2741104717046339, -0.2725767813328318, -0.27161349305566046, -0.2706406845623408, -0.27007785399017287, -0.2696017747226001, -0.2584517132102413, -0.2623113220366144, -0.2582436233355353, -0.25456040996632273, -0.2195492794306222, -0.1533256037801396, -0.05749170382863441, 0.04987829713240414, 0.13346483051177693, 0.13900828134381674, 0.12988699128720327, 0.12292890261414519, 0.05635059102858451, -0.06922176076924515, -0.17893739105619244, -0.2654923654764106, -0.27331129912892577, -0.27183435979443815, -0.2710668452591703, -0.2704135129952899, -0.2698290985986172, -0.26912941897130077, -0.26888259265081627, -0.2678719582061044, -0.257087037058342, -0.26144524316940676, -0.2583163405141072, -0.2605991507083205, -0.2601820637090374, -0.2300485745930034, -0.15694528572805463, -0.0771369970075698, -0.005759595205569891, 0.033743075843501384, 0.025683962636191934, 0.00689688074559528, -0.05594492149302799, -0.20442146046241216, -0.27475522190277774, -0.27244096815083074, -0.271322426861071, -0.2707921031461213, -0.2701166921320104, -0.26906829662514314, -0.26848486631029655, -0.2688251004917506, -0.2692262053985973, -0.26939193509872555, -0.2587258046795335, -0.26197041495704, -0.2568658942772351, -0.2601125411905882, -0.25912943408523464, -0.19548457558751733, -0.06545601478201003, 0.06887679914329745, 0.14530972809562726, 0.14110381396931782, 0.1308391731476312, 0.12689176474124578, 0.09858384601042088, 0.005483398295001623, -0.08593858581635823, -0.17319992972265819, -0.24520719333916122, -0.27340970033614154, -0.2720028220843885, -0.2706965446070111, -0.26977339111493326, -0.2689618312477102, -0.2688579190684657, -0.26879387475583266, -0.26885433510100004, -0.2669963741679536, -0.26050038093426536, -0.2600959995882149, -0.2594763680413413, -0.23486957679518328, -0.11136563239445081, 0.03295175010271821, 0.1380368761319636, 0.1421057665642269, 0.13301671845706, 0.12656851930796745, 0.12717068271868884, 0.08739009608082599, 0.022194693296124418, -0.05091445313962362, -0.11817311911501872, -0.18479387998542698, -0.2551490528486166, -0.2760030083161113, -0.27127927831214554, -0.26935589514365416, -0.26941701121288014, -0.26962788202581905, -0.26961183895411045, -0.26730173076920194, -0.2598852158674745, -0.26130847494667775, -0.26087695535907984, -0.22064362007707294, -0.09179733642351769, 0.05010735911259498, 0.14235259507865386, 0.13947207288394856, 0.13016956276793168, 0.12471572409692476, 0.11458334305835698, 0.05459054510940067, -0.02852003614780844, -0.1181387885806533, -0.2009491679400969, -0.2671675845863171, -0.27401173662060646, -0.2729970184035842, -0.2713204575387374, -0.2710670784426114, -0.2698238897394191, -0.2685238582926644, -0.25862221347673053, -0.2623031523540776, -0.25637193124039404, -0.23189143769508977, -0.16151169375301772, -0.06254711718117717, 0.058156046521587186, 0.1411242963103227, 0.1438895545141311, 0.13770771752255287, 0.13042850763568822, 0.12587579130436113, 0.08718302399313511, -0.04687402107055527, -0.1818615523592774, -0.25977697091485635, -0.2742581542998684, -0.2719479955584728, -0.2705288376398409, -0.2695772896469984, -0.2690334772194259, -0.26904305553671987, -0.2694138725995919, -0.2695399828196842, -0.25846354565224444, -0.26204993772950974, -0.2574421059289798, -0.26077337451336596, -0.2628840984649243, -0.23486825758336463, -0.13183276590965434, -0.005222451500497522, 0.11126865086688333, 0.1416423703207557, 0.1321262440936225, 0.12501387266456254, 0.06396297437369614, -0.08125303136435323, -0.2266048130129398, -0.278513596689723, -0.2757431306154077, -0.2739738379543572, -0.2717050512291626, -0.2700013572350644, -0.2693864781304418, -0.2691741044196954, -0.2686799547631521, -0.2677850159296092, -0.2572565292075926, -0.2610597619908038, -0.25633631833552945, -0.25891800522880776, -0.25975080951071755, -0.2324256690266151, -0.09855734845081833, 0.05836153061633174, 0.1478642025045986, 0.14333561381855778, 0.13318899233158668, 0.12676402782982696, 0.10531986512706426, -0.021803750252433547, -0.10464730625784635, -0.16404328320425088, -0.2616177590658058, -0.2746270412130584, -0.2724449150348576, -0.2723543956385233, -0.2676952889472313, -0.268180505049456, -0.2691380057944084, -0.26962183127047507, -0.2584980928691849, -0.26210806735173575, -0.2582405018533384, -0.261009791219542, -0.2568668267319085, -0.1705595321274099, -0.025008636858063715, 0.10262148325631225, 0.14727119676152206, 0.14098578679493193, 0.13268155887064015, 0.12732251519836688, 0.12334415485867169, 0.08299941712778837, 0.002408282986433776, -0.09008063937371036, -0.19417148301152698, -0.2744927142485499, -0.27659535805880503, -0.27419260987103683, -0.2726481148457616, -0.271289190467435, -0.2703546262434669, -0.26898230856731803, -0.2576325486512732, -0.26115602990181186, -0.2566177523975097, -0.25946255544364205, -0.25686439748524914, -0.17510852144903968, -0.025340452564561713, 0.1117660108885284, 0.14874794232060404, 0.14142029809725287, 0.13236134458263102, 0.12640757872950836, 0.10951274546911831, -0.01640974465713567, -0.14046171824080636, -0.24426149428967625, -0.27572661152711286, -0.27224027715473176, -0.27062156321170683, -0.27056614642547944, -0.27044486027239806, -0.27057947672229393, -0.2706965938055213, -0.27069694830756313, -0.27042226819674614, -0.26759121379182216, -0.25931337484668965, -0.2607255988964803, -0.2598099871376565, -0.24689629265866764, -0.14179422571029965, 0.006200624820399542, 0.12802914742965968, 0.1440563890503084, 0.13408852783603528, 0.12692674607144197, 0.1234995773243368, 0.05160933257623335, -0.048840301426957555, -0.08345533151566849, -0.12435344841348457, -0.17279885942956574, -0.21992627450845484, -0.2630743973142858, -0.27463881475787344, -0.2750493498738746, -0.27469894987462545, -0.2737454085641626, -0.272822818192507, -0.27021970594385614, -0.26295493812821663, -0.26347951776877404, -0.2646220659022614, -0.2583559824814297, -0.2519773511376975, -0.18666750509669536, -0.07588386335788452, 0.011416537843447053, 0.02137906646152483, -0.04386902138610016, -0.13673097245816604, -0.23553085850796332, -0.2739480736804086, -0.27244194629414825, -0.2725862882712294, -0.27248488144566224, -0.27141610014814593, -0.2706456267854704, -0.2701714719370964, -0.2694095652131911, -0.2689321006121112, -0.2684744516923189, -0.25770019688559137, -0.2613554414100567, -0.2561901305564935, -0.25834034835361536, -0.2601632314788304, -0.24946728305092192, -0.15749852843853446, -0.01776259737888208, 0.11142358289313685, 0.14385625727996507, 0.13432263451272922, 0.1268573351106819, 0.09346214954776154, -0.018565528337900743, -0.1345938930307331, -0.24780268271284903, -0.2760425526601653, -0.2738386962393117, -0.27305045139445183, -0.27270289060588176, -0.27193013425383583, -0.2702045843881979, -0.2692809616436565, -0.26830406424037195, -0.25817411480180286, -0.26224098962658304, -0.25716644383529064, -0.25916759709371956, -0.260559628418437, -0.22207420366095462, -0.08164920030456055, 0.07155156824919785, 0.14885504933660418, 0.14336610732249758, 0.13392720036423092, 0.12662694458949222, 0.12252695735986296, 0.0666078270411421, -0.06305273542455424, -0.21823325860179107, -0.27885864280585976, -0.2757397275408702, -0.27362895279452704, -0.27223310361502434, -0.2713733416446778, -0.2701373966024436, -0.2692006619633272, -0.2685256706821028, -0.25915428292474213, -0.26240120451485077, -0.256224012260963, -0.2588509975763356, -0.25999355885212766, -0.22099654449324033, -0.06399728448320932, 0.10679938061578416, 0.15084323744915307, 0.1448652647557331, 0.1342573496778761, 0.12786413457395426, 0.12630010299524394, 0.12845255948342071, 0.10367950828864003, 0.07000856514686561, 0.035890120579928596, 0.00023283866667718044, -0.03625304765441234, -0.0677403831710084, -0.09494957331582811, -0.12310099313642932, -0.15102295802412505, -0.15945847940288052, -0.11851461959000044, -0.048017639444394404, 0.005723959802241365, 0.06939445302796086, 0.1333353607513618, 0.14388673919804032, 0.14045401821999026, 0.13615786289514395, 0.13232612719689357, 0.13537295475617192, 0.13417235889340898, 0.13443380023316878, 0.12752106134488916, 0.12449083581017395, 0.10911026393320646, 0.10812485100731928, 0.11730730459167248, 0.12146193416343624, 0.12080335869637747, 0.12667304369450458, 0.1270373871458844, 0.1194831875942704, 0.10977200724954828, 0.11120354224072611, 0.13128092768295954, 0.13904649848421094, 0.13909077595057912, 0.13713986336675202, 0.13801081771076681, 0.13039808052845, 0.13346480207824246, 0.13220398786347456, 0.13247878732762908, 0.13944915393128368, 0.13353994810090505, 0.12475989217278559, 0.11413726423815684, 0.04353306513325062, -0.05832917769223711, -0.14781694634721432, -0.23119562207920427, -0.27477732665466165, -0.27379021957954136, -0.272926133665369, -0.2727233499026516, -0.27083721254940935, -0.2682277010600955, -0.2688005275322097, -0.268432593402347, -0.2665182194660456, -0.26021540711906804, -0.2618829237148778, -0.26026347050716553, -0.2589445687890392, -0.2569613384279385, -0.22510908925944786, -0.13508658631309353, -0.0411272624850426, 0.00183568380930381, -0.024352096997038095, -0.07496567143716674, -0.12134436636260588, -0.17056198096857292, -0.21937969051750192, -0.2551075194502811, -0.2700913508138952, -0.2697896568427287, -0.2694660897476356, -0.2688404109971435, -0.26818611302014134, -0.2674339553912631, -0.2674482022006556, -0.26765038057309715, -0.27037114939472884, -0.2662881843356764, -0.2621313231033134, -0.2614059170827286, -0.26420229765901526, -0.2389930259802938, -0.123302323757403, -0.004683018893537831, 0.09628701676223732, 0.13443068959034846, 0.10536058202566619, 0.04792457662992905, -0.018162945815574386, -0.09631732314225626, -0.19231334531556324, -0.27365649858492497, -0.27714181971477597, -0.27525225310048146, -0.2732398882534201, -0.2725648089128546, -0.27214036409985426, -0.2714014273358628, -0.2700441324669524, -0.2585526499240401, -0.2608840908428545, -0.2534920491248787, -0.261382667000859, -0.26116528678947043, -0.1953116857775026, -0.06288663055982129, 0.07071031904163533, 0.1453663605886967, 0.14153836340133666, 0.13260879745320983, 0.12616087552179522, 0.11191037180421372, 0.03908707474438121, -0.05473510708952956, -0.15295712707872633, -0.2449915931980051, -0.2759797481672584, -0.2743941289467026, -0.2727269522724986, -0.2716572956461194, -0.2708139696687773, -0.27107791536214904, -0.2699771371027668, -0.25845067235813945, -0.2611161078192635, -0.25471011729589105, -0.26128423001995205, -0.25095486378944604, -0.176145814180235, -0.05497394053775226, 0.08611176077588201, 0.14831963180115662, 0.1417932525272912, 0.13307898581899094, 0.12555940038740646, 0.11953921265445695, 0.06726829626297906, -0.013921018225693365, -0.09766312460935234, -0.17358698282458815, -0.24432631550882064, -0.27561341707582687, -0.27541119947260795, -0.2718543039574993, -0.2705282716552017, -0.2709625032367029, -0.2711474523057436, -0.26035722602202965, -0.2613493581007829, -0.25431706711535057, -0.2604467981205644, -0.22839684560723938, -0.13666540591876983, -0.02886854839803842, 0.06631357416820023, 0.13221792787267855, 0.13812355815708774, 0.13366402487095522, 0.1328062882498076, 0.107674399359603, 0.039927641174266504, -0.004949988381158124, -0.03767772275193971, -0.06371454729305788, -0.08368595725072771, -0.10614745798725823, -0.14544523577959556, -0.1664019096219043, -0.18263320075932024, -0.21824729924947942, -0.23595759352428303, -0.21188170297081044, -0.15037893378217493, -0.11071905922795357, -0.05235119946588216, 0.014911379402840994, 0.08425433652041987, 0.14367160706326423, 0.1477580942012039, 0.14511004160457094, 0.1404376087105012, 0.13087234127796443, 0.124827834007134, 0.12415309608153967, 0.12935602155777426, 0.13247969965663706, 0.13272670508869877, 0.12458910625784703, 0.10721316744876212, 0.0873516142129972, 0.05939158216683937, 0.02543853355366295, -0.0192144642356692, -0.08969460600109934, -0.11635106759097619, -0.08199971230825377, -0.023016660863167542, 0.04550427313300067, 0.11118257312610223, 0.14045066170312837, 0.1458957038449826, 0.1458617873654828, 0.14311316908783625, 0.13812158848297248, 0.13429646373060242, 0.1307339770129791, 0.1257692536725951, 0.12360969387328768, 0.1295785691604391, 0.13058604074838673, 0.1263907967324237, 0.10181522828029727, 0.06827684032726349, 0.03394897512254596, -0.001273993677944631, -0.03896394733943929, -0.0763918766021515, -0.1119854241729304, -0.14360757069061209, -0.17881451829623096, -0.22979823701767219, -0.24302920885413434, -0.21036480984178116, -0.14253253870075824, -0.06785381001592751, -0.0056789486638785065, 0.06826082827812138, 0.12038022973577249, 0.13815563812960288, 0.13566576608851824, 0.13405020352815203, 0.1349704246318543, 0.13333927102483786, 0.1191950302062801, 0.08579425453151933, 0.012796625594580259, -0.030595649347895815, -0.06167794596325445, -0.11294117906442203, -0.15630621442388096, -0.2033546923933979, -0.2702421075426938, -0.27491057836608795, -0.2714889771543822, -0.2721131955001735, -0.26884803784310757, -0.26344952004274286, -0.2532591951160937, -0.19443783026696745, -0.09202421169469875, 0.011363351515292795, 0.0969661669842065, 0.14335469052433766, 0.13453201339644208, 0.12185859174317148, 0.10323047403695614, 0.04638064777931262, -0.03213206203007376, -0.11894388066432195, -0.19265337682239658, -0.25698314152071605, -0.27524576227797676, -0.2733462555267984, -0.27221403201054767, -0.271356492028561, -0.2706179130381319, -0.27009915246583827, -0.2590935768224946, -0.26118525296059386, -0.25679416197437366, -0.2439623152297433, -0.1535577266279172, -0.032428553471081804, 0.10318457565183752, 0.14553146328258368, 0.13920812048190487, 0.138215601951689, 0.13470748900508617, 0.12837781868321393, 0.12070572096142769, 0.0690345385745058, 0.028364002662600977, 0.005838430493699232, -0.01896518490645465, -0.04355222934980125, -0.06622416005159194, -0.09607080405268632, -0.12260923319458887, -0.14893726203035548, -0.18098916979665888, -0.22066032413863468, -0.22637542089630378, -0.15723071423441068, -0.10092523579349726, -0.03367618641616408, 0.037467310939959, 0.10447402585950939, 0.14091558802184456, 0.14043512552248302, 0.13866006740388956, 0.1359961996329818, 0.13419389743140228, 0.13375139932878263, 0.12589370923605075, 0.10684126635280244, 0.07396358813767326, 0.04330067373046475, 0.021740621389154318, 0.005492591193196539, -0.007252478894160319, -0.024507461591162124, -0.03920076721229915, -0.05033886576108448, -0.06459488680703815, -0.06638008728713277, -0.022211405743686744, 0.05333923241391411, 0.10905394450624888, 0.1432814255536964, 0.14391513529205419, 0.14064580011502628, 0.14264319694162367, 0.1372871158694735, 0.13511576637927114, 0.13364265231696185, 0.1314221631822314, 0.13148616485516118, 0.1246887180354909, 0.12845685936438603, 0.1240009190525188, 0.09176579058172545, 0.046312904622162, -0.0006616138763323502, -0.0430475444392828, -0.08090898169965767, -0.11032383410145181, -0.13015881814794472, -0.15042076626152256, -0.15118807564136746, -0.10169875419250389, -0.024082455182690133, 0.023218768455048305, 0.08079746244807613, 0.1345866996567272, 0.14465201587080626, 0.14450865206556432, 0.14410950694365146, 0.14065393613007557, 0.13611237185492228, 0.13008291063243158, 0.1234384825793325, 0.12331879670619379, 0.1284451581592385, 0.12931212736482978, 0.104786270084462, 0.04785166379705127, -0.02539080884523684, -0.11451124326832014, -0.21112941743945388, -0.27586991073559114, -0.2771474018135823, -0.27484133010689843, -0.2718373694380462, -0.2581237792737151, -0.26345386620163297, -0.2624109354176463, -0.25151058281274014, -0.20703275698034887, -0.10912829500389211, 0.036615858738509054, 0.13621928383804316, 0.14481521460259547, 0.14215243461997915, 0.13325477860938825, 0.12394447883692832, 0.09730359287848434, 0.00020202943778381902, -0.07860193366074004, -0.14166561054560278, -0.20058391247524146, -0.2657165674879241, -0.2752062657727657, -0.2725645369882211, -0.2700874813705821, -0.2682444140822513, -0.268058100540266, -0.26798629508002264, -0.2678163592264759, -0.2671410217802202, -0.2649497992176992, -0.2581663032664729, -0.25456410930134404, -0.21749112858551467, -0.15118515614672534, -0.05891074207325955, 0.02726002160121296, 0.07445663616732544, 0.058953951831209966, -0.0016807310195352109, -0.08014783443627678, -0.1469577569929043, -0.191532915051383, -0.21989053255721905, -0.24949734180598102, -0.2698947996996299, -0.2711612568308764, -0.26994204145345274, -0.26930286623724686, -0.2696830916870593, -0.27007301235380804, -0.2697758100315171, -0.2685305833258988, -0.2659809039497299, -0.25787503688331553, -0.2590874350443296, -0.26249584797143216, -0.2407852150161696, -0.15851378089113335, -0.04830095692723791, 0.09093715762439565, 0.14172639622342528, 0.13507145114813726, 0.1235893985649108, 0.08631005458913564, 0.022548373244380044, -0.08404518366615532, -0.15246846888146612, -0.21352383978043885, -0.27291156523753096, -0.2756833944893921, -0.2739860799692158, -0.2717537223376722, -0.27032447062586157, -0.270266909397918, -0.2705265573707808, -0.2599294363569045, -0.2607130174335556, -0.2530906275602604, -0.2532692896021352, -0.18618318730138805, -0.07957789783584752, 0.07896444733722406, 0.15158784924582674, 0.1487432265658817, 0.14202121305655252, 0.13286483328117316, 0.12299751597113658, 0.12176865047591305, 0.12794202765371007, 0.09057800265147163, 0.0097464743630103, -0.07004011917466738, -0.14720369268756528, -0.2158980301938296, -0.27409789913468136, -0.27377326666555485, -0.27271414405085376, -0.27115748369495773, -0.26980835529798397, -0.25799656781246494, -0.26092488829729427, -0.2434857422750045, -0.17374453144300586, -0.07446965217354666, 0.037683092786135845, 0.12911017109741757, 0.14794185167695653, 0.1439452400905912, 0.1426618116579703, 0.13526978467879133, 0.12438320326870261, 0.11965420911632363, 0.12544272289289737, 0.09403304390763641, 0.030919871814167235, -0.040304886117333384, -0.11358528573780508, -0.17498314936520956, -0.2578050545945247, -0.27606653238974505, -0.2731683658009166, -0.2722127659010926, -0.2705971197533302, -0.2572174286757644, -0.2574034784957152, -0.1921397727434152, -0.08556527193598314, -0.005009696789456622, 0.08245300913917206, 0.14754229483042636, 0.14849671085461685, 0.14353346061335687, 0.13834488473101872, 0.13334148461777517, 0.12470472638701492, 0.12108969524112863, 0.12500292563155999, 0.09159183604371296, 0.035822990719569896, -0.05614352594964995, -0.12443533955007048, -0.18265601350594576, -0.24096430206128017, -0.2711301909941641, -0.2712735074827199, -0.2698968981541372, -0.2681281686957167, -0.2564263516898198, -0.24828731287818154, -0.2111345334770082, -0.15409137960490327, -0.07314011726139945, -0.017108930262651763, 0.06708072244173639, 0.1303009943002261, 0.13964363818048062, 0.13649363890228575, 0.13475537717720257, 0.13431838900452087, 0.12102780294366589, 0.05851911671029447, -0.005866596653938611, -0.043459060836825596, -0.10728438447310006, -0.19579646974683573, -0.26121865085208446, -0.273756730223125, -0.271302354894499, -0.27100250471751425, -0.2713394260084357, -0.2696224168536344, -0.2584134646064526, -0.2607839926805803, -0.2431241599189101, -0.1643522491186771, -0.04282005241331216, 0.07944524046506052, 0.14715247596279568, 0.1487943185891697, 0.14541861664949227, 0.14112614147519678, 0.13457975985335632, 0.12395701009220488, 0.11903052562079404, 0.12706372983183814, 0.12068133217262578, 0.07154545633968168, -0.00223764935467311, -0.07041575517876615, -0.12133291457051577, -0.18584974221399372, -0.23716630582893303, -0.27028117819853403, -0.27098181457307885, -0.2700963457319203, -0.2700863203656033, -0.26553790196781646, -0.25340953647433284, -0.25218589613292847, -0.20174276508983505, -0.08245837410680038, 0.06369018462485605, 0.1458193203870429, 0.14527069038435164, 0.1402085434617996, 0.13379712950888892, 0.12418508068752498, 0.12805838529805771, 0.1312612664454368, 0.10451845332891847, 0.051357868559276564, -0.004843388435109565, -0.05766416180078968, -0.10021793620132535, -0.1390118300741103, -0.16781484914723813, -0.19865859703437452, -0.2324552611824123, -0.254774425167371, -0.25654395390994505, -0.26291386934133937, -0.23125553896793347, -0.13500094094263673, -0.041676209290027466, 0.04104763267480122, 0.12291532923791659, 0.1481616701114564, 0.1416682033554151, 0.13901491429604756, 0.13366410133337786, 0.12543438687872177, 0.1264770602364572, 0.12721384336555022, 0.09796423608211047, 0.0673174370238993, 0.025676214282947, -0.006743585522009067, -0.033568582589143886, -0.08223588597809532, -0.1189808422884054, -0.16729531601153477, -0.22571009999452651, -0.26543475178818227, -0.23992117644702946, -0.18853332743665907, -0.0735009250599654, 0.04360553511742146, 0.12397408679112398, 0.14512564758250227, 0.14583626962971707, 0.14357249210385298, 0.1397502312677559, 0.13551876877080113, 0.13320484923809678, 0.12614885860396516, 0.12000491935631086, 0.12808538913211323, 0.13097357620782255, 0.12185342715403763, 0.08398063435762709, 0.03541807266715152, -0.02120219691023259, -0.08475599535912431, -0.14811539959987974, -0.2206504622641583, -0.27391220435941926, -0.2738195843820292, -0.26104667134727144, -0.25709502813426516, -0.15015116059087688, 0.004424359943837587, 0.0993789319678768, 0.1456058525200941, 0.14957243193741218, 0.1470055870450747, 0.1430600232878342, 0.1407591341806814, 0.13363053226745902, 0.12442445280097303, 0.11996292663952351, 0.12905917386399043, 0.13068207341548135, 0.12748981004743684, 0.10683674015321408, 0.07394007666873677, 0.036809688797382445, 0.0074813219879340045, -0.019874720837146892, -0.04801115339855803, -0.07423728049426387, -0.0964295023966026, -0.07504845826885388, -0.02997218801965061, 0.0018864467168124514, 0.046324073055647064, 0.10932553439117275, 0.13635216813608622, 0.14038274211495516, 0.13676600906047062, 0.13664813501620002, 0.1398857450316842, 0.13760939848828105, 0.13093771078706082, 0.12230657357458678, 0.12548610681391636, 0.11177040172608305, 0.08860862006324322, 0.04213132920574949, -0.0011765969559353918, -0.02876109706554347, -0.07914923168886277, -0.13356763628419058, -0.16927450065738212, -0.18485301718907976, -0.21346535268851644, -0.23914677005600402, -0.18953503451032874, -0.06497953211955691, 0.058748804279134724, 0.13307901521995985, 0.14392836671723683, 0.14477726423366077, 0.14450389704930947, 0.13847219010255682, 0.13558152950676036, 0.13061283940581464, 0.12473744666444786, 0.11970375091202373, 0.1262161016349627, 0.10196395969711587, 0.057827273985827606, 0.02506924024752409, 0.0018742878463708266, 0.0029041493789998605, -0.006939291742164712, -0.020117176398605444, -0.05153173744754436, -0.07564353083908101, -0.08122315199947268, -0.07707768034023833, -0.03168289236050322, 0.028362351245997463, 0.10034014862235109, 0.13586641958116794, 0.14041925845974104, 0.13719701151227245, 0.1345549751508058, 0.13306977555113078, 0.13739138600431208, 0.13427267322855374, 0.12850222488120297, 0.10626240911456909, 0.03268422572263697, -0.0320717339602433, -0.09477785040907415, -0.14236781139648094, -0.18319899232875644, -0.21781147780443377, -0.24200225259825184, -0.2688200414919787, -0.2722676153623072, -0.2729532535016975, -0.2709814849514121, -0.26850644948120633, -0.26448269158175336, -0.25250511681140575, -0.23252656653485493, -0.14417567021638397, -0.07639298954975147, 0.006037903469785705, 0.08961993670113838, 0.13055586960697838, 0.13133866311159806, 0.1144787818953979, 0.07062345588474453, 0.012950137562396616, -0.036156243972726716, -0.09126753493550528, -0.14595604271270624, -0.19406301776950666, -0.2545025909606792, -0.27543776626800387, -0.272561085788594, -0.27037248433018973, -0.27061242064879215, -0.27044615607579475, -0.27232351097611324, -0.2727764220377402, -0.26499506070042517, -0.2503399945296712, -0.2608934638726493, -0.24430963101399172, -0.18433694868987616, -0.0836619737642882, 0.08396682789687954, 0.14737667003812935, 0.14450708209113752, 0.13530175867731478, 0.12560882402602558, 0.11352833121310972, 0.04694045033274293, -0.022425585622164998, -0.06592734549077854, -0.11826148337121632, -0.1629960697105225, -0.21988534969666385, -0.2691847165328499, -0.27243090864387964, -0.271597943883862, -0.2708324999768193, -0.26949403053292814, -0.25890317646531075, -0.2599240278090691, -0.2257340850032107, -0.15460859158130053, -0.09928303843889656, -0.04809871604612479, 0.024077447939378552, 0.11898492993121153, 0.14386815931489305, 0.1390356229354994, 0.13421681817722977, 0.13106745917676713, 0.12208699799860377, 0.08141061269231241, 0.025379187501267112, -0.017563909389629345, -0.08495085590537736, -0.14756548747402512, -0.19133223357776272, -0.23686106888304448, -0.2746838677605368, -0.272957456192436, -0.27121160004187655, -0.2699885838233897, -0.25833268820565847, -0.25717781540061174, -0.19827989696551576, -0.07687988176073911, 0.012829483258869035, 0.11089415292168103, 0.14855711657951923, 0.14980476948177343, 0.14505705272719685, 0.14083407962813174, 0.13300938004501667, 0.12493238731321447, 0.11757450629367462, 0.12679399041254194, 0.11431999118137852, 0.08163446145327288, 0.0349288581987759, -0.028976936477499642, -0.1104766366126545, -0.16949645656293985, -0.21322443020550322, -0.2461538614003517, -0.27475319224405065, -0.27370737318248267, -0.2618153264388192, -0.26023059641261287, -0.226027237009346, -0.10757591700713666, 0.01777018505811389, 0.13082277831944947, 0.1500082430338455, 0.14571323175572434, 0.14259035965501787, 0.13970714898346573, 0.13375272951956094, 0.12645413029132987, 0.11893248482611392, 0.12809762259510962, 0.128932896528808, 0.10387902228796757, 0.06134967535200686, 0.013902696462114998, -0.023860949471865244, -0.06590627601095318, -0.10489205241008702, -0.15615516276847033, -0.20084966340874424, -0.2562615396207835, -0.24674840002062523, -0.20659596943227887, -0.1145923155664974, 0.011100125800241003, 0.08444377576153046, 0.1453995355815532, 0.14518366953065184, 0.13547488429789634, 0.13914710947512385, 0.13529348867050442, 0.13208395621143526, 0.1303916749188176, 0.12670351738463123, 0.13159537973127147, 0.13347094485039457, 0.13071528229397084, 0.12015834863785001, 0.10903910395617965, 0.09836655462889522, 0.088962490895216, 0.07681487928388551, 0.046069044334891514, -0.0020487131671380037, -0.07168066820465885, -0.08768816765071742, -0.051183449087605616, -0.01665703446432867, 0.04838166587904764, 0.12473255891816275, 0.14089051139404032, 0.1411487532504056, 0.14308467769082522, 0.1404356186977451, 0.1368064167735541, 0.1320454455040899, 0.1254818453137522, 0.11600756918001069, 0.11254230775161451, 0.054829640499663136, -0.01693017513597008, -0.090335296720511, -0.1436252710350995, -0.18866147865816893, -0.25996540410487945, -0.2710973226809035, -0.27155732581445685, -0.27279360212113074, -0.2710341729269597, -0.2688715809892653, -0.25883527849427834, -0.25068574168372076, -0.2209694990422758, -0.13963101617503867, -0.051327693724900036, 0.03320871241312867, 0.12683848014147794, 0.14152102015388757, 0.1371253594553589, 0.13142657455443277, 0.12300280286117027, 0.06906308262250214, -0.028650967975879283, -0.11105573010177999, -0.19944199666849702, -0.269433407573832, -0.27393436201342153, -0.2723977660865747, -0.2708518470015094, -0.2693594942535424, -0.2695273689240346, -0.26941998693331465, -0.2684967971733257, -0.26842091589339323, -0.2579898009255082, -0.25070612559015243, -0.26235716558241484, -0.2599025472327963, -0.19513492419985293, -0.12268965371084961, 0.020230997621754728, 0.12865352477083786, 0.14386277059667626, 0.13594113681894743, 0.127266485002802, 0.10940109036021435, 0.025912371180075455, -0.07722369652464055, -0.1702518550314112, -0.25478120555398226, -0.27304975683115157, -0.27009600836808884, -0.26898069801320473, -0.2682206392327191, -0.26720139356211786, -0.27087167957829766, -0.2672578734676318, -0.2538113913033481, -0.2585114774019972, -0.2525336179899425, -0.16359669921923994, -0.0021088001078955593, 0.1280219924340065, 0.14476099117276744, 0.145431336935803, 0.14139698123327496, 0.1358252638418522, 0.13060533783774098, 0.1261874276889082, 0.11869669065105755, 0.07980972273197655, 0.01140077035045312, -0.06154339317188223, -0.11827813663528436, -0.19209171675820058, -0.26946969493388573, -0.2733315473081943, -0.27134425629879716, -0.2711935627138035, -0.2693820430435507, -0.2685422616630511, -0.25702456129299023, -0.2562564698953173, -0.18209660121511703, -0.03328544187444957, 0.08300128417232813, 0.14208888098561046, 0.14695503116482153, 0.14759266623183673, 0.14464415663589594, 0.1403095701678981, 0.133510782261515, 0.12702000093884394, 0.11805443040559814, 0.1261486765531367, 0.10811886323426646, 0.07311034032123621, 0.04227072830137409, 0.02621179339216917, 0.011598477946300563, -0.012413589872172065, -0.03157057067764523, -0.055636771292966236, -0.0874983154209572, -0.11278316944705395, -0.10295233794143993, -0.03502807132879898, 0.08613592909640888, 0.1437072466229011, 0.1418088588300366, 0.14286845864489503, 0.14309216668486804, 0.14102774319489245, 0.14157640385349365, 0.1394668246885984, 0.13435039920873273, 0.12448522637664548, 0.11444506205403975, 0.12598006413638219, 0.12918455207181126, 0.12978262863751708, 0.12628969475892401, 0.10816361256790574, 0.07827695783599206, 0.01746429150311247, -0.024945626516610458, -0.054806162688880077, -0.08116441244698067, -0.09391011394209052, -0.06744652957888751, 0.00563210601572325, 0.11196479067586766, 0.14149583796297227, 0.1382118191770798, 0.14067823337694543, 0.14394218037568993, 0.14449257072800195, 0.14172565932160516, 0.13888868779460248, 0.1334095789742813, 0.12604942977478137, 0.11917602122404353, 0.12808414579696417, 0.12912385630872394, 0.1282264853851599, 0.12410402367752539, 0.06979137032662987, -0.030181680365695306, -0.14976621988611674, -0.2569420459754474, -0.28154103137764336, -0.2771187231383672, -0.2733377851401004, -0.2602463078135775, -0.2593537929149941, -0.24908083377655058, -0.20136588756037863, -0.10965953379078575, -0.039635142469228925, 0.012785034037939938, 0.11895961994381554, 0.14270196444165198, 0.13704303158237255, 0.13219521297806874, 0.12614546488416475, 0.07217934922591897, -0.057180142996727835, -0.18762747162415974, -0.2738667181279942, -0.27523282460640136, -0.27267899387764866, -0.27083920876884615, -0.270074499470806, -0.27001767974266633, -0.2693300712954392, -0.2678643871929806, -0.2673690366548741, -0.26722169302209225, -0.25822573718367875, -0.24687513792899063, -0.26061093142348085, -0.2632125697107, -0.25093162832916954, -0.18912117717749746, -0.039569034776381996, 0.08092806258600449, 0.13232845937274515, 0.13641350373860534, 0.12513831362978414, 0.0657665144368704, -0.027859883504768538, -0.10162883815971775, -0.1734906514404856, -0.2594072949878961, -0.27150402868904566, -0.2695069674311858, -0.2689719655045955, -0.2686119702811405, -0.2682688107076694, -0.26943515305905485, -0.27116702030658685, -0.27135884992278164, -0.2621351455605667, -0.25086853520066205, -0.24673257706415752, -0.16391935338051675, -0.07343873040703681, -0.0004514306209500521, 0.1071153915511953, 0.14368485456690538, 0.13731245942619422, 0.1305653161652317, 0.12666079478472284, 0.12540450591871694, 0.09874928533208654, 0.03532110529626344, -0.002164097629308728, -0.1013320841520375, -0.1871313700257462, -0.20754517921326096, -0.26699421062679146, -0.2724464865115454, -0.27059094906485437, -0.26973727869698455, -0.2694148105337562, -0.25844633396717864, -0.2541083295938233, -0.17179304990029576, -0.039780178699336276, 0.07550126528369536, 0.1441716120835507, 0.15039932787922175, 0.14796617384060332, 0.14338487653126314, 0.14047756381946958, 0.130633496999446, 0.12419340622191037, 0.12293879425276195, 0.1316558538512486, 0.13092686484673158, 0.12625892646642795, 0.09282416106811046, 0.057142344735042726, 0.02740154896216282, 0.0053367891571068264, -0.026380650302206127, -0.08396069929855272, -0.10905047689861604, -0.1514080931336287, -0.1467052848714747, -0.10678165990565804, -0.0487452374065252, -0.025402313449635148, 0.08176295459016539, 0.13700480926960493, 0.14571282916671036, 0.13564016319544367, 0.1360951437178676, 0.14388350108939532, 0.13806062008181985, 0.12736576769791247, 0.12626564511604924, 0.12899966511184796, 0.09694124834115285, 0.0510286028070824, 0.0503786124922</t>
-  </si>
-  <si>
-    <t>[-0.08565419744989211, -0.11875794650611048, -0.05400166130356352, 0.013633249193196835, 0.0717595649027409, 0.11770376685734768, 0.15693793166587672, 0.22373364723224873, 0.26677880672215293, 0.26424284999426645, 0.2669503719825877, 0.2623171861165333, 0.25948807976823457, 0.259887103880101, 0.25962566140028903, 0.25786705265597204, 0.2530250049873784, 0.2460938912135285, 0.24393660656479665, 0.2354314578535467, 0.16919552342483127, 0.07501525167172485, -0.01701966275095432, -0.09292638133463062, -0.15809208580169146, -0.22079860154310604, -0.2877959834912583, -0.35390210106530245, -0.376157119912418, -0.3746407909143496, -0.37356475183053245, -0.36384711431417144, -0.3672588112803816, -0.32563784659053757, -0.2593167424748407, -0.20363466537859523, -0.13463003895199163, -0.038851353145446035, 0.0719795553837644, 0.17713560560077016, 0.25073656003354244, 0.25183496731217114, 0.20779664063724432, 0.11133382991482776, -0.017771578390797883, -0.12032598827765106, -0.21175336214488108, -0.29023166358379004, -0.35900849784669764, -0.376382228193801, -0.37464878833104986, -0.37362693948597375, -0.37278085747791906, -0.37243405103355215, -0.37150623729519966, -0.362170359775299, -0.36613675992136274, -0.3634715150627665, -0.3589817712095947, -0.30720795983083754, -0.24035648132133156, -0.1625049256808391, -0.08105168193067346, -0.006768629871205023, 0.03620367177998731, 0.030193186230740816, 0.013106975248189332, -0.04693585115588908, -0.18311772804985607, -0.29933588782099035, -0.3596388913835611, -0.37606886539641926, -0.3746758869787578, -0.37368144302517387, -0.3725851658088087, -0.3719906565713709, -0.37233529481506245, -0.3726893819318993, -0.3728027586817206, -0.3632495106094756, -0.3662903154211699, -0.36207090370211614, -0.35857190074091955, -0.31627614333250603, -0.22478284776986301, -0.09216882946767646, 0.04980742051728242, 0.18701091160894298, 0.2639203676025807, 0.2552693053444825, 0.2396608575690197, 0.15524902472794933, 0.032788402035288065, -0.06404562443312711, -0.149062332085788, -0.21616656330553133, -0.27488279002895905, -0.3300098707995193, -0.37208381753433245, -0.37452768138999865, -0.37306837088395256, -0.37259170991771207, -0.37236787159000073, -0.3723255934379133, -0.37060939698220263, -0.3650676477651195, -0.36483636779521555, -0.36127474394584763, -0.2900793886764383, -0.14958060139348894, 0.002267831451323487, 0.146037826657246, 0.25144979050355254, 0.2580411430080522, 0.2280797100147848, 0.1705158435298045, 0.10417690585798496, 0.028866267327048428, -0.04790952470797316, -0.1146786978539945, -0.1776099799855794, -0.2469013791201963, -0.3365398047353911, -0.3742801582586665, -0.374113201219671, -0.3735310900400772, -0.37334348234496445, -0.37302007616149996, -0.3708844920254217, -0.3646935681628833, -0.36599843155374717, -0.3542339576372235, -0.2689600813172879, -0.132354915005286, 0.017409397232245084, 0.1688699034979099, 0.26003031701308105, 0.2547667185816939, 0.22086340754780767, 0.14512387032870813, 0.06251394444450174, -0.028324015104573958, -0.11822469933559243, -0.19624327097603358, -0.26911109447258225, -0.3424639415221719, -0.3774652668175505, -0.3753827293052073, -0.3746377341005647, -0.37331602221480914, -0.3721427451352561, -0.36345517037919844, -0.36677203972669065, -0.3482871933010454, -0.2792323795351672, -0.20043471344706956, -0.09974002874408623, 0.02754411246078432, 0.14937522333523798, 0.24736927530492503, 0.26335714222109846, 0.2542807838914162, 0.2307751160189714, 0.1284975576320486, -0.031132081469074768, -0.16572072339324184, -0.24421730489415636, -0.31615735653860016, -0.37202719768940534, -0.37513485144074493, -0.37353740332564817, -0.3727639056989646, -0.3726269556793733, -0.37296641283759663, -0.37303987104741276, -0.363042558028621, -0.36638742812755015, -0.36251945287325144, -0.3654084411979042, -0.3518084088421926, -0.2850815722242488, -0.1764602463773145, -0.046297948288590234, 0.08420694325263396, 0.1883080941727067, 0.214358292366589, 0.1685941883911515, 0.06486069376373074, -0.0896808396345678, -0.22972254759393276, -0.35562430227685016, -0.3802293939474708, -0.37748720086705845, -0.3750761976009401, -0.37361123136820096, -0.37300618026928806, -0.37270970037783696, -0.37215295627963946, -0.37127924282714647, -0.36160408442436304, -0.3651764958534333, -0.36153815090888747, -0.363710717048298, -0.36375952156818964, -0.30224710451749637, -0.15348954439141832, 0.012708724440554342, 0.17722457721002896, 0.26695892612538547, 0.25816633798999816, 0.24994377087303934, 0.18535944014745867, -0.0036225836171007247, -0.0978326558755287, -0.16010505634053565, -0.2710539980508793, -0.3715473837758718, -0.37735380762133724, -0.376173538603324, -0.3716213922167159, -0.3718992703207933, -0.37262014094627594, -0.3729868128584302, -0.3632416355462185, -0.36651513897668603, -0.3632335508896211, -0.36538694679104977, -0.3339523657584372, -0.2247257468763648, -0.07550899009981155, 0.06511060035576328, 0.20161979566018595, 0.2659647072352738, 0.25743976227074844, 0.2506052043569919, 0.21601243308551818, 0.10965763944432842, 0.00938458953510044, -0.08920825284953467, -0.19064437286846658, -0.296879930737286, -0.3761771258600309, -0.3785284595047007, -0.3762053745359304, -0.374694929188574, -0.37380769722378243, -0.37257158687141806, -0.36237405229474, -0.3656160119699656, -0.36177123322031307, -0.364254074337715, -0.339817001974531, -0.2292936375491219, -0.075014128336664, 0.0806248722526262, 0.22673415874920078, 0.2676912753908252, 0.256965472384456, 0.24953940237295916, 0.1968205758332163, 0.006713557013955992, -0.1267269172637285, -0.228549678109071, -0.30562093532001094, -0.36388850392900957, -0.3757196849460643, -0.37475214756998687, -0.3740808050713356, -0.37395460967517763, -0.3739646849260732, -0.373903611270983, -0.37370333858111476, -0.3711578495017203, -0.3637217820389856, -0.3651011617206142, -0.36433202072249743, -0.33554431197580553, -0.19855167985198174, -0.042430068081096256, 0.10809859989526589, 0.23121433828645419, 0.2591682206245776, 0.2257031094606242, 0.15637155487378976, 0.05216558170095303, -0.05820541790290684, -0.095939867978753, -0.1377543956693928, -0.18464083689777647, -0.22848298867107816, -0.2696620037917223, -0.3119059424997006, -0.358493079997483, -0.3784118399160877, -0.3770510304661978, -0.37613140220310465, -0.373716298034023, -0.366965527619572, -0.36744813879858834, -0.3684989006671877, -0.36315335807232235, -0.33613561958588933, -0.23896468024708298, -0.12461734659595869, -0.03275778804204577, -0.019916949729319573, -0.08381815063352399, -0.17162125753101332, -0.2617950507125566, -0.3537198302965893, -0.37654793079588916, -0.3759427460562868, -0.37574556955933813, -0.3748927070391436, -0.37402078915037884, -0.37345368725393385, -0.37275824565221977, -0.37231176629135093, -0.37187948276688293, -0.3621455116870332, -0.3651948664608035, -0.3609002821152141, -0.3631550781818564, -0.3646637906510722, -0.33757049477060314, -0.21942877516919024, -0.07442362432817319, 0.07159786790404468, 0.19119991182464022, 0.23703240818373764, 0.20539618970280435, 0.10918211604911877, -0.0308717532585854, -0.15056047309697312, -0.2614283356695123, -0.351243183694329, -0.37830643462506647, -0.37669044202260754, -0.3759297704388373, -0.375301510554315, -0.37375255284282966, -0.3727298476190559, -0.37176543592102657, -0.3624858366960912, -0.36622330510132556, -0.36219717808323476, -0.36385659092318695, -0.36254852070843646, -0.29023574446163497, -0.14210345135524985, 0.020923338948742723, 0.1864082270865437, 0.268295600123964, 0.2590323235722282, 0.2498939791943222, 0.2169188845368546, 0.08774573532978525, -0.062240934361238676, -0.21639388466525022, -0.34645557350617656, -0.3805848280294686, -0.3776194088821851, -0.37568902958766515, -0.3746884865480998, -0.3736353571927326, -0.37278218838156235, -0.3721002875012794, -0.363511008874811, -0.36648187181437425, -0.3613907272554982, -0.36358499624131096, -0.36376008495362183, -0.2926334700379727, -0.12470966523383493, 0.0664876868733716, 0.225743091469925, 0.27151531812876595, 0.2596481190889019, 0.25120582652851053, 0.2322836829284652, 0.17175028440868212, 0.11679902823180428, 0.07067150535278725, 0.028721575623375448, -0.012346867124831983, -0.05235687651959423, -0.08585898237205429, -0.11406634085893219, -0.14226559201435954, -0.16938929519075843, -0.17785793777127248, -0.13993180166778724, -0.07253041151073474, -0.019106671225550622, 0.04692903405649457, 0.12813576888087716, 0.21913126796173968, 0.264930337230036, 0.2609329106706053, 0.25609477001920306, 0.2586299965990541, 0.25652012858055345, 0.2565672573691106, 0.2262253452936985, 0.16624529864308366, 0.13262187114487098, 0.12368279762011232, 0.12835003013424903, 0.1289514608891015, 0.12528128837395813, 0.12946684258215133, 0.1281082684544211, 0.11849032021121575, 0.10684654775239792, 0.10759671118314991, 0.1401874803561042, 0.20226015014455864, 0.24160080138765308, 0.2606991804686897, 0.26186763552324027, 0.2533835530124213, 0.2555805358058119, 0.25467484642181576, 0.2553717992786626, 0.2628590314393235, 0.2567037705696949, 0.2470893169685102, 0.2092718142426414, 0.08960106222702467, -0.023475103805088993, -0.11362265088567898, -0.19226585208763733, -0.26420764838244154, -0.3325080168877317, -0.37680000895835497, -0.37702193052458793, -0.3745598930307452, -0.37201497106985987, -0.3723888024038562, -0.3719784485613202, -0.37024255163242725, -0.36480799755018567, -0.3662859653206696, -0.36494356455521176, -0.36391289380762326, -0.347363801076323, -0.2656675548260213, -0.16709918267626664, -0.06965676050799398, -0.022430003357995883, -0.04562976803249013, -0.09290957550956656, -0.13506221172620353, -0.17899738217066075, -0.2215589802351887, -0.25177404531971975, -0.2747949763718936, -0.2955502237801373, -0.32325146670146016, -0.3527449015381352, -0.3719481082458922, -0.3718841904785375, -0.37158760631541615, -0.3715892767258439, -0.37372627907138, -0.3701423861216935, -0.3666426386229607, -0.36241356984556233, -0.3369292243052953, -0.28738674391325475, -0.16339954463848178, -0.04092332362121575, 0.06860747147500418, 0.11572869141508087, 0.08424533977432898, 0.022535927811901665, -0.04463453366387434, -0.12064905425670232, -0.20932219163227717, -0.30947902128618426, -0.3761003816268444, -0.37901139551854085, -0.37645785053992026, -0.3757004915566336, -0.37537691628722136, -0.3747049050186165, -0.373414603035416, -0.36276476340493985, -0.3651002951143553, -0.35917901713451333, -0.3655625442403017, -0.33781370754296636, -0.24593566032722144, -0.11092729286698559, 0.031053553534746814, 0.16873815328055078, 0.25898921167849714, 0.25770281693360436, 0.24604145002710145, 0.17997238367180726, 0.055411126628183684, -0.05152575839453746, -0.15085662314153456, -0.23973682634014284, -0.3246691593848171, -0.3776485603810729, -0.37703414753495035, -0.37525291194974936, -0.3742553882355099, -0.3744875418522066, -0.37349362106031214, -0.3630694332101682, -0.3655782925008723, -0.3602173867020498, -0.3618154815324878, -0.30888822808011096, -0.2233395947942303, -0.10104484895312334, 0.05018519093081797, 0.20718038546617223, 0.2676893602882306, 0.2579568932293152, 0.24871043653907718, 0.2057014717975226, 0.0918656488237485, -0.006217791679484354, -0.09512759884863971, -0.1705483791477531, -0.23776230230904957, -0.31181716609419147, -0.37794814133310245, -0.37643136564486396, -0.37435770881781133, -0.3744135492037411, -0.3744264115351404, -0.3649689962917407, -0.3658852220655629, -0.3598652791534825, -0.35526613432087945, -0.28168872636244363, -0.18380238479322109, -0.07299560825384147, 0.02913625418388739, 0.11318096490242328, 0.1768551624539989, 0.20611736896485525, 0.19479636856656554, 0.13460568676484788, 0.034213217504378335, -0.01872420454211785, -0.05454562455421652, -0.08208316068317299, -0.10279212172778486, -0.1252876521150107, -0.16303624061445546, -0.1827940480116804, -0.19792102400966213, -0.23028554524037512, -0.246019670346035, -0.2245729459837802, -0.16903301234850301, -0.13211240170157115, -0.07572625053595268, -0.008195345807187756, 0.06453520900292951, 0.16100361165138208, 0.26129549874003527, 0.2708473307792486, 0.26603433487158035, 0.2548906836575562, 0.24763334099882783, 0.245471492873203, 0.2276317071415006, 0.20140618742583108, 0.17686466643255527, 0.15059383367745216, 0.12406289031939828, 0.09784373579071876, 0.06472052790544174, 0.026871205368065882, -0.02025791963194853, -0.09065927259560795, -0.1168898364638415, -0.08492005561194273, -0.02841963269778602, 0.04051146264713986, 0.11221070234644047, 0.21076829439510425, 0.2693857169127484, 0.2706868434337149, 0.26768865871643155, 0.2633914959960751, 0.2579960579625153, 0.2528278471441991, 0.24765827655214098, 0.2459022986531133, 0.25050836762531503, 0.24005428777435722, 0.19059913613135746, 0.14476561033680793, 0.10149685721240016, 0.06085593537084499, 0.021413416141803327, -0.018755006791712787, -0.05712502478148127, -0.09243317949171075, -0.12297890976087344, -0.1558955961714654, -0.2017506531523775, -0.21367003722211395, -0.18550813019582815, -0.12486904071610083, -0.05532965313037146, 0.005031138780519148, 0.08011084708850784, 0.1352386198795311, 0.17360808242361156, 0.19073173930700746, 0.19082415548332587, 0.18270790146729154, 0.16496199766396294, 0.1402417753040718, 0.10166210793266466, 0.025041517774952008, -0.018709829379307, -0.04949018094777271, -0.09859018045326602, -0.1387430728328971, -0.18102198167620479, -0.25709559418478595, -0.30665379215119554, -0.33070123442173294, -0.36673633149638807, -0.3735727969067191, -0.36759648144181223, -0.3101868598224724, -0.2148141672201241, -0.1088045907542935, -0.0014163080891822718, 0.09135647546094537, 0.17472035750702497, 0.23914626212663248, 0.18912849686373767, 0.12818491831288925, 0.059275157150388696, -0.022861519509395616, -0.10749626608979419, -0.17560886198819126, -0.23499086422713833, -0.29221570763131366, -0.3470722440872178, -0.3763368377255864, -0.3755084530473915, -0.37432221647375474, -0.37357996238017116, -0.36406600429884567, -0.3660526366360879, -0.3503431597218181, -0.28772334482511114, -0.18279892435195913, -0.05857336488049755, 0.08984324023534788, 0.21265829359137137, 0.2633609867813889, 0.263300873575778, 0.2587340811310999, 0.25136319651840894, 0.21785275655885394, 0.11033012994604202, 0.05446670746714773, 0.025087490660049765, -0.004125110059241975, -0.031501336529313445, -0.055846509435563955, -0.08614137038003611, -0.1123960433259969, -0.13780446554443365, -0.1677621030753057, -0.2036528062515446, -0.2091814072953547, -0.14783010240963063, -0.09615124836448945, -0.03163627488324644, 0.0396743483271643, 0.10981290783004899, 0.17729047530126327, 0.23965657433044826, 0.2621047073932362, 0.25907978777672797, 0.2566697560133381, 0.25590495513003336, 0.22452194854276286, 0.15499761856498148, 0.1069320061922755, 0.0689306444454049, 0.042841549650491445, 0.02340765890218446, 0.008394875829609193, -0.010471413467652091, -0.026199424674623648, -0.038044918918142066, -0.05264449546466698, -0.05493062799017911, -0.0120507481155889, 0.06359677106331833, 0.12162644288289542, 0.1807375872807133, 0.2560697638174278, 0.26543227948686526, 0.26715684404911183, 0.2631548148090102, 0.25920940568079437, 0.2564967405767098, 0.2536846502441282, 0.2529872313193784, 0.24592260460145118, 0.23379083750731755, 0.1897169911075691, 0.13970729453702968, 0.08562840890032151, 0.03381352339047664, -0.011080786268191355, -0.04993131488597156, -0.079483070589712, -0.09943152220757155, -0.11917412956646412, -0.1206484331078476, -0.07551119830183316, -0.0023234100476162757, 0.04388254470567766, 0.10263527838425048, 0.1713306758906061, 0.251345156709923, 0.26898019036016046, 0.2681785381154315, 0.2661602842997926, 0.25993769334779687, 0.2525542482598773, 0.24538470712975266, 0.2449906582786436, 0.24913568962301313, 0.2238912075364933, 0.16782845606976493, 0.09931855949188433, 0.02125706058243561, -0.06678864562900408, -0.1560133221153837, -0.23648950405775696, -0.3152709699344158, -0.37387721634604515, -0.3767366555051417, -0.3616451765289166, -0.34400505597461545, -0.31660612493920376, -0.260430341605332, -0.2027790059706347, -0.10569810449471427, 0.04185730693239408, 0.16881678576873535, 0.26016747017035735, 0.26719497497998607, 0.257016524345059, 0.24681963580395247, 0.18573952215684564, 0.053305338819960545, -0.03129930630888015, -0.09456006147473343, -0.1506311628424244, -0.21927127414598316, -0.2903333802085825, -0.34355482279568084, -0.37385865062803325, -0.37319176745881205, -0.3724291435609352, -0.37206126845468873, -0.3717284362064924, -0.3710289350049865, -0.3690818373708074, -0.36263618151569155, -0.3175356006355277, -0.23758922874205401, -0.1646746782060539, -0.07067878036901813, 0.019463636650393995, 0.0709730542602202, 0.056298630344340746, -0.004130263453418408, -0.07949843988607858, -0.14062329494514106, -0.17969296049436276, -0.20371147525243793, -0.22900037983896468, -0.27294287150064994, -0.3187683539628559, -0.3593398545789804, -0.37404895579768516, -0.37379737150782494, -0.3736798211191085, -0.3731919189898201, -0.37205516247713893, -0.3697803930302275, -0.3628278884971305, -0.363002576483098, -0.3398056136792023, -0.27604100182665575, -0.18531332960664618, -0.07338960424697057, 0.07514117817130096, 0.17708869759682022, 0.21445508232822585, 0.1708335579398996, 0.09687152609316903, 0.022298645702209786, -0.08568441161509592, -0.1505516767011357, -0.2060824593302051, -0.28349791817798214, -0.3587007513348337, -0.3785659226950521, -0.37566963115830804, -0.373910888685181, -0.37368149869481165, -0.37394806541165454, -0.3645135623265974, -0.3653228153468077, -0.3552182088142862, -0.30976118008142817, -0.2224930721377836, -0.11374982508865512, 0.05584536867897077, 0.23742949855878828, 0.2754776203659767, 0.2672075732998715, 0.2564845774271845, 0.24591535359261543, 0.24346060663218508, 0.21135864300097654, 0.1293138093821041, 0.033035383671215945, -0.0520915623882889, -0.12912875874648214, -0.19429752153421, -0.28260069563236095, -0.34702727932571714, -0.3771332815445782, -0.3755278362112842, -0.3737149133964044, -0.36334625125467923, -0.36439975064713387, -0.3051988123668236, -0.20835820214204812, -0.10559092860946283, 0.012155976294742347, 0.12890673913220313, 0.25815069582086014, 0.26998706046176857, 0.26741740305349554, 0.25885030372437073, 0.24720299749428765, 0.241722224160231, 0.21101929848853473, 0.13606817822987868, 0.058360338135544754, -0.019272666389469367, -0.0938896746278854, -0.15356208378666694, -0.23401796787119536, -0.3013593518510826, -0.3570292556135677, -0.3770157983673536, -0.37469490727185, -0.36277592986393753, -0.34198779115038924, -0.22880066152848755, -0.11402872403710589, -0.028598750640030115, 0.06628363659814553, 0.20458439734933456, 0.2742173910931555, 0.2687685817636156, 0.26232663978645376, 0.25657863173632384, 0.2474815909286856, 0.24308461530350878, 0.2185684010728446, 0.13905720204139585, 0.06839764370309688, -0.029415268131009465, -0.09840169956867602, -0.15463775821984746, -0.20829909559437398, -0.25155071702562415, -0.3033058496715535, -0.3412211673946439, -0.36693133206672773, -0.32874284190928843, -0.263263639318807, -0.21832499145128229, -0.16140394867904684, -0.08192282885253498, -0.024838686689183053, 0.06315062862062697, 0.13905600055139583, 0.20447277724194582, 0.2515954124202811, 0.2587873784535986, 0.2577601861991032, 0.21828826487693986, 0.0985507910055609, 0.01964355094620793, -0.02294441527031234, -0.08752675429839325, -0.1707380880459826, -0.2326109312433163, -0.2794196573850768, -0.3231759207474309, -0.36064595425854656, -0.3759410765238347, -0.3737678880281022, -0.3638390938986511, -0.3644407253142874, -0.29943028351456663, -0.19306112474848824, -0.06775097922681632, 0.0629260054993376, 0.19829665656073325, 0.27359328468539895, 0.27094638975034724, 0.2656029126555813, 0.25800136808397905, 0.24614002338480445, 0.24122316316988135, 0.2380696880349481, 0.18391747169609463, 0.11135544563886202, 0.028378575444026836, -0.043071101616954266, -0.09460115983761753, -0.15614289077754914, -0.20337585580781034, -0.24319055013231214, -0.2775797063804538, -0.3087708899667524, -0.34535776918006, -0.3692539254029957, -0.326867019307067, -0.2675879891331986, -0.20915712403013498, -0.09262610993669933, 0.05768974274670476, 0.21891316483838827, 0.2705771315946642, 0.26532678306842855, 0.25742080841553155, 0.24705729145094382, 0.24989360645116762, 0.221831744281209, 0.1537596276270634, 0.0865196295091921, 0.02400399103321098, -0.0315161299928228, -0.07490354385296341, -0.11322347419813146, -0.14115896346983958, -0.17011210949896383, -0.2008323130265428, -0.2208601452925556, -0.22299156833641218, -0.22904701013026998, -0.2021829232920508, -0.11660767862755954, -0.029169489130710897, 0.052643735495303136, 0.1463427721785652, 0.2561842684658106, 0.267055382607367, 0.26326664929733695, 0.25661600592215555, 0.24810718507763374, 0.24740634191928468, 0.20776703551229705, 0.14792911748961338, 0.10737925665754698, 0.05986301954055256, 0.023941905525546068, -0.005163821449212114, -0.05407538618946478, -0.08994813382675375, -0.13526688713344223, -0.18773452393752157, -0.22528270703430517, -0.2124058139538787, -0.159760525567167, -0.05302896655051156, 0.06214420915469259, 0.15234857970914759, 0.24601236502615742, 0.27109812216424456, 0.26769828305548343, 0.26325877722105634, 0.2586079866778969, 0.2560410147387801, 0.24806213627756046, 0.24256746826988076, 0.24793042132022816, 0.21944627924168067, 0.18346426240886116, 0.1344746901430071, 0.07971174427885139, 0.01995478473456363, -0.04358256006478728, -0.10392372248531508, -0.1696454970686824, -0.23561023446746746, -0.2846381687892649, -0.282675550730816, -0.23381940430512446, -0.12698135173203115, 0.023384082312223147, 0.1221574732642714, 0.2206395593357067, 0.2742830596456274, 0.2716925580153167, 0.2670611541014664, 0.26414263946296096, 0.2565999131998951, 0.24688684422350737, 0.24188765870475892, 0.25143310282168074, 0.25102388846437046, 0.21347757677500803, 0.17106195175055114, 0.1296933473377135, 0.08720601203019862, 0.054530363932953296, 0.024975780967253544, -0.004356603824613625, -0.030975982287500727, -0.05307864438241245, -0.03381662295831351, 0.008249647826040383, 0.03868919474396824, 0.08279679368634886, 0.1476064375266122, 0.1821390907142021, 0.2528122299721936, 0.2608876211049143, 0.26032461938222057, 0.26313308984762007, 0.2599313602343831, 0.25290064591980305, 0.24356754016336135, 0.21879906702587415, 0.17871599104216399, 0.14687020691152164, 0.0951379410408854, 0.04922044430838418, 0.020055541988911754, -0.02981509971427006, -0.0813671315340064, -0.11450745461675083, -0.12927807221349852, -0.1551329362427421, -0.17988082484089338, -0.13600996562801707, -0.022251938847293457, 0.09876530823743751, 0.19272516868487144, 0.2626844709413673, 0.26936528166973167, 0.2682626596383108, 0.26187554972961213, 0.2584473298605286, 0.25320814241438216, 0.24706782482988862, 0.24172184558103024, 0.23233562704580127, 0.17630766966378578, 0.12202120581659265, 0.08454213819972796, 0.05823318158125502, 0.05673435888967093, 0.04482473206810789, 0.030299583980963166, -0.0013510620110378099, -0.025273561738194377, -0.03125569377821683, -0.0282096895729248, 0.013966131167662266, 0.07243491721998672, 0.14548839384535148, 0.19219930623569567, 0.24744084226680188, 0.26132791631646435, 0.2581024933819985, 0.2561619378310789, 0.260485755421535, 0.2572118101342925, 0.251065794252952, 0.21023283766948817, 0.10584844566876926, 0.03509226240372933, -0.028161799471945064, -0.07452623125909517, -0.11319750140380619, -0.1451549749529493, -0.16719878892937232, -0.19914434529756855, -0.23989173136816747, -0.29258638037363127, -0.33602621606509137, -0.36614338963670573, -0.3699687203971999, -0.3299338466108462, -0.23412584973904252, -0.13301820603058115, -0.06152518690229251, 0.024241934999272786, 0.1133737899262872, 0.15908521658152644, 0.16147693293580126, 0.14465577512779118, 0.09949156985470725, 0.041506870317377334, -0.006132788670932143, -0.058000161834786124, -0.10771084538000202, -0.15013592236768167, -0.2053103070830841, -0.27519340899533096, -0.3421679507700702, -0.37515221581516367, -0.3751522988335549, -0.3743691766415471, -0.3756140217040543, -0.37577745521194617, -0.36887678787910955, -0.3565723948080561, -0.33791646181089846, -0.26197650107164533, -0.19025678256906275, -0.08835131570782044, 0.08616202532872393, 0.20849579107949298, 0.26800104881160897, 0.25996506036982453, 0.24719680434974456, 0.18969134788270312, 0.09012064650602725, 0.013252477486262257, -0.03261905426047464, -0.08442335339749524, -0.1271722117576629, -0.17907260167569172, -0.23493653509537207, -0.2806517063619294, -0.3349476771864448, -0.37129734164136635, -0.3742590851493812, -0.3599028720744423, -0.33265436598988374, -0.24750653096023942, -0.16505857161805693, -0.10653872355750608, -0.05291397574006754, 0.022594549274892833, 0.12942710702946345, 0.22622059958664573, 0.2635286370739259, 0.2584267020347656, 0.25427390612137984, 0.22119880723862292, 0.13035511937853006, 0.06077486150805225, 0.012572293910731414, -0.05603419786843044, -0.11661687001174754, -0.15785169799541207, -0.1994077094784641, -0.2697021751293727, -0.32020052886253475, -0.35915085328957824, -0.37476926569349217, -0.3456505583681626, -0.2904919234384919, -0.2091859754946965, -0.08726920728649502, 0.005956153618628056, 0.11409965471851365, 0.23049745054565163, 0.2758011909202202, 0.2700383464872606, 0.26479957351223216, 0.25612314414228715, 0.24735504884685547, 0.23989528993161727, 0.23278196355013728, 0.1764208986417757, 0.1282179544119537, 0.07360538009187222, 0.005472076201939268, -0.07552040887474486, -0.13190018786562988, -0.17265316455150984, -0.2032801059462337, -0.2688055126468645, -0.3352682351801019, -0.3446691008929539, -0.3138415429371513, -0.2358727528170156, -0.11105621224021968, 0.017028396823340307, 0.16359515881609912, 0.2717224276648637, 0.27113148082324817, 0.26691494554306583, 0.2633128181530761, 0.2567324754552874, 0.2488825056839248, 0.2412712123016115, 0.24979774177004374, 0.22173832362892684, 0.16283272318689554, 0.10895573844493939, 0.0554916757181394, 0.014354367263664148, -0.02911451558579296, -0.06806797462758536, -0.11686499889215339, -0.1580143952839562, -0.2080094755780543, -0.20928327940667246, -0.16827807441813927, -0.08495378612946869, 0.03555230106497092, 0.11015097749577464, 0.2213218275595562, 0.2698903846394867, 0.26014688726505325, 0.26225722656878886, 0.2582272033355008, 0.25479975227709867, 0.2529456313576162, 0.24904838841860188, 0.24838301496078222, 0.21906298908495495, 0.19429956259623696, 0.1746806731800883, 0.15809173760920286, 0.14330057708545832, 0.13075517622908397, 0.11598085878807463, 0.08266100839953316, 0.0331033246322019, -0.03528557787535988, -0.051114358045231956, -0.017484274522356635, 0.01522347655051027, 0.07990109687936343, 0.16730059911432227, 0.2480495756779181, 0.26574397339685374, 0.267021240976186, 0.2640314068908931, 0.2598677054962446, 0.25480203622189135, 0.24773631796521692, 0.23812481414748635, 0.2027749809356425, 0.12071334542263538, 0.04241107479791519, -0.03177688573345334, -0.08371223561303139, -0.12611145427328224, -0.19706848773452346, -0.24975490983881168, -0.2820833119302524, -0.3556751612465623, -0.3763975328523712, -0.3734897902128141, -0.3643330119311326, -0.3387982043654245, -0.23537950550830933, -0.14032558828642205, -0.04824563962169698, 0.04121952366908788, 0.15334932141678556, 0.23986696941945226, 0.2612816278864709, 0.25508010241162077, 0.22241225519619956, 0.12336631813892536, 0.01587912774726856, -0.06594416185236213, -0.14807494169793584, -0.2271207543141384, -0.3025721516486093, -0.36732400922476044, -0.3760419255176943, -0.3737110681429263, -0.3733355238410067, -0.3729936337121373, -0.37207358895583065, -0.3719340696202101, -0.36279306341737955, -0.3569517001452278, -0.35637157440399964, -0.2981980418040053, -0.2106415337116814, -0.1344260557190903, 0.011608478308408226, 0.13670406594585938, 0.2166386495657656, 0.2592771469425739, 0.24535534286245517, 0.18153866716536535, 0.061522353106950554, -0.047268013851390574, -0.13677358177036528, -0.21856795970943912, -0.2919371387463286, -0.32917308572892523, -0.363850228086521, -0.3731517673838525, -0.3716037091715801, -0.3743100610971606, -0.3709485223398743, -0.359332783173772, -0.3431560367006203, -0.2951517980050335, -0.18600082179764257, -0.021244440349955082, 0.13556484064031593, 0.24461716680550794, 0.27149560118156574, 0.26592622847368824, 0.25942612733541964, 0.25361001572672, 0.2488768506281366, 0.22594724907181798, 0.13482656438963822, 0.04990151543443835, -0.028697538139226427, -0.08690088500443899, -0.15732518640822551, -0.24333908678540161, -0.3066274797838246, -0.34879862124869915, -0.37525792338241176, -0.373843864180259, -0.37256780934314776, -0.3624533617979795, -0.35069058530176583, -0.22049058961943294, -0.0596364017922848, 0.06715990818513244, 0.17707019533881538, 0.2401019429987377, 0.27328062578299045, 0.26943437912407947, 0.2644396248621342, 0.256627521884003, 0.24954306601901374, 0.24058734761489545, 0.23164267952403997, 0.16623187712197543, 0.11502236303395245, 0.076230419365025, 0.05498577096505027, 0.036657223075870396, 0.01012384933404437, -0.010714557501505469, -0.03579065609274599, -0.06755946360107806, -0.0922716984371803, -0.08378931890221349, -0.019499616641018024, 0.10497972877713908, 0.24095261456338568, 0.2667570160879571, 0.26673451874422877, 0.2676186163215675, 0.2660466258089151, 0.26223207751168826, 0.26256205633265345, 0.25649320294615713, 0.24608018071281768, 0.23737963681361454, 0.24816551838371761, 0.2514884065505393, 0.24870865969315414, 0.20617651855087768, 0.1676484372756839, 0.12913114424798444, 0.06241906052287571, 0.01725620824119897, -0.014182460101262501, -0.041318050632624, -0.055013452870225917, -0.031241242033201003, 0.03846075942519154, 0.1553466829744796, 0.25927854570065395, 0.2626626731845896, 0.26423495740265573, 0.26761239793007174, 0.26796676435149763, 0.2648520380079951, 0.2617846464540569, 0.25607069164142143, 0.24847490625655555, 0.24126918908925263, 0.250503322536595, 0.2514449046400002, 0.25051846144313766, 0.22826578508844378, 0.14149862150603257, 0.03371846930312229, -0.08224988698712471, -0.18423549998132185, -0.279183722486112, -0.3617062893158705, -0.3786264356144011, -0.3661392808549822, -0.36398343102040703, -0.29664892754476335, -0.19983520411964176, -0.10292908070238016, -0.029503575182576163, 0.02695445267613994, 0.1483633116980709, 0.25030481722462905, 0.2616826777426731, 0.2556658008733496, 0.23835058967142372, 0.13882865307387812, -0.0018284369573766588, -0.12565762770316222, -0.24452292025164493, -0.34730214373793356, -0.3782671480445514, -0.37526340550996934, -0.37396479017097034, -0.37360394979320416, -0.3728362094677606, -0.3715822375368198, -0.3711113605259568, -0.37091411872549945, -0.3627859609459183, -0.3533003599951492, -0.365613403689786, -0.36612028562640536, -0.29420250286265925, -0.2061622083194055, -0.0543244760082461, 0.07410537755531434, 0.13906467436372, 0.19180649433609345, 0.18250686803324476, 0.08611171266629956, -0.014166718908056925, -0.08595150152475317, -0.15223735983092393, -0.23798240762264689, -0.30866139770390993, -0.3598965687677276, -0.37411829312207107, -0.37303061181461855, -0.37220424953229553, -0.3729648810309303, -0.37433364090666527, -0.37445606224867517, -0.3663130824931271, -0.3567837228457162, -0.3287358779579249, -0.20072427960678685, -0.10296016323878064, -0.024458127534974044, 0.09502748370846438, 0.20501625637579254, 0.2598084873506357, 0.2546303532038359, 0.23698671546295869, 0.17652144931847502, 0.12455734868395922, 0.05083968038190013, 0.009160596236713678, -0.08987667437770919, -0.17037951017647857, -0.18964254170085423, -0.2571992878769405, -0.30540586933544706, -0.34872575289404856, -0.37350741653696296, -0.37365463677232547, -0.3596758723927888, -0.31321757527057176, -0.20128582087149624, -0.06623527601915201, 0.05705622971702814, 0.19602116295095431, 0.27514967263152307, 0.2737703515712942, 0.26793283272500773, 0.26420254265378124, 0.25362582673197215, 0.2460565332834491, 0.24573052787683694, 0.2539190916648855, 0.24527621329477486, 0.19339190519436933, 0.13578244644847895, 0.0902012650014729, 0.05431391827636466, 0.028092260084680073, -0.006460460482352844, -0.06442467895250693, -0.08963527880532655, -0.13011411574499884, -0.1266364254106803, -0.0908413473494575, -0.036380682342582564, -0.014365650012172727, 0.09471718906590625, 0.16993042057410426, 0.220199925583777, 0.2587415597728819, 0.260046108390068, 0.26784269024465873, 0.2616913488752484, 0.25004103080209955, 0.24336505603936406, 0.2105009318912832, 0.14797412291386006, 0.09127130541807467, 0.08550842116431095, 0.07088326605065534, 0.03170209261968602, -0.017973518820751672, -0.05865999203539449, -0.10436595507937896, -0.12145903197545631, -0.15715710610</t>
-  </si>
-  <si>
-    <t>[-0.01742335885887394, -0.05239852722626832, 0.010255417696647383, 0.07403427187301848, 0.12727433355426448, 0.16842090869409324, 0.20301873720168817, 0.2615558248852798, 0.325439127913424, 0.337106012361895, 0.33913635848479, 0.3358019003851605, 0.33339399509508877, 0.33293464300946823, 0.33253226411835146, 0.3312278423945707, 0.32727135948526725, 0.3215616363214572, 0.31983828982266804, 0.3037413585583308, 0.22942679145923914, 0.14005516614696234, 0.05131107181122285, -0.02429279739851643, -0.09109724960255687, -0.15694110905501427, -0.22895877011135182, -0.3037056306251266, -0.37856055233956637, -0.43592192218426545, -0.486337225519376, -0.4765588316932805, -0.4049858501322723, -0.32036209977353813, -0.2356190221823229, -0.17060910389401743, -0.0954586133529251, 0.002848611650389155, 0.1105852200411603, 0.20789491306896266, 0.2767704231364789, 0.28409554293294575, 0.23859122510911868, 0.1502500596644522, 0.028364590490342966, -0.07300954748325765, -0.16724365752185835, -0.2512434129838897, -0.3315226624193587, -0.4123222815934022, -0.48765789002718196, -0.5615793599001241, -0.633042105759254, -0.6883910118607472, -0.7329826528786544, -0.7012063428371622, -0.6192902159943694, -0.5390108885744078, -0.45881135480572316, -0.3615360443672633, -0.26955794680053496, -0.17421769987155736, -0.08167825601588748, -0.0016886846261713647, 0.04386452116857079, 0.04007343831463609, 0.025107705270935077, -0.033862940686528085, -0.17442705656226445, -0.3005634927307225, -0.37055774136791525, -0.43984144114031715, -0.5111442720613012, -0.5811776865437689, -0.6456258328264018, -0.7071759697542644, -0.7700115215052294, -0.8353000765300704, -0.902761229619632, -0.8925879522445858, -0.7900260628341663, -0.6661309842603711, -0.5442151075043783, -0.4400854915500904, -0.30907704292677296, -0.14652256934867497, 0.011091017304950913, 0.15153343988771756, 0.25736240310048303, 0.2969766934159005, 0.24925550171284275, 0.1477708742961846, 0.024729057202338634, -0.07526680814539864, -0.1661150738778598, -0.2401393713364466, -0.30678688809027954, -0.3709667813004041, -0.43426034658965623, -0.4952987653543397, -0.5519991114360395, -0.601103205830717, -0.6506937579322841, -0.6998636590973467, -0.7465655559665482, -0.7346358178157634, -0.6707620621287571, -0.5629307148746234, -0.4126500921982539, -0.22817443712913835, -0.052291404796599904, 0.10056312208657449, 0.21268864546736507, 0.24222595869822472, 0.19987901136476535, 0.1388707102951594, 0.07344767538322859, -0.0019232027935485619, -0.08100819487436951, -0.15175805119098476, -0.220406866201683, -0.298521742435824, -0.40349085308719895, -0.45672736416920307, -0.48325574155615475, -0.5202694565482894, -0.5635520538144617, -0.6086293579183019, -0.6470275018399708, -0.6238529132724955, -0.577401615368487, -0.49335465126230577, -0.364870033318808, -0.19751165962269246, -0.030407347721505343, 0.1258372206684171, 0.23682463627836778, 0.25242130192353107, 0.19543697478826402, 0.1147441289906971, 0.030714591461788402, -0.06318746995471554, -0.15947201127675717, -0.2458238106192978, -0.32916798041708195, -0.4163432018842299, -0.509776679268033, -0.5939667786052762, -0.6399699918244233, -0.6826077203103273, -0.7191515333650421, -0.6976019751397621, -0.6569097437475628, -0.5402295493361887, -0.4049950044044531, -0.29577203892563975, -0.17235343898623492, -0.028816380712990877, 0.09853641961130992, 0.20126134545088628, 0.269808111894468, 0.2727328353941479, 0.21355910912822496, 0.098438813783728, -0.06794699505139236, -0.21538525474838566, -0.30525868002825035, -0.3906699312662835, -0.47643042709562944, -0.555059226306846, -0.6223417169037472, -0.684954248322093, -0.7443501761755077, -0.8263589585624209, -0.9240446463785621, -0.9453214083466047, -0.8629993173089944, -0.7592188617198422, -0.6504804200073898, -0.5578579072682335, -0.44528578179479394, -0.2977062368437207, -0.13909478486721835, 0.007006240858832807, 0.11670526094108598, 0.14500616441887174, 0.10210006150543229, -0.0015658991618969845, -0.1654875899768665, -0.32401732756629714, -0.4851483015973688, -0.6201575490102015, -0.7517403272853055, -0.8744508570306914, -0.9673745812664366, -1.0560934783023317, -1.065580484002481, -1.0630662481057254, -1.06118957306257, -1.043555420558794, -1.0503347003503265, -1.0172843652576027, -0.920270080565215, -0.7683628386193107, -0.5756370800924084, -0.3470539250717251, -0.13192559626130312, 0.05880331902491696, 0.20413765769912948, 0.2526026352924147, 0.22029995739008998, 0.11378581407223264, -0.09398050323900847, -0.20123474638031524, -0.2740117459053993, -0.40867511334339496, -0.5504472349441719, -0.6090316078359264, -0.7519638461027339, -0.8033827698063365, -0.8130585399669424, -0.8843888828694658, -0.9797850533110063, -1.0005802700170892, -0.9150305711490881, -0.8144464331674213, -0.7315004054921594, -0.603645756277086, -0.43183905381252274, -0.2331533672163079, -0.06379230170212748, 0.08806618374876418, 0.20406910105577206, 0.2482050540132269, 0.2259221029663828, 0.14844937245479137, 0.02463415008280849, -0.08673800879282638, -0.1992328356506701, -0.3193437975688471, -0.4509427865679199, -0.589140041867087, -0.7174337585642775, -0.8443536136756004, -0.9708929126326353, -1.0627853940731555, -1.0654747595737675, -1.0465809396536254, -1.036245252439352, -0.9315052554558899, -0.806387404668785, -0.6579880327194768, -0.4704146623931987, -0.2572207695608497, -0.06571823229743065, 0.10366755986407827, 0.2277210297686987, 0.26724257332153395, 0.2347750510480736, 0.12704253275171382, -0.09322222872075447, -0.25076716111917924, -0.37617372342334715, -0.4746938007571248, -0.5555465376724242, -0.6246249403868266, -0.7060319678133299, -0.7936303949716345, -0.8857334421478141, -0.9860205009552588, -1.063436142252274, -1.066789021566624, -1.060858930392117, -1.0478702171083902, -1.0399402523960204, -0.9301188843769918, -0.7186550269606956, -0.4604905320344759, -0.23767131354674195, -0.04673509220976682, 0.09136957049128391, 0.13556558534826443, 0.09865521277008382, 0.02609416886942451, -0.08676159463457943, -0.2113636139639623, -0.25288754755142984, -0.3001949164239965, -0.3551856690320167, -0.407796589305959, -0.45829683962961276, -0.5114168273689573, -0.5749146868754803, -0.6767392774017188, -0.7896224308622398, -0.8895601213577328, -0.9864878748891911, -1.0157436633455166, -1.0040491814524288, -0.9456476385750183, -0.8400992648828081, -0.6709477787573749, -0.4935875405675268, -0.328536522233625, -0.2061919058435747, -0.18399480398262835, -0.2542392493372156, -0.3565384213458973, -0.4674857783468984, -0.5940457974901684, -0.7271684716226628, -0.8507076245557039, -0.9828562641558971, -1.068638843940021, -1.0677308188751669, -1.0653467762275264, -1.063415873876886, -1.0622032698213684, -1.061276230325926, -1.0431675392950217, -1.049215911863629, -1.0417455816306471, -1.0140539030158509, -0.8935130448391483, -0.7237354779163566, -0.5073038091169014, -0.29852873420124054, -0.11165894351371113, 0.031520763216542576, 0.08642814510869153, 0.05475227161673866, -0.0489925312123693, -0.20674685591592123, -0.3505193073269002, -0.4907500622357812, -0.6123281424872759, -0.7253970301487543, -0.8418214614421761, -0.9762667730846234, -1.068970496896769, -1.0671279001645064, -1.063918304522214, -1.0616562666219052, -1.0451456573009332, -1.0520521459475554, -1.0439669499560438, -0.9932411584591067, -0.8338100820004195, -0.6385509671857111, -0.40640988595735256, -0.18556545461651397, 0.015064043167487967, 0.16291325652623811, 0.2236552686181339, 0.20598972891393327, 0.12020607135349308, -0.049127447400807246, -0.23005572157172893, -0.4253644451750523, -0.600634823489151, -0.7362405312689936, -0.8573398290734718, -0.9827320664211756, -1.0673549677390477, -1.0667776907369597, -1.064283277557409, -1.0620758467585147, -1.0468446644936258, -1.0520211256185024, -1.0432449036028808, -1.025066361778839, -0.8855755028577379, -0.6667033184123635, -0.4014056497140574, -0.14413805827133933, 0.05231462675413007, 0.18852111832356586, 0.2497262410373605, 0.2274584225966291, 0.14588468292551696, 0.04439511508245999, -0.022975234123490767, -0.07823403808710745, -0.12834323111793014, -0.17735221717466018, -0.22541031698346983, -0.2659148066338775, -0.3001463739931773, -0.3345647592001105, -0.36788911499646754, -0.37775568199278303, -0.3296045629071062, -0.24595084815600987, -0.181858150456957, -0.10500618102221483, -0.012016386104207652, 0.08710439962705191, 0.17477252933572376, 0.21793784116249246, 0.21774989178314066, 0.19931444846525992, 0.19584823666214315, 0.17712405389564992, 0.1258342234003271, 0.051293556539520856, 0.011635446281684211, 0.0010165331200852235, 0.005385926657747693, 0.006435208108180654, 0.0031167230163626405, 0.00749666973804507, 0.0063904197122736164, -0.0032217366697521754, -0.015697478197080287, -0.015147266931181382, 0.020164977487636064, 0.08798141749748752, 0.12833672471204147, 0.1611095414726009, 0.16868959170217357, 0.18580169912094227, 0.17071679602141118, 0.2016159585740626, 0.21908775560059965, 0.25785172736234463, 0.284990624851397, 0.2550035874209922, 0.15478421825053065, 0.005972594400186171, -0.12574485779113606, -0.23358106865034567, -0.3306328208147182, -0.4220920408399538, -0.5113763836878756, -0.6026076348018047, -0.6986758833636152, -0.7942708581284231, -0.8592527626432999, -0.9424534134115276, -1.0088157520352476, -1.0547652136254266, -1.0304286993148912, -0.9879052466601608, -0.9258166684781375, -0.8228513246011486, -0.6876774925894863, -0.5324105036130001, -0.3846377079408829, -0.2518647321552167, -0.18747117544894001, -0.20824300028052622, -0.25888878383845065, -0.3054135411407695, -0.355832537958999, -0.4061007451479781, -0.44190842753882537, -0.46932658638124125, -0.494366606154849, -0.5290151675568882, -0.5666168247444404, -0.599542025111876, -0.6137057870677004, -0.6196154989481327, -0.623394488961928, -0.6393531472887245, -0.6717580681120142, -0.6755050582575283, -0.615191195154209, -0.5564638568506528, -0.48348777224921174, -0.3237253573972781, -0.17567554785797976, -0.0504020808274894, 0.002138165200946789, -0.030812051765670923, -0.09764591889186892, -0.17337941528494002, -0.26197811372763735, -0.3693645025575551, -0.49646066732225164, -0.6113706613714478, -0.7222996554937757, -0.8124650621194242, -0.9114693381036298, -1.0167660961790563, -1.0693265120510462, -1.0657736587102373, -1.046359214026534, -1.0307212505025227, -0.9089532787409184, -0.7837424342468412, -0.657815140385722, -0.5010570090857177, -0.3100813737475001, -0.1288086124325797, 0.03160374658559059, 0.14705258570623259, 0.19912430803819234, 0.17006671484432334, 0.07116287424175867, -0.0689515097871525, -0.19109566853318785, -0.30925514033911977, -0.41929524568550286, -0.5288838207077803, -0.6356015738251272, -0.729754489754464, -0.8181726288436991, -0.9036363127802463, -1.006450806855477, -1.067041699614477, -1.031432554858352, -0.9787372682228969, -0.8624157683349151, -0.7419506192440952, -0.6073723351778907, -0.4681527652966288, -0.2987745418445315, -0.11055551456150879, 0.07071809553419188, 0.20913833985966154, 0.25605519615408007, 0.22076204841276684, 0.11766455130583793, -0.01811018069415783, -0.13193860429636547, -0.2376547749786031, -0.3298663722354904, -0.4143477023410367, -0.5104233430177537, -0.647002690109778, -0.7396641551029063, -0.810931752171717, -0.9045579883066709, -1.011429424787939, -1.029612114214145, -0.9781786666504592, -0.8460928454078167, -0.7095968919145176, -0.562038661997327, -0.4126679523882806, -0.26188322371929496, -0.13314642890627185, -0.03147843343727182, 0.043740110478162335, 0.0773912033747784, 0.06680330299130102, 0.00544296384456356, -0.10465363772376356, -0.1641529323347792, -0.20414752707547626, -0.23493519295914256, -0.2580328975552598, -0.28371811720026885, -0.3287784257469905, -0.35191306432077246, -0.36942534945671585, -0.4092804344575461, -0.4282020710709284, -0.40030422930375753, -0.33053676164600176, -0.2851904113216425, -0.21759973655072237, -0.13905296751009405, -0.05706218226210672, 0.04782254119159445, 0.17622044635434816, 0.2970786277454923, 0.34095916906673485, 0.33118144451650783, 0.32312821204966374, 0.29848543593971066, 0.1994043419863758, 0.1466446481528998, 0.11121696747618078, 0.07747385253348206, 0.04499517162115609, 0.013888550310586702, -0.024018876595625276, -0.066888188273861, -0.12020367269676564, -0.20092146945083614, -0.2317138596229276, -0.19522772572555003, -0.13139828704211154, -0.05641325021771309, 0.019442190951829297, 0.12204863875674972, 0.2241209344513776, 0.3221772962897271, 0.3423946610689463, 0.33786416733639535, 0.3334687949701282, 0.3285248477179719, 0.3229317790578496, 0.31988065865169074, 0.29079695598876704, 0.22830384262115969, 0.16073951681526633, 0.10632440317790331, 0.05656796675104542, 0.01024381150235489, -0.03450589397291929, -0.07995547883014713, -0.12357962106133623, -0.16408318459635926, -0.1994912524779654, -0.23785665109188822, -0.29161284759891104, -0.3056658486331622, -0.27271549095327857, -0.20299260749082662, -0.12507230519586254, -0.059288311650760435, 0.019354473030682374, 0.07595416655142534, 0.11543397405515653, 0.13315811243738998, 0.13260729210633623, 0.12403883244685943, 0.10653556971201535, 0.08192226198211258, 0.042426474233974935, -0.038017794579743976, -0.08437389049128408, -0.11728169745877387, -0.171257206747271, -0.21590633066528506, -0.2638846643536757, -0.3531709673052221, -0.4124338421595945, -0.4411709067578409, -0.49140365391377755, -0.5419458192914143, -0.5376646103066306, -0.42988239628850505, -0.3073915111310146, -0.18302491516417693, -0.06411089467140944, 0.03476483726475298, 0.11914204802969453, 0.18184065132426264, 0.1332240292170992, 0.07198962762647824, 0.0019263062515888021, -0.08455342490083034, -0.17664488816666912, -0.2529921105803827, -0.32142550546529824, -0.38916873414620756, -0.45579463342844145, -0.5206559592917236, -0.586128606316877, -0.6455959726883563, -0.7038141034016995, -0.6977011249625645, -0.6251796287856344, -0.5360892626396833, -0.4277192526342956, -0.2901366997213443, -0.14220260203299348, 0.021222374653056417, 0.14691257969512658, 0.2250580324890352, 0.27742703744071256, 0.30583131648615014, 0.2908318623258322, 0.21394795261775446, 0.08007765531947643, 0.015386897251604742, -0.018685460705921433, -0.05164623354087763, -0.08230685292337947, -0.10959541386240175, -0.14346614041240588, -0.17291465547431042, -0.20154990552601737, -0.23556563701491204, -0.2768813949624696, -0.2835985313238163, -0.2132538595150243, -0.15560691712502808, -0.08551296271908825, -0.010328672732704394, 0.0613936690657517, 0.12885358933430524, 0.1896601220268227, 0.23760054166835687, 0.26166078173964646, 0.2617874202339941, 0.24911150069406943, 0.20128362143729825, 0.12028557596257923, 0.06851570350033001, 0.028325320377231195, 0.0005942373684333846, -0.02013775408963847, -0.036187996582378916, -0.056268037417668414, -0.07294097560517082, -0.08544123071940007, -0.1009509401651249, -0.10310321879741587, -0.05736055172799422, 0.021466085917660863, 0.08013269216782558, 0.13862752854718524, 0.22112840967414182, 0.2913337767330582, 0.3352887134080511, 0.3377955946030397, 0.3341889677001859, 0.33130709240332396, 0.3280443580613715, 0.32715537709704584, 0.31286026973407016, 0.25075140717408795, 0.1890288578982722, 0.13308678554026565, 0.07519148516351808, 0.019731131574857414, -0.029025969590531997, -0.07169314317337876, -0.10458391868595034, -0.12718865860973153, -0.14938621655412185, -0.15143549459357047, -0.10347720820950036, -0.027201085440098374, 0.019405266644829413, 0.07754810042628744, 0.14385889885187497, 0.2293093994244654, 0.3193604288070994, 0.3416647943734204, 0.3395077784716433, 0.3348650619479762, 0.32740877424969167, 0.32108400306629215, 0.31932026649920764, 0.29349079643966025, 0.2382622140148393, 0.17613746728017432, 0.10535203420199328, 0.024593995562259465, -0.06832428901294678, -0.1654643665101048, -0.2562110156236603, -0.34795313370745573, -0.4328834764611302, -0.5055966230905916, -0.4742469772384494, -0.40771920497966047, -0.3680354377303641, -0.2996400213486401, -0.23270148411026823, -0.12578277409303792, 0.027274227673035323, 0.15105371091280897, 0.2535476221736974, 0.32708654602581005, 0.3325943690414576, 0.30813523151332595, 0.20394914194623373, 0.06587804265463469, -0.023506395623657483, -0.09233070323058708, -0.15453790151615737, -0.23167185218338213, -0.3134210074689515, -0.37636659905256803, -0.42323445979347724, -0.44297568990093744, -0.46767573873693663, -0.493383149811567, -0.5177205088215256, -0.5385422636060977, -0.5425641672292087, -0.4951321685176719, -0.39223615841921583, -0.2872113126834093, -0.20005671368441044, -0.09537583397428724, -6.28142306977747e-06, 0.05294293912152187, 0.03896767950549752, -0.0214405991026964, -0.0989309548576879, -0.16340986974266966, -0.2052275460900641, -0.2310353759101632, -0.25873416650394604, -0.30826369357007416, -0.36102877729001753, -0.4095469042691188, -0.4582803202350376, -0.5007790538071762, -0.5538563714941984, -0.6104282422558405, -0.6431293247366027, -0.6569808853230051, -0.6135454593732782, -0.5255821727414136, -0.4470820645732791, -0.3553534653881057, -0.2423862743339292, -0.11427019019431017, 0.043785085849948086, 0.14556030441410478, 0.18189784616743107, 0.14136704231590963, 0.07062344067527125, -0.003522108979865228, -0.11555786779084877, -0.1845779100237904, -0.24556042761127936, -0.33387381289069623, -0.4271731355259754, -0.518450430834424, -0.5857429290945332, -0.6354805408353054, -0.6942706694861703, -0.7565884448296224, -0.7845600642701985, -0.7239213466114117, -0.6022935814924776, -0.4574386322173863, -0.32749362688906986, -0.190064067289197, 0.00046308224944568294, 0.19517655213865656, 0.3223432453529583, 0.3419896882040209, 0.332116427087433, 0.32213614507687816, 0.303525893764055, 0.22012925157271035, 0.12759003772858069, 0.02637944537078671, -0.0651833264990663, -0.15031049190863388, -0.22457951093168224, -0.32730064424866695, -0.4047052979332686, -0.46825981661317306, -0.5099393849752364, -0.5522823467541681, -0.5306831787699079, -0.46673387251033255, -0.3818856982791827, -0.26370610450872795, -0.1464496761861987, -0.020117472286563378, 0.09808420970416466, 0.24597629015527978, 0.33303632048473464, 0.34181866607498335, 0.33362668883190655, 0.32322072006621577, 0.30975601875687175, 0.23092551189676427, 0.14416920020372712, 0.0617953160773787, -0.020753847183929332, -0.10171084262165897, -0.16834995426583446, -0.2595946850437432, -0.338289068871199, -0.4070598033515879, -0.48315105901629307, -0.5427601975865314, -0.5279729868689628, -0.42815702597279953, -0.28130879546516646, -0.14875949136525418, -0.055574500541895354, 0.042642500006437135, 0.18041645882323587, 0.3264973685467328, 0.3428588995009025, 0.3366658966927453, 0.33122969313172074, 0.3231874913256466, 0.3104764259411051, 0.24264735326601727, 0.15310775392656983, 0.07863951136228353, -0.023194717694288314, -0.09769083470578503, -0.16005394222583993, -0.22049823766921817, -0.27029016214672746, -0.3306795661190963, -0.37581293523174025, -0.40695917243583835, -0.36249074745077414, -0.2875034150353697, -0.2376005969500794, -0.17551198521845154, -0.0909986964863184, -0.032349467812036264, 0.05571506635116038, 0.12889816536228213, 0.19021421821804033, 0.23464296764620396, 0.25124453026980026, 0.2543442320173062, 0.21952745385341188, 0.0946246231735985, 0.014675045759114207, -0.02905098412848195, -0.09648297908064907, -0.18573644050262952, -0.25401633737033674, -0.3069574939624244, -0.357450277456591, -0.4035301045560786, -0.4675782467620138, -0.5153053063522222, -0.48718596178924267, -0.4348461922356071, -0.3479506454851636, -0.22262515448300413, -0.0850911642168168, 0.049307832262239164, 0.1805931286833989, 0.31400506664292377, 0.3444450691226621, 0.33918339252913715, 0.3322327780089565, 0.3224806670351589, 0.31539192252068965, 0.27357024787650536, 0.20341545151083043, 0.1284011032075949, 0.043790050718027836, -0.030839732842607756, -0.08639607838116616, -0.15348464412051485, -0.2061783981456161, -0.2514631191485753, -0.29112751702260903, -0.3275360592083069, -0.37064917269853814, -0.4087840480939291, -0.355079778037235, -0.28428685571568546, -0.21891419150825017, -0.09411938038493028, 0.05761046132676847, 0.2133367881327877, 0.32424254794399726, 0.33905278865455263, 0.33216941376847336, 0.32279376570032375, 0.30163229581599427, 0.24249936789308832, 0.1714310331931189, 0.10378555926974405, 0.04022076603360749, -0.017254463856613417, -0.06319917079434646, -0.1043869295629592, -0.13491135926184858, -0.16673263733259266, -0.2006787537332547, -0.2230736573489129, -0.22577245068402307, -0.23285076507293034, -0.20369812725266953, -0.11249670118604449, -0.022910868577009354, 0.057778137914400805, 0.1467442662772056, 0.26952245683575193, 0.33797094019855706, 0.3374233914302049, 0.33135056434384724, 0.32352310271635054, 0.3057211510145619, 0.23474368280159374, 0.17051325616287974, 0.12822660073310868, 0.07986355089691717, 0.04271624486273065, 0.012114618769487566, -0.03853401746746952, -0.07628543988819035, -0.12448369355038656, -0.1810412030220876, -0.2222818950025008, -0.20853856880884358, -0.1522865643521225, -0.041819345422432715, 0.0722066350687819, 0.1574358395008241, 0.24987289027942103, 0.33244871349451693, 0.34133846775218407, 0.33689612850109035, 0.3324522241094334, 0.3301436622986458, 0.32382262965646436, 0.3185821671782649, 0.30088859369074367, 0.25025046304899895, 0.21043763574936944, 0.1612648377291609, 0.1069108058343529, 0.04707568839476705, -0.017600994956233577, -0.08033609845375475, -0.15022381081758332, -0.222129285571553, -0.2769321300975013, -0.2752714145655341, -0.22195507675534262, -0.10883027435698789, 0.04282906207424662, 0.1367130110737595, 0.22791506188761188, 0.3317966484909413, 0.3444534200814903, 0.33973199254509034, 0.33724834759248784, 0.33062301398816585, 0.3220694064309513, 0.31860557898166675, 0.3257339322888484, 0.3056126178578092, 0.2500367833122997, 0.20544263230587057, 0.16366868370556856, 0.12109676486457326, 0.08784311206876246, 0.05755733817528274, 0.02744621888773614, -3.18151896499504e-05, -0.023011898213779535, -0.004498269587562765, 0.03631766076941329, 0.0652764989771539, 0.10695266981147634, 0.16710520177374033, 0.19798951856247624, 0.2666142678663103, 0.30532962083371845, 0.3309604320552043, 0.33652873479893736, 0.3338420394299452, 0.3275716076514926, 0.31366652293837094, 0.2596625149759167, 0.21376678368323884, 0.18053054267972243, 0.12997660429761426, 0.08473630549579504, 0.055077156542117416, 0.004886409898406726, -0.04762078957143582, -0.08214074904777376, -0.09809746213385685, -0.1257606808252269, -0.15234111790776236, -0.10686512044851497, 0.007641218721649814, 0.12385587583702125, 0.20979624699266539, 0.29410564532170275, 0.3411345113571769, 0.34115162756230205, 0.3350686157875719, 0.33211660749224153, 0.327659426073595, 0.3226124408466457, 0.3152458572306152, 0.27857215069887675, 0.2172594814341595, 0.16352087839854337, 0.125783465015533, 0.09864378253897127, 0.0953697031112224, 0.08238314709547981, 0.0672081092035946, 0.035485758090295604, 0.011218177972577329, 0.004711934507099061, 0.006942728266231623, 0.04745752725194375, 0.1027056170615077, 0.17032261356230846, 0.21223399843233712, 0.2642969538334074, 0.316885497663045, 0.33236993901983863, 0.3305777661024077, 0.33395755500706076, 0.3311778525573756, 0.324315178343125, 0.2644897336737155, 0.1546541840988013, 0.08378365378659215, 0.019683161460522552, -0.028473680528214095, -0.06940226724416111, -0.10368715086440987, -0.12770638351585892, -0.16231843771364327, -0.20671460063343802, -0.26496516411000753, -0.313971099247719, -0.350164601748259, -0.3759438698745973, -0.31788914903277793, -0.20704812736888004, -0.09988110644909205, -0.027443403081202546, 0.056650088076473586, 0.14087382477678898, 0.18258076719627248, 0.18435545555205377, 0.16874931529904325, 0.12658759787897414, 0.07147522115819817, 0.025221927469905467, -0.02615688735525774, -0.0763270622695033, -0.12008022266971392, -0.17838179669826018, -0.2542887539895948, -0.32908134474759826, -0.38655485796926353, -0.41560587321848347, -0.47651653137655964, -0.5370504874664894, -0.6057224377841685, -0.6811597258223875, -0.5989497889787545, -0.4324708020584757, -0.3075958044916119, -0.21361464572611688, -0.0964209673423166, 0.08441858835653315, 0.2024688579865451, 0.2896368198678198, 0.33152446697374954, 0.30331853175774226, 0.21362600120735795, 0.11321805289316944, 0.03685718654500861, -0.009886138221795808, -0.06329805938724312, -0.10818149811017232, -0.16363864829203653, -0.22450194135099968, -0.2754646958666353, -0.33731990226815306, -0.38659786929945666, -0.43049239649435106, -0.4145514823803071, -0.3500467941215895, -0.24924359890144346, -0.1580180546532339, -0.09570696424803869, -0.0401731755148299, 0.035546818263008616, 0.1383859462300802, 0.22791167414750313, 0.29632732981207127, 0.3242502715043181, 0.31789064481860857, 0.2620916313222343, 0.15685776660770684, 0.08562702660683826, 0.0362632404214754, -0.03391888964787063, -0.09715511696420422, -0.14130018668355937, -0.18661028744684224, -0.2644155005036861, -0.3216252726785145, -0.3669663344041693, -0.4041830723693782, -0.37566979743593504, -0.29593028732930654, -0.20416658610493618, -0.07431618486955435, 0.019778157485337438, 0.12411883704161462, 0.2364126751007072, 0.339572453349797, 0.3431790460447166, 0.33788327705728877, 0.3306544422488242, 0.32304589340451945, 0.3157486746723201, 0.27872861006971833, 0.21109720688371145, 0.16119031934984437, 0.10624751515462955, 0.037683882097657946, -0.04514342951027276, -0.10465387783411413, -0.1488410247407527, -0.18274384283067482, -0.25531284571145296, -0.3305904354335336, -0.3419534287681143, -0.3079953288574515, -0.2222337401590705, -0.08970744446609703, 0.038447081915013274, 0.17651588637786433, 0.3181958792517671, 0.3438691817971298, 0.339849790439858, 0.33634287520673833, 0.33070035434536416, 0.32417401152505043, 0.3175638841060673, 0.3139726650567371, 0.2606316103943295, 0.1992529054171908, 0.1456067462681714, 0.09233105267353507, 0.05048827547905238, 0.006081988099450083, -0.03427583236888516, -0.08518330456916275, -0.1288682155806683, -0.18267988045530925, -0.18461636218205357, -0.14184022118885067, -0.05648376140811942, 0.06255774988742172, 0.13276157324162666, 0.235683197575245, 0.3293621531939214, 0.33469644877851473, 0.3357948185335404, 0.33220094105695214, 0.329159770267508, 0.3274449688331523, 0.3196457930574815, 0.29133829783418125, 0.25326629553167923, 0.2265995159890963, 0.20579499398986978, 0.18834736603482827, 0.17292864062519242, 0.15984485445218385, 0.1449429055781947, 0.11273093954484091, 0.06468277693403048, -0.0027860019660584344, -0.01893766803322279, 0.013755597427763402, 0.04517690266464403, 0.10671588774992846, 0.18749718483409802, 0.2652683599967898, 0.3285922592946016, 0.340261560109538, 0.33712044208534936, 0.33334440482669736, 0.3290420489358727, 0.32326030692765156, 0.31238458533772206, 0.2524523413836293, 0.16823733851032677, 0.09084705877456604, 0.016261001264572805, -0.03753006821409329, -0.08239115024313075, -0.15765849909140825, -0.2148377920015646, -0.2512745365513463, -0.339627124186477, -0.43033043448007774, -0.49157230554678194, -0.502358195500986, -0.39636142535522434, -0.24052282195479477, -0.12983165328445198, -0.031012243152565507, 0.059764574585339875, 0.16738334670664434, 0.24652026223243115, 0.27478194505656994, 0.2979867146788311, 0.24721798140736242, 0.14836871879242172, 0.044926932247442146, -0.03633819587870306, -0.12091595633842998, -0.20508032685360575, -0.28811716047127095, -0.3728265878499824, -0.45320188830115793, -0.5125271925838316, -0.5547521306299446, -0.6408901423715758, -0.7019224606437718, -0.746073419932474, -0.7582345666802603, -0.6262480715168022, -0.492942768443484, -0.3812544108097522, -0.2617137299213457, -0.16664611423938766, -0.006047272817974591, 0.12178867831713303, 0.19978534584219107, 0.256586331184115, 0.24172724373582524, 0.17601268686289726, 0.061063924833408605, -0.04692230177513468, -0.13944753554553282, -0.22734859769731242, -0.30886068665352123, -0.3509015068501051, -0.3924222015241659, -0.42832684765716394, -0.45971056533178384, -0.49846786671647775, -0.5587463954359217, -0.5225372529751636, -0.416191995652843, -0.34239330162081627, -0.21188365984522287, -0.032883573623282425, 0.1244374654870905, 0.23305690522943445, 0.323403812755467, 0.34020227827612404, 0.3339912206869353, 0.3285876601721501, 0.32422054470785666, 0.28350572728273066, 0.16522121824553557, 0.07557979142233025, -0.0068701096653473424, -0.06963400861888928, -0.14630698605003475, -0.24180614306447343, -0.31438552428577154, -0.3642084325425335, -0.41727692952032736, -0.4850967713870025, -0.525382884516104, -0.49539302371020133, -0.42023685358032353, -0.24962612968520018, -0.07047429529281099, 0.060173387507729846, 0.16700801512623142, 0.22930983440863864, 0.32884921326560146, 0.3431892970029767, 0.3377447050481639, 0.3309646376434933, 0.32484078794425286, 0.31580603827467296, 0.27267615221775093, 0.19392420193562168, 0.13992577295912764, 0.0988971936225345, 0.07520882051912191, 0.05495923706822605, 0.027142755859173005, 0.005093077854018846, -0.021291046920017025, -0.05453451411630846, -0.08067546785927189, -0.07255494771269952, -0.007822485236458, 0.11306994844441115, 0.2433212243097406, 0.3208622496917232, 0.3403083299574354, 0.34012331134635865, 0.33940636519761086, 0.33593512974151724, 0.33361806185559034, 0.32937682145327196, 0.3235667924507534, 0.31434424258574006, 0.32332210950553203, 0.3257689627183223, 0.3038328827644364, 0.24188440143575105, 0.20023662946526452, 0.16066559515025444, 0.09489597478483686, 0.049212357319026616, 0.016559862620278646, -0.011902789142553683, -0.02689641757581283, -0.004224458184369923, 0.06311471187315595, 0.17238277687166423, 0.2959926957035296, 0.3358129672102535, 0.3377520641857786, 0.3400285026824612, 0.34024972260103764, 0.33743600306746396, 0.3347555394019095, 0.32999853984039035, 0.32371870620733073, 0.31764284630846734, 0.3252867072299858, 0.3260503630294929, 0.32332211640046027, 0.27671612406534707, 0.1869866061164354, 0.08177806850680681, -0.035012935482680536, -0.1422655479331392, -0.2462613128755641, -0.3454238779857683, -0.4346349649317785, -0.4436019965917553, -0.39634882647749076, -0.29385119968933293, -0.18197359796850168, -0.07810921925931927, -0.0029016366243775796, 0.05301522512502044, 0.16824724514329945, 0.26607763157686, 0.3118500532684035, 0.32364953323746054, 0.2801680787377816, 0.17412191157270251, 0.03794222827400685, -0.08770716473547391, -0.2142054186833664, -0.3363801578289571, -0.481534916996933, -0.5820161570465524, -0.6982283582652175, -0.8061835521205626, -0.9445661189034538, -1.0501410020387898, -1.0639941801706483, -1.0616265399906097, -1.0464458053225267, -0.9329947493406087, -0.7516425726895558, -0.6608662693708128, -0.46263891130638396, -0.3206403890843124, -0.12847177535250226, 0.01910895690492696, 0.09161315083201782, 0.14848696931076633, 0.1437819829332507, 0.05277904033400627, -0.04576793340450546, -0.11828243371069151, -0.18776361847451054, -0.2818945264730225, -0.3619375770947433, -0.42431286392576245, -0.486257430390793, -0.5360284680296471, -0.5800309558667076, -0.6297972613502523, -0.7157108754654072, -0.8155305285371721, -0.8438468985604909, -0.7187515504581311, -0.532764305111787, -0.32124737388364955, -0.18987775153236977, -0.09344866700428818, 0.038556231644962975, 0.1527718449852932, 0.22503746603219746, 0.24762037339497436, 0.21245767687672013, 0.1423745696665265, 0.08930913195142277, 0.015080095480237801, -0.0273906354168655, -0.13232889512446847, -0.22013999516946348, -0.24090253943764486, -0.31823950193998285, -0.3744161432213027, -0.4259512569488469, -0.4689591958367969, -0.5099038862472128, -0.4925893509454402, -0.3977163421777947, -0.26094942079867967, -0.10966847093594435, 0.0202844305970238, 0.1586047265017294, 0.2973593846282609, 0.3464529855297173, 0.34173334940216593, 0.33769519212675614, 0.3283970115116918, 0.32214735218635354, 0.3211979552107964, 0.30790110983888963, 0.2642447007533072, 0.19847158057764702, 0.13698507743566057, 0.08828257693975106, 0.04938998421153699, 0.02039996608225143, -0.016831798514755913, -0.07837377848421613, -0.10600235430454556, -0.15025024098724662, -0.14685806772685003, -0.1092576651694445, -0.052687240422854574, -0.03067270099970534, 0.07840705270553028, 0.15055185402190882, 0.1989658194776397, 0.2911552960917814, 0.2925666407472513, 0.3054598471041526, 0.3345370869594966, 0.324904999743126, 0.29073467509650547, 0.2218649876385568, 0.15438542916545198, 0.09546705315544597, 0.08659299757687693, 0.06971423282305642, 0.028928281774457946, -0.0226484736422355, -0.06556827747549904, -0.11423764561630512, -0.13296870579857356, -0.17180171396527935, -0.1420929985854538, -0.06068123049688056, 0.03294586319054266, 0.13711566689869448, 0.26108608133344874, 0.3324665931</t>
-  </si>
-  <si>
-    <t>[-0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315366040484056, -0.23315</t>
-  </si>
-  <si>
-    <t>[-0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287400782719674, -0.34287</t>
-  </si>
-  <si>
-    <t>[-0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.7287117342293047, -0.728</t>
-  </si>
-  <si>
-    <t>[0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.14594675236763435, 0.1459</t>
-  </si>
-  <si>
-    <t>[0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728783908208443, 0.2728</t>
-  </si>
-  <si>
-    <t>[0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858246833529053, 0.3858</t>
-  </si>
-  <si>
-    <t>[-0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315366040484057, -0.33315</t>
-  </si>
-  <si>
-    <t>[-0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.4428740078271966, -0.442</t>
-  </si>
-  <si>
-    <t>[-0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.8287117342293048, -0.828</t>
-  </si>
-  <si>
-    <t>[0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.24594675236763439, 0.2459</t>
-  </si>
-  <si>
-    <t>[0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.37287839082084423, 0.3728</t>
-  </si>
-  <si>
-    <t>[0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.48582468335290535, 0.4858</t>
+    <t>[0.1774937857412212, 0.1757863097030731, 0.17629178815663446, 0.17710298624402385, 0.17741898218614452, 0.17948591998995608, 0.18196920978657163, 0.18681194343569296, 0.18862942454788892, 0.19140764595512716, 0.17906984210174862, 0.17505286972307385, 0.17605970440856536, 0.1781845424741654, 0.17918544900165226, 0.17879194936502973, 0.17708384102427185, 0.17359660477077613, 0.1700268015997999, 0.1579995061954195, 0.17242604952096274, 0.17615705903048676, 0.1769449731595433, 0.17629021034576794, 0.17646685148603944, 0.1771648305917303, 0.17747403196555026, 0.17698004352538876, 0.17650144783640806, 0.1815661818447348, 0.1885289212846504, 0.20025153111072957, 0.18242084144207535, 0.178232854748387, 0.17350818442002888, 0.17003335436864006, 0.17304901959501406, 0.17860525362982138, 0.18019610766387736, 0.17721548645090213, 0.17292910563412212, 0.17307169953618237, 0.17394397355079516, 0.17414058179308556, 0.17360029218140818, 0.17357800400134651, 0.17197177950551165, 0.17259504009698282, 0.17865685841669598, 0.1766526107777667, 0.17704502674658754, 0.17772620991089658, 0.17683456099827277, 0.1767342077322138, 0.18153577303132662, 0.18859993078701573, 0.1875977825515114, 0.18582986602017307, 0.18284882500578617, 0.1786316675897399, 0.17493189091036518, 0.17559218172224492, 0.17335935706509945, 0.17573413749210254, 0.1747390404304369, 0.16592401355432365, 0.1730760004045022, 0.16978956986953705, 0.17644724215618415, 0.17766966881799862, 0.17736947676323941, 0.17862787028303398, 0.177558641014108, 0.17723278018311592, 0.17717936733128706, 0.17753269870219754, 0.1776885744280646, 0.1801404752651825, 0.18245686334983366, 0.19314141679103977, 0.1868078417113953, 0.18210700241337172, 0.17915615604842927, 0.176284964524409, 0.1768684996673183, 0.17914375805397442, 0.1749371348067207, 0.17903031497264812, 0.17409535270956442, 0.1707644858040245, 0.17476181929133647, 0.15857574234877683, 0.17122044964674088, 0.1754604449781436, 0.17579619400194813, 0.1757452097428878, 0.17719104079785578, 0.17742014415070692, 0.17782723111746182, 0.17688749385880734, 0.17691755086004177, 0.1813376514079625, 0.18838723007854627, 0.18693332640345728, 0.1916888445442647, 0.1801747105384378, 0.176680203236083, 0.17564822013710693, 0.17603086121807845, 0.17809798818471043, 0.17790320257688208, 0.17633077640113706, 0.17499669912278779, 0.15760092402250583, 0.1713440029337706, 0.174269300791816, 0.1775990893474356, 0.1770955809394055, 0.1768004766118276, 0.17708257186434265, 0.17706063857090978, 0.17692854374822975, 0.1763162215961164, 0.17697307612960858, 0.17717273449783547, 0.18008357928790905, 0.18471817325199755, 0.18591281823336206, 0.19245038889525398, 0.1828128670065323, 0.17587554450992318, 0.1742543727955723, 0.17371365457539845, 0.16590685240805336, 0.1735655602652415, 0.1762458632016409, 0.1781765769648237, 0.17437240873401447, 0.17007530325774733, 0.1720517122956082, 0.17506880307453773, 0.176463929395851, 0.17602974170228217, 0.1756211668200864, 0.17693162714377184, 0.17748221799484729, 0.17659017815082356, 0.17815136517646005, 0.1779541239647866, 0.17974286868248, 0.18574905430744149, 0.19684477502394734, 0.19113043845415245, 0.18498527860690403, 0.1770204036408031, 0.17468859204058484, 0.17590160900730487, 0.17801790523231953, 0.1789912217091415, 0.17899047368249185, 0.17699893161522515, 0.17309378928106087, 0.16742993583928578, 0.15717594649590985, 0.17435220193922396, 0.1757995179788994, 0.1751132250429457, 0.17614220827722601, 0.1765841419736399, 0.17689226741417896, 0.17672557257269894, 0.17630440415131846, 0.17651796424033606, 0.18246908111604634, 0.19141297151824563, 0.1964268839959229, 0.18847266818055838, 0.1791157307629954, 0.17668509188207362, 0.17574049268667336, 0.17722435837918268, 0.17781581880994915, 0.17677438182973568, 0.1771687680355799, 0.1763786577677066, 0.17454861154642035, 0.17119942709651081, 0.16209857985526632, 0.1682396212024397, 0.17804109809860538, 0.17749590742096558, 0.17611119859588906, 0.17598865020475932, 0.17600203660168134, 0.17497779349840195, 0.17617273151580967, 0.17572125730030996, 0.18033510308296566, 0.18808064840813876, 0.19210508111068406, 0.18763829770891605, 0.18174571079094304, 0.17496193328862178, 0.1689730751560298, 0.17305856972136338, 0.18004670953131385, 0.18258806956903442, 0.1815968942870684, 0.1782968770172978, 0.17382891896618177, 0.17113130331902285, 0.1622007972475987, 0.17161237126718554, 0.1751751933979341, 0.17226188094836622, 0.16452847083819533, 0.1676578574206314, 0.1712688798260288, 0.1732412240350137, 0.17431606990453186, 0.17456869757905494, 0.1803685836928771, 0.1928480961002056, 0.19859099035751973, 0.189900681403669, 0.18404923015774852, 0.17833722157438806, 0.17452815717139716, 0.1744472156267249, 0.17933546895216335, 0.1811348424995276, 0.18175469820549528, 0.17948237084262755, 0.17217150279865792, 0.16719234152291818, 0.16830028216725176, 0.1737103540343453, 0.17575919413158528, 0.1773256908533426, 0.17697427801496413, 0.176217146868342, 0.1764034470874936, 0.17636221778980596, 0.17560846436295544, 0.1753140270305692, 0.18073671745460052, 0.18948099419172182, 0.19598473896555535, 0.18879869077191846, 0.1810450693376017, 0.17514762993333163, 0.16909307813374538, 0.17281632154061863, 0.17641219677616582, 0.18258189509739223, 0.1814138416223623, 0.1790902984437515, 0.17493435348424077, 0.17011748340165325, 0.16713661061615756, 0.167139282860807, 0.1753358608764514, 0.17724534940228695, 0.17674604978576314, 0.1760932925983245, 0.1775754962856955, 0.17662271620086012, 0.17623763319212146, 0.17616464868586937, 0.18046644004839282, 0.18787850682771925, 0.19273627234271185, 0.1857720023928583, 0.17847942606811865, 0.17449594748693112, 0.16694927814454644, 0.1699277922572734, 0.179469432477391, 0.18194431790962107, 0.1830143597959524, 0.17799877286325516, 0.17153782423544986, 0.16526407530716927, 0.16779311864392102, 0.1708976434035183, 0.17134933044123832, 0.17664007127294465, 0.18389234058703582, 0.17704008556557746, 0.1811365564140117, 0.17769303143437434, 0.1766111479199888, 0.17620049332439447, 0.18023524496209778, 0.18714033042596592, 0.19352785375681658, 0.1856754301199011, 0.17876621644115545, 0.17668903554482676, 0.17602759432237303, 0.17518050601726717, 0.17682369663822647, 0.17809402424338183, 0.17193460926646506, 0.1729980291754005, 0.1606903338582314, 0.1731009062855855, 0.1757540520830009, 0.17679294127986764, 0.1764939306683182, 0.1763619993389447, 0.1773221476546766, 0.17574875024894523, 0.17728963941032552, 0.17787456021907647, 0.17693739674114853, 0.17762902615103607, 0.18148249444241768, 0.18903039030813137, 0.19764188921231696, 0.18575673101383927, 0.17972908099166507, 0.1775835505544573, 0.17578098586235105, 0.17548357432233816, 0.17768496902915967, 0.1784143213561802, 0.1770894831792904, 0.17480229690107674, 0.17334423349707814, 0.17272814289924965, 0.15786178805894505, 0.17279751936415144, 0.17682510936611887, 0.17732172719477354, 0.1751908417067595, 0.17855791170268753, 0.17735284494662293, 0.17802346136842986, 0.17658100918999628, 0.17643581819883483, 0.17931559957719678, 0.1834172466098507, 0.19864624889526758, 0.18193711740262175, 0.18046588183757725, 0.17817127003724006, 0.1766628111947766, 0.17682221768025327, 0.17819483521695803, 0.1779614969133135, 0.17618362522677913, 0.17220574242241285, 0.17447704043426074, 0.17264939790246106, 0.15982877235407614, 0.1738347620801225, 0.17608615063322278, 0.17633272449037363, 0.17751730017996414, 0.17646061823565337, 0.17685055876978165, 0.1781030289761196, 0.17720998063770696, 0.17720496379183667, 0.17760840396875152, 0.17782703977968276, 0.18239862676304952, 0.1873244876221356, 0.18472366495706125, 0.17694973784867798, 0.1780898216636891, 0.17887199284491628, 0.17664060187599687, 0.17697052228732793, 0.17657390596629283, 0.17642749981020753, 0.1759865771779562, 0.17570682561766157, 0.16162645243319648, 0.17380926336145452, 0.1753387907224733, 0.17380871750756166, 0.1766031955155115, 0.17602184407105667, 0.17705543748848776, 0.17656950143748773, 0.17690933022881372, 0.17700143989656694, 0.17749572788751233, 0.17755144992317648, 0.18922662499159845, 0.18091827565836727, 0.18351558772209522, 0.18349221624713366, 0.18128946024371542, 0.17756519494633508, 0.17812252604732923, 0.1738037497477013, 0.17536915351460838, 0.17430951807175363, 0.16990810398895875, 0.1687096560251136, 0.16759054560269313, 0.17338848377566896, 0.17552729284504068, 0.17825658119161317, 0.1789705136428096, 0.17531521289930171, 0.17675856035350193, 0.17564977469197007, 0.1757351622764971, 0.17544534543777457, 0.17637388637885706, 0.17984975741834144, 0.188415499272557, 0.18330980367643554, 0.18338717900369503, 0.1774701085341295, 0.1792358006066708, 0.1857022170703252, 0.18089352176221704, 0.18524851178126345, 0.18040441230556134, 0.17601247724435007, 0.17273219678313176, 0.16326494947188905, 0.16647618874409895, 0.1741327343415334, 0.17748592972432553, 0.17879666878210965, 0.177940143014462, 0.1769982235334925, 0.17631386417729492, 0.17757919839489258, 0.17702258920353933, 0.17660514741494024, 0.17965753477027505, 0.19190735459494423, 0.18699927851406892, 0.1887131676563468, 0.18481789510786498, 0.17537404100001383, 0.16935019810897878, 0.16953242201754484, 0.17652030680254524, 0.18113777000884868, 0.1802842893252797, 0.17916656036843182, 0.17239476463062245, 0.16666694557449346, 0.17189342613302627, 0.17735370074156467, 0.1757315842395616, 0.17673219734022963, 0.1768264802202519, 0.17569847000578295, 0.17684097551208222, 0.17929199235551743, 0.17737702566376393, 0.17740186637502162, 0.18063996325003537, 0.18672593359825027, 0.1936569557979514, 0.18452138753338357, 0.17946189199011076, 0.17658879022529517, 0.17615498867510673, 0.175957003817011, 0.17780172385033646, 0.17719628307364785, 0.1766232488394581, 0.1744999391706802, 0.15922396268875819, 0.1694880379898648, 0.1753016507053705, 0.17660750598853217, 0.17675006163501408, 0.17694020977411443, 0.17689337242210854, 0.17757941418777082, 0.17695365243538178, 0.17733085879005786, 0.1772865974257407, 0.17666693223801397, 0.17806915031332735, 0.18390716578388233, 0.19154421322594992, 0.18893425383297888, 0.1821261048641708, 0.1796891217611326, 0.17756798628975226, 0.1765448681567869, 0.178060504159836, 0.17855748256771578, 0.17787551158319123, 0.1767371018917566, 0.17364765590783773, 0.17164923396194376, 0.15747736264731735, 0.17185316527044014, 0.17585661398501995, 0.17645721192606087, 0.1763616650945908, 0.1772409126186583, 0.17697120036971323, 0.17714031325970936, 0.17721268703925686, 0.1772267671209479, 0.17820056784193675, 0.18196336201909422, 0.19494750920796186, 0.18723778721790305, 0.18045020399925424, 0.17648489289564614, 0.18082811849348465, 0.17641729975030487, 0.1774367736228263, 0.17527593858640841, 0.1796007707871918, 0.17558303019042296, 0.16447267745734082, 0.1628383670172793, 0.16928502521720826, 0.17572488918464613, 0.17684345585242, 0.177831154337169, 0.17738372913571845, 0.1772151116857028, 0.17629053429364708, 0.1762261739720342, 0.1759510801744699, 0.17674318108974962, 0.17717068819751505, 0.17762253993105845, 0.18447393176588, 0.1781466194346276, 0.18306282335786497, 0.17834403710384703, 0.18369840735623444, 0.1764633938267509, 0.18158228127912346, 0.18113647645637543, 0.17875312015641018, 0.17128337447827138, 0.17279565419133547, 0.1732267010662724, 0.16895520242288134, 0.17856814551589914, 0.17741996370427415, 0.17688253633201856, 0.17625484534957012, 0.1756952185814231, 0.17728511101953373, 0.17639241094988248, 0.17614298391444752, 0.17589777052690936, 0.1791140163516698, 0.18862992297604864, 0.19227783382305064, 0.1894739821530563, 0.18291407186397257, 0.17914534632230794, 0.17436249795088768, 0.17503670840517072, 0.17908645864457307, 0.18112120682264987, 0.17915063293824518, 0.1739457023565977, 0.17172024745012004, 0.1599953237644881, 0.16550463887359587, 0.17267597586265196, 0.17571936753817363, 0.176731890135276, 0.1766879200083394, 0.1782229565268992, 0.1750302801594752, 0.1771058166754612, 0.1771848231344558, 0.17971111444345667, 0.18158320201243663, 0.18953606813702875, 0.19230446871303084, 0.1937589992067242, 0.18225727072133813, 0.17784061277470517, 0.1760732838510064, 0.17557519678387715, 0.17750569655785944, 0.17813610201632427, 0.17873246819645824, 0.17717164921241366, 0.17240218345270455, 0.16766519820618217, 0.15995967979494388, 0.17284796626934698, 0.17646830029453497, 0.17749079432304637, 0.178416434984947, 0.17698210454395577, 0.17613122596237543, 0.17617395172996816, 0.1768389011294387, 0.17692435028975306, 0.17749355989323437, 0.18166382381439886, 0.183761826871365, 0.18184756216871345, 0.18027733951909206, 0.18540760959657834, 0.1836681343174338, 0.18091442259950008, 0.17773207072684474, 0.1787693019108683, 0.17799915088628537, 0.17646499003080204, 0.17400634440948604, 0.15720480534561335, 0.17072650018585103, 0.17596455508735032, 0.17676558986665167, 0.17744448718359598, 0.17742015878220388, 0.1779119354280491, 0.17691032803950188, 0.17732330374374763, 0.1771902525855796, 0.17715296264270838, 0.17895486978755193, 0.1830584057496122, 0.1877494514388022, 0.19311650993374277, 0.1810501117665462, 0.17834259720722015, 0.17546448791732772, 0.17491958321259457, 0.1777789982139026, 0.17851395624747948, 0.17855824433993583, 0.1764548932754708, 0.173213261447962, 0.16417601461923922, 0.16587779891982765, 0.1757849503422574, 0.1764352328094304, 0.17658062011667938, 0.1752521374250023, 0.17552871413028717, 0.17649865151923774, 0.1771911852808247, 0.17780007522437416, 0.17811300214452644, 0.17757948505041196, 0.18132948503007548, 0.19253234054861668, 0.19008519514059538, 0.18126269339698042, 0.17955487209854462, 0.1778793331856383, 0.17776429427633503, 0.17733485080546985, 0.17742137275666128, 0.17649907709936363, 0.17483862490101706, 0.17440058264910044, 0.1720623622993688, 0.15582203757432292, 0.17473054093077825, 0.17635037360418548, 0.17689268866658392, 0.17688180532674794, 0.17699110393600448, 0.17691004918733255, 0.176863603436011, 0.17598046561179412, 0.17607677515287945, 0.1805362481134903, 0.18647614557833733, 0.1984600882241406, 0.1873808651355919, 0.1799835849760735, 0.17762701756174556, 0.1750498572258438, 0.17481626443768597, 0.17742835407457577, 0.1789559788341464, 0.17858109212131476, 0.17661007590205655, 0.17339562359154267, 0.17023104348930077, 0.15861162841445975, 0.1722989571823552, 0.1758172312979821, 0.17653127989920167, 0.17613301823823527, 0.1759357483394397, 0.1759291063332028, 0.1764607321775383, 0.17693456053701606, 0.17691195795696035, 0.18099691223394723, 0.1880776031227516, 0.1990876777385121, 0.18599929343361657, 0.17965972468650127, 0.17702618537799555, 0.17488656324449225, 0.17526730711636676, 0.17741526319136405, 0.1785587623298982, 0.17849003103923902, 0.1772832676496584, 0.17320861231972196, 0.1716748159946312, 0.17146043926197663, 0.17426739954580328, 0.16212486348347097, 0.17411479016877576, 0.17589913888992156, 0.17643426926831893, 0.17776565288111765, 0.17722642019054827, 0.17668340053883536, 0.17677338991412575, 0.1774735617890142, 0.17863824468227038, 0.18393061063316893, 0.1796000170662044, 0.1846340403752443, 0.1896564064331243, 0.17949195802545673, 0.17842963626591155, 0.1782307737854922, 0.1776964168521605, 0.17615263679920842, 0.17422015605178828, 0.17397459462895568, 0.1620534449686106, 0.16904935576720068, 0.17655939494105674, 0.17672742998798507, 0.1771815318183938, 0.17769648757808978, 0.1776255388123782, 0.17828331544771817, 0.17832293950588177, 0.17789495917726597, 0.17743074702009665, 0.1800901280456324, 0.19230005136364636, 0.19259463697014642, 0.18322550512071809, 0.1800049424799414, 0.17710521580489877, 0.17473035409606982, 0.17509867552574543, 0.17741129551630566, 0.17788874048564696, 0.17831826518932892, 0.17528495945191605, 0.17084482358294814, 0.1722273610024705, 0.15987589033795033, 0.17343540884878358, 0.1757733562264231, 0.17509368683439322, 0.17613847526396723, 0.17701681752549395, 0.17726859590303404, 0.17666900462196786, 0.17712416440407455, 0.17726446569348608, 0.17937172553741798, 0.1868030355792427, 0.19723578036801756, 0.18205377747143725, 0.17940804084308162, 0.1769451630024846, 0.17462129294330242, 0.17521756909201006, 0.1774216118449067, 0.17827068355306433, 0.17822953238979355, 0.17650902812222316, 0.17324904252279724, 0.17055765480397556, 0.17456075713653163, 0.1760059184068045, 0.1749841897693044, 0.1654721779883254, 0.17191412968115483, 0.1775901419159983, 0.1871775982173787, 0.1794679833512368, 0.16560290098885017, 0.17296654163665592, 0.17704735776523742, 0.18194465286759967, 0.19174432958387047, 0.1744404140195729, 0.19297737848105814, 0.1808607336485222, 0.17603640384327557, 0.1769217327698993, 0.17771402126511437, 0.17752149626652536, 0.17524021816360932, 0.1730591588526019, 0.1640861269550816, 0.16697290941583387, 0.17504665232614422, 0.1760160182705174, 0.17674765947733614, 0.17613780857798275, 0.17537919848473868, 0.17676173404462495, 0.1759771082388476, 0.177020234175735, 0.17661042242684807, 0.17641933862813164, 0.18048240473016897, 0.18728716026214678, 0.19764667221276766, 0.18957098865878788, 0.18004574728373382, 0.17734530112296207, 0.17611216593831783, 0.17472576552335348, 0.1759972430148035, 0.17256535944824616, 0.17457939045325754, 0.1681552070220993, 0.16651959470692004, 0.17194588777280517, 0.1714404467209895, 0.17688480141201945, 0.17834415003594942, 0.17955424168262138, 0.17637799348041025, 0.1768407870506594, 0.17747461534522288, 0.1774715525984479, 0.1762187219362131, 0.17984223179552394, 0.17708735454496916, 0.17752181058212213, 0.1878542815251448, 0.18211262911045878, 0.18561716636006964, 0.17898822072702228, 0.1721601569704668, 0.18076973308658825, 0.1840712544046942, 0.18070280135344277, 0.18024089274796792, 0.17743592519522247, 0.17398581994090553, 0.16170176484713827, 0.16502661710169794, 0.17571214747342023, 0.17673799481480787, 0.177558931731871, 0.17726258717985366, 0.17721877698038527, 0.17735893362731014, 0.17750191653986547, 0.17753725730910253, 0.17799463154599074, 0.18041553864283486, 0.18556491444154757, 0.19942376172325493, 0.18675008099838755, 0.1804016054050462, 0.1774709831349509, 0.17498372237003368, 0.17644899703258274, 0.1780005548771361, 0.17816146806267938, 0.1779733006411397, 0.17630122117932576, 0.1734695159782916, 0.17132510514624535, 0.1595910663466317, 0.17050750156127423, 0.1757748282510151, 0.176538907389812, 0.17760392970140046, 0.17674602784669402, 0.17700969868838842, 0.17703941755499011, 0.1772969064276678, 0.1769388413609857, 0.18028634152597336, 0.18565196637442172, 0.20056831025402388, 0.18196003096602956, 0.17999025745432648, 0.17633252795106016, 0.17448260607705698, 0.17549258984529156, 0.17762368578071333, 0.17846598050598675, 0.17865939708425327, 0.17710220282628822, 0.173845402674812, 0.17041896010380886, 0.1590278003452599, 0.17128163574137165, 0.17611904672987896, 0.1771019555871739, 0.17680971697489767, 0.1760323709376479, 0.17606452144431275, 0.17733207322530933, 0.17773216802730088, 0.1767098291182991, 0.17886048122547657, 0.18560351317374227, 0.19921379638794756, 0.1822039910004831, 0.1813892149110419, 0.17882709479208111, 0.17623928441631687, 0.1763715658519122, 0.1778813408641967, 0.17806464790153667, 0.1769991162604807, 0.17473285543674286, 0.17297667364219346, 0.17321011428427177, 0.17165915643191357, 0.1646758532187486, 0.1720046390865233, 0.17717507925331963, 0.17730358116708453, 0.17670347946907197, 0.17679497183403037, 0.17723114740093984, 0.17664221332879107, 0.1767743908487502, 0.17830037082505243, 0.17832683244936143, 0.17760714866828428, 0.17550868577056122, 0.18422724988322572, 0.19001701758946618, 0.18458464822866313, 0.17819736551097265, 0.1781668112427466, 0.1784309694749756, 0.17858748525519397, 0.17650529287488514, 0.17368474224190347, 0.16438084809119025, 0.16668162559852115, 0.17572259715159722, 0.17590149128701696, 0.17602571081460128, 0.17651737059986253, 0.1767702821327856, 0.1769466730091175, 0.17636210625987547, 0.1770442101202864, 0.17685242775635604, 0.17889166016207936, 0.18226416976026413, 0.1818121957443383, 0.1888082389517961, 0.18767502034396547, 0.17933768057030167, 0.17863204579486705, 0.17686775811682312, 0.17704544293520996, 0.17807651529346913, 0.17457433295355232, 0.17742027978601008, 0.1680038153904462, 0.16285230137926168, 0.1763360109193309, 0.1760797374766657, 0.1759039848540028, 0.1754815587801365, 0.17620027248772585, 0.17754983002529054, 0.17771289053474706, 0.17661441000992206, 0.17639560518342998, 0.17727096604024373, 0.17660547937006263, 0.17868534572327713, 0.18423885407060736, 0.17949150628302948, 0.1792345530099513, 0.1785699368488507, 0.17798912737934888, 0.1775925772638602, 0.17700592024957637, 0.1765751484192626, 0.1776249923120845, 0.1762965853263291, 0.17538427782538926, 0.1754002361803567, 0.17166085660592237, 0.17643239079787368, 0.17686648729251, 0.17724273707439162, 0.17703253809576833, 0.17717098045152244, 0.17794728949292937, 0.177828659788027, 0.17706289396839733, 0.1776747143365589, 0.1807340867016092, 0.18777813950160094, 0.20001773694840705, 0.18635008339609657, 0.18089959060986582, 0.17781718910744002, 0.17573068933296812, 0.17503448103105645, 0.17659221742751072, 0.1777361814924695, 0.17853103688929226, 0.1761598554270268, 0.17318840702736904, 0.16947560712588416, 0.1595397219801273, 0.1723340742015429, 0.17549706918298594, 0.17688808817284596, 0.1769540226870087, 0.1762729670364572, 0.17712211694961374, 0.17669651245194837, 0.17659403418260167, 0.17730577114761573, 0.18003135448593607, 0.18789231908248769, 0.20044827959673575, 0.18443521489023526, 0.18071119747766365, 0.17757709483387363, 0.17518184160934602, 0.1746508088553047, 0.17737672589279266, 0.17834861639777966, 0.17777662822643245, 0.17594997418826774, 0.1736366375947165, 0.17138741488654965, 0.16408661972868993, 0.16735759716461285, 0.17567033573738045, 0.1759136881282721, 0.17608287052865626, 0.17752522172722138, 0.17737991170980005, 0.17646558507296242, 0.17769555759576575, 0.17745024398226436, 0.17802042639847818, 0.18064513237219004, 0.19568489708130418, 0.18409119488871828, 0.1790405584482155, 0.1784121892410269, 0.17709617245467976, 0.17714150201778048, 0.17583418379554672, 0.1755190767676249, 0.1762861515656661, 0.17588470441301038, 0.1754877197212328, 0.17555585593110412, 0.1605513852405507, 0.17398109709134887, 0.1764713070632509, 0.1775056378317915, 0.1769962869967068, 0.17669605395001442, 0.17721745312866455, 0.1773950961620188, 0.17659231071316284, 0.1766921433910514, 0.17720665951061584, 0.18100420997752234, 0.19686369034760845, 0.18285884686867793, 0.17875760705306587, 0.1772282222426423, 0.17637163050020732, 0.17706550678034216, 0.17687763761266387, 0.1761793141995063, 0.16811698122550803, 0.16948935330642081, 0.18149160107555717, 0.17849311101665308, 0.1707454100746897, 0.1666555944321866, 0.17543942182737549, 0.1779376784386373, 0.17672780549972986, 0.17521309030513413, 0.17875943112522644, 0.1779544667999371, 0.17738870074009672, 0.1762498273740292, 0.17675363126925228, 0.1799075263211035, 0.18776708633614872, 0.1818412034655942, 0.186296852515342, 0.1780969818423649, 0.17020520654198554, 0.1782064149891823, 0.18057110793546774, 0.17875658278356021, 0.18002431080281767, 0.17426464829205854, 0.17421043871041356, 0.16860721479523563, 0.17007363608099577, 0.1754318021229728, 0.17675370793017722, 0.177079237358184, 0.17704267788597108, 0.1778618418009884, 0.17616440486232518, 0.17566719821763374, 0.17687800255015085, 0.1771896992761801, 0.1795181364515246, 0.18777714026292788, 0.1899326334405259, 0.19020264137173823, 0.18407948406074792, 0.1783189760449594, 0.17565522042580595, 0.17350221189623063, 0.17661426494647714, 0.17864289797035124, 0.17896516861903702, 0.17481321404711445, 0.16085308259941455, 0.16373401934006135, 0.17438806639586465, 0.1716605444206399, 0.17717578700392467, 0.1759187020161368, 0.17607249978645967, 0.17601287271376712, 0.1788701765540445, 0.17991191656541863, 0.1781747635018902, 0.17639881407501545, 0.17715031025606578, 0.18208002920377075, 0.19366232543769465, 0.1891646902938248, 0.1880092869206955, 0.18505183473431286, 0.1784403622339408, 0.17501357498504808, 0.17645358682844778, 0.1785821316181052, 0.17938742940177232, 0.17579058771186193, 0.16990133904131985, 0.1655407965329602, 0.16253950607497805, 0.1747028577383042, 0.17612378761427838, 0.17635092174235503, 0.17651099341315368, 0.17760811968758392, 0.17774130127582857, 0.1769626211364879, 0.17656589133352338, 0.1773180090433859, 0.179242108138599, 0.18725462782466296, 0.2005009551578433, 0.18853346007576757, 0.18063263006721, 0.17743242900424105, 0.17554198429230625, 0.1745958876965651, 0.1768208996255012, 0.1779532483536568, 0.1781779193212023, 0.17661821759567972, 0.17331248732804808, 0.17120502883124702, 0.1643552025218968, 0.16731336058387614, 0.17614032292123397, 0.17615778743109115, 0.17662825878593777, 0.17675658801700198, 0.17651554388652377, 0.17684972243400374, 0.17651059741300687, 0.17601811537724585, 0.17962825744035812, 0.18551805327231885, 0.19922976143957574, 0.1817337489288757, 0.18125121425326654, 0.17931216207419806, 0.177117681461998, 0.17580673215635148, 0.17725242953143525, 0.17747351505505118, 0.1759778556208004, 0.1745810767843069, 0.1730594060923806, 0.17304465630373836, 0.16853851521650154, 0.16500803486936047, 0.17589366202148257, 0.17735757363203408, 0.17727330273853495, 0.17554263569546139, 0.17663792732644834, 0.177231219986951, 0.17588086010638748, 0.17514641574052878, 0.1785361185563349, 0.17802801584695974, 0.18493636449640774, 0.1767725058091059, 0.1814646315655285, 0.17991652863738758, 0.18563824254634967, 0.1835457729172799, 0.1691031227356972, 0.17130461265890062, 0.1804115686774758, 0.18187538193483685, 0.18510716757885515, 0.17229574674544101, 0.16091253303338002, 0.1737020379289168, 0.17654883726403273, 0.1766869430786792, 0.1751578219723043, 0.17404387645659938, 0.17538361941864847, 0.17740518475846354, 0.1760068829147798, 0.1737925074939873, 0.17429065839696875, 0.18593079778164204, 0.19624635374665797, 0.1923759587844082, 0.18476659695318853, 0.17814375033192995, 0.17200894368602107, 0.17108185898424175, 0.17655114519781537, 0.18004999941324953, 0.1798281438959266, 0.1773007157596197, 0.17117382970190578, 0.16666814097919555, 0.16491890187996236, 0.17383897089435704, 0.17501295322770682, 0.17489336773367434, 0.17488240583608797, 0.17525043603154014, 0.17634802095205773, 0.17595434316040748, 0.17688596328504128, 0.17792602072832586, 0.17891195846437127, 0.18117509309879318, 0.1845173675149736, 0.1851007592351428, 0.18188454673781687, 0.17953624756304032, 0.1772137004523324, 0.1746263555875205, 0.17511776680883862, 0.17374888813977504, 0.17578683584393326, 0.1743234130027921, 0.17295290145353237, 0.17397914736948764, 0.17671014350684314, 0.1774561844683844, 0.1786184689474857, 0.17991217653582922, 0.17948273580370847, 0.17825630623679212, 0.17708612461459797, 0.17790252858896646, 0.17771315172175242, 0.1785188759386973, 0.17800810745005988, 0.1809691324696858, 0.1845933536446709, 0.1889223073011581, 0.18793146868515265, 0.17794756874518106, 0.17723564260067012, 0.17736570468043347, 0.17780182865327374, 0.1779380150357827, 0.1771687327820027, 0.1751196305220157, 0.1726877322604483, 0.16186143653789387, 0.17075196318242625, 0.17620953764643585, 0.17696960618154703, 0.17719997545456123, 0.17668959904300421, 0.17728400347219753, 0.17516996168549867, 0.17821328322646005, 0.17610758671176904, 0.17724348954906588, 0.1789727090010379, 0.1866825578243937, 0.20011945916842191, 0.18352702897567327, 0.18029015877933052, 0.1776126143399024, 0.1751684764006751, 0.17506260968949747, 0.17784329734501783, 0.177419289127097, 0.17632905795622425, 0.17368804353907427, 0.16993908241829062, 0.16085116054007026, 0.16692980491351447, 0.1754300633157235, 0.17746555040773562, 0.17381081318781502, 0.1792257414916603, 0.1767843221546983, 0.17653964651902307, 0.17814133118015188, 0.17743030916109878, 0.17670810996757202, 0.17827050721096346, 0.17948723529886643, 0.18673712049777655, 0.18295352787767372, 0.17874101540050624, 0.17647305129714339, 0.17653733448383205, 0.1824904816667843, 0.1819283034439989, 0.18211005645034928, 0.17760304568233395, 0.17588002422236906, 0.16863441970628387, 0.16637036251421208, 0.16920932763550944, 0.1740434578951036, 0.1755755486519721, 0.1764221004241081, 0.17671425986921654, 0.1773559973189511, 0.17741105389421843, 0.17724938021349615, 0.17596689436699886, 0.17548290771802247, 0.1772486881332045, 0.18890851371570924, 0.19933792737593403, 0.19388430478877594, 0.18478897327098723, 0.17877824134235373, 0.1760592538896967, 0.1751882910930589, 0.17727733089618092, 0.17701944442944048, 0.17601472752978264, 0.17479696932794433, 0.17293616441089565, 0.17328462422118743, 0.15946074031664334, 0.17298421933523808, 0.17643960941660106, 0.1764781952365617, 0.17671163553014482, 0.17782357680210556, 0.1769683228110792, 0.1761530342472251, 0.1763452651523618, 0.17708238311606664, 0.17822167587242663, 0.18296643856589734, 0.20098249856321723, 0.18513746692346053, 0.18172282582403698, 0.17865645085673543, 0.1760055386337064, 0.17549263592684702, 0.1772261114612662, 0.17753645681939947, 0.17622345890869753, 0.1741286156754336, 0.1728373524199697, 0.17287859206773368, 0.16852942462410214, 0.16433675748370058, 0.17577102309508466, 0.17671714567381325, 0.17678879798959912, 0.1764440789480729, 0.1766508402760032, 0.17684059102011554, 0.17674040589607753, 0.17674236532553192, 0.1780607513299317, 0.18546059017598737, 0.20116747703429147, 0.18487515739455393, 0.18138679082247322, 0.1778965411306588, 0.17516951920695842, 0.1752617957804726, 0.17748306160721175, 0.17769598588282917, 0.17734503529207798, 0.17397244036450185, 0.17229652563903433, 0.17336347243070313, 0.172079942618265, 0.16851720365280587, 0.16824011395238217, 0.1764424997283259, 0.17705770388867723, 0.17720208601555595, 0.17566082567867827, 0.17831533241636854, 0.17713628347088925, 0.17673132219487608, 0.17625040374359313, 0.17971732965381984, 0.18406868162802104, 0.19627226856320376, 0.18132526124399986, 0.17935677918093815, 0.1770572045596638, 0.17368690199786563, 0.17637940097548874, 0.17651193495342507, 0.17877347827828635, 0.17435894001350105, 0.17320518360047532, 0.15861681823486387, 0.17341343911628862, 0.17730488506779193, 0.176666661957379, 0.17672520373852366, 0.17783147420438908, 0.17696932629496473, 0.1769870406172497, 0.1770967492584823, 0.17652756250651944, 0.17632771912761117, 0.17769018231710598, 0.1876196647858331, 0.1976337551144881, 0.18551445579243483, 0.18095126302823894, 0.17796459646625298, 0.1754105994531203, 0.17426447524884, 0.17626660766209468, 0.1780587597753698, 0.17768564353147479, 0.17581105882453674, 0.17241375960933106, 0.1711845884457064, 0.172349209457777, 0.16455052755472996, 0.175214727581423, 0.17603275999618107, 0.17701066831291504, 0.1761646219321343, 0.17645553076101286, 0.1776416291014278, 0.1774312697069466, 0.17687761863009666, 0.17697961038962715, 0.18733035652078092, 0.20311243961939696, 0.18362975304279264, 0.18123260494181248, 0.17768173858343864, 0.1750212123266632, 0.17444005685617645, 0.17627102278098083, 0.17821188836947532, 0.17794086512273313, 0.17576864799529937, 0.17225588248698898, 0.17186591473318413, 0.17197474832922457, 0.17455378032529367, 0.16597083294468074, 0.17136655220810404, 0.17697554674638527, 0.17624891956301067, 0.1761488105349911, 0.17680902422110134, 0.1771335465316174, 0.17700023755147196, 0.1774232056810918, 0.1848870927826476, 0.2018742267750627, 0.18313290866693108, 0.18252046330816296, 0.178413755909929, 0.1752513616996603, 0.17543902605374018, 0.17725910077410081, 0.176505400744169, 0.17493134622976994, 0.1718700701161575, 0.17327309855532902, 0.17325630457203547, 0.1599153883727914, 0.1739377687698825, 0.1762117332328713, 0.1765542300480656, 0.17822638414913636, 0.17649532036398052, 0.17754664535930964, 0.17723465900951066, 0.1779504588234283, 0.17705816626741175, 0.17627799432329436, 0.17865731906602492, 0.19337224383039098, 0.1806494209433793, 0.18123276890439247, 0.18158102847359958, 0.1792297146316433, 0.17663308275418643, 0.1753163047821953, 0.1733858608703218, 0.17564330027201877, 0.1759207478482089, 0.1648809713175482, 0.17094104680333969, 0.17092232249182396, 0.17745468254789964, 0.17464216435594357, 0.1772450304685643, 0.17500700595446572, 0.1758237113332, 0.17687123073027078, 0.1761949395834215, 0.17455831093486532, 0.17601083085426036, 0.1752407724584217, 0.17726131993049074, 0.18880095550354328, 0.18711000881566978, 0.186582060135544, 0.18232707344092983, 0.18428714133804316, 0.17940973362575205, 0.1771593216723966, 0.168355138199451, 0.17499300296207607, 0.17787807478239928, 0.1740912402009702, 0.16874799805108778, 0.17217988838451173, 0.17405383660340204, 0.17437015800872968, 0.17367191892187953, 0.1727010189297565, 0.173513557203</t>
+  </si>
+  <si>
+    <t>[0.3194750879264354, 0.318034500676297, 0.31845448000810733, 0.3191435289552949, 0.3194801576682414, 0.32136556792273335, 0.32366132176512047, 0.32814291426362346, 0.3280951521608145, 0.33278302648553976, 0.3219721596881085, 0.31728026322591335, 0.3183696023970159, 0.3201144079976826, 0.32101029118351443, 0.3206121504669909, 0.3190850132300738, 0.31601279017401956, 0.31241154764348844, 0.30184173513956264, 0.3149653211262364, 0.3180175973213915, 0.31908558177623214, 0.3184902140205397, 0.3186246363946578, 0.31970676394591574, 0.31960695774733444, 0.3191673975326419, 0.3185976744542102, 0.3231637156018981, 0.32972969245978406, 0.340357481912823, 0.32372380724001987, 0.3199531212712619, 0.3155437493333344, 0.3123197051241272, 0.3153754473145424, 0.32052142629769514, 0.32199330828604456, 0.3192101592418433, 0.31524111043449926, 0.3155882621247615, 0.31653190491029015, 0.3156069426546915, 0.31720859474214497, 0.316087058870203, 0.31432843406737515, 0.3147578894015205, 0.32059179161618984, 0.31916267027133033, 0.31924603565480003, 0.31975547398721327, 0.3188994120812777, 0.31854824220470535, 0.3231192904341486, 0.3299947592287084, 0.3273318210666613, 0.3273833712480943, 0.32452182695648524, 0.3205837740527418, 0.31713653222530913, 0.3177851132765977, 0.31572279726609187, 0.3178926240710301, 0.3169757247815089, 0.308801909355016, 0.3160488188200648, 0.3121057093843233, 0.31818876519880174, 0.31994999532572954, 0.31973210501834487, 0.32073899663067246, 0.3196461391530551, 0.31929886730861456, 0.3194127841080641, 0.3196771035941643, 0.31993964696864063, 0.3220705743012291, 0.32436910601460905, 0.33386137609259453, 0.3281820632511954, 0.3234608778158023, 0.32079257647838944, 0.3183597444472858, 0.31903889998590507, 0.32099985246998625, 0.3171326451508875, 0.3210658053700984, 0.31640338847850025, 0.31327743049695267, 0.31059490592731315, 0.3058233918747067, 0.3166759172798222, 0.3180436437136514, 0.31820475793285735, 0.317906067482942, 0.319223356199192, 0.31947930077244907, 0.31988421457335675, 0.318985177161973, 0.31892863445903413, 0.32305852105555294, 0.3296028564060098, 0.327955356847256, 0.33233650554969213, 0.3222571348442919, 0.31873126796609347, 0.3178542332369746, 0.3182256865949897, 0.32003419818717466, 0.31985268980095033, 0.31848892246268307, 0.3173401357314069, 0.3000789230840206, 0.31473225291596757, 0.31651778648237766, 0.3198102851856187, 0.3192286558135386, 0.319082856986242, 0.31918843881616926, 0.31922967814321923, 0.3190045170645672, 0.3183902163139554, 0.3190132663909665, 0.31923512567332385, 0.3219441961504748, 0.3260692901893065, 0.32713185404226264, 0.33302499894221876, 0.3247443461355354, 0.31796483863878805, 0.316178278110292, 0.30749508638495165, 0.3165161608283081, 0.31628470833484634, 0.3184663021214372, 0.3200385058363289, 0.3159020583558794, 0.3119087229841921, 0.3139520865208159, 0.3173515007919024, 0.31843863203682427, 0.3180151440920523, 0.3176765204704329, 0.31896020598427455, 0.3194783492525209, 0.3186081041654873, 0.32007213991923367, 0.31994467093850953, 0.32154859111743256, 0.3271186116415885, 0.33838288457812166, 0.3318737051877972, 0.3267080126213244, 0.31934056038784214, 0.3169352171182012, 0.3179461988475151, 0.32020397739791207, 0.3207880795821538, 0.3208090618472113, 0.31905933733877195, 0.31527657032020046, 0.3100326498844985, 0.3010617872805363, 0.3162884557100658, 0.31806187762246657, 0.31721233044363334, 0.31815288596538926, 0.3184880435982263, 0.31880044646825606, 0.3186805888812404, 0.31831754586866845, 0.3185627212902551, 0.32406496362748316, 0.3331721081709657, 0.3371484561457323, 0.32981202461930076, 0.32072906472297813, 0.3186269921062952, 0.3179080817103624, 0.3193066470139716, 0.3197771767967053, 0.3188741573116574, 0.31925974970098414, 0.3185215445118575, 0.3168715438460739, 0.3137174689953597, 0.30282641324105514, 0.3126832271960767, 0.32031687460644137, 0.3197236398018735, 0.31792928725458797, 0.31824377645536656, 0.31817085252259586, 0.31730535611137173, 0.3182405033909969, 0.3176384093304821, 0.3216906393944368, 0.32963630555263385, 0.33150940731471684, 0.32896017210410605, 0.32349371906303204, 0.3166261951340722, 0.31167450376089384, 0.31556047824509514, 0.32202140468588775, 0.3243358583338135, 0.32334858297247454, 0.31995939678883173, 0.3158413667484654, 0.3137552626819187, 0.3045628317464762, 0.31566296165667235, 0.3175442913206139, 0.31447158182056745, 0.3070867352135182, 0.3102212198814441, 0.31368110637408364, 0.31553201843545775, 0.3165173247507032, 0.3168255492512175, 0.32209910824122323, 0.33381340734939696, 0.3390845760802617, 0.33101765500439284, 0.32559217538411334, 0.32031967259265326, 0.31680878374147925, 0.31670857664809987, 0.3212073484452611, 0.32285895077506577, 0.3234743949760633, 0.32136676223068944, 0.3145810090540668, 0.3100413380670411, 0.31121127242903374, 0.31603989073543953, 0.31813164806394806, 0.3194141851620374, 0.3192090633156066, 0.3182650691950354, 0.318585280312035, 0.3184422263266052, 0.31777440294376214, 0.3170833726391623, 0.32223291554026273, 0.3309765553263668, 0.3365154280448272, 0.32963686234210504, 0.32290948798965763, 0.3171139077227115, 0.31142110181287297, 0.3151609882711266, 0.3184642649925696, 0.32430645021708077, 0.32317434040527737, 0.32105866657436083, 0.31716182418598077, 0.3126008043605222, 0.31003590850509805, 0.31044133218129993, 0.3176446848831734, 0.3194180889944058, 0.31892200066912896, 0.31824475374255967, 0.3197175485275205, 0.3185801648147813, 0.3183866170991277, 0.31829794874441775, 0.3222122574268389, 0.32897775022112746, 0.3332110940756098, 0.3272001461268555, 0.3201406218809815, 0.31647582367903854, 0.30944946549854174, 0.3124491063877967, 0.32141388015819733, 0.3236838194851943, 0.3246749105388455, 0.31997475267537817, 0.31400262952732527, 0.3082442883394955, 0.31059134403203464, 0.3134257736434019, 0.31389132732153985, 0.31858659873541, 0.32535128787992024, 0.3187803017856446, 0.32255166396194135, 0.3196544115197155, 0.31868794956189955, 0.31836178069377996, 0.32204350795850506, 0.3283906650005927, 0.3340667799887398, 0.3273453140552041, 0.32052010583700186, 0.3187909847436428, 0.31817757838514643, 0.3173948488081301, 0.31891392142011565, 0.3200195199322396, 0.3140877989270873, 0.3131893281462763, 0.30592854963674687, 0.3159457685259279, 0.31799769448603427, 0.31875379390577807, 0.3186329844680788, 0.3184976049755638, 0.3193878382922844, 0.3180699803144727, 0.3191669130052644, 0.32000696604049045, 0.3190858181185895, 0.3196489766405611, 0.3232405539936584, 0.33013743034337056, 0.33782783944310074, 0.32704849437851263, 0.32137966579511473, 0.3194955615617599, 0.3179372132730354, 0.3177002685809414, 0.3196842854961233, 0.3202697249471726, 0.319113840405888, 0.3171105282521296, 0.31584529748942075, 0.31526975535715923, 0.30143224089777715, 0.3151826368159454, 0.3189752262109686, 0.31944113290765347, 0.317198217197149, 0.3206241071709222, 0.31924594612693424, 0.31987230046681514, 0.3186470283049923, 0.3185402383651768, 0.3212327348796537, 0.32490735151058725, 0.33901611722332725, 0.3232768943334379, 0.3220074514330284, 0.32000824861477556, 0.31878682268597996, 0.31892217788800126, 0.32011139240547465, 0.31984679957703965, 0.31826311232268806, 0.31480026977342085, 0.3170277992216714, 0.3152839036358779, 0.3030608375979292, 0.31623790181929207, 0.31835410215966703, 0.31806446620492335, 0.31943219039577914, 0.31848858486906967, 0.31890425663478433, 0.3201408344013493, 0.31928907415837215, 0.31915944347484015, 0.3196566512915871, 0.3197984236432735, 0.32396216212353424, 0.3241818966905187, 0.33115737148679336, 0.31855237517981255, 0.3199799388516023, 0.3207429651087786, 0.3186344735133884, 0.3190583316335002, 0.318675979032905, 0.31858560368223326, 0.3182002450866248, 0.3179117691470784, 0.30471805989338785, 0.31604769675570493, 0.3174534581417182, 0.31630972121401485, 0.3187664175168829, 0.31807944484088746, 0.3191808845695139, 0.31861388899486576, 0.3189625117272988, 0.3189978375299158, 0.3194893297953774, 0.3194851878788107, 0.3303295301108142, 0.32249380950022993, 0.32416866307015835, 0.31762006223368927, 0.3198324812579594, 0.31806908620529795, 0.31984891620295763, 0.31648409046091225, 0.3186537518485015, 0.3176030758025981, 0.31758246124907047, 0.31732769646919257, 0.31093604532141755, 0.31540699411650375, 0.3174808398956323, 0.3201882851871385, 0.3209001179566911, 0.3173737058540885, 0.3188056406462079, 0.3177559516420393, 0.31785444759877945, 0.3158919685707487, 0.3116418711124606, 0.3209162054604871, 0.32960329107296943, 0.32485947562490775, 0.3249697619683188, 0.3203672000942435, 0.3213351063904512, 0.327199714990927, 0.32174700419029495, 0.3260634655145744, 0.3223117393486965, 0.3181128680940835, 0.31178832487531666, 0.3098763255472063, 0.30974911782955217, 0.3166313721808748, 0.31942301878915796, 0.32066777788835893, 0.31990697468600576, 0.31902374785783655, 0.31834273834446974, 0.3195308077976625, 0.3190027610014974, 0.31861513715950923, 0.3214156912546868, 0.33328819326023723, 0.329118448084182, 0.32960920157691304, 0.32598148018793793, 0.31725850898402985, 0.3117545107595867, 0.31182163254384876, 0.31860890787531304, 0.3229497778684128, 0.322150256509437, 0.32114749672956455, 0.31486691708781706, 0.30983303835380344, 0.3147305735012634, 0.3194064423627216, 0.3178543051060561, 0.3189771884382804, 0.31896968135276027, 0.3180677451752099, 0.3189052137619762, 0.3212810728263073, 0.31948981480358746, 0.3194873550360699, 0.3224837168170662, 0.32786511785180883, 0.3341066258768173, 0.326066278245084, 0.3211898879238647, 0.31864192002747366, 0.3183570641071681, 0.3182395142201027, 0.3197753312072113, 0.3191409496544793, 0.3188070500483519, 0.3167669664342447, 0.3023918985331837, 0.31218409240185485, 0.31743102892156505, 0.3187716681756656, 0.3188722357519452, 0.319061950038946, 0.31946692976324753, 0.31972497680213424, 0.31911300951587157, 0.31941465143676473, 0.3193370056064693, 0.3187487676323088, 0.3200033716058025, 0.32530064567839895, 0.332403248715146, 0.32980181169054035, 0.3239645410855511, 0.3213348878131233, 0.31947968052533043, 0.318615762087324, 0.31998705565716495, 0.32045868227872853, 0.31983991055804584, 0.31879801377583533, 0.3160729023939714, 0.3141793053954341, 0.30111779007948863, 0.3144105445228407, 0.31793402127097775, 0.3185843960240405, 0.31848356539402184, 0.3193065068819712, 0.3194499362330252, 0.3193277694962228, 0.31939741963323504, 0.31940932949816664, 0.3202201874369678, 0.32360810505684884, 0.3339290076312202, 0.3307187965376573, 0.3218862835117111, 0.3184064752327367, 0.32271682857365536, 0.31840110633629176, 0.31945341239843056, 0.31739364300277634, 0.3216117742167518, 0.31776339632077727, 0.3074028949403948, 0.3059095461587017, 0.3119259702867554, 0.3182600813396346, 0.3189622327013872, 0.31991531719443067, 0.31949518910134905, 0.3193103376934973, 0.3184015838076444, 0.3182515717095131, 0.31795614929574556, 0.3184075042116698, 0.3190432311355707, 0.31943049182382505, 0.3261883324031574, 0.32023487136878553, 0.3247703561876775, 0.32009434618576355, 0.32531497365851203, 0.31839009296488086, 0.32327245182487285, 0.3225915670694319, 0.3204778120472772, 0.3117956624090434, 0.31624355025464984, 0.3170151841718737, 0.3113993012588195, 0.3203789320546337, 0.31991141006901064, 0.31919025499958603, 0.318394687551342, 0.3176902191516156, 0.3189451184055919, 0.318048910707697, 0.31793611495084423, 0.31781447669843527, 0.32087231168407465, 0.3299799166390129, 0.3334131278311296, 0.3298244738254603, 0.32463290819515883, 0.3210967526890152, 0.3166779774301972, 0.3173373030645286, 0.3211091800741472, 0.3229632538100139, 0.3210556944328749, 0.31617038656397944, 0.3141900892705653, 0.3034374620422911, 0.3086549298779146, 0.3155698314780489, 0.3177740108584187, 0.31871707317508763, 0.31871641038971416, 0.32016892134193675, 0.3169942114370034, 0.3185744526060133, 0.319121362213265, 0.3215980399883984, 0.32329063893654525, 0.33122585346737105, 0.3341739277280011, 0.334218232612123, 0.3242303774273106, 0.31973197385895613, 0.3182178912467412, 0.3179257986153727, 0.3195527864779654, 0.3200926257812719, 0.3205488762791615, 0.3191418308206827, 0.31457721837500535, 0.3103174042600914, 0.3025203699990913, 0.3158282615887603, 0.3184178777885511, 0.3197729444748187, 0.3205445153461735, 0.31913299755627783, 0.3186866758083952, 0.31830004137979134, 0.31890353878501576, 0.3190001337552012, 0.31947548100726514, 0.32338831254210604, 0.3253051066577869, 0.32338473610384916, 0.3218771372168742, 0.32541453358637734, 0.3254349644870861, 0.32294629547616865, 0.32100743806009785, 0.3206761276394352, 0.3198558614686759, 0.3185473790886479, 0.31626961298566625, 0.29933294994481335, 0.31466149258004233, 0.3181304231375475, 0.3189629775788765, 0.3195390262943784, 0.3195172216325907, 0.31999608165900356, 0.31943247112573536, 0.31946171075075275, 0.3193773500144957, 0.3193271684291234, 0.3209150939233121, 0.3245844848601789, 0.3271221394393859, 0.33576966711842343, 0.32256143319365527, 0.32007570509771616, 0.31763728113374184, 0.3172320167269778, 0.3197617955793129, 0.32044382614176176, 0.32049337720727183, 0.3185529442512865, 0.3156932003453207, 0.30729635639074177, 0.30867179219117413, 0.31800384087294636, 0.31859230932906135, 0.31830445473932967, 0.3173712133889721, 0.31764569151144245, 0.3189848795890259, 0.31932082557638497, 0.3199705156244723, 0.32031974359970605, 0.3197659340192544, 0.3230194161524331, 0.33363994295522353, 0.3312846746300337, 0.32270888023135674, 0.321283188285627, 0.3197793552976756, 0.31972181215985546, 0.31937349303574497, 0.3194458727253444, 0.31858939434699657, 0.3171093174082645, 0.31680215079245616, 0.3143321114343132, 0.2997076839721872, 0.3170584190812262, 0.3183677329397875, 0.318999945678928, 0.3189941519962279, 0.31907869532976524, 0.3192427935771397, 0.31912638746927485, 0.31820124417161055, 0.3181426902646167, 0.32235404388000893, 0.32779246127355877, 0.3386638560802571, 0.3285280558198964, 0.32160909180312525, 0.31953615988437795, 0.3172979617219127, 0.3171118126707054, 0.31947659223994074, 0.3208551064932787, 0.3204102696466126, 0.31863939056913376, 0.31580163925120336, 0.31267173745249943, 0.3023498059630383, 0.31483979273074586, 0.31802937154065164, 0.3185616064651218, 0.3182629491926154, 0.3181086264372415, 0.31848403151493515, 0.31866927467954237, 0.3189872595916861, 0.3189955025574831, 0.3228337046691469, 0.3290233111090866, 0.33763776690539676, 0.3287676329869073, 0.32125435159678567, 0.31900111712337226, 0.3171509115424083, 0.3175969328818836, 0.3194234773632441, 0.3203730030540456, 0.3203766731441114, 0.31931299983825534, 0.31568609563542854, 0.3144380559781748, 0.31429677017098134, 0.3167148350214907, 0.30304113724689624, 0.31844588654057, 0.31802533118475046, 0.31861289027073014, 0.3198441256117022, 0.31929553804896266, 0.3187611631916712, 0.3188314564112307, 0.319578515626134, 0.3207073633228635, 0.3254715806666908, 0.3212114846989614, 0.324369222018438, 0.3311556825300856, 0.32282410110782317, 0.3202733573142716, 0.3200958248887767, 0.31962458223518136, 0.31824275617280573, 0.31657508591736144, 0.31641683786122865, 0.30365795419948277, 0.31307205168286306, 0.31845358958990017, 0.3188469988547648, 0.3192886681402941, 0.3197703639668426, 0.3197154255854653, 0.3203519277059198, 0.3203596651658251, 0.3199459263871521, 0.3194968900212602, 0.32195605536816846, 0.3308316611888588, 0.3355910901246382, 0.3243784804844127, 0.3215300927118842, 0.3189453530095591, 0.31692778986583453, 0.3175254911762988, 0.31957147935119595, 0.31982701321517387, 0.32021427777633377, 0.3174858000216055, 0.3135870031757179, 0.31491156613752214, 0.30318365701362565, 0.3158405799690754, 0.3179966600046499, 0.31730876757668275, 0.3181096185315599, 0.31903617688813374, 0.3193340957575568, 0.31877145141736535, 0.3191768253454147, 0.31931726404179867, 0.32126898821462196, 0.32805632806448454, 0.33767784171539755, 0.3233583991363757, 0.32111835552522816, 0.31896505544646353, 0.3169146784991775, 0.3174992481357206, 0.3194529412428446, 0.32015369336466937, 0.3201002040488378, 0.3185393708840198, 0.31565333077534413, 0.3133874017351341, 0.3171318502936952, 0.318373968941192, 0.3172190821546664, 0.3060364611481009, 0.3162898679303077, 0.31973448857040443, 0.3208221427773558, 0.31926306566056406, 0.3184158245580756, 0.3154618853379852, 0.319178528809083, 0.3237116146668833, 0.33255672212789616, 0.3167434183110419, 0.33173689158096675, 0.32441206175943943, 0.3182114727449767, 0.3190314843219197, 0.31976918849311536, 0.3194685342738169, 0.31744011386623994, 0.3155453140064463, 0.30710480292093617, 0.30975034010801955, 0.3170780758757206, 0.31797795460619643, 0.3188977638107418, 0.31825743361194214, 0.3176719518140321, 0.31894842855784195, 0.31804539090821976, 0.31905167502589765, 0.3186805968906001, 0.31836930055668095, 0.32225509406472613, 0.32861438957490446, 0.3379781863634135, 0.33067829041357916, 0.32160074066806743, 0.31927881454877466, 0.3182630623685116, 0.31687911137937386, 0.3179359812538108, 0.31487205118699907, 0.3167480629061666, 0.30858761621703035, 0.3116676914847936, 0.3142269776339059, 0.3134145974641361, 0.31905978656374123, 0.3202381469932824, 0.3221379885326524, 0.3186492439511028, 0.3189377746770256, 0.31952662347543226, 0.31951213907800785, 0.3182588019084403, 0.321877562099873, 0.3191329498542401, 0.3194387173134429, 0.32901227808769573, 0.32362998131609566, 0.3269234385888235, 0.3206079644654539, 0.3145069817848482, 0.3225546707457595, 0.32542236389388124, 0.32229016622289836, 0.3218991744911566, 0.319342694021539, 0.31619246452771294, 0.3054404881562153, 0.307761869498227, 0.31762105146608094, 0.3190112991776419, 0.3199908180136178, 0.31980866532958246, 0.31938821566560205, 0.31944152884963795, 0.3195193411457636, 0.31957711225169066, 0.3200153630079743, 0.3222930949116631, 0.3269530225523992, 0.33957616942392965, 0.3278317145627989, 0.3219325590607712, 0.3193383843287494, 0.31724713387068, 0.3185926486696716, 0.3199782802184027, 0.3200467891229181, 0.31991116191848423, 0.318382310732313, 0.3159521372483387, 0.31411041413242874, 0.3029812139972883, 0.3130736383736033, 0.3180127412879786, 0.3184463645046747, 0.3195435706554044, 0.3187781729185591, 0.3191735418647123, 0.3191608746075727, 0.3193933068366199, 0.3191805145804052, 0.32213916719527885, 0.3270042497249814, 0.34065665874565765, 0.3232822127416812, 0.32163683834997064, 0.31831235177343625, 0.3167595447018912, 0.3177292208714553, 0.3195754005364068, 0.3203198709166033, 0.32052608547391465, 0.31913040842353174, 0.31632102848949517, 0.31309998733301503, 0.3024577533616627, 0.3139517290841191, 0.31832004690164895, 0.3192543268039143, 0.3188196259180803, 0.31815569663402565, 0.31827961026925716, 0.3194339698426208, 0.3197904718342388, 0.3195048944384662, 0.3207047669379431, 0.32704116176564857, 0.33790605199846174, 0.32521624362480506, 0.3228531653388899, 0.3205116544587809, 0.3183349170164592, 0.318537760163561, 0.3197975309608921, 0.31995855295350967, 0.31902727475567766, 0.3171058112812622, 0.3155493761757041, 0.3158024085353491, 0.3144739028978116, 0.3041765592896301, 0.31774204055595884, 0.31941109470679213, 0.3194302048690814, 0.31880232250369267, 0.3184799219177816, 0.31924065205393554, 0.3186199094050349, 0.3188447504693861, 0.32030735723664777, 0.32019564913378457, 0.3194919399409452, 0.31696862799091846, 0.32589396525542297, 0.3291736907869337, 0.3283264459340841, 0.3198592107282416, 0.32002234905904375, 0.3203522314360423, 0.3204402920313663, 0.3185152179408511, 0.31607902181293773, 0.30752058131937815, 0.3094172686460809, 0.3179322032603575, 0.31808776884208556, 0.3180174590111249, 0.31862120574749714, 0.31887922932350404, 0.31909861991815686, 0.3186699651085373, 0.3191534107231462, 0.31899989365599213, 0.3208508508613048, 0.32383435387870113, 0.3234002903743246, 0.32833642898023935, 0.330559001387462, 0.3210537533143298, 0.32036919151288173, 0.31879890746818546, 0.31902112875260175, 0.3199211742996493, 0.3167908423107194, 0.3201883250918128, 0.3071886461291163, 0.3093194909873256, 0.3187677481295167, 0.3180972800107881, 0.31806720330166327, 0.3178076005183064, 0.3187502478742761, 0.31966619879663494, 0.31986763900546045, 0.31877443624480156, 0.31851263749671116, 0.31932759655487886, 0.318633134354389, 0.32055548289279184, 0.3255236407893442, 0.32127806107369583, 0.32093979405024203, 0.32038210774088344, 0.3198496959215397, 0.31945889574810393, 0.3189914372222434, 0.3186039754276499, 0.319628281109621, 0.3184061799972934, 0.31760229381259536, 0.3175860794239478, 0.31397552469400053, 0.3190826127462425, 0.31915237727201123, 0.3193291031606407, 0.3191188542409349, 0.31925258549151453, 0.3199986319603873, 0.3198888221702745, 0.3191243798087074, 0.3197153108762077, 0.3225908631721417, 0.32894209364297594, 0.3401672380259193, 0.3273978212908372, 0.32239281403131037, 0.31966657628912604, 0.3179629988244142, 0.3172802711109816, 0.3186922731932912, 0.31972408564524063, 0.320415953941321, 0.3182823379058129, 0.31567140470289046, 0.3119834260610425, 0.30324875696883047, 0.3148649690737281, 0.31775283266520615, 0.3186447846265504, 0.31906509690693174, 0.3184363693240832, 0.31922989437650634, 0.31897722466253564, 0.3187254096247892, 0.3193435313146146, 0.3219359054037406, 0.3290732425233031, 0.3405126666687413, 0.32551844662256907, 0.32224018914291325, 0.3194550637927645, 0.31744991341850354, 0.31700920907085645, 0.31946973875588247, 0.32023797476393284, 0.3196933517728269, 0.3181280030683342, 0.3161163622914738, 0.31404107895803923, 0.30734260086398124, 0.31011899992920094, 0.3178956326555468, 0.318091829495499, 0.3178825627298535, 0.31951491078193034, 0.31942499925703277, 0.3185863689703617, 0.31970289458315954, 0.31951020378808387, 0.32003548422518074, 0.3223845221508797, 0.3362574668849761, 0.3255884505101759, 0.32082184374754824, 0.32026030563392055, 0.3190537451986704, 0.3191608351702157, 0.3179512082653915, 0.3177410566359054, 0.31846050549434685, 0.3181623062479123, 0.3177767549888376, 0.3178648318995536, 0.30368829096488703, 0.31631164254471683, 0.31822869276663385, 0.31945599524456253, 0.3190824131513, 0.3188177000169041, 0.31935867528669787, 0.31945491051928054, 0.3190953061791735, 0.3188693585802976, 0.31936471061151983, 0.3226879420811387, 0.33748289697838346, 0.3243086178352274, 0.32052907673737646, 0.31927095484801243, 0.3184957248467555, 0.31911381236851266, 0.31894629589224643, 0.3183649546418375, 0.3107037959719717, 0.3111752735897709, 0.316485209577398, 0.31706251598358287, 0.31456534638894085, 0.3188891446251643, 0.31893395669450414, 0.3202225108720968, 0.3188357667715171, 0.3173195913985197, 0.320724385128202, 0.3199404515325963, 0.3193824569437566, 0.318262121377311, 0.3187088265418074, 0.3216764317647738, 0.3291333906827691, 0.3234647335023548, 0.3253672278895511, 0.32818187311981295, 0.31032816919189044, 0.3163050943190214, 0.3221558019467274, 0.32041175333488986, 0.3225834127477127, 0.31653794394637763, 0.31585972422150604, 0.3073234817957636, 0.31683574724284036, 0.3180241135777888, 0.3188929135482806, 0.31916329727231746, 0.3191245237711932, 0.3198838564250424, 0.3182701550370695, 0.3177320607422383, 0.3188562461258623, 0.31919474022448346, 0.32138980822317026, 0.32901590393041286, 0.32938451206391567, 0.3311099065023624, 0.32728019193067615, 0.3201280148569443, 0.3177695740024137, 0.31547547358576616, 0.3184941631252867, 0.3203925067661893, 0.320724176095269, 0.3169023174328776, 0.30471344108456955, 0.30673606895783806, 0.31659504696286556, 0.31439054109054815, 0.3191648579629072, 0.31793091347408714, 0.3180962258053885, 0.3176857622327132, 0.32019126972523393, 0.3217428861297791, 0.32010730844965246, 0.3184097954303988, 0.31915261167920983, 0.3237826058435875, 0.33525709670078885, 0.3292974592510079, 0.32935409765503243, 0.3265643126415452, 0.3215461551326136, 0.317023477407036, 0.31833262021053116, 0.3203522972073682, 0.321139815205809, 0.31789750901680125, 0.3125010032912461, 0.3086530799771803, 0.3062156571294872, 0.31602250423454675, 0.3180842413244445, 0.31838826678270293, 0.3190550790478944, 0.3199000314084171, 0.32011161121923176, 0.3193464656732042, 0.31864681221918567, 0.318958050860178, 0.32092428328086636, 0.3292072476332127, 0.3408255739093959, 0.32953105141694544, 0.32212636705673936, 0.31938456279698046, 0.31769874179308494, 0.3169328591526575, 0.3189570856605412, 0.31998686498068873, 0.3200445963807512, 0.31873780791863887, 0.3158438197688147, 0.31403620919697767, 0.3073741743248462, 0.31011949702878955, 0.31834108162652686, 0.31835752732989914, 0.31842347947808164, 0.31881384178397576, 0.3186736682267765, 0.31893882409044344, 0.3186142735146344, 0.3183359966021297, 0.3213219766104492, 0.3268199486228149, 0.33786490531582003, 0.3247803400360855, 0.3227733236564833, 0.32101793414586205, 0.31911459145307886, 0.3179372387907853, 0.3192408043058932, 0.31940583094078184, 0.3182129765704887, 0.3169619187000639, 0.3155721690862054, 0.3156350635892014, 0.30768124400803853, 0.3113655095142958, 0.3183718286457912, 0.319518322719273, 0.31935349475444014, 0.31752964983456616, 0.3188131167933505, 0.3193711460338391, 0.31805215052901364, 0.3174506431131966, 0.32059017963524555, 0.3200912511817046, 0.32648430910570375, 0.31848601771243373, 0.32316229400439456, 0.3207300610617741, 0.326287833372547, 0.32724525037318297, 0.30642201194779456, 0.3194350382195211, 0.332851797764888, 0.3218839250073638, 0.31594877058886545, 0.30938617262736984, 0.30752017778075713, 0.3187223598885193, 0.31900661658023655, 0.31885539032559596, 0.317793295456027, 0.3161977025907415, 0.3174257125034073, 0.3193875917727555, 0.31808353520186056, 0.3155017788987424, 0.3160215977592297, 0.32697381904883266, 0.33651677123123247, 0.3325872840019576, 0.32630011057788166, 0.3200519247383638, 0.3140760168007272, 0.31370627718589855, 0.31875970548167404, 0.32196420301555123, 0.3217568683010699, 0.3192838847286956, 0.31354650859839545, 0.30840551115149034, 0.3090463532865952, 0.3158515664228176, 0.3173667061776378, 0.3174441978142821, 0.3171460846178096, 0.3173694680545755, 0.3183984506761955, 0.31741108476047614, 0.31825137902384487, 0.3192760586300533, 0.32053437068680596, 0.3229010378578564, 0.32586770670768805, 0.32695008122793295, 0.32401943712390974, 0.32100403794059296, 0.3191972923964492, 0.31685507213353764, 0.3173263012301966, 0.3159817538572706, 0.317825913478366, 0.31652076294867854, 0.31557053582213185, 0.3169720359900457, 0.3187987196286715, 0.31944968444582283, 0.3205260698382627, 0.3218291524308099, 0.32212525205256676, 0.32053995838491706, 0.3191935922546388, 0.3198963075219938, 0.31972725222436743, 0.32046160921452355, 0.3200181298502389, 0.32271162327505076, 0.3260344689236672, 0.32805043321262367, 0.3305753168617408, 0.32032372582134183, 0.31921639152248193, 0.3193634879894352, 0.31977720973697565, 0.31984989812587367, 0.31923566426553673, 0.3174323445482533, 0.3152708414951289, 0.30277766455163146, 0.3154539381501364, 0.3185093483126081, 0.31896290362300395, 0.31927982058255144, 0.3188006392177768, 0.31935971628981036, 0.31754554655802064, 0.32032967478086194, 0.31825794382225264, 0.3193188878660786, 0.3209644848166026, 0.3279387174589196, 0.3393837929478299, 0.3255351395490464, 0.32185753949084944, 0.3194985104364629, 0.31742184595800765, 0.31738060666402684, 0.3198651343306517, 0.31944496533967803, 0.3184350372218761, 0.3160989943065807, 0.31232578634671593, 0.3042674355159449, 0.3096550258967043, 0.31773670386063935, 0.32025703691160595, 0.31612279228650747, 0.32085270235885127, 0.31914001928383834, 0.3186533800576374, 0.3201413744658044, 0.3194782961699348, 0.31862918998181033, 0.3199752976100119, 0.3215776998323321, 0.32813287702708344, 0.3243574725917978, 0.3204531834002022, 0.31821458014481135, 0.31861990924854117, 0.32352453626014127, 0.32349598172567756, 0.32348770688517714, 0.3195845934425475, 0.31801675967812254, 0.3102512207028289, 0.31038525825109203, 0.31193844050595976, 0.3170479092079541, 0.3178590953532528, 0.3184826848640952, 0.3187716900772558, 0.3193607055456113, 0.31939708358035285, 0.3192263871294571, 0.31802312915575204, 0.3175623549977016, 0.31919541729557555, 0.3301199570308296, 0.33977026340321914, 0.3340852930717444, 0.32803046236267963, 0.3203852618973941, 0.3181517855793874, 0.317424600512982, 0.3193260767064045, 0.3190944079019314, 0.3181579809960267, 0.31711073130831496, 0.31550754451477675, 0.315849406407997, 0.3027256118573514, 0.3153887969614069, 0.31859993598882475, 0.31821429305177934, 0.3188042977657436, 0.31996986046257975, 0.31906071219935755, 0.318276003487035, 0.3189261513360048, 0.3192683601959628, 0.32031776546155427, 0.32441458662907124, 0.34120319769928015, 0.32606229114677293, 0.3230281291079051, 0.32034849700904383, 0.31807140794792316, 0.3177652098928839, 0.31927968603101997, 0.3194916826187368, 0.31832903274815705, 0.31653995564391463, 0.3154246725423236, 0.3154710111344821, 0.3076367681797676, 0.3107191124068432, 0.31829258312666825, 0.31890508493015024, 0.31875673833907375, 0.31858585969207404, 0.31884877856969723, 0.31894954141002274, 0.3190894889873708, 0.31900851269822406, 0.3201913146389092, 0.3267832737066893, 0.34116326817874937, 0.3259164391218194, 0.3228440963327693, 0.3197679548761628, 0.31736355147759016, 0.31764294277253824, 0.3195031175749547, 0.3196340013649898, 0.3193584744921906, 0.3163329121160657, 0.31491129407854485, 0.31592967336636074, 0.3083179445641463, 0.31048789809597455, 0.3182616718605226, 0.31892208317527954, 0.3190738340440779, 0.3193872294061504, 0.317615267459721, 0.3202730672026661, 0.3190688939936778, 0.3187097565971891, 0.31832818882372693, 0.32153942250220474, 0.32568471748485806, 0.33686087747545407, 0.32299413602761545, 0.32106445078840523, 0.319033477642269, 0.31608862363508705, 0.31856589315441686, 0.3186126275956928, 0.3206850793630996, 0.3165307099494387, 0.315699416820711, 0.3005064135563422, 0.31717230482555764, 0.31913913835362007, 0.31873290388501824, 0.3188534104087248, 0.3198892186671873, 0.3190463537320296, 0.3191032190813696, 0.3195553171164292, 0.31870069918030497, 0.3185032865474426, 0.31970463547991373, 0.32879195297957037, 0.33790872758475765, 0.3267069045777468, 0.32243170346669425, 0.3197354167166904, 0.3175624365727035, 0.31661206661365854, 0.31845449874058945, 0.3201058516951864, 0.3197094717766943, 0.31795691964416156, 0.3150006918906196, 0.3138846260237763, 0.30820763871789997, 0.3138903183981939, 0.31782184911344097, 0.31821279162979255, 0.3188526113739337, 0.3181602350819202, 0.31862448657379233, 0.31973642101966315, 0.319532863795539, 0.31905662727409484, 0.31914437475687013, 0.32834681176986985, 0.34304755394014047, 0.32462504365895933, 0.3226224007223301, 0.3194966850900594, 0.317215855932436, 0.3167474245769176, 0.31845488161879226, 0.32014629972403735, 0.3198796434657855, 0.317962167531899, 0.31487619584078624, 0.31465422979549135, 0.31476520537200087, 0.31697452868306497, 0.30670828736920003, 0.31574555600893134, 0.31917007424867777, 0.31838690462270275, 0.3178371450357856, 0.31887371472083265, 0.31918826496102903, 0.3191253330365043, 0.3195340796856857, 0.3263354708844722, 0.341880302371266, 0.32426439894378034, 0.3237748555108835, 0.32013474761920246, 0.3174919382614904, 0.3176936581584224, 0.3193621953370591, 0.3185794068455447, 0.3172788593130391, 0.3145531758421327, 0.3158997823451855, 0.3157244459687974, 0.3031464902231453, 0.3162918647485869, 0.3183919553205002, 0.3186048096582053, 0.32042027473582363, 0.31848501451659583, 0.3194872621230074, 0.31918294003595266, 0.3198255008142213, 0.3190267294556835, 0.318377650104872, 0.32055122908734085, 0.3344541777278338, 0.3224039473492366, 0.3228145081936335, 0.3231161810705292, 0.32099965405421765, 0.3186591311350298, 0.3175523028211394, 0.31580274582929563, 0.31797350055086215, 0.3182274408452768, 0.3055378817270516, 0.3153820833965639, 0.31322222219992363, 0.3197105930800144, 0.3170107286840856, 0.31925426776484994, 0.31709682831606006, 0.3178051064559923, 0.3184849012442015, 0.3179336963925303, 0.31650260699390853, 0.31797279045233634, 0.31726995865854224, 0.3187601125941771, 0.32973774660747557, 0.32925625334618064, 0.3285765307582163, 0.32224148819540727, 0.32543055739423227, 0.3216744268173852, 0.31939388956403486, 0.30953272369343526, 0.31945691601747545, 0.3194916078035048, 0.3147921718493083, 0.313173585159714, 0.3148456816361822, 0.316438262032968, 0.31628441316137995, 0.3157215934155616, 0.31450172099682105, 0.315385623819856, 0.31645587928409075, 0.3188723904418027, 0.3212493857984347, 0.32001360278563507, 0.31828336625088616, 0.32140932982120146, 0.3350350898313919, 0.3306838688753813, 0.33205331791597487, 0.3289767744084095, 0.3214172155350228, 0.31431101315773985, 0.3164671588868433, 0.32256260521798863, 0.32254059269382546, 0.31900780844065313, 0.31277315995004656, 0.30374371444751463, 0.31000612689191104, 0.314963737606836, 0.3163265576282651, 0.31646</t>
+  </si>
+  <si>
+    <t>[0.3140256590067387, 0.3125203127833353, 0.3129569862864548, 0.3136744231350869, 0.31402339278289526, 0.31600087697904433, 0.31838749961413987, 0.3233316645047845, 0.3230609369961035, 0.3279632471684874, 0.31658902135972183, 0.3117285609327829, 0.3128391377509903, 0.31467677608237915, 0.31563434091256, 0.3152018775243995, 0.31361777694687587, 0.31040126315217337, 0.30662393468190086, 0.29559580338505265, 0.3092997022953929, 0.31259832287774153, 0.3134677324667335, 0.31298246519780387, 0.3131312455961881, 0.31426127373899315, 0.3141555088209587, 0.3136940688457763, 0.31310758672410605, 0.3178828563162422, 0.32473290766751706, 0.3358871793186761, 0.3184888479261761, 0.314544458236486, 0.3099301055567093, 0.3065668312602057, 0.3097436960999732, 0.31511674910381987, 0.31665417046931715, 0.3137485448665653, 0.30960360954347554, 0.3099477361790702, 0.3109219588129596, 0.31002725012102883, 0.3116588456275225, 0.31047153928814447, 0.3086492355220713, 0.30881809786875325, 0.31521323487698766, 0.31367014514877717, 0.3137763791842581, 0.3143114084427072, 0.31341643470247954, 0.3130898128027455, 0.3178328077372359, 0.32500097022762947, 0.32224735678096716, 0.32231437939349217, 0.319315185522199, 0.3151960904802999, 0.31158996105377956, 0.3122614270323979, 0.310104635622984, 0.3123711679709335, 0.31141216279857925, 0.30293333761990787, 0.31042883826723305, 0.3066018002362873, 0.31268470624994354, 0.31452730013627533, 0.31424355553023825, 0.31532381240601565, 0.31419275864838, 0.3138346433046236, 0.31395529304331227, 0.314227974387808, 0.31449311658262413, 0.31676794493542665, 0.31894130642929247, 0.3289766473509692, 0.3231352996548636, 0.31819780584675866, 0.31542079485402247, 0.3128624655648126, 0.3135613206504497, 0.31560148686331546, 0.3115782514418406, 0.3156780132210827, 0.31081309514375516, 0.3075543048399723, 0.3047611881132835, 0.29974863548104647, 0.3108422961944328, 0.31249479535734054, 0.31269394657149957, 0.31238436489670085, 0.3137582232248004, 0.31401958304866834, 0.31444220942540535, 0.31350487507484154, 0.3134543326094477, 0.31776618051761457, 0.32460498796018417, 0.3229070653662453, 0.32749815438758484, 0.31690425426890895, 0.3132464384083004, 0.31232428730789213, 0.31271087324250785, 0.31461060510025485, 0.31440676118025773, 0.31299013493537947, 0.31177037519200007, 0.29381929980536864, 0.30905328921844916, 0.3109162509527181, 0.3143572514485852, 0.31375764639319603, 0.3136059293089605, 0.31371856728832165, 0.31376206106576027, 0.31352790334905273, 0.3128906122573846, 0.31354030470120187, 0.3137691726908522, 0.3165978568168079, 0.32118709655763356, 0.3220443342986339, 0.3282195176539165, 0.31950164580458257, 0.3124379658811285, 0.3106472975303484, 0.30151286053222287, 0.31093528021672456, 0.31069235684300095, 0.31296204321326865, 0.314602271559317, 0.310286864092262, 0.3061256456710877, 0.30788691009225183, 0.31182054209614285, 0.31295163690605693, 0.3125162854403231, 0.3121552882446202, 0.3134851976830197, 0.3140286341295417, 0.3131222910891353, 0.3146527465103904, 0.31451279007543603, 0.31619104521139085, 0.32201005027340507, 0.33371744428687317, 0.32700355556221367, 0.3215540162317201, 0.313825999520223, 0.31142454187086016, 0.3124934585557153, 0.3147559108835682, 0.31540210911352046, 0.3154248574908454, 0.31359254219081123, 0.30969523465278737, 0.30418089650596375, 0.29477135301694174, 0.3108785935643216, 0.31246307150841274, 0.31168607724261194, 0.31265387274747936, 0.31300011335509953, 0.31332453706768754, 0.31320051645459096, 0.31282223795663083, 0.3130723453590477, 0.31881699860016544, 0.3282692675556476, 0.3324902997085368, 0.32480879994637923, 0.31535617067320604, 0.31314697787920565, 0.31236576637886654, 0.3138434967567298, 0.3143417451148456, 0.31339761767453855, 0.31379251867769853, 0.31302195813890604, 0.3112838851665464, 0.3079904645566079, 0.2966700323885095, 0.3069125228936499, 0.3148838625624788, 0.31426479653856004, 0.31240980888839837, 0.31270847978286137, 0.3126625156151832, 0.31176063815693056, 0.31273459628012956, 0.31214599658208664, 0.3163705612226369, 0.3248866780564827, 0.3266182976558623, 0.32396795359856223, 0.3182387029930133, 0.31105689362533245, 0.3058823187995011, 0.30992809283279527, 0.3166740229571207, 0.3190943096132386, 0.3180673949163952, 0.3145570326079079, 0.3102419203611706, 0.30803868656187144, 0.2984042001683297, 0.3100168011820042, 0.3119969065129951, 0.30878951843017727, 0.30113637574148827, 0.3043898890931353, 0.3079846155298041, 0.30991414089959646, 0.31093779072870714, 0.31124943551016004, 0.31687505185416176, 0.3290099342141712, 0.33452276583667406, 0.3260858062973813, 0.3204120334260274, 0.31490085284246033, 0.31123280041884077, 0.31113045900696285, 0.31583159089428564, 0.31755844346011036, 0.31819804735712437, 0.31599613606952226, 0.30891110559398555, 0.30416785351249975, 0.30541742385322984, 0.31040674987818867, 0.3125783472408102, 0.313902478186915, 0.3137233126950238, 0.31273730816358075, 0.31308720885565733, 0.31294928648734044, 0.3122607724576657, 0.31155548946251116, 0.3169247598663437, 0.3260123646234039, 0.33184350953673, 0.3246738452402372, 0.31759260984460586, 0.31166688692108124, 0.30566771165837076, 0.30951768587308176, 0.3129696123555547, 0.31906210461329126, 0.3178832760747306, 0.31566963844723855, 0.31159747923629116, 0.3068364844414343, 0.30415998344393924, 0.3045398317670509, 0.3120968624124942, 0.31394934083787324, 0.31343498773080486, 0.3127314933423411, 0.31426489346457925, 0.31309744415177826, 0.3128563011317776, 0.3127953226312461, 0.3168839251353699, 0.3242507640447823, 0.32841908112638046, 0.3220890712294378, 0.31474280446271635, 0.310903464958381, 0.3035830143024727, 0.30669293427453764, 0.3160414956771381, 0.3184149004671079, 0.31945055882875223, 0.3145439411589009, 0.3083068152021172, 0.30229424236595986, 0.30474223384658017, 0.3077031104456325, 0.30818682067548325, 0.31287078225768705, 0.32022419274139735, 0.31360218064177287, 0.3177500909210215, 0.31454297260776953, 0.31281645611216874, 0.3128463113493836, 0.31670627682491154, 0.32334806153642554, 0.32930434486156007, 0.3222101073220028, 0.3151157422400608, 0.3133113207929776, 0.31266415833458866, 0.3118480000069288, 0.3134538419143572, 0.31459775531568485, 0.3084492945818051, 0.30746759222229897, 0.2998529995402734, 0.31032909183165275, 0.31247507443382094, 0.31328445553552176, 0.3131245208255277, 0.3130069093962327, 0.31392925037875846, 0.31255747910348136, 0.3137294153054997, 0.3145645226038286, 0.31358878017749914, 0.31421119303448725, 0.31794436898629924, 0.3251730475167057, 0.3332466424405008, 0.3219437493691294, 0.31602818789702897, 0.3140511370002985, 0.31241424256601286, 0.312163697153678, 0.3142405425819484, 0.31485946361622497, 0.3136459478332552, 0.31154445768360045, 0.31021880392923085, 0.3096567317428049, 0.29518953393205843, 0.3095346724504379, 0.3134923178194098, 0.3139782643232974, 0.3116448509690652, 0.3151845839690301, 0.3137833863754553, 0.3144296598065646, 0.3131037593752346, 0.3130486746053694, 0.31584862958583376, 0.3197272216914373, 0.3344783726664564, 0.3180224890971716, 0.31668833427247983, 0.3145904486610532, 0.313306283245429, 0.31344238705038996, 0.3146908115583728, 0.31441787405906757, 0.3127584400031904, 0.3091269079450724, 0.31144464375045494, 0.30961058536736147, 0.2969096741021458, 0.31063120869782784, 0.31283868690068334, 0.3129194186056799, 0.31366117299091506, 0.31303021002977083, 0.31340244520070515, 0.31471355502210163, 0.3138185700898606, 0.31370083342638355, 0.3142034908008822, 0.314359648868134, 0.3187251689734954, 0.3189564186419697, 0.3262054333216848, 0.31307483647171824, 0.3145404305629976, 0.31534884085420445, 0.31313684329597347, 0.31359014015238146, 0.31318778022187216, 0.3130879192365866, 0.31268543286062744, 0.31237085735901043, 0.29863482995596025, 0.31053354130382904, 0.31154010707718466, 0.3107517367188883, 0.3132790062198422, 0.3125667675768772, 0.31370854458876957, 0.3131257244791113, 0.3134894529069604, 0.3135289830804299, 0.31403805298659776, 0.3140448982291378, 0.3253570031217928, 0.317195275751537, 0.31894648797936476, 0.31211177961237563, 0.3143983248397608, 0.31255401868931115, 0.3144074030159261, 0.31089767074483077, 0.3131763775350025, 0.3120650532697687, 0.3120387070658282, 0.31176587675920525, 0.3051328816095564, 0.3098140721413154, 0.3119636761653674, 0.3147727205153415, 0.31551910640498587, 0.3118419042590182, 0.31332887444334917, 0.3122329530345815, 0.312332208450387, 0.3116924920199991, 0.30869139478045526, 0.31596529745673635, 0.32458704061667737, 0.31963819063974513, 0.3197323687333035, 0.31482732004388675, 0.3159359959078142, 0.3220999018591911, 0.3164085322422246, 0.3209339017222643, 0.3170098782130237, 0.3126214536464418, 0.307757547717831, 0.302457834179877, 0.3037826126994655, 0.31103282755544637, 0.3139508380441296, 0.31526962620559157, 0.31447136825532224, 0.31354140628298416, 0.3128367548911205, 0.3140912002132726, 0.3135327024273428, 0.3131273134193922, 0.316056621075535, 0.3284212476249576, 0.3240141771631141, 0.3246374713365418, 0.32085044054012635, 0.31173281133140107, 0.30598026060077504, 0.30603977922291176, 0.31311468330369924, 0.31764584733683665, 0.31681090134742323, 0.3157605122788845, 0.3092026084181236, 0.3039223551095207, 0.3090200063223923, 0.31393072006704886, 0.3120937836452293, 0.313412891038455, 0.31349569260854104, 0.3125481381619096, 0.3134245515934561, 0.31589597483241266, 0.3140288237169327, 0.3140286589637377, 0.31716044048864983, 0.32281489485466414, 0.3293532451219385, 0.3209047784832583, 0.31582807003356383, 0.31315746551856244, 0.31285179707348726, 0.3127246662398519, 0.3143395455345492, 0.31368004379189934, 0.3133074853519742, 0.3112091370730965, 0.2962088660917307, 0.30639974552922683, 0.31175361367365845, 0.3131291905020866, 0.31340142769770823, 0.3135853845389104, 0.3140040740967423, 0.3142773896028868, 0.3136461988377363, 0.3139525427585716, 0.31387519983487383, 0.3132620832258702, 0.3145777902755644, 0.320111311379012, 0.3275594797061457, 0.32483161860054627, 0.3186823587830762, 0.315981488664753, 0.31403448205837353, 0.3131253845582693, 0.31456041245964883, 0.3150579584918857, 0.3144076981995248, 0.3133153325259844, 0.310460975526527, 0.30848620867170234, 0.2948589408380715, 0.30872134518297384, 0.312277685405003, 0.31293997857114025, 0.3129960604368635, 0.3138414472274083, 0.3139888234772478, 0.3138635384052382, 0.31393691591456147, 0.3139521286279942, 0.3147966127263076, 0.31833728217349394, 0.3288937930110266, 0.32575773122267976, 0.31654500240434863, 0.312922881715027, 0.3174006873946611, 0.31290871224571976, 0.3140068948251577, 0.3118596176756491, 0.31624156745049986, 0.31223438599949616, 0.3014216495758859, 0.2998675492061218, 0.3061282241704572, 0.3127426583818652, 0.31348146278885847, 0.3144770876048744, 0.3140343370390196, 0.31384437799348747, 0.3128997939423869, 0.31275607041914677, 0.31244865776029607, 0.31295092579735334, 0.313605522310546, 0.3140207844295451, 0.32098661209234364, 0.31478126375097876, 0.3195536782291723, 0.3146824395485606, 0.32012825663088745, 0.31292118753415005, 0.317989858364485, 0.31730619839728863, 0.315088145227664, 0.3078740614247483, 0.309169016048689, 0.3110023953386282, 0.3055611226764763, 0.3149801863734199, 0.3144466511647018, 0.31369433345653946, 0.31287628434634157, 0.3121784622971622, 0.313522959418754, 0.3125632253020179, 0.312438415034131, 0.31229545432779143, 0.3154893462604443, 0.32497989478349315, 0.3287453515376845, 0.32486903986870935, 0.3194369741660321, 0.31573160387703936, 0.3111085108000898, 0.3117896485136738, 0.31572448029811867, 0.317662359568958, 0.3156749369514506, 0.31057722258571413, 0.30850237925509416, 0.297209481336168, 0.3027119039445408, 0.3099548126885039, 0.3122656151087467, 0.3132361433887705, 0.31324131010601497, 0.31477512450470374, 0.31153697926900087, 0.31321909895878136, 0.313674195827585, 0.31622857189392267, 0.31800393968972657, 0.32625476642939905, 0.32904088901244716, 0.3294749154896566, 0.3189714264949733, 0.31430531291551816, 0.3126796778556097, 0.3123859165331207, 0.314101579422621, 0.31464062382431424, 0.31515301030880033, 0.3136798136485311, 0.3089292249794096, 0.3044717914981755, 0.29637251333689457, 0.31037283189616804, 0.3129085896290946, 0.3142799511472459, 0.31513027089485135, 0.3136567608970418, 0.31319421558319177, 0.3127946537520811, 0.3134232777897864, 0.31352399963424626, 0.31402506296721283, 0.3181101439259505, 0.32008912625231406, 0.31811521601052356, 0.3165464680984497, 0.3202462040615831, 0.32027052485321345, 0.31767122994784136, 0.3155823374324715, 0.31523120671957644, 0.31442569797288594, 0.31305739135603333, 0.3106768364406298, 0.2930226271053833, 0.30899370824760425, 0.31235277039168, 0.31344345069269636, 0.3140900489816249, 0.3140600951394205, 0.31455721788564933, 0.31397205713581583, 0.3140049454894083, 0.313923600508533, 0.31386129302729987, 0.3155233056704592, 0.3193580909916933, 0.3220308585189035, 0.33105753913068986, 0.31727051918696997, 0.3146657907234181, 0.31210353822081066, 0.3116541280806446, 0.3143230147641514, 0.3150408898585691, 0.3150550313828212, 0.31305955936293617, 0.31006108183973696, 0.3013081547963447, 0.3027527609124687, 0.3124782089617045, 0.3130941099988056, 0.3128129058183912, 0.3118320795142635, 0.3121242936105903, 0.31351012591497823, 0.3138600679668438, 0.3145347166719688, 0.3148962781908596, 0.31431865970855877, 0.31772025976702756, 0.3288248749763852, 0.3263535086894485, 0.3174275430658847, 0.31592972215604465, 0.3143481035769104, 0.3142825849952262, 0.3139146122106678, 0.3139909002893689, 0.31310094128135585, 0.3115482893267248, 0.3112069389539277, 0.3086335023978403, 0.29337672534612885, 0.3114880465242346, 0.31259001894063204, 0.3134992732262447, 0.31352355050771263, 0.3136078502360075, 0.31377613882700267, 0.31365699634800676, 0.31268493058846164, 0.31264598917531117, 0.3170263528006186, 0.32271599795999667, 0.3341148941556955, 0.32347836182734263, 0.3162692412598833, 0.31409350763078925, 0.3117464570134965, 0.31154665114631985, 0.31402250000046, 0.31545282173623884, 0.31500488917638686, 0.3131532748799975, 0.31020570009480625, 0.30692495691390315, 0.29612364285686893, 0.309165874164992, 0.31250516646236415, 0.3131988587830124, 0.3126194714535165, 0.3126016643902642, 0.31298473747867106, 0.31317990363513876, 0.313511226086786, 0.3135192160406993, 0.3175259979078908, 0.3239807116044235, 0.33304724889514753, 0.3237538915273316, 0.31590042215775754, 0.313512897937435, 0.31159039682781353, 0.31205231887872603, 0.31397077500612064, 0.3149697178871011, 0.3149679892849576, 0.31385257380445375, 0.3100350161743018, 0.3087376270592069, 0.3085781591911601, 0.3111201552121226, 0.29763827518903424, 0.3121795868124835, 0.31244861295610366, 0.31309973300181604, 0.3144057455663477, 0.313832750713553, 0.31327641221963354, 0.3133561239683658, 0.31413320523928306, 0.31531881482133367, 0.3202946728782366, 0.3158506790948063, 0.31915038465709394, 0.32625282962775765, 0.3174853326245314, 0.31486504075158783, 0.3146774675984239, 0.3141834364792845, 0.31273637720724407, 0.31098786056842626, 0.3107952525787527, 0.29754294165625644, 0.30732914155590596, 0.3132598890681322, 0.3132932684509748, 0.31382583142718495, 0.31432412369611634, 0.31426409701777996, 0.3149270592165115, 0.31493796141354036, 0.3145072596398584, 0.3140399769332441, 0.31660976719813533, 0.3256491313850772, 0.33093784742331883, 0.3191812036668014, 0.31619304444334734, 0.3134850020948731, 0.31136277813762464, 0.3119673078301734, 0.3141134220657731, 0.31439317127265454, 0.31479866209023927, 0.3119465874569778, 0.30785524926775504, 0.30923457824159645, 0.29702852732777485, 0.31021623279910804, 0.3124705336189712, 0.31175727236531664, 0.31265688503939043, 0.31354159194063275, 0.31379105192106016, 0.31327600719066034, 0.31371032498633666, 0.31385458899778645, 0.3158927901101173, 0.3229950651459274, 0.33308692124798406, 0.31811231559045283, 0.315758147453271, 0.31349885621652746, 0.31132261277914347, 0.3119518919471141, 0.313999851090982, 0.31473679090149, 0.31468215190311194, 0.31304912302695365, 0.31002594261872374, 0.3076432208573519, 0.3115508337390915, 0.3128571057033707, 0.3116658144382598, 0.30218428448159296, 0.3085743026791595, 0.3141892711049308, 0.31999782812607597, 0.32250242170972027, 0.31223225841490015, 0.3111809671460966, 0.313262282201338, 0.3163330558584418, 0.3040695749620051, 0.31432759242612246, 0.33397396216677805, 0.3200871085288464, 0.3126837929179301, 0.3135500662981754, 0.31432663761008817, 0.3140219615921562, 0.3118967421343506, 0.3099091860621255, 0.30112065892484163, 0.30386527762135657, 0.31177896254455834, 0.31244916595097805, 0.31341331673619033, 0.3127523200221854, 0.31213866109515975, 0.313468317927851, 0.31252988318706376, 0.31358053350959664, 0.3131918560413735, 0.3128834853014693, 0.3169362591718055, 0.32357067919778365, 0.3333955281265082, 0.32574765771389297, 0.3162671137136826, 0.3138269864545505, 0.31275733960874386, 0.3113002082203204, 0.31242266050613055, 0.30921718003125426, 0.3111753339458489, 0.30264105411710557, 0.3058542682496696, 0.3085406561799362, 0.3076877003744552, 0.31359091933918504, 0.31483215964918565, 0.3167571783918654, 0.3131479039941779, 0.3134580347122425, 0.3140733597138372, 0.31405955955412995, 0.312760004517794, 0.31651967945547727, 0.3136661350163545, 0.3139939723964721, 0.3240023090589621, 0.31838683322591693, 0.3218154771545508, 0.3152413562864815, 0.3088394155198528, 0.3172397913699778, 0.32024993468254004, 0.31697782802449803, 0.3165667777868502, 0.31389264239166503, 0.3105990853584001, 0.2993402878035058, 0.30168444797483146, 0.31190837261743903, 0.3135454679615313, 0.3145642981597006, 0.3143299829952581, 0.31391404338158013, 0.3139811109510749, 0.3140650165051799, 0.3141288789829908, 0.3145804187827301, 0.3169602897194042, 0.3218421236621977, 0.3350728348843422, 0.3227791735155919, 0.3166125284616711, 0.3138920789394413, 0.3116707603001984, 0.31309649544410373, 0.3145510457962562, 0.31462603421117485, 0.3144811907507715, 0.3128828460590385, 0.3103328494646012, 0.3083978438853488, 0.29681300257289867, 0.3073305990045455, 0.312486375674775, 0.31320817819973745, 0.3135892257817828, 0.3133119300572045, 0.31370580348129806, 0.31368975448978625, 0.3139314472108637, 0.31371895127290866, 0.31679990688927223, 0.3219030334115586, 0.33618744602328826, 0.3180178838823569, 0.3162829890158842, 0.3128186386359104, 0.31118259855020763, 0.31219257249908544, 0.314131227136033, 0.3149117678011853, 0.31512506776115967, 0.3136634636382638, 0.3107175448343524, 0.3073570872880233, 0.29626476524623596, 0.3082366169933715, 0.312806860729247, 0.31378257289690487, 0.3132008151598465, 0.31251136990062206, 0.3127770826094498, 0.31397536027040096, 0.3143466496803984, 0.3140476901687263, 0.31530595542870943, 0.32193282038174437, 0.33491561551798976, 0.3184304168472935, 0.31756784341025585, 0.31513028565250056, 0.31281646801056046, 0.31304416956688924, 0.31436614460255413, 0.3145343712388559, 0.3135567654831371, 0.3115383361711109, 0.3099039880572216, 0.31016506870737737, 0.30875891627484325, 0.299319784665845, 0.3109207249012756, 0.31389020554680047, 0.3139650468845041, 0.31331997559246666, 0.3131096287001291, 0.3136807948722458, 0.31312517777544097, 0.3133305295522255, 0.3148892941150149, 0.31472455451940096, 0.3140863685284499, 0.3116727714389181, 0.3207352296652693, 0.3241909900567029, 0.32325098505544786, 0.3144404060439257, 0.3146035709464929, 0.31494761646624275, 0.3150381889027096, 0.31302580841953614, 0.3104680886397055, 0.30153324392931297, 0.3035236735223471, 0.3124043642267076, 0.3125683138809912, 0.3124938439223682, 0.31313135971581846, 0.3134002207344134, 0.3136204238369683, 0.3131773975216438, 0.31368728221076825, 0.313525283915382, 0.3154566855038896, 0.318576648621004, 0.31815200321467035, 0.3233104774006343, 0.3255964534018023, 0.3156875760528399, 0.3149710647942281, 0.31332557482542917, 0.31355337470604167, 0.31449819327715156, 0.31122293456291644, 0.3146964261559903, 0.3012033909421597, 0.303424138680015, 0.3132760878564771, 0.3127152840478034, 0.3121786496472673, 0.31228754345151244, 0.3132642251507329, 0.3142168459721445, 0.3144297052722187, 0.3132894242139493, 0.3130141100302039, 0.313863092251437, 0.3131433273810958, 0.3151514975160858, 0.32036055971974203, 0.31592742418332775, 0.3155756271524771, 0.31498027131487816, 0.3144217837835861, 0.31402968129634745, 0.3135210724497684, 0.31311616625418304, 0.3141817368573, 0.3129047581202597, 0.31206186691344223, 0.3120452066498572, 0.3082842839857918, 0.3136130818016925, 0.31365605068632285, 0.31386256452599254, 0.31364643770800804, 0.3137874738199842, 0.31456411258773653, 0.314449545006799, 0.31365219025990004, 0.31426741628776483, 0.3172705171346961, 0.3241824437314917, 0.3356971980680499, 0.32232773883520593, 0.3170924494348905, 0.3142336153268705, 0.31244176852712546, 0.31172522688127013, 0.31320267427045295, 0.31428538467685446, 0.31501380869194034, 0.3127786285903185, 0.310023508018812, 0.30620093999228104, 0.29706248206081337, 0.3091926214283766, 0.312213277186476, 0.3134298281857715, 0.31355252575305265, 0.31293697010425076, 0.31376066342610204, 0.31349814266262443, 0.3132461017982271, 0.3138804941780237, 0.3165880901700871, 0.3240583145077682, 0.3360489144073771, 0.32037265114261254, 0.31693124482327845, 0.31401165402771464, 0.3119049097200982, 0.31143632835492807, 0.3140137891443284, 0.31482576122432915, 0.3142561131456691, 0.3126122595860588, 0.3104827547976459, 0.308320429238029, 0.3013246679600148, 0.30425359180295136, 0.31236519226081166, 0.3125730767269846, 0.3127304823052062, 0.3137152726363257, 0.3139435817917134, 0.31305755634457627, 0.31426100043758814, 0.31405716986862925, 0.31460127012366906, 0.3170476510058479, 0.3315944959673105, 0.3204119465542616, 0.31544435486238187, 0.31485687825020714, 0.3135884760521197, 0.31369532331758143, 0.3124318208694285, 0.3122079663179736, 0.31295622574326215, 0.31264434704251826, 0.31223989661501866, 0.31233285125033583, 0.29756473786070864, 0.31071268068035046, 0.3130070363052018, 0.31400216790541197, 0.31353560231726557, 0.3133336628858605, 0.31389136861103445, 0.3139936879154444, 0.31362149592343513, 0.3133876952716782, 0.31390491751431815, 0.3173892445612461, 0.3331353948977425, 0.31907403734009204, 0.3151101144064978, 0.31381177634545415, 0.3129991241039301, 0.31364409650008984, 0.3134687974050213, 0.31286107567687255, 0.3048836590821258, 0.3053869381060241, 0.3108982809067345, 0.31150065204153893, 0.30887992529188746, 0.31340395186150743, 0.31344924767199295, 0.3147919632670739, 0.3133526030399303, 0.31177562063259434, 0.3153193444928392, 0.31451671528301023, 0.31392207769166913, 0.31275865104120354, 0.31322800718960714, 0.3163236394379028, 0.3240955770823384, 0.31821613112145486, 0.32020534266806283, 0.32310253671464717, 0.30742112364300417, 0.3078835501037663, 0.31682792936054005, 0.31499958021648916, 0.3171695433271376, 0.3108584829905075, 0.3103129488753645, 0.30127669904344917, 0.3112449985033315, 0.31251055179956577, 0.31341343732946697, 0.31369505039828316, 0.3136537256707416, 0.31444607796238927, 0.31276378423381357, 0.3122154012300396, 0.31338346405504386, 0.31372761740533545, 0.3160286287913779, 0.3239838548670731, 0.3243959033084017, 0.3262182723499829, 0.32215061220976654, 0.3146857587018357, 0.31227774022436694, 0.3099148943341485, 0.31301711533341847, 0.3149959897381543, 0.3153388716343402, 0.31134518960990765, 0.2985644516314863, 0.30084027592941215, 0.3109975056669478, 0.30872531121414715, 0.3136992867562532, 0.31243312689900743, 0.3125898582664542, 0.31238426163704064, 0.3147757640623449, 0.316384238448441, 0.3146828947805201, 0.31293505073343636, 0.31369153318498494, 0.31852287765815546, 0.33072648654153103, 0.32427441779942473, 0.3243730470131801, 0.3214475869996527, 0.3161557132145805, 0.3114795626323306, 0.3128493175328041, 0.31494476718730074, 0.3157714584336193, 0.3123806786039458, 0.30673905448790234, 0.3027068185099506, 0.30012854591604815, 0.3106971412619381, 0.3125582545865253, 0.3128933005002025, 0.31358623685196013, 0.31446410799716074, 0.3146740915510213, 0.3138317483130863, 0.31316513475995683, 0.31352907348936276, 0.3155587797985237, 0.32397383744979874, 0.3362592388704475, 0.3245613269589546, 0.3168174142136796, 0.3139153078461753, 0.3121695083791788, 0.311358229088009, 0.3134793283425389, 0.3145601907190731, 0.31462469888387923, 0.3132145831502629, 0.31021408349508445, 0.3083171656664329, 0.3013949385902219, 0.3042510855539428, 0.31282883582500287, 0.31284722477938703, 0.3132820226667343, 0.3129766418378445, 0.31318796860211323, 0.3134639976174918, 0.3131213894602448, 0.312834469619906, 0.31595112613060544, 0.32170641610184264, 0.33328251032396417, 0.3195762867723521, 0.31748870639411925, 0.31565249859022887, 0.31365255924697616, 0.3124158154924557, 0.31378063435186543, 0.3139561892153992, 0.31269904723449854, 0.3113882049288772, 0.30993296870819825, 0.3099931926199469, 0.3017178247398433, 0.30555029889117385, 0.31286014548360125, 0.31405645482732836, 0.3138903715229147, 0.31202997807149924, 0.3132492319504255, 0.3139094590316276, 0.3125328271121635, 0.31191090013461403, 0.3151733990169732, 0.31467254507484416, 0.3213413451092068, 0.3130177452725371, 0.317873081961575, 0.3153471179910267, 0.32116805839512463, 0.3220925340448735, 0.30043312522787635, 0.31397991678489473, 0.3280041862533007, 0.31650650956235993, 0.3103390509668094, 0.30349537535167675, 0.30154766317450293, 0.31322829772314326, 0.3134992542111266, 0.31337910306124644, 0.3122616458760886, 0.3106061738971, 0.3118903898072079, 0.3139296696247338, 0.31257090549217464, 0.3099328395476531, 0.3104629714322184, 0.32188159758535745, 0.33181818470897795, 0.32774418006823247, 0.3211726002037399, 0.314714215527609, 0.3084373394170377, 0.3079922646292306, 0.31326820828283763, 0.3166172274548435, 0.31639983545396505, 0.3138122185708678, 0.30795261064924134, 0.3024292816095647, 0.3031201962275593, 0.3102170289969837, 0.31174633286506187, 0.3119107982482879, 0.3115955741841592, 0.31183346209169854, 0.31289885283575863, 0.31199743945905956, 0.3127354307839574, 0.31380809072007837, 0.3152466802588501, 0.317599868393218, 0.32069854132415415, 0.32182320509666623, 0.318716091607073, 0.31561500441726587, 0.31373625855410187, 0.31128723002757364, 0.3117765503192626, 0.31036777356268896, 0.3123100310952127, 0.31094158803864785, 0.30984364062496944, 0.3114106492974436, 0.31331743714548527, 0.3139959753365601, 0.3151183065530376, 0.3164765260221662, 0.3167238855057897, 0.3150953481229704, 0.3137243639207982, 0.314468444418369, 0.3142783554082262, 0.3150472561241418, 0.3145849855646583, 0.31740102847015716, 0.3211525659746875, 0.3230093112256389, 0.32560404896288525, 0.3148904182173818, 0.31375477006965563, 0.313912292969434, 0.31432689633822264, 0.31441548115665746, 0.31377406251869217, 0.31188364845880795, 0.30961645749078137, 0.2966151880983967, 0.3098164006891789, 0.3130067666555249, 0.31321241479474193, 0.31377856496967327, 0.313313800410545, 0.3138983707958934, 0.31200279189633967, 0.31490570883826713, 0.31275022643189837, 0.31385401498336135, 0.31557167010119297, 0.3231315817575871, 0.3357763765266731, 0.31946610430708483, 0.31652354627860985, 0.3140614633094317, 0.3118584215018992, 0.31182603930449276, 0.3144318493233442, 0.31399639836181875, 0.3129402973828685, 0.31048990897767453, 0.3065788949311658, 0.29813809691784837, 0.30381045160195114, 0.31218504133194025, 0.31481629654119886, 0.31052886084051545, 0.31548504752287126, 0.31364123012067757, 0.31316078687844295, 0.31471837804864944, 0.31402399605445236, 0.3131595443704561, 0.31457866303247023, 0.31619545917292796, 0.32303950719666186, 0.31913488206004775, 0.31505906710134707, 0.31271307792455577, 0.31313022875611124, 0.31825901546403096, 0.31823743551095, 0.31822536586249334, 0.31414663879830407, 0.3125038089336265, 0.3043650178219311, 0.30451771343818773, 0.3061533457282431, 0.31149086528222625, 0.31233681914796146, 0.31298753049888833, 0.3132888381715487, 0.3139014116135081, 0.3139405740432659, 0.3137719217631935, 0.3125117199758864, 0.31203689654711714, 0.31373634726670824, 0.3251452225828673, 0.33595880638150993, 0.32973541075192453, 0.3216244154948298, 0.31504514576002696, 0.3126582203436281, 0.3118823544228921, 0.31387130858674833, 0.3136309452042856, 0.3126458214028904, 0.31154523290231856, 0.30986350659266987, 0.3102178059916821, 0.29654542895265196, 0.309749380159766, 0.3131019237755224, 0.3129937459568524, 0.3132780186293152, 0.3145252944060039, 0.31358715530706077, 0.3127682105209129, 0.3134420703001866, 0.3137999087233445, 0.3148971139788035, 0.3191880093489654, 0.33676862159709264, 0.3209294079810056, 0.31776697130822684, 0.3149538391833979, 0.3125605431675568, 0.3122307142005694, 0.31381619866780575, 0.31404376828467906, 0.3128248616857369, 0.31094587186117745, 0.30977435682712956, 0.3098221162828975, 0.30167298443796126, 0.3048742115737943, 0.31277735026003795, 0.313418663792759, 0.31340203599194894, 0.3129594375607846, 0.31336465313723155, 0.31347129555835146, 0.31361422290515023, 0.31353126755337657, 0.3147643936361879, 0.3216688680037946, 0.336730808070798, 0.32079058970296, 0.31756763949270767, 0.3143426419974741, 0.311815455292645, 0.31206281357520704, 0.3140469269219716, 0.31419283950576077, 0.3139009825391444, 0.31073326320264777, 0.30923803045535697, 0.31030116402419927, 0.3023787740577933, 0.3046471445513948, 0.31275518595656476, 0.3134369757735426, 0.31360660272931157, 0.3139123946640106, 0.31185249199057336, 0.3148642973634089, 0.31360409837013853, 0.31318222635698867, 0.312814086258201, 0.3161330389645083, 0.3202735240299179, 0.33221690102725754, 0.3177042861388028, 0.31569590625736915, 0.3135661131897192, 0.3104795446071913, 0.313065074982936, 0.313119676965501, 0.3152884726002902, 0.3109417839775623, 0.3100689573203806, 0.29427846064486973, 0.3116085080269649, 0.313801549213136, 0.3131122940699577, 0.3133505206715824, 0.3144535771272011, 0.3135715158995634, 0.31362661416815346, 0.3141075439640474, 0.31320788101164115, 0.3130038914608888, 0.3142570583139464, 0.32376366129291007, 0.33332712817184, 0.32159791584849157, 0.3171353001326184, 0.31431073224059786, 0.3120265348260084, 0.31102578429550515, 0.3129520514077034, 0.31468323734202475, 0.3142498074432106, 0.3124367594946585, 0.309334200697778, 0.3081755899656816, 0.3022496272940673, 0.3082124252311757, 0.3122901272350875, 0.31269994774444293, 0.31363319630558345, 0.3126443371288569, 0.31314393093661014, 0.31429083687309745, 0.3140750660793978, 0.313580348303828, 0.31367167016234915, 0.3233167284380854, 0.33870367119566874, 0.3194517298837078, 0.3173384991398125, 0.31405946371341253, 0.3116383959074891, 0.3111682112225218, 0.31295152251249564, 0.3147251940535767, 0.3144478985831787, 0.3124410791630063, 0.30920449990264687, 0.3089609441948901, 0.3091009344067539, 0.3113945032354888, 0.30072163416309655, 0.3101248740529616, 0.3136976080642954, 0.31288298334509407, 0.31260893992377875, 0.3133201132876244, 0.31366387891186004, 0.3136545967369748, 0.3140765212559789, 0.3211720932087429, 0.3374798458698525, 0.3190656639831187, 0.31854669255453266, 0.3147293756627972, 0.31195099362162226, 0.3121540594435708, 0.313903784002406, 0.31308731223499214, 0.31171976656319267, 0.308862913957284, 0.31026645910649464, 0.31007917845712796, 0.2969970198121639, 0.31068875096464316, 0.31288413749102156, 0.3131165198415304, 0.3149891358988421, 0.31312393906592983, 0.3136989918076135, 0.3137350120776916, 0.31438484297798813, 0.31353235017541947, 0.3128413842342999, 0.3151336183672087, 0.3296894437383426, 0.3170749735192618, 0.31752554409710954, 0.31784574849646624, 0.3156297238458755, 0.3131734752330625, 0.31200960379372694, 0.31017923725259955, 0.3124300832307188, 0.3127071146207663, 0.2995104257224776, 0.3097436774552637, 0.30775236111863724, 0.31425406410385626, 0.3114504563136118, 0.31378895007236585, 0.3115443723926887, 0.31230003990877825, 0.3130319303146371, 0.3124442746938303, 0.31094302692394155, 0.31246414735557904, 0.31173351018273626, 0.31328805458435754, 0.32473380331677265, 0.3239835418990649, 0.3234265446245277, 0.3169231562487616, 0.32026928585684455, 0.3163381441547911, 0.31395254821702195, 0.303621867077196, 0.3139773463455275, 0.31406109746412086, 0.3091284874632533, 0.3074102125239045, 0.30920264629199046, 0.3108768029958185, 0.3107107423559012, 0.3101274117292807, 0.30895528537069067, 0.3097648311316799, 0.31087834381495855, 0.31338170114885205, 0.31586407377625964, 0.31458285730080454, 0.3127782338928338, 0.3160341471898736, 0.3302649963480463, 0.325676042790339, 0.32716375492069877, 0.32398189715260073, 0.3160804544469967, 0.30864949003874786, 0.3108844189841684, 0.31724410520733076, 0.3172228515322216, 0.3135343660324425, 0.30702213048215715, 0.2976563331144165, 0.3041562532985826, 0.30932406122158146, 0.3107393330692185, 0.310890889984</t>
+  </si>
+  <si>
+    <t>[-0.14257506340827497, -0.16556857480582554, -0.09391828866814933, -0.022118198736584837, 0.03742480188913876, 0.08304049925139943, 0.1210499323389821, 0.17235931833792004, 0.18583410022335145, 0.18304861675451956, 0.18550367375929952, 0.1803768022821195, 0.17884648529501646, 0.1793360361232205, 0.17943318429244456, 0.1777703793863974, 0.1731862638789894, 0.16673072382631524, 0.16441682206629246, 0.16087526511070988, 0.11564442957849634, 0.029195731117726623, -0.062419425564982485, -0.14206368265682742, -0.21357252256770845, -0.2854560950064465, -0.36339615507928397, -0.38938698101884084, -0.3872117234063653, -0.38595707833544396, -0.3851717271609314, -0.3732663794018593, -0.3774888587722353, -0.358758600935906, -0.29844728134286097, -0.23846667779610908, -0.16360395193837657, -0.0625979605980604, 0.04844331902815328, 0.1473065475809676, 0.1817019650743594, 0.17297630454954863, 0.15629014684659318, 0.07473089198734197, -0.052333484174314805, -0.1612711298216316, -0.2645239097133876, -0.35668519242440994, -0.3895641475354544, -0.3876087599841051, -0.38626411209531625, -0.38538667529933474, -0.38453222354473066, -0.38419502717059134, -0.3830653376476601, -0.3714765094966818, -0.3763147454375256, -0.3729709297825104, -0.3751597842515589, -0.3411118150047476, -0.2692700389571407, -0.18391863879956472, -0.09723658764877154, -0.021154354129004654, 0.02141919249928301, 0.01497648309925934, -0.0026583864948719386, -0.064986416786623, -0.21350295182701243, -0.3501713505757098, -0.389673843928581, -0.38767233755240427, -0.38652678550008984, -0.38558875879141136, -0.3843780180067798, -0.3836993584334945, -0.3840986346159698, -0.38454739449195025, -0.3847274244408119, -0.37293223051398633, -0.3766003413992307, -0.37137526017261147, -0.3741925780842912, -0.34566190584486206, -0.243961804860245, -0.10045162973224274, 0.04261409713718484, 0.16325118892502197, 0.18472973850457933, 0.17418227112473883, 0.16950014467809374, 0.11991885472008952, 0.008780325247107553, -0.08777187228222816, -0.17784091042180383, -0.25232834766567575, -0.3201769558884329, -0.3788160129568831, -0.38776445657690556, -0.3858351156450009, -0.38454443158376717, -0.38424177157113387, -0.3840751007936132, -0.3841025645109771, -0.38204017810911645, -0.3750850636214553, -0.3747592334259875, -0.3735452407275699, -0.31023204864771087, -0.15695072237167776, -0.0004813206359666894, 0.1355493910409609, 0.18503399243217913, 0.17648433865818705, 0.1665016669495327, 0.14101764487907678, 0.0851531671593194, 0.014317914270409293, -0.06220557349858203, -0.13184245497356206, -0.20026158365766625, -0.27906402713753325, -0.3775917596849403, -0.38860409572556204, -0.38565602789090825, -0.38518229292954137, -0.3850455054412785, -0.3849170786075739, -0.38237466432606454, -0.3745185852824715, -0.37617753639230306, -0.37084593828542495, -0.28596531865807623, -0.13662466430610007, 0.01640365526672916, 0.15269381861012143, 0.18318235777815273, 0.17359999346117885, 0.16212540193315148, 0.11959248328680955, 0.04760545185530247, -0.040552679241683764, -0.1336832115607011, -0.21892155360393684, -0.30253837873755823, -0.3789681883594331, -0.3900974799372343, -0.3873299679856394, -0.3867491921120436, -0.3852858865450195, -0.3838583507365116, -0.3731103607189314, -0.37717424409854, -0.3640227247974681, -0.2967968265419807, -0.20962859869912923, -0.10167474731423498, 0.027134305231205788, 0.1417723235065045, 0.18681501679264853, 0.18120478627973835, 0.17349135459849882, 0.1661315402596629, 0.09977704872297362, -0.050397512327989495, -0.19126426281216277, -0.2785218373881018, -0.3607686493285343, -0.3891934888597161, -0.38677629371802197, -0.3852558055457925, -0.38450528412240464, -0.38443027471342095, -0.38486096670853365, -0.3850075520168243, -0.3726902749180581, -0.3767134169033999, -0.37194662254139166, -0.3754773759231853, -0.37157160863729377, -0.30282799573348645, -0.18188201648185245, -0.044972594976067114, 0.08298124016277887, 0.17212626073971696, 0.17584392455130615, 0.15039931909936552, 0.0583196382718247, -0.09619070243775991, -0.24995992698492855, -0.3818108405935881, -0.39316862217905535, -0.39021014076711485, -0.3874692326197497, -0.3856851896775792, -0.3849746757938239, -0.38451882658866116, -0.3838792344103455, -0.3828839374299153, -0.37109925498536805, -0.37537414807731445, -0.3707472067115951, -0.373466065372511, -0.37428304129212603, -0.31569588002898635, -0.15276564074549795, 0.017413912738931354, 0.1613922104694924, 0.18719246341370124, 0.17669257358870497, 0.16983675656579997, 0.1313973212617397, -0.02573836343882779, -0.11701791155009728, -0.1811582208406901, -0.3057724520596008, -0.39026643028740476, -0.3894139945151929, -0.38844230831609977, -0.3830752482571753, -0.3835140427999095, -0.3844675404557074, -0.3849145457035705, -0.3729083045969763, -0.37689528464242156, -0.3727753038929533, -0.37580633974138467, -0.3521427020030939, -0.23128001014062174, -0.07149787863265437, 0.06778856513813313, 0.17577890576701685, 0.18490713453539154, 0.17607433004453363, 0.1702679345963143, 0.1547953330545384, 0.08373354744276044, -0.006957272494556999, -0.10512132147903273, -0.21353956061941526, -0.33458607016354674, -0.39382863750935787, -0.39094077697991, -0.38859852198681316, -0.38694742930143855, -0.38588158696071156, -0.38442257586691536, -0.3718573685375765, -0.3757919903909361, -0.37104352486516823, -0.37406975650404917, -0.3568048691392958, -0.23680454323184544, -0.07168327657305935, 0.08179107007944598, 0.18489461651144615, 0.1852700646974023, 0.1756394960408965, 0.1693736768479729, 0.13702668205081195, -0.018429337911178092, -0.1512863708121863, -0.26168820341016696, -0.3500786448131025, -0.3891880416010351, -0.38724634474059877, -0.38649650067253677, -0.3860287244089018, -0.386030136094388, -0.386114948530976, -0.38604400898765595, -0.38584330061043276, -0.3827742357059159, -0.37350872001316837, -0.37521193693803645, -0.3742991366243266, -0.3476051739843538, -0.2019994879018431, -0.03832301278936139, 0.10748472916606827, 0.18482449754302255, 0.1777808824661393, 0.16696136756705351, 0.13377816903228426, 0.041739143626227854, -0.0664370869862391, -0.10449545844303476, -0.14809771809299532, -0.19882804110957675, -0.24778384773203363, -0.2950524105890363, -0.34487767793510976, -0.38738535463214635, -0.391161946698811, -0.3897412204085266, -0.38872435710768394, -0.38582879070589277, -0.3775009485629955, -0.3781319600842495, -0.3794218323536332, -0.3728233220040986, -0.35099818692221624, -0.24727501939591456, -0.12317801961871326, -0.028419319871723647, -0.015857692938567723, -0.08200498241707653, -0.17668118575162992, -0.2794544528394668, -0.3770241597997474, -0.388911803963406, -0.3883909636948286, -0.38831227207319224, -0.3872247761549589, -0.38610362758169603, -0.3855292146425002, -0.38468395069259614, -0.38413746197800935, -0.38361650398469077, -0.37175940212413816, -0.3755884416781387, -0.3700365901882013, -0.3727930039507786, -0.3746943582657054, -0.3499582640686652, -0.22209191763486125, -0.06775743915400827, 0.07621298752609669, 0.1748036328680954, 0.17811904975318038, 0.1644088222609649, 0.09727369219005544, -0.03456744768949696, -0.1586302254918397, -0.28242389537527374, -0.378658374710485, -0.39095127055033774, -0.3891927031815315, -0.3884919858188411, -0.3877748610944362, -0.3857996067926294, -0.3845777953947381, -0.3834693127733479, -0.3721615370387428, -0.3766692404223679, -0.3715957800855268, -0.37368065708490766, -0.3741903410953788, -0.3004300315389687, -0.13767353754829623, 0.028201480295491434, 0.16747208903902996, 0.18735803627561354, 0.17742560033741772, 0.1696284642323216, 0.15687674611015856, 0.06591876338992456, -0.0769730972121363, -0.24153921884971852, -0.3778824633261812, -0.3933352141995263, -0.39008678617345716, -0.38803872272866746, -0.38697316966749257, -0.3856968472812839, -0.38468111353277895, -0.38376634934747106, -0.37332491184505007, -0.37695714540220077, -0.3705922450030333, -0.37333902974332345, -0.3742848460029919, -0.30281483525520025, -0.11983894142854978, 0.07138318331043514, 0.186314675911185, 0.18867115188472358, 0.17799554402312553, 0.17085381515610476, 0.16754389830601668, 0.1415033715970476, 0.09832268554373318, 0.058123136137052535, 0.019768082360027372, -0.019234625696108735, -0.058497654662256926, -0.0921712376870072, -0.12110645400051899, -0.15072525788405958, -0.1798563437622617, -0.18885557192809324, -0.1472060438164152, -0.07507419892633918, -0.019967582178308962, 0.04561046294865645, 0.12285254355444979, 0.1823742802638998, 0.18386728460778193, 0.17925133701846466, 0.17518401023913613, 0.17796570616627885, 0.17602230215443485, 0.17607163553456204, 0.16315393560986743, 0.13361283541959976, 0.1089839742886845, 0.10413182992592053, 0.11095362767339038, 0.11339863993812678, 0.11141515522389193, 0.11639859945984356, 0.11601738867888846, 0.10771952434321762, 0.09729634680311293, 0.09837798108653156, 0.12901061827508534, 0.17800325669919517, 0.18204637431024426, 0.17981081905649723, 0.18062703255937293, 0.17314492290567882, 0.17530918239624593, 0.17434169996329715, 0.1749941767860614, 0.18187249764913185, 0.17604871328714355, 0.1674488737501141, 0.14572593700085013, 0.055401202188437866, -0.051846556934728096, -0.14409717888529847, -0.22923277098194314, -0.31119332997022303, -0.3809690573009079, -0.39026935643676725, -0.3889812896426242, -0.3865301957729313, -0.3835913971532728, -0.3841385583737656, -0.38365646743979154, -0.38154341342617143, -0.37479503535543307, -0.37659649150538027, -0.3749304562924849, -0.37360882366240117, -0.3640588253740841, -0.28430063553901314, -0.1764010116198956, -0.07378936311532176, -0.026137418344400642, -0.05066353647471208, -0.10061505257067953, -0.14639129527502942, -0.19520244254974908, -0.24367173348601856, -0.2789247517991626, -0.30621998709654036, -0.3311404093321347, -0.36482250684656137, -0.38484599434466427, -0.38419823758628446, -0.3830848504499939, -0.38294440431855564, -0.3830636259556919, -0.3857615947484386, -0.38122700322582026, -0.376899776997418, -0.3762073194880531, -0.36327553669355805, -0.3092599615118658, -0.17025765788751301, -0.04157886756977848, 0.06643921320539316, 0.11102919304067832, 0.08116924998125961, 0.02129877400956286, -0.046428239386874015, -0.12626892128743802, -0.22409841609894285, -0.3409052716698889, -0.3937929846250568, -0.3917982234568959, -0.389083119999824, -0.3882777517223625, -0.3879086964448697, -0.3870316603581385, -0.3854330640703745, -0.3725138174407497, -0.37524244000692036, -0.36779021843119636, -0.3762860685395377, -0.35828646001007014, -0.25664962331805113, -0.10977907584263648, 0.03377966952120053, 0.1576663504373421, 0.18537536552266531, 0.17615427804112505, 0.16917500623168977, 0.13879305441348125, 0.036896341084425195, -0.06603592392029582, -0.16945264930805917, -0.26788012774342634, -0.3633760151792476, -0.39197518426988825, -0.3891460065925154, -0.3874489276394993, -0.3864078538766815, -0.38672367399914404, -0.3855647969117997, -0.37271575307201954, -0.3757274183189037, -0.36905978016689983, -0.37443848772152566, -0.32650885100278, -0.23130057747088642, -0.09951143420033061, 0.05209321180356307, 0.17567017025676993, 0.18574812078107172, 0.17640874642092128, 0.16859952428815564, 0.1475693000996811, 0.06669813941908638, -0.02329818823981705, -0.11219972507855723, -0.19187545110631263, -0.26633356235659206, -0.350477661227085, -0.39292361217380245, -0.3883477939695674, -0.3862950679861385, -0.3865671631877922, -0.38666726884158326, -0.374984579535089, -0.3761228892610269, -0.36866974447666356, -0.36978078483449256, -0.2964964801554562, -0.188272180841056, -0.07104046215120416, 0.031131023277183312, 0.11105828745108197, 0.16747394779128935, 0.17713988278784468, 0.17375398022077593, 0.12600803164553778, 0.03253384672911969, -0.019707974201678843, -0.05602481507224189, -0.08446493434317542, -0.10616539746532161, -0.13006864312245497, -0.1709401422012268, -0.19279706766744412, -0.20968209151887138, -0.24625204727990072, -0.2643929024925343, -0.2399892154822378, -0.1774647961614364, -0.13707436253859204, -0.07732364214760858, -0.008258816384306531, 0.06318230999855277, 0.15104792413197557, 0.19033049587043036, 0.18833025181274146, 0.1839554250003731, 0.17425099297682697, 0.16764971485727162, 0.1664838618448091, 0.1704411780582139, 0.16594138758401425, 0.14947395301983182, 0.12866720247341892, 0.10632914761541683, 0.08336766106584004, 0.05295532117749719, 0.01696092226936424, -0.029504786646952646, -0.10180261158319676, -0.12936211108575227, -0.09512266527908875, -0.035838611413533, 0.03341346104295715, 0.10254627770620328, 0.1761504838341155, 0.18884710245042313, 0.18848788905513736, 0.18590766309787432, 0.18149766435198186, 0.17692633439969715, 0.17300748019106182, 0.16801879714338927, 0.16674830217456837, 0.17134798653394812, 0.1719536753968571, 0.14884511196697578, 0.11285303650179607, 0.07523494321294343, 0.03827246198313088, 0.0010714634191410376, -0.03814225474953975, -0.07672480821843743, -0.11317665132189535, -0.14542385527130694, -0.18106123950685896, -0.23220685720697212, -0.24557811174777555, -0.21328896867183259, -0.1458186796537493, -0.07123656511319974, -0.00892696310483309, 0.06544574314326973, 0.1183311857875541, 0.15445501308541731, 0.17075444265484185, 0.17103826102511122, 0.1636228253773175, 0.14743642451698544, 0.1246904043514041, 0.08821807367889971, 0.013553350569014466, -0.03066866335554434, -0.06237598737892495, -0.11409397400246185, -0.1576217512152337, -0.20465146181646823, -0.29225577933276087, -0.35171757839933737, -0.3791184769144696, -0.3889128914589856, -0.38488538748829826, -0.3788391205012011, -0.33480675459643144, -0.23289869055612614, -0.1184390403364286, -0.008219854678985719, 0.08229715074498319, 0.156661976261797, 0.17772379606636127, 0.1519841133829271, 0.10901029921355194, 0.04595224611383645, -0.03508331314352692, -0.12320588687373407, -0.19753009476847352, -0.2649570577549042, -0.3324363171831052, -0.38558499945980745, -0.3891683362659872, -0.38737418774494764, -0.3862752198974421, -0.3855934268313908, -0.3737809301820609, -0.3761973225422341, -0.36727803876420734, -0.3097726039175824, -0.19341281181017153, -0.06199398035765875, 0.08427668368446976, 0.17897337375222885, 0.18289399712723284, 0.1813961356265296, 0.17755322993507297, 0.17122363791925355, 0.15447102609521868, 0.07923899131640784, 0.03173734145639832, 0.005943597219409124, -0.021133328890651643, -0.047410853476213405, -0.07137236741025657, -0.10227581253043803, -0.129594442109258, -0.15653150292383927, -0.18905714408397892, -0.22906226371962846, -0.2351714319268566, -0.1660454145488062, -0.10968313063974382, -0.042027072861384775, 0.029833669015593405, 0.09775612902715375, 0.15989452204851848, 0.18291987140936325, 0.1807659126838096, 0.1779809787699899, 0.17605104900451118, 0.17611374402992208, 0.16075898593936108, 0.1205104247365111, 0.08136800940317701, 0.04772585651208702, 0.024181806255794348, 0.006439656450453823, -0.007415170513891352, -0.02555519630062698, -0.04090349215920483, -0.0525316204898566, -0.0671904542340604, -0.06922156085447927, -0.025053230401317083, 0.05077690537311713, 0.10683420315026056, 0.16038696482422407, 0.18611834359542204, 0.18351252040183597, 0.18528495048219126, 0.180855153588344, 0.17780382412394344, 0.17574173057052875, 0.17388672175219766, 0.1734709046628313, 0.16690533088304815, 0.1691519641807464, 0.14755369425323958, 0.10667062458773842, 0.058001776064863904, 0.009117406061061954, -0.03462582749229198, -0.07348740169599528, -0.10364089085888695, -0.12407420608935454, -0.14474653303135512, -0.145899579440215, -0.09714546450724391, -0.020325152631207488, 0.026555675873939453, 0.08400508740503125, 0.14837264771798966, 0.18610070798364356, 0.1871739011348014, 0.18647210291247107, 0.18389971296806137, 0.17859006816067036, 0.172679509112074, 0.16593509820533067, 0.16605201405625422, 0.17048719774257504, 0.16620908200200088, 0.12650239710480676, 0.06533417357147658, -0.009489274867642922, -0.09902579105831578, -0.195133303290418, -0.2866793158126176, -0.37423858775582053, -0.392870528747461, -0.38845883263323655, -0.37342926269931653, -0.3788477609460232, -0.36095296827000517, -0.2976971027637314, -0.23264251870235728, -0.12646045073001844, 0.02530252815284288, 0.14522671286837383, 0.1875596079787576, 0.18490958106096714, 0.17611166457610625, 0.1669172415767878, 0.13034684985995815, 0.017348027982265157, -0.0648386606957528, -0.12949525505637147, -0.1892813460678623, -0.2662472046338356, -0.3498668088641996, -0.38950873113634427, -0.38691703888894574, -0.38430400230096745, -0.3837825840731523, -0.3834989251823406, -0.38304060595084, -0.38224262120559566, -0.37987061280258855, -0.372846855602724, -0.3442714194262689, -0.260828202123989, -0.18159427198445374, -0.08203694461417967, 0.00932218693466418, 0.059796192937944616, 0.04539107852078721, -0.01522740509471421, -0.09372043898881575, -0.16012676282686433, -0.20401828338219977, -0.2316497138502386, -0.2610846216489888, -0.31301961241456644, -0.3679508734079185, -0.38671848660106023, -0.3853744576405264, -0.3852879439007957, -0.38553300158111026, -0.3851368720023099, -0.38377723410339953, -0.3809911865611917, -0.37228685271137846, -0.3738256725672915, -0.36770070803227073, -0.30046785319116404, -0.19911964344030184, -0.07986648466129646, 0.068182532622607, 0.16183610986338953, 0.17831377077231106, 0.1489571172599111, 0.08502271036059807, 0.013544627261714964, -0.09689838370029095, -0.16703122564098047, -0.2291752708471065, -0.3194460579720592, -0.3886625865162771, -0.3910510638672018, -0.38771084544981727, -0.3859271609655823, -0.38577540281726325, -0.38609881655954337, -0.3744495857157139, -0.37541145747308485, -0.3663342377001895, -0.33178779418640586, -0.2352786251471006, -0.11778287474777305, 0.052892100105877575, 0.18628694842106286, 0.19230396155239457, 0.18519719509550936, 0.17575200010789507, 0.16596697033100252, 0.1644965750245639, 0.15946313269962428, 0.09869928289632492, 0.010123178889632873, -0.07376757694713922, -0.15381266003663693, -0.22465946249178856, -0.32629716875082154, -0.38719654425793765, -0.389843969228631, -0.38728380266662693, -0.38537983294758593, -0.3727665575576518, -0.37602231232516203, -0.32618566741441024, -0.2213765341518575, -0.11105661592677607, 0.008882821413611455, 0.12024544805428965, 0.18978677264630975, 0.18717193928034617, 0.18562523880794113, 0.17798854725060162, 0.16720124116626034, 0.16252272219561542, 0.1562098789228424, 0.10297224672024823, 0.033103070260167684, -0.04192408338997013, -0.117936469824142, -0.18133169783447448, -0.27152388058215965, -0.35056266668487596, -0.38980469177473837, -0.3888879655241681, -0.38639488090143526, -0.37200136612195583, -0.3648957255617484, -0.24690484299130752, -0.12239891648257223, -0.03425328740061958, 0.05908243150061876, 0.17025820078711842, 0.19199447206313403, 0.18636324212210623, 0.18124868282983772, 0.17597544519637268, 0.1675693974327415, 0.16384131967914048, 0.1597308309514716, 0.10357531211408148, 0.04068650526949375, -0.05497257882580075, -0.12569925260022935, -0.18569473112913357, -0.24521625254922183, -0.2946593132945392, -0.3559298439389988, -0.3863379507438132, -0.38454615111844387, -0.34941586781147765, -0.2930960145055292, -0.24415205007442062, -0.18127564361918527, -0.09576045688859092, -0.03661716303051774, 0.050927666436878384, 0.12342741815195317, 0.17524282470126276, 0.17964899755935707, 0.17758253656117187, 0.17696218609644085, 0.1540331214887716, 0.06734368043033913, -0.003908101443364229, -0.04460310153537195, -0.11058071660030278, -0.20050646381344114, -0.27048907633828606, -0.32518356695584877, -0.37564958771406703, -0.3880478435357741, -0.38765866602842686, -0.3852323041272125, -0.37328650677585373, -0.3758768603640541, -0.32242219312959564, -0.20786895083777482, -0.0747100985907906, 0.055573210175951786, 0.16834548934019142, 0.19219032828865543, 0.18842174122646904, 0.18387643218877817, 0.17720363195832936, 0.16644372789467127, 0.16196474128334895, 0.16866746122591444, 0.14167340880102325, 0.08009039292033844, 0.001915476902694558, -0.06895040162678626, -0.12182111036230803, -0.18775645757940795, -0.24005171528456415, -0.2853307535993805, -0.32542138271043597, -0.36264545385773683, -0.38644055086529217, -0.381494449024994, -0.35309617821677675, -0.29969255099877595, -0.23489599755626103, -0.10776160169546467, 0.04509470968603465, 0.174851555905816, 0.18867486403448244, 0.18332901794538, 0.17642100753129145, 0.16715209656497962, 0.17058642640433352, 0.1664589093734583, 0.1175715499645331, 0.0576293399526378, -0.0017480519846502281, -0.05670973723304228, -0.10084895524957323, -0.14084006691033213, -0.17055422904220174, -0.2020573521687666, -0.23626394304811127, -0.258869425681769, -0.2609125361654945, -0.26751034494364845, -0.23621891638235396, -0.1403541151504717, -0.047005454827643484, 0.036165333932386516, 0.12660814185225264, 0.18914117834419555, 0.1847792775237992, 0.18166744127257842, 0.17592863493168218, 0.16821569966222316, 0.16902593487778908, 0.15588756404207474, 0.11146723532837793, 0.0765611742330977, 0.03255711867521264, -0.0015237295224159342, -0.029651386001488672, -0.07925893917085831, -0.11661924493026937, -0.16527152412936927, -0.22364747000657215, -0.2665630472934897, -0.2514304573373314, -0.19088722438734293, -0.07510034312357929, 0.042462656463009306, 0.1291952246306011, 0.18548914787438378, 0.18868004143539918, 0.185974887126233, 0.18224567960533575, 0.1779385729533514, 0.17560592581273923, 0.1686248566210915, 0.16325353764376951, 0.17048963671926107, 0.16538045599061804, 0.14127558907764637, 0.09876314467758375, 0.04809606055537691, -0.00978689927049138, -0.07402582093073153, -0.13759421346612732, -0.20979540497810864, -0.28541336180474075, -0.3436638049250538, -0.340924098870597, -0.2817325590910917, -0.16004585648408154, -0.0007842084477341233, 0.0968039544594091, 0.17568875234105633, 0.19240700268648872, 0.18961533122069593, 0.18544705395005937, 0.18309918157366767, 0.17616518735595013, 0.16718970796241095, 0.16283200025670813, 0.1715403777295951, 0.17310465974619327, 0.15833463738926778, 0.1267299344044744, 0.09076536433535154, 0.05188897364563024, 0.021309676881686532, -0.006986690460689098, -0.03579227862855978, -0.06247855357498769, -0.08499130480601107, -0.0642957622882014, -0.0201362886328712, 0.011118622972154801, 0.05505605428385094, 0.11767262233338771, 0.14969833222266632, 0.18188271358323635, 0.1795900309953821, 0.1792317154171916, 0.18193310851365693, 0.1798777677627307, 0.17345678253441432, 0.1648876609796949, 0.1595575667552624, 0.13343818352835193, 0.10696959354037187, 0.05914846892625552, 0.015133122424037408, -0.013111043443097931, -0.06359696591028956, -0.11767125035111824, -0.15316445102014767, -0.1688752048523063, -0.19728174437257162, -0.2249069989413651, -0.17503019799372319, -0.05256993205944432, 0.06968339796410454, 0.15684640962620797, 0.1862917080823364, 0.18727954245212056, 0.18680129159134407, 0.18074952594479352, 0.17796488475031333, 0.17311005875955168, 0.16734287369762602, 0.16251816981573347, 0.16530120489968528, 0.12770962645843215, 0.08004768796917572, 0.045804256541063175, 0.021524246945873387, 0.021427847532765738, 0.010777126506031832, -0.00292114621873993, -0.034434827211995915, -0.058599096617566286, -0.06442601225797691, -0.06074651114893984, -0.016512009725421373, 0.042438446776252615, 0.11348542103728322, 0.15740390405798, 0.18251181429902277, 0.17995090494997776, 0.17711100830625134, 0.17558285287628203, 0.17970408892817039, 0.17665798026122145, 0.1710974861960591, 0.14267429172651244, 0.05920077343140179, -0.007211555493718006, -0.07021808648828246, -0.11788906321944677, -0.15867624785459786, -0.19314149109220416, -0.21724514806040215, -0.25330097718954164, -0.30073664942476624, -0.3637679846588986, -0.38823795397085, -0.38495277088987906, -0.3801613706223055, -0.35724170779149667, -0.2708616103169275, -0.1610708904499741, -0.08579576065133927, 0.00132576991832397, 0.08822003638229359, 0.13124797598441482, 0.13327340085896153, 0.11731933029616869, 0.07410039703482618, 0.01708041390829106, -0.03127609885794954, -0.08551677611611667, -0.13916613776811285, -0.18621990815419318, -0.24919030873748907, -0.33203662052266575, -0.38790733283288265, -0.3872581433394396, -0.38674528795435287, -0.3860790223930514, -0.3879702589519294, -0.388365440605704, -0.3799071225785771, -0.36445058815236714, -0.36432296544249804, -0.2921604378091179, -0.21364162043658405, -0.10454044181049689, 0.07097138538441507, 0.17494549038383156, 0.18784815558228737, 0.17849908950906487, 0.16854917887061904, 0.1406685957302238, 0.058016748311936685, -0.015084923980147475, -0.06040297484849138, -0.11384953125437806, -0.15929341669731445, -0.21647947699206457, -0.2803579556059324, -0.3343389008896825, -0.3849809198113856, -0.38775066315336787, -0.3855608581399281, -0.3739897761801505, -0.36762487469712085, -0.27756242309812007, -0.18614753983012503, -0.1234647252315433, -0.06753905916946967, 0.008646020673980657, 0.11170480429263496, 0.18115775484997632, 0.18238768528988988, 0.1772781828789841, 0.1738059071019551, 0.15623896112396427, 0.09398253177008065, 0.03203861608751572, -0.013602438088408872, -0.08273646752506261, -0.14643149054214635, -0.19096663901671682, -0.23720558372049885, -0.31893901543844977, -0.3771162518751325, -0.3884240269582253, -0.38630211165996137, -0.36780802823720166, -0.32601685786053475, -0.23544336601837135, -0.10263915439664788, -0.006917140921617507, 0.09829989182031097, 0.18341846850665414, 0.19291064426357718, 0.18789315344658197, 0.18337242706652224, 0.17568478663623666, 0.16772606468570894, 0.1605458229417116, 0.16643983144257415, 0.13315435248156715, 0.0929340447041274, 0.04296956176702967, -0.02309424719758675, -0.10597390122518284, -0.16590555318386907, -0.21033402734461418, -0.24442599492992104, -0.3208368820365551, -0.38593090855164314, -0.3764910191209776, -0.36447177176339696, -0.2740342045734042, -0.1346635787014624, -0.0010750415590882907, 0.1369311173203916, 0.19284194292969428, 0.1886053429532888, 0.18542975194375852, 0.18216497775639126, 0.1763335388883116, 0.16916077596699064, 0.16191660688268575, 0.17051543687422474, 0.16339189423671416, 0.12079430697245085, 0.0733173616047576, 0.023365079314724757, -0.01615567044474897, -0.05947143457842097, -0.09937100792503765, -0.15115899089407644, -0.19611353245572719, -0.252556482858829, -0.25359034065424985, -0.20591576299137312, -0.11382702153935507, 0.011774373186962598, 0.08532194013552953, 0.17464448600578628, 0.18810151774312409, 0.17883267458335803, 0.18118482266770639, 0.1776098907729007, 0.17453603368992054, 0.1728447166112037, 0.16927786659158237, 0.17401440692763148, 0.16686273297728782, 0.15046228175500506, 0.13528919016763705, 0.12186161912442178, 0.10955097543303217, 0.09893050151165357, 0.08582810329447799, 0.05438278655376134, 0.005868919921784348, -0.06374681645096408, -0.07996172072931994, -0.04420845185129088, -0.010266122713983448, 0.054338821039887, 0.137911116933191, 0.1824658942120885, 0.1839484551563285, 0.18530085222010748, 0.1829272919352769, 0.17917300121218402, 0.17453533163331678, 0.16805376660506788, 0.15910997032198274, 0.14425240424864558, 0.07673581417219393, 0.002861712981696118, -0.07125607989422801, -0.12497691166523979, -0.1702108546240733, -0.2497735296156903, -0.31120979304386526, -0.349294814145666, -0.38979887928045853, -0.3876018290168702, -0.3846213498613296, -0.3736931080329892, -0.3579059103217805, -0.2647228106633972, -0.16312566994912253, -0.06681831251145547, 0.02280747858952502, 0.12975258853554036, 0.1828904466850864, 0.1802503683904597, 0.17433669079114691, 0.16003225554742015, 0.08578221855137119, -0.01648091396039715, -0.10006995872712315, -0.18859412118862326, -0.27841765071296937, -0.36504011204059456, -0.39013811663690756, -0.38733570314358295, -0.3851129942784404, -0.3850561347044959, -0.3848056153902788, -0.38375977723173554, -0.38363551674200064, -0.37235490234706486, -0.3649120826846753, -0.3761382574032164, -0.3304066214531517, -0.2337799182371325, -0.1513956226365341, -0.00042681718297282967, 0.12026433235472019, 0.18004996248888747, 0.1793414595413864, 0.17034120713431825, 0.13871792385195023, 0.03433253143528459, -0.07352850311311654, -0.1684164239585674, -0.2600764988931298, -0.34642633627267694, -0.38370256182713564, -0.38556254670016216, -0.38403028363992475, -0.38260727111360254, -0.3863222816239032, -0.3823357758861263, -0.3680490826198473, -0.36951743803642473, -0.32715790549140883, -0.20500305994885018, -0.03088723489182693, 0.12149827048768776, 0.18622561585277508, 0.18883135463129352, 0.18399940913834115, 0.1788476584332196, 0.17327620111600986, 0.16900556369083972, 0.1578600966836133, 0.0952226200973289, 0.01887555206655018, -0.05766832418554605, -0.11681908984001767, -0.19228506089975686, -0.28982824579754707, -0.3645501790702519, -0.3886172363503855, -0.38774029726631926, -0.38511999339209185, -0.38395830870475484, -0.3716577159174637, -0.36710807706719617, -0.23846308784969775, -0.06757502290762483, 0.05804627092682416, 0.16038845110932287, 0.19003041075946234, 0.19054046915735187, 0.18713088989647667, 0.1828456639678526, 0.17614377269610101, 0.16967868436282865, 0.16139239532060456, 0.1652119937297867, 0.1247253868320023, 0.0817869880206814, 0.0473611450289567, 0.02883014917381037, 0.012362799874028335, -0.013090202014543972, -0.033343326979203704, -0.05834071638532163, -0.09094805302306519, -0.11675710904450946, -0.10731057955464886, -0.0395216840963253, 0.08396852580837123, 0.18163929861576555, 0.1847850381412707, 0.18527861063803766, 0.18590973310195533, 0.18389797160846458, 0.18334018679842626, 0.1813103273694785, 0.17658975193140436, 0.16625176795638977, 0.15805445036271046, 0.16848542414998538, 0.17161200237015084, 0.17202521117558237, 0.15348395519431934, 0.12490365977439431, 0.09166098475960498, 0.028963547383159146, -0.014742795270762594, -0.045653534154333514, -0.07281251079157265, -0.08627633711290811, -0.060673890508985535, 0.011406068330525007, 0.1238222988872742, 0.1833223489088371, 0.18102830103885567, 0.18286097481454489, 0.18630801148203965, 0.18659796532338746, 0.18386456504494395, 0.18108511812141428, 0.17579393828147197, 0.16870660862246692, 0.16207371452015737, 0.17057807558317206, 0.17158277326805482, 0.17072077522085183, 0.16136786627847532, 0.09379318009294836, -0.00866510664851385, -0.12806204700117735, -0.2405415872621557, -0.35103839356163785, -0.39533434117700733, -0.3902535755926752, -0.3756252913212525, -0.37444365141020386, -0.33086270840945115, -0.23120475633316842, -0.1271705136108769, -0.05113264788913146, 0.005162558264675339, 0.1217949917616901, 0.18435674777226616, 0.1800850625676316, 0.1749962320397326, 0.1671063522756009, 0.0942991428994079, -0.04049825052219405, -0.17117569467919827, -0.3068735729805963, -0.3905553817488357, -0.38979629398070187, -0.3869275046169192, -0.3857418236595857, -0.38554500472735526, -0.3846836664861126, -0.3831242236712016, -0.3825620241374974, -0.38236192270749186, -0.3723965322352769, -0.36055254581918184, -0.37553606352443425, -0.37802535801993176, -0.32068141227610214, -0.22790117185787592, -0.06630832735018787, 0.061489126307339416, 0.12251398779753149, 0.16888690705183498, 0.15764361202998511, 0.069526214031464, -0.030150672030704834, -0.10564651517234226, -0.17830224645527246, -0.27650192640130644, -0.3606913459651573, -0.38667726865641644, -0.3852594041671713, -0.38432668783330426, -0.3836862122442531, -0.38477270881005343, -0.3865503879145049, -0.3867805208689803, -0.37675951037303074, -0.3648397016874409, -0.3437996914184631, -0.21362989194812457, -0.10993941880220337, -0.030012783857096482, 0.08624782321011905, 0.17482304498958093, 0.18088311727009906, 0.17368537834530148, 0.16802474189633784, 0.14130505180549247, 0.10028588520688031, 0.03199175858154008, -0.008102445103796234, -0.10977857234970008, -0.19706093198805044, -0.21827551822159674, -0.29575273596276896, -0.353254454869697, -0.38661526329792223, -0.3859997008507429, -0.385119236568592, -0.3732317239887389, -0.34183458106292774, -0.21824870634291482, -0.07344988635136744, 0.04972585612242625, 0.16656522810863508, 0.1937569323040311, 0.19082862037764606, 0.1861824386473164, 0.1829630876984817, 0.1733683468003997, 0.16675168125605522, 0.16615566009444313, 0.17397166123675525, 0.17281085774921964, 0.1485662844639384, 0.10198660221009655, 0.06183113578246533, 0.02922126567484708, 0.005017281451521625, -0.02842913224112788, -0.08741351143084836, -0.11340986612673293, -0.15651622305055687, -0.15220344832891344, -0.11272600163980638, -0.05482505170776807, -0.03168344238667475, 0.07646190035943314, 0.14791699334551764, 0.1820011794632438, 0.17860400121141207, 0.17883160487672242, 0.18634455921033488, 0.1805763531896584, 0.17004393559816292, 0.16892963036203026, 0.16148775957434938, 0.1119025833799681, 0.061115170492121014, 0.05777728232433214, 0.04535443</t>
+  </si>
+  <si>
+    <t>[-0.028452014490727495, -0.06306218670433562, 0.00016018508193296985, 0.06484820538351525, 0.11916113827130408, 0.1613382035867334, 0.19691432644608006, 0.2572758706861415, 0.3197708105489243, 0.325537070484717, 0.32766144150078114, 0.3241792374115848, 0.321613658755196, 0.3212313778489721, 0.3208302967761632, 0.3193956599513963, 0.31532232608483374, 0.30935511189475207, 0.30756459464234587, 0.293145067462036, 0.22011925711960853, 0.12948259632914863, 0.03982686017499111, -0.036022192498461274, -0.10262841549544884, -0.16793554070537628, -0.2389978903566917, -0.3123175273169314, -0.3852893242747568, -0.4399733534512318, -0.4894335649124108, -0.47988250666394267, -0.4104606305998957, -0.32779741335098206, -0.24443265326982092, -0.1800253362789542, -0.10513810298991189, -0.006477478693822231, 0.10264895930983454, 0.2021258125833789, 0.27307679383515393, 0.28073202012916426, 0.23392191786345576, 0.14354954319828225, 0.019858219298935945, -0.08199892083160433, -0.17583139486631896, -0.2587864482714384, -0.33745325385353236, -0.4160505433521271, -0.48881632207639925, -0.5597389976712326, -0.6278688020417276, -0.6803297558514502, -0.7223892142474835, -0.6923579830721271, -0.614625355684035, -0.5378454175451193, -0.46016797858653263, -0.3662149271240596, -0.27618090439950443, -0.18206134227980028, -0.08993665106868408, -0.009672802473537629, 0.03634331134309334, 0.03262088193592008, 0.017557401434919104, -0.0415891276724236, -0.1815957060841693, -0.30583317202807364, -0.374156104033706, -0.4412568500055006, -0.5098926062914909, -0.5764064482405636, -0.6381712215316467, -0.6963812334220353, -0.7554752158756716, -0.8052328798441525, -0.8100327326425291, -0.79255270126395, -0.7509856012888144, -0.6430002081703404, -0.5308279673256419, -0.43305267490098803, -0.3074772388596165, -0.14879516666140924, 0.007680022396358436, 0.14922301014054698, 0.2572251709741489, 0.29799527578896073, 0.24890981522098832, 0.14509001662370077, 0.02045684356910922, -0.07977784340899981, -0.17002203236396907, -0.24299598634201514, -0.3082424915557472, -0.37068315947397873, -0.4319066124661212, -0.49062330008401717, -0.5448839983336539, -0.5916433814890176, -0.6386473036607717, -0.6850394026562693, -0.7289176752330988, -0.7177363355166607, -0.657579945498937, -0.5552579233349758, -0.41095091811531015, -0.23114790503400198, -0.056875584817060794, 0.0969466461679518, 0.21109840959512793, 0.2413870231719469, 0.1981936389215323, 0.13604857610802693, 0.0698379014156045, -0.005994064583770949, -0.08501486138981912, -0.15521455869530268, -0.22287532336962712, -0.2993223459135827, -0.4012344432396926, -0.45263613256569046, -0.47814022537052475, -0.5135862247605413, -0.5548918076183259, -0.5977340605716289, -0.633597341887412, -0.6121673733522792, -0.5680462188047196, -0.4877680667449236, -0.3638162176477376, -0.2002131567874873, -0.034287466111006214, 0.12318519484405051, 0.23627557864994816, 0.2524037308734922, 0.19427715995846476, 0.11232543867038687, 0.0275304719885147, -0.06642993532748952, -0.16201225102860753, -0.2470147825001188, -0.3284075387498542, -0.4128724637207412, -0.5026543553173091, -0.5829480955437035, -0.6265729276204036, -0.6667853929525914, -0.7011538942646801, -0.6809040361719504, -0.6425301356965218, -0.5317493083825869, -0.40190217484997603, -0.29581130518528914, -0.17464032033994745, -0.03197706360454503, 0.09614494097757603, 0.20056094160615281, 0.27074533687877883, 0.27384771480445586, 0.2133236464837747, 0.09640569947449518, -0.07059556179981366, -0.21652360302240323, -0.3045525681414139, -0.38745336361897126, -0.47006508369882427, -0.5452590644147589, -0.6091800919774335, -0.6683075863564479, -0.7240774888260968, -0.7939986323562498, -0.811073968335062, -0.7955024793297761, -0.7955379968391565, -0.7167346885191823, -0.6205900377984063, -0.5363093275741658, -0.43111464835927094, -0.29020789072703257, -0.13598704124923078, 0.008389214480170095, 0.11818012361382844, 0.1465841370637557, 0.10308501161122668, -0.0010196011484583448, -0.16371961986330577, -0.31878338063949024, -0.47411399631329826, -0.602559151571795, -0.7262043122726861, -0.8108788881395476, -0.8120207228187427, -0.8097365074755271, -0.8086489391565402, -0.8074392807266935, -0.8060844490431268, -0.7922906514177463, -0.7977944825632507, -0.7924299306477137, -0.7786438611094765, -0.6775431957835596, -0.5136434576549681, -0.3071005730853274, -0.10556104533169859, 0.07799111172042927, 0.22107502434837392, 0.26893397472636654, 0.23543561780110925, 0.12802559182664053, -0.07771672607618553, -0.1829671561421087, -0.25388498379385166, -0.3831524047903929, -0.5176541780997753, -0.5735166285523298, -0.7059430879470591, -0.7538185739762389, -0.7630883842372969, -0.8064718902019822, -0.8099571978014036, -0.7951078242896058, -0.7993883128983811, -0.7362992220327979, -0.6682737185088182, -0.5552334125591095, -0.39673935777400454, -0.20921573489933318, -0.045992764967859666, 0.10286424598558337, 0.21842261639572966, 0.2628814305612193, 0.240194464859161, 0.1621238924026662, 0.038749709787636075, -0.07113326606656697, -0.18091572713617873, -0.29686001464775796, -0.4223918078614228, -0.5526000423515077, -0.6720347057435679, -0.7838526809978431, -0.814193430193555, -0.811528105685119, -0.8086906306034726, -0.7941400964875532, -0.7982393176214971, -0.7783424306348699, -0.7038150193440812, -0.5816427504437395, -0.4151159515712697, -0.21885940595548417, -0.03761577511608039, 0.12628440399658733, 0.24898566773030004, 0.2882527828494208, 0.2549566279519438, 0.14691393075200201, -0.06982945708852305, -0.22253662730332627, -0.342599943956636, -0.43605561634795037, -0.512175209146514, -0.5777472217325169, -0.6522679334850893, -0.7327890201525266, -0.8033345228538001, -0.812232102195487, -0.8109197078968418, -0.8099949946242163, -0.8060164848834409, -0.7956449064937919, -0.7973230409987407, -0.7745016336730953, -0.6174691276986154, -0.39314276478433124, -0.1910826312772764, -0.012430773461932165, 0.12094753023590425, 0.16331036033690435, 0.12565208457039193, 0.05320754668258337, -0.05699346656198676, -0.17742547392106978, -0.2178603885125805, -0.2635879558559725, -0.3162574847078298, -0.36635974965746837, -0.41419400711984533, -0.4641996246098752, -0.5235020314653507, -0.61748831272976, -0.7206046336342888, -0.8021879176083214, -0.8115523934006944, -0.8012138000103862, -0.801455304570668, -0.8008306563466773, -0.7363774286034528, -0.5930452996303232, -0.4349047079685557, -0.28350521809983203, -0.16934468586342, -0.1493594584530824, -0.21734881103158585, -0.31512112814283394, -0.41984839488749826, -0.5378488362600208, -0.6609652228587299, -0.7713104887494252, -0.8154288721622716, -0.8124853750579316, -0.8105391911428765, -0.8096186837050653, -0.808403218992925, -0.8076159343393599, -0.8069163211318133, -0.7920524028260124, -0.7967830130761482, -0.7916461429056053, -0.7934620303264578, -0.7514062915638374, -0.6159278616280778, -0.4284533841629923, -0.24026893484872516, -0.0669215000277476, 0.06800643506396077, 0.12022509350581063, 0.08864295452836408, -0.01198578751247699, -0.1636581176637986, -0.29984244183393094, -0.43097252996199864, -0.5434071810484545, -0.6478683302884377, -0.7521731137034174, -0.8149140071250353, -0.8132381699814938, -0.8100918481691454, -0.8084198204273938, -0.8069222972302165, -0.7933339803279972, -0.7989316722222862, -0.7934288753476011, -0.78740445695002, -0.6982340602719707, -0.5364341024280824, -0.33228853160347166, -0.13125552914138486, 0.057515543715720395, 0.2010767484597574, 0.2604268605393269, 0.24236124942991322, 0.15721313253966793, -0.007775651573572181, -0.18069064796694445, -0.36383279819288594, -0.5255470384762376, -0.6490290249626979, -0.7580116739114781, -0.8148729699006986, -0.812951583307085, -0.8101928997378081, -0.8084514159167067, -0.807218338111321, -0.7950357598296526, -0.7994366932208302, -0.791915076592876, -0.7941190555335437, -0.7308103688445904, -0.5536550539676784, -0.320762456568964, -0.08671716387924937, 0.0978411051888106, 0.22983622551512764, 0.28958296117611004, 0.2667624013631547, 0.185427914834887, 0.08633790090751313, 0.02050708257571106, -0.033238453429488626, -0.08152239521395498, -0.12852907936818087, -0.17440060514324773, -0.2129775171638091, -0.24553428764301213, -0.2781456138123613, -0.3096109473737054, -0.3191750335814179, -0.2745687236899155, -0.19651110702979938, -0.13620636833104074, -0.06332876684908852, 0.025095642711409783, 0.1211857973392334, 0.20790091672233124, 0.25108911051121896, 0.2507368627980898, 0.23187340954098493, 0.22817113686474036, 0.20918173632354228, 0.15833133122119544, 0.08580408072888374, 0.047248806492100864, 0.036514736226717893, 0.04034134388849862, 0.04075946337386218, 0.03706428691285601, 0.04118378554887079, 0.03989924633586557, 0.03019897257877872, 0.017995878640705263, 0.018524600916580147, 0.052541250877636815, 0.11824920383080066, 0.15811235111578137, 0.19042497866471708, 0.19785020466303874, 0.21484655449980603, 0.19969952656516235, 0.23032947433791348, 0.2478905898974463, 0.2871032572161167, 0.31425151161014986, 0.28399854010793985, 0.18419553899548524, 0.038707782050024814, -0.08849168703268401, -0.19166447379522825, -0.28366842546153137, -0.36959641252811243, -0.452770417034624, -0.5380205707565731, -0.6250925489938869, -0.7119004410774502, -0.7706330065463396, -0.8096952818750033, -0.8085463154011242, -0.8054493391934829, -0.7971871928596648, -0.7993106369911119, -0.7851076821101074, -0.7102796837671629, -0.5959114222395402, -0.4594301501882138, -0.32535693060132775, -0.20285264180057064, -0.14322180824187966, -0.1640331706867015, -0.21295178949447321, -0.25759005149546393, -0.30557309638872626, -0.3531172993644797, -0.38695054392428196, -0.41283279831121145, -0.43641174605230676, -0.46878679853906996, -0.5037672459909638, -0.534354535297228, -0.5476638168880004, -0.5533899017509983, -0.5571721312874411, -0.5722346266292518, -0.6024729548909058, -0.6062404720444236, -0.5513005393047858, -0.4976884642429576, -0.4304683039286235, -0.2809402742847336, -0.14048108537205103, -0.020221299934522187, 0.030526106129352606, -0.0015748119555503224, -0.06620046750993276, -0.13899458848025534, -0.22340111101266513, -0.32483190731932016, -0.44351419269272147, -0.5502400804282463, -0.6513234281217232, -0.7332006960035805, -0.8062302985811827, -0.8142866409884703, -0.8119522193082717, -0.8096502628294543, -0.7945189237428681, -0.7969392540364882, -0.7543149204265527, -0.6693742135863386, -0.5660779199116787, -0.42850546542610773, -0.2552882242005608, -0.08688413227545562, 0.06610865686023919, 0.17884811333911008, 0.23021768855898242, 0.20097112578164214, 0.10300348782824172, -0.03347059776867426, -0.15115994064549984, -0.26359384178746315, -0.3672068747363409, -0.4692864019601801, -0.5686506251634899, -0.653847759900736, -0.7340990574194777, -0.8011462448234385, -0.8129485776039068, -0.8102594125044243, -0.7950292780879123, -0.7982623292606279, -0.7357218590164755, -0.6416534420043122, -0.5257162340118119, -0.4019988277162754, -0.2468188171100293, -0.07023100615704819, 0.10358086022190853, 0.24009393716710195, 0.28677292850262726, 0.251170268572868, 0.1485935804115662, 0.015743399352793036, -0.09438306673440089, -0.1955177095832399, -0.2830324004000033, -0.3625864452967973, -0.452169673890572, -0.578390939019672, -0.662554027604361, -0.7272377598745958, -0.8004254544047313, -0.8127807981330794, -0.7976664586802608, -0.7987707648577215, -0.7260176901641101, -0.6162582916724411, -0.48786800519908163, -0.3528702837833066, -0.21377231071954397, -0.09296139018289094, 0.0031563972011322034, 0.0751949420646625, 0.10787951947359363, 0.09737492816002659, 0.03698506334834054, -0.0697934211067892, -0.12702471235756443, -0.1655130589896455, -0.19514198074074482, -0.21738852265800382, -0.24199851184341634, -0.28472265660474944, -0.30675751537208107, -0.3234895519714563, -0.3610076946725988, -0.3789137122405886, -0.3529673758645618, -0.28756909640588596, -0.24483033829250198, -0.18073984900320417, -0.10573064741869276, -0.026880338106167922, 0.07484351064798854, 0.20166199945491137, 0.3121223076853708, 0.3295599032599996, 0.3185957825718569, 0.3108270947231904, 0.29476600106520195, 0.2116846300670093, 0.16321515047916357, 0.12967832008025687, 0.0974080206994608, 0.0662835100509422, 0.03634708553469489, -0.00028684993178574827, -0.04172956769406024, -0.09320919115305831, -0.17080018495491256, -0.2002780514618604, -0.16529316733669433, -0.10389130896407184, -0.03107646791383574, 0.04307446700070331, 0.14378573097458733, 0.24543359534160794, 0.32637732952171955, 0.3304896439813139, 0.3260435493670117, 0.3214625753085371, 0.316402636654745, 0.3110642007007904, 0.30831474798896624, 0.2940034737431474, 0.23741758910134136, 0.17175698099717795, 0.11896839949950534, 0.07064392547541218, 0.02566824672025628, -0.017752886113353492, -0.061817065689609645, -0.10402838029413393, -0.14311641687441506, -0.1771895914234565, -0.21403723550777967, -0.2655470611488824, -0.27902492933874123, -0.2475156890633751, -0.1805232844383721, -0.10520563856423354, -0.041226352744216654, 0.035995638129575215, 0.09172344086115435, 0.13054862914992615, 0.14810955354863817, 0.14785730654616427, 0.1394270000149378, 0.1218593272271417, 0.0973704643052455, 0.05830366955222457, -0.020633975079761845, -0.06604109815334754, -0.09824206049262063, -0.1507107042719016, -0.19399713889130485, -0.2403002239948729, -0.3257802675735226, -0.3822582188572709, -0.4096601035286281, -0.4571403975589927, -0.5051776631819446, -0.5018109967711438, -0.39964283630181857, -0.28323073895101086, -0.163566765302266, -0.0478303501816115, 0.04914972650861047, 0.13292082469405084, 0.19574756413305397, 0.14710411494275638, 0.08637879363714714, 0.01697944517216879, -0.0679195165697395, -0.15767858889970618, -0.2315914306350472, -0.2974252266976685, -0.3621879694926395, -0.42549698737635105, -0.48676344521262577, -0.5482319906990657, -0.6042432519517131, -0.6578278445508623, -0.6523163197163991, -0.5852501563298211, -0.5025609838310862, -0.39995743916633364, -0.2687635940911071, -0.12574065739773965, 0.034493311102711866, 0.15961688693490697, 0.23830744314464816, 0.2916022449978431, 0.31879832518583884, 0.30366430697089003, 0.22683417587075616, 0.09269738968555284, 0.02847909485548081, -0.005258250611934461, -0.037794354808850864, -0.06797551656626726, -0.09476869171764556, -0.12788239483563574, -0.1566295414352697, -0.1845201851683286, -0.2175338944678553, -0.25745325304711275, -0.2639184780698721, -0.1961133349140165, -0.14019762398177463, -0.07176227536255624, 0.0021552327407537535, 0.07314823794585938, 0.140241036139778, 0.20128556108899162, 0.24973535188451132, 0.274294489989335, 0.2744574674989829, 0.2615362027236368, 0.21306808751704254, 0.13172871362444669, 0.08009213204197095, 0.04011752458772522, 0.012570402598478162, -0.008007973059655166, -0.023933111922594934, -0.0438096546922434, -0.06030205089387355, -0.07267044174963272, -0.08796588431083398, -0.09019386271125228, -0.045349892347532283, 0.032352484539422306, 0.09053998045446605, 0.1488523378724452, 0.2320887200992012, 0.30311683502682446, 0.3289594437386371, 0.3258575005688275, 0.3221535717427746, 0.31931845358709915, 0.3160339435916672, 0.31523202504235553, 0.30458990781189615, 0.2520045565544415, 0.19226456634358535, 0.1372570312189955, 0.08009930427542349, 0.025428546815968883, -0.022453120641987654, -0.06423732856915042, -0.096353629360311, -0.11835112924297232, -0.13996913561748234, -0.14192650179432434, -0.09481265873955773, -0.019535310222831174, 0.02678663272202779, 0.08484023633343239, 0.15140903583865375, 0.23769836086822627, 0.3195375999427908, 0.32999611534249396, 0.32783047009995153, 0.32297972584589263, 0.3152920678816504, 0.3089254730117015, 0.30765667300190525, 0.2911765955996057, 0.23880382398785263, 0.17725160430983933, 0.10677176723860325, 0.02655541763335509, -0.06524748441213077, -0.16050806845031207, -0.24876601935565568, -0.3373144925315687, -0.4186726989346076, -0.48787633709264977, -0.4579792499853486, -0.3943409194422751, -0.3561492079437962, -0.29010476412240216, -0.2250466678453816, -0.1202908703470446, 0.03144392532596666, 0.15578083521320857, 0.2598123429570659, 0.3238003410189924, 0.3204511676492344, 0.30157829183732004, 0.20401857815416566, 0.06615223236069984, -0.022419892783202153, -0.09013043597782035, -0.15102230087274907, -0.22621150552180505, -0.3054267592772196, -0.366035071696907, -0.4109429534067295, -0.42978604874030557, -0.4533292644571516, -0.47780572058726883, -0.5009372782277655, -0.5206948367757919, -0.5245204139335637, -0.4794802790744927, -0.3810499338912327, -0.27960594942312716, -0.19462853266004673, -0.09167251569648026, 0.0029973294627731843, 0.055947469923280424, 0.04206829821370963, -0.018108001105197908, -0.09489896281614911, -0.15842328275601414, -0.1994593877779747, -0.2247388408302696, -0.2517803321937213, -0.29989762030299394, -0.3509196814705548, -0.39762996274493867, -0.44432507776729163, -0.4848972236468936, -0.5353191217821284, -0.5888122601395496, -0.6196542751106349, -0.6327094558939513, -0.5919047472933858, -0.5087755673278817, -0.4339648734392281, -0.3458083433228116, -0.23624063829631692, -0.11055797143968521, 0.04640304489453493, 0.14883703590792466, 0.1857463469579783, 0.14481040591703245, 0.07356830365259627, -0.0005718189240093869, -0.1116348102485492, -0.17960509063804508, -0.23922702874901045, -0.3249132174078798, -0.4147291347411286, -0.5018762060508262, -0.5657079735223843, -0.6126566855274111, -0.667839491881363, -0.7260034522774865, -0.7520539699525507, -0.6957387867876249, -0.5816053308329251, -0.4441228427234192, -0.3191979058901687, -0.18537140347655046, 0.0029369805521262094, 0.19891762002458233, 0.32048711649043, 0.3304910878972116, 0.3200973927337056, 0.30989761789935244, 0.2951819993483366, 0.21779779431055699, 0.12579989310649006, 0.024870034946310054, -0.06581108284024223, -0.14952414959621857, -0.22202252598848163, -0.3216993004255781, -0.39624051159107965, -0.45702742631047427, -0.49668008036703276, -0.5368269048793992, -0.5162359095402334, -0.4551996867985049, -0.37362143740462855, -0.2590992635802511, -0.14420955402057603, -0.01900620075695201, 0.09953260212335284, 0.2496127427444661, 0.32769839822122554, 0.33008114648402964, 0.3216499100303114, 0.3109597194140928, 0.30001985876771375, 0.2274039198227579, 0.14105788773541444, 0.0588700349910272, -0.023164613795708392, -0.10315494307152273, -0.16855734510988565, -0.2576643140268844, -0.3339635799021941, -0.40019001347695116, -0.4730462605123534, -0.5297966747194202, -0.5156574015646264, -0.42013844676702683, -0.2779464790035094, -0.1480279120455921, -0.05568317050492086, 0.042520312226500344, 0.18175419324183162, 0.3219059824920246, 0.3313346531870722, 0.3248729087232696, 0.31923852452925716, 0.311012162911679, 0.3010381933039909, 0.2386219569165624, 0.14912157381563343, 0.07467516916221296, -0.026902582686036538, -0.10061222103526403, -0.1619335636301232, -0.221112301262906, -0.26961015866208954, -0.3281975659837504, -0.37177918259789816, -0.4017331755432065, -0.35867262873407024, -0.28576603431102865, -0.23691437912863347, -0.17587833616664636, -0.09230863511626901, -0.033871325725712866, 0.05437796779548446, 0.12831715503902322, 0.1906746871007006, 0.236090890379558, 0.2531408496775429, 0.2563421274403791, 0.2208552652551663, 0.0941496218342221, 0.013604008253515569, -0.030165834848474984, -0.09719445467098076, -0.18531750441508754, -0.2523085005733438, -0.30394865014092337, -0.3529575137037633, -0.39748199455409305, -0.45903538090876633, -0.5047180177369285, -0.4778815222677066, -0.42768338382547183, -0.34376914364906935, -0.22166758806807282, -0.08601944420893376, 0.04828140338020646, 0.1811219465229533, 0.3114413823685103, 0.3330454049053364, 0.3274801358921518, 0.3203831178559661, 0.31022919584460223, 0.304156983722033, 0.2688712046410781, 0.1992984614860287, 0.12395204688991464, 0.039142797667143604, -0.03520963519173795, -0.09017571704398075, -0.1563035710531538, -0.20797151652217716, -0.2521692649437725, -0.2907472762758234, -0.32605096679698004, -0.3677450190675982, -0.40451006769794845, -0.3525057037112676, -0.28363686954646755, -0.21960056189496502, -0.09633592222191589, 0.05545301593177868, 0.2134464646704848, 0.3195634990718132, 0.32750343634878903, 0.3202211859963446, 0.3105504957976407, 0.295937262147485, 0.23917562379758853, 0.16762161247018623, 0.09952551160745839, 0.035809853644963384, -0.02153651148449808, -0.06714337847151482, -0.10787407812465338, -0.13795609774366765, -0.16924838901013972, -0.20256523666117762, -0.22448955807911175, -0.22707420197338354, -0.233940855454566, -0.20526071488159178, -0.11515374146016306, -0.025872590047064385, 0.05521535791739527, 0.14536403695620218, 0.2700251801953074, 0.32757673216746835, 0.32566386152827126, 0.3193933158999888, 0.31137905992576076, 0.2981808786958756, 0.23048455624736, 0.16607626194086156, 0.12372236837728617, 0.07523010993626968, 0.03812323574251688, 0.007672091695321057, -0.042787735029103637, -0.08026477481210449, -0.1279652763602488, -0.18375115906369435, -0.22425633223930297, -0.21069919002851897, -0.15517054390183774, -0.04534443666444226, 0.06911437021320116, 0.15552705458542124, 0.2500690544912605, 0.32612877129705575, 0.3296982225283924, 0.3251460020562746, 0.3206332243441407, 0.3182545221333079, 0.31166208518224636, 0.3062776002418396, 0.2937738581988086, 0.24522808520527115, 0.2055327868754133, 0.156028805675069, 0.10130129567471835, 0.04122848145089043, -0.02343704793514372, -0.08585459118145106, -0.15501961432196157, -0.22577491286530751, -0.27939658738762657, -0.2776815950643822, -0.22529879685597665, -0.11337813582528662, 0.03827567363704733, 0.13334984408476766, 0.22655471749206132, 0.3254873706022356, 0.33298262391465133, 0.32820359054451853, 0.32571263449581, 0.3187570714327772, 0.31020154282771617, 0.30627101107052634, 0.31391012313974453, 0.2987678446328052, 0.24422272908233675, 0.19942525350930954, 0.1573954763361223, 0.11457919650414673, 0.08125234886633921, 0.050961800395915045, 0.02087883848732637, -0.006529598447321157, -0.029410877810638277, -0.0107267634820055, 0.030420332062481587, 0.059734093719772015, 0.10199244553500646, 0.16322054560135144, 0.19489553405980017, 0.2652825094414781, 0.3052893128870295, 0.32223426819036816, 0.32481877454278657, 0.32204572831343486, 0.3155671902691517, 0.30318502371106654, 0.25355068304594214, 0.20793513170203384, 0.17465220489409794, 0.12358928509522236, 0.0780030312613801, 0.04830203441112505, -0.0019966970728651037, -0.054458999475206125, -0.08878806946610046, -0.10454817048808256, -0.13189656609449274, -0.15814579878493548, -0.11294645017137954, 0.0016096663483513237, 0.11904691634275205, 0.20678027473372695, 0.2923962897326165, 0.33019334774275183, 0.3295676880661432, 0.3233376496545985, 0.3203561644060156, 0.3157165567622496, 0.3104204035049599, 0.30382214593992857, 0.27170514125023587, 0.2103973931483232, 0.15617022576868722, 0.11826012760779621, 0.09113144431372032, 0.0881520017691627, 0.07530212601577303, 0.06018482694554659, 0.028368765597833846, 0.0040929707469857775, -0.0023356214242169827, 5.2644531843742494e-05, 0.04098599794742388, 0.09700461165601783, 0.16586722645004362, 0.2088236567934124, 0.26233525532324653, 0.31373221101141674, 0.3206929727546555, 0.31863367979108964, 0.32222593647586634, 0.31933007516259265, 0.31323777803927116, 0.2575349917999604, 0.14650188879158932, 0.075114073978879, 0.010851192798676022, -0.037162327242457126, -0.07779490221488453, -0.11172415973068343, -0.1354174025954986, -0.16956171293815214, -0.21327576504919246, -0.27042481474142144, -0.31828293730404217, -0.353495179951057, -0.3784886344767391, -0.32190403551775004, -0.21311861513814842, -0.10685028704765175, -0.034369951341398135, 0.05031600406226757, 0.1357732933247916, 0.17840298689471054, 0.18031254188364884, 0.1644411441684901, 0.12158661091443142, 0.06577589915160431, 0.019148323707247065, -0.03242593422074309, -0.0825827944336309, -0.12612100184094185, -0.18383453174911032, -0.25852111892368546, -0.3316515548522112, -0.3875644522199857, -0.41569247921934904, -0.47438277936851364, -0.5324186400795318, -0.5978276124422565, -0.6692926012684016, -0.5913527144989261, -0.4318557653905475, -0.3105343142117101, -0.21822852154221825, -0.10208965813768321, 0.07950586565002071, 0.19977816975649018, 0.2892808351733467, 0.3220074299229108, 0.2966438916425093, 0.2090453925234579, 0.1075022427463887, 0.030536529283424, -0.016282311047616346, -0.06958265639027533, -0.11417919480754446, -0.16904334336133542, -0.22898044792008213, -0.2789047221516365, -0.33919681655107486, -0.38700468498527735, -0.42940198692439036, -0.4139669999837377, -0.3513602820583262, -0.25280734664939014, -0.1628630514924959, -0.10095078325029731, -0.04549179778405357, 0.03053467730178891, 0.1346087536392937, 0.22611200960573255, 0.2965660568210528, 0.320234568727847, 0.3136506519259083, 0.25986117946898096, 0.15291661694969585, 0.08076451468994691, 0.03106152304763518, -0.039245949419601626, -0.1022661000798817, -0.1460326257490854, -0.1907327598841592, -0.2671117055111511, -0.3229781048028342, -0.3670277250530023, -0.4030555243673231, -0.37542159210354836, -0.29779565978135697, -0.20770611214895549, -0.0791163321384209, 0.015131997729655155, 0.1206078521530583, 0.2353218750682714, 0.33190448001829426, 0.3316098876058506, 0.32641294495392736, 0.31849246295551975, 0.3108478012469935, 0.3036249939228028, 0.271615756460364, 0.20453373720541532, 0.15445454613758944, 0.09921158887416832, 0.030395087699518597, -0.05238017349693163, -0.11144746159167984, -0.15505207360346793, -0.18835517231103063, -0.25955370883678613, -0.3330166480437784, -0.34400007344915146, -0.31076024865712265, -0.22619724738284072, -0.09538104427571185, 0.033060990480799766, 0.17322237313859226, 0.3132305402880235, 0.3324654956149157, 0.3282644273297837, 0.3246966510765361, 0.3191713767510947, 0.31207171738236206, 0.30518742326950843, 0.3050175298645838, 0.25445269233536977, 0.19260722074059453, 0.13848023445029742, 0.0848405912162392, 0.04290480405669724, -0.0015193993765751177, -0.041756101220163294, -0.09239653443176928, -0.13567913733883516, -0.18881254053294994, -0.19062792593587138, -0.14816280695834982, -0.06306447640380546, 0.05656622280745637, 0.12784261868094995, 0.23305473778970134, 0.3228250144456861, 0.3228355847327064, 0.32409509432149736, 0.3202998840205505, 0.31723756393291397, 0.3155073739513427, 0.3097285834948593, 0.2856560033263931, 0.247729160568355, 0.2210110542933781, 0.20019854909699952, 0.18274566949747703, 0.1673155755311546, 0.15422497029747342, 0.1392557886743472, 0.10668952731177378, 0.05817335919920399, -0.009680632561754839, -0.025820280003059203, 0.0071300331327501685, 0.03887838103664834, 0.10120516980139467, 0.18352252777249004, 0.26339571943459616, 0.32192583044909223, 0.3286589624714915, 0.32546369352756904, 0.3216032606325654, 0.3171237991812137, 0.31110411148943523, 0.300723794998398, 0.2444713205194333, 0.1596924426402847, 0.08165162441249649, 0.0067902380615238985, -0.046854223434548724, -0.09138078779591034, -0.16596511177129983, -0.22233374919497553, -0.2579719642592059, -0.3442232568106803, -0.43217168261220734, -0.4911491529118521, -0.5014429684846474, -0.3989735990393888, -0.24672756091393758, -0.13716662347992684, -0.03840502361963374, 0.05308603993632907, 0.16248021225586554, 0.24369612652274916, 0.2728937742571189, 0.2968916529982327, 0.2447352530850682, 0.1436351215419004, 0.03871863869314064, -0.04302546992408438, -0.12738102077395771, -0.2106863998894465, -0.29225994495005153, -0.374830745492662, -0.45263003785221056, -0.5097140163911977, -0.5501138787619527, -0.632056761331854, -0.6898106547900896, -0.7313542393531622, -0.7427414551442587, -0.6181112062329631, -0.490782488172308, -0.38285724988220665, -0.26611297052008204, -0.17228458605300626, -0.01216579718849902, 0.1170007057586704, 0.19656140338320194, 0.2548450091026795, 0.23968650167699823, 0.17258173903629712, 0.0559805464606982, -0.05258033367313153, -0.1447334131633267, -0.231532072395905, -0.3114208252450925, -0.3524172813912765, -0.39269459937371654, -0.4274153835902914, -0.4576657563452531, -0.4948690968838683, -0.5524940916435043, -0.5178735559802411, -0.4155851049777268, -0.34392144462846863, -0.21612267564916507, -0.03844223211751622, 0.1202838764775777, 0.2313219474524908, 0.3188584987471034, 0.3286397967040027, 0.32216103203154406, 0.31661336201954726, 0.31211331655839103, 0.2731043160085504, 0.15706827321811323, 0.06726708313003228, -0.015123370052131197, -0.07745069795237673, -0.1532818583139658, -0.24721004847371078, -0.3180700595034516, -0.3664011744148519, -0.4176493581561203, -0.48288651355862494, -0.5214681086738252, -0.49215369997254294, -0.420097940638009, -0.2537696466605653, -0.07645086712196196, 0.0548235735734968, 0.16344048444848808, 0.22737123300856232, 0.3227393002450892, 0.3316534970915688, 0.32609782725895936, 0.31908490890570435, 0.31274116317160106, 0.3039364830788479, 0.265472348037659, 0.18678329009501551, 0.13250138954818583, 0.09141673253664799, 0.06790584613059329, 0.04779996052577873, 0.019995948104316347, -0.0019879101282423866, -0.028274078768455186, -0.06139139570361208, -0.08736397855052008, -0.07915792778833179, -0.014273596812006554, 0.10784872775208487, 0.24088760811930313, 0.31580877270470925, 0.32877473857446915, 0.3285524579673296, 0.32790504783489205, 0.3240486692210213, 0.3224015079813944, 0.31850096631748476, 0.31032957034797365, 0.30173492697388193, 0.3111823506445948, 0.3139243097288296, 0.29627554580707305, 0.23481064622673156, 0.19285313499507484, 0.1529762069486378, 0.08649558235685935, 0.04055590197037524, 0.007891722806737167, -0.02050070677397486, -0.03534418955405056, -0.012408617471193885, 0.05565794522083201, 0.1668902564461678, 0.2927544988351181, 0.3245427667207303, 0.32612440380109425, 0.32852055686581944, 0.3288682534152092, 0.32592170298918755, 0.3231524391003289, 0.3181740275168649, 0.31159564728057554, 0.30493314382587705, 0.3132582018194287, 0.31407127933227136, 0.31204424702145167, 0.26865939315709214, 0.17783706473253927, 0.07128499138131784, -0.04603962940766674, -0.15274525349884413, -0.2552569151137723, -0.35217094586763015, -0.43868868340206096, -0.44724758444937, -0.4012858474193877, -0.30109500369407444, -0.19077264347259346, -0.08732716236696793, -0.011774922740396149, 0.0447626540617222, 0.16195751944378275, 0.2624483266107103, 0.3096625563509247, 0.31778945594982644, 0.2760299635808592, 0.1678121320506573, 0.02959094908284715, -0.09645421162190188, -0.22195206371169837, -0.34176830437559347, -0.4824684599207458, -0.578833282625023, -0.6891790484039948, -0.7838805982316278, -0.8118613830479879, -0.8082996676346733, -0.8070679040726224, -0.8060864458115534, -0.7935976868154383, -0.7653459752995371, -0.6671987155799807, -0.6003888381785237, -0.4245435855630333, -0.2953191979109912, -0.11326374781450728, 0.029574774125063857, 0.10027426993235133, 0.15618110466608262, 0.15052388384515572, 0.05848333598580827, -0.040325241146129905, -0.11260091196316073, -0.1812979726148927, -0.27342570769419133, -0.35120859255664966, -0.411445374966664, -0.47085887019749073, -0.5188480994738905, -0.5602074952748289, -0.6072436776415039, -0.6878182943937077, -0.7802686153655346, -0.7994289527443265, -0.6892360751901657, -0.5149833965098984, -0.31267887076661943, -0.18488377815975754, -0.08997292199310236, 0.04127059704934829, 0.15612037808326826, 0.22948209510811698, 0.2525793588571263, 0.2168358374785271, 0.14579401328515235, 0.09227198922798957, 0.0179028947920593, -0.02448991695676994, -0.12828068905694825, -0.21454265648548132, -0.2349302511369058, -0.31004407027546294, -0.3643675528898061, -0.4139423338540129, -0.4551461810178774, -0.4942244098342356, -0.4777825563355688, -0.3870167316720403, -0.2546687175657605, -0.10634863159799723, 0.022703144662386616, 0.16176661121127445, 0.29872556150054536, 0.3354096500176384, 0.3300314236096325, 0.32599381041704356, 0.3164225563167063, 0.30992702501241537, 0.30901837625328427, 0.3027196510733902, 0.2625162225859759, 0.1967163989813947, 0.1351247559905237, 0.08656941682636336, 0.0479552111863781, 0.019287910885473946, -0.017589827162448383, -0.07857615188902127, -0.10580087947066845, -0.14933292000186843, -0.14593328348663798, -0.10870250093386456, -0.052532356217465166, -0.03049057869922425, 0.07875284189991028, 0.1516749305628374, 0.20092753019921952, 0.2949164042737489, 0.2965921826053913, 0.30834259704228506, 0.32338977714611755, 0.31350893224665044, 0.2862140179273048, 0.2203054241273106, 0.15276964030474252, 0.09374596476585406, 0.0851937813247245, 0.068532930091184, 0.02784871744764747, -0.023524656217108614, -0.06610875881334798, -0.11424875244438236, -0.13269972249899029, -0.17090510228387812, -0.14161766911697657, -0.060968833486021584, 0.0325994558091813, 0.13761751227768823, 0.2638706232887024, 0.3244908169292401</t>
+  </si>
+  <si>
+    <t>[-0.03494593727604487, -0.06970662354090232, -0.006302621807629416, 0.05899406911448877, 0.11418813210088474, 0.15728949053866587, 0.19379179983904005, 0.2560175732864959, 0.31736528468372865, 0.3202446854742649, 0.3225057819110673, 0.3188399806736117, 0.31606022489900015, 0.3158516832598275, 0.3154917571950671, 0.31395253389319855, 0.30969011967510457, 0.30345541353929667, 0.3015909321726149, 0.2881163015264077, 0.2151529789474436, 0.12303119975845807, 0.032534717661682304, -0.043370447391768985, -0.1095254878610134, -0.17396260828345375, -0.24361462598875197, -0.31495867936899313, -0.3854406201442084, -0.4374687806004034, -0.4850521950100655, -0.475439160934821, -0.40934542003402635, -0.3294665241986478, -0.24823812476177387, -0.18496902042781602, -0.11086520350188545, -0.012369137772945188, 0.09778975413074951, 0.1993370763884035, 0.27243707095192965, 0.280410981882816, 0.23217359210815428, 0.13972505276744582, 0.014470836432748374, -0.0874253210348529, -0.18029891641081908, -0.2616212603181958, -0.33805606135800464, -0.413781684604089, -0.48289934577477167, -0.5505938325778273, -0.6147488810705688, -0.6528102961802127, -0.6530744286539073, -0.6275023227945765, -0.5871201962871665, -0.5198602310809177, -0.4483930558270806, -0.3598239526080069, -0.2736876596126115, -0.18237017207598052, -0.09188972382752082, -0.012226866617140127, 0.033733495311932336, 0.029869632600105583, 0.014617322680614497, -0.044548519192703584, -0.1832078671045703, -0.30460469859185835, -0.3707095496918838, -0.4350824610374522, -0.5004551728300194, -0.5633528376038273, -0.6213715955067847, -0.6537272354870842, -0.6540932025467151, -0.6536954800981767, -0.6535128328561263, -0.6418303492278402, -0.6456993311679327, -0.5848313066657148, -0.49096245526206617, -0.4045761863110184, -0.28849261129754716, -0.1372216658774411, 0.015470365705568602, 0.1563687054418755, 0.26548274386178383, 0.3067725723678003, 0.25608700244104116, 0.1501427131911014, 0.02441361759347381, -0.07550211608659384, -0.16453208935256528, -0.23591163245886346, -0.2992386379649767, -0.3594073847997354, -0.4180012251927265, -0.4738331270298857, -0.5251228006500567, -0.5690865395251894, -0.6130474912918064, -0.6495251819110933, -0.6518821702894654, -0.6441509578960499, -0.6158182306484716, -0.5263427986545771, -0.39222203016745844, -0.22068489761867682, -0.05071775557964117, 0.10219469230786955, 0.21747792654428288, 0.24828300721370652, 0.20405981200102943, 0.14088403998557616, 0.07406916662758913, -0.0018525270915574696, -0.0803091737964677, -0.14946624551366758, -0.21561849515233733, -0.28974063292565205, -0.38760860645960027, -0.4366671432031542, -0.4609390519192549, -0.4945010351346979, -0.5334397357084405, -0.5736405741718097, -0.6076286027503559, -0.5872490314900504, -0.5460059070963718, -0.47043717208563307, -0.3523981789917156, -0.19419414495595091, -0.030872965294332894, 0.12689052203411244, 0.24202855571498624, 0.2586381858595109, 0.19926852954831817, 0.11613087669705312, 0.030928645104115558, -0.0625775302833856, -0.15673210272856067, -0.23968223487375373, -0.3184030956565194, -0.3993647076201743, -0.4846186481752561, -0.5602228801417072, -0.6010692039117074, -0.638347668978431, -0.6537063744031228, -0.628978624814298, -0.6104770692421094, -0.508465205922379, -0.38649854658011407, -0.28530950254938514, -0.1679734736650412, -0.027710603821073723, 0.1002735780413175, 0.20600601746446676, 0.2778095321194605, 0.28098423550259555, 0.21899556771060077, 0.10052234353741106, -0.06627022183101659, -0.20963792991212385, -0.29510367923352093, -0.374788583260419, -0.4534963620272241, -0.524547579636512, -0.5845157388574056, -0.6385076398936477, -0.6547592910545454, -0.6542229308477442, -0.6538179682184612, -0.6414986187957245, -0.6456660731006396, -0.6242401074890532, -0.5625632291809587, -0.4912900598061925, -0.39731813793668747, -0.2664840532423399, -0.11949284385844759, 0.02108149865717353, 0.12965120768289076, 0.157553526028439, 0.11330164916031656, 0.009064302767657396, -0.15138627161368945, -0.3017070500796628, -0.4498024794441539, -0.5709249093119636, -0.6562067013439948, -0.6577488982072166, -0.6548092321414561, -0.6536245149406584, -0.6530284797065912, -0.6522762140880355, -0.6511691379644375, -0.6390425656742748, -0.6436969826514, -0.6394932806787632, -0.6411283304285738, -0.5948926105169517, -0.4552792834827623, -0.2675320142451649, -0.0776968911279093, 0.09992576147774636, 0.2416196847325943, 0.28937830763358313, 0.2546423206234913, 0.14608759024662119, -0.05768167615910447, -0.16062889661384858, -0.22944801187746303, -0.3529747816273672, -0.47980517989137317, -0.5322146097117006, -0.6431918238131488, -0.6541950726806713, -0.653221970593254, -0.6535081937892149, -0.6536089199803621, -0.6416223422373405, -0.6456333105053732, -0.6299435786368532, -0.5907869527059559, -0.4948006498508925, -0.35127271467633076, -0.17634571900988963, -0.020320326535760064, 0.12481376104409776, 0.23955924980348922, 0.28427631462695063, 0.26096646572960475, 0.18195730267726484, 0.05899686603440463, -0.049292667856057425, -0.1561526953564812, -0.26765101211543635, -0.3867777496450952, -0.5091017609672956, -0.6178103629874813, -0.660002912412906, -0.6567705504871837, -0.6548636868219684, -0.6529509013621492, -0.6404528938843606, -0.6445615921574201, -0.6394455941758628, -0.6107970463911733, -0.5115447940581014, -0.3624620869900639, -0.1806161850729875, -0.008014801290946429, 0.1515164484439682, 0.27368062412700866, 0.3129795053355588, 0.2787962146420829, 0.17008597485306806, -0.043757651489509275, -0.19171484561753746, -0.3064567088399463, -0.3948493992852801, -0.46624754945373237, -0.5282051120610964, -0.596092356640565, -0.6526240179417807, -0.6563449799396749, -0.6553141833038668, -0.6547727910125634, -0.6541924468501664, -0.65091054378629, -0.6418533268593455, -0.6437669023046856, -0.6386400262062998, -0.5316543160392784, -0.3347760089861411, -0.14904065265139596, 0.019848761532707166, 0.15008704473981943, 0.19141121299396724, 0.152992733264659, 0.08044914121705707, -0.027657667209811776, -0.14441590143460833, -0.18374347747847586, -0.22795856404405632, -0.2784272458222364, -0.32614410478658334, -0.3714506582704487, -0.41852275782015647, -0.4738996466825777, -0.5606078326218827, -0.645655032733394, -0.658814867916051, -0.6547507017915535, -0.6462818060885448, -0.6467274773189685, -0.6478775027693725, -0.6257365825651342, -0.5161624844509031, -0.3765850721624587, -0.23804840944067976, -0.131611514344718, -0.11388961969991389, -0.18005669918162207, -0.2738275143860944, -0.3728966065952921, -0.48303071630303734, -0.5964185564857455, -0.6584650865283191, -0.6578664774556243, -0.656000500066917, -0.6548225924179408, -0.6541427114562012, -0.6531259855810251, -0.6525136231742055, -0.6518311521302942, -0.6391052939576558, -0.6431213120513082, -0.6385091365705821, -0.6412277119339888, -0.6322738102234688, -0.5303466529552102, -0.3648330390340578, -0.1921204480179948, -0.028626757475976733, 0.10062298657503592, 0.15056506538068443, 0.11948884152507687, 0.0208673198866618, -0.1263022604503834, -0.25612407956316996, -0.37945060924451673, -0.48393076104504207, -0.5798931866619147, -0.6539865758331117, -0.6583431586677262, -0.6565541358497352, -0.6543662342114033, -0.653109066961418, -0.6518377036491093, -0.6400530449684557, -0.6448472419769891, -0.6401059012177536, -0.6416099319045974, -0.5953946279900123, -0.45888128491369806, -0.27492095308373177, -0.08789413647472184, 0.09268242130501432, 0.2344723933591203, 0.2936532759853213, 0.2751054371143492, 0.18949330332824535, 0.026646216209452317, -0.14038670202884784, -0.31383100922061546, -0.46478581129875024, -0.5777049577956826, -0.6547532056314714, -0.6587188741248444, -0.6561569167181062, -0.6542981438548608, -0.6531060746763935, -0.6521587045536926, -0.6415238367445935, -0.6452396622269561, -0.6391263695858634, -0.6414207681500449, -0.6162227018711366, -0.47012455927856805, -0.26051815825328023, -0.042376660066879866, 0.13456429188317412, 0.2649741907205605, 0.31638953261960107, 0.2948721353570649, 0.21680343517790257, 0.11947251666960469, 0.054564188150017075, 0.0019875999780241058, -0.04497006038642865, -0.09049251204914088, -0.13470767113906915, -0.1717838870728046, -0.20300971057889752, -0.2341775322888073, -0.2641478519748525, -0.2734177942412066, -0.23150725714226686, -0.1576809113053571, -0.10015539955740388, -0.030055925093526132, 0.05538227201090904, 0.14966603622452446, 0.23632535334979418, 0.28016028254813535, 0.27966277374775816, 0.2601126149070681, 0.25610702980987915, 0.23657308089767828, 0.18581602264829777, 0.11431885336488912, 0.07634288604074439, 0.06545565011089537, 0.06892371847664895, 0.06892948601752036, 0.06492157777911624, 0.06881240569932452, 0.0673227086744718, 0.05755896497865099, 0.04548652729842082, 0.046009627892971444, 0.07930540443453674, 0.14357456911837613, 0.1830384244807325, 0.2154821365214267, 0.22291596242869302, 0.23997437638303784, 0.2249140836587167, 0.25569761076719305, 0.27325433027407026, 0.30914832449825314, 0.31430656764990866, 0.29198700867304556, 0.20266605579458177, 0.06142333801997534, -0.061929128406280363, -0.16110953784245488, -0.24874786400856597, -0.3298777931838637, -0.40775237683791027, -0.4878176821000047, -0.5671302890684969, -0.6424702208688847, -0.6544500572731035, -0.6537350595328318, -0.6526596254547447, -0.6501994603890113, -0.6436254291178071, -0.6449874033125527, -0.6432681028820431, -0.6116110904302143, -0.5180023695497432, -0.39783487142525403, -0.27545479893910196, -0.16158196372131708, -0.10600946148634781, -0.12713383163080352, -0.17490690192611605, -0.21818521116028924, -0.26429788842753626, -0.30967650153939813, -0.3419170437322964, -0.36654587201967254, -0.388915554647288, -0.4193848324900551, -0.452147127280216, -0.4807181647084016, -0.4932763284442778, -0.49882175660036737, -0.5025751081032669, -0.5168176064398996, -0.5451210296615095, -0.5488566548201587, -0.49847545331178894, -0.44918413849708766, -0.3868189057799647, -0.24587309949858852, -0.11151211364214936, 0.005080363970605181, 0.054655129070456665, 0.023011089567187466, -0.040281424234843544, -0.11074860393924957, -0.1918485780530255, -0.2883771145192879, -0.39994814861481287, -0.49962983157632634, -0.5922040158469345, -0.6529868888830437, -0.6585606881177569, -0.6570652246477943, -0.6557773480891376, -0.6539151154539643, -0.6408304419174525, -0.6439679297349027, -0.6282577427603461, -0.5814431274915544, -0.49446067872746285, -0.37178261682026487, -0.21202604311187814, -0.05305671564267527, 0.09477717707280416, 0.2062383430573224, 0.25771428826255005, 0.2279920702367659, 0.12984950435404377, -0.00458584582207571, -0.11900498480028876, -0.22689027213635268, -0.3251993459447705, -0.4209588967735581, -0.5140694263257432, -0.5915870939178606, -0.6519139380128253, -0.6566453592814745, -0.6559351961477615, -0.6543049467847298, -0.641458820069986, -0.6446003796301709, -0.6196432255381861, -0.5573667814168393, -0.4574864469130473, -0.3467080025486417, -0.2032121167225884, -0.035751969586303466, 0.1326995441871509, 0.2687130624934078, 0.31382817354637477, 0.27826160851086973, 0.17563085236934717, 0.044366753192663505, -0.06317504500221607, -0.16080048434328553, -0.24451259498000918, -0.3199610468631025, -0.40405530147126384, -0.5210341508712112, -0.5983259265748349, -0.6485705992601546, -0.6570017303369111, -0.6559413264435513, -0.6439939566541244, -0.6447730852074597, -0.613146637492309, -0.5346056783517704, -0.4228238257469781, -0.30075276538847423, -0.17169364739182014, -0.05750488007037946, 0.034327963409022645, 0.10373185091546498, 0.13552930453640508, 0.12492985562120289, 0.06483040337808106, -0.03954153012158199, -0.09502192421583709, -0.1323594260913835, -0.16108423737369842, -0.18265543525447378, -0.20639381468181342, -0.24719028800958695, -0.26828403163315534, -0.28434691535985573, -0.31988903143222586, -0.33691632113903464, -0.31262444446732957, -0.25093699110579365, -0.21039232352504064, -0.14918350057155808, -0.07699315854226109, -0.0004935138754422475, 0.09911212947240478, 0.22551104392270097, 0.32012335182831364, 0.323717543232697, 0.3131379011744951, 0.3048607321165941, 0.29509358716742473, 0.2243955354525875, 0.17869279717498476, 0.14659518904103006, 0.11548408962966387, 0.08531877539297604, 0.0562158060576648, 0.020494483040295285, -0.019891327806374596, -0.06995214925614525, -0.14501309261822257, -0.1733777903659255, -0.13962564253980167, -0.08020134940682873, -0.009031740060599031, 0.06399489617214094, 0.16360844140397973, 0.26579328740109365, 0.3262465308466584, 0.3247368380617533, 0.3205399609925539, 0.3158042499396153, 0.31065559140679294, 0.3053825890282998, 0.30249683590196874, 0.29728956082677843, 0.24706797541140402, 0.18276535547320272, 0.13105272554250438, 0.0836939559230195, 0.03967275741477606, -0.002760826643914478, -0.04574648550344213, -0.08681061662732627, -0.12471037993518823, -0.15763677870435203, -0.19315254362444553, -0.24265526910934856, -0.25560253574864683, -0.225388759148039, -0.16082125535447608, -0.08774381707764835, -0.02523324513141398, 0.05098956469376032, 0.10624866953258226, 0.144674595069107, 0.16207986236791969, 0.16202392826636888, 0.1536837042893953, 0.13598990108880657, 0.11147790416759569, 0.07263622281964283, -0.00529529130231259, -0.04997202708823409, -0.08159509667386237, -0.13278190490468658, -0.17485569295039285, -0.21963529200150878, -0.3016135447988704, -0.35546739963496554, -0.3815778247031169, -0.42645265572303986, -0.4716388363221374, -0.469048031186722, -0.3725902610829554, -0.2618295621650887, -0.14643745133830213, -0.03340648253002238, 0.06216066300214196, 0.14576439728268661, 0.20904014973156118, 0.15999540557354483, 0.09942935474557081, 0.03039631850332457, -0.053337734366804244, -0.14110083282518684, -0.2127969311568467, -0.27619980065792993, -0.3381370930308362, -0.39827627430557583, -0.45609368010159307, -0.513719699374502, -0.5668165694931141, -0.6155608077964464, -0.6102793036610559, -0.5485748847786321, -0.4715211288552253, -0.37488649581490874, -0.24973070437713105, -0.11120563709882003, 0.04641451136588246, 0.17164231890031212, 0.25138828123354257, 0.3046932304040501, 0.3163360035113369, 0.30448720763434767, 0.23511020961083215, 0.10153611465706724, 0.038185721163925324, 0.005054100937605158, -0.026906051378505363, -0.056513217794705285, -0.08274274656763296, -0.11509090897255349, -0.14312205111626938, -0.17026413872625526, -0.20229841479743024, -0.24087122142636833, -0.24706173769404924, -0.1815670141225071, -0.12719082771384463, -0.06015936598679878, 0.012803664235261983, 0.08342277528921543, 0.15055183250354676, 0.2122108078574314, 0.2615103338279428, 0.2867300463091565, 0.286933999017986, 0.2736608129077054, 0.22417429112015555, 0.14198783953387814, 0.09020527080944152, 0.05025895380530421, 0.02278887910284003, 0.002296122828098344, -0.01354863123240957, -0.03325709270418326, -0.04960292878234638, -0.06186940899485868, -0.07698708396885497, -0.07927332656661028, -0.03515386161030219, 0.04174230550908104, 0.09975048049905579, 0.15820679294123627, 0.2426838873484353, 0.3098006179548237, 0.3240200879983152, 0.3202745572590042, 0.31656414277043127, 0.3137183166209498, 0.31035896521256234, 0.309586074973925, 0.3005363697352088, 0.2548053343587531, 0.19633012188968457, 0.14172241288760737, 0.08488537963013576, 0.030689887396367233, -0.016552977750658542, -0.0576297383442092, -0.08909031900892567, -0.11056369539574572, -0.1316638758065257, -0.13354395214992357, -0.08722081707456487, -0.012827449699510838, 0.0333029900439819, 0.09144479342495006, 0.15854847310506784, 0.2461948504965189, 0.3197885088495291, 0.3246513088640976, 0.3224789312521826, 0.3176670160819547, 0.3091412123064723, 0.3030757360589604, 0.3017684401048008, 0.29101323687036423, 0.24109669299600178, 0.1795932134251069, 0.10898683718343959, 0.028988966850751613, -0.061904123861252165, -0.15536763973975012, -0.24113384391445294, -0.32642076457879415, -0.4041076699456569, -0.4696979654681512, -0.4413226207414884, -0.3807436266368926, -0.3441484987399445, -0.28058212692560053, -0.2175135945919923, -0.11499611923062475, 0.03550952919990433, 0.16071932484500676, 0.2667829777267907, 0.32195637404978633, 0.3147036703382636, 0.29801667765297135, 0.2052167442117804, 0.06704455191729854, -0.02091991178524299, -0.0876178946950572, -0.14723324385307468, -0.22044424122043363, -0.2970245186409798, -0.3551912138185898, -0.39805243221224273, -0.41596037583196677, -0.4383004504703127, -0.46148877652742143, -0.4833577683562989, -0.5020014805072286, -0.5056177895423177, -0.46307535524017407, -0.36936237567084484, -0.27175138218835276, -0.18912387947338263, -0.08800241903654653, 0.005964700619467166, 0.05894157917270548, 0.045088744197298886, -0.01494169399468826, -0.09105237489496175, -0.15357071158182725, -0.19375779697212162, -0.2184487676745744, -0.2447694750636655, -0.2913712448971294, -0.340523588743513, -0.38529962292070796, -0.4298262783187757, -0.46834902893998964, -0.5159738266063282, -0.5662370318726183, -0.5951205358177699, -0.6073341710053884, -0.5692444101715132, -0.4911465094158469, -0.4202410026321115, -0.33590269260239886, -0.22998471455663191, -0.10689600772488007, 0.04904701381253309, 0.15234932251222996, 0.1899312095058802, 0.1484058906160383, 0.07645701180240072, 0.002216967329727485, -0.1078903463416123, -0.17471386166562064, -0.23287616359530147, -0.3157666435144195, -0.40187079773732864, -0.4846471533283821, -0.5448245663398759, -0.5888370324024922, -0.6392358107154715, -0.6564530730045668, -0.6437006088406004, -0.641710239328659, -0.5472175383182137, -0.421337922043531, -0.30402201387200656, -0.17564619644224647, 0.009073498515149799, 0.205853627659664, 0.3217843204908044, 0.3251823949294648, 0.31438634136150695, 0.3039411705196367, 0.29245993129827513, 0.21894583081860716, 0.12674069423829987, 0.025828294214837465, -0.06402626995527631, -0.14627015051716755, -0.21689332858108687, -0.3132454926729859, -0.38467079941313925, -0.4424875915835585, -0.47999785552649915, -0.5178226996742296, -0.4983646636679621, -0.4405778425503053, -0.3626692557353349, -0.2522787316832002, -0.14014386289700206, -0.01633747017364882, 0.10248407924182068, 0.2551351429525859, 0.32485076840653077, 0.32472734286571375, 0.31607939905185023, 0.3050439035563504, 0.2953316881873482, 0.22695260442930465, 0.14057140805667703, 0.05834253581666898, -0.023243718039635413, -0.10221645024522678, -0.16628183976690508, -0.2529947434431556, -0.3266290151703742, -0.39005204152683154, -0.45935298556847975, -0.5129836039350142, -0.4995805768167605, -0.40888017739920185, -0.2720434615019716, -0.14528817438853123, -0.05406373016087549, 0.04398286732577922, 0.18480318071264037, 0.3198489695333367, 0.3261256711239617, 0.3194327680169691, 0.3136259654299766, 0.3051188408291758, 0.29659869083504864, 0.23787884848704607, 0.14788267933779367, 0.07324449333140214, -0.0280891824319071, -0.10093602822670918, -0.16109794966810576, -0.21883984764065165, -0.26588415202820526, -0.32243955465696467, -0.36428678356099836, -0.39292789556472946, -0.3515354250568536, -0.28113984799196684, -0.2336132443374966, -0.17390784850756794, -0.09158242760869777, -0.033530691250297194, 0.05478271080193281, 0.1294516468585115, 0.19289819457521074, 0.23938811995294462, 0.2569281103726194, 0.2602411199858467, 0.22394266153006678, 0.09516857516390237, 0.014094579911515937, -0.029642579311730297, -0.09613905830876618, -0.18286361907886914, -0.24828345140356345, -0.29838502375201503, -0.3456762907593118, -0.3884185111893313, -0.44715816531003805, -0.4905413431486993, -0.46511864763223665, -0.4173607559130876, -0.33686445001047227, -0.21853235162142948, -0.08522546059611845, 0.048741142210272086, 0.18322494989382823, 0.3112513122602369, 0.32793168936711375, 0.322153578073123, 0.31484600620614883, 0.30430230506466077, 0.2984909078307272, 0.2674669686699013, 0.1980089793682409, 0.12203942527766326, 0.036914978507123525, -0.037146661573139624, -0.09148031459394286, -0.15651404527128251, -0.20701660200685112, -0.24999343909210467, -0.28735048322284135, -0.3214119372619338, -0.3615001684780293, -0.3967178581739735, -0.3467257563668531, -0.2801701535470694, -0.2177992971350278, -0.09654647368334845, 0.05498745522233498, 0.21537805149990008, 0.3181996131864922, 0.3222334210239333, 0.3146388411667898, 0.30464684513731016, 0.2938815537929795, 0.2386826629484934, 0.1662711434426814, 0.0975500850288721, 0.03362142855463466, -0.023581967463841193, -0.06881211946055342, -0.10902942993363451, -0.13861384994146156, -0.16930407337166775, -0.20189420222053137, -0.2232779708768966, -0.22576433020452777, -0.23241942700479037, -0.20435915955624373, -0.11571869584067983, -0.02703141944790186, 0.05429187445731424, 0.14557959265786338, 0.2722006309400602, 0.32283787528250607, 0.32026014822453813, 0.3138062885915858, 0.3055380420293495, 0.29508484158404985, 0.22919781184880228, 0.16420255388068872, 0.12158387362168116, 0.07284293757809687, 0.0357092799029059, 0.005363881420949068, -0.04487371150461591, -0.08202049885656475, -0.12911237004699902, -0.18393415794793463, -0.22354227869669954, -0.21024730649263682, -0.15572246461835285, -0.04690953358298378, 0.06777786412192005, 0.15537448837849258, 0.2521996543020461, 0.3237016918220406, 0.32442064516149566, 0.31978500106467794, 0.3151524008708559, 0.3126762915545989, 0.3058409428140168, 0.30024695521976585, 0.2912732023729749, 0.243621825493792, 0.20363633730130615, 0.15354263175305938, 0.09829226089351055, 0.03792695102966377, -0.026685411621922773, -0.08866177498545295, -0.15688572629241523, -0.22619355797038235, -0.2783744347548263, -0.27664595798249464, -0.225539627433236, -0.11536237727355524, 0.03583880738824691, 0.13199497265750168, 0.22729484265505606, 0.32281563362324284, 0.32790762733621204, 0.32305861911463596, 0.32030336338928983, 0.3132132647030492, 0.3042474365403528, 0.3002155399705299, 0.30823022474256057, 0.29613980202588674, 0.2419202817845479, 0.19659815656703952, 0.15410114398872252, 0.1108998757466183, 0.07741214468930058, 0.0470612906763801, 0.016981958811197902, -0.010358134758392439, -0.033128973770022184, -0.014362286864155444, 0.026969156655829912, 0.05655092406861134, 0.09932421375090876, 0.16160060655852698, 0.19405814889219797, 0.2663733287261733, 0.3065923918100317, 0.31705576478791436, 0.31947914230077995, 0.3165924734557854, 0.3098816668306677, 0.2983627242221749, 0.25112215362258644, 0.2052551482907239, 0.1716791582505807, 0.1199712149216469, 0.07398535126861645, 0.04420263363460214, -0.00616252225864949, -0.05846624049324626, -0.09251761722206665, -0.10806174350545926, -0.13501849720894588, -0.16084795251743453, -0.1161641654227741, -0.001970400586308986, 0.11648251949362631, 0.20603500958781332, 0.2929622018737145, 0.325310039342439, 0.3243769411966861, 0.31795794249165515, 0.31514371910061145, 0.3102590655823571, 0.30454484342642146, 0.29833667840917627, 0.26898550589328935, 0.20706575143780057, 0.1520933705319713, 0.1138587599515888, 0.08662773676846536, 0.08383067269417754, 0.07103149448756743, 0.055917897067887384, 0.024005813406649205, -0.0002712346985093075, -0.0066425451924058245, -0.004150581790936458, 0.03704703592127128, 0.09371683120547468, 0.1637753500354896, 0.20778946770488482, 0.26285943160108177, 0.3120051966094463, 0.31515532810197294, 0.31304112100003667, 0.3168209331372217, 0.31380669480750734, 0.308008260412276, 0.25441320210669277, 0.14171663969988765, 0.0697051721651462, 0.005290650725280325, -0.042536236537640076, -0.08281153569843668, -0.1163142746656707, -0.13962692675500724, -0.17317935931253015, -0.216004740554023, -0.27173167379656415, -0.318148552004205, -0.3521502498169921, -0.37619792512079586, -0.32151026189258736, -0.21552658384573173, -0.1107738871741793, -0.03859840265702051, 0.046429863146254864, 0.13300096588875468, 0.1765275664670286, 0.17854175603640962, 0.16237235523713425, 0.11879641967236378, 0.0623152416054904, 0.01538682437911751, -0.03624956162079414, -0.08621181787761567, -0.12935065346718197, -0.18619891353723053, -0.25925028034972697, -0.33024500427724096, -0.3841888836988592, -0.41118674401156646, -0.46722990715654117, -0.5218853471583843, -0.5839830573721054, -0.6440669099321581, -0.5743000454449652, -0.4252851639259438, -0.3088666165994063, -0.21908722030961694, -0.10473694950941893, 0.07696965469835047, 0.19932987511818387, 0.290732595677982, 0.31705278260159486, 0.29366845914360673, 0.20704579363252407, 0.10414004508958062, 0.02661569155566131, -0.02020371157968447, -0.07325459471936076, -0.11741467573378934, -0.17146219117529127, -0.2301776432583721, -0.2787906312410627, -0.337161157044285, -0.38319109902393683, -0.4238113613615806, -0.4089977609156595, -0.34876187524717195, -0.2531094343183703, -0.16497217293384475, -0.1037681326217259, -0.04860589768290102, 0.02754128957229059, 0.1327677098042858, 0.22633082730183693, 0.29858599103988454, 0.3154082413574311, 0.3096885887538438, 0.25874314681439253, 0.15033764603521602, 0.07742367211626308, 0.027512000436369727, -0.042736480389315296, -0.10530543308085598, -0.14849519338173917, -0.19237522266875062, -0.26693645276304045, -0.3211225914558074, -0.36360361712422007, -0.39820519425331696, -0.37161482954430086, -0.2966043908806431, -0.20869115669784197, -0.08189741386070394, 0.012239681507214974, 0.11875021635951993, 0.23603893415139274, 0.32798039117488215, 0.32644326574907806, 0.321122731504011, 0.3129736263858777, 0.30492282947608157, 0.2977128982830612, 0.2687004937203746, 0.2012743560123692, 0.1506842316049286, 0.09495224841104556, 0.02582102938899111, -0.0567985522046619, -0.11529810423384838, -0.15821510961878604, -0.19083149427509397, -0.26033192064438815, -0.33156329234444665, -0.3421290603158776, -0.3098891500483023, -0.2274574991569397, -0.09860820019078996, 0.029720068945509753, 0.17189016915723734, 0.3112817261321755, 0.3274142806956078, 0.3230416697920648, 0.31943336313457593, 0.31349136792092575, 0.30623308721744213, 0.29912576150260045, 0.3008320157822216, 0.25175025081938507, 0.18903534213936565, 0.13422350902162838, 0.08011482173818565, 0.038037596715518075, -0.006392225700489855, -0.04646220312332996, -0.09671191432328657, -0.13945255045100774, -0.19168520407518894, -0.19340251684440132, -0.1515230954810415, -0.06707881142248216, 0.0527935422791093, 0.12504381947475462, 0.232662268572278, 0.3196645241263252, 0.3173518550681457, 0.31873763771977554, 0.31481940427316457, 0.31161151973206885, 0.3098675619638974, 0.304759383133503, 0.2835239013575746, 0.24540562926306161, 0.21840360350990773, 0.19740512278262726, 0.1798083201488634, 0.16425763412238947, 0.1510750047232565, 0.13597041265693333, 0.10300596148912827, 0.05403479554525273, -0.014087887604831845, -0.030193785788800373, 0.0028758384414673053, 0.03484794354980004, 0.0978631144102654, 0.18171689555337786, 0.2638303357884066, 0.3187111276708566, 0.32342535446035664, 0.3201477710620855, 0.31620279728784284, 0.3116977641544553, 0.30524061155286386, 0.29505808505692716, 0.24059329429497248, 0.1547027087547431, 0.07586111178353731, 0.0007414624841256481, -0.052700546754772905, -0.09680901849360406, -0.17040512521313722, -0.22567591014833674, -0.260359529477713, -0.34395181353465304, -0.42849293790692244, -0.48474521991952574, -0.49449000108658064, -0.3964317378827767, -0.24895054001255715, -0.1412475822038622, -0.043047436096295265, 0.04885716198102888, 0.1599084464207318, 0.24325596819673975, 0.2734349533525729, 0.2982930712932017, 0.24454707078581947, 0.14105319243362816, 0.03476890143562036, -0.047208926470106334, -0.13099522763260238, -0.2129982402627225, -0.2925924318527108, -0.3724452404129009, -0.4470694391359695, -0.5014474119865269, -0.5396984665872034, -0.6167915973426666, -0.6540238398540593, -0.653550087884222, -0.6411386199298564, -0.5773533988400894, -0.46854804611256323, -0.36935796462057063, -0.2588972164085247, -0.1686385530763221, -0.011170472818397073, 0.11803591618309049, 0.19856062188510218, 0.25800331687251465, 0.24225843490444213, 0.17351860171063224, 0.0553041591971151, -0.05350691254958458, -0.14487413540727534, -0.23007703492113618, -0.30781482234918434, -0.34749674634666294, -0.38626520352802, -0.41955665912786033, -0.4484596004610009, -0.48383862750463, -0.5383724675104536, -0.5056609368266706, -0.4083699794442735, -0.33949057064983545, -0.21535014977376002, -0.03997535224621843, 0.11960543709846332, 0.23297247072190078, 0.3178210825131997, 0.3233579349446139, 0.3166515294971057, 0.3109142587256886, 0.30630935518185504, 0.26830944156104763, 0.15331240478761535, 0.06323070046899666, -0.018987384115223396, -0.08071348647003586, -0.15538379340665165, -0.2471952800836408, -0.31586918186355645, -0.3623797491098417, -0.41144396098844255, -0.473588451055806, -0.5101522013821124, -0.48229081332541207, -0.41352983057356724, -0.2527968041974176, -0.078438578019406, 0.052899299547675215, 0.16302962997202916, 0.2285392115359776, 0.32054644612283284, 0.32647624777810186, 0.320794581220484, 0.31352419766901446, 0.30694195734204954, 0.2980446670831825, 0.2627548656026373, 0.1836939172489487, 0.12898787120697833, 0.087763853517268, 0.06435278205944056, 0.04434596762525384, 0.01657616396634132, -0.005321221357108431, -0.03146826030446696, -0.06436760183991584, -0.09008940331449583, -0.0818668437885417, -0.01713867143401016, 0.10589649155224846, 0.24169898082525573, 0.3142210299492151, 0.32354343873682123, 0.3233032316108175, 0.3228346495156545, 0.31855034538313515, 0.31706087074597655, 0.3130249005641228, 0.30447141523320703, 0.295830223697137, 0.3053895218341636, 0.30827264553418526, 0.29335181683161776, 0.23196991347624438, 0.18955754290511861, 0.14928179168726455, 0.08210726542488408, 0.03597138322645642, 0.0033454153176197218, -0.02492632851370018, -0.03961861215120259, -0.01656291389215712, 0.05193057265214266, 0.16491540639859667, 0.29239154979781906, 0.319280516169646, 0.3208197714124222, 0.3233347316519908, 0.32368697075297104, 0.3206990910972129, 0.3178099587164036, 0.31265552473003494, 0.30579862051488355, 0.2991140960825578, 0.30751236157917194, 0.3083848081863188, 0.3068246904795627, 0.26538338789744986, 0.17311783220301594, 0.06527587988799942, -0.05221797224566165, -0.1578311150197118, -0.25818425613569707, -0.3520910646636756, -0.4342986725106357, -0.4428351366882237, -0.3991147176135195, -0.30219254083699915, -0.19437549635603893, -0.09209526322759805, -0.016651957578195122, 0.04024929515058192, 0.1591626906405078, 0.26232229477912494, 0.30968799791648777, 0.31273628604296133, 0.27417205783491794, 0.1642572296939018, 0.024368157132128702, -0.10142829388442524, -0.22505288384602876, -0.341511840335869, -0.47646027919447204, -0.567742377215101, -0.6510963589253038, -0.6567514361937444, -0.6542896462272961, -0.6521380986472107, -0.651249699043004, -0.6508276242359919, -0.6407488816367642, -0.6286568044278636, -0.5943321678037513, -0.5470861846985633, -0.39021471108034333, -0.27174713280712, -0.09848760699227889, 0.04042731887370641, 0.10980649083340029, 0.16514121658439054, 0.1586528420021412, 0.0654884607245902, -0.033493771754907135, -0.10532858482452133, -0.17300779666625343, -0.2628012974408448, -0.3379742300132235, -0.39577787965838646, -0.4523732861023064, -0.49829198197036045, -0.5368593360259445, -0.5809595203266059, -0.6457099445738964, -0.6571323089759306, -0.6454785955389862, -0.6068608937262354, -0.47120734130422187, -0.28641947775683674, -0.16662262602914057, -0.07593675590777098, 0.05242680143124073, 0.16646755223583684, 0.24016895355053414, 0.26336457299413624, 0.22664605830428167, 0.15433400044977363, 0.10023324055972932, 0.025677919155766643, -0.01661837439986059, -0.1190045280401847, -0.20337683869996884, -0.22335748040950545, -0.29595438399354185, -0.34816301007856026, -0.39555293070037906, -0.4347567698213619, -0.4717827633737272, -0.4563477454173082, -0.37027877232723333, -0.2431309224328594, -0.09848358696258697, 0.029232826828393097, 0.1687767068444653, 0.3026765865913675, 0.33048149643749986, 0.3246640909238722, 0.3206194150620097, 0.31075436327199585, 0.3040281140993018, 0.3031421277546266, 0.30157427106287266, 0.26519721420806164, 0.19924522900254338, 0.1375104286320356, 0.08907147663163369, 0.050723173517265345, 0.02238245694135739, -0.014106945544645885, -0.07438620889053975, -0.10113013280612765, -0.1438128301205715, -0.1404594191247428, -0.10380885792824328, -0.048273528252926586, -0.026327908902372493, 0.08286659829153271, 0.15646568151598536, 0.2065613359896965, 0.29817115941703687, 0.30149113398949323, 0.31356933392941233, 0.3182836319364521, 0.30758378621184795, 0.2832831034202499, 0.22186937542829321, 0.15444562718682567, 0.09537723372046657, 0.0871773432344748, 0.0707369265951434, 0.03019934143292906, -0.020876243081964268, -0.0630210512683596, -0.1105014704616763, -0.1285986343682649, -0.1660516821042921, -0.13728246796155136, -0.05770612947460011, 0.0355631367662558, 0.1413564002446258, 0.269</t>
+  </si>
+  <si>
+    <t>[-0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972494316738415, -0.31972</t>
+  </si>
+  <si>
+    <t>[-0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.6156573035929753, -0.615</t>
+  </si>
+  <si>
+    <t>[-0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.5359010334566322, -0.535</t>
+  </si>
+  <si>
+    <t>[0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.19508922529703657, 0.1950</t>
+  </si>
+  <si>
+    <t>[0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637703642943535, 0.3637</t>
+  </si>
+  <si>
+    <t>[0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499343147184634, 0.3499</t>
+  </si>
+  <si>
+    <t>[-0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.4197249431673842, -0.419</t>
+  </si>
+  <si>
+    <t>[-0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.7156573035929753, -0.715</t>
+  </si>
+  <si>
+    <t>[-0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.6359010334566322, -0.635</t>
+  </si>
+  <si>
+    <t>[0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950892252970366, 0.2950</t>
+  </si>
+  <si>
+    <t>[0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.46377036429435353, 0.4637</t>
+  </si>
+  <si>
+    <t>[0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499343147184634, 0.4499</t>
   </si>
   <si>
     <t>[0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999</t>
   </si>
   <si>
-    <t>[0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.3333333333333333, 0.0, 0.0, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.5, 0.0, 0.0, 0.0, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.16666666666666666, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.8333333333333333, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.8333333333333333, 0.0, 0.0, 0.0, 0.0, 0.6666666666666666, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.3333333333333333, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.6666666666666666, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.8333333333333333, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.8333333333333333, 0.0, 0.0, 0.0, 0.0, 0.0, 0.3333333333333333, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.3333333333333333, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.3333333333333333, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.5, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.3333333333333333, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.16666666666666666, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.5, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.6666666666666666, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.8333333333333333, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.6666666666666666, 0.0, 0.0, 0.0, 0.0, 0.0, 0.3333333333333333, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.6666666666666666, 0.0, 0.0, 0.0, 0.0, 0.3333333333333333, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.6666666666666666, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.6666666666666666, 0.16666666666666666, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.999999</t>
-  </si>
-  <si>
-    <t>[23.069859746050966, 23.068231573820885, 23.070213269451106, 23.065698702947333, 23.050345571495246, 23.041569318744706, 23.055457556757105, 23.16248393277333, 23.1919284846343, 23.19095312029822, 23.23938334002975, 23.2406247891545, 23.212769714818858, 23.228093884251205, 23.26509920482462, 23.300951435839394, 23.306942376085704, 23.259314350856823, 23.175909037322892, 23.164655023940124, 23.209364470191407, 23.1672096315144, 23.12160562129294, 23.088258438297746, 23.067393518014786, 23.035749947577727, 23.005181416345863, 22.985462485686735, 22.970151311473597, 23.004288978720762, 23.109447552720066, 23.186866689918805, 23.26224407214384, 23.357665537033824, 23.431933649988736, 23.48836219785727, 23.54228506883855, 23.59570083106394, 23.638691363497752, 23.67953356297248, 23.754468592052746, 23.74398920564424, 23.59513628122612, 23.336598237450357, 23.21871836429118, 23.160430038204836, 23.170344681702215, 23.15493869579512, 23.112643259344697, 23.07193269286908, 23.049153135862763, 23.036168710050305, 23.020438182006497, 23.05014186066281, 23.09411598942238, 23.192079484162637, 23.225075883459525, 23.196732771819995, 23.192218269451313, 23.195958027450356, 23.199819944831404, 23.203774935040997, 23.197529814458903, 23.20364004893128, 23.197808917762387, 23.285342273620866, 23.32609670975155, 23.26808183914908, 23.217174966745002, 23.17060486839448, 23.143322998242514, 23.102226876176985, 23.075757152088883, 23.062096274984295, 23.052022980936062, 23.038721958661416, 23.013912145550353, 22.98972768200277, 23.015019352830336, 23.067317439833136, 23.04339926033523, 23.148277032720284, 23.243655985765812, 23.275421649065123, 23.255433671314226, 23.266818079273918, 23.256060926975817, 23.235797185291275, 23.212327520491794, 23.144731968976092, 23.02800296070048, 23.020259176977362, 23.10129243120488, 23.08333421283328, 23.06668860521364, 23.05794985655974, 23.03835382827792, 23.01526299936025, 22.98742018414562, 22.97063122072375, 22.964245343519163, 22.979404545506366, 23.055646748832558, 23.16498261797014, 23.139155681663073, 23.132863527157507, 23.13381068867292, 23.101211591414188, 23.066363124200738, 23.073648240822852, 23.089302020836204, 23.0736940313116, 23.0251038337627, 23.068754388844372, 23.128980755101924, 23.087984024987822, 23.03720033654605, 22.999565282706545, 22.977295395192858, 22.96092078840279, 22.951248310830454, 22.944376108436035, 22.949032562064914, 22.95149627139999, 22.94309820534237, 22.943933764249152, 22.99686093695007, 23.12300642694341, 23.124883137348032, 23.102721260366607, 23.11205581991534, 23.088072726081617, 23.082222968725926, 23.28378863653481, 23.36459251095296, 23.357261099480493, 23.332145850349068, 23.303829779369224, 23.258402741532723, 23.214592528678235, 23.190112331351685, 23.165355290176578, 23.1491612773121, 23.150991029511193, 23.13819681111458, 23.107343549052175, 23.093993611407203, 23.087796937425455, 23.050370268967786, 23.064167280535404, 23.091406558525687, 23.18116031376967, 23.194354117701607, 23.18475043842088, 23.205462016721004, 23.189038386634532, 23.159105013182202, 23.16946255646997, 23.203793372609116, 23.241024344352066, 23.254164972857343, 23.225738774892974, 23.17527588686349, 23.207422408049442, 23.217582224838893, 23.171867866502442, 23.14755702555624, 23.12193267291626, 23.09737329101576, 23.076490683556315, 23.060243945933106, 23.04828978247159, 23.0397870307478, 23.053104662058157, 23.1079752969766, 23.21679038402395, 23.22378901999959, 23.289024416067416, 23.33024798538543, 23.33047544606197, 23.314775091415374, 23.31082561241443, 23.32148356521154, 23.285942990112314, 23.25020813775822, 23.20860300983652, 23.16314841232745, 23.158118590554746, 23.267212472477002, 23.196253839497697, 23.116239702892646, 23.06896924033958, 23.04205484327774, 23.023589597787467, 23.03061951757193, 23.024105523355164, 23.011950239714633, 23.045530552402994, 23.138468082024655, 23.31630092088902, 23.377006278972175, 23.413546821224557, 23.444876642048897, 23.505716670499158, 23.543777277588067, 23.545370424676566, 23.513030773419597, 23.47823655225764, 23.443122661318323, 23.3775666177483, 23.275442604061208, 23.196704833090834, 23.226414971439862, 23.18685997114055, 23.182873697241877, 23.312188235745754, 23.452357022413036, 23.541656656065726, 23.594627812543035, 23.62997130483487, 23.654676657136807, 23.694253963364982, 23.758688358331995, 23.813493370531102, 23.810028772322255, 23.793323143851214, 23.765256476718037, 23.728818996815548, 23.70194552961546, 23.701097344922086, 23.706612833716367, 23.682614150380903, 23.63057892353828, 23.580836846509374, 23.536788577715566, 23.42860922206887, 23.362807094423417, 23.305417308007275, 23.239398477496497, 23.178276385007464, 23.14383306900004, 23.117040311645695, 23.102305632999574, 23.088308109673715, 23.093137536481134, 23.120986222654945, 23.207311852283965, 23.335753085163518, 23.358683620762562, 23.399786508552037, 23.44956258752322, 23.50241444418144, 23.563359894974383, 23.63787604288343, 23.642860551167384, 23.612889315150397, 23.56116654837427, 23.459865464635367, 23.353438545792972, 23.23662303791907, 23.25348120821437, 23.263198652810345, 23.206917960531456, 23.15157899393944, 23.12792728124619, 23.08529807349402, 23.061467845317235, 23.039843104073583, 23.023565466687685, 23.039171420397036, 23.13319807707592, 23.19961514143584, 23.21550166736122, 23.294155972050927, 23.376221441581876, 23.484194847248514, 23.605005933462436, 23.64846807692562, 23.652559217172456, 23.62216245398791, 23.586964239890676, 23.562558507907934, 23.552601115582494, 23.569425095677815, 23.604815764220074, 23.633780375568218, 23.59301488443444, 23.41266633666389, 23.31012872950704, 23.200071141755714, 23.12788682394488, 23.09663002861399, 23.083214815855158, 23.09278443522445, 23.168463386673114, 23.17590393493381, 23.1458013627676, 23.189048897966273, 23.203674132553733, 23.18626383928365, 23.16167336997312, 23.163075009410793, 23.179736181347835, 23.15046911664835, 23.111209188900613, 23.221702747020988, 23.237696607000217, 23.20176279974527, 23.16956554698346, 23.139644969765232, 23.126892194685677, 23.104997011623936, 23.095284242340707, 23.08302784851212, 23.059710593062178, 23.040585883724944, 23.019265836019844, 23.026777948221582, 23.121197994947295, 23.2171476789668, 23.238181113198127, 23.30848661442458, 23.340935516220622, 23.33079974222969, 23.29947786177975, 23.291992164523204, 23.31425612791128, 23.318261220151783, 23.270916021171207, 23.20253959045708, 23.104472667516124, 23.107845877955814, 23.16965083957722, 23.134794887491537, 23.097720682587624, 23.071010073144294, 23.047692476167256, 23.025372722071072, 23.001719365431384, 22.993542461539665, 22.989315348575264, 22.989462549174107, 23.040383098501522, 23.05251256913444, 23.131678855940994, 23.220000746043794, 23.271801847637388, 23.284095709264975, 23.274716810572446, 23.280537306515388, 23.304810009724306, 23.30797772094544, 23.237828710937077, 23.13355400895645, 23.0408715883747, 23.024398557895676, 23.05799481611253, 23.020792891206337, 23.00665202971355, 22.983446943327994, 22.965410422798353, 22.958181010052034, 22.936178160543026, 22.919739824220652, 22.91045409933217, 22.904604917630365, 22.909797477570333, 22.989598373451628, 22.994887077153248, 22.909313678641514, 22.939461824979244, 22.95213503758427, 22.974923338691003, 23.00548840047408, 23.01454763485277, 23.010887395836537, 22.987538179651448, 22.949102740804495, 22.921286853368827, 22.95223260578335, 23.01972161098178, 22.993436236572034, 22.973274318973235, 22.95617170385169, 22.928463719860066, 22.906350084448103, 22.903650494287977, 22.89279597969185, 22.89139136398674, 22.89820657415643, 22.906752602952565, 22.988097070264956, 23.087233172213402, 23.170607921242276, 23.116959125084378, 23.054109042581274, 22.99742798589928, 22.968741769194207, 22.9511554864134, 22.947803121285705, 22.941157520045184, 22.9483788254805, 23.062443752197378, 23.05414229037207, 23.0416839272159, 23.02759503816401, 22.994521190886328, 22.949751055468454, 22.937014093344327, 22.928263496431782, 22.929766347683866, 22.93952593550866, 22.94681969286712, 22.984921238116954, 22.99687419605281, 23.030825984575586, 23.023984839564438, 23.033836167471136, 23.058797093885307, 23.089026611413605, 23.155501673031655, 23.21977518801252, 23.206557215975522, 23.186218575512243, 23.215642960626994, 23.222788639044165, 23.29654950844458, 23.250000496131836, 23.224527225233558, 23.17428052417223, 23.110048832676284, 23.05159839046469, 23.009665635257566, 22.994727342209476, 22.972830685132593, 22.95108584372352, 22.933058086565087, 22.957172071561512, 23.0264051465426, 23.141397978986436, 23.203922484796266, 23.16567068278206, 23.172093706587205, 23.23729972897297, 23.34447880281967, 23.439272190292673, 23.483980525641808, 23.495717477159968, 23.462230370158835, 23.412910614316804, 23.339933477747152, 23.29018082144297, 23.208460006695773, 23.150873844075793, 23.102065784726705, 23.06623249085548, 23.039872311617856, 23.028283363766576, 22.977377738599838, 22.943792471369076, 22.92277035512168, 22.925943948646847, 23.006132885009382, 23.025613129611884, 23.070735469883612, 23.131760746373647, 23.153068500852886, 23.1447136864368, 23.107681691603556, 23.10702262588227, 23.131093697830536, 23.122059035518856, 23.074614849815145, 23.14116436559731, 23.208767168191383, 23.164462707155877, 23.125546607487077, 23.0934120130229, 23.068438441693903, 23.03480392974966, 23.005999142572268, 22.987934038297567, 22.968193948067224, 22.957210262025313, 22.95442553230212, 22.97328873785771, 23.020216163729188, 23.09779354427731, 23.054737329047367, 23.10174888332737, 23.176171930368866, 23.210002906522664, 23.208933190617742, 23.220536752293096, 23.2548458470083, 23.27655338937505, 23.271652044915033, 23.22741595239324, 23.12106077913917, 23.111526211198107, 23.17499736560589, 23.144474428988772, 23.113845399826825, 23.09682216857861, 23.066720178840864, 23.039982967590912, 23.021419112400295, 23.006418027774988, 23.004297522224437, 23.006952806927544, 23.02520166130381, 23.062045588700723, 23.031212771908727, 23.0979768584421, 23.108317849418857, 23.110152231747346, 23.138250339581003, 23.15614165569562, 23.16109239620471, 23.14475099421689, 23.122396353534352, 23.09711441073649, 23.20143490103179, 23.137858788061376, 23.05480166219786, 23.0007618226924, 22.948479283825606, 22.910698485758108, 22.88828599560003, 22.879616668818443, 22.88123414477968, 22.876940448996635, 22.905992182799817, 22.938976295499458, 22.956880263242457, 23.020954682639033, 23.083727307353524, 23.15641159641952, 23.202771781556972, 23.226979301477417, 23.23301308406833, 23.27329676494658, 23.262274452828887, 23.23901947480626, 23.190123376968515, 23.168305475108966, 23.17880677402896, 23.113603269053545, 23.028955520567692, 22.953728989681263, 22.926087907776306, 22.931098303905742, 22.95368549193171, 22.95822840571883, 22.965832761824103, 22.98076658775278, 22.997054773690298, 23.032447535382843, 23.085881858517883, 23.197605471997353, 23.258909200493843, 23.286602093747547, 23.31309453093432, 23.325964215818313, 23.334595843147326, 23.310431261701407, 23.249996270321372, 23.194553634718876, 23.176198561702254, 23.153131649660025, 23.23593850397224, 23.258588470082586, 23.248376886399427, 23.23690994652802, 23.211267798974102, 23.19560449359871, 23.16152947430365, 23.123137232509933, 23.092190293197536, 23.06222110166567, 23.02581147316482, 23.00274325357033, 23.032329144654657, 23.159240479861918, 23.166143093998958, 23.195781563268383, 23.241281249636454, 23.255788559627955, 23.234518142074805, 23.236705897408346, 23.25775505902494, 23.287372972491465, 23.297112914726853, 23.26279531680973, 23.20780982129258, 23.2058500670996, 23.23462745419597, 23.190028836318643, 23.12291317675117, 23.059157439659415, 23.023375298536592, 23.003595326484398, 23.00185153157504, 22.988918903356815, 22.976254002763103, 22.982614847252005, 23.005652870007832, 23.053419715088992, 23.114882963882334, 23.19276240390519, 23.17263278125111, 23.101566345118588, 23.071407432994686, 23.08595038447201, 23.106258247439047, 23.134104256666845, 23.14263417239555, 23.092049672755568, 23.11956048470466, 23.185072691944086, 23.151412995013803, 23.114494889234837, 23.076353859887803, 23.046648585696673, 23.013906807025432, 22.992756545749312, 22.97988087747146, 22.966178030451022, 22.957027886210373, 22.95024741084025, 22.980774886382665, 23.055377429314955, 23.00870023230114, 23.090864086140613, 23.16133737129138, 23.167263589387744, 23.127050040657235, 23.117655662696336, 23.141786410466413, 23.163483718756954, 23.14739221155163, 23.08562427235441, 22.97310067448194, 23.044448790834295, 23.09559617357085, 23.074715940017153, 23.050488068454598, 23.04338030692791, 23.048266074339043, 23.043392732065342, 23.033225203739008, 23.01499927633623, 22.98483546274255, 22.98448409407457, 23.007468940589117, 23.064446960347865, 23.008913331075107, 23.08430968629865, 23.16882636922425, 23.21367030292338, 23.22660200908984, 23.21574817915986, 23.20329119726803, 23.204603289875653, 23.19170497413032, 23.14342074939802, 23.04624501766209, 23.09486847612793, 23.13150969328812, 23.101943632626202, 23.072321765278502, 23.048690614387144, 23.030554055690242, 23.01652120296913, 23.00568856441646, 23.00320328668241, 23.00441760691248, 23.000594971665304, 23.068802305669795, 23.17603544545733, 23.19866175324142, 23.27824438455289, 23.313041361079396, 23.303015954424836, 23.264905168237828, 23.251174494467662, 23.265092509534526, 23.29863618130199, 23.31250309397322, 23.26533536067161, 23.159326373850163, 23.144455692251, 23.19731230010552, 23.164340948527723, 23.130627727798828, 23.102671288423636, 23.082313192329362, 23.060612141548045, 23.04981658204173, 23.040271648016148, 23.021213017189137, 23.007275471393026, 23.085302655781124, 23.201640208849156, 23.242598003415807, 23.33481553003861, 23.36544108299738, 23.341597755306115, 23.299781523666855, 23.29828120011715, 23.337985908300073, 23.35806721667762, 23.34469465768215, 23.28886701744064, 23.17625199366657, 23.0252838222589, 22.93682486866597, 22.982419390849643, 23.059007349604816, 23.038239670576004, 23.023092002278975, 22.995625397496113, 22.97645038846476, 22.970306299056755, 22.971196397090782, 22.968607244068068, 22.970172034968872, 23.03817078083432, 23.117813799505186, 23.137455486279134, 23.046212670870336, 23.05330511962565, 23.08240508572399, 23.107376584971888, 23.126052915816498, 23.122590899521512, 23.091698457431644, 23.034559614989167, 23.099172644167812, 23.159326139321312, 23.113760202520563, 23.079403571777007, 23.053556875092706, 23.026802617997664, 22.993540284392967, 22.957627674965263, 22.924795476948162, 22.898529949052996, 22.88146315131925, 22.888916820624022, 22.92607529534209, 23.03654030541301, 23.225155026288377, 23.335589114538738, 23.40623848948007, 23.416645718732543, 23.34219722760463, 23.272396301791556, 23.277783217514777, 23.28758337743019, 23.27060956693417, 23.188977089918016, 23.078756777644937, 23.062508888270468, 23.10069525545806, 23.066261196720735, 23.049365082831454, 23.03555327560656, 23.016037135954132, 22.994728979798975, 22.986651904285935, 22.979047170022472, 22.96993535316119, 22.97536188951867, 23.041310249739638, 23.039452824622543, 23.14661249834781, 23.23227224600514, 23.271696198222575, 23.256279572153385, 23.21640217166986, 23.205433325483813, 23.22453939437666, 23.247560554690466, 23.2549151412385, 23.22206690396254, 23.123219019634234, 23.014878422929375, 22.91935488367447, 22.89398678647758, 22.942625971054337, 23.101190514450774, 23.108056711577817, 22.952189143760393, 22.85835201194156, 23.00533900775986, 23.047362187356907, 23.050077528941785, 23.062086283082603, 22.99773423619524, 23.01844527787308, 23.209121447182966, 23.201001038195372, 23.18616912663738, 23.15677607878771, 23.132103867952612, 23.141604898576304, 23.12008988669071, 23.064088834840135, 23.016570685382742, 23.109882999568786, 23.07798512847576, 23.05607869380591, 23.033622737225112, 23.021536084071514, 23.02844661740239, 23.020008615608674, 23.02694734204088, 23.02590929434084, 23.01592399268374, 23.01672211678445, 23.019688866978623, 23.084814185945863, 23.192097525591056, 23.192740320844152, 23.271274712306056, 23.30927491614732, 23.30760138282444, 23.270438954325858, 23.233002993219117, 23.174462637976664, 23.131241024232654, 23.139702515508066, 23.296293275741508, 23.282682919113004, 23.205657621710156, 23.116804004248667, 23.042530783990305, 22.990447499463826, 22.976229625266146, 22.97113104024687, 22.961463221722056, 22.952665736366814, 22.92838731176826, 22.89856226046545, 22.901398799465596, 22.906284927380707, 22.969473806521833, 23.077954605694217, 23.171317039364837, 23.124228612591256, 23.26759537417392, 23.31436491246343, 23.264530068492764, 23.219670167793534, 23.19685222243828, 23.17557618886271, 23.14843261459384, 23.174505225117993, 23.239044128470955, 23.197787081610073, 23.14324702308082, 23.091584441841743, 23.06006251199196, 23.03738781463149, 23.019131853477138, 23.00311783215761, 22.989595188921864, 22.97427856969328, 22.963521439070472, 23.021224043299814, 23.116878797553536, 23.15919006806388, 23.26372028480092, 23.316853699243648, 23.30647737673912, 23.27595919773592, 23.277580815943093, 23.30011016753645, 23.309295024508845, 23.299236560425697, 23.249613144449857, 23.128360322555952, 23.07928570471039, 23.160454406545558, 23.12605096455378, 23.092366831221998, 23.053059225262274, 23.02172966039223, 22.993184399854556, 22.97060354504136, 22.94780261509923, 22.927150345560648, 22.922218235107565, 22.99640868731419, 23.07288231840477, 23.17875221445415, 23.28318409786264, 23.33052309840652, 23.31837554560596, 23.28193909154795, 23.290399718150468, 23.322817786642343, 23.343901511710385, 23.336630961179782, 23.283208980081515, 23.16473910745796, 23.1122965287126, 23.20198111904931, 23.172993956983262, 23.12832312716108, 23.096144589510647, 23.072044123153535, 23.05409211647125, 23.030351691406906, 23.00585453697967, 22.98393290010596, 22.9947592486596, 23.06042798042834, 23.10797817486797, 23.143399596115117, 23.24537543613985, 23.326635740392845, 23.34790548952878, 23.33156401922604, 23.345497885377043, 23.372907662335376, 23.37226411850143, 23.3197240900961, 23.22142465224201, 23.11267684223232, 22.979615341498757, 22.9390557704497, 23.064012755926395, 23.04804740141366, 23.007466437047658, 22.990145342091765, 22.973878947149444, 22.95498890455177, 22.94614063594625, 22.945350455281517, 22.93010265754472, 22.944320605422643, 22.995243507071994, 23.031570776521743, 23.08151247179696, 23.060744155749532, 22.98433615133345, 23.023982373650373, 23.0638242682203, 23.10442439501259, 23.133807397075724, 23.14417163527325, 23.11043890560883, 23.0405427593971, 23.14341537396625, 23.125736470608853, 23.100665784048477, 23.089422157504504, 23.071778913507597, 23.04413788326954, 23.017912674430296, 23.00583048548506, 23.001242907505993, 23.002364412738434, 23.006030759285448, 23.04092750941412, 23.12273950755606, 23.123857100767495, 23.059482700260464, 23.121139526497277, 23.18549266112801, 23.220754206477938, 23.245772161673624, 23.282781973148644, 23.200327798282984, 23.052510883661526, 22.971176798755465, 23.051611310563644, 23.05894300009768, 23.02600961400351, 22.983473586529527, 22.97172975389171, 22.95183938616184, 22.93012793727881, 22.904923160297233, 22.905451349997588, 22.90095572164157, 22.88673600262108, 22.888434938462463, 22.89817548501131, 22.957418187444347, 23.023992845951867, 23.082365972200908, 23.136124211050078, 23.182370832400768, 23.22060491030973, 23.24990137093627, 23.275269747197097, 23.28369316806177, 23.27897498455482, 23.258433515685294, 23.226861417259375, 23.160641751225082, 23.104605583253946, 23.06144472901541, 23.035998136749352, 23.021224618794296, 23.003105945821947, 22.969099018635585, 22.94076743622612, 22.918998262362262, 22.8964622546153, 22.882313259035257, 22.954966868416324, 23.088648010633076, 23.16229416060231, 23.272539197312682, 23.324179741043448, 23.322468682360043, 23.292953474378162, 23.275571725087115, 23.285582555227325, 23.314635958849205, 23.322594369195254, 23.259673572086076, 23.149834747580456, 23.134810115910224, 23.184578343154055, 23.14321923608399, 23.096406723006954, 23.064582201646726, 23.043586551276444, 23.019565161110062, 23.001133064311418, 22.993760347550403, 22.97897035380797, 22.97064160777788, 23.040062944686003, 23.15525299349937, 23.246475635111647, 23.34718701147143, 23.39562856301941, 23.387611095546934, 23.333955654717403, 23.300802543049617, 23.31891698511555, 23.340474422026443, 23.32203430191804, 23.253431715244727, 23.134264149714713, 23.042675731814626, 23.138914178638004, 23.122344395648167, 23.09549728474738, 23.07609343909395, 23.039177597606486, 23.005851414712783, 22.99583506232929, 22.9847332901479, 22.970734752861816, 22.96461516800754, 22.983626943337296, 23.004311391066214, 22.991608219641474, 23.059933442792033, 23.11778655184185, 23.147877393952413, 23.150987940720963, 23.143862612052178, 23.131030949297614, 23.09699568475216, 23.051294930525334, 23.007522393926678, 22.960064741882775, 22.99692923318598, 23.059852279479315, 23.035398918973858, 23.00478369879197, 22.982916244375065, 22.96287476994583, 22.93755319522275, 22.91379123181119, 22.90176623801243, 22.896274021131266, 22.9037051505582, 22.919373711202727, 22.945369469927456, 22.95616657255022, 23.018639472337274, 23.044375415153947, 23.044420338022423, 23.033937553028256, 23.01581183142118, 23.00433709919641, 23.01316391856119, 23.1506403481318, 23.053146958118816, 22.93186018156911, 22.82306331092248, 22.89245932202459, 22.92870485958723, 22.919261573368928, 22.9144849110569, 22.91243030583479, 22.90733177833972, 22.88900508297233, 22.881600046243463, 22.8947639986303, 22.915970310605967, 22.924141494281667, 22.928347294676914, 22.99026465514704, 23.018677569985837, 22.950523278662146, 23.112871239811255, 23.146716440678432, 23.13494789381133, 23.08382153029252, 23.05718302354417, 23.072099833259617, 23.06786345435354, 23.041344010472713, 22.991739373009676, 22.974801990119705, 22.96593534525947, 22.955917868562494, 22.94393756805471, 22.93147455006877, 22.92924738185901, 22.94310649088411, 22.9489816273416, 22.946320068129285, 22.953961408413345, 23.012689289736713, 23.12414343982981, 23.122076309639827, 23.132209116001434, 23.181202767931158, 23.173530233551798, 23.125133358200728, 23.100936788316215, 23.103775235536386, 23.114048627284955, 23.129065974261948, 23.15907508001838, 23.255625265135095, 23.222100182783254, 23.178811602809365, 23.166899869941343, 23.14481133247024, 23.13530397079272, 23.13579574785308, 23.11007634682028, 23.062289039604195, 23.028355320844536, 23.033847969742215, 23.05018059890107, 23.077945436333966, 23.176274609487802, 23.269488390218147, 23.27726337230892, 23.2797236180797, 23.277091892921394, 23.26396420408338, 23.26347173718221, 23.287012785858824, 23.309743766577615, 23.313262854999873, 23.29324710699098, 23.251145368446675, 23.26136477737848, 23.227007146787617, 23.176367698367386, 23.13820620679215, 23.106276352026963, 23.068717356131568, 23.04141346517292, 23.025022357794686, 23.006375945149113, 22.981342600464743, 22.974398153765776, 23.037486265279863, 23.15930380799341, 23.209110137507466, 23.318605556838026, 23.36624703336774, 23.362363937290155, 23.31992526904249, 23.29671741109283, 23.309821965886076, 23.329999293086075, 23.33030205673083, 23.259637360946055, 23.138922643090847, 23.049716032651997, 23.149669083546925, 23.12345442088278, 23.083514483210354, 23.056808883377354, 23.020082073668444, 23.000167022657283, 22.987107043121124, 22.980460683407625, 22.97494284806372, 22.97199096424593, 23.039606637378995, 23.116774244000325, 23.147346068021196, 23.235347198119353, 23.31967172249463, 23.354033172281692, 23.348499759498576, 23.3553793339134, 23.380356210189237, 23.35834398132357, 23.301104250008553, 23.233444011606423, 23.138262875417578, 23.04490274662652, 23.150658812621177, 23.144782522961894, 23.099790146387818, 23.05715307940106, 23.041263232970536, 23.013748195810944, 22.983616593256126, 22.963127992710238, 22.959194242464992, 22.935206615080535, 22.91212296911243, 22.957359814920377, 23.02932698117868, 23.093801925850613, 23.132430024964805, 23.005070054689682, 22.93046723114676, 22.975991566575896, 23.126687053516008, 23.18659564211025, 23.224697934397934, 23.046789624844966, 22.931701334001122, 22.93519809863734, 22.985362617804302, 22.952747026764317, 22.93056351511584, 22.917718317897435, 22.94081228836963, 22.958142087339585, 22.948436287152237, 22.940027246222996, 22.969438315848077, 23.038702955593294, 23.142338504926254, 23.29852666521383, 23.365141204659285, 23.388487665401524, 23.414835125039797, 23.443925155425067, 23.476991424208666, 23.507599113535207, 23.51684785854563, 23.498275548856572, 23.41736893116435, 23.329204658769285, 23.29533664106088, 23.305754841224783, 23.270808550479178, 23.240426916185772, 23.227587899105377, 23.2248853837813, 23.232733417523374, 23.229077959168706, 23.23490994582903, 23.239507087880554, 23.228182206739362, 23.203899248155736, 23.197745978233986, 23.21214502891793, 23.2390460046912, 23.28884381147118, 23.34263639084213, 23.379988271528166, 23.388554890779435, 23.375728975996083, 23.342902599123125, 23.31904613633236, 23.291246996244123, 23.264249675596762, 23.234652721244895, 23.210804490563348, 23.18275763610285, 23.15205953983339, 23.100708560717308, 23.049655225200336, 23.015553034805848, 23.00723882669202, 22.992610932582085, 22.97984768074488, 22.957935350320884, 22.949105216837893, 22.968270045264173, 23.05490033571071, 23.11648745907701, 23.052753804688184, 23.07638954368949, 23.091602287961326, 23.108844227280173, 23.121058314252576, 23.135447452978344, 23.142467076335834, 23.109667119614187, 23.033313180857757, 23.01437739684511, 23.107628230550233, 23.08531097365804, 23.053385322913442, 23.019173120771015, 22.991137341311603, 22.971982565757248, 22.960360955250355, 22.935460045449304, 22.93773436157105, 22.92262655001726, 22.909935393128006, 22.971838166314402, 23.04098147251359, 23.143165854122326, 23.238990295329618, 23.281081962648155, 23.267411719269674, 23.21669274089271, 23.2053178033117, 23.221906915428338, 23.22730269137419, 23.193052124461005, 23.1078334195558, 23.166673877400715, 23.19825547563458, 23.13857124296187, 23.09109066067984, 23.047547846263623, 23.026717991439764, 23.01733623500591, 23.023465483539127, 23.01282355179447, 23.007535843706354, 23.009959524623664, 22.995914161801227, 23.003236303422366, 23.092219917024522, 23.212260636717257, 23.300489833518228, 23.34188110217451, 23.365626714773082, 23.388841009727468, 23.374849932078813, 23.34965966913966, 23.33028913393458, 23.304911972253617, 23.303864503519403, 23.350560457049443, 23.290850919632252, 23.24976470110713, 23.22067811592163, 23.19449247095942, 23.16674109622083, 23.13092172842636, 23.09903351524842, 23.074168953333572, 23.056362809794166, 23.056872232127777, 23.069722949770448, 23.112821874276595, 23.202025533271396, 23.22419719363087, 23.236907716075716, 23.306791337355047, 23.323113991441556, 23.29118789016388, 23.281791587414308, 23.29226606025794, 23.273970471011328, 23.2207242990831, 23.136696036068628, 23.039478340567474, 23.04480103535406, 23.107720325524927, 23.076773372772973, 23.052005568975247, 23.023709260805546, 22.982003107770847, 22.958651605664652, 22.955438597739313, 22.942980327929188, 22.924777255833877, 22.914566055463002, 22.954498509828483, 23.04154177942785, 23.15389296709714, 23.310746271367034, 23.404033270761246, 23.429257795116925, 23.40470899118826, 23.386910878627504, 23.39905781820944, 23.394262771168183, 23.336310255730236, 23.244554158461316, 23.15038400800225, 23.056514459437878, 23.154134651102236, 23.134260629233022, 23.08860286151644, 23.049742445051034, 23.019169333589655, 22.992336288077016, 22.97286946639325, 22.955555579113163, 22.93853438809029, 22.935855314559873, 22.99483735961807, 23.107916854313277, 23.199232720236623, 23.32175109119896, 23.39479590888763, 23.397337195286255, 23.357186541991737, 23.342133993475972, 23.353332265189916, 23.351952898659643, 23.30326651424478, 23.21777601801338, 23.12074688714274, 22.988059856690523, 22.92036980347906, 23.063655863656944, 23.07791499733291, 23.04508422768043, 23.017529089947562, 23.014075249674566, 22.97529039274913, 22.964206718311004, 22.952068993343605, 22.962570181105466, 22.984641169060186, 23.071706306624666, 23.005369112037354, 23.035774719663426, 23.094827473150563, 23.11601599608761, 23.076591152394503, 23.02723237786726, 23.008114107182895, 23.020584520143814, 23.053273207882523, 22.99818129850057, 23.01938321151633, 23.09471832702184, 23.06001208445709, 23.028811703791433, 23.01396144977691, 22.990137525922126, 22.975937166288293, 22.958677902848194, 22.93801316786897, 22.923224298077884, 22.9189721510659, 22.906112794064757, 22.96397624992026, 23.03716370604442, 23.09493178586979, 23.208852036374953, 23.285405844984723, 23.299437702406564, 23.26294643335646, 23.24285151379645, 23.246061009415612, 23.254425925627128, 23.23591711500723, 23.15798786214422, 23.030750545875634, 22.952110390098937, 23.079581422756007, 23.09128423118781, 23.077493969234215, 23.05825992602553, 23.029236641784397, 23.014028581974333, 22.984404424494002, 22.955897358454774, 22.939001304922982, 22.928508009144263, 22.985061578902616, 23.062147187167426, 23.212997505562132, 23.34797041051944, 23.421375910014252, 23.433604033825493, 23.4040701081132, 23.37779713170786, 23.374474561915033, 23.379038380317883, 23.362714383781068, 23.287688360633183, 23.164425393498306, 23.015037836724584, 22.923595853949422, 22.914050793334805, 23.048004903731734, 23.039144914010496, 23.02256560506734, 23.008512136728754, 23.001425388000914, 22.989385848517674, 22.97610175573034, 22.957352128100265, 23.015948271349057, 23.08995896335529, 23.203997986331714, 23.347103397078282, 23.434482425347323, 23.443317599394764, 23.408373761068788, 23.39456212311093, 23.385975758922253, 23.341108096142012, 23.23202559562529, 23.123144285265244, 23.057190801371874, 23.072888896650493, 23.129961116208225, 23.10447794413206, 23.068215574900545, 23.02357852886999, 23.002204538193556, 22.977375364846456, 22.95828244680202, 22.940308713663015, 22.92684676381097, 22.930500285736773, 22.944019989911997, 22.932685326717003, 22.899012341679995, 22.966263897502255, 23.05075499202833, 23.11594704922614, 23.134722839329186, 23.118798647687623, 23.059170667144297, 23.002164527969427, 22.95711950925592, 22.990389051329732, 23.09837956102686, 23.06767909280957, 23.016756077985608, 23.010886888820334, 23.004611797477484, 23.01703615114896, 23.02654082936803, 23.021649087922913, 23.017796198612945, 23.03852710484632, 23.052963472900032, 23.063707871524475, 23.11700148490658, 23.178286374302388, 23.170757822813716, 23.212437159659373, 23.275876238965612, 23.24622841872463, 23.19927914880023, 23.179532473787873, 23.19262881630435, 23.325319836460654, 23.366253036280934, 23.33799492892925, 23.26970489126366, 23.165626572480473, 23.125387437194757, 23.12857466880165, 23.146259921525143, 23.203997148947934, 23.25470057767893, 23.292183442488874, 23.301124445766025, 23.26459999677103, 23.242311284627224, 23.242366299021526, 23.26113901710654, 23.282700745628492, 23.26532461645766, 23.298934405308234, 23.28450959589396, 23.274368160360186, 23.29291055139332, 23.33555812916859, 23.332832030871813, 23.292579931090344, 23.24700893884305, 23.197332407083227, 23.236463472405813, 23.25709619352861, 23.237952798352115, 23.226062148223132, 23.222541277204176, 23.243803470983938, 23.247323065735102, 23.24505064386359, 23.259407990959392, 23.270278204001798, 23.277624880520893, 23.27202634049199, 23.32416231747359, 23.372233784836297, 23.39773741186777, 23.40577604406057, 23.389456983827653, 23.371702281826817, 23.35558595478769, 23.359269591268873, 23.42290725175148, 23.525096164744795, 23.548871150129255, 23.47940815460812, 23.397180787600693, 23.31676274448333, 23.249659555874704, 23.182396247692044, 23.12086256749507, 23.087679193619092, 23.061686596841767, 23.034482825864348, 23.017668060688568, 23.00667857412905, 22.99142645269745, 22.99004521688114, 23.02741849824282, 23.142987276552333, 23.171694583107822, 23.2220213000011, 23.270655842193843, 23.26870171160678, 23.22450504907115, 23.190739038644423, 23.192571274372483, 23.202110312565555, 23.181001832704055, 23.098307075615722, 23.066262391552474, 23.15489565330596, 23.119288608049796, 23.08877232462179, 23.0588492735986, 23.02851061512838, 23.011868814593893, 22.997344626017593, 22.981058226317575, 22.96628731156061, 22.95463493505814, 22.951215734852283, 22.96530700371675, 23.050444507635632, 23.048119236006954, 23.12975472469917, 23.166601919586807, 23.170257954806804, 23.174812468639857, 23.176413770894666, 23.1736641050</t>
-  </si>
-  <si>
-    <t>[23.54350410756499, 23.541710863703248, 23.542249210088652, 23.533109241469976, 23.51771155165008, 23.50958712789304, 23.525588879503573, 23.6307231260149, 23.68883539022201, 23.680703860285096, 23.71187245853317, 23.714211344853315, 23.686435988285712, 23.70038946410611, 23.738312939793655, 23.775425171879963, 23.782210198739538, 23.734484683672793, 23.653710609508224, 23.643426367626716, 23.684804992467992, 23.640876307879154, 23.593569758265673, 23.562385543571867, 23.543227159590046, 23.50993861044542, 23.477673756245622, 23.452508676143186, 23.435224350124116, 23.473234060074606, 23.574835318891516, 23.654558309314513, 23.73438331106063, 23.834255313878014, 23.913036005839235, 23.975468242099407, 24.032777540759056, 24.087658716284437, 24.131536921600524, 24.173613747898653, 24.25091573574471, 24.24023383511536, 24.087705332517306, 23.830707283382896, 23.704707921975864, 23.636401507157746, 23.64573690581908, 23.634759875622052, 23.594802398005086, 23.550730775394527, 23.523340450539184, 23.505819954936996, 23.489483282838794, 23.519960367727748, 23.570371873141138, 23.663251320868188, 23.716442701226143, 23.695055432786603, 23.68916809696734, 23.69144526643242, 23.69382415040654, 23.698452475441915, 23.6928981799461, 23.69914913192402, 23.697548455617266, 23.79775651905366, 23.814108652691278, 23.75131297729429, 23.7022567434734, 23.658713716182366, 23.62670162854006, 23.582392504784252, 23.55439585617691, 23.53958021546627, 23.528716834488804, 23.514651640835385, 23.488904010837285, 23.462966841861107, 23.481650406422528, 23.53516072870414, 23.51132465961837, 23.61828085362389, 23.717849672058573, 23.751926805567027, 23.731567005660455, 23.742733097642724, 23.732212797322457, 23.710617288970017, 23.686933575711652, 23.618933865882493, 23.5011411104438, 23.4900513641487, 23.573319737945592, 23.559740158128104, 23.544240669058652, 23.53157475951817, 23.50905105204267, 23.48537280000089, 23.45654408484788, 23.439054075012663, 23.432440567992142, 23.44872356833388, 23.524208821029095, 23.634664789147106, 23.612208328098742, 23.603400736289277, 23.604541187379567, 23.571152152448395, 23.534984261160464, 23.541962138217986, 23.558063296579466, 23.542325045968823, 23.492369670595398, 23.582668040524382, 23.61018019296338, 23.563248246872423, 23.514285205954838, 23.474076534317344, 23.45044136734607, 23.432708173697097, 23.418762514446957, 23.40945710360192, 23.414287112318203, 23.416589231956056, 23.40798598208835, 23.408751523073807, 23.463194893851725, 23.59627132454899, 23.625843484955894, 23.580692300457613, 23.58320373799972, 23.561798618693803, 23.603838925969143, 23.810933272741426, 23.85361702252423, 23.84141254318177, 23.812154502548665, 23.784626989464403, 23.739044854277065, 23.70159351125444, 23.68026381137645, 23.652873591582964, 23.638225344469618, 23.641950993176494, 23.63011941126376, 23.599413484795207, 23.58675012227396, 23.580943189370142, 23.543299519090642, 23.557477956493788, 23.58879212321916, 23.665038497020834, 23.67493242971871, 23.665209948732024, 23.67982398733513, 23.66403125295943, 23.635052962877136, 23.642648512632018, 23.677676772094543, 23.71638481411547, 23.730509911448976, 23.70413101840568, 23.662727798087825, 23.719909695853932, 23.704711430743927, 23.65545093553914, 23.6368747547771, 23.609221466391876, 23.58451235604873, 23.565312201974354, 23.550647477395845, 23.540174748494078, 23.53265518185326, 23.546708720096134, 23.59453701931567, 23.693921829461804, 23.70064898792704, 23.766163316806658, 23.809617384016438, 23.810930803122677, 23.79435992184027, 23.7898355548765, 23.801487250849842, 23.76493033680032, 23.727725978730764, 23.68496395684707, 23.639562804631534, 23.639840687216772, 23.74834385867447, 23.674270563754558, 23.5907708286243, 23.541355820000007, 23.51654290883528, 23.499483899673837, 23.503984612723105, 23.494129457155648, 23.48297981077815, 23.523228036422562, 23.61343261670667, 23.80942768133671, 23.8786147836382, 23.91423703508296, 23.943842418783976, 24.007808561263033, 24.045084420753266, 24.04412750642882, 24.009041023101517, 23.97248834235667, 23.93429814583209, 23.87046954749106, 23.76766899648382, 23.710086399575037, 23.716747217665972, 23.668269556715913, 23.664722738515177, 23.802464379102105, 23.94657069249743, 24.038876339605903, 24.092757726024022, 24.128271488094242, 24.152853177423875, 24.191453987641065, 24.256112651482557, 24.30834895722963, 24.30326035867922, 24.286007083245853, 24.257903676123373, 24.22157683505751, 24.19462319303913, 24.193481162688148, 24.19895209098338, 24.174289950672676, 24.121563037832185, 24.072611310925613, 24.029758027803187, 23.91956225695488, 23.84968822820153, 23.789626310382662, 23.720646542771288, 23.657355899184154, 23.62151425324802, 23.598354354574315, 23.58445008942896, 23.569559137106584, 23.5736848600304, 23.607509033850093, 23.688766998920556, 23.814607810835998, 23.84157574510969, 23.882998985224248, 23.93427837650168, 23.992294088164318, 24.05621428739394, 24.13262651971459, 24.136581613016137, 24.105449644932822, 24.05295457140146, 23.949808561104252, 23.84362029767011, 23.72699323428222, 23.739105773090714, 23.744580546722585, 23.685718091156858, 23.628149741171523, 23.603522880890676, 23.559284176354947, 23.534034777018714, 23.512467282524184, 23.500508552537923, 23.512288780238922, 23.60325538742497, 23.674153163918266, 23.690821179774783, 23.77188506422193, 23.85841374009868, 23.973452895808588, 24.09913998104581, 24.142791224612154, 24.146023696310106, 24.114172085529162, 24.078727828195337, 24.05538702216876, 24.047318275330152, 24.06540449798965, 24.101738173790142, 24.131605667383102, 24.088877633359413, 23.903062249233418, 23.79925136648242, 23.684386166800934, 23.605596469546963, 23.57150674031044, 23.559701512523464, 23.56702419731798, 23.640910799699913, 23.650477129852845, 23.6189065521481, 23.662523122819213, 23.678675055703824, 23.660889896299164, 23.635616172613453, 23.637052134907616, 23.654009957891912, 23.62865011533371, 23.607739538346294, 23.729255824993814, 23.722534436479716, 23.682549177444088, 23.648365229808416, 23.617791225126435, 23.609682782242427, 23.586646436590367, 23.576826823366826, 23.561854760896306, 23.534169971829247, 23.514644641813522, 23.492051453396055, 23.500621251731545, 23.59251813320576, 23.69071736011573, 23.71302559356978, 23.786121412442128, 23.820523688495715, 23.810886334102367, 23.778695932013036, 23.770430444620306, 23.79336055400766, 23.797697759913138, 23.749244608491207, 23.6791511202152, 23.578601204943528, 23.582425589693262, 23.645503796485926, 23.609432697012632, 23.570828431589963, 23.542956661100593, 23.518250953049787, 23.494827858085102, 23.469962290790757, 23.461818968484497, 23.463133887973893, 23.460176640272554, 23.507877505418406, 23.52011510092653, 23.601792999150366, 23.693547132181596, 23.748153183707398, 23.76160381730712, 23.752037341382565, 23.757520458036083, 23.78253869782648, 23.78630117389011, 23.715060084662554, 23.60676590886186, 23.511222982999758, 23.49470830822278, 23.527962766904267, 23.489306187568094, 23.474695277149365, 23.450393674948188, 23.43201895799923, 23.424386581091806, 23.40132830465625, 23.38945275834199, 23.37904824085493, 23.37235544974571, 23.3770870928053, 23.45274496479642, 23.487858003017084, 23.381273511635936, 23.40409471786026, 23.41617000802803, 23.43955534911088, 23.47195157400132, 23.48167687686095, 23.47809463296078, 23.454100364392232, 23.414345171893647, 23.385562292068652, 23.41880080024932, 23.487718236120497, 23.461979165842564, 23.44541389365253, 23.42128863116986, 23.392101864536993, 23.369333551663946, 23.366647788336618, 23.355636708998613, 23.354250769841755, 23.36117024043152, 23.3697605020071, 23.45294307827359, 23.552575051255616, 23.648009990950282, 23.701133289343062, 23.73793746806493, 23.74252651225291, 23.741549101941146, 23.73693006983569, 23.722027584007503, 23.702842473794448, 23.670921444443824, 23.636958111103954, 23.577201965708426, 23.555591056026813, 23.536843693300586, 23.499677628074746, 23.451780421590872, 23.437888160692136, 23.428159184063116, 23.429347778519368, 23.438982944147053, 23.446229318927735, 23.484825601288293, 23.495897768658224, 23.527790898334967, 23.520776856267478, 23.531560769583745, 23.542907614049792, 23.565861869347376, 23.631120399813085, 23.706791625200236, 23.709606016028733, 23.687087659723165, 23.7164033524101, 23.73729480808571, 23.800066135650905, 23.748045615883488, 23.717744526312856, 23.665661886971492, 23.6010619232437, 23.542849685294968, 23.50150577639268, 23.487738377551604, 23.466401095267273, 23.445164188344517, 23.42766808267163, 23.452284477008366, 23.51868374151245, 23.619598800623738, 23.68239303235407, 23.64738363497804, 23.658553621897976, 23.729132307868863, 23.84030515890016, 23.937439038155997, 23.981715929378325, 23.992730849116267, 23.95783238137014, 23.908383097626785, 23.833959161560696, 23.776519756528803, 23.690386492079483, 23.630263143096172, 23.5810311435069, 23.547826014499677, 23.519732724654105, 23.502056781080224, 23.44942308490633, 23.414244277980018, 23.39163955788479, 23.396347881606516, 23.476960198901285, 23.529227063502336, 23.543113932041205, 23.604993089730613, 23.62745279431854, 23.61908306800674, 23.580783879156115, 23.579679680973555, 23.604303511929995, 23.59557979350183, 23.547126393822968, 23.61836159102273, 23.687475497135704, 23.64202695689225, 23.601804605677426, 23.572913042874124, 23.54864658663297, 23.513682960296666, 23.48332670576301, 23.459619627474414, 23.43802205058003, 23.42645324160775, 23.423099703448088, 23.4423047352455, 23.492493930162258, 23.567735119274076, 23.52782979546073, 23.571996732791963, 23.649320350208047, 23.685051677551, 23.684408792330814, 23.696624737249437, 23.731969625711013, 23.7543015443988, 23.749514812754597, 23.704910154990074, 23.59719907616685, 23.58973959583558, 23.652020605723184, 23.62026691781821, 23.588463737724066, 23.576227172986638, 23.545241082858457, 23.517507452351747, 23.497951363012223, 23.482129750376345, 23.47594816207297, 23.47884198791022, 23.497430522552687, 23.53072588245934, 23.499919040742856, 23.56795300073811, 23.579466413513614, 23.58014274399372, 23.610357636032493, 23.628795882701137, 23.63453266536877, 23.616445181839154, 23.593715208842344, 23.568621207427118, 23.677041122237473, 23.615537694197883, 23.53169525976527, 23.470137179774564, 23.415378667553323, 23.37563678107439, 23.35170527802138, 23.34226305001995, 23.3439516829732, 23.339909551549994, 23.371216075889638, 23.406223022334043, 23.425315427960726, 23.493677932395926, 23.559785205647156, 23.62839815902086, 23.67585071759508, 23.70093755321577, 23.70751745524611, 23.748887203397427, 23.741226693041288, 23.721762555391905, 23.67610209901144, 23.68072408364429, 23.66589341333024, 23.596589338539335, 23.50904467534159, 23.427273380704083, 23.395083801209665, 23.39876031187678, 23.42185750902056, 23.42722551427215, 23.43860503102857, 23.459967998205325, 23.48112501849643, 23.519774143802152, 23.57569103201003, 23.67405391235138, 23.73742179552704, 23.77003762524235, 23.800315826175524, 23.816268374622698, 23.82657895704152, 23.802284612153088, 23.74077570216102, 23.685107462937804, 23.668437334038572, 23.651373221604942, 23.751922930454185, 23.752900807399296, 23.74925640976451, 23.729710485336728, 23.703638551782138, 23.68864533115907, 23.65428793603276, 23.616003224869587, 23.584845200769635, 23.554739586888015, 23.517909140329014, 23.494502789622867, 23.52097387678373, 23.645622343055305, 23.670768660850683, 23.672841094740658, 23.71732813625724, 23.732781017623566, 23.711084850908318, 23.712676873351786, 23.734180207379556, 23.764687792186397, 23.77560451522253, 23.744524620453006, 23.69331393386244, 23.690996517543297, 23.715449053550895, 23.66876956456602, 23.60062662391519, 23.53794853536827, 23.49981232961837, 23.478784095014035, 23.47207459595172, 23.45772575715593, 23.44438873613346, 23.45089498396879, 23.477624363859587, 23.5218822154324, 23.584331686618594, 23.66683641644629, 23.67127262228441, 23.59864393792043, 23.558132226724922, 23.557429436240266, 23.57732586813303, 23.60583132509137, 23.615174451670516, 23.564296129510407, 23.595528087162318, 23.6615363558321, 23.626733872756926, 23.590072416157227, 23.554627352703477, 23.52342329745788, 23.48927591252054, 23.46700064013937, 23.453372242823093, 23.439005528272855, 23.424865889286238, 23.419064113269286, 23.448766883490404, 23.53623550457851, 23.497539674434847, 23.560592249014377, 23.633790995190463, 23.640956304699117, 23.59956661620831, 23.589404817944622, 23.613817182777826, 23.63617411386794, 23.619906596961467, 23.556804101620653, 23.4946823517911, 23.604521100326252, 23.582546478636313, 23.55185169362844, 23.524230574569405, 23.518333342262626, 23.526733872840342, 23.521200703380128, 23.51041630857461, 23.491288709703515, 23.45973375012852, 23.45888869596287, 23.479765804741003, 23.53257611890872, 23.477245852532594, 23.553250270548006, 23.641179388789464, 23.688137632321656, 23.70193099087042, 23.690851488331266, 23.6778346972245, 23.679283228946733, 23.666654559484858, 23.617379618605607, 23.5278383187285, 23.61329040584511, 23.61483076482229, 23.57870208525615, 23.54699803129955, 23.527059825102864, 23.507657321159538, 23.492816617032933, 23.481254773558433, 23.475021651803562, 23.47397939619816, 23.47112137697121, 23.537899371033177, 23.64627170109311, 23.670890720055088, 23.753813829580015, 23.790706870380415, 23.78156417478216, 23.742657551123116, 23.728005632277455, 23.74201676460609, 23.776468730480335, 23.791191897106547, 23.744016729049633, 23.639176190955904, 23.624743331861506, 23.67474508805, 23.640257369926797, 23.605132991948352, 23.57608220891298, 23.560735155932647, 23.53878789363644, 23.52567092043321, 23.51133711523632, 23.492010908320168, 23.478227390786383, 23.554401275472376, 23.672880371198687, 23.716206791659975, 23.812356728620642, 23.845228799310537, 23.82177127156081, 23.778770699643758, 23.77639309215624, 23.817110214709903, 23.83792469347154, 23.8242826286734, 23.767578019726283, 23.651733478009987, 23.496777871921257, 23.403054273095506, 23.450067401869944, 23.52844901674, 23.507119745499256, 23.49158408526677, 23.468452331243487, 23.44811253382181, 23.441743800728393, 23.442900930373963, 23.440161774096932, 23.441273021985577, 23.504012781810303, 23.586857720387204, 23.629560023616843, 23.538352364864764, 23.522184681834403, 23.551865296273093, 23.577674705967606, 23.59680957208484, 23.593624308466232, 23.562387413692218, 23.503637168133405, 23.5707981261221, 23.634220798852112, 23.586877491302456, 23.551021360454076, 23.527866792317656, 23.501904401467954, 23.467017453903846, 23.42956932441493, 23.3952242088254, 23.367764928073, 23.350284445984368, 23.355318422305686, 23.38809978455319, 23.50090515401286, 23.697582048047696, 23.812921611328008, 23.887551565452654, 23.89993569689595, 23.823683933683935, 23.749595284870328, 23.754478552319124, 23.76453302590002, 23.747699811917304, 23.664522281518003, 23.550668084321156, 23.534300028691742, 23.572675749011307, 23.536835687359943, 23.51929516872441, 23.504783744827833, 23.484642639591186, 23.46266613008494, 23.45695857069843, 23.452003062692615, 23.442142076014147, 23.445688178973786, 23.507615379210687, 23.506039251730424, 23.6169183208158, 23.706289355325513, 23.748113079057248, 23.733514961270714, 23.692311151469195, 23.680233110271576, 23.699526214931993, 23.723147980215646, 23.73105775563937, 23.698292943682173, 23.597179002612293, 23.48452911673962, 23.384733716581778, 23.357981001999534, 23.442021752556034, 23.58616806870526, 23.584873180840663, 23.478479177484996, 23.298753931310117, 23.264657210289826, 23.253176995660567, 23.23497696518679, 23.25805930695981, 23.460597236875174, 23.663708193402403, 23.712109730129033, 23.673617510304847, 23.65839387141973, 23.627622771194535, 23.601453471236116, 23.61122707830735, 23.58940710762981, 23.53211531232616, 23.483556907337586, 23.579843500608792, 23.546963320639332, 23.52396806804562, 23.504522884162586, 23.494107449918683, 23.501500048186518, 23.49049823630838, 23.49457275200488, 23.49383710559252, 23.484021576121766, 23.48547371030246, 23.48884086596431, 23.554066600709728, 23.661472772547242, 23.664306987369145, 23.744820493238976, 23.785276387933717, 23.78450780285634, 23.74797833955401, 23.71380360062103, 23.65843513152814, 23.617339972077875, 23.65554362306976, 23.78955836648248, 23.763703113276502, 23.691876842778473, 23.604342440979497, 23.524675378915635, 23.463872724962584, 23.445732749031695, 23.439309559740888, 23.428963344668816, 23.41960531109549, 23.394296846890636, 23.362834380001583, 23.365079897527142, 23.36954398041253, 23.4334520979227, 23.542949276669415, 23.65074208930623, 23.618199383494584, 23.74604268978871, 23.791595961540338, 23.743100070825786, 23.70117749382192, 23.68103336267399, 23.662271796992073, 23.637451014838927, 23.662436781625576, 23.72126033089658, 23.686132951795287, 23.633070962959852, 23.5773914753633, 23.53628091706584, 23.510241309892095, 23.49046560226533, 23.47340857448133, 23.459312110770444, 23.443103666265262, 23.432611719584106, 23.490447920099445, 23.584484566123546, 23.62910348289702, 23.73811492818216, 23.794280555634312, 23.784823302570988, 23.753383208953736, 23.75447493639774, 23.777626067195996, 23.787213437443555, 23.777189966901815, 23.726848876533797, 23.602583494594985, 23.552685340617547, 23.635267229303142, 23.599840508479193, 23.565027295570953, 23.524135589883752, 23.491421908011564, 23.46528818971885, 23.44352586701079, 23.419774261678523, 23.398138317894407, 23.390324502012948, 23.460399420551326, 23.538446633804778, 23.649486920447956, 23.758347438196385, 23.808647249270617, 23.79735960820457, 23.75977311218378, 23.768134342592486, 23.80125033710098, 23.823052154485776, 23.81594708741494, 23.761618465223595, 23.641128230364775, 23.61971715658535, 23.693473322490362, 23.651821100504332, 23.60347096298624, 23.56927704159318, 23.54399703772653, 23.53107877177649, 23.506592011260636, 23.480798435665452, 23.457733938008044, 23.46739789302421, 23.527855541294453, 23.576579457286584, 23.61392725756859, 23.71946349629286, 23.80449722544442, 23.827745981278586, 23.811214230348714, 23.82541542616917, 23.853682811563445, 23.853339645509546, 23.7997547322468, 23.69841172742566, 23.58609638362668, 23.449505456375814, 23.476074718207574, 23.55724574397222, 23.523016351783735, 23.478166220627582, 23.458851824361176, 23.441152602720255, 23.421145917763187, 23.411620704987808, 23.41061694806422, 23.3944631824277, 23.40847425266669, 23.460816907250152, 23.49871916951054, 23.549421491919404, 23.53019683955172, 23.451397966983677, 23.49105839350567, 23.532450666133148, 23.574480971082625, 23.604841998550693, 23.616051994948723, 23.5821501979318, 23.510768443025952, 23.61656226772955, 23.59829996831294, 23.57239393667597, 23.56069875669239, 23.543124740998838, 23.51967792745188, 23.49267987861501, 23.48009157491173, 23.47502594988008, 23.47257767068359, 23.476510441670058, 23.510882269135337, 23.592268130250023, 23.620599964226887, 23.545797742526158, 23.59249100669723, 23.658925651688506, 23.695808933178526, 23.721967701018812, 23.760325794153328, 23.678521281756034, 23.522247534270505, 23.456375460457043, 23.550605514057718, 23.53331520046385, 23.49613585492092, 23.45257327578149, 23.44417631740662, 23.423346794431183, 23.40060246239142, 23.37348256165826, 23.36817746315461, 23.36384478334112, 23.34827508865736, 23.349630508039535, 23.35944691694297, 23.421249600892583, 23.48838407675203, 23.549269356171905, 23.605328931398642, 23.653600526732003, 23.69392195478319, 23.7248880631677, 23.751781195982584, 23.760959212395907, 23.756781370641715, 23.736369326906033, 23.704289129962277, 23.64162266981178, 23.586720723098225, 23.53522245091429, 23.507664031562502, 23.492386656980088, 23.47365969738873, 23.438470745238934, 23.408852645377863, 23.386004617394452, 23.36270181750794, 23.346839901731016, 23.420118849198204, 23.55395619588425, 23.631808663788263, 23.74684695061772, 23.801503211552838, 23.80094658850776, 23.770843601532132, 23.752895251306455, 23.76320722039892, 23.792688559726127, 23.801702417174894, 23.73801907042665, 23.629870918640346, 23.61521472672627, 23.661972597775843, 23.619073041214502, 23.570330380490706, 23.536879516505394, 23.520690119132748, 23.496009044703005, 23.476511273579842, 23.466049320229974, 23.44750611126635, 23.44105512393104, 23.507305448832437, 23.623697194780604, 23.719505059837854, 23.824585324435848, 23.87584456695335, 23.868882458804592, 23.813889044939202, 23.77969951354159, 23.79766235773475, 23.82007586251078, 23.80167970094425, 23.73118613287656, 23.610474182450584, 23.5157740176812, 23.613462645403946, 23.596122997020668, 23.568409159205018, 23.548343689629075, 23.509981556662535, 23.475282960785723, 23.468255549875483, 23.45842809370677, 23.44359929426194, 23.4363048063682, 23.44992877924327, 23.47081075239046, 23.45723447395292, 23.528396452148083, 23.588484324282508, 23.619949032081, 23.623539872197814, 23.616675888771066, 23.60355809246495, 23.56851523215401, 23.52111424950526, 23.475873977004934, 23.42651926802593, 23.465618095361844, 23.52980874563458, 23.50460516604393, 23.472583433882324, 23.450029404935293, 23.433701867196035, 23.408410176578105, 23.383626321737733, 23.37072862194438, 23.365118562619248, 23.370503648868663, 23.38657489930316, 23.407717223538118, 23.419798987396813, 23.48514155432291, 23.512413156626618, 23.513100246704557, 23.501837326525507, 23.482675207475154, 23.47114919709379, 23.480378533082074, 23.622553194875337, 23.52672118666156, 23.40812304201893, 23.32896905891001, 23.404740151741777, 23.402715289513946, 23.386353421135794, 23.379692626274448, 23.377013131978362, 23.370948764482844, 23.351732843655483, 23.343575869661958, 23.35705234862357, 23.379190719146163, 23.387262942085965, 23.39246608446265, 23.452398196004054, 23.504429005117128, 23.384605939197808, 23.381845870390915, 23.55257585155184, 23.448962151001066, 23.31930046617042, 23.248014584605404, 23.2467979304256, 23.225508057320443, 23.2735130972445, 23.377986244112122, 23.40446221277453, 23.40908924090292, 23.40539635612191, 23.396687361227844, 23.38564474554448, 23.384927425816347, 23.400831552650732, 23.40840344178768, 23.40678190914103, 23.4147652347262, 23.476173276815178, 23.586378808710844, 23.590337951522773, 23.600543509477735, 23.64892132932928, 23.64264773490662, 23.598322914781672, 23.57894590898312, 23.58596607801267, 23.59847576196962, 23.614646523318154, 23.67209833763866, 23.74959540929005, 23.715485798302158, 23.673936248141896, 23.65823193559559, 23.63665203879027, 23.6275406334977, 23.628816713347522, 23.602584767319843, 23.553898489764617, 23.519837985176736, 23.526369170888277, 23.54352718134089, 23.571574357974896, 23.66277625722982, 23.76296232641904, 23.776333943132144, 23.777054265840636, 23.75734800011982, 23.742514191118726, 23.7460175947337, 23.772983129909495, 23.79830531009452, 23.802060383155634, 23.78458691240193, 23.751391496842327, 23.76113918179963, 23.71673712677381, 23.66611331713823, 23.63112115273786, 23.59870632265586, 23.553356927568966, 23.516471333164464, 23.49767714019815, 23.47747288855822, 23.45449636161007, 23.4491574978713, 23.51025276621047, 23.628848752393967, 23.680920940340613, 23.794683395623696, 23.845180961246825, 23.842292585789625, 23.799004954610336, 23.774438937579912, 23.787673955742438, 23.808259396606577, 23.809049463711897, 23.73705408280496, 23.61267876157126, 23.521960518336886, 23.623275396161816, 23.59579388712822, 23.55440377696473, 23.526542074766656, 23.488516926645968, 23.47049185450436, 23.459614768297246, 23.452553288599457, 23.447147962051986, 23.44262250152504, 23.50504484923064, 23.584380748771725, 23.617364391497528, 23.708479640832454, 23.796771954370943, 23.833521186716116, 23.82818600785751, 23.83496585957818, 23.86089053377216, 23.838784674624332, 23.779706059670616, 23.71041499623989, 23.611887642684696, 23.544399133831742, 23.645723693495615, 23.621878818743607, 23.573414526520924, 23.528144517752676, 23.51087124037137, 23.482188733908316, 23.45381203672176, 23.43433976474905, 23.4263744582918, 23.401543058793667, 23.3785579997553, 23.42021064453475, 23.49403010154377, 23.56104721933607, 23.613838804464077, 23.50480090632743, 23.40583450231239, 23.511915255424984, 23.618577452022148, 23.66224487407854, 23.699530923266597, 23.518476541755703, 23.42109616986171, 23.506351412699328, 23.472172127173923, 23.429131210744703, 23.404488752388517, 23.38918460233886, 23.407044190857466, 23.425463061537034, 23.415925073497096, 23.407565878775358, 23.44177068703769, 23.518934128529832, 23.62914217759329, 23.786486350478473, 23.865860627453888, 23.888234210912547, 23.913988729248928, 23.9426445964877, 23.977429056288766, 24.006977097290658, 24.01462362543207, 23.994551157253184, 23.910972717486754, 23.82264458127857, 23.787247609476356, 23.793120623367514, 23.75718244252488, 23.732151623822887, 23.726014804977655, 23.719369380469743, 23.726075732985738, 23.72284948151166, 23.729458243082465, 23.73462527882208, 23.722914425179848, 23.69803752558087, 23.6915872185302, 23.710860341257263, 23.730446750749007, 23.771974224143857, 23.82369877641815, 23.86316286105711, 23.87273554212436, 23.859911404113163, 23.827672366277625, 23.80603429053018, 23.780341639745078, 23.757353146354664, 23.73432207908725, 23.70456871489984, 23.67439221280249, 23.643780919201447, 23.590972272203512, 23.530032221934935, 23.48998996946084, 23.47960728837981, 23.46361124749127, 23.449754290390647, 23.42644997302447, 23.416596642362233, 23.439982324646166, 23.522123962052703, 23.58714007785977, 23.52428373145486, 23.54604533779769, 23.562353732558353, 23.580278074347735, 23.592644094183296, 23.607309725568896, 23.61473321563501, 23.581431146918735, 23.5029818810246, 23.52486216280258, 23.591036149140322, 23.559535342697032, 23.52493162186993, 23.488881856036866, 23.465131652584102, 23.444741249560238, 23.432542575459205, 23.40625448576013, 23.404547291545118, 23.38816469734139, 23.3758033383221, 23.436912143988646, 23.50555092903711, 23.61204616772788, 23.712155869324192, 23.75678987094422, 23.743951660789893, 23.69174196123227, 23.67944708970556, 23.69679650510011, 23.702533684258768, 23.667987165359936, 23.584414510491655, 23.68463213699603, 23.685046777099142, 23.623442560324786, 23.571420651237233, 23.523655975072725, 23.501394145992204, 23.49006620829367, 23.49533380871181, 23.483959006474418, 23.478188768736043, 23.480879358004866, 23.467348336653313, 23.47357117562827, 23.563539871791818, 23.685310975239513, 23.77760338065153, 23.821233527106287, 23.847058420767024, 23.87096687032962, 23.857507197613582, 23.83569384611827, 23.81856471648486, 23.794812282682443, 23.794071673717877, 23.83745691325687, 23.780033636335414, 23.748770649787147, 23.7131623837243, 23.68495064374815, 23.658206280552644, 23.622671651495185, 23.591161373789003, 23.566814951686784, 23.54977231805483, 23.551220549148237, 23.564571780455555, 23.60873904903889, 23.688537934981422, 23.70665225033233, 23.715526198449115, 23.785478481947973, 23.80290772697568, 23.770253090432906, 23.760189325429877, 23.771218005969143, 23.752209336315488, 23.69734245440844, 23.610982004937217, 23.510289479952405, 23.51639663665002, 23.58063958984276, 23.548447689940357, 23.522638964353288, 23.49335408488876, 23.45181454113458, 23.43125168804708, 23.42764275114067, 23.4146720526593, 23.394179280221348, 23.380426819947335, 23.421873315415866, 23.505930456362748, 23.623596088574004, 23.786918298033697, 23.88487528920363, 23.912508113239202, 23.8876446330152, 23.868952924154456, 23.881106545166258, 23.876375860326025, 23.817033943765466, 23.722510292166945, 23.625425268605426, 23.530527808749238, 23.6293891460939, 23.60795462125354, 23.56048266553267, 23.519861180092136, 23.488468996155586, 23.465299514600385, 23.44590401988275, 23.42804735688375, 23.410298526017243, 23.404885581732895, 23.460225690239568, 23.574778975896795, 23.671212455989146, 23.798572583439466, 23.875779211260014, 23.879613622700543, 23.83854391090288, 23.822236270918324, 23.833645120924277, 23.83247222058789, 23.783086895831598, 23.69527641613774, 23.594969754025488, 23.459179586644538, 23.44569992716275, 23.567335652205283, 23.555834431419793, 23.51807239496382, 23.488075239065974, 23.48385448713673, 23.443127703263993, 23.430992807040923, 23.418163059853402, 23.43345355290791, 23.450386995290888, 23.546343579798474, 23.496797304942437, 23.50327045165702, 23.564471409964458, 23.586745887169048, 23.546673058335656, 23.494577453973253, 23.47446536531699, 23.487155635103488, 23.522446313131862, 23.466542413457038, 23.489644969230255, 23.567060142341813, 23.53131356605353, 23.498912231888184, 23.48624800721146, 23.464542785383284, 23.44913410069928, 23.431532031644366, 23.409999594103226, 23.393787305240153, 23.38431973051479, 23.371689371149127, 23.429051930184603, 23.50271920008088, 23.562629444828833, 23.68150672524273, 23.761725802773668, 23.7778143555706, 23.741038915189677, 23.71978193890062, 23.72251225143306, 23.731084761461734, 23.712383352274475, 23.632615740234645, 23.502524453921268, 23.446638992333405, 23.57116250579648, 23.566563802609938, 23.5505259425951, 23.52999401371551, 23.499826788792152, 23.488511860910563, 23.45843632628662, 23.428450397812327, 23.410973867738026, 23.399532078976623, 23.44979895607902, 23.52729769983938, 23.685101402327707, 23.825755901752384, 23.90287458794123, 23.916944510190266, 23.88698861821236, 23.859708791580143, 23.855706098090582, 23.860657206582847, 23.844095927979122, 23.767408469078223, 23.640465363505516, 23.48654032005747, 23.390316658900996, 23.411687071890327, 23.531112502511544, 23.51172772036375, 23.493265210403024, 23.47818683897044, 23.47043509597886, 23.45830655256457, 23.449465156487673, 23.428652920913745, 23.481913978113084, 23.556871855058187, 23.67613276382981, 23.82451259470341, 23.916247306862108, 23.927172392786435, 23.89138449984768, 23.876556300840672, 23.86776371381441, 23.821942742725643, 23.709645532866656, 23.59647492882418, 23.528233470080096, 23.545334254842942, 23.603250023636942, 23.577104987585997, 23.539205811076794, 23.492488444582126, 23.470383588502113, 23.444406971862364, 23.424696732202587, 23.4055684817765, 23.391326541659836, 23.39803460641892, 23.408304355929584, 23.396664575002806, 23.361551110042573, 23.43021043710307, 23.517474126950617, 23.58545980700409, 23.605612382754725, 23.590042678057618, 23.528539001472904, 23.46896108360056, 23.422217928643885, 23.456914208255455, 23.56817354749227, 23.540188211808545, 23.49027683639741, 23.48257113538079, 23.47125892084407, 23.48462433358463, 23.49539683346543, 23.49494236886557, 23.496932921239353, 23.522827681412462, 23.540674566032436, 23.55385204173977, 23.609481311403766, 23.674125600245798, 23.65789163801487, 23.68822503066411, 23.772103425735107, 23.76410047667928, 23.710200852384016, 23.685988998683154, 23.692972346427492, 23.804019642191054, 23.776793534212914, 23.723303017026453, 23.71316710891369, 23.634819604549904, 23.600017925135802, 23.604557720633064, 23.628030105330826, 23.690767184298338, 23.74388762622551, 23.78575179542466, 23.795283234821202, 23.757858766407008, 23.732155120984206, 23.732699321468917, 23.75356477698511, 23.774356324566515, 23.749908393966365, 23.795590123245976, 23.782235151406592, 23.771457066691436, 23.791071683624494, 23.834172771524205, 23.82973430854175, 23.787694455400707, 23.74147428700532, 23.692178235786283, 23.755434849795247, 23.74800163566589, 23.73722703478542, 23.72086686480372, 23.71675520908133, 23.73675805262531, 23.740076138370597, 23.74099231074315, 23.756065731811123, 23.75068035160208, 23.71920459138235, 23.672756181935867, 23.804296894967475, 23.86981019770826, 23.892255293390942, 23.903284517097337, 23.887327290199693, 23.868813524417543, 23.85207999358073, 23.855456699380486, 23.919290942779707, 24.024905915728507, 24.04844936489746, 23.977366332354464, 23.891610488010546, 23.80228007849004, 23.7316064155229, 23.661443519871785, 23.597089785787166, 23.562111929965358, 23.539562519472643, 23.512269139822937, 23.49412109507057, 23.477557549568274, 23.462627117255725, 23.4666622673, 23.507859353111694, 23.615013816409032, 23.645370022187887, 23.696218360423348, 23.747545860847797, 23.746165718927912, 23.701002698084327, 23.66578102629966, 23.667246018724345, 23.67717403321466, 23.655672600457873, 23.571100083396487, 23.538468992266754, 23.629314754173482, 23.592551444633084, 23.560847295233643, 23.52968727740685, 23.4980944972183, 23.482701484851887, 23.471598207081968, 23.454505557464994, 23.439035902884047, 23.42688521733152, 23.418032426933152, 23.43512558281191, 23.51628672414645, 23.514657460982452, 23.599543907084875, 23.638217345888012, 23.642625701161503, 23.647455663900477, 23.649381722039152, 23.646832759168063, 23.627276969837027, 23</t>
-  </si>
-  <si>
-    <t>[23.95675700445652, 23.955144727580166, 23.95588748503727, 23.946649864477752, 23.930840795735275, 23.9216709265426, 23.939020173505767, 24.043476804662646, 24.12936053979766, 24.12135916424491, 24.13109525137078, 24.13348732995261, 24.106817234657854, 24.118464367130965, 24.15730131790603, 24.19556425622667, 24.203070076953836, 24.15497836716322, 24.07702143754121, 24.067598101802705, 24.10571166742991, 24.06482594645277, 24.017012679422375, 23.9807687490529, 23.958234503780528, 23.92410142707303, 23.890719122467008, 23.86456472176299, 23.846456986138183, 23.885069844982198, 23.987921922089416, 24.068306139166094, 24.1520287389052, 24.256013724664275, 24.339520971734213, 24.40739887838711, 24.46782403853513, 24.524139462099637, 24.568868951202457, 24.61205745822562, 24.691437717048245, 24.680547349334827, 24.524793333898813, 24.26181000401603, 24.12862183745389, 24.056728023273333, 24.068793272172012, 24.058036770110558, 24.017151758828422, 23.970671610505466, 23.940619652097435, 23.921704124705318, 23.90442650323622, 23.936819977737283, 23.991123873452622, 24.08188282386236, 24.135872054689003, 24.11833733600532, 24.116407926371874, 24.122195577034788, 24.127437465221107, 24.133976785336454, 24.12997125176345, 24.137050207246194, 24.135946157260175, 24.22834921790721, 24.241753026361092, 24.183318667093477, 24.139273876473126, 24.089505092732875, 24.051575762878315, 24.003442835946544, 23.97275404635809, 23.956806013412187, 23.94521323275345, 23.930385309004098, 23.90363058452465, 23.87606060582404, 23.898122052544803, 23.948239569021023, 23.924996224558782, 24.034045677959423, 24.137355530668604, 24.173662300450033, 24.15303483818323, 24.163961540120724, 24.153757501726403, 24.130822187708628, 24.106892564541003, 24.038559673379385, 23.976879402580906, 24.050691749572977, 24.02662899497756, 23.98960051434678, 23.966959055073307, 23.95247528974302, 23.92863220061017, 23.903903685011983, 23.873573887907597, 23.85511623950008, 23.848332749734848, 23.8642053736838, 23.939521608021266, 24.063070031717775, 24.061107047494094, 24.026316332544713, 24.02292803728055, 23.98825364254431, 23.950650110948914, 23.957224747475397, 23.97391334666521, 23.95773404261347, 23.913838284675965, 24.04041510600004, 24.036534485988, 23.989270525989767, 23.931823201826177, 23.88961254721815, 23.864220500546555, 23.84555922939767, 23.830851715403156, 23.820992813646427, 23.825918703195487, 23.828377252779557, 23.819592127545803, 23.81963926262489, 23.875987057905263, 24.009236092608955, 24.043117785040835, 23.998500607829143, 23.999423860487557, 23.981867163311136, 24.099371490282195, 24.258976587347103, 24.285395930104226, 24.270033091195966, 24.237873389182184, 24.207362371646905, 24.16460465066182, 24.134152894528057, 24.111719816184294, 24.085997481490512, 24.072913637109327, 24.07830812631379, 24.067225947656258, 24.036069283711566, 24.024206075842738, 24.018134373282052, 23.98117119556406, 23.995602468001753, 24.026911150196653, 24.09759235652726, 24.103091027090127, 24.094035059968395, 24.100426580479887, 24.085285857995373, 24.059128790573467, 24.062149977163187, 24.09755213224548, 24.13736904232151, 24.15244870491549, 24.128635061854467, 24.09157475012717, 24.146510482882217, 24.13521435342065, 24.084129323015876, 24.06364876915733, 24.03914530926508, 24.016719997190986, 23.999575523533235, 23.986275582051903, 23.977005115545683, 23.97033733613269, 23.984514736025726, 24.028839941630405, 24.11758282747303, 24.124000224858772, 24.18890655061715, 24.234367849257534, 24.23629921874654, 24.219209709479625, 24.214273497730005, 24.226551573592534, 24.189252559170455, 24.1507737394234, 24.106915909589688, 24.06159458468707, 24.083640703984784, 24.18955343002796, 24.101118143005333, 24.013889594968834, 23.966022783402746, 23.935943605554524, 23.915473952579717, 23.920325531007823, 23.910779949115497, 23.902682781883552, 23.94836475314489, 24.0388793821828, 24.231965820080834, 24.306104622519527, 24.34423122450797, 24.378319504654684, 24.446254287455783, 24.48464712058484, 24.482820261599173, 24.44633874635325, 24.409012486318925, 24.369960133798575, 24.306204175571793, 24.203748063513732, 24.14255874607041, 24.1433016616502, 24.093202731575712, 24.093492225811143, 24.23230390755487, 24.383515181775014, 24.478786362613736, 24.533894174591893, 24.56980452718363, 24.59265605741123, 24.631885924950662, 24.6957032053985, 24.748155160290846, 24.740895029194604, 24.723181110212252, 24.695080763015454, 24.658891711319182, 24.63191184823961, 24.630562779284062, 24.63602215184582, 24.610789945590525, 24.557471054597983, 24.509225407001683, 24.467428770129988, 24.356200019771176, 24.285238335082653, 24.22392873232256, 24.14795534693003, 24.085942762392204, 24.05089577467014, 24.021626348051583, 24.005722809327793, 23.992567496116266, 24.001599946030368, 24.03943443344379, 24.11901876676667, 24.239624716961732, 24.270270511957225, 24.311629705033695, 24.3641861717504, 24.427209635407383, 24.493746481652764, 24.57183634320866, 24.574869020645362, 24.54271177641795, 24.4894809976867, 24.384803153668447, 24.278783145576813, 24.162434920187106, 24.169825525598146, 24.171106933139715, 24.109742384875062, 24.050191661496513, 24.024757426270554, 23.98142118113222, 23.958112247052167, 23.935177807695855, 23.917224184357682, 23.930685071672585, 24.022192426602704, 24.124915705751448, 24.12568257294518, 24.196447436898513, 24.28650725391555, 24.407794136355633, 24.537834618935687, 24.581649622644544, 24.58411351704278, 24.55097898375278, 24.515324765804802, 24.492923139050962, 24.48650654628361, 24.505698416793887, 24.54284624228352, 24.573297867134595, 24.536642240214192, 24.339285566154928, 24.240987224535147, 24.11740665859112, 24.03500039089005, 23.99813029665268, 23.98265706352225, 23.98957643038331, 24.059452098419897, 24.071380035151872, 24.039259001168148, 24.082314759468066, 24.099316296622646, 24.08146718889232, 24.05558893606327, 24.057110933000416, 24.07416220812499, 24.05270664041302, 24.035260990078473, 24.155547065756988, 24.147732937795396, 24.10845783614623, 24.077807751814913, 24.045423392416513, 24.031358389424366, 24.0078272312669, 23.99792059685115, 23.985944463567396, 23.95778828473152, 23.93565050968721, 23.91292128745246, 23.920277633446393, 24.011560185979516, 24.110375903312598, 24.133705554710378, 24.209249887311305, 24.245405342034065, 24.2362102132938, 24.203299316457475, 24.194276400596227, 24.217618981293914, 24.22243409739029, 24.1731486914007, 24.101344606580557, 23.999110125438037, 24.002571680428023, 24.06687454449258, 24.029679469274715, 23.98966874311692, 23.964544506081683, 23.94025437883408, 23.915936262929847, 23.89024886110094, 23.88179981207108, 23.87778822862653, 23.877147061380526, 23.92597137345705, 23.959449237505634, 24.01916085538954, 24.113658136736927, 24.17039978012001, 24.18472115970037, 24.175033107181168, 24.180250594865456, 24.205921140850794, 24.210333165773992, 24.137772041481536, 24.025913660871087, 23.927968365049068, 23.911230340248252, 23.944090901251613, 23.904055495611576, 23.894015776050008, 23.868987659065823, 23.850404435741382, 23.84251020766745, 23.818593164972317, 23.80077341458366, 23.78953909291974, 23.781747451987588, 23.786083004819968, 23.86331454709409, 23.921188313587248, 23.807494814111198, 23.815930015097717, 23.827266725163017, 23.850992769364918, 23.885082977600046, 23.895015142742647, 23.891559697678503, 23.867186164113406, 23.8262582606536, 23.79677668817627, 23.831709649849916, 23.906302794964386, 23.879289213531123, 23.85720943783468, 23.83245812895755, 23.802717792046334, 23.779283688439687, 23.776599586253408, 23.765413695269242, 23.7641174954216, 23.771252235849005, 23.780057676348815, 23.86534558188991, 23.96450332362095, 24.062787481269865, 24.13031895433072, 24.16389131115719, 24.164482478222734, 24.163128395831933, 24.158828750624988, 24.143575448295703, 24.12447802890834, 24.093768807478142, 24.063792749233784, 23.998521099847792, 23.980465502675482, 23.965426762355992, 23.93053343888013, 23.884009211945813, 23.872151811623862, 23.86383767805776, 23.866438071973818, 23.87379607267718, 23.85128364013508, 23.872718811362176, 23.931077070215025, 23.967578505500285, 23.9603217434081, 23.970835804799147, 23.97298826076933, 23.99171892947383, 24.048639228825238, 24.131187091537644, 24.155245498705927, 24.130986651078725, 24.16006258580566, 24.195924615270915, 24.24093584077079, 24.185562711091887, 24.1518906526821, 24.099943589196474, 24.03534785901141, 23.977554115127447, 23.93708817372092, 23.924401494450468, 23.903552725086517, 23.882844492434813, 23.865774706328903, 23.890827007039004, 23.955957810474988, 24.042271760855712, 24.129652830103044, 24.095735073826066, 24.10547614018029, 24.17670369239477, 24.287736303808412, 24.38534189036169, 24.427541888059455, 24.436694342095223, 24.39970721636998, 24.34945445476642, 24.27291997657768, 24.20681751071403, 24.116044868845773, 24.058200118368188, 24.00647948384791, 23.96715027541676, 23.938073033728315, 23.919973408870806, 23.865360850351845, 23.828441488186794, 23.804651877730723, 23.80830410195718, 23.890948210366016, 23.94416818911075, 23.958233249064012, 24.02192751208047, 24.045677997739094, 24.037613456724333, 23.998390753020782, 23.996555751664914, 24.022047575680833, 24.013301540198725, 23.96436416805876, 24.0400107299654, 24.11016579784813, 24.068420148197145, 24.0282327969063, 23.993443417297314, 23.96702769896402, 23.931195680259624, 23.899398067219085, 23.874750978970145, 23.852334792796984, 23.84013380884163, 23.836618645316417, 23.85608863631641, 23.909082726199728, 24.002219413409822, 23.976837831403795, 23.9917191749709, 24.06863488357905, 24.10558266479291, 24.105118620638695, 24.117446602307314, 24.15364560280884, 24.17684445600891, 24.17216099663857, 24.12723063023529, 24.019015234947414, 24.013273403281826, 24.073861462372808, 24.046583915159726, 24.013879992717232, 23.995039168233745, 23.96318820950204, 23.934185502995643, 23.913765819221208, 23.89718659388849, 23.890580715765676, 23.89343914876382, 23.914348680811255, 23.970957867936566, 23.929839115025743, 23.985004079883783, 23.996941973116748, 23.996096993371832, 24.028074019129917, 24.047006288943464, 24.053383852697777, 24.033707261834337, 24.010596900025988, 23.985631681825726, 24.097701980379785, 24.038067854775267, 23.949000136345347, 23.88556920109963, 23.82867650439442, 23.78699229180396, 23.7616033194181, 23.75132863568196, 23.753085488927237, 23.749651044049674, 23.785576834891675, 23.82429426316099, 23.847720866980776, 23.915618138318838, 23.977247695634176, 24.04805269347263, 24.094461638976288, 24.120064347898108, 24.127103154979665, 24.16969493703454, 24.165528474852326, 24.14985844460698, 24.122714416052293, 24.141294965409468, 24.096173680028773, 24.02389350033611, 23.93594931383595, 23.851468649993052, 23.814198849954668, 23.81553734786949, 23.838496366005838, 23.848928298768758, 23.86569277466242, 23.8910302501651, 23.91511488109202, 23.955567381042545, 24.01211888484505, 24.1057192598561, 24.18807782234647, 24.21862163673822, 24.247086760014763, 24.262015171245142, 24.271043898521388, 24.24460482205802, 24.180678186899666, 24.123757603866256, 24.107704073746444, 24.090917216177356, 24.183001256084108, 24.188266559394382, 24.181436669859725, 24.163341014112643, 24.138530685640102, 24.124419540895882, 24.090297648387935, 24.050720967568964, 24.019416712994285, 23.991584314761052, 23.954708419642902, 23.930809150512243, 23.955675043653287, 24.06797183487828, 24.09346489313724, 24.093422483010613, 24.138077015587843, 24.155330331796154, 24.133558399769797, 24.134308358215907, 24.15617237874488, 24.187348384012253, 24.199138638621815, 24.171664075117814, 24.1240261535186, 24.14956196433593, 24.150550323646268, 24.102143279846143, 24.027830596109613, 23.95717048596619, 23.916971371056828, 23.89448022185893, 23.887498252821207, 23.87272134992345, 23.85901490138379, 23.865587795237094, 23.892137409330385, 23.93933427061111, 23.999563875374104, 24.08467243029892, 24.11373312653652, 24.042066706735834, 23.999436738190894, 23.98376945912095, 23.995456345909503, 24.02398646871879, 24.033908351113016, 23.983166184527235, 24.06245419076039, 24.094428359696526, 24.057293950254273, 24.015710471229593, 23.973780371896947, 23.94110712325167, 23.905265693832206, 23.88184986900481, 23.86745679262124, 23.852396045034197, 23.837890417223516, 23.83135894501871, 23.863727635604064, 23.949474560418036, 23.91165703794054, 23.97543909336001, 24.05165731753522, 24.060002646579743, 24.017929245710842, 24.006812923041878, 24.0319696055443, 24.054993639652725, 24.03827417863964, 23.97400177093269, 23.910813676792163, 24.023678130646203, 24.000981303536047, 23.972966688289194, 23.946343161661293, 23.937680655620824, 23.942959316891677, 23.93784138594584, 23.926902849229165, 23.90711728470514, 23.874349365306106, 23.873050685922284, 23.895215006037343, 23.94699002658071, 23.89144569437549, 23.96816080384951, 24.05904109303744, 24.107888968342582, 24.122504653118245, 24.111307682875616, 24.097651938777336, 24.099397127327773, 24.086888425587905, 24.03713868423105, 23.9494351078162, 24.035889126056393, 24.038142535783788, 24.004080766349702, 23.97021850092877, 23.944150106348093, 23.924139713184275, 23.908541455584096, 23.896477560083696, 23.889978191426863, 23.889095097338046, 23.885729483303646, 23.954218846443357, 24.062069771122648, 24.08861598144634, 24.17454946788096, 24.213347800962634, 24.205028968940486, 24.165301664412407, 24.150028199295164, 24.164128151056016, 24.199409766537624, 24.21494681673443, 24.167487920503333, 24.06460494114296, 24.050415706637168, 24.097275413017986, 24.06136457216253, 24.03045893118028, 24.000597066475155, 23.979086157376297, 23.95605943759502, 23.94284206441235, 23.928216790337867, 23.908578934126478, 23.893669500609985, 23.970996728990198, 24.116820476437976, 24.14037895879349, 24.23623215317117, 24.270495313264096, 24.247262966637233, 24.20306219889581, 24.199874369823778, 24.24147215872375, 24.262926648179455, 24.249035796665908, 24.191607077961795, 24.072792272627527, 23.91413779899504, 23.8222892370629, 23.942534197632853, 23.960578834735454, 23.932419115397295, 23.913908695627736, 23.88327748754506, 23.86189688066612, 23.854790827470904, 23.855194806046075, 23.85214192771421, 23.8532934493187, 23.917387849919773, 24.001826245399723, 24.063077662223616, 23.982603141796144, 23.939342395431094, 23.967869799062594, 23.994138599246934, 24.013781846150824, 24.01088149296586, 23.979177074437132, 23.92662435736128, 24.07753855417596, 24.070488979533362, 24.01700840142387, 23.97742969902502, 23.948509279292697, 23.918966567072506, 23.88292572597422, 23.84382498554523, 23.80784667976249, 23.779037847729935, 23.76016342375, 23.76619768404355, 23.822303482255876, 23.917947408716742, 24.117299099342798, 24.23656194880982, 24.314539038636088, 24.32861088966109, 24.250385929957048, 24.1726723543716, 24.17709095699506, 24.187302957890466, 24.170577836338694, 24.08600014804949, 23.968805159863873, 23.952321649441217, 23.990778468603313, 23.953619911153453, 23.93608014202623, 23.92589847077666, 23.905328943306177, 23.88257614572805, 23.873998350949453, 23.86586548193345, 23.856065388516665, 23.86055960976717, 23.92101433687804, 23.91928475010029, 24.03334821965608, 24.12642630785918, 24.17043744479403, 24.156363314369752, 24.114030131974896, 24.10096395096681, 24.120430983646134, 24.14459180798673, 24.15304967098524, 24.120142425583563, 24.016886932397416, 23.900637319956598, 23.79699817054373, 23.768923363394148, 23.894484582912913, 24.01366645415187, 24.005248230686306, 23.95985835268569, 23.93946556013708, 23.933574149377815, 23.95262721671253, 23.948695753949945, 23.956034375027674, 23.887607235781687, 23.90305048195185, 24.128469900894554, 24.096465395778576, 24.081496604399955, 24.04941623023595, 24.021498418916366, 24.031217059852548, 24.009066914630463, 23.950489895195744, 23.900929873525058, 23.99990156343942, 23.969488376027012, 23.94809154703231, 23.92402837676614, 23.911060192176816, 23.91899062845805, 23.90772171474978, 23.912206537329766, 23.911864450869913, 23.902080196898513, 23.90542487198191, 23.911038915500285, 23.975555326388587, 24.080559034793456, 24.085085188184085, 24.16704334973342, 24.209590918665, 24.2093163269781, 24.173807480299416, 24.142570995481478, 24.089936789744893, 24.05058421569413, 24.121193403961893, 24.227778629647343, 24.193880018255957, 24.123191471164176, 24.03397688680849, 23.954914468417794, 23.88792458823018, 23.864699269423514, 23.8567725909721, 23.84561139679811, 23.835659122696228, 23.809467728945805, 23.776686883785203, 23.778271695328787, 23.782275029286797, 23.847721073272083, 23.956335739074873, 24.0674224819936, 24.037788998178105, 24.167966999963, 24.21467519663995, 24.167917596206376, 24.128922838492468, 24.11134698137579, 24.094916096983656, 24.072192490319214, 24.096179568025104, 24.152954128712953, 24.118201100284097, 24.064498287124962, 24.009255535380447, 23.96285110927553, 23.931968674086182, 23.910125918812742, 23.891871664287805, 23.87700631714696, 23.85988925677752, 23.847947665384073, 23.90715560847563, 23.99980486685881, 24.046299627197314, 24.15933686056442, 24.218243940738148, 24.209526378005133, 24.177166036910677, 24.17785969040786, 24.201533202121173, 24.211464011592057, 24.20148083964081, 24.150394246481756, 24.023329882905514, 23.97279398590933, 24.056616162050318, 24.020144007176516, 23.988867639351586, 23.947436615196903, 23.913766258788886, 23.882935467725158, 23.858217786888165, 23.83331883024015, 23.810813401041298, 23.803618055049316, 23.873290680223004, 23.951308041931835, 24.067240836419916, 24.179974973527653, 24.232820941718398, 24.222162740024228, 24.18354520948553, 24.19172012265176, 24.225585086425912, 24.248028172265588, 24.24092877795678, 24.186027822306297, 24.06379617026033, 24.044996104938296, 24.116915185463515, 24.073579494157205, 24.02418107782078, 23.993707157512787, 23.967540150034157, 23.94864012792104, 23.922947632137156, 23.896209645036834, 23.872091140310488, 23.88207456126371, 23.944397290688542, 24.019114391371218, 24.03262632244805, 24.140329957700075, 24.22846366794285, 24.253713494185288, 24.236605416649905, 24.251006386214865, 24.28000419216798, 24.28003844671454, 24.225299471442003, 24.12122860342861, 24.00569452642809, 23.86590812236017, 23.93400158027632, 23.981996620022368, 23.94167175090371, 23.89416358136002, 23.874905818795654, 23.860092193860293, 23.838824893112687, 23.829082432662414, 23.82785440996088, 23.810982250112517, 23.82476694422033, 23.878200808370238, 23.917983145777452, 23.9646378195783, 23.975357858359672, 23.878021078900446, 23.906140962270115, 23.94816207252912, 23.991431613830297, 24.022587055618473, 24.03439749765955, 24.00019520798628, 23.92781875762137, 24.03589164962584, 24.016936348754502, 23.992845237661157, 23.983989201273417, 23.96478645805587, 23.935641875375683, 23.907906744886073, 23.894890459789536, 23.889465062838777, 23.886809176983103, 23.8904685626319, 23.928648250989664, 24.00807959238251, 24.03854198695578, 23.963776604155104, 24.00892714787497, 24.07770835376755, 24.11626453677091, 24.14362875869612, 24.18323064377007, 24.101954305218126, 23.938635750560707, 23.899423737741174, 23.989082623019367, 23.953416526723473, 23.915882502665614, 23.87064352293578, 23.85656933858589, 23.835415702018576, 23.812154027508303, 23.78364008501828, 23.77748763629701, 23.77280093658973, 23.756316487536292, 23.757634191510615, 23.767178204711993, 23.833151018091115, 23.900172418151907, 23.962131270983278, 24.02044883100871, 24.07063297370544, 24.112684182349838, 24.145265066434067, 24.173544033236762, 24.18342419238196, 24.179745004780557, 24.159365659059038, 24.127001230937704, 24.066891072969383, 24.010058173363742, 23.9557448503798, 23.92620238668786, 23.90998722720668, 23.89062813828738, 23.85430387318891, 23.823521276866227, 23.79981637127106, 23.77599102741188, 23.75857722590989, 23.832301749749437, 23.965821513848798, 24.04745282443915, 24.16687274489173, 24.224386776642543, 24.224702029593768, 24.194109657236964, 24.17548627201995, 24.18597651001225, 24.21623430825227, 24.226079680742842, 24.161603896007662, 24.055434032294524, 24.041027595879015, 24.08475384419715, 24.04308759947735, 23.99586400309777, 23.96076680344697, 23.938241711008, 23.91216451749069, 23.892068468742934, 23.8811867308097, 23.86224331058453, 23.854841276149816, 23.92252637505253, 24.03818836658937, 24.13832525388146, 24.24736487410721, 24.301183659253535, 24.295115856395682, 24.239047717249843, 24.203755521973125, 24.221737033030866, 24.24491386267806, 24.226410950233923, 24.15443814652578, 24.032634113272696, 23.934582747639933, 24.033640425941, 24.01550819525225, 23.986995028732235, 23.971798055961894, 23.932377943494917, 23.896371206002595, 23.885172582782314, 23.872839142351705, 23.85786995227798, 23.85077490029524, 23.868066011152134, 23.883084550828183, 23.869505641829644, 23.94304314881551, 24.005080380100697, 24.03790983349677, 24.04189783017137, 24.0352667452397, 24.021865325251294, 23.985820209721506, 23.93706356187184, 23.890336605683274, 23.839396733929657, 23.880382601223857, 23.947268099360656, 23.925322599767934, 23.892216542610473, 23.86880667553324, 23.84752377854619, 23.820440566612803, 23.79414661353161, 23.780698706182637, 23.77475190865303, 23.780083094025642, 23.797712464452587, 23.81742210808571, 23.830193500079275, 23.89793539599376, 23.92676852295644, 23.92771755139388, 23.915957535203376, 23.895908089953604, 23.88405634532656, 23.89373763827855, 24.048153967665044, 24.05739330404117, 24.027851937492926, 23.958880444324944, 23.88744948025939, 23.840639123042845, 23.810945394050563, 23.798874986293516, 23.793666821902562, 23.785571300810478, 23.764673041712296, 23.75540782684511, 23.768716332800143, 23.791343413393918, 23.799002599206386, 23.80409263234596, 23.86279835390084, 23.932000034399596, 23.82416176447839, 23.81864887523879, 23.98730955759743, 23.873175500061492, 23.74524918551563, 23.670681526279296, 23.65712967656842, 23.64359351356221, 23.724230645335997, 23.80303238418823, 23.820812173473758, 23.82365004610898, 23.81911936790426, 23.80987670909784, 23.798109780366193, 23.797208351962265, 23.814006441788056, 23.82245783503585, 23.82131532439077, 23.829288055520937, 23.89059425690893, 24.013527606427743, 24.039623775055475, 24.036322888044765, 24.068836580180772, 24.06330310952561, 24.022585203509465, 24.00694812577294, 24.017126388992693, 24.032110817206956, 24.050824456380102, 24.106852422024797, 24.18352291728706, 24.151833449818838, 24.106679351527983, 24.092482166156305, 24.072131990955956, 24.06334339603703, 24.0631320214126, 24.03748829146437, 23.99078583756042, 23.95697297004396, 23.96449903404233, 23.982449859927623, 24.010695316478362, 24.096921493979647, 24.18895228258387, 24.20469575698284, 24.20775970251427, 24.18463076867889, 24.168753399194202, 24.175699838048715, 24.205599788703537, 24.233092476665018, 24.238867538786717, 24.222824885626412, 24.18979026050518, 24.19314485178279, 24.15278378154432, 24.103446165898216, 24.06515699940742, 24.03371881599441, 23.98880533562081, 23.949718748627856, 23.922749621061726, 23.899434840048656, 23.879945238601426, 23.87794803523531, 23.935505820341763, 24.048004716660518, 24.100752005178308, 24.21846898181747, 24.271220002635605, 24.268997606492423, 24.22487184608101, 24.199496044213223, 24.212482223173453, 24.23330351756336, 24.234835600207543, 24.161165437338898, 24.03352948588306, 23.97719100819584, 24.059154238111987, 24.018579394591615, 23.974103823751477, 23.95002315995291, 23.910604615604147, 23.88910673801138, 23.874544856375028, 23.867133097154593, 23.861411506975937, 23.857044479594894, 23.920913626198015, 24.027325305015598, 24.036513260500772, 24.129365285819276, 24.22089599227968, 24.25952895700117, 24.254330476953623, 24.260952083166966, 24.287671203758766, 24.26544915498206, 24.204581780952, 24.13363477227733, 24.032438311464535, 23.964429524501025, 24.06696475901469, 24.042108214890572, 23.992337762232818, 23.945242221298013, 23.93236855669247, 23.902900206213804, 23.86926035915384, 23.846806882138797, 23.83858081723305, 23.812722633871413, 23.788433582880426, 23.831540377325172, 23.90581140857307, 23.97478466308014, 24.036861126723196, 23.952193320756567, 23.836382975235935, 23.92808511047377, 24.026438593124542, 23.914689536168733, 23.885249499058734, 23.875272183086192, 23.84912668023726, 23.9366773856345, 23.8905433665405, 23.841055229895506, 23.813100870611326, 23.797531813547693, 23.816363654429125, 23.836309357538337, 23.82750385105497, 23.819756424665457, 23.859852735621985, 23.944595304031633, 24.059446106997672, 24.214771589178756, 24.292452006097218, 24.319055214439363, 24.346831256353298, 24.379405777907063, 24.41627063934494, 24.446199806237285, 24.45341462924689, 24.432740231307672, 24.346820693602083, 24.25916462148678, 24.236709244416375, 24.23441363856251, 24.20490521888542, 24.175421394636363, 24.164151193062196, 24.158055926282998, 24.163366499460512, 24.158784522502284, 24.16578513622959, 24.171659435900406, 24.159602624044297, 24.134694867383647, 24.129987755897613, 24.150051692661737, 24.170539513248354, 24.200311271420656, 24.25043550944856, 24.290661598088757, 24.30100374424771, 24.288258868774808, 24.257038154956476, 24.23785937665019, 24.216619147086515, 24.200976770112025, 24.170172399445196, 24.140703410543413, 24.11089451210152, 24.080305023028895, 24.026917697299634, 23.958508925025, 23.910453521539996, 23.897182476060607, 23.879526094230375, 23.864873075514875, 23.840287229632043, 23.82946610768752, 23.853047793754644, 23.93655835092326, 24.026190388460552, 23.96360395886819, 23.962911858564226, 23.979596827272292, 23.997710408439797, 24.01034095889303, 24.025104650179838, 24.033200381631072, 23.998925700202218, 23.918623177519894, 23.941357288822513, 24.00907467570087, 23.98009803720812, 23.946518484292056, 23.909002720036998, 23.879112983977638, 23.85811540591375, 23.845339522492328, 23.817622942971287, 23.815842227558033, 23.79918950891359, 23.785845986608027, 23.848667485490676, 23.94315071114723, 24.02765938809206, 24.13145538187496, 24.178220846182494, 24.16584954794071, 24.11233855674647, 24.09905840234639, 24.11686377178431, 24.12299714213732, 24.088269465953488, 24.006914938569214, 24.109186291560913, 24.11287809120343, 24.04730530056129, 23.992040962333764, 23.94331251146021, 23.92423132273069, 23.9101594240369, 23.91368137568807, 23.901379055692647, 23.894886807387063, 23.898927957726162, 23.890104221244595, 23.895672091040684, 23.98478973029906, 24.10418079440377, 24.19907219502929, 24.245815533292923, 24.273197941248196, 24.303586910022656, 24.294892039270554, 24.272849937803727, 24.256485828930156, 24.23303777028275, 24.245000199322778, 24.279496253386608, 24.22608431490197, 24.187535018367743, 24.151112757084253, 24.12307415033185, 24.09639480362277, 24.06068073322767, 24.029168535940553, 24.005038951199793, 23.988505337559445, 23.990550213934767, 24.004138911289868, 24.04779666186401, 24.126957456071747, 24.161156771961274, 24.153732942849086, 24.21072410931625, 24.22877746319097, 24.19519109836754, 24.184469976430808, 24.195575171810543, 24.176087802904274, 24.119707448544677, 24.031207472498632, 23.927474705467247, 23.934085676679363, 23.999406563936834, 23.96769948155142, 23.944914943938542, 23.914703699179814, 23.870213949644437, 23.844505606458416, 23.840609622376505, 23.827052998201932, 23.80602055687846, 23.791314004373266, 23.834701126818203, 23.91726197220279, 24.039537044449034, 24.208711219331487, 24.310908346990534, 24.340847297486373, 24.315569225395304, 24.295878447622613, 24.308111403969445, 24.30357759286588, 24.24303939561089, 24.14598934053909, 24.046150083481113, 23.97746148747824, 24.071525661703436, 24.031420955093225, 23.980021134849355, 23.942580499276104, 23.910207717788953, 23.88126478533037, 23.86023779739772, 23.84129486692829, 23.8230534997323, 23.817067407817934, 23.87517551113722, 23.98796754639113, 24.089229880415658, 24.221191077252133, 24.301787786660196, 24.307205633866047, 24.265144753720524, 24.247691658488677, 24.259300318459832, 24.258304869743807, 24.20821386591818, 24.1183446080705, 24.015142384905516, 23.932127405248817, 24.032588835608593, 24.01643313604991, 23.984207726477347, 23.940303241531637, 23.90718410184652, 23.906821363263077, 23.863892820794245, 23.850884363612362, 23.837156045617537, 23.8477150362492, 23.868903647148084, 23.960600889006002, 23.91177013553485, 23.91686887841746, 23.980213199016376, 24.0037512854459, 23.963178427247836, 23.90862658721122, 23.887648448469715, 23.90045309258116, 23.938298312759134, 23.88130790361171, 23.953030242412456, 23.99698059236619, 23.95761107041136, 23.922539077253646, 23.906116982314803, 23.88017878454023, 23.86460602720329, 23.845950027667172, 23.822967797026987, 23.8063743299824, 23.79654708681592, 23.78306197197145, 23.841916439238094, 23.91504554839398, 23.977131776299686, 24.100158924088404, 24.18392793871526, 24.20189764171933, 24.164446325858226, 24.142435437445496, 24.145252907425682, 24.1537597859662, 24.134726551932697, 24.05325406016341, 23.92106966812374, 23.897290492678508, 24.003949163959216, 23.98779360406264, 23.970435935829116, 23.953694236364033, 23.92220234374767, 23.905759774975763, 23.873670965691204, 23.842492115563925, 23.82356325410424, 23.811677096403248, 23.864274347567605, 23.939118386482843, 24.103332274729052, 24.249026013993344, 24.329642915685042, 24.34537614265754, 24.315028333584394, 24.287086808418447, 24.282268495963365, 24.287275942479948, 24.27067521215929, 24.19255396993653, 24.062266685861534, 23.904724404126522, 23.803604792202833, 23.862622172388694, 23.957192197890425, 23.930406891538382, 23.91281457383131, 23.89987791590694, 23.89124193629306, 23.87757714027794, 23.863254334927305, 23.842742446411886, 23.8969104835374, 23.970361042958046, 24.094522921963996, 24.247610078486318, 24.343255306470954, 24.35583224625402, 24.319394690497603, 24.303967350932677, 24.294813632064102, 24.248124392657818, 24.13271690994931, 24.01568899023093, 23.945592701299955, 23.96372717619845, 24.02244717090151, 23.99559363715777, 23.95624584517347, 23.90772385197044, 23.889987671447916, 23.86314726234498, 23.84306253955047, 23.822947080912957, 23.807961988724426, 23.811805679963715, 23.825251713831822, 23.806852826824397, 23.771146842851763, 23.84122051192166, 23.931025640244687, 24.001516113936404, 24.0227466545557, 24.00729973962248, 23.944224342183485, 23.882186661554883, 23.83398324199251, 23.90840762315939, 23.993929185619916, 23.962102828553796, 23.905359674425526, 23.896996753295568, 23.885163443054353, 23.899049531600905, 23.911587369780406, 23.916602642195425, 23.92375758156534, 23.95407472469395, 23.974691491837234, 23.98946981700446, 24.044081657619554, 24.111793128950595, 24.096053624944687, 24.11157976047592, 24.198559110010933, 24.20815370053614, 24.152305233275058, 24.12703153870459, 24.15504769545964, 24.242024251289436, 24.210758223557793, 24.174757037613585, 24.154770128295088, 24.067558770085853, 24.03084351162993, 24.03809308593482, 24.06386756626448, 24.126992440045345, 24.184401445817134, 24.226933125179354, 24.23610206089455, 24.197124363230987, 24.170741491631208, 24.17152006851506, 24.19264659444976, 24.213954596765756, 24.182027529324277, 24.221617564800084, 24.210565832245308, 24.202879189336887, 24.226052553712535, 24.27150234649046, 24.266983891017116, 24.224409776379357, 24.1783512072156, 24.13005061805201, 24.187932789375225, 24.182583930009084, 24.17082632139989, 24.155081341410494, 24.151379870852438, 24.174209881632663, 24.179463549720115, 24.180393443428624, 24.15909495919428, 24.099217443509584, 24.05180837324406, 23.996500931426443, 24.19146731555473, 24.314580725957782, 24.33033041842012, 24.335270920874137, 24.319995332180255, 24.303606240935665, 24.288302375267367, 24.292080981139808, 24.357486983155443, 24.46653257336592, 24.490273203386, 24.41807668648738, 24.329589299470502, 24.23330833350506, 24.15767762813029, 24.085479884849295, 24.021049292075418, 23.987926927143302, 23.959287745080996, 23.929709053861757, 23.91104245782684, 23.894375151913078, 23.881371756873904, 23.89117547077848, 23.93503179858916, 24.03462216042152, 24.06553092821115, 24.116423907957188, 24.16979849090069, 24.168946564149696, 24.122893894582973, 24.086361573290617, 24.087380953340368, 24.097496725301095, 24.07587314907289, 23.989468087421653, 23.956365669197528, 24.049174579267447, 24.011302764852445, 23.978518827841622, 23.94980344188167, 23.919039346688844, 23.901696979556064, 23.88587902089593, 23.86832559557885, 23.85202535506725, 23.83950881471502, 23.830136623074107, 23.8483324772092, 23.928977223212005, 23.927818784592105, 24.01539765644164, 24.055634444441996, 24.060742405247435, 24.065846057014014, 24.06807188219852, 24.06566750906569, 24.045824108809942, 23.9904</t>
-  </si>
-  <si>
-    <t>[22.34567521120796, 22.45246431539597, 22.58929921304329, 22.715267222818124, 22.81066343040527, 22.881774159380825, 22.95730362864467, 23.032178336079042, 22.9945867233065, 22.95951320694704, 22.952729850257857, 23.003122568527175, 23.09292035656061, 23.20084503210792, 23.29483369850251, 23.379123721975436, 23.449892333900866, 23.497504449484477, 23.543752208318935, 23.541744945880414, 23.32190155640767, 22.997680797840932, 22.702360347618157, 22.465894386192144, 22.274908502691005, 22.244186693545966, 22.252580316960945, 22.258653604397782, 22.266381364020145, 22.274213821666553, 22.28292180812417, 22.322608885693707, 22.34004919703423, 22.37101209704743, 22.44081697352441, 22.59500505696951, 22.863290967452727, 23.257323000436756, 23.71948995013027, 24.008529036337894, 24.017907937090154, 23.993177483859427, 23.91095697163017, 23.461051596157763, 22.976171721284956, 22.58628986592724, 22.376240577946778, 22.361349254453813, 22.357410891100997, 22.356992340962233, 22.35826107312103, 22.35841793580343, 22.359818500539845, 22.36317639068287, 22.368687629617483, 22.40078559144853, 22.407389858354424, 22.424211392662134, 22.43228821040688, 22.45309204959314, 22.58731861537971, 22.837916580380448, 23.12706782716911, 23.391737658004683, 23.480076599713385, 23.392011840264587, 23.29271937798779, 22.89146452091926, 22.406132740384734, 22.300837337674892, 22.30375846760983, 22.30605978787635, 22.309682913756532, 22.31401434216561, 22.312721180838608, 22.30725624664279, 22.308544611931712, 22.318522225024385, 22.33535173463615, 22.38382474834224, 22.40564181782938, 22.43442735474936, 22.445777865508305, 22.48551815386958, 22.773632345801143, 23.252346379954734, 23.778648934069277, 23.96359807406364, 23.948108344654866, 23.91724743075444, 23.876008763812436, 23.570519613198822, 23.143096955808918, 22.78091253184961, 22.48152831907359, 22.27252637865283, 22.232121131694623, 22.235104414050607, 22.236613269121793, 22.2347052418604, 22.231583011633536, 22.2296149346393, 22.23043617202687, 22.23345014369374, 22.23999109804366, 22.25747056534044, 22.265672550712214, 22.260188422984914, 22.4005777490908, 22.849403713611736, 23.378039118606797, 23.65458599762738, 23.606026506891066, 23.54195405325458, 23.487593081422798, 23.41195117053822, 23.176235385280137, 22.899001786761715, 22.640851626787693, 22.424392469183392, 22.220001751919835, 22.0491029560158, 22.067863185920345, 22.092641708053815, 22.09345047740423, 22.08986989633406, 22.089830657892467, 22.094095264645887, 22.102532907024045, 22.11905485065043, 22.123028034289053, 22.119068535757066, 22.318358515503007, 22.78104798411893, 23.338659403250116, 23.593709726835986, 23.600062700113337, 23.58464522269632, 23.559999847236693, 23.432342784725176, 23.14488935461378, 22.825964011059952, 22.533481734048255, 22.277611831966286, 22.13772582430978, 22.14213417314384, 22.154089838641116, 22.167048753762682, 22.185992488102112, 22.201455517306943, 22.209163596775642, 22.241584970910825, 22.26589794003777, 22.30732037475975, 22.470296508891526, 22.734641538057073, 23.139957100689553, 23.645140634259604, 23.899799194092555, 23.919615301865196, 23.919983504265144, 23.90261749018001, 23.874044056919967, 23.513116149761135, 22.964091369019936, 22.5660637844038, 22.38320278750965, 22.367818940628677, 22.368363167780327, 22.367327387265032, 22.363567250661237, 22.358823043566925, 22.353280948643317, 22.351370992739273, 22.352845252439323, 22.389090415994954, 22.404555355543334, 22.434538459703898, 22.449599191669034, 22.46509871403138, 22.637201610032324, 23.03734404628523, 23.532948310329147, 23.962031443064106, 24.005999102295107, 23.968473575475766, 23.897643991641388, 23.441161921760614, 22.87974260601584, 22.45573404189784, 22.402245140929352, 22.42038661596303, 22.437266138474836, 22.45185993577422, 22.45776546155017, 22.46574590037658, 22.470524919785806, 22.471198650708516, 22.464324370039492, 22.480142260341427, 22.480250141672865, 22.50032814454273, 22.508273402663907, 22.50784531282416, 22.675478797908113, 23.18111728164659, 23.766855260291823, 23.953982469646505, 23.903173905669547, 23.841577584763268, 23.78766374980212, 23.523227756934904, 23.007145679860386, 22.77477638027985, 22.522850655122394, 22.28297590431298, 22.29412958889897, 22.293122811513694, 22.298820587146057, 22.293689139236164, 22.274486995410253, 22.262327665682324, 22.258387314379572, 22.292194872838042, 22.30337705159954, 22.328228771096907, 22.347320484899456, 22.415849177470168, 22.790295368709366, 23.322901279591367, 23.800110262291355, 23.883395448622775, 23.860892049322278, 23.81971203119585, 23.769627382335813, 23.6749868122054, 23.39115699962744, 23.04861708710871, 22.712085179601473, 22.38347213140857, 22.261259069389244, 22.293667050718998, 22.320681926481324, 22.338217917600996, 22.348303067327098, 22.353701864812617, 22.357411344725364, 22.385867292606907, 22.390358016559905, 22.408120520380503, 22.412941781540415, 22.45405666038936, 22.802062533247124, 23.342304194663047, 23.814322062263727, 23.855824864556975, 23.81825349484157, 23.770407640320446, 23.721237052921996, 23.498814250789806, 22.952570649298295, 22.57386227099472, 22.30796942002969, 22.28286359040195, 22.287752829293993, 22.282478855453686, 22.280466711593373, 22.283528260897526, 22.290659777643175, 22.303551162283735, 22.319208770396724, 22.33728312355952, 22.355909399649462, 22.384062032603584, 22.399710733374246, 22.399052669958945, 22.463350650263862, 22.878573984568646, 23.405408938101505, 23.777210188074278, 23.75101996257813, 23.686445126662388, 23.617890018014748, 23.48956139946775, 23.10050869749634, 22.80070452065178, 22.696540036554428, 22.539807896227074, 22.382905283317772, 22.249095328132444, 22.171338002627692, 22.209221129446103, 22.26615233931311, 22.32739137078647, 22.384642189816706, 22.434890272702276, 22.48024571894054, 22.52594122932567, 22.550039435962876, 22.569483563199544, 22.597599792159343, 22.659536540743094, 22.969717882979367, 23.379131342987876, 23.655598877894914, 23.58977486520799, 23.231606395278764, 22.85642419957796, 22.533813186180737, 22.463880803555288, 22.45019918310457, 22.449332330170026, 22.46094402632023, 22.47775797958336, 22.492047754070295, 22.50591927544882, 22.51543070314771, 22.521476765886504, 22.52428867641586, 22.550499831116962, 22.554563487365755, 22.576089027592868, 22.579983210216852, 22.57834137361697, 22.64859454945184, 23.030497839204575, 23.550407374990638, 24.00302255138517, 24.03275491705017, 23.98545799091671, 23.933537661028, 23.601631412028443, 23.12024509254401, 22.7033928109395, 22.40690510877714, 22.389920232781293, 22.404723495660605, 22.41668046768804, 22.42875113139597, 22.441570376423446, 22.452404112813127, 22.46216950855144, 22.468073703138145, 22.495983280105147, 22.505388195553554, 22.528681934828825, 22.537615287274324, 22.54518454404008, 22.768146788219877, 23.2843638427006, 23.859264434302762, 24.013866953462266, 23.97729386851782, 23.930682944459566, 23.881071022255345, 23.790411181045542, 23.401884925372887, 22.873909365334878, 22.424932835447464, 22.372358668079794, 22.401770422124386, 22.421524071218457, 22.430824516292535, 22.430409029088263, 22.432268757782495, 22.435586233696153, 22.437228017021123, 22.460932810676212, 22.472501544388525, 22.496616337894665, 22.50247641906212, 22.50491898788631, 22.74129065440476, 23.345898906445488, 23.893209972960193, 23.8964308972777, 23.81201640006459, 23.725772126691094, 23.640572592193475, 23.55550995599798, 23.457301713491947, 23.262360481058575, 23.071112746929277, 22.90123170661308, 22.74650364538933, 22.612645247399694, 22.508159812129964, 22.419917967581117, 22.324641864856304, 22.249105706404006, 22.235304002228002, 22.464052749791847, 22.678356608403373, 22.897164923170852, 23.18434678669475, 23.394289254336716, 23.39478207767823, 23.371813341268524, 23.342340698449963, 23.296684209938928, 23.2682337381525, 23.23169080261435, 23.198277199835797, 23.134289090132125, 23.054109538188925, 22.961252019288533, 22.93175804040366, 22.930696656061524, 22.904857212129873, 22.883047203306727, 22.890032602646546, 22.864557946491832, 22.81666665717421, 22.79020078710001, 22.803475362311797, 22.932164243671085, 22.956371536516446, 22.981289954299807, 23.0012178400502, 23.04011364893454, 23.099979049398986, 23.207963766226815, 23.279573442564683, 23.341328110329602, 23.407071148690935, 23.434832012008897, 23.440143435605947, 23.344473499927773, 23.0018140445513, 22.66905558634332, 22.41114029641504, 22.1912138571857, 22.149864728553556, 22.175417053814645, 22.19973562861873, 22.225265930448966, 22.249756760243002, 22.243289635899643, 22.238575527427965, 22.237988868088436, 22.243290650750364, 22.257267774584843, 22.254439861291704, 22.249595244004237, 22.258562011858103, 22.279094655543407, 22.44590080763693, 22.728971478073912, 22.997896402856835, 23.039372302590305, 22.812560566902885, 22.58141720917227, 22.385616884393972, 22.20401978944244, 22.05415016712176, 21.956057345491555, 21.932260879808563, 21.931390489657232, 21.93106946868006, 21.929853666960113, 21.929126300229267, 21.92765484708293, 21.926623535235933, 21.924464092611938, 21.909914768571905, 21.905298908429618, 21.912307071373874, 21.911238917006333, 21.896798802681698, 22.037707953508512, 22.447462228774558, 22.860686675752323, 23.19633663737602, 23.24690297811793, 23.01567193297574, 22.75336617882989, 22.50853529647573, 22.27186852717314, 22.00389280804659, 21.893994124172206, 21.939806844332264, 21.99150709385317, 22.029752178207, 22.061803959632964, 22.094074682905774, 22.125309207256816, 22.1462810029422, 22.187316333311355, 22.206673026868557, 22.244556995939394, 22.259288234856598, 22.2978946174761, 22.591507398674462, 23.08064770966223, 23.61294227184528, 23.807072112794945, 23.80988595502886, 23.7968068925822, 23.747876409201798, 23.536430572794526, 23.130888238582383, 22.73459792783149, 22.382021719957876, 22.12632901113962, 22.099492749449748, 22.11894872602625, 22.13486550402403, 22.14647044999205, 22.15478601276398, 22.15947560961776, 22.17568224436505, 22.217431090253957, 22.234839710408604, 22.271768443528426, 22.284069168821038, 22.353299633993306, 22.633143295590212, 23.10052997525226, 23.64808540315525, 23.783449497866552, 23.770258374689302, 23.73506870216974, 23.684169665010145, 23.55604626016066, 23.226169634670345, 22.88075647319879, 22.577511808057768, 22.328475900428316, 22.12578917331609, 22.089952732420286, 22.12481994573763, 22.149877553107086, 22.157317195233777, 22.16685130259867, 22.182273563849936, 22.23030593800333, 22.250201232857222, 22.27855255274194, 22.29078656518493, 22.44762488659941, 22.75165633748165, 23.114038234721665, 23.450257087830703, 23.631710765146774, 23.60442826709027, 23.562433274769887, 23.5253259060691, 23.276362476562827, 22.953301320706256, 22.757599257260043, 22.612994514096854, 22.50117580180616, 22.411870202662357, 22.29698909473875, 22.17125349941759, 22.11092034300764, 22.029975792881455, 21.93646270279973, 21.88628165891849, 22.05877104793107, 22.234386551536574, 22.389559293462995, 22.611119391845904, 22.86352793399188, 23.139328041004934, 23.299092185709544, 23.292086690131416, 23.26902505936658, 23.261688505853602, 23.275826076559657, 23.241743844962034, 23.18617404646386, 23.165108920558197, 23.13732418930273, 23.102778827864473, 23.028726555849932, 22.941638039520015, 22.84570121534107, 22.723222961183414, 22.592846462586632, 22.410166629336924, 22.236480614460934, 22.211254485414234, 22.43440518435956, 22.638572032345536, 22.966866559504506, 23.24278003395885, 23.297603232463853, 23.29622915235069, 23.268963290305305, 23.26121509420179, 23.295925532781677, 23.329178532319347, 23.316280151162683, 23.273526604724186, 23.230047010666635, 23.205802363676714, 23.178187784337307, 23.113362551733132, 22.981141809213085, 22.83995012902781, 22.7068382511882, 22.57678264017986, 22.4499732946858, 22.33431236996743, 22.234302639422825, 22.149913416543853, 22.039539865978465, 21.93082530078134, 21.9471032999101, 22.081341926804644, 22.298775953520423, 22.498432654261194, 22.696038052078887, 22.936009685130056, 23.093567138391606, 23.091662438000114, 23.04929964637544, 23.009211281249463, 22.98202710063926, 22.948457738512417, 22.864717637663762, 22.680080201930068, 22.446071982443012, 22.35101111163861, 22.24524497923457, 22.10826057784317, 22.00966125217833, 21.85577972974699, 21.77166365001095, 21.830213169385033, 21.866587289489672, 21.901688127316998, 21.940598247900954, 21.979769105110353, 22.0059997609829, 22.222988843116795, 22.54689313523436, 22.89177937285433, 23.16711312821262, 23.288931644470367, 23.266294303250373, 23.210512602466512, 23.054200563170834, 22.783650011442315, 22.491840432975525, 22.23252944990894, 22.0382761016797, 21.900455632151097, 21.910544589801408, 21.939521748215686, 21.963461532277222, 21.98562973200927, 22.007067233150195, 22.02927656849126, 22.08073653640248, 22.09444964702351, 22.112321561686517, 22.231359797044146, 22.564797547919976, 23.019460305308623, 23.50084558975978, 23.55483820371712, 23.52496243706547, 23.510756923678855, 23.47955889233711, 23.429466217674843, 23.298361922281384, 23.0025285509345, 22.8460873392965, 22.732651655886126, 22.61165311302662, 22.502084074690842, 22.392766487275775, 22.276807020299856, 22.18363254724042, 22.09267362880154, 21.99254791829517, 21.86524757898971, 22.005344852359926, 22.23735042725674, 22.437785212985077, 22.67296205516651, 22.92638972145534, 23.171426604002423, 23.233045277759484, 23.205137003401187, 23.17557826539806, 23.1427963988211, 23.112859058225084, 23.090428792022475, 23.023943755066217, 22.886298079858317, 22.74438991632931, 22.633941755538928, 22.55928520460006, 22.5015257175983, 22.44984393226451, 22.392381694785644, 22.345336503588076, 22.298469527190353, 22.260421008878357, 22.258235587469517, 22.50822094835512, 22.757081028928088, 22.971171232214076, 23.049085812758992, 23.041965270742878, 23.022103356618572, 23.01742769303047, 23.031724832621393, 23.05878895965296, 23.067650945579086, 23.058234860840827, 23.037192853279155, 22.993267157960137, 22.999518178040887, 22.948429669701294, 22.80342467569371, 22.626376561832135, 22.46717093052216, 22.350985665668208, 22.248133684430922, 22.180826340618893, 22.13601814406229, 22.08785443149182, 22.089169104410136, 22.34486424244611, 22.57660689759548, 22.752755500149245, 23.006809293987022, 23.19187988529336, 23.21092393572525, 23.213643990876037, 23.217268794283637, 23.245359789396428, 23.283461762301954, 23.291671319645037, 23.269144826332226, 23.229402031959918, 23.208372531463322, 23.177010174186027, 23.011473102968143, 22.767829829886892, 22.49726657110769, 22.215124220216026, 21.96259785591469, 21.901016257737854, 21.956712153223908, 22.007521968455546, 22.051095785300987, 22.096871376627423, 22.10242284107918, 22.116533876250497, 22.174990507748984, 22.355794442633254, 22.75826503536977, 23.30571425580069, 23.57089737541324, 23.53926713947685, 23.521661835454527, 23.490883779609288, 23.453611940530195, 23.18563540854302, 22.780561043043004, 22.514322668572948, 22.3090192945245, 22.111457962513764, 21.974383706949038, 21.998713576056108, 22.02590934464312, 22.043475408936658, 22.042589077892814, 22.03691357188418, 22.031897288792887, 22.027864517306867, 22.02620611583761, 22.027856962231215, 22.029201513907193, 22.039246276940833, 22.188944879558118, 22.436493090787934, 22.789303195414973, 23.1173231213929, 23.26637840568105, 23.154706123736734, 22.88682225055128, 22.62134706173531, 22.433497681689946, 22.315264961542862, 22.218282838785967, 22.103879649525037, 22.061777383055567, 22.063968718677174, 22.070831432969527, 22.074088065017126, 22.076700793618844, 22.080292784361305, 22.09007504477628, 22.09958317437083, 22.112805538853895, 22.133737863601215, 22.122715578320168, 22.135392076281523, 22.28227069954865, 22.586801217456127, 23.051281869845095, 23.5553816632674, 23.624205324917526, 23.570745294562627, 23.451145829929633, 23.198037231112277, 22.857518666634714, 22.481063201664956, 22.275310206697032, 22.06308230326283, 21.966202182556245, 21.994254942418888, 22.029173207211397, 22.056100941384376, 22.06802515803695, 22.08040806262314, 22.090783581315037, 22.13697801437777, 22.15872153344073, 22.201830490911988, 22.29162662939611, 22.544271858778064, 22.959587074705908, 23.550916005403653, 23.67451722711574, 23.656641025360216, 23.64539100725393, 23.63896020875435, 23.618649974913946, 23.57202625485756, 23.49512615898996, 23.204522052260014, 22.853123013486055, 22.549848377540588, 22.300692490463007, 22.07288853306882, 21.979227038810773, 21.99200917115626, 22.012661438744455, 22.029883619815596, 22.041174080594143, 22.07547879318658, 22.090957193666142, 22.206817023699177, 22.48119725745566, 22.831487102222244, 23.246572944507125, 23.56345861763352, 23.600105055785672, 23.629237361175935, 23.613712640118454, 23.571839560619935, 23.52096172152916, 23.4817479805845, 23.443303124671104, 23.230064632587943, 22.962193193632743, 22.693662607008505, 22.466100918281835, 22.247563471579372, 22.05015188656212, 22.07098086116199, 22.095810755982985, 22.12073153946714, 22.1388224521255, 22.171635462237997, 22.190019910552394, 22.509244375257527, 22.8614657329516, 23.153691819398574, 23.531508312088295, 23.699863254605305, 23.696686224885628, 23.680170762878078, 23.665273241681607, 23.6303973615324, 23.585844458926925, 23.55308008634955, 23.522329449103978, 23.326694205669344, 23.058146874797043, 22.746142350959293, 22.540424589456453, 22.3271837597425, 22.140127973977837, 22.080134944612826, 22.08394141215849, 22.089159141399676, 22.09253685913203, 22.116944005083113, 22.17161970699425, 22.30506239177841, 22.533636726562943, 22.7802087349847, 23.005812924520967, 23.33978113055552, 23.533551107248588, 23.52007352558179, 23.49568525441425, 23.472320841101038, 23.456755577528458, 23.342702615129088, 23.0122337612833, 22.801762331782054, 22.648042182821, 22.38910017469499, 22.122471781277238, 21.987416808483612, 21.989932792466963, 22.002476020232166, 22.009822255430205, 22.02535767002493, 22.040484696624777, 22.074139107955556, 22.09565847723732, 22.232148657409528, 22.569496102643615, 23.008448335035165, 23.478386474206573, 23.643186412718347, 23.653204989605797, 23.650220586493845, 23.637515057326027, 23.611428715284234, 23.56847367690459, 23.539151172221366, 23.537059021969217, 23.434321080493618, 23.164627548977382, 22.861344387135375, 22.628314736796025, 22.429757576691717, 22.225092211478028, 22.08072133275864, 22.021240786427224, 22.024886558482674, 22.027902006860632, 22.036343451236984, 22.061292407433957, 22.104873819932806, 22.164304958154684, 22.379843875190918, 22.832157572006725, 23.400088457199832, 23.625899465672166, 23.666103159463358, 23.690248643115666, 23.692899915382895, 23.657286744212882, 23.61409411110672, 23.55208951508226, 23.34234482059844, 23.088829853221213, 22.849649855713352, 22.65386070538176, 22.498254830868017, 22.36968771501763, 22.273106650520223, 22.163792739061165, 22.060993776763294, 22.008508173563584, 21.985480202745666, 21.958797947510387, 22.12194758654414, 22.485835930931177, 22.825573315646764, 23.15848746349125, 23.485781832336098, 23.54223515557064, 23.538846322810556, 23.542820103919865, 23.530137206345596, 23.493151069609443, 23.463158765981422, 23.393540053574565, 23.215069125927442, 23.02929370074393, 22.836648363980245, 22.71259257448142, 22.58108630576764, 22.421976761375955, 22.30044060062623, 22.132729731813424, 21.980171437921623, 21.907864404592768, 22.05396303107094, 22.259941852346156, 22.74335096191362, 23.1724187072497, 23.45016882613112, 23.478656387059953, 23.456365147104673, 23.422391759683848, 23.40673717691908, 23.419187669729393, 23.39521352815244, 23.35512226667683, 23.33750796680791, 23.33742577541011, 23.325033705387895, 23.227798353950792, 23.03351014665132, 22.824324337588223, 22.6138506709808, 22.412243672772004, 22.220214921743302, 22.021506071416837, 21.967211896165477, 22.00368137494597, 22.060217176375176, 22.15001062631744, 22.64903061148621, 23.162010270573646, 23.501958924538666, 23.587773576460553, 23.544830102616014, 23.500163152010845, 23.499362669928047, 23.494930041141817, 23.467039953814165, 23.42175800183709, 23.365452215011548, 23.3337933155934, 23.29573845608728, 23.24668226554293, 23.10434789182358, 22.941140552773845, 22.804194585100973, 22.70273703158072, 22.609370952201317, 22.529400666083493, 22.45885275410845, 22.396248007969106, 22.55489757659765, 22.69212716666028, 22.823942786231886, 23.04661823621889, 23.256114050291497, 23.328583505644577, 23.320923158133308, 23.307805507622557, 23.304091320096777, 23.297207290606366, 23.275035312504254, 23.24419126568979, 23.2147014354283, 23.228213135056265, 23.16012040253035, 23.01519620608303, 22.80103780655094, 22.66142223447346, 22.54337565471531, 22.356617697715905, 22.207964003404793, 22.135321906352743, 22.104969277591305, 21.987491412922335, 22.044782125923177, 22.27547361066958, 22.813283642833397, 23.290358949251566, 23.517794320015653, 23.540907891216822, 23.55406310400585, 23.551548923218807, 23.534401000681168, 23.52282764942512, 23.50000944612422, 23.48120462860946, 23.474729611348078, 23.470264505628464, 23.299357395970883, 23.096816352895896, 22.94839670269643, 22.85671337722918, 22.789567380988956, 22.68974719984173, 22.580564033069482, 22.447950054045027, 22.38749510862898, 22.347086835470567, 22.487084722511607, 22.674876142157814, 23.03282104057618, 23.358635537720236, 23.48723024560392, 23.510737530114483, 23.52870857211993, 23.543602997766566, 23.55474138781918, 23.59228276096496, 23.591314164175632, 23.573283695023573, 23.373298363360746, 23.029968233479252, 22.77192556873075, 22.54034508509078, 22.37330457763402, 22.23319369891114, 22.12764710445738, 22.044370197018353, 21.989081697500993, 22.001862716111276, 22.035692775851583, 22.06269046358005, 22.061759752971565, 22.075005682291692, 22.105423818543766, 22.25855091522214, 22.534953267867593, 22.75584706406642, 23.079396368300593, 23.378238365731363, 23.483956013503022, 23.462517562245765, 23.358016579581015, 23.131680730440465, 22.908645738297157, 22.72444724170748, 22.52761061234824, 22.35481884604489, 22.194722025990703, 22.034291034517818, 22.041070428441653, 22.070326008605708, 22.092658135605117, 22.106714179272142, 22.119757226430067, 22.15413304564861, 22.195911506495992, 22.250260096847587, 22.31635431966914, 22.332813838450594, 22.44118525785264, 22.659288937020097, 23.1175476268651, 23.74283770083531, 23.866693296517727, 23.8436252610755, 23.82201328571077, 23.778790833743443, 23.59232346166552, 23.222911160186257, 22.94840679120257, 22.73400063314611, 22.514782209331898, 22.33050572305034, 22.121463715607504, 22.022958419838513, 22.02614010607202, 22.04061552018457, 22.0524321170883, 22.062426140739902, 22.09681847537571, 22.118223051555674, 22.315194349520283, 22.560855249164756, 22.7731319400494, 22.964616109029635, 23.26757145627072, 23.592878079188868, 23.610022786485917, 23.567771191932042, 23.52701818447618, 23.49136025303267, 23.385489988842195, 23.118802031463655, 22.888599609032156, 22.677110519258207, 22.418705532977864, 22.22585417176407, 22.0956417563239, 21.94511224698155, 21.91489299316466, 21.946137128721997, 21.967769155467522, 21.98316826769211, 22.025484119161614, 22.071920263055045, 22.408148628855866, 22.829208084271983, 23.176898318669558, 23.53925326378103, 23.614731257072204, 23.606551663310913, 23.583595165132355, 23.570760957348018, 23.541243172959355, 23.5017209836338, 23.451570889306037, 23.432925971136143, 23.296294359032217, 23.09375283192399, 22.86270520417513, 22.596033566242852, 22.34222085761981, 22.182373075044865, 22.074923929625744, 21.969466370039374, 21.949736778953937, 21.98624549229938, 22.044994005647037, 22.1007854226507, 22.367576891506644, 22.843495340655284, 23.34147803947467, 23.712484955353546, 23.711739619725417, 23.68677546538478, 23.664058745825177, 23.64787772851918, 23.61942969900019, 23.581683013895212, 23.53298197375239, 23.51547588587583, 23.463471168028153, 23.273224143224095, 23.05835423389824, 22.860500786470055, 22.697881236789815, 22.542441503046533, 22.393914421551084, 22.23949463598889, 22.103136789894034, 21.976806019325732, 22.094468431792354, 22.272636136448067, 22.72533222138054, 23.15283553650654, 23.43897141128333, 23.56082692613653, 23.525942880725832, 23.47832783060603, 23.464838348520743, 23.418398264661363, 23.38389636167878, 23.343734831155178, 23.257382909378553, 23.203981626827556, 23.15983688148685, 23.098197102226294, 23.021887062150228, 22.953757396788877, 22.894328767449554, 22.845687337087806, 22.772507036912184, 22.643423541890268, 22.465576096719207, 22.285766728720514, 22.425506349931084, 22.623670571487825, 22.859708016359296, 23.22885185993903, 23.544064490835705, 23.599979910304615, 23.656304230819988, 23.708290734060338, 23.739226455596675, 23.78792077873884, 23.820598352955002, 23.82869585232383, 23.800412533991764, 23.68061505879638, 23.39220618376471, 23.08832204991401, 22.82622478983971, 22.651486339104526, 22.442601089307956, 22.240283557979634, 22.218815245606745, 22.217007490556696, 22.224178231271654, 22.234654370812773, 22.243636396913512, 22.275766883674134, 22.321254592654952, 22.4912945740297, 22.755063275440815, 23.058824025313314, 23.41930529461656, 23.746824772948923, 23.761806374104992, 23.77351211544517, 23.769904541011552, 23.710311922537056, 23.361432012869912, 22.988397536381626, 22.693174499516477, 22.397772820910685, 22.255491667707243, 22.257731158723445, 22.269761493684936, 22.28054485338188, 22.287754656960015, 22.284096335198274, 22.285707835435574, 22.28858750163236, 22.28786130000873, 22.316758495134433, 22.347982001493577, 22.34228947860193, 22.406881109013753, 22.62594799111733, 22.961254520431822, 23.52541852125462, 23.857314714983485, 23.871822549688826, 23.851603111254523, 23.820918658107644, 23.65051407666103, 23.240964777141972, 22.86559413122431, 22.555412674119555, 22.332829285417827, 22.31492423385791, 22.30493967596077, 22.293922053764334, 22.282412567837483, 22.264617239784787, 22.23862492575393, 22.223707761340005, 22.22020097785173, 22.179815837050636, 22.206851955420007, 22.543545543789673, 23.106923823399352, 23.4998386663667, 23.541127607027835, 23.52776669751141, 23.497392353821564, 23.50136205377176, 23.499441135631866, 23.495185450634665, 23.42841823699383, 23.189479605413556, 22.925011976227427, 22.694128893302874, 22.512904366659285, 22.26285987711793, 22.124677403179295, 22.14958899310899, 22.16762594356902, 22.17600842726634, 22.184557191853767, 22.18532845334775, 22.198859957126945, 22.22204097158122, 22.603284907173713, 23.122201465681314, 23.554116588566202, 23.683337310390595, 23.681705685432615, 23.647493519619314, 23.595218725574032, 23.53295380939838, 23.467488575948394, 23.412296117109182, 23.376113370445335, 23.369559961899046, 23.22384475132432, 23.059218877821596, 22.946401438209396, 22.879506460042084, 22.772724796709756, 22.652695770794328, 22.563888377268693, 22.462153745486887, 22.358629911925302, 22.273441904740938, 22.419226977838907, 22.725789815764518, 23.25236826366526, 23.341039643391827, 23.313151110807667, 23.29891823283069, 23.31746853747826, 23.366280221033648, 23.38613357889165, 23.38108290711247, 23.369344044097556, 23.355579744226986, 23.348214931651622, 23.359700691712977, 23.351311116583048, 23.342119879400457, 23.287536726024058, 23.187999792870112, 23.012275214377656, 22.78510858943719, 22.657692623411737, 22.559181892523725, 22.484848196667496, 22.448002408956658, 22.64350600851408, 22.955381295836602, 23.414374073317234, 23.468165489333263, 23.46864014306287, 23.477567701078744, 23.477594099965867, 23.485085028259494, 23.48668867268744, 23.50185084397819, 23.50638941704094, 23.481757242522775, 23.400073182902798, 23.37212966335137, 23.35458261073826, 23.36259955763366, 23.356293817901356, 23.131997345878602, 22.82387804976682, 22.52503225674663, 22.345816794934148, 22.403687140956645, 22.467747450844673, 22.51265225778583, 22.56233400666918, 22.59398666040826, 22.69743608023951, 22.96239979670418, 23.28468962857889, 23.505640744547833, 23.802633473823516, 24.225978220767516, 24.267134634184004, 24.278854578579303, 24.2674397720141, 24.239705242824794, 23.81002879578428, 23.296492101798577, 22.840633743527132, 22.670583289491418, 22.660679021979046, 22.66149088340234, 22.659646212160556, 22.659166304999143, 22.654122742924184, 22.64011966609128, 22.63340000871334, 22.629149684402808, 22.628429637439066, 22.62980263167306, 22.653282626094693, 22.641041654446283, 22.6386325355264, 22.682717368551135, 22.975259626406785, 23.53105498957805, 23.957869282896368, 24.15268813661935, 24.15307043616293, 24.052713453375812, 23.659387705398895, 23.266584666603, 22.965538728075973, 22.662261314701635, 22.42193820874434, 22.39136970033373, 22.373568372509222, 22.358823634941015, 22.347675264278653, 22.338512556745517, 22.32842277913701, 22.332362949563063, 22.36420230666833, 22.400873202013116, 22.426623723339734, 22.494095916296143, 22.810726065828778, 23.075811810761916, 23.42016306441263, 23.858190773850726, 23.93074896547702, 23.917006688189527, 23.896938419924552, 23.869787000722365, 23.803407759630897, 23.611749076684593, 23.370825006952032, 23.15834473656379, 22.773072154188913, 22.575367734821395, 22.46289534866216, 22.332529582246526, 22.341413051927947, 22.350559276679423, 22.355094995557778, 22.35789443652804, 22.395625611239012, 22.456709385210377, 22.86087256303037, 23.383720892811755, 23.833382524453203, 23.969074723577403, 23.93368909450376, 23.906894920183774, 23.88905058568525, 23.868246131411365, 23.839101070283046, 23.817123212020338, 23.752430737509385, 23.68571154153956, 23.645652413198974, 23.558321685852274, 23.382271493737377, 23.23199623482101, 23.115146181389907, 23.02516320045721, 22.860297529729195, 22.682707146064246, 22.59268782561017, 22.428100212398803, 22.50779272524237, 22.662490133005843, 22.816722206465425, 22.990870607405597, 23.42278015567645, 23.530482283366013, 23.51078831113065, 23.45850250743759, 23.445646349392216, 23.425574783608166, 23.37325040975816, 23.331105726512988, 23.273154751425825, 23.210864799334853, 23.018150173090277, 22.887460742965384, 22.868061137619787, 22.777962050184282, 22.63701707631806, 22.50119187791134, 22.369042153331616, 22.261738601313255, 22.197165682154232, 22.09350630135674, 22.30938038393029, 22.611638661450275, 23.032678396315205, 23.40760774377122, 23.438579995654493, 23.469214365204664, 23.498786097636366, 23.544115017113807, 23.574255173562136, 23.57892929549961, 23.56095569374769, 23.538774481577878, 23.46816801824217, 23.400008842697133, 23.33293635193023, 23.295327212898187, 23.201054114402158, 23.057880977219416, 22.958178175602352, 22.87552282169315, 22.741782565743133, 22.53503952789302, 22.354670495428675, 22.178152336873257, 22.28917777943821, 22.638373985425556, 23.19831143936482, 23.543547260032337, 23.537967638779403, 23.540969861645994, 23.549538778216316, 23.56770492918638, 23.60524381250262, 23.627120757843333, 23.631757314512853, 23.63284578813149, 23.59354636368448, 23.58010542322828, 23.551269088941044, 23.46524558603078, 23.220262136808596, 23.006689381370904, 22.881504160281935, 22.719008161739023, 22.563262954891144, 22.413551914020733, 22.30524685649566, 22.157301731464997, 22.258504394218107, 22.64098515087396, 23.309165477811614, 23.613258070266507, 23.589039607895387, 23.604196961125837, 23.628030000350652, 23.682486560591258, 23.737951594610877, 23.797195549792253, 23.836235762977353, 23.851485791149134, 23.818553090532728, 23.788758686173583, 23.73482347999221, 23.637658988002034, 23.459550136011497, 23.330317964232123, 23.196867275879825, 23.047278240351904, 22.851169359591097, 22.58909839903855, 22.425954078966523, 22.297530602027496, 22.158508084377015, 22.31168164708644, 22.877452885537622, 23.43816922113959, 23.58176331108982, 23.578625891930745, 23.58978401205448, 23.612357161850152, 23.650563970994913, 23.668267837772607, 23.676121416780934, 23.680439637720003, 23.665009009679085, 23.638331217780948, 23.607150863500532, 23.544826711034915, 23.354458499413138, 23.192649842947333, 23.089181343372985, 22.9263893806842, 22.771031034179757, 22.6717597918195, 22.590595325195448, 22.554807455753544, 22.420632515285906, 22.49263300514035, 23.012642409264856, 23.501524588997427, 23.589970259601582, 23.61588392828931, 23.630300341415793, 23.674609752417954, 23.73256607674215, 23.763776053690368, 23.7767753763713, 23.780814768765396, 23.768778232695876, 23.757331494119995, 23.755682445002794, 23.67722089925861, 23.476530682922583, 23.33374449512483, 23.177878676801754, 23.03666782765205, 22.945975469007735, 22.853842145416053, 22.752230035462276, 22.645367958077724, 22.779495816140013, 23.077106451773762, 23.56652597050845, 23.729709934519615, 23.736248521103516, 23.754005657425964, 23.743504300</t>
-  </si>
-  <si>
-    <t>[22.586989556065536, 22.686794192562328, 22.81622822643132, 22.934856101327018, 23.02401179659857, 23.090471427429776, 23.161915660017, 23.43714306689027, 23.485424863139883, 23.447678963889718, 23.436194399657413, 23.463880940922184, 23.548829257709304, 23.65456793385339, 23.752517460106798, 23.8472810184622, 23.92642645808239, 23.984754290225002, 24.031293824992535, 23.96303056536288, 23.639268781158535, 23.286901331446007, 22.976843623405795, 22.729870537142048, 22.50896748799695, 22.287654657380187, 22.06042430853252, 21.869058665181054, 21.85073005943146, 21.86390832549473, 21.876509406962864, 21.916314449018767, 21.94868044981116, 22.1709623775413, 22.419602638696716, 22.63229634886999, 22.929667382579186, 23.343313937117802, 23.8194351683717, 24.264415763058906, 24.509520184659163, 24.45638454844158, 24.18598657312476, 23.664376251443596, 23.161457960333816, 22.76236131531992, 22.425002004612878, 22.149910115384966, 21.95184187204302, 21.936465623715005, 21.943469760311192, 21.947114235539797, 21.950797624510248, 21.955731845972952, 21.962048827630422, 21.993316775609884, 22.000039031442725, 22.015941170839707, 22.08313407350869, 22.299244404068926, 22.526707784056814, 22.811067543233595, 23.121066259369684, 23.400131961125794, 23.497732762883473, 23.416233567710318, 23.32268189416077, 22.92354121753935, 22.411056069418418, 22.060865490086503, 21.901176758413303, 21.884410221078497, 21.892514355764206, 21.899522121227616, 21.899808861758817, 21.895200251207935, 21.897013108689062, 21.90743961822102, 21.92460800893613, 21.973056923334514, 21.995016135501928, 22.02275808153928, 22.087401954380386, 22.28304251892229, 22.653574020796757, 23.161936645692347, 23.722579575024863, 24.269591374119912, 24.447366699321048, 24.409119859174563, 24.252168919182328, 23.7220590922402, 23.225069111757175, 22.837956292575615, 22.52393997097361, 22.28690146792192, 22.085067640739698, 21.90133993358181, 21.809207192329513, 21.81000683028816, 21.81080594386911, 21.81133621869942, 21.813831627688035, 21.81800982613346, 21.82502384164116, 21.84224478612226, 21.849961966246937, 21.8891737472441, 22.205258362068594, 22.711867661498463, 23.266107496111385, 23.805363734954497, 24.08884800065346, 24.027620806888155, 23.790975982933162, 23.507336156424433, 23.207968854093693, 22.907753944937877, 22.63746875234337, 22.413058117071277, 22.20280063843642, 21.95154843176736, 21.715025275647367, 21.665448530319008, 21.66892882047215, 21.6682036776854, 21.670410595998458, 21.67640243034765, 21.685441663654654, 21.701137258770416, 21.705117168906867, 21.792016423896428, 22.130354042652574, 22.63387996113825, 23.22314515410039, 23.85208543036812, 24.094684834369787, 24.06767457444747, 23.82352831492314, 23.488376627634807, 23.1496248609723, 22.81033785283719, 22.5065398606508, 22.243141269082585, 21.99219164358649, 21.766510505138854, 21.724961126787743, 21.742895621188577, 21.765274070956128, 21.782783972011078, 21.79142982198184, 21.82371995781989, 21.84859904552034, 21.98922938895583, 22.280403957192476, 22.58053373843244, 23.005842552796683, 23.52979979636962, 24.03878189617913, 24.391289671331876, 24.413234329641583, 24.386155642984374, 24.190514814517755, 23.60622261226519, 22.99354188693296, 22.57061515163856, 22.314167742297666, 22.062524095038285, 21.93694669343725, 21.939037058646985, 21.939407559569588, 21.93731922192914, 21.933453692166257, 21.932468890994908, 21.93454532027612, 21.97114500882942, 21.987087700198344, 22.016774050403697, 22.035919506770725, 22.145901488266954, 22.43351919297035, 22.868393142789284, 23.383339979907262, 23.89963641617686, 24.260806162496085, 24.25781022495222, 23.97335963942376, 23.412125812845403, 22.825318669930766, 22.327274863761318, 21.99261226105701, 21.989929041920487, 22.011904341933057, 22.029298020402795, 22.03639617754907, 22.045216117744847, 22.05042081616796, 22.051229584260785, 22.044141703033755, 22.060360468074794, 22.06054105095829, 22.079964693745527, 22.088074323476814, 22.1097693476282, 22.422786376445387, 22.979250629779244, 23.60752272545257, 24.231954689341617, 24.398219921519797, 24.327698145791643, 24.256163051460295, 23.702575491767604, 23.034789539704885, 22.763222243753063, 22.487896590715422, 22.066764772054004, 21.859464484324675, 21.860427073790987, 21.871274556281577, 21.868566623120557, 21.851038088078806, 21.840106323212197, 21.837075939734273, 21.870752915210407, 21.882547018122537, 21.907038199322955, 21.93740769801038, 22.13668096615279, 22.579874954209956, 23.137792940497636, 23.696435039196285, 24.232463121231437, 24.35656229016531, 24.306122619683318, 24.248204411612267, 23.907535338061447, 23.439905951094573, 23.047081572784546, 22.685014850343762, 22.335756123552102, 21.995014915437594, 21.861058120969286, 21.89171335956948, 21.913550300826255, 21.926061327011855, 21.932631849524487, 21.936864797504658, 21.965408357263822, 21.970107234246388, 21.98743892009475, 21.99633192065309, 22.159559848333853, 22.59183090058232, 23.15988209821509, 23.761468445933655, 24.276532230807693, 24.31240313604485, 24.255299376940226, 24.199240056634697, 23.707028459744937, 22.9986496038923, 22.57765386849991, 22.257511509135952, 22.021017859290527, 21.864881648375132, 21.850301367507285, 21.852961117651756, 21.859255038914764, 21.86855303838023, 21.882960649100085, 21.89965722877857, 21.918174233317888, 21.936778285471913, 21.965040901251665, 21.980712550821238, 21.97922006287749, 22.156978937000787, 22.668794617264542, 23.22534261237071, 23.790153757121434, 24.181283848802053, 24.169255751785997, 23.897429004382847, 23.530550735344665, 23.067281924059156, 22.743367801105858, 22.62732399722798, 22.46148977166038, 22.29839478311965, 22.1603412991894, 22.05042135808902, 21.955904643456876, 21.86604830824612, 21.903282093423616, 21.964376221881878, 22.016588823096594, 22.06287493594125, 22.109585628980955, 22.133882358207345, 22.15314399593214, 22.182593800963513, 22.369650960360634, 22.76696012591573, 23.201904014894367, 23.49157511354394, 23.432450468938466, 23.078538229930686, 22.70710238507968, 22.344579542668498, 22.057848782328378, 22.020999965470597, 22.023634876463387, 22.03706699218864, 22.054899551114858, 22.070015835971134, 22.084318812795342, 22.093843149115912, 22.099783668636196, 22.102305001939808, 22.128606178252216, 22.13356219949635, 22.154470604415266, 22.158135403890395, 22.157220794490872, 22.334310985813307, 22.794990619661956, 23.33987124401781, 23.89764294466346, 24.310718196169862, 24.385142881879435, 24.13446496100093, 23.589912678748117, 23.044622925949522, 22.605190284797647, 22.236965719972705, 21.98911988633129, 21.97086090433207, 21.98772291016314, 22.002890350911013, 22.017113350906182, 22.02868406857731, 22.039129187061956, 22.045307641613345, 22.073888767234916, 22.083700659820835, 22.10644489845537, 22.11550593585038, 22.161847514167203, 22.50729479623743, 23.0605468212696, 23.6891860968319, 24.32263331665845, 24.47150900404247, 24.415087424213112, 24.356973530898212, 24.02294850738836, 23.424045213118323, 22.839270924363305, 22.31614874520794, 21.974854248935078, 21.964907223242353, 21.99073696085992, 22.003900461790447, 22.005616410759004, 22.00838954608641, 22.01231161346227, 22.014267314648595, 22.038439944451387, 22.05049470682597, 22.074088069555746, 22.079954024310478, 22.10845722928325, 22.475247351357556, 23.122735754860404, 23.80799546527291, 24.30869675809625, 24.30470753968702, 24.207395068822063, 24.11466172827278, 23.869261392232108, 23.53434819276954, 23.262556400095793, 23.03864100677554, 22.84840532089233, 22.679346609837214, 22.535103601539372, 22.42306927468005, 22.329138158165694, 22.229440123227786, 22.1509155476985, 22.135246792835023, 22.36427604183545, 22.57779076636287, 22.796382322036834, 23.084358238755243, 23.423909982091086, 23.783507796223997, 23.86087618576887, 23.82525791094018, 23.774020425293205, 23.740996854747532, 23.69949231816554, 23.664705835280234, 23.406235992764238, 23.152912321603257, 23.01103766169075, 22.95616224667631, 22.938039014904405, 22.899550974920658, 22.868543439078156, 22.868757299591625, 22.837879536553945, 22.78587317539826, 22.75650335513501, 22.767676418778837, 23.0089973245763, 23.24553075395919, 23.42495795716552, 23.488476540695853, 23.52396897988197, 23.580511587870223, 23.686879795328107, 23.76093439024841, 23.822843272883336, 23.88861592145095, 23.916190798927136, 23.92006444919672, 23.62007995106607, 23.151126134554385, 22.78099353272108, 22.501567439638, 22.255318565290917, 22.034698699989708, 21.830804074206892, 21.773879242378502, 21.804745985337536, 21.83308925819222, 21.82814117703435, 21.824566510368474, 21.824685879739082, 21.83008750191513, 21.84379654194809, 21.840689100312417, 21.834672268709244, 21.843188281151882, 21.974693576272198, 22.28485424117162, 22.607315329591756, 22.89687202151406, 22.950919449774442, 22.732529016685778, 22.508389354783517, 22.31824890945609, 22.141102728339444, 21.994940708023094, 21.895486507909794, 21.818428778365938, 21.739397719443854, 21.640227730749412, 21.54186363331851, 21.503898300401882, 21.504466180125736, 21.505291527905612, 21.50436056866823, 21.491017864717538, 21.48637556076132, 21.49302859711247, 21.52733318142188, 21.60886915390982, 21.844828300968246, 22.29485876852566, 22.727092400796142, 23.07530859161011, 23.149402114931096, 22.910003922248027, 22.64784256273403, 22.40516229885034, 22.17065036361979, 21.899770425130544, 21.610417955088096, 21.516341408182928, 21.56924486939899, 21.610518874025207, 21.643808709346562, 21.676663212439948, 21.7079435475805, 21.728742664516933, 21.77033168692559, 21.78920644270183, 21.825782945989232, 21.855222267140363, 22.018769780711057, 22.38952716873167, 22.905303338266638, 23.473034537372527, 24.03768315157002, 24.302658779499364, 24.286497618879526, 24.179489464184268, 23.687162132554718, 23.15280988004358, 22.717172785255713, 22.343935460185275, 22.034194836322232, 21.762892942069154, 21.684467254808553, 21.70558493681993, 21.721469840308995, 21.73219974739841, 21.73816909417077, 21.75519902025579, 21.797533490286924, 21.815327101531707, 21.85159863437863, 21.915244633740418, 22.12302468399417, 22.44241146004352, 22.930167321102818, 23.54811387494315, 24.15622810103927, 24.2666327712777, 24.222214231961146, 24.159515164355998, 23.763337149308153, 23.273944482664806, 22.88300480669979, 22.555731874098523, 22.290814097171964, 22.055467047458507, 21.784793338286956, 21.691834967029248, 21.72126752090682, 21.73278690196253, 21.74483709669177, 21.761998016458048, 21.8103268217621, 21.83059765276921, 21.85827766421133, 21.953296243215743, 22.232690418907115, 22.56978781924656, 22.95049756762098, 23.29938409805438, 23.591964377152866, 23.799165649479477, 23.831289382338223, 23.713363562457122, 23.301020055791906, 22.90205509047259, 22.687152409041243, 22.533368085163513, 22.415876917722716, 22.322708386186022, 22.20456454039457, 22.076649169365194, 22.01534172559145, 21.933109927818517, 21.83880640903266, 21.788442699982923, 21.962296013673967, 22.137944244892633, 22.293498976810863, 22.516048728152942, 22.76946703787958, 23.049947068473568, 23.48211489659793, 23.77457204114958, 23.76546754668109, 23.74010245570822, 23.726077054905232, 23.69699928544694, 23.625518547146523, 23.470902309454846, 23.339491755967895, 23.207744265382107, 23.082607744288442, 22.971999335657827, 22.86051944176584, 22.726607582570693, 22.58777241363039, 22.398086428566447, 22.21986525676766, 22.19208502470494, 22.41413384093305, 22.61580837813184, 22.943175355916264, 23.281681126215414, 23.671600625665562, 23.78757404348235, 23.76140284105119, 23.746281642920014, 23.749203443390503, 23.761316616023894, 23.748586123127055, 23.726828043123344, 23.6813994600062, 23.65907745799302, 23.526545697315076, 23.295999120991123, 23.111918650651713, 22.946021241847657, 22.79639880868225, 22.654145469321197, 22.51812626917823, 22.395465524971964, 22.290134920572367, 22.201631812496334, 22.08763451519209, 21.976496102462644, 21.9914933541705, 22.124835644293682, 22.341334973238833, 22.539258073149004, 22.73528631803421, 22.974014792813033, 23.143751090456874, 23.24521066693678, 23.257578307819344, 23.204527983208266, 23.129978216910747, 23.03103159152846, 22.921965901443787, 22.729141864229547, 22.492525385151158, 22.396338965500615, 22.288427140026727, 22.14994854339105, 22.050498888333838, 21.892778782585946, 21.694438517492596, 21.61852252465215, 21.56252773335591, 21.49171383248945, 21.52341836657564, 21.59046404657624, 21.825261428359656, 22.134576102816556, 22.48799638211838, 22.850052204338954, 23.14078562164517, 23.51556149393115, 23.675197057082116, 23.382456655960016, 23.117993635480307, 22.82160906922827, 22.52031284678273, 22.256198582123584, 22.058915524417035, 21.883028908491344, 21.71563928855552, 21.56683549803419, 21.540840926590935, 21.56685621943373, 21.5915337410293, 21.615671608719456, 21.66656089067351, 21.680662250738152, 21.787741102508917, 22.066546387605143, 22.451871178157614, 22.9303610629687, 23.49456534453272, 23.93215847099332, 24.02076354492803, 24.00018074141002, 23.96320630541159, 23.90827861075746, 23.57136783201416, 23.12126229920831, 22.925193948828422, 22.79064922024082, 22.655264880147485, 22.53553053505084, 22.41855295999402, 22.296915151935508, 22.19956741152461, 22.105201787138906, 22.002367948917694, 21.872538579931163, 22.01298574608825, 22.244683068557553, 22.44408538621308, 22.67863671888746, 22.931484397450543, 23.186505810489493, 23.439707713055256, 23.649234165013, 23.660387434944738, 23.622282105835808, 23.588658274854932, 23.564075707307836, 23.309589219641968, 23.029897268499013, 22.84926713305919, 22.719234887400656, 22.63161004442129, 22.564172753566737, 22.50536349013115, 22.44247330761281, 22.391275637484853, 22.341001621863395, 22.300434042563808, 22.296307636578835, 22.54616944093803, 22.792841598611684, 23.009367648611043, 23.279693459605824, 23.52411068071868, 23.512783766956783, 23.503841825779016, 23.490943598428085, 23.491141824731546, 23.49305492030855, 23.481507755169147, 23.472182079925258, 23.43555594991895, 23.32567126501409, 23.14426661159057, 22.957668285906237, 22.760563922878447, 22.588571105331486, 22.46312756678651, 22.352872897470046, 22.27996909980671, 22.230248270415757, 22.17842442747495, 22.17701075617471, 22.43153143377153, 22.660197637190958, 22.833932698176284, 23.08656166078561, 23.400740470501717, 23.68490247593067, 23.708006144777993, 23.71438575972113, 23.715152221810992, 23.72799577838548, 23.73709578781131, 23.730930988212222, 23.688671473649162, 23.65377724310707, 23.475068165488768, 23.22391137524977, 22.952194029812407, 22.665261737510956, 22.37155102420502, 22.108062697608432, 21.88435258054122, 21.672975704628232, 21.58772283877534, 21.634245559324512, 21.70847593360476, 21.794737590310074, 21.924550301263228, 22.122647147444173, 22.346522633550748, 22.772083304048024, 23.33440080389181, 23.801774425293104, 24.0330837674579, 24.02106039389649, 23.98565626336044, 23.927815887059626, 23.4584381211591, 22.967974805710224, 22.674974144844537, 22.453260619046574, 22.24372632618262, 22.00860017354385, 21.80686638691665, 21.665757607545384, 21.621669769214822, 21.624099942752206, 21.621382520860667, 21.618274657910025, 21.615491150273385, 21.61455005698211, 21.616315703564297, 21.63740055668913, 21.839985814151913, 22.09787746862318, 22.380331321548663, 22.75411067106107, 23.096062026393728, 23.253321576666295, 23.146664162540805, 22.88334580949373, 22.62230196751405, 22.4385659598943, 22.323539346369227, 22.228698134047193, 22.100371144738816, 21.929687122362807, 21.78272097615208, 21.6674079485217, 21.652426538208463, 21.658482204668868, 21.66481730543676, 21.67628951697493, 21.686638794131365, 21.700181553877645, 21.72023352830814, 21.726878345758504, 21.863102675174407, 22.136500639739054, 22.479720186415932, 22.96573898771835, 23.51602486396349, 23.832887679217567, 23.861850766638323, 23.5527414520836, 23.206241062205375, 22.842528993481725, 22.45884295142864, 22.251059940451515, 22.032744621984786, 21.7736024137143, 21.589293099826453, 21.603656634842537, 21.6352564348977, 21.649860835296895, 21.663889830494757, 21.675024492451268, 21.721356608696595, 21.743068680014478, 21.830866997442993, 22.0855991294757, 22.396507866075567, 22.83649492542536, 23.531344571786395, 24.123801213361673, 24.156075942139463, 24.141504395882695, 24.130498815469434, 24.101487865421586, 24.026129932915765, 23.7225923688315, 23.311610988485253, 22.919623065175447, 22.59381901843102, 22.329407330416917, 22.07776093553829, 21.792742210999105, 21.612975636053005, 21.584177601525393, 21.606113146268783, 21.620964936940965, 21.656161738299648, 21.699609227375017, 21.998579299100232, 22.34372654074964, 22.7201619720406, 23.151747004336784, 23.678503064331665, 24.088730067193982, 24.129023365508726, 24.109993288251584, 24.063190066932773, 24.005884981336305, 23.942895000404874, 23.68222608904422, 23.35451553421632, 23.04811262428116, 22.756918966071876, 22.513837022039024, 22.283334236471987, 22.021955232508535, 21.840689924217326, 21.695660035677278, 21.695916050187837, 21.718720775145357, 21.757151376008192, 21.90676060133501, 22.372299789900087, 22.762050380114434, 23.073175315681095, 23.48755882571429, 24.068774052035025, 24.196271287196982, 24.178629992227457, 24.159035800731942, 24.12054155231151, 24.069356417206574, 24.021290628162607, 23.79748453252299, 23.47318999976164, 23.1645894966573, 22.830416624279653, 22.60973322477724, 22.38479525710092, 22.186762141006625, 22.016855593444166, 21.85079967747015, 21.738145813447534, 21.677694105565646, 21.896193561322033, 22.07986881149749, 22.244212889917467, 22.4894156646407, 22.746559194736108, 22.98001183616277, 23.320321233768237, 23.601991845288993, 23.844205402718895, 23.97683958094832, 23.959028376639697, 23.938230316112357, 23.615963452763083, 23.12880852490824, 22.881796865745812, 22.710571889158178, 22.43926128507256, 22.16469273016591, 21.988538024546973, 21.84165409184628, 21.710309398635598, 21.60420276414465, 21.602457054886724, 21.62126904943959, 21.656327485746985, 21.709828142619, 22.047725234650603, 22.458579176500503, 22.925440697979425, 23.43461987708757, 23.98664806248267, 24.153786152408898, 24.150746172618653, 24.12916840746118, 24.096123361163098, 24.055534588530772, 24.01866556545846, 23.906760776648486, 23.621979060506494, 23.294301320334913, 22.964430548840095, 22.71452730343241, 22.503105156826752, 22.28871843117223, 22.136444771513656, 22.00463265693213, 21.892541423516164, 21.78535914565366, 21.66885260334276, 21.646972655825902, 21.875747327977592, 22.074071891082884, 22.324440049873772, 22.79529063457491, 23.411335708920436, 24.03876989388512, 24.16474893660751, 24.18247130138353, 24.180042579508793, 24.141496194228125, 24.073297687929927, 23.822017829213404, 23.494815735535827, 23.205805294040317, 22.947540914320466, 22.738940245632403, 22.573550803453088, 22.437561498926694, 22.33541803780776, 22.221367947551126, 22.114959328495406, 22.06006406839928, 22.034744994570044, 22.006031560568104, 22.168885341774047, 22.532722126759182, 22.871062678690894, 23.201633209073815, 23.65324849481851, 24.024116181980727, 24.032962838755704, 24.030716052001495, 24.01438912500046, 23.976571949350568, 23.9076051706468, 23.634618716412323, 23.381372280165987, 23.167937205268515, 22.958696030790918, 22.823211455668837, 22.68240183068426, 22.516696740136727, 22.390192819258232, 22.218018039370264, 22.062693869612755, 21.960339981673556, 22.107872860818944, 22.330080194502113, 22.8162069257977, 23.245004709857398, 23.614789920243297, 23.945412607570674, 23.9511575043486, 23.918396082724616, 23.897161400780288, 23.905040599451265, 23.880878971077056, 23.84527452089678, 23.821758499488563, 23.782283070228445, 23.614406853666296, 23.439436293751992, 23.216165106538977, 22.99002975030992, 22.7675776414042, 22.55720726198911, 22.35846960826156, 22.150974325740947, 21.973891887548817, 21.849461749865316, 21.987891411966796, 22.192569299125726, 22.720797270890667, 23.243378826223942, 23.607236680149615, 23.988273011845106, 24.042394449335887, 23.998060722177897, 23.988245823670912, 23.98188274745242, 23.95356282973583, 23.908841995932075, 23.85251407505513, 23.817753491295083, 23.739617072664526, 23.53237049743899, 23.33529017314471, 23.148343566591958, 22.99616750186266, 22.883680167083384, 22.781522853774366, 22.69474831159296, 22.618791984525558, 22.551705328759766, 22.707944788524696, 22.84181343965687, 22.971172465039896, 23.192368384243327, 23.398235333738175, 23.57163787262642, 23.808322750577904, 23.802680239053192, 23.795406996858492, 23.782991335106917, 23.758324060671573, 23.726754545214288, 23.68140514028073, 23.538977561876916, 23.40369833368924, 23.23382979093844, 23.005616933069437, 22.856857368535657, 22.730695326588002, 22.5375486710071, 22.384629967459887, 22.308555565683864, 22.274831765304963, 22.1515927750616, 22.20394827427728, 22.437697403493843, 22.975739781365295, 23.450830901355157, 23.837518268191133, 24.036668670373853, 24.051888408233268, 24.049944981314862, 24.02464178659143, 24.01171955021488, 23.99062237531852, 23.972386742157823, 23.960273913974607, 23.835560245707388, 23.572576545996352, 23.342508590511027, 23.178019160885537, 23.074699900732256, 22.997409028965667, 22.88936621126322, 22.774039500304827, 22.636995327258195, 22.5738044812705, 22.530897335836958, 22.66973880652732, 22.854854094350486, 23.212222240412903, 23.535643239034496, 23.760485293175947, 23.987634222941605, 24.028213154144392, 24.039439347190164, 24.048016098427457, 24.084045328834616, 24.082032604008493, 24.062933311385283, 23.727332945176144, 23.305583588979903, 23.023928883725613, 22.777819549024453, 22.60031700399848, 22.45193223563739, 22.340293619204584, 22.252072932540603, 22.13056405904862, 21.99071328309549, 21.84864458389899, 21.73729972688427, 21.653312861003403, 21.665535421189528, 21.88682117708274, 22.249241817370404, 22.578092968165823, 22.824012951558768, 23.164490822941943, 23.47427253683317, 23.58685218822491, 23.571040434764466, 23.470867591894205, 23.247451576708993, 23.027045009151408, 22.84484078566352, 22.649629170779296, 22.478339838205372, 22.318847211650603, 22.111599824885328, 21.89445896045193, 21.707914897915938, 21.673776539267294, 21.69232134041336, 21.70881390976673, 21.746500018409293, 21.790464684599453, 21.844920365685798, 21.915120393460096, 22.09753140091233, 22.36427383980151, 22.626883541930756, 23.110549720218803, 23.781593718642586, 24.22436187536923, 24.34375314141354, 24.31594503172038, 24.22782037544867, 23.81405457342427, 23.369832422287075, 23.072642915455543, 22.84503331185665, 22.61684281942247, 22.425874665139958, 22.210412751295678, 22.02503719815783, 21.864708106709625, 21.702721468449766, 21.631344362008335, 21.64274066483851, 21.71591767164763, 21.8711712693591, 22.227844357056423, 22.51654328809019, 22.749976118379806, 22.955423855217163, 23.269211741298886, 23.679189881790563, 24.026033849851142, 24.062924210424843, 24.015643964995476, 23.974551358829473, 23.67796146476844, 23.274467826851833, 23.009795632984083, 22.780293179544074, 22.509908559276663, 22.30917221149023, 22.172947304297093, 21.999073306336395, 21.792712614267018, 21.666256721758817, 21.569425828476863, 21.56197842997456, 21.73243162386481, 21.939961152904413, 22.35078835312645, 22.798124497575056, 23.1607775368693, 23.59412706338374, 24.043918275043, 24.108486430665305, 24.08039699015129, 24.058785715138285, 24.026898174240447, 23.990159379198023, 23.933149767000568, 23.776552991643054, 23.498829887506446, 23.25435789122662, 23.000395974712415, 22.717601767564645, 22.452576814147676, 22.28451864367047, 22.170570452011347, 22.037978309298126, 21.81970036432331, 21.646629252964416, 21.740082414429537, 21.897394776563385, 22.31778569798561, 22.834698642355033, 23.34994069907577, 23.975804769771724, 24.212024738562985, 24.18770984900708, 24.158576201639338, 24.134600075367175, 24.10433691981832, 24.071367505846172, 24.016772139913247, 23.978526193742066, 23.755812780171283, 23.474047930367448, 23.228609454368968, 23.012539565802616, 22.83682470962957, 22.671737830690585, 22.51548050269272, 22.35520808710722, 22.21415719559231, 22.06609774805123, 22.178072626983067, 22.369685107899233, 22.824617087259103, 23.251197176651726, 23.54946772921426, 23.96556369767411, 24.022389298654616, 23.971927347062657, 23.954472140471665, 23.91047545817248, 23.86849392788244, 23.82646609674208, 23.73861501075912, 23.623160226247226, 23.44357669460733, 23.315407957501645, 23.213029802123405, 23.128938372490936, 23.057696680832905, 23.000400079039107, 22.920187883246545, 22.785926535001625, 22.60416929805531, 22.422020270267783, 22.56128373116039, 22.756995027865326, 22.991475777160094, 23.35954045943043, 23.774781628791576, 24.08270570337824, 24.156621331392262, 24.209424606805296, 24.235797461532666, 24.280173610191255, 24.31213300176273, 24.325468767775998, 24.27056820007122, 23.985546964726527, 23.639194155770053, 23.310897091851174, 23.033211585719183, 22.847542110741387, 22.62925104124127, 22.350617611063996, 22.189771961503457, 22.041889801569116, 21.824823974917027, 21.814967789074775, 21.82876584347512, 21.862641474099064, 22.05521972828269, 22.439601972425592, 22.755543865422666, 23.08521178047999, 23.46330760311282, 23.92204539925393, 24.216866052236288, 24.271858066910536, 24.25881026897631, 24.021509497889213, 23.550294364939834, 23.150008576211878, 22.841770385473808, 22.53678149787305, 22.259564197252317, 22.005917121060317, 21.851000366274818, 21.859896421373872, 21.871882001065632, 21.87134636526005, 21.874892587777918, 21.87896795048933, 21.87898852135292, 21.906953012784196, 21.93754168496368, 22.014045502935613, 22.271465093303664, 22.55547686718056, 22.91994754496727, 23.503766288760474, 23.93440026537519, 24.252920123812885, 24.34921861337377, 24.249498433882508, 23.855287119309164, 23.35949364913026, 22.960793441763713, 22.63810428031572, 22.342439263984783, 22.121074377384204, 21.991750943944268, 21.879881590007017, 21.85993506535336, 21.84553816269675, 21.822463438210793, 21.808613917657226, 21.811601207455606, 21.87374887406186, 22.047475281189055, 22.451249842618296, 23.041831501918455, 23.616747748811047, 24.006878628051663, 24.024244698316295, 23.99332074286485, 23.994305882103106, 23.989631990395566, 23.977662681856785, 23.769275681196394, 23.36655580065299, 23.057362807113833, 22.80285182048622, 22.60551697993159, 22.3425912572425, 22.07712227650312, 21.909507927081208, 21.79241967107312, 21.753201100430996, 21.765261575586706, 21.769007068704457, 21.781940660898247, 21.908726470914914, 22.473025427042145, 23.038617298259087, 23.516140772014356, 23.887067401771464, 24.11855538169907, 24.145579742177542, 24.090742064753343, 24.017325335650852, 23.94972891164035, 23.899292038358908, 23.854637122102847, 23.70391000771213, 23.408395647190556, 23.20095903572542, 23.064906081959105, 22.981547079850184, 22.862225974915983, 22.73324842809369, 22.63768470234382, 22.530347878567813, 22.422700112846133, 22.33425079117151, 22.478934329992967, 22.784173508253975, 23.375652677809217, 23.804524323915217, 23.80545046980843, 23.79213351576225, 23.809583771283652, 23.830691668898847, 23.876799496858087, 23.875184574421635, 23.859189997648865, 23.8556142395511, 23.833755988947292, 23.841306666807366, 23.833278870334563, 23.769904323313114, 23.549497173301386, 23.39845023169325, 23.197759345613047, 22.954506956102218, 22.81615716876009, 22.70887565655247, 22.627518342972337, 22.584821205487845, 22.77721739163407, 23.085180403816988, 23.673132476096423, 23.962609439427084, 23.963897093909765, 23.97056861007988, 23.971146770814627, 23.972139822280212, 23.972824416798176, 23.988122238149035, 23.993472154177628, 23.96963093405598, 23.891793399003692, 23.860746771202088, 23.840302695941762, 23.846572723213672, 23.7100290996927, 23.400427145616817, 23.06541667730602, 22.75021746467272, 22.48830076138431, 22.241589182844805, 22.07029719021251, 22.098775691949317, 22.15106144084353, 22.215419532644763, 22.578165502846755, 22.962239559069445, 23.32088144696553, 23.561892761459656, 23.874301548842357, 24.419154272296016, 24.755067469774385, 24.779173780328808, 24.7619351203415, 24.623177555566283, 24.04212187066008, 23.49305568417064, 23.010041513301875, 22.58543198596134, 22.27057172074629, 22.23693772781023, 22.24147886394587, 22.245234723135848, 22.2429726739695, 22.23044091372887, 22.224348213471, 22.220645831055425, 22.22022713579335, 22.22103399786285, 22.242638461596247, 22.231021668425736, 22.27218354282824, 22.54049447446681, 22.902281915849027, 23.489906428328112, 23.93467759381052, 24.217254273425606, 24.406414755903644, 24.210269354982405, 23.72131540724325, 23.314291161495778, 23.00922797850045, 22.703223378442058, 22.371212849092327, 22.12564973191559, 21.962119346891964, 21.933476603227813, 21.92633145634858, 21.920135887016645, 21.912148112924083, 21.917913652617553, 21.95136534091292, 21.988117212364404, 22.012150655865714, 22.237581917629836, 22.67683287819975, 22.975107046397255, 23.339842168936883, 23.851601635858668, 24.284887245705267, 24.413074049983667, 24.38573373579676, 24.22079353859178, 23.932957010967673, 23.679175259781022, 23.41575678867535, 23.18989839042393, 22.79477234849764, 22.592745273094334, 22.474430315446966, 22.24491265421933, 22.102843184514295, 21.97216242276566, 21.9305322520169, 21.936991647307014, 22.01592112404739, 22.254922233986708, 22.744559648421497, 23.295211953993057, 23.786913619274443, 24.31435898349687, 24.430887807389343, 24.40259649731978, 24.37884081336682, 24.350429080848148, 24.32005596799219, 24.30331030396005, 24.230905361450457, 24.16002250182972, 24.030470764717208, 23.754050455725245, 23.518854933783498, 23.341468861393846, 23.20679470521082, 23.103838144738543, 22.928089717099436, 22.743164204614587, 22.647642878959463, 22.477855633582532, 22.55521454912892, 22.70744128012851, 22.858999323222296, 23.03207187130394, 23.46743135356799, 23.681824315601833, 23.88618213296363, 23.949375937294366, 23.93221829648483, 23.908191366341967, 23.853527540774376, 23.810403592279144, 23.69373181968152, 23.45981084261041, 23.18769022133746, 23.029820070783956, 22.993211982975396, 22.889763900256284, 22.73918787502819, 22.59645755984941, 22.45838092125825, 22.34680005387264, 22.278566292164143, 22.171828963240895, 22.387711703108067, 22.68835544865792, 23.108301268648216, 23.616010817465565, 23.9281460291697, 23.964508437574597, 23.996439153319752, 24.04119654513453, 24.063343038070474, 24.066295209594077, 24.049571112278375, 24.029601394335884, 23.952104644226015, 23.880560245043018, 23.746212663565405, 23.56293810991173, 23.41243356329471, 23.245746498851986, 23.130969194635217, 23.036975452546415, 22.893942570606026, 22.680418967379296, 22.49504460261213, 22.314222882870627, 22.423690844485467, 22.770883496822876, 23.329570471145843, 23.914757527363424, 24.03614681582988, 24.036810698367887, 24.046034714556324, 24.0571796489772, 24.094715215890346, 24.11622311074198, 24.120578705581696, 24.126375092916323, 24.082519112998444, 24.055552936885167, 23.926076739013492, 23.751991654792096, 23.45869684972962, 23.22664547241203, 23.088478263418306, 22.916029182826247, 22.75251472115325, 22.597240148214727, 22.4845182161674, 22.3324854973763, 22.431810955058143, 22.81318762649433, 23.479720351511574, 24.012818447669925, 24.086821902133934, 24.098267922908644, 24.125371002791336, 24.173769330918986, 24.229384174148937, 24.289229715061612, 24.328508282215513, 24.345673799092864, 24.311974032247004, 24.277408562332198, 24.207046768836985, 23.9861387522932, 23.738259169451748, 23.58662952155686, 23.43880444939779, 23.278863534162337, 23.073903574818985, 22.80559763748512, 22.63828500497002, 22.506051475784716, 22.363621711084658, 22.51623079675298, 23.080700936834507, 23.66855868046351, 24.054738839413954, 24.07494379059483, 24.082066014083832, 24.108469894678166, 24.1448404204536, 24.15855065499618, 24.16683666429483, 24.174883641796374, 24.155499650312493, 24.127067815097472, 24.094054000797588, 23.93814293794826, 23.65495116057471, 23.46866031520571, 23.351092820382842, 23.177257768117347, 23.014313208016247, 22.909122629097464, 22.82266252213168, 22.782240865405516, 22.643389384141045, 22.714493824805704, 23.23360556865801, 23.814986284028805, 24.086807104202624, 24.113535219556933, 24.12421518200782, 24.172651446760003, 24.22907835340766, 24.256342045696098, 24.271348989825487, 24.276501974865283, 24.260546861250095, 24.24550574185213, 24.18124045079725, 24.016165848890722, 23.77126863927543, 23.611946656068273, 23.44442472551225, 23.29538183187221, 23.198471926263863, 23.100451952231086, 22.994258924834238, 22.88358413958049, 23.0162144520959, 23.311548857867795, 23.830084520090907, 24.214475073747113, 24.235015923544932, 24.25309503380696, 24.23830887337782, 24.249047521943783, 24.2634</t>
-  </si>
-  <si>
-    <t>[22.84793883524951, 22.94228104439215, 23.06565742880745, 23.178168750436555, 23.26162831219719, 23.323905325058785, 23.392120918287034, 23.68945993079815, 23.89934516290022, 23.885729113137398, 23.872109458499633, 23.894147843937812, 23.966550863109973, 24.073889023722113, 24.178251333825177, 24.27516522045073, 24.360005236225295, 24.4234488411745, 24.469465082644746, 24.31881431090062, 23.939082071298444, 23.569946381451217, 23.24999126243534, 22.995585244307716, 22.76869472562926, 22.54245640599963, 22.31130512536141, 22.08500771295962, 21.889507359504123, 21.74597061636614, 21.621634828952352, 21.7789890240342, 21.988920457935148, 22.28888617270918, 22.56246807902254, 22.788959146891056, 23.095863517286514, 23.51622642315843, 23.996692237312356, 24.44411998227123, 24.727407455333008, 24.66735275224319, 24.375699734231535, 23.85029460636647, 23.347503728541156, 22.948626515345385, 22.61135043930393, 22.336132240385172, 22.090607238754483, 21.864999881521474, 21.663929465389117, 21.4774538788981, 21.318831361241564, 21.204109196295736, 21.119569966855888, 21.300921257816125, 21.479641140832985, 21.710780383223607, 21.9508348907096, 22.236579355294605, 22.50100522695268, 22.810969581650706, 23.1395362376537, 23.43210017627094, 23.53868520035593, 23.46384397460284, 23.376122327367096, 22.97960179435526, 22.47068936966333, 22.124585313989105, 21.934627021758207, 21.74077991623021, 21.557146128843073, 21.385572236067294, 21.231661551115547, 21.08689923127197, 20.9516976995874, 20.825444158197566, 20.70704536500897, 20.87115009612371, 21.103490708281548, 21.438708508696493, 21.74797115194053, 22.03566935624917, 22.456605183956512, 23.000906125946585, 23.588311034548127, 24.163048944951996, 24.60163292193232, 24.653271128259533, 24.291586539209828, 23.696742957007146, 23.18636941264312, 22.794505074552266, 22.478277424808386, 22.240108965774823, 22.03746877185358, 21.853176886441744, 21.68023495796753, 21.518427063429105, 21.37487185665957, 21.251910878989317, 21.137984889547408, 21.029926358820447, 20.942785174651988, 21.026746057398533, 21.22177477608038, 21.511267326750474, 21.935806996552937, 22.488477762434226, 23.073834586396107, 23.63936537885374, 24.011699774483052, 23.997976519230605, 23.687899417015178, 23.38582166752653, 23.083875861601083, 22.784052652599204, 22.515235911155788, 22.292535555262987, 22.083679708587564, 21.833079474190317, 21.597431132224624, 21.505152652918195, 21.429549950530014, 21.32362823640909, 21.21444103893509, 21.11017810903928, 21.035477518139444, 21.136357859826948, 21.28846208348374, 21.52312641408973, 21.90693405200368, 22.43650297567172, 23.04743787665944, 23.698014239147238, 24.116694123312627, 24.07639371333241, 23.726424945725714, 23.364629244420765, 23.018446191696516, 22.67621524333858, 22.371424228776178, 22.10805229811059, 21.857279944362375, 21.613669107654434, 21.374161162572296, 21.204684359499847, 21.13051387126934, 21.047492463671787, 20.977577868406502, 21.09996540154967, 21.235936977456085, 21.617119143676934, 21.98693132539506, 22.32283081496209, 22.77430091952634, 23.322036184283608, 23.844872411688172, 24.29897067715446, 24.56593612441571, 24.48012420275204, 24.109702063579736, 23.474816823146686, 22.846870160603043, 22.418875319721238, 22.16024421674842, 21.90663750929338, 21.676974941699, 21.48425521329625, 21.32299056294676, 21.177894746375404, 21.0259129012087, 20.839389166652207, 20.641424057021037, 20.73480003884779, 20.912947804875373, 21.191716229181836, 21.460746721941117, 21.7046180952707, 22.04786034302465, 22.520887813364496, 23.064624323057398, 23.603180134802, 23.980517399654236, 23.98638514310589, 23.70757956649793, 23.1484849868054, 22.56431759584791, 22.06959867045353, 21.653711699939404, 21.33825880471987, 21.058378380418926, 20.83560074379213, 20.657773610315786, 20.544802269801394, 20.552911927665967, 20.55901047635965, 20.56066828590421, 20.570340702987654, 20.57131379174807, 20.687074381854696, 20.937293614833667, 21.28241917268073, 21.7789502647673, 22.412684837310778, 23.095306602959727, 23.78819852723048, 24.293563993331492, 24.353511045190285, 24.074440835673474, 23.379916671714692, 22.678064504955078, 22.40018761584103, 22.122013690792386, 21.6978570996607, 21.41693650331526, 21.226917273721252, 20.928028178184878, 20.86710680297544, 20.798881160701047, 20.620347816977496, 20.42597345739818, 20.51721429436445, 20.693133894736814, 20.928860465414413, 21.16284893071599, 21.511697129350107, 22.014471608412496, 22.61511146588477, 23.207402224159903, 23.800994328539986, 24.237341212756476, 24.31981753386158, 24.09744587878167, 23.588302356314376, 23.073804403514526, 22.66420052944117, 22.294105633735686, 21.9405167240979, 21.594634734064837, 21.278152719274175, 21.009540533743387, 20.756378458575025, 20.521952128070772, 20.41950851245446, 20.42865176269461, 20.46229175307073, 20.53163481649788, 20.786077373048577, 21.075755571252987, 21.434054253170412, 21.94149298447027, 22.56173451352211, 23.206453855363886, 23.851088718871896, 24.299620061057762, 24.34742705683318, 24.0698775288823, 23.364805617773282, 22.593068498848666, 22.1539721232558, 21.825404623829925, 21.584644154933617, 21.38827851541541, 21.204236591597784, 21.01006155265399, 20.82277987460327, 20.639182386926894, 20.458763758524082, 20.38636821612758, 20.409562680354025, 20.43190832971754, 20.461434634679293, 20.538124610757194, 20.81904784391401, 21.31756685524004, 21.944676461248097, 22.572415398919656, 23.192545136472273, 23.61694427185374, 23.653709556366362, 23.361522890115626, 22.988948435125298, 22.523505520104436, 22.201422211772368, 22.094199404993073, 21.934949953792085, 21.77717071997527, 21.643987095270774, 21.53873922863218, 21.448527017815696, 21.32234927290419, 21.12737370732313, 20.945004623023106, 20.789962997548525, 20.65180855266436, 20.67650259255654, 20.75626822120231, 20.90975790731846, 21.194514484615798, 21.61275513996995, 22.08654238377989, 22.565782810960528, 22.886053129121056, 22.844060672331114, 22.501370604887384, 22.138248486946992, 21.781855086670628, 21.42972998934823, 21.112772838561025, 20.847709227443186, 20.60518505087603, 20.537692995616553, 20.565373783502285, 20.584221291340153, 20.596342250944, 20.603573545194745, 20.60648849505341, 20.63414919867463, 20.639534268657826, 20.653896760787333, 20.78396668247383, 21.050561397081253, 21.463698622889055, 22.010802552979484, 22.608810159554668, 23.210639209269157, 23.66456724956309, 23.75577284688887, 23.50346252045765, 22.95580614522362, 22.410167079780393, 21.971783267486497, 21.606990157695652, 21.324835411333336, 21.07593503295439, 20.82863113188522, 20.57571188279121, 20.495823108709754, 20.518362150948146, 20.534571722745934, 20.54319954796664, 20.572272419529423, 20.57701513789955, 20.60810214748953, 20.804140305949414, 21.161788950389973, 21.646269959450695, 22.266526480449397, 22.95369421079634, 23.657469748748422, 24.172807640656846, 24.31439316919672, 24.1074879262368, 23.540663618870315, 22.84719489849863, 22.231203660646926, 21.694270691289194, 21.304408687916588, 21.038095544738812, 20.801766125322033, 20.56855719360028, 20.48085397463939, 20.489794105332653, 20.504046222458655, 20.508725881408015, 20.530712307732603, 20.53948029294168, 20.562903482045083, 20.67404196991771, 21.012797327343755, 21.557300979253753, 22.280591059349813, 23.033746483925427, 23.66343438724984, 24.113612824049767, 24.21747574747103, 23.94272752629848, 23.40777277925733, 22.967178147463674, 22.669222687121177, 22.430288956229393, 22.231778936928563, 22.0579182609199, 21.911154908800977, 21.798516672166603, 21.705063321385975, 21.606361149794946, 21.529335676820548, 21.516207100933325, 21.751346988555103, 21.971569038903123, 22.19661425831838, 22.49457744077212, 22.853987333136747, 23.25058666151016, 23.57425788684259, 23.685493830367943, 23.594041049697022, 23.489104958635437, 23.421179820610927, 23.2926725567411, 22.943420832379562, 22.65044891251611, 22.497383346714788, 22.440604823905847, 22.422375239904465, 22.387116792119254, 22.358161968788483, 22.359105041774857, 22.330616487346166, 22.280694460132825, 22.250956026081123, 22.262640031848292, 22.514307205487654, 22.76445371415591, 22.954966220611254, 23.08680308962637, 23.171750947704854, 23.29213187330323, 23.36420738823793, 23.590350762961304, 23.723173894657133, 23.98117894606922, 24.099330761742518, 23.885348568684645, 23.32869354147161, 22.778762514429857, 22.379112847723828, 22.08368892155845, 21.826752320701104, 21.598583353471337, 21.385020357231213, 21.177101831324226, 20.975152637857366, 20.807143980636493, 20.658052599446503, 20.494351453991253, 20.377522480583043, 20.321837868485392, 20.397700363011495, 20.486681858207845, 20.62264950387689, 20.86563204359121, 21.20412039691657, 21.59028143364129, 21.958634408767296, 22.281656364035104, 22.358616045343087, 22.156493418143516, 21.94523771612228, 21.765474932066894, 21.59674721549781, 21.45764473362443, 21.364308006609203, 21.29227415982286, 21.217582364425663, 21.12216133706784, 21.026122743075792, 20.956624554830793, 20.930187628291506, 20.919299331477347, 20.907659725048955, 20.837630158349352, 20.76157881073401, 20.793966230547053, 20.95631368144548, 21.076310648545476, 21.33011572835195, 21.793605094919712, 22.239661608451993, 22.601258032334982, 22.680771792776834, 22.441308733446082, 22.178118632149758, 21.932930071091175, 21.697457083948223, 21.42508597144727, 21.132946929838088, 20.893069095406428, 20.698121174601884, 20.540159664940138, 20.366895894206237, 20.208930387540363, 20.196355113577848, 20.22232343737059, 20.270938370945185, 20.362177770703617, 20.67763692516365, 20.96583666130724, 21.276628777684575, 21.710644440766856, 22.27454862349205, 22.88758790572601, 23.484100090389152, 23.930344507011142, 24.0692605062207, 23.80267436536738, 23.210008430503894, 22.65196705949842, 22.207388279634007, 21.83078960682961, 21.52007180504772, 21.24260310132565, 21.004908374857767, 20.811479664171106, 20.63793256492102, 20.46800422177358, 20.276982488768393, 20.239381192043258, 20.3519002422077, 20.486632648202214, 20.79253937792483, 21.083359900875053, 21.39427509920759, 21.7640774972031, 22.291199490317197, 22.947942358073508, 23.65577041294192, 24.17143683239982, 24.25707983429275, 23.955631605769153, 23.345873754821216, 22.805256157313554, 22.39267990628927, 22.054757578534467, 21.784439091682557, 21.54605587589045, 21.26307842252535, 20.97628840110646, 20.815829015833277, 20.661206849259607, 20.473247452706843, 20.293927551852775, 20.3718229824518, 20.505579449976533, 20.84337532083283, 21.157911297847733, 21.517399758228404, 21.900603111160592, 22.316487756826078, 22.694979365780267, 23.019331771967078, 23.251117132568865, 23.29029781706153, 23.177706358597707, 22.76609275060248, 22.359867430109066, 22.145812103863634, 21.995729180057566, 21.882160180130047, 21.792772628610862, 21.67712111337804, 21.55077211402438, 21.49285846203811, 21.41320887945759, 21.32049214150989, 21.272873972456342, 21.45099076483432, 21.630179981589876, 21.789466676450967, 22.017267826738973, 22.277070732657634, 22.566446138727333, 23.01360197672669, 23.574778099123254, 24.087528706535466, 24.166452228191133, 24.142639355368075, 24.099436006850876, 23.769791654732654, 23.29232583598909, 23.07681089975112, 22.905828427546066, 22.754626545000566, 22.625842416521618, 22.501224562881273, 22.357017641741624, 22.210586140250143, 22.014636125168362, 21.831833330044294, 21.802971544478993, 22.027165782925522, 22.230575756403294, 22.56009268115099, 22.90352226373965, 23.326717154499544, 23.786912669303348, 24.15694034812594, 24.174221836695242, 24.17385167516205, 24.17897053737757, 24.161576745257875, 24.126794265054297, 24.051661333137854, 23.78790387423351, 23.449704478346465, 23.149190026259646, 22.929932815000143, 22.740685140312948, 22.574364072080865, 22.419813459086072, 22.27470170424262, 22.145319932321005, 22.034919106072334, 21.942543929495173, 21.825355084119764, 21.71244500876028, 21.727469982920493, 21.861828883603142, 22.080625846153847, 22.28228242303877, 22.481872704288335, 22.7235946204071, 22.898781626621613, 23.00721015143394, 23.021885019134107, 22.964888050118557, 22.888928754660366, 22.789429751631037, 22.67985187673595, 22.482086361829506, 22.241447783147578, 22.146197499302072, 22.038590463659414, 21.899788904795326, 21.801171237479576, 21.643382752572588, 21.445089263665633, 21.371038600440006, 21.316416301883976, 21.20203291792846, 21.12822678556235, 21.2460049766521, 21.550224173169653, 21.875079401353048, 22.23758368125674, 22.6083996095459, 22.910172354821352, 23.291680031404173, 23.453597982746363, 23.15501522949587, 22.886064925841723, 22.587730485136834, 22.28501133294674, 22.021083564663446, 21.824892125368525, 21.650031232379565, 21.48358601306032, 21.32881513339215, 21.182027898878296, 21.04191829801243, 20.91761759519365, 20.808758337254293, 20.952375959150164, 21.128880922378233, 21.39740332644914, 21.727489665722562, 22.140051306504077, 22.63987265205418, 23.22561326429795, 23.688463164282552, 23.981959106266824, 24.194768525081816, 24.262273024711195, 24.079349813774446, 23.51192793331332, 22.96821717832127, 22.74737058276284, 22.601367756140814, 22.45866883296, 22.334118151056725, 22.213486889600077, 22.0890989430664, 21.990424747389408, 21.895270632376054, 21.79193944998097, 21.66115579108163, 21.803091627615103, 22.036853462951882, 22.23796146285893, 22.474535297891435, 22.729945188757103, 22.98857241064401, 23.247607787340872, 23.48372433585575, 23.654090308627776, 23.703224273621412, 23.649456645990924, 23.554524083501192, 23.203617455352475, 22.877440829101136, 22.68316145056062, 22.547004718460528, 22.456128280129445, 22.386668693658567, 22.326498744125534, 22.26274685586324, 22.211410986049525, 22.16121997673218, 22.121065949884393, 22.118058939436377, 22.371376662057667, 22.621170936142363, 22.841731044291652, 23.116729946137493, 23.49412455909678, 23.79342650402432, 23.928917368048346, 23.91749594802073, 23.90731922596629, 23.897559411952653, 23.884797574212545, 23.877264837075007, 23.723751504441864, 23.386443781247223, 23.137942153652222, 22.920880422885826, 22.704593549938576, 22.5192684740464, 22.38416745881995, 22.266693210958035, 22.188618034449675, 22.135049057790226, 22.08043531945762, 22.077560511789255, 22.332671633966, 22.560723029259986, 22.733858777698018, 22.986887277835365, 23.302675276408266, 23.731728149977574, 24.107379521598045, 24.147530748625588, 24.151117689805535, 24.148988094206356, 24.151371074080615, 24.13874215480415, 24.0726909100479, 23.83942672081149, 23.550396649062264, 23.261530961491157, 22.967961669354903, 22.665728756705175, 22.360782209774527, 22.08902504668913, 21.859087227628834, 21.642926993960426, 21.45130885632466, 21.337466055762306, 21.54478680177475, 21.702420488373992, 21.84701582514783, 22.052708320602772, 22.281791950515114, 22.712478942252442, 23.278600120526196, 23.748202822416047, 24.169983209659033, 24.44358419817169, 24.420079028928956, 24.191322985688014, 23.535324197497015, 23.004108513057798, 22.692888494067997, 22.459167579466737, 22.24080175071029, 21.999038911365176, 21.792765906139504, 21.646996443112602, 21.554556791878607, 21.50032592935405, 21.425802731540845, 21.35493134086187, 21.290440903225818, 21.240884926686693, 21.253822721258597, 21.417373735458444, 21.70842371693225, 21.991499452370547, 22.288744065116735, 22.67348306590185, 23.02344137170498, 23.185500655957004, 23.080399049079972, 22.81830572131209, 22.559026976092795, 22.377434412447215, 22.264336888854928, 22.17084120114565, 22.04319267134598, 21.87293661386252, 21.726742022992838, 21.594641396128576, 21.472365109904313, 21.361414794171406, 21.224569281960186, 21.11023842899058, 21.05870777800069, 21.04944064924108, 21.218228607935774, 21.435962301415405, 21.659845011798794, 21.966374902585454, 22.33032518815058, 22.833470625501278, 23.399491975145178, 23.722201370791662, 23.754055271692526, 23.446949701951336, 23.10218326474154, 22.738943807130415, 22.356360176517228, 22.151477491022177, 21.934432126855125, 21.675953370415098, 21.44200119429307, 21.246122454462668, 21.118884597700177, 21.008008819800665, 20.88687102156433, 20.73867299801425, 20.807164404086805, 20.967029746739836, 21.362347829636448, 21.765942282494493, 22.12859330219808, 22.60317805920224, 23.329008043239355, 24.09625746915707, 24.560567081887374, 24.580250796678058, 24.560671452207284, 24.52452755602683, 24.264375529484408, 23.752926531297437, 23.29032121095075, 22.872718658995385, 22.531293250888552, 22.256330804003724, 21.996435498853447, 21.705345832290632, 21.51408539538421, 21.380891945903624, 21.291748852865858, 21.198759953968498, 21.361417509961285, 21.518922718507167, 21.84379333936037, 22.202239185174232, 22.58839617017888, 23.027941938610834, 23.56313791007267, 24.23078132125262, 24.558664317053353, 24.54480077434077, 24.491065978920457, 24.429089762341988, 24.240999982096515, 23.763320302781796, 23.379089812861483, 23.045839426782354, 22.73741187889225, 22.482434986890116, 22.24271438035662, 21.9745055630695, 21.788707470076627, 21.60982898362128, 21.438516408560748, 21.312954037415, 21.477159291882902, 21.75982002926816, 22.25349164281856, 22.656163426705216, 22.97582982013186, 23.398451875222204, 24.088136803958935, 24.615594472453143, 24.615922407211794, 24.589113450838834, 24.546418819354745, 24.492018553107858, 24.3256479750753, 23.905329466899673, 23.527628457257197, 23.193539979845895, 22.8430793678407, 22.611257967758615, 22.377517144159246, 22.17316149523089, 21.998330230137032, 21.82856768371624, 21.71333225952843, 21.65111474872658, 21.869517255380746, 22.05167569058021, 22.215080548974573, 22.460356713033452, 22.717154476978667, 22.95065774355533, 23.29160047068325, 23.573122858203604, 23.815545962320027, 23.967938313032576, 23.992652900714535, 23.996192258441727, 23.639282153183984, 23.112360628923827, 22.858966017638327, 22.685157976204454, 22.411533590152985, 22.135889038178977, 21.959554486194673, 21.812386432445205, 21.68084859980308, 21.54541358344122, 21.39175618504243, 21.305275286299164, 21.473147814126126, 21.61405331192847, 21.97366099623815, 22.39590385713824, 22.870628017777232, 23.386044903591497, 23.99065258053913, 24.543834740159713, 24.59028017051884, 24.5654126329989, 24.53182853856879, 24.482513535048653, 24.388723346722532, 24.068976953060204, 23.71762304991815, 23.361819383633303, 23.01477174047874, 22.753276484810993, 22.532800994711476, 22.311580238167622, 22.154366910637, 22.0185899282819, 21.903451006593063, 21.793790069367788, 21.674354950670054, 21.61923265922834, 21.872129017560415, 22.074304411505338, 22.326167966437083, 22.79824860109397, 23.415433637510386, 24.129551647655628, 24.580750957171016, 24.62014023927692, 24.612417715734935, 24.55810887651664, 24.303532379204025, 23.93650100913054, 23.577438993665073, 23.27215520311275, 23.003199061492893, 22.78710178152117, 22.615879053697864, 22.475460059443648, 22.369973884459586, 22.253026180414306, 22.1444410950151, 22.08818502870513, 22.061480884449953, 22.03151184103508, 22.19449749322966, 22.55864526389126, 22.896204716022126, 23.22537335102207, 23.676096281665295, 24.2832862746191, 24.471096483055003, 24.466508823958055, 24.4456109237742, 24.400679963446375, 24.170313203290252, 23.770974355971845, 23.48490279668432, 23.254953591376463, 23.034846382232914, 22.891813925105524, 22.744703317622253, 22.574552080042917, 22.444722882277613, 22.26947606168152, 22.112324979451433, 22.00859576506109, 22.156013795996916, 22.377175572222416, 22.863510522621613, 23.29138837005948, 23.65985451874241, 24.108091085602666, 24.380583197408765, 24.356178153192925, 24.333491974138656, 24.343258522541557, 24.316826632605782, 24.274080884250186, 24.237760708922995, 24.03550767697466, 23.784282438180018, 23.58154172901519, 23.341414086955382, 23.103705547326403, 22.872700069305154, 22.656003075503452, 22.452389064742192, 22.240897677261234, 22.06094989069733, 21.93424796099198, 22.0719241242858, 22.274806807107463, 22.803285757323817, 23.32452895904665, 23.685607144309746, 24.131325764272873, 24.46851522597586, 24.436336732318285, 24.428477686912377, 24.41427746917147, 24.384499303411854, 24.344051965632243, 24.282402242325873, 24.233279459242393, 24.010945947232774, 23.729534903584838, 23.507373377601805, 23.304700044077794, 23.141501827916073, 23.02082605320517, 22.91206100520307, 22.820159883285214, 22.7401146457339, 22.66971791494451, 22.82421335325571, 22.955470593210197, 23.082970469168586, 23.303119109312107, 23.506135357103243, 23.67776634520671, 23.98184641137819, 24.145793625899515, 24.231696658195485, 24.219212554972913, 24.191747123430947, 24.158305178062392, 24.029172706500063, 23.75261816059388, 23.584171090275827, 23.39745566146637, 23.15882694698428, 23.003173028773414, 22.87080381612098, 22.67275177989866, 22.5166041460643, 22.437961958967236, 22.40169232175832, 22.275459703228492, 22.327059482619756, 22.559919161396028, 23.097890519805876, 23.571377844137473, 23.95832203327663, 24.364879971356473, 24.494553732458083, 24.490151234913423, 24.46733965063292, 24.452725834733545, 24.42850931083105, 24.40487044645691, 24.3405874383466, 24.080812578377927, 23.77922335856988, 23.531353695723794, 23.35468145120163, 23.242249692594104, 23.156925156125027, 23.042389012144668, 22.922161516755693, 22.781569097484347, 22.71620185386212, 22.671269350256793, 22.809272502018672, 22.99225985200529, 23.349084515630597, 23.670751963325376, 23.893577198624286, 24.18099062135524, 24.433918532476323, 24.48189051786026, 24.486418018054504, 24.52014611888742, 24.51644693551643, 24.46456165380611, 23.984484500493352, 23.51625067647021, 23.217231686581457, 22.959682029619938, 22.773849717566936, 22.618858165110964, 22.502380418576063, 22.41048204131771, 22.285647972396422, 22.143106645825764, 21.998986274882963, 21.88575861017398, 21.7805348504656, 21.746350220406953, 22.01335667439771, 22.383801067020453, 22.71330032381367, 22.95851331011383, 23.298669302184877, 23.60699320175163, 23.71751195863276, 23.700568072445765, 23.59977455308254, 23.375424881189186, 23.154609904230956, 22.97201321434818, 22.776601241184768, 22.605322014192, 22.44530217255897, 22.237157289395373, 22.01942084740726, 21.82560213815972, 21.716654166986753, 21.63077385241668, 21.476009212721156, 21.358144668780824, 21.20865295677693, 21.127317878492462, 21.502991998798905, 21.96836726094831, 22.30379254256793, 22.600213899008846, 23.10815303250034, 23.795619138879644, 24.26141208231203, 24.638017516259623, 24.75180653136972, 24.4799267933756, 23.934714286619922, 23.46580025760333, 23.160549417350662, 22.92783256720156, 22.696258845945447, 22.502724685353957, 22.2851123600648, 22.09849121224799, 21.936926541600794, 21.773984701477772, 21.65163655728128, 21.548324947391336, 21.698504327906125, 21.90628932437697, 22.273466971311432, 22.5663587493035, 22.802303983187755, 23.009274767260123, 23.324613635633483, 23.73509376901284, 24.11221031620714, 24.36810511813427, 24.422231302837165, 24.316034992591486, 23.861990926241443, 23.387732444001944, 23.105882055793348, 22.867336179919466, 22.591054520631143, 22.386725284523084, 22.247692282528764, 22.07087893660488, 21.8626515727484, 21.735115959440545, 21.628573895816544, 21.551072965370253, 21.755456532434916, 21.989533590286147, 22.40604437896962, 22.85577237078989, 23.21879393103548, 23.651303428963416, 24.217761708325202, 24.54450044272753, 24.5216914985438, 24.50063273140799, 24.46731467824755, 24.4235449180227, 24.327776803643445, 24.000462100937643, 23.669147505077074, 23.401873521023788, 23.13314592898195, 22.839429133716212, 22.56684775863548, 22.393156622737575, 22.274659209852885, 22.13773812532985, 21.91604499939612, 21.74082752724168, 21.833297160054883, 21.989131806744442, 22.409664741144436, 22.92643168029177, 23.44018158360856, 24.085156173204584, 24.6172248874507, 24.628100477561517, 24.59629773088014, 24.574178293504918, 24.54253248572717, 24.502895661249557, 24.444985912145018, 24.29616627674488, 23.962976032191083, 23.65045764901303, 23.388591414457498, 23.161221846691117, 22.977001911120265, 22.80561131105389, 22.644132697417884, 22.47990373001659, 22.335585837612808, 22.184990557116596, 22.29600055484057, 22.485675057370674, 22.940637311338737, 23.365329264316017, 23.661170613429316, 24.138082343897263, 24.450328792457825, 24.411107710748794, 24.38934760312553, 24.342796084611, 24.299294028793977, 24.255799351934446, 24.10408930130939, 23.85630798854308, 23.637007939164576, 23.490892096316475, 23.376389171796152, 23.28333566766244, 23.20514385278155, 23.142335767828428, 23.05777667099106, 22.920264673536135, 22.73605984201183, 22.552610773874857, 22.69188488153266, 22.885799381181638, 23.119195674379366, 23.48634310775783, 23.899771986544284, 24.29735645531049, 24.592318577206367, 24.653495462943994, 24.679527086951044, 24.725310750000943, 24.756315052612052, 24.76206365586985, 24.65163767661961, 24.233341597558255, 23.852031796655535, 23.505873350188157, 23.216211399893368, 23.02209836569916, 22.79640869044306, 22.512292518809886, 22.3480438749546, 22.19610711872683, 21.91878237913764, 21.69145318484516, 21.557482973839242, 21.61474942857635, 22.03431894074562, 22.48389062976102, 22.82080597172109, 23.162351160026645, 23.548898195284988, 24.012969082650873, 24.309826190955107, 24.465829857309956, 24.51814057708478, 24.166160156662908, 23.672387220068856, 23.267970119775423, 22.957856025590342, 22.650941180016673, 22.372432209354333, 22.117806057175056, 21.87825359879074, 21.675704623292216, 21.552641330180432, 21.413069772936456, 21.212226732163064, 21.095305093616734, 20.992880504126045, 21.060683990351475, 21.444196380818056, 21.785283609836778, 22.12296937497835, 22.450118777964104, 22.845304888335388, 23.452434669920237, 23.89802579491035, 24.23619456204447, 24.42861305609286, 24.272229941754063, 23.860879933045975, 23.363860593044066, 22.967009560008552, 22.645979214789634, 22.35142535357903, 22.1314775835537, 22.003160849789836, 21.874521816380916, 21.767040979621004, 21.66799998817713, 21.520522298354745, 21.368934893907817, 21.554063305126117, 21.769739671366832, 21.977815816035417, 22.400028422371477, 23.003536235939958, 23.587605673363964, 24.086867400188968, 24.43370400541531, 24.431718400916463, 24.427137395266953, 24.419513979886023, 24.404869737837995, 24.005236366676133, 23.49027042007174, 23.14965893416287, 22.877449037875696, 22.667868190820926, 22.39524579800587, 22.12300988965202, 21.95071833601051, 21.827769649307346, 21.670002704418106, 21.509753800705955, 21.427037100123396, 21.574992966227068, 21.825787058412658, 22.429452039210535, 23.01057994620861, 23.497667408099428, 23.87375305937488, 24.20302874334546, 24.570274272848224, 24.529115904584387, 24.4556698572132, 24.384070289683198, 24.325356909372243, 24.23731221718009, 23.893805392259875, 23.537979317528514, 23.306113285592545, 23.15438940370448, 23.059436619862414, 22.93112669864263, 22.795762544777578, 22.695373745131608, 22.583983241041484, 22.473379691707652, 22.382575453908, 22.526647962751483, 22.830998423248058, 23.422777863425285, 23.933325910332794, 24.21544879543948, 24.230073770370755, 24.244322251805897, 24.260154750613427, 24.281887263583588, 24.312544061275634, 24.317214218390358, 24.312683566345072, 24.271132308364685, 24.274833982363003, 24.253591493198545, 24.0413860002172, 23.739200548255507, 23.561888487454837, 23.34375873204395, 23.088485006097226, 22.941830209630215, 22.82781312370217, 22.741048677785574, 22.693852824029253, 22.88384788703281, 23.188770041600094, 23.783617331776725, 24.314506016518425, 24.404725583635596, 24.408205063553826, 24.407435373706324, 24.40811848148404, 24.4042256426133, 24.41933621046331, 24.42530057904587, 24.40204270348336, 24.325686442407342, 24.29132697267113, 24.270718517656814, 24.233761885980325, 23.961505467069973, 23.61344058868781, 23.26015607965137, 22.932452397267458, 22.6611528838777, 22.406733251007115, 22.17128138771783, 21.9826116443966, 22.079845815370714, 22.252099168124612, 22.667034245806068, 23.063833664184557, 23.428589510085917, 23.67217740227325, 23.98761785313553, 24.534666693395867, 24.946272111450796, 25.149286737349303, 25.1411324055304, 24.83759694844213, 24.209545934997774, 23.647053381093556, 23.156276331608993, 22.72652811323516, 22.319492198768927, 21.94898160456319, 21.69189859460262, 21.430448618850704, 21.175368517464555, 20.89027667586486, 20.737272143789568, 20.733954003605238, 20.738910499247368, 20.75704311048452, 21.095052470373844, 21.429551992992007, 21.710256471897, 22.175008810421037, 22.615544410526045, 23.25780607863957, 23.739970722877406, 24.04903867592989, 24.25918967366135, 24.07671370146055, 23.597412771659332, 23.19963389898038, 22.902259292094715, 22.601662108633978, 22.27392174993363, 22.032477834431706, 21.83946447937015, 21.666570282905003, 21.53070504155491, 21.414146400240924, 21.267221658217025, 21.062416110721088, 20.898578289755985, 20.943515982014492, 21.295033214852385, 21.823400439891056, 22.35998779828083, 22.70498462639758, 23.10212007053565, 23.64121412079098, 24.100896266505757, 24.3759180623605, 24.397710858089898, 24.123485759756253, 23.797504930293396, 23.5360072352109, 23.270240432204787, 23.043874812155646, 22.64711479395905, 22.447069466660576, 22.330081711928887, 22.1007013165616, 21.95991675494083, 21.829070092339766, 21.72056925108548, 21.620117469273335, 21.783063127300835, 22.08170565623492, 22.58572950612066, 23.144733782776527, 23.645081022317587, 24.215355579765376, 24.763870095118303, 24.83836713273996, 24.81062987338849, 24.782159566033112, 24.749147698370994, 24.723863916597214, 24.63737677209195, 24.406759659164123, 24.119580046072553, 23.780990165068086, 23.518396960244786, 23.323351359815092, 23.175923798076372, 23.063399993575207, 22.8796557702055, 22.689368449804636, 22.59006159482301, 22.417064261728985, 22.493865957366083, 22.644907387385157, 22.79517527741714, 22.968256175425296, 23.404625845347766, 23.618105766397345, 23.888283298830682, 24.209953605375077, 24.139545219436368, 24.22754154354138, 24.28154635610144, 24.22203684315491, 23.874311027211444, 23.52035899426689, 23.215050028498933, 23.04024985770289, 22.992202181275832, 22.879523071815978, 22.722097282694815, 22.57467523252841, 22.433054419070462, 22.319046653611025, 22.24870234283829, 22.140332138868402, 22.356716591626622, 22.65693706438826, 23.0767888494166, 23.58593285810414, 24.14166412047437, 24.400134600981957, 24.433461966741294, 24.47382725026887, 24.500220144035264, 24.5018589042157, 24.481637865599073, 24.455438674916365, 24.35270563625855, 24.123924984415776, 23.8834539254979, 23.662916181386965, 23.49220140885176, 23.311332845884987, 23.186326059140097, 23.084422336394468, 22.934710859307796, 22.71619578411851, 22.527356499066787, 22.343654572421816, 22.45257380102127, 22.798930528695724, 23.357534469605707, 23.971293956601908, 24.4068491732536, 24.476797921561843, 24.48281248696495, 24.496970969730622, 24.531996231470995, 24.54683315986468, 24.55376640939127, 24.558956877061423, 24.511136239222097, 24.375785783871866, 24.11361280135864, 23.901960746660365, 23.58785188570614, 23.342606307709058, 23.194149086178697, 23.013570928539306, 22.843734386462796, 22.683888083834308, 22.567551617615504, 22.412300112505182, 22.510411530496526, 22.891298832106596, 23.55712612132716, 24.15044825308401, 24.508397826356642, 24.537249681931726, 24.56134601243718, 24.612765010076156, 24.66274174035512, 24.722425469508533, 24.763243393515094, 24.784493049267365, 24.74418172894579, 24.69916057476244, 24.493833533622183, 24.189076563641947, 23.915424055862413, 23.748666388019398, 23.589320901122964, 23.420793750493512, 23.2084769707598, 22.934935878198548, 22.76417228818556, 22.628834992374493, 22.483606872797807, 22.635946484723984, 23.199772888436502, 23.786376697700998, 24.21532301780799, 24.383550598036013, 24.51476865327381, 24.546424607512375, 24.584077612719664, 24.600104606213076, 24.607761742440093, 24.60903830231358, 24.587694906455926, 24.553532855049365, 24.41945618046172, 24.16627580816979, 23.854098559611288, 23.653599221347978, 23.525501137276006, 23.34294750602227, 23.173955749846517, 23.064045597406786, 22.97349780140605, 22.929580274586638, 22.787015439186987, 22.85755298252801, 23.376340566487396, 23.95893072807118, 24.420558026812373, 24.556178640464978, 24.562396731390773, 24.609274218133375, 24.66834047501415, 24.698627480832034, 24.71126952977927, 24.710929113961484, 24.693835977321815, 24.64392996684586, 24.446482761304427, 24.241359222096552, 23.979398846393135, 23.808796551247823, 23.632144207868937, 23.47674733244152, 23.37479018732785, 23.27206478552087, 23.16221186569067, 23.048490839959943, 23.180024984358216, 23.47368128422913, 23.99108215404387, 24.556085748773082, 24.678213730328256, 24.692897468188942, 24.679936114414986, 24.69068321349076, 24.703386689760503, 24.71584355</t>
-  </si>
-  <si>
-    <t>WIP_testing predefined models\BESOS_Output\2BYZXIL8OKW5A2ZW9HAD</t>
-  </si>
-  <si>
-    <t>WIP_testing predefined models\BESOS_Output\1PGMENE6TTSXJT1C6ALH</t>
-  </si>
-  <si>
-    <t>WIP_testing predefined models\BESOS_Output\OZG6344FS3CU4HQTRYW2</t>
-  </si>
-  <si>
-    <t>WIP_testing predefined models\BESOS_Output\EBE7H7V2YH1TN941MATP</t>
-  </si>
-  <si>
-    <t>WIP_testing predefined models\BESOS_Output\OTZ8I2RZ8OIOX3VOX5YB</t>
-  </si>
-  <si>
-    <t>WIP_testing predefined models\BESOS_Output\KT7KP0WJQ01PWCK8ISDI</t>
+    <t>[0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.3333333333333333, 0.6666666666666666, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.8333333333333333, 0.0, 0.0, 0.0, 0.0, 0.0, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.16666666666666666, 0.5, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.8333333333333333, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.3333333333333333, 0.0, 0.0, 0.0, 0.0, 0.5, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.3333333333333333, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.8333333333333333, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.5, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.16666666666666666, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.8333333333333333, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.5, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.3333333333333333, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.5, 0.0, 0.0, 0.0, 0.0, 0.0, 0.3333333333333333, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.16666666666666666, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.16666666666666666, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.6666666666666666, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.16666666666666666, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.3333333333333333, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.5, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.5, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.3333333333333333, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.3333333333333333, 0.0, 0.0, 0.0, 0.0, 0.0, 0.3333333333333333, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.3333333333333333, 0.0, 0.0, 0.0, 0.0, 0.5, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.3333333333333333, 0.0, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.16666666666666666, 0.16666666666666666, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.8333333333333333, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.8333333333333333, 0.0, 0.0, 0.6666666666666666, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999,</t>
+  </si>
+  <si>
+    <t>[0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.8333333333333333, 0.0, 0.0, 0.8333333333333333, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.8333333333333333, 0.0, 0.0, 0.0, 0.0, 0.16666666666666666, 0.0, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.0, 0.0, 0.0, 0.8333333333333333, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.5, 0.0, 0.6666666666666666, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.5, 0.0, 0.0, 0.0, 0.16666666666666666, 0.0, 0.8333333333333333, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.3333333333333333, 0.0, 0.3333333333333333, 0.0, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.3333333333333333, 0.0, 0.0, 0.0, 0.0, 0.16666666666666666, 0.0, 0.8333333333333333, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.6666666666666666, 0.0, 0.0, 0.0, 0.0, 0.3333333333333333, 0.0, 0.3333333333333333, 0.8333333333333333, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.3333333333333333, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.3333333333333333, 0.0, 0.0, 0.0, 0.0, 0.0, 0.5, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.8333333333333333, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.3333333333333333, 0.0, 0.3333333333333333, 0.0, 0.5, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.16666666666666666, 0.0, 0.0, 0.0, 0.0, 0.0, 0.3333333333333333, 0.0, 0.16666666666666666, 0.0, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.16666666666666666, 0.0, 0.0, 0.0, 0.0, 0.0, 0.16666666666666666, 0.16666666666666666, 0.3333333333333333, 0.0, 0.6666666666666666, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.3333333333333333, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.8333333333333333, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.0, 0.0, 0.0, 0.0, 0.0, 0.3333333333333333, 0.0, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.16666666666666666, 0.0, 0.0, 0.0, 0.16666666666666666, 0.0, 0.8333333333333333, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.16666666666666666, 0.0, 0.0, 0.0, 0.0, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.8333333333333333, 0.8333333333333333, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.3333333333333333, 0.0, 0.0, 0.16666666666666666, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.16666666666666666, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.8333333333333333, 0.0, 0.0, 0.3333333333333333, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.16666666666666666, 0.0, 0.0, 0.0, 0.0, 0.0, 0.16666666666666666, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.3333333333333333, 0.0, 0.16666666666666666, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.999</t>
+  </si>
+  <si>
+    <t>[23.25057137163932, 23.252475231796975, 23.255368453675526, 23.246330894900467, 23.23116000813978, 23.223471221991407, 23.235763052192123, 23.344821515154454, 23.400040683249387, 23.390302764312192, 23.42251161298583, 23.423761038617357, 23.395798172476777, 23.410549202979144, 23.447828072956856, 23.484079882434244, 23.4903118724958, 23.442634508525117, 23.36030324959054, 23.349559120292664, 23.3929119149376, 23.350060220494253, 23.30382131506613, 23.270008012250496, 23.248858821319256, 23.221302095606685, 23.191044176272133, 23.166634170039444, 23.150025382322664, 23.186013752048655, 23.28921505595739, 23.367586214415937, 23.44461511344819, 23.541494341760938, 23.617698919727502, 23.676505434587725, 23.731855598649545, 23.785958978816634, 23.829385937977843, 23.870780774937412, 23.946696408519955, 23.93618313259628, 23.78592263377637, 23.525063778804427, 23.403571856644565, 23.343685222398463, 23.353633527570892, 23.338410194822604, 23.29650449918111, 23.2586512153091, 23.234124623658772, 23.217513879025812, 23.20186207297994, 23.231677444913654, 23.2779267940836, 23.373881382439986, 23.407904717098603, 23.381255706204485, 23.37839905112061, 23.38245731127299, 23.38597952494477, 23.391495156041074, 23.386563890639106, 23.393469211108098, 23.38830438411797, 23.4734364113214, 23.51217881765542, 23.453509775199233, 23.4038300463519, 23.355958789724312, 23.32720445147004, 23.28510087736966, 23.25796333577441, 23.24554085010153, 23.239463690764357, 23.225401855077184, 23.200187247986353, 23.173003524282564, 23.194850255716247, 23.247974369197916, 23.224036193280494, 23.329570026785195, 23.426409576212325, 23.459028883296515, 23.438869408995103, 23.45021369998004, 23.439540399169044, 23.41874549203506, 23.395226834449144, 23.32751614148698, 23.210126292509695, 23.20159451420335, 23.283403413764926, 23.26534940950828, 23.25221526085862, 23.242388400616274, 23.219936023453062, 23.19655678685453, 23.168429160309454, 23.151405709297723, 23.144931867663047, 23.16078445162853, 23.2360244806781, 23.34627110567526, 23.32176685511656, 23.3144519603635, 23.315355009101324, 23.282455163199558, 23.247128136473382, 23.25431519089463, 23.270122361591177, 23.25449521853479, 23.205363795567752, 23.293282529356407, 23.319735518609054, 23.272703321269088, 23.21986584816034, 23.18108674527451, 23.16260494357718, 23.146585866602646, 23.13297338593949, 23.12428605524775, 23.129000947621233, 23.131196776541525, 23.122726760066396, 23.123952548905095, 23.176482171966857, 23.309958770416117, 23.336832420417327, 23.291539125893895, 23.29463028558004, 23.271428942178016, 23.284267149434502, 23.4969984780389, 23.554565558699128, 23.54441246455661, 23.517547143797145, 23.489370529730564, 23.443824466265525, 23.401716565079735, 23.38195349679583, 23.354014406726225, 23.338346881564956, 23.340915208721153, 23.32864235700491, 23.297851604528173, 23.28486644944174, 23.278806371408745, 23.241295262172187, 23.255204595427937, 23.28485874378441, 23.36769736134319, 23.379911535774212, 23.369990688911912, 23.38845744070549, 23.372179779997897, 23.34240726012814, 23.35198494679517, 23.386561210162977, 23.424296432482265, 23.43781171667545, 23.410051028869756, 23.366138928572965, 23.423518014445687, 23.40989548378322, 23.358966481807354, 23.338113104634875, 23.312224653981204, 23.28610456500935, 23.265914590847213, 23.250146634233726, 23.238829694131557, 23.230690916255156, 23.24475098774982, 23.2958465165555, 23.401092247118015, 23.40793801820102, 23.47308418145812, 23.515085878566158, 23.51588814744581, 23.499709878997066, 23.49551026804147, 23.50640778328322, 23.470579223443313, 23.43431361669108, 23.392271605649153, 23.34690292596515, 23.344003973776154, 23.453019483755003, 23.380577523569, 23.299305430839535, 23.251322742176246, 23.223879994052478, 23.206673875653106, 23.215712521014296, 23.205600679197357, 23.193621393818763, 23.230104137272914, 23.32150013085557, 23.50007109815869, 23.563137705530924, 23.601484938595366, 23.63438909411296, 23.69689902128262, 23.73552317148936, 23.736771174702994, 23.70383355588366, 23.668698918325003, 23.632956160943106, 23.56803456174397, 23.465693171073344, 23.385715339141594, 23.412233071144925, 23.37156212597067, 23.36764780600021, 23.50195126645964, 23.643015765893395, 23.733841737443516, 23.787200971063356, 23.822733374181258, 23.847427270876484, 23.88672780432073, 23.95171404944988, 24.005061891123585, 24.00104294282578, 23.98414256752045, 23.956073106868704, 23.91968562600455, 23.892782724797446, 23.891819825667454, 23.897320349203483, 23.873065650583612, 23.820761183455478, 23.771327845243224, 23.72774573808739, 23.618460857365747, 23.550436367118635, 23.49192298167016, 23.42487928850002, 23.362918150701983, 23.32800906361581, 23.300851785304587, 23.28661079547108, 23.276974038354012, 23.278846302716016, 23.3092181936361, 23.39300020837374, 23.520479310877665, 23.545186236660427, 23.58608079384125, 23.636395509631598, 23.69144092512691, 23.753709689536823, 23.829112728088415, 23.833808270671877, 23.803465573323212, 23.75154325405552, 23.649740538748574, 23.543225477904627, 23.426484375072732, 23.441109273222608, 23.448852593700238, 23.39153905634493, 23.33536923415525, 23.311356865596405, 23.268151770405336, 23.243813450693555, 23.2219673954898, 23.20542463810178, 23.220709770675978, 23.314763929266935, 23.382860121624095, 23.39888664646457, 23.478287887864383, 23.561980970916377, 23.672885882703923, 23.795806421368308, 23.839503143196676, 23.843379093230492, 23.81250283941297, 23.777272208621525, 23.753330115424735, 23.74414685039163, 23.761491145848307, 23.797273054916612, 23.82658761039379, 23.785074047018863, 23.602607192571735, 23.499707188693833, 23.38752034767869, 23.312278566577856, 23.279927555495906, 23.26616340354985, 23.275310469714867, 23.350828875637337, 23.35910246298914, 23.328323198705267, 23.37162372163566, 23.386830118673885, 23.369243765990912, 23.34439570377205, 23.34581368646346, 23.362571434548027, 23.33485405136679, 23.297388193210452, 23.407413019144816, 23.42265931214905, 23.386370378258235, 23.353755969265677, 23.323478247812144, 23.31059499041157, 23.288399632932656, 23.283222375809043, 23.26969780327781, 23.242593365996857, 23.223607082380127, 23.201565219842205, 23.209967546833486, 23.302959292153712, 23.399887459429777, 23.4212366032037, 23.492511236882667, 23.525659890986816, 23.515696016751928, 23.484052153444164, 23.476282514362676, 23.498935672257034, 23.502921127272405, 23.45517225526214, 23.38623495903487, 23.287096005236766, 23.29090282596577, 23.35316569733372, 23.317789909702167, 23.280152674289514, 23.253018972389995, 23.229195953080943, 23.206545455778198, 23.182303849815124, 23.174228689867714, 23.17007626852809, 23.17000884794305, 23.220895020321823, 23.23291979582164, 23.312975718843074, 23.402545524288204, 23.455355546866006, 23.46807156862114, 23.45864773602564, 23.464337706567125, 23.488886968294096, 23.49226720307642, 23.421699638448075, 23.315983743777522, 23.222263242301683, 23.205853152867956, 23.239329318028194, 23.20156431987259, 23.18725898745797, 23.163659639244347, 23.14548312838103, 23.138132295755707, 23.115729009400937, 23.099044753781726, 23.089409792719977, 23.083221159616304, 23.088222166049604, 23.168383400007105, 23.17465880899144, 23.087834323255965, 23.11830019810178, 23.130998599969434, 23.15409061947631, 23.18533462514181, 23.194623401245405, 23.191213049769313, 23.167528964348943, 23.128617264578295, 23.10046016220871, 23.132357905332437, 23.200330571494092, 23.173668166016693, 23.15664640338043, 23.1362592652394, 23.107398300681776, 23.085046280724374, 23.082392403319222, 23.071486525633187, 23.070087332466034, 23.0769404756295, 23.085499044049225, 23.167769574870324, 23.26687671060148, 23.35150961035973, 23.299342262935966, 23.23828575305363, 23.183193906400373, 23.155940125642672, 23.139729947328544, 23.13730620229818, 23.131472612751764, 23.153511698011386, 23.263324481666384, 23.24446780503852, 23.23094700810282, 23.217407721416976, 23.184466838729126, 23.139778886161547, 23.127570916537262, 23.119160826745624, 23.121124356067657, 23.13121284386777, 23.138777645664877, 23.177302317855794, 23.189097332504776, 23.222441218858062, 23.21572359372352, 23.225897096160338, 23.242524460682972, 23.27140491308847, 23.337453527843795, 23.41184780762269, 23.413273341711918, 23.38900606459627, 23.416036713780823, 23.420440070673408, 23.485649029471528, 23.440384339905936, 23.41431479573143, 23.362965765977567, 23.298911161664225, 23.240799905124646, 23.19927732073678, 23.18496868240946, 23.163406185395925, 23.14187433805662, 23.12410788417844, 23.148445154196963, 23.216188002683168, 23.32496417710911, 23.387701252921982, 23.351011684564224, 23.35952172923075, 23.427005968934797, 23.53611424998211, 23.63172143359107, 23.676356393454366, 23.687887511881843, 23.653923631100653, 23.604566527432954, 23.530851401338804, 23.477479551101265, 23.393633404994898, 23.33505416471756, 23.285498652641433, 23.249044966599254, 23.22629664759422, 23.210671646327583, 23.15906247390605, 23.12493459263139, 23.103123132109317, 23.106937792998092, 23.18876932092505, 23.23971416818777, 23.25369706977054, 23.31425482832633, 23.33579074792313, 23.327272022683072, 23.289762405366318, 23.28898557665053, 23.313177505062043, 23.304215186068337, 23.256479316854584, 23.32491194097716, 23.393011121321923, 23.348197099521602, 23.308787950374924, 23.27618419596571, 23.25097080496472, 23.22145622400556, 23.19305116446256, 23.170218229621014, 23.149282376283832, 23.13814339325361, 23.134911876123365, 23.15402259051615, 23.20191825280304, 23.27888067743152, 23.23705480878404, 23.282826858527898, 23.35832314026014, 23.39284307055017, 23.39192982533819, 23.40401245434145, 23.438326205987778, 23.46038619247255, 23.45553510384094, 23.411164328663812, 23.30426624076482, 23.29571571660632, 23.358712482910885, 23.327691106285467, 23.296621842932712, 23.279368599557575, 23.24887390974114, 23.22431413816395, 23.208577957325318, 23.192869997169336, 23.187016550071892, 23.190260555442524, 23.206314526667214, 23.242868276780772, 23.2119594722802, 23.279106845061317, 23.28987114741345, 23.291344270516316, 23.320223673452215, 23.338158409166184, 23.34351779595778, 23.326495047063105, 23.304018785396135, 23.27883732364685, 23.384772360350677, 23.320942467341936, 23.239957726455128, 23.18181353333991, 23.12842610532987, 23.08999188043481, 23.067042070400884, 23.0581023983801, 23.059754199416492, 23.05557774875408, 23.08523873825561, 23.118902447615515, 23.137299905445726, 23.204305799856893, 23.267114214266574, 23.337721600142405, 23.385185441421367, 23.409672663937396, 23.415895221383863, 23.456557953711748, 23.44698375607312, 23.42537560929176, 23.37786082493169, 23.369233925222147, 23.36842663110295, 23.300593211092195, 23.214354622886848, 23.136225778178797, 23.10694704199872, 23.11154098170627, 23.13434021707785, 23.13905434988521, 23.147557575624223, 23.165187797718932, 23.183682153018296, 23.22050987421358, 23.274565554755384, 23.38111622249733, 23.4435024637267, 23.47327539272135, 23.501372825231755, 23.515546751321235, 23.524912181424742, 23.50075656271842, 23.43994518648219, 23.384444314575063, 23.366836464322123, 23.344224353710782, 23.424211142674277, 23.445012295354967, 23.441714245443706, 23.426056454931427, 23.400421845040587, 23.38541296581998, 23.351528947924564, 23.313429016035567, 23.282562912523236, 23.25265110915601, 23.21618525763903, 23.192975775040903, 23.220941915391023, 23.35422084290313, 23.378412840504364, 23.381705138091277, 23.42538092894033, 23.439909283036627, 23.418275083076782, 23.42025275465234, 23.441432915444228, 23.471349118718674, 23.48160433298027, 23.44850833565774, 23.395186602311284, 23.39306940170144, 23.420040767804448, 23.37458763954801, 23.306524330273263, 23.241561030744325, 23.205031476328188, 23.189279984235693, 23.184128221374447, 23.169985688457135, 23.156874431691417, 23.163378587449674, 23.18858887733037, 23.234016982335472, 23.29607232230852, 23.376920417343978, 23.379697064938796, 23.30535828218387, 23.26451804238776, 23.26859440885953, 23.28838169628827, 23.316329115596776, 23.3250948345999, 23.274298043645818, 23.30322902201479, 23.368959391127472, 23.33480886571064, 23.2974076919518, 23.258637541896345, 23.228484271563186, 23.19518616025776, 23.178139466667986, 23.165890738966354, 23.15174878970352, 23.13827925959949, 23.13224253810581, 23.16068276195517, 23.235828468916157, 23.189001306832605, 23.27171029961217, 23.34334875887242, 23.34981732048148, 23.30919454325534, 23.29965171440971, 23.323778529358904, 23.345748585760116, 23.329581358626324, 23.26738623330894, 23.205999787475452, 23.313797888977856, 23.292173012408615, 23.262117018640946, 23.235157512734975, 23.226993813072678, 23.23150358692259, 23.23084579294358, 23.221285905509518, 23.20237891036307, 23.171624626211866, 23.17111807199021, 23.188614139305752, 23.245645165007943, 23.190059415199343, 23.265576529504457, 23.351236037124153, 23.39683624996287, 23.410048388677982, 23.39909277558833, 23.386450414891552, 23.387826459254512, 23.374989499237333, 23.326311033631963, 23.236352223986668, 23.32045205529486, 23.32300591409927, 23.287665598497707, 23.25619769766679, 23.23172638819119, 23.213029474365367, 23.20014761993274, 23.19319565109571, 23.186788631789295, 23.185868496777967, 23.182812723481387, 23.25007344319088, 23.357807108422104, 23.381008096678315, 23.46177555841419, 23.49731865061985, 23.487608822496796, 23.449190006259826, 23.43510368195179, 23.449077272116128, 23.482978471670638, 23.4970968564004, 23.44987330530618, 23.34432482377656, 23.329871801290096, 23.381595050580444, 23.34799772492096, 23.313766331829374, 23.285430156287465, 23.264853610263515, 23.245491173042414, 23.23635716997867, 23.22228222504067, 23.20310298915503, 23.189496184459404, 23.266417123439556, 23.383722963437418, 23.42540886006924, 23.518988132217988, 23.55040163435704, 23.526696303244034, 23.484508837901867, 23.482617591744543, 23.522681642208823, 23.543019453154912, 23.529552418910043, 23.473484252030616, 23.35965876413348, 23.207322127453867, 23.116867977858504, 23.163097933453642, 23.240374684926635, 23.21927693182342, 23.20407499100595, 23.17625131734646, 23.15675226509175, 23.150453696692768, 23.152987353163166, 23.153066348849368, 23.149617961619725, 23.218113774805687, 23.298931051179853, 23.340138785737754, 23.24858538603695, 23.235103587399106, 23.26410165780292, 23.2892885778633, 23.30791319355657, 23.304470604193124, 23.273424528058147, 23.215677203020174, 23.281344764501174, 23.342667813837682, 23.29637389896392, 23.261496066478855, 23.23527760359093, 23.20811471310478, 23.174374908701015, 23.137923513996835, 23.104577199541627, 23.07785808813374, 23.060482757533368, 23.067668923602167, 23.10474802865538, 23.215849062733028, 23.40744686061974, 23.51960859874303, 23.591702880449535, 23.602815271183726, 23.527712552760637, 23.456351383858873, 23.461549195302226, 23.471488726286704, 23.454495863436417, 23.372322377951736, 23.26075850456608, 23.24463627335383, 23.28284680532329, 23.247858225950022, 23.230733120538503, 23.21667824270864, 23.19687119934893, 23.175360629944006, 23.167211259742164, 23.159503960528664, 23.15025829732561, 23.155505278028727, 23.22146468626333, 23.2195705397516, 23.32808395937982, 23.414984314533204, 23.455328353057904, 23.440231640441954, 23.399811604167997, 23.38848121850252, 23.40766150371485, 23.43090189816394, 23.43845754824574, 23.40565473206085, 23.305934538143674, 23.196006104306594, 23.098952086303722, 23.073160719258237, 23.15533986777174, 23.296593227684436, 23.295034513341104, 23.16298315044904, 23.022341138098387, 23.171488009746184, 23.2269614989047, 23.23079261632114, 23.24299352996165, 23.1791013439849, 23.198888997179136, 23.39105369007747, 23.383443324520186, 23.368883943753573, 23.339034145373137, 23.313885207182135, 23.323540961312673, 23.301759745541432, 23.24532156798378, 23.197485040778272, 23.291921089085733, 23.25958852889433, 23.23727349674682, 23.214620896529336, 23.202389816761677, 23.214974221851254, 23.204133857177855, 23.20808794851406, 23.20704499746364, 23.19720311521247, 23.19820541592611, 23.20172370970064, 23.266282154493865, 23.37378078284513, 23.375057960487073, 23.454285485862517, 23.493101060747083, 23.491890931921787, 23.454775268158727, 23.41879381208314, 23.36153331723641, 23.319298560789985, 23.327884717718963, 23.481519029972265, 23.467441595373174, 23.391931411326155, 23.307191119436535, 23.228686974894377, 23.17319141967374, 23.15770798264929, 23.15206116061429, 23.142197385925055, 23.133217641030853, 23.108540537051713, 23.078115991205838, 23.08076850589988, 23.085470872332042, 23.149144847287612, 23.257780066756055, 23.36321367754556, 23.3288549199504, 23.45478284640053, 23.499344454960603, 23.44985577553175, 23.406146512321055, 23.38437487325416, 23.364086479892123, 23.33785862040078, 23.363391562485887, 23.42530309895497, 23.384544569502665, 23.33032451202405, 23.281493255141967, 23.244315542797278, 23.220028661295288, 23.20112753746065, 23.18479681262113, 23.171077595036355, 23.155457901579805, 23.145795011286243, 23.202073049644095, 23.297638543230516, 23.340709882628413, 23.446804997709034, 23.50101597702569, 23.490947026739477, 23.460102150673464, 23.46151260988238, 23.484262291674415, 23.49358656246025, 23.483523765029542, 23.433617314939838, 23.31132593387014, 23.262101722330584, 23.343740427993392, 23.308925681919323, 23.27482296367026, 23.234932300508863, 23.203084716735773, 23.174194500165953, 23.151216590281578, 23.128034198393873, 23.112394136937088, 23.104443712718183, 23.175565602206802, 23.25275674499761, 23.360434084923615, 23.46644371313658, 23.514865071173674, 23.5030506821989, 23.466173554551528, 23.47466547246454, 23.507225109254602, 23.52855857041588, 23.521447383691566, 23.46757071465218, 23.348275142053193, 23.325466687134888, 23.40011997915877, 23.35956339636465, 23.3124402227285, 23.27919173937154, 23.254507465967436, 23.236354945071415, 23.21217548169577, 23.18720122473034, 23.169348190739537, 23.178431330432733, 23.240817194858224, 23.288988025035206, 23.325010600237515, 23.428289263205382, 23.510901669480983, 23.532866080020217, 23.516446766844656, 23.530477667524675, 23.558188485768515, 23.557645850418766, 23.50481651503435, 23.405320781600764, 23.295290145610483, 23.16099121157801, 23.151336877213406, 23.258710956199568, 23.23209042375315, 23.18949931126261, 23.171324186236646, 23.154452199934738, 23.13512789344567, 23.126016342784922, 23.12513904002837, 23.109540868802497, 23.12368860595755, 23.175123651057465, 23.212052465551125, 23.26220198556709, 23.24206116428517, 23.164759853881307, 23.20431664273708, 23.24467619684948, 23.28576147549292, 23.315558800883156, 23.32627272170473, 23.29241983616907, 23.222055915617613, 23.326051918197606, 23.30810255420648, 23.282714168447708, 23.271310006131387, 23.253454808626074, 23.225463669371177, 23.19901993557175, 23.192236578945682, 23.187359207830784, 23.18516708894589, 23.188567062521333, 23.2215512445394, 23.304112731252676, 23.306135748521285, 23.241270427543355, 23.302571882903717, 23.367842225672458, 23.403772243085754, 23.429234772614407, 23.46675761270784, 23.384672445341778, 23.233606336322982, 23.168611330136788, 23.26123395707513, 23.244583904176817, 23.20844982145549, 23.16454482506917, 23.152308222300608, 23.136485440251572, 23.115103891393854, 23.08864014804635, 23.08428279595177, 23.08021727910997, 23.065203455846838, 23.066847147188543, 23.076633152852136, 23.13602037396434, 23.203535108208573, 23.262734343911447, 23.317318357639476, 23.36434131465243, 23.403269459981015, 23.433165847018163, 23.45908158314271, 23.467763405314454, 23.46323752210937, 23.442739071635415, 23.411000526105926, 23.34463673593137, 23.293467988933045, 23.244560160150908, 23.2178862195366, 23.203055573649788, 23.18473013720049, 23.150311731767047, 23.121516975973474, 23.09937304678002, 23.076534952976058, 23.061782669419074, 23.13489558532797, 23.268395690707596, 23.34346700342786, 23.455455931797427, 23.50817518684641, 23.506813377749566, 23.47712616954489, 23.459605335811506, 23.469734107120733, 23.4988483011729, 23.507173040515408, 23.44405673356235, 23.334968514344173, 23.32021512831065, 23.36873998093482, 23.326731312801588, 23.279209564410845, 23.246722426370994, 23.225594492307778, 23.20118091820903, 23.18792600005887, 23.177964891385376, 23.159859370678685, 23.152313970621464, 23.22031154953474, 23.33608209320038, 23.42891915696254, 23.53119856693659, 23.580649152208604, 23.5729409794111, 23.51883510410479, 23.485340888139618, 23.50337195774578, 23.52523356486458, 23.506823083496183, 23.437510111030495, 23.317725683294498, 23.225212298895997, 23.32206415858755, 23.305075692214775, 23.277910546901136, 23.258261045935296, 23.220801837298833, 23.187004300832495, 23.176795654252135, 23.16547306605983, 23.151247246244015, 23.144928264538198, 23.16376821311168, 23.184344684084504, 23.171266703822862, 23.24061874111101, 23.299344571928078, 23.329890327872445, 23.33320480071282, 23.326183608405696, 23.31322711646989, 23.278863102832307, 23.232435134740484, 23.188186169717103, 23.140063781502903, 23.177860199312125, 23.241216570173822, 23.2164505299685, 23.185286253757585, 23.163198929935746, 23.14292297618807, 23.117335628111956, 23.09312394673709, 23.08594622984981, 23.080353495571504, 23.08566432693983, 23.09938108671349, 23.12392294712433, 23.13520073313393, 23.198676680774724, 23.2249472517324, 23.225386649852936, 23.214480723231528, 23.195970575703956, 23.184369445667656, 23.193554389295205, 23.33277315796755, 23.235967702207983, 23.115827545185994, 23.01864791181032, 23.097961963825355, 23.11341048360727, 23.100084980425276, 23.09437712252054, 23.092024267449393, 23.086509701128318, 23.067823794688724, 23.060157126662073, 23.073432672576686, 23.0949570404658, 23.103076157478128, 23.10835075100316, 23.1687756052508, 23.19817391411223, 23.129701475257026, 23.29354277407558, 23.317932460415747, 23.180909830909417, 23.044229792468855, 22.969183768786905, 22.966562429605812, 22.939783869115274, 22.959748612648593, 23.07934389824356, 23.116865735990178, 23.12329553777643, 23.12018955328726, 23.111858675428778, 23.101325885317028, 23.10064001022627, 23.115958097078536, 23.122994871300822, 23.121082494182975, 23.129103918425987, 23.188890058267166, 23.300322388297058, 23.30111514566173, 23.31091436269538, 23.359817407874704, 23.35281293498937, 23.3062489898736, 23.28418731000227, 23.289215382896035, 23.299911402138928, 23.314241971053416, 23.37217542350795, 23.45327906841297, 23.415145729625852, 23.371728823444045, 23.358875852742088, 23.336511532395246, 23.32660831144953, 23.327213229233113, 23.3010906188222, 23.25271779479964, 23.218685555654545, 23.224346240392823, 23.240927186952288, 23.268978163106297, 23.363054458472792, 23.45311160513563, 23.462420021450395, 23.466077971805078, 23.459855267024086, 23.447194533622277, 23.448546907511258, 23.4739130808755, 23.49785129061669, 23.50074147970733, 23.4820673915906, 23.448769723557003, 23.463592488096115, 23.41881214567144, 23.36437727184634, 23.323948594980944, 23.297048155100185, 23.255605886298966, 23.223385012428025, 23.206570891881878, 23.187192132600796, 23.162330366822474, 23.155645944082774, 23.217772463650235, 23.339653439640344, 23.390494615594395, 23.501454968107065, 23.550158548572913, 23.546624860862746, 23.503949297996957, 23.48022149352435, 23.493360142190795, 23.51373098158994, 23.514217255954353, 23.443076516190867, 23.321055839016562, 23.23138702530659, 23.33186186162548, 23.305118160890675, 23.26463706146966, 23.23750570064279, 23.200314995413127, 23.18012567633508, 23.16682463496299, 23.160073836604923, 23.159963840604366, 23.15520371546, 23.218462874835055, 23.296833048659717, 23.32821808366366, 23.417391060624766, 23.50319233265309, 23.538432489787755, 23.532942135323797, 23.539788206366968, 23.56511329688814, 23.543079770250653, 23.485103817492483, 23.416994218120802, 23.320504856954575, 23.22689493424703, 23.33337549657939, 23.327020632907438, 23.28154845873044, 23.238162700506773, 23.22186624817952, 23.19399968745824, 23.163269052611913, 23.143056098268968, 23.140809522747077, 23.116335911742397, 23.093843753793575, 23.135425068184926, 23.20841147435894, 23.273921893861417, 23.324986696320195, 23.215134191304205, 23.11843323986477, 23.156569243249322, 23.30833519268823, 23.368382200982108, 23.40701996061213, 23.22826294758201, 23.11140405162742, 23.115221498158206, 23.165517182742423, 23.132425909286912, 23.10973591940062, 23.10038485936901, 23.11984992340618, 23.13761410877819, 23.12818900699666, 23.11986994339183, 23.15126244301919, 23.22379460662667, 23.330589506960333, 23.485008522718058, 23.5513960260154, 23.576252575365768, 23.604011998420862, 23.63384973597424, 23.668443574918317, 23.699257589222697, 23.708336685645126, 23.68951249786215, 23.60803790826822, 23.519756289701576, 23.485466353441428, 23.49347740392683, 23.457695554981516, 23.429013407512084, 23.4197866737728, 23.417427315175946, 23.423441442089146, 23.4200507948308, 23.426127298012975, 23.431044419322728, 23.419506328887923, 23.395204527902777, 23.388973836243807, 23.40470078030688, 23.42866147658127, 23.474930910768734, 23.527721923587862, 23.56597698393011, 23.574853805374133, 23.56203349102164, 23.529423764782425, 23.506747706038553, 23.480000614252205, 23.453744082961038, 23.427909351525113, 23.403199789747664, 23.372911699042394, 23.342366799398977, 23.290435087599263, 23.23503586339879, 23.198683880663737, 23.18960464275934, 23.174469952504765, 23.161375984779003, 23.138955025649604, 23.12956128138922, 23.15111383691818, 23.23501019310285, 23.298043218869562, 23.234755873606062, 23.257484096513064, 23.273090266689533, 23.290516915205533, 23.30284816000773, 23.317309673831247, 23.324471072649555, 23.291483441257327, 23.214358163187526, 23.19544589665897, 23.289676516025462, 23.267001358837515, 23.234642503606356, 23.19998674071383, 23.171634369180055, 23.152154346353004, 23.14416922931866, 23.119920904871638, 23.1183879141209, 23.102388082161294, 23.089993538765892, 23.150834253200305, 23.220274902297035, 23.323953918322207, 23.421324799117276, 23.46433134297149, 23.45096915673274, 23.39968285991847, 23.387889094336497, 23.40483178552019, 23.41038855948254, 23.376009645937568, 23.291337371164047, 23.390127235282403, 23.390777236135687, 23.32550638657769, 23.27917869238205, 23.232954206855485, 23.209441144252782, 23.199520128467693, 23.205526429983124, 23.194624440113937, 23.18915683215724, 23.19167360832495, 23.177436453478055, 23.184582047885467, 23.27360079118861, 23.39476216663867, 23.484429464133097, 23.526802094498716, 23.551100468078193, 23.57461671988155, 23.561122363372828, 23.537364859834838, 23.518981346356394, 23.494340600482957, 23.4935799093619, 23.53828090811531, 23.47927826706058, 23.44233560385307, 23.412624746991444, 23.384048331942875, 23.356890318836886, 23.321153109613864, 23.28956862549664, 23.264936111284698, 23.247406255860668, 23.248293256446697, 23.261364063032488, 23.305283146138752, 23.389891613121417, 23.41046247604231, 23.421378610062078, 23.49121110703139, 23.507962124042578, 23.475757584463135, 23.466136984568266, 23.476835082350245, 23.458231383092834, 23.40439820797992, 23.319502619160787, 23.221029924918568, 23.22682410420991, 23.290171866549674, 23.258726949868688, 23.23357689575471, 23.204945197784877, 23.16271280278434, 23.138949520311048, 23.13563801689639, 23.128266821764885, 23.108096507595693, 23.094528896510223, 23.13379097096067, 23.220993767655575, 23.335128952511383, 23.494315521083745, 23.589283079945087, 23.615343128249815, 23.59067758570364, 23.57272895553442, 23.58482939612928, 23.579940262254436, 23.52147066882083, 23.42870567680995, 23.33345980265541, 23.23936948400139, 23.33751997522786, 23.31695790708996, 23.27061749717575, 23.231119288674282, 23.20022932150049, 23.173133010110984, 23.153388256796262, 23.137380560132655, 23.12412345324432, 23.11731296682633, 23.174244662880785, 23.288158170179102, 23.381264566918002, 23.505536032299847, 23.58007079600304, 23.583064930191526, 23.54250952898226, 23.5270583924344, 23.53833858227594, 23.53703693744608, 23.48814605874637, 23.401758200913054, 23.30357535035385, 23.169656966181844, 23.12573703530714, 23.264274176482445, 23.263135827961545, 23.2278778621674, 23.19926375379637, 23.195519292141427, 23.155928608328466, 23.144451798238155, 23.132050174159957, 23.14259015804143, 23.16461137594734, 23.259283101578728, 23.209603266549777, 23.216872183824705, 23.276519098451814, 23.297860495442976, 23.258110680961106, 23.20769774955623, 23.188199548098776, 23.20083749415323, 23.234339724137087, 23.178942003397506, 23.200979726491948, 23.277037042708233, 23.241892212910006, 23.210275845120325, 23.19523805308687, 23.171052055271005, 23.1566154724819, 23.139126883200834, 23.121679594431317, 23.10773374859475, 23.098685626284777, 23.086542325921656, 23.143432998372333, 23.216949930063148, 23.275468475347324, 23.391282625769573, 23.469044511641865, 23.483806518290123, 23.447337689606737, 23.426684051953014, 23.42970127670765, 23.438139594665245, 23.419606871702438, 23.34099811444285, 23.212802614300614, 23.132554507668264, 23.26154867706205, 23.273307481447276, 23.259403842481863, 23.239920298694727, 23.21059614427659, 23.195210737156263, 23.1651592129472, 23.136174450593586, 23.121491112925515, 23.113032544819557, 23.164067451471183, 23.24160132532806, 23.39511676493906, 23.53220364830007, 23.606828760609158, 23.619757838466825, 23.58999370719288, 23.563343172484082, 23.55977797116414, 23.564545218173464, 23.548136222224795, 23.472420022559092, 23.347849858855422, 23.196719402605748, 23.10370070592167, 23.12504827654375, 23.24214979023913, 23.22304505724466, 23.204909363572465, 23.190175340970466, 23.182748651433936, 23.170327219009327, 23.1567804017844, 23.137680719425987, 23.196068764403268, 23.27026776501583, 23.38611808206345, 23.531130432834363, 23.62007739039538, 23.629684614391255, 23.59443007853086, 23.58021221402018, 23.571556555714476, 23.52630948120388, 23.416072868889273, 23.30565999681816, 23.23887577120247, 23.255189371744297, 23.31250703658155, 23.286809159271655, 23.2499233433588, 23.204518072250053, 23.182907985515826, 23.157626339395744, 23.1383458874582, 23.119948780483046, 23.10621337263444, 23.109921643143576, 23.123400453868516, 23.111952577725628, 23.07766363249193, 23.145390717402368, 23.23084939200292, 23.29714141273892, 23.316367552660854, 23.300620275550397, 23.240307852595237, 23.18234745049922, 23.136664775058648, 23.170562921976742, 23.279732719367036, 23.24906118904852, 23.197295942062876, 23.195459508696683, 23.184886962106873, 23.197606708966706, 23.20746886195819, 23.204086005827993, 23.202674396998344, 23.225554011373493, 23.24149731397308, 23.25327343038245, 23.307551877558453, 23.370299948924806, 23.358337129453275, 23.395949514370358, 23.471543303496293, 23.450447818931007, 23.39988058196812, 23.37773980841212, 23.387661197954255, 23.506840091891934, 23.479609732853962, 23.42023866441373, 23.406313075859334, 23.33442918093832, 23.305081269652224, 23.308461456868702, 23.329391773240943, 23.39001463967079, 23.4416188264634, 23.48191156768019, 23.49176849128176, 23.45474126911778, 23.429232586397717, 23.429528785023038, 23.450658964817364, 23.472278014625815, 23.45234238677128, 23.500945739385106, 23.486268621861353, 23.473545811628295, 23.490813184213263, 23.532357293496613, 23.528013782555263, 23.486368994375855, 23.44005567138716, 23.390178325821562, 23.426653417350877, 23.44423860316095, 23.42524657702377, 23.415999721471152, 23.412330736810116, 23.43448371088017, 23.43660815768972, 23.43579300856661, 23.451439580663518, 23.462536535597796, 23.46703645737195, 23.43920769841947, 23.51359945967302, 23.56565225414578, 23.587531762592324, 23.594260887830412, 23.578552184390457, 23.561434026716373, 23.545855195520442, 23.549920085740727, 23.613885862466137, 23.71784036280499, 23.74176740331599, 23.671840973870676, 23.58811931393997, 23.503749252408664, 23.435397167728556, 23.36699551695114, 23.304441800746655, 23.270577065160577, 23.244180531543503, 23.21655518691561, 23.204343016941163, 23.188544602411564, 23.173019222913236, 23.17368570465327, 23.21323644168156, 23.324846079647973, 23.35446222385585, 23.404797100714134, 23.45439054094972, 23.452641883484834, 23.40809009145589, 23.37379596646153, 23.375584293394322, 23.385130747199337, 23.363970404099703, 23.280513005310784, 23.248401883374324, 23.33791249416719, 23.301764413542433, 23.270816081026798, 23.24044044909984, 23.20968766176999, 23.19289399630242, 23.17817400665045, 23.16165764932496, 23.151995160694753, 23.13998906667433, 23.13163007300771, 23.147153976232687, 23.230246289596778, 23.22818518427326, 23.310977545991722, 23.348481051859824, 23.352407039446817, 23.357057673941608, 23.35877389330746, 23.35609599876837, 23.336731151807594, 23.2833</t>
+  </si>
+  <si>
+    <t>[23.876732472036224, 23.875120843354424, 23.875817437437423, 23.866585135643813, 23.85084250631523, 23.84182741665769, 23.859356709758814, 23.9636429199855, 24.048722070174037, 24.039781945691345, 24.05036667515162, 24.052660415853893, 24.025557704216066, 24.03775758222103, 24.076447719888673, 24.114370717010953, 24.12178073047278, 24.07378912470972, 23.995181973249675, 23.98543852443817, 24.02431851976913, 23.98168500064607, 23.936378653050834, 23.90033892432408, 23.87788589512792, 23.84395068808149, 23.810788697307945, 23.784813200212906, 23.76683245451444, 23.805462607795665, 23.907259518058925, 23.98825520946221, 24.07131351430129, 24.17458707264672, 24.257002413967385, 24.323752975141474, 24.38340525053364, 24.439321421768778, 24.48380070103202, 24.526713567613598, 24.60564826378582, 24.594767896462233, 24.439613373946326, 24.177773240454943, 24.046525520190936, 23.975396972331893, 23.985476723212603, 23.976668014928507, 23.935399418580086, 23.88929316571561, 23.8598097704888, 23.841179885596905, 23.824079234998667, 23.855911073085466, 23.90934378716649, 24.000733268459538, 24.054661937398095, 24.036218517265606, 24.03337836213352, 24.03838699259708, 24.043005713602323, 24.04912669479575, 24.044788573981013, 24.0516834430568, 24.05048147740099, 24.14473685840213, 24.15905666888168, 24.098824314708736, 24.055949701156177, 24.006020944399314, 23.96910474134778, 23.921955770649365, 23.89174100870876, 23.876005669691068, 23.86457832600634, 23.849955967997886, 23.823391845125347, 23.79612316827377, 23.81830415647808, 23.868093683477383, 23.844875723508085, 23.953655995141137, 24.05630747808209, 24.09223948545423, 24.071619322194824, 24.082599800637677, 24.072308196197383, 24.049660845952516, 24.025764226636085, 23.957473427932978, 23.89528298610105, 23.9692665306434, 23.944452827169897, 23.90886473262802, 23.886244849585363, 23.871740380294302, 23.847931142349026, 23.823280829680442, 23.79311937927737, 23.77478312772981, 23.767906515300826, 23.78365934998794, 23.859364284479952, 23.970521090673135, 23.950561006602484, 23.939676306547018, 23.941113647645903, 23.907126461257942, 23.869970556243302, 23.876742415890863, 23.893327007988614, 23.87729505799477, 23.83361420533657, 23.959326226832804, 23.95477176311982, 23.908026577339623, 23.851396717298314, 23.809415360883392, 23.784267951132488, 23.765734982352757, 23.751164672187382, 23.74139495059499, 23.746289024467057, 23.748706299381137, 23.739947295017444, 23.740118535883866, 23.796523751646905, 23.929315756786867, 23.962275968121862, 23.91761530648509, 23.91888956872332, 23.900530533648467, 24.017330887561002, 24.17693949580705, 24.203117753297594, 24.187764987332358, 24.15580337080735, 24.125342347404896, 24.08097352805017, 24.050933189423414, 24.02816748814659, 24.001970792613765, 23.988414493832888, 23.993438140535932, 23.982132715617436, 23.9514777308904, 23.939247075131338, 23.93361867143824, 23.89579265805769, 23.910239648027744, 23.941470730963456, 24.012557230289016, 24.019985317943878, 24.01066591705136, 24.019051981053313, 24.00356086452423, 23.97668802957604, 23.981025807112434, 24.01644283038185, 24.056088788709715, 24.071016267385954, 24.0463915585007, 24.008472839587544, 24.063708222860754, 24.051520962934216, 24.001490864051565, 23.980180108822424, 23.9550840272301, 23.932239070696337, 23.91475707387076, 23.901262655223835, 23.891738825108607, 23.884931788939113, 23.899093436359816, 23.943637191842072, 24.035415799787213, 24.041741604904356, 24.10721493412731, 24.152354122283374, 24.154192414891885, 24.137214863839052, 24.13234113540106, 24.14444201019822, 24.10734851069185, 24.069104664944117, 24.0254494685056, 23.980083905013178, 24.001035758081148, 24.10709270397565, 24.019327879047612, 23.931071699804182, 23.883941809182733, 23.85556180521888, 23.835045962544417, 23.839806789695686, 23.830153530217398, 23.821180367314373, 23.865593261965582, 23.956550108276385, 24.150055219373275, 24.223121879769934, 24.260935066600904, 24.29373284797796, 24.36088615104033, 24.399023749809203, 24.397335578607038, 24.361101969794607, 24.323908138967592, 24.284619548120293, 24.22166781845507, 24.118698428736224, 24.058483418649846, 24.06073764247748, 24.010488657622258, 24.011112115169155, 24.14889122976112, 24.298667320083833, 24.393255749738273, 24.448072441213693, 24.48383609835461, 24.50808934148562, 24.54635289321715, 24.6100015887227, 24.661212796260333, 24.655582813068506, 24.637942617063047, 24.60983099708376, 24.57360778460909, 24.546626441570847, 24.545310636211976, 24.550768351593586, 24.52564409841396, 24.47243748514415, 24.424053426932826, 24.38205088019465, 24.271436142863752, 24.20067400210264, 24.139390761092688, 24.06532169937131, 24.001606415783044, 23.969073005174398, 23.940043206052298, 23.924125781305392, 23.910604595553227, 23.91850350621776, 23.955549603039476, 24.035468809072942, 24.157143399102665, 24.18696524120412, 24.22841126764366, 24.281011331141354, 24.34291884613454, 24.408799837252943, 24.486458191145335, 24.489592669685837, 24.457577635004466, 24.404446612415995, 24.29993421730079, 24.19393492549038, 24.077533215770387, 24.0861842252985, 24.08856121111187, 24.027712303031095, 23.968553353175015, 23.943262084415434, 23.897671005691155, 23.877027341526173, 23.85435125527965, 23.836559615695453, 23.85007993943258, 23.939076550086963, 24.01303460934618, 24.03045565200769, 24.113208996541317, 24.203078349451374, 24.323233142906535, 24.452369304674523, 24.496114353143184, 24.49870207000369, 24.465798029967917, 24.43017112318986, 24.40757786500576, 24.40083465833776, 24.41980750666548, 24.456795196556698, 24.487228338949425, 24.44618739186664, 24.253491438752334, 24.148887002863376, 24.03031419100746, 23.949509496937186, 23.91644193026806, 23.901204359077497, 23.907348031010585, 23.978217998622227, 23.98973481632849, 23.95769788216732, 24.001017799139703, 24.017920559465665, 24.000102967381924, 23.97429348727269, 23.97592232173875, 23.992787548595885, 23.9705286389987, 23.95226145945611, 24.07296722677116, 24.06543656589821, 24.024762896617503, 23.995478455925426, 23.963696428451772, 23.949735522317795, 23.92629705818113, 23.916307749125522, 23.903510261574723, 23.875155424802674, 23.85380476928421, 23.830589318005906, 23.838595002176433, 23.929523874240584, 24.02903388074145, 24.052293891725963, 24.127446252445008, 24.163303572904187, 24.154042196304303, 24.121215898840422, 24.11238307575609, 24.135647644573638, 24.14038567900938, 24.09122057998451, 24.01972849779571, 23.917637069062987, 23.921292196477037, 23.98533575795969, 23.948372759166073, 23.908622952712026, 23.883391328700526, 23.859625300593507, 23.835043512721537, 23.80952270187952, 23.801641215333106, 23.7976006922664, 23.79691354754229, 23.842007991315047, 23.853958454554938, 23.937623219379617, 24.03191376290894, 24.088491129178937, 24.102756644806238, 24.0930855343443, 24.098441261509304, 24.12401531235118, 24.128278957392666, 24.056042992948083, 23.9448374465457, 23.84728775562658, 23.830553836958966, 23.863497254429433, 23.82372482197367, 23.811042027459948, 23.78918056764729, 23.770255008976516, 23.76260934928006, 23.73887889235188, 23.72115433124428, 23.710124423631346, 23.7025419894303, 23.7069861656599, 23.78403214649912, 23.841300291727887, 23.727809185811164, 23.736408492276762, 23.74767554973829, 23.771396179122544, 23.805191747078187, 23.815055886739255, 23.811571588072766, 23.78727752040861, 23.746533543295726, 23.717060664470186, 23.751784387637755, 23.824276769606257, 23.799417424632754, 23.777393241406838, 23.752801979975803, 23.723162306363516, 23.699836666175937, 23.69713800081657, 23.685973231617577, 23.684650244604796, 23.691736779936377, 23.700434753989086, 23.784427775166606, 23.8846662591984, 23.982515384516436, 24.049443047731554, 24.08272503487544, 24.083162716065488, 24.08173312178487, 24.077318441014555, 24.0620915070333, 24.0430100007277, 24.010770528034325, 23.9820304026471, 23.91704724800593, 23.897924142783577, 23.882088642350038, 23.84663114378748, 23.79980337871852, 23.78751343925821, 23.778896941002273, 23.781206157068823, 23.79121115376471, 23.784083743372335, 23.809686130956436, 23.849952402087983, 23.88148352441904, 23.87435380930789, 23.88515196799182, 23.889997175265695, 23.90956283094293, 23.967496305878527, 24.050197035605123, 24.073437973971696, 24.048227664091858, 24.07632363160587, 24.112156088094938, 24.158195401205415, 24.100752670374238, 24.06832961411624, 24.01598889252104, 23.95127903432294, 23.893188959048288, 23.852452654282956, 23.839543222426617, 23.81844112577049, 23.79758455256521, 23.78044305458846, 23.805392613279633, 23.870096002413657, 23.960150507289217, 24.022534684471555, 23.990346319273044, 24.005229603610463, 24.079819012134816, 24.193767075354547, 24.292791859117116, 24.336775601847123, 24.347290390736465, 24.311495350096205, 24.261877678838715, 24.186330281190994, 24.12287019589147, 24.033361524987694, 23.97501073496042, 23.92491652254291, 23.88581008205328, 23.856905224077693, 23.838896103206803, 23.784650954854257, 23.748055781166723, 23.724487728560046, 23.72834653881169, 23.809972608250956, 23.86374756427205, 23.8778049377748, 23.941202656241675, 23.964686239010764, 23.956653765740565, 23.917599661620645, 23.915856499586123, 23.941216214533316, 23.93247295089566, 23.883585561590483, 23.958222591871202, 24.028325377650415, 23.985730278123906, 23.946850294353183, 23.91228563868709, 23.885974221572084, 23.85034828962065, 23.818820585469737, 23.79430793788676, 23.772040743343197, 23.759949616515996, 23.756462268391278, 23.77589122787541, 23.828197403908778, 23.90220585245463, 23.8652713555384, 23.907136970388816, 23.986497976561584, 24.023662491838525, 24.023364770024006, 24.03578388945965, 24.071903632568738, 24.09500117228667, 24.090331867768793, 24.045454794327295, 23.937202062682402, 23.931067010208704, 23.992106981841506, 23.96307636175636, 23.932599735949225, 23.913979861759255, 23.88220475062177, 23.85341798523827, 23.833164543377304, 23.81672411075444, 23.81019841904629, 23.81305319979063, 23.834000661717656, 23.890538746256393, 23.84929283859833, 23.904530227688596, 23.916277107888703, 23.91565213072477, 23.947291392024898, 23.966139673909286, 23.972328893294762, 23.952955981544765, 23.92995332395652, 23.904921497521343, 24.01629830846221, 23.956734036953293, 23.868119756146125, 23.8050612084912, 23.748539132803685, 23.707227476186436, 23.68210758746838, 23.67201944745706, 23.673682617133895, 23.670086183398848, 23.704879124957582, 23.742350369701104, 23.764760205040236, 23.832926095565757, 23.896069558434647, 23.967130377389168, 24.013357821902584, 24.038940523723323, 24.04594296146792, 24.0882931800263, 24.08327465151059, 24.066707489968433, 24.03917686538378, 24.059074741790226, 24.014480622329103, 23.94205965131121, 23.853534981305298, 23.768760614212507, 23.73187928065714, 23.73398755710653, 23.757289461954286, 23.766632409035086, 23.78231820361005, 23.806851985345187, 23.83044958140576, 23.87054050751051, 23.92703970742927, 24.02282545775181, 24.105548676493537, 24.135149683441764, 24.16288783254399, 24.177239871044705, 24.18594609003542, 24.159500250626436, 24.095729818259375, 24.03882283842933, 24.02248389816627, 24.005532497421473, 24.099938396101717, 24.103217268115802, 24.09762341655299, 24.07904680059666, 24.053930744523182, 24.03959499827289, 24.00532835235688, 23.96565141774637, 23.934874342784923, 23.90643127038082, 23.869533786848127, 23.845725837459764, 23.871140493393664, 23.985920137557148, 24.01129646743858, 24.011882375324863, 24.05677663870468, 24.073561306568056, 24.052203938479803, 24.05282012645479, 24.074661402986834, 24.105738159969537, 24.117448359375356, 24.089015643301945, 24.0404686526293, 24.06636377625985, 24.06658292892078, 24.019684210950718, 23.94647786898913, 23.876229664662763, 23.836395817741078, 23.81409682954435, 23.807159614059273, 23.792440962633677, 23.778778250546726, 23.785315211772474, 23.81192403727942, 23.858198702516216, 23.919323523103916, 24.00389406223043, 24.03238754211742, 23.95994151784838, 23.91654347009536, 23.900257648249365, 23.91466063639841, 23.943242183470375, 23.953093964656233, 23.90231894393443, 23.980688040710362, 24.012166151241598, 23.975506435242895, 23.93468982680278, 23.892985472006814, 23.860539926965163, 23.82495761000304, 23.801731454123935, 23.787470229516163, 23.772507432843526, 23.758070658401348, 23.751638097598832, 23.783193851643947, 23.869553659895285, 23.831569423424458, 23.89525234920904, 23.970946304093275, 23.979086439928604, 23.937061508066332, 23.926185266287508, 23.951208711589427, 23.97408193091707, 23.957470698459975, 23.893424748423712, 23.830394398676017, 23.942651462830156, 23.920126631844152, 23.888686084752894, 23.865600556802928, 23.857333765716145, 23.862410904253228, 23.85730186021951, 23.84640933562959, 23.82669338685611, 23.794172693906546, 23.79298491597301, 23.81523561326529, 23.866861410143414, 23.811216838922558, 23.887905119559807, 23.978358445174422, 24.026847134445685, 24.041316267524994, 24.030094601260227, 24.016594262364745, 24.018305031684918, 24.005776827857947, 23.95610331128924, 23.867727102583075, 23.95409804378131, 23.954872833066627, 23.9230217750476, 23.889485158174136, 23.86349939436211, 23.84360669488152, 23.82820126543272, 23.816214352816136, 23.809749392025406, 23.808795618738657, 23.805531433848525, 23.87410314863148, 23.981561165118805, 24.007913048920233, 24.093330983959955, 24.13179252256891, 24.123292117517206, 24.083756106659802, 24.068533310318557, 24.082678956651037, 24.117796916574576, 24.13314540130497, 24.08556849144487, 23.982299714577135, 23.96801047926445, 24.015591177798957, 23.979993202421884, 23.94745326858494, 23.919689214984146, 23.898295245163723, 23.87533547703748, 23.862154942455806, 23.847576852846927, 23.82799467926361, 23.813296533622452, 23.889831085078367, 24.036172019848507, 24.059370779146718, 24.154557390640836, 24.18852768158098, 24.165182020713434, 24.121209260113076, 24.11815820566802, 24.159602440558448, 24.180941707166607, 24.167087238126726, 24.10982696252424, 23.991498868205827, 23.833463521493158, 23.742470268788953, 23.862034935491355, 23.87766457063161, 23.85198101143312, 23.83394147084971, 23.803402881156725, 23.782172066529807, 23.77513214122204, 23.775656403648693, 23.77252202191752, 23.773778605354988, 23.837670059137736, 23.92165400322872, 23.982448871841555, 23.901353402082112, 23.858959401831115, 23.887672125346345, 23.913801262108393, 23.933326236646632, 23.930324525746954, 23.89874437421915, 23.83887067823528, 23.954571630380787, 23.98238048468615, 23.931465791055, 23.89541036566116, 23.867123347805688, 23.83800908751851, 23.802330774816813, 23.763616178734466, 23.7279817683651, 23.699436871362504, 23.680745579659938, 23.68684751738765, 23.742902675370672, 23.83821827179774, 24.036270352559768, 24.15471869729709, 24.232137514772045, 24.24590564529849, 24.16805274753494, 24.090973589606367, 24.09546831578611, 24.105645190329795, 24.088906898866934, 24.00459033896305, 23.888000157477922, 23.871464146354597, 23.90991928999442, 23.87302188795283, 23.85498394888081, 23.84443184782764, 23.82469996986808, 23.802477961003703, 23.793938032573877, 23.785838044906367, 23.776101159746236, 23.780594252108514, 23.84105277163791, 23.839174157141326, 23.952834072642915, 24.04530464773657, 24.088906795846157, 24.07472620385232, 24.032602656461496, 24.01968755917618, 24.039117006347407, 24.063179689737108, 24.07155252644981, 24.038678163404683, 23.93582819597073, 23.820224496260025, 23.7172727906734, 23.68941457738133, 23.814235314712818, 23.932855331729385, 23.92444819868662, 23.879297225434396, 23.85902043216574, 23.851635893362836, 23.87197691179065, 23.868456248300514, 23.87575118507507, 23.806611135260656, 23.82278913496316, 24.04771345117527, 24.015502549199656, 24.00043867473406, 23.968545919626735, 23.940891629349153, 23.950574872082097, 23.92846321754907, 23.87012565364814, 23.820717447546745, 23.91914839541775, 23.8869270123033, 23.86780379625819, 23.8438630352838, 23.830891719533813, 23.83871062087073, 23.82751273291765, 23.83190047189578, 23.831440901121454, 23.82163294668064, 23.82428212842483, 23.82899599743328, 23.894407234695212, 23.999647155424523, 24.00392925536652, 24.085824950279175, 24.12796400119775, 24.12764226726519, 24.09172959397526, 24.05987021284356, 24.00639808207312, 23.96652800709109, 24.004074897961257, 24.1349317113181, 24.108665249999515, 24.039271926490983, 23.950033418230475, 23.870818857821224, 23.805179847212557, 23.783414962476357, 23.775942396294017, 23.765006207384843, 23.755203446393825, 23.729203580189807, 23.69662027733584, 23.69836481439451, 23.70248772609878, 23.767267319070893, 23.876506382909316, 23.986980982344573, 23.956664495811633, 24.086508118494734, 24.133039703755742, 24.08576186824058, 24.04599822132904, 24.027779844660984, 24.010795004764976, 23.987593456180246, 24.01191554739901, 24.068258415873075, 24.03497510498434, 23.980800356806466, 23.92519586170295, 23.87950459139351, 23.85011034113616, 23.828846544899182, 23.81087874225374, 23.79619919892838, 23.779269018630618, 23.76760765719352, 23.825937161652632, 23.91962041731171, 23.965716631833207, 24.078036327279502, 24.136469191354706, 24.127628352294863, 24.095440562630273, 24.09619026859256, 24.119766278847667, 24.129634183480295, 24.11964993553553, 24.068707883130173, 23.942107021131914, 23.891628950834527, 23.975215309808686, 23.93896722718551, 23.90495466542558, 23.86701055886797, 23.833093342347563, 23.802659106499238, 23.778104800601454, 23.753383453060952, 23.73103075404752, 23.723998449401858, 23.792760022067863, 23.871523808362596, 23.986593790850716, 24.09855123211125, 24.150934356889152, 24.140216412492265, 24.101799437792874, 24.11000303707101, 24.143739832716346, 24.16606926387365, 24.158963729749264, 24.10420907736372, 23.98219588680445, 23.962738300256333, 24.035096377777887, 23.992115052592023, 23.942355338037803, 23.910667114615347, 23.88685932291422, 23.868014112827932, 23.842433307392543, 23.815882631709595, 23.79198749232093, 23.80200712574232, 23.863260594812647, 23.938819760258042, 23.952066599403125, 24.059185039145987, 24.14671212972795, 24.17157937740087, 24.154571767343196, 24.168919936709386, 24.19778393255361, 24.19769785377775, 24.143238686172197, 24.03964269620958, 23.924678052387616, 23.785444822628524, 23.853362003146305, 23.901234578772264, 23.861160885779267, 23.81396336100738, 23.793356468713583, 23.778274239543833, 23.759219251049284, 23.74919238052496, 23.748312448072024, 23.731554576932478, 23.745099587894803, 23.795117388556914, 23.835963816503533, 23.883919504913177, 23.89493556328301, 23.797684994468266, 23.826149206855703, 23.867955144544606, 23.91094524646208, 23.941892819476806, 23.95358767423323, 23.919510365210215, 23.84727995759694, 23.95484763120437, 23.936069430877055, 23.910210874049238, 23.903214692363225, 23.884390258016392, 23.85526521254218, 23.82765819203617, 23.814716728230376, 23.8093543637343, 23.80677944948989, 23.810451620544637, 23.84787120481498, 23.927461086088783, 23.957749144919223, 23.88287127182441, 23.928468592994903, 23.99683780703533, 24.035098324769177, 24.06220510826949, 24.10163031918502, 24.02045101349064, 23.8581865628262, 23.819040056374334, 23.908278943193622, 23.872933783988362, 23.83580355730383, 23.790741497966906, 23.776955053908036, 23.75582009357514, 23.732667863111832, 23.70439281388236, 23.69838003662221, 23.693764790122227, 23.677395685853924, 23.67873715163972, 23.68830403640436, 23.754177996577496, 23.819853112966783, 23.882379305632913, 23.940234213523766, 23.990058605485416, 24.031786535483253, 24.064088432939737, 24.092111217314116, 24.101864599693084, 24.0980923936269, 24.077743730662252, 24.045381381820334, 23.98503441556819, 23.927858840372725, 23.874130177560243, 23.845173710235386, 23.829172458592755, 23.80995923909372, 23.77382149497369, 23.743241565022206, 23.719683796048074, 23.695889834576395, 23.67878887820709, 23.75287663926751, 23.885996235953616, 23.967123918376547, 24.0857720190632, 24.142729845851232, 24.142961269151613, 24.112445922380143, 24.093943038027504, 24.104408157747645, 24.134542026053996, 24.144230030693375, 24.079862643457165, 23.97313043761707, 23.95860976120066, 24.003035189579588, 23.95968186013988, 23.914647733004927, 23.880065449856357, 23.857593488824097, 23.831683468086155, 23.81172072000673, 23.80089550882533, 23.782039123287223, 23.7748121255748, 23.841565058249994, 23.958079114119936, 24.05741104904087, 24.165751942163084, 24.219118194380087, 24.212914565729942, 24.15705144090768, 24.121907951148405, 24.13989960452962, 24.162952338250978, 24.144475551806106, 24.07279933918352, 23.95127857529411, 23.853612255706917, 23.95241025112786, 23.93446940642622, 23.906107139892114, 23.888053906279875, 23.851789084945576, 23.815898460748837, 23.80497816756151, 23.792736966820385, 23.777847422442033, 23.770813461304574, 23.787241887736744, 23.803244258996994, 23.789757927902855, 23.862913388824055, 23.924600514956726, 23.95718404048542, 23.961102172513066, 23.954435972532625, 23.941088045930154, 23.905224003572826, 23.856729584332175, 23.81024230712377, 23.759594047508727, 23.80015967179075, 23.865248818779747, 23.84385919357104, 23.81184638647004, 23.788951345499967, 23.767723286440518, 23.74083955390932, 23.71471354138009, 23.701388860084794, 23.695498856720224, 23.70082223157814, 23.718448242211522, 23.73809443914139, 23.750757444367377, 23.818117445798435, 23.846702072624748, 23.84757070168364, 23.835906628655945, 23.816021468299848, 23.804229257470936, 23.81379353703348, 23.967384016411174, 23.976494738583032, 23.947028612676135, 23.878264882803993, 23.807399616792523, 23.760929478337587, 23.73150657359727, 23.71953310962883, 23.714315228239844, 23.706301160938988, 23.685534122503096, 23.676366380831706, 23.689611862805616, 23.712056845123595, 23.719722287795477, 23.725125922666717, 23.783748379433877, 23.83755100323793, 23.716577593396476, 23.76913031664613, 23.918173254368455, 23.795948542485245, 23.666245915896955, 23.590741639181037, 23.578384889132, 23.5630565223701, 23.642670270390123, 23.72353846618164, 23.74133931937459, 23.744133408623938, 23.739603748347037, 23.730383441235137, 23.71870041847316, 23.71784212445913, 23.734388766757334, 23.74258947853961, 23.741345456704014, 23.749253219601712, 23.81073116864356, 23.93356550457869, 23.958599468279427, 23.954605345112252, 23.988244580417753, 23.98228162653569, 23.940484970587477, 23.924084233178863, 23.93349245516175, 23.94787328657095, 23.966044465318287, 24.022430261533845, 24.09871119446946, 24.068267324208964, 24.02276272660912, 24.00811294798108, 23.987433235609824, 23.979175634360796, 23.97831871913795, 23.952837470712428, 23.905712808090186, 23.871866602675464, 23.879117353493978, 23.896929558304947, 23.925140685331623, 24.01282408169422, 24.106516932295946, 24.12164787346909, 24.12425946516616, 24.101851714054146, 24.086551432941036, 24.092483348022967, 24.121629790564285, 24.14858935565783, 24.153941103779733, 24.137522142676048, 24.104473747538133, 24.109513132250253, 24.06609300669268, 24.01942458222823, 23.980789790981962, 23.949041652012767, 23.904023731266573, 23.865021754808982, 23.839898414605543, 23.817411395487493, 23.79707828555505, 23.794354164268853, 23.853210168124246, 23.966649826249547, 24.01961175009143, 24.136531643680474, 24.189075079919576, 24.18665013857976, 24.14275811577149, 24.11744696016315, 24.130568178485614, 24.15131912698911, 24.15278466974087, 24.079371998696214, 23.95232957085244, 23.860439645032532, 23.962653904029725, 23.934214717675292, 23.89175733799098, 23.865640781051322, 23.82968060020193, 23.808384905127557, 23.794014187851644, 23.78674015236383, 23.781074755531275, 23.776863628849174, 23.83975766645844, 23.946838977634687, 23.955747668763753, 24.048115395226457, 24.139043768579224, 24.177306291882655, 24.172069366008543, 24.178714995872237, 24.20529112606022, 24.183125069764642, 24.122511985914908, 24.051900062638833, 23.95117021388548, 23.88319398425436, 23.985481389577515, 23.960839579751468, 23.911324883840347, 23.864555558550705, 23.849969954597125, 23.82269925517772, 23.789296866628174, 23.766995803449007, 23.758779830094387, 23.733118016676297, 23.70906705593488, 23.752232458056312, 23.826063649496223, 23.894739881701764, 23.956330278877374, 23.8711907398969, 23.75557716572568, 23.847833136861155, 23.94580962155894, 23.83409340820512, 23.80541759026221, 23.795216682974473, 23.769037697859574, 23.855021097718748, 23.810178861057526, 23.76124355816641, 23.733502906571786, 23.718042495624005, 23.736753229445053, 23.756391749471586, 23.747471120633875, 23.73959884711409, 23.778397986808965, 23.861614043315218, 23.97553985992153, 24.131232273066825, 24.209949967441485, 24.235214606508567, 24.262318332213443, 24.294270168088932, 24.33072762457739, 24.360557512947434, 24.3678391178554, 24.34726944217803, 24.26158421303926, 24.173972420733705, 24.151996912346064, 24.15068477169578, 24.11717955736742, 24.09110415959542, 24.079425687412908, 24.07303985739593, 24.079990395081676, 24.07608546321703, 24.080134196714976, 24.085365205028623, 24.073473693696048, 24.05103719963424, 24.044565016735774, 24.064519974384883, 24.083873185231127, 24.116834312446986, 24.167730635163622, 24.20795832423803, 24.218198255231005, 24.205486947749694, 24.173860258479582, 24.15403149719721, 24.130829370656, 24.11593793426154, 24.085335051164098, 24.055701920797997, 24.025791436752844, 23.995157918603756, 23.941849503102578, 23.874857695321662, 23.828755271046095, 23.816159126275213, 23.798841847998137, 23.784394422894305, 23.76006832485413, 23.749440350283567, 23.773132362493033, 23.85650333286452, 23.94564092327747, 23.882442394751376, 23.882505050490405, 23.89902699554288, 23.91705431240395, 23.92963617933441, 23.944339997725596, 23.95237239291822, 23.918177887967772, 23.838248901986518, 23.860727020816352, 23.928188371409885, 23.897504082849167, 23.865987520281347, 23.828807203700478, 23.799046500726604, 23.77817063309895, 23.765419203363013, 23.737987539772195, 23.73619970690893, 23.71959814578055, 23.706430867586672, 23.769321332958054, 23.863450367976636, 23.94742259917939, 24.050520452200256, 24.096877951058943, 24.084406714797268, 24.03112133397333, 24.01801220279366, 24.035718813603804, 24.041780614996785, 24.007201073730652, 23.9253267924794, 24.027016863702368, 24.030862022592917, 23.96508986396047, 23.91016279779359, 23.861804559789054, 23.842074403072363, 23.828664742138567, 23.832532296938325, 23.820332682331188, 23.814120742820716, 23.81775472378448, 23.8077507560438, 23.81313752703528, 23.90242190136046, 24.023119075048097, 24.117902043262415, 24.163737526059975, 24.190875271089983, 24.22113878318116, 24.211800742919195, 24.18923019078, 24.17232561708487, 24.148478119717037, 24.160577887351653, 24.195939211659795, 24.1402792467467, 24.10328380664099, 24.066601647854366, 24.038302310197775, 24.011393968942908, 23.975603928336067, 23.944067061719227, 23.919724641712254, 23.90303681658668, 23.904976471164385, 23.91846859568808, 23.96226095908328, 24.04293622715622, 24.07819300659636, 24.070970154615836, 24.128837475957265, 24.146695766784294, 24.113250304602374, 24.102657251652385, 24.11370321107889, 24.094299956789815, 24.038187755899855, 23.950081319303084, 23.84683202459418, 23.853328046622156, 23.91845315527954, 23.885361749207792, 23.863196477778697, 23.834378151636926, 23.79010564641833, 23.764583304139908, 23.760746749549877, 23.747304042636955, 23.726350665221105, 23.711813763903837, 23.754268755102583, 23.837652820573798, 23.959092592134017, 24.12723024775806, 24.228674251491487, 24.258149503439338, 24.233018243493827, 24.21350025340237, 24.225716472158428, 24.22115813515856, 24.16085956562597, 24.064267832274954, 23.964911878740423, 23.896220994982027, 23.990097192707324, 23.95033478476336, 23.899246481514027, 23.860296979557674, 23.829842898004, 23.801178712652785, 23.780221076538826, 23.76142315408136, 23.74325171650359, 23.73737251034819, 23.79447178655795, 23.908086422794145, 24.008481733198803, 24.139544101811236, 24.21959416671658, 24.224698653740727, 24.182893158602145, 24.16560903722353, 24.177177869305044, 24.176153057445635, 24.126183871511188, 24.03669749433632, 23.934034729574776, 23.85105063462699, 23.951266226919348, 23.9353267409351, 23.903309766839765, 23.859735988920335, 23.82684806050446, 23.825802506782505, 23.78398636366367, 23.770584719442997, 23.757345692083863, 23.768047371265414, 23.789124847655444, 23.88062564342059, 23.831601836090744, 23.837045498194072, 23.899986584787545, 23.923290395446582, 23.88278332353967, 23.828705951654683, 23.807878530097, 23.820654620971045, 23.858063077437404, 23.801232640332106, 23.872298678383515, 23.91449511966607, 23.87487691048096, 23.842154784523643, 23.825834406900253, 23.80004806710438, 23.78457755111833, 23.76603064080406, 23.743219989410274, 23.726746638111678, 23.71696721021071, 23.7036040838201, 23.76257054214108, 23.83524572443019, 23.89708833246716, 24.0193671718454, 24.102497889272403, 24.120094545790717, 24.08281303547004, 24.06094798959543, 24.06380704329389, 24.072279632676892, 24.05322257684071, 23.972128830501628, 23.840240030034483, 23.81693751374772, 23.923095300156948, 23.907038803654846, 23.88907373089314, 23.869042041292143, 23.842133755952222, 23.825490245264238, 23.79355041611055, 23.76259732490858, 23.743860925736044, 23.732085469510903, 23.783757439996347, 23.85960645363545, 24.022567847736426, 24.16736027832552, 24.247356211593058, 24.262821692631366, 24.23254433325465, 24.20461034181464, 24.20003957963519, 24.205028042675114, 24.18843356292091, 24.110598229156608, 23.98093027945994, 23.823847478241344, 23.723751052311403, 23.782463240001885, 23.876608366893308, 23.84997014672985, 23.82990681711888, 23.8192872687265, 23.81121806318696, 23.79760168506547, 23.783350940566905, 23.762982305813193, 23.8162290794605, 23.890534507666057, 24.013682504161864, 24.165970997376935, 24.260919021931098, 24.273226982867936, 24.236905919009, 24.221514674527658, 24.212466107580656, 24.16595145231051, 24.051106008868885, 23.934766057686943, 23.864965184031192, 23.88286103875775, 23.941460502502277, 23.914756262439695, 23.875676802504334, 23.82747316878026, 23.808175850655232, 23.783395187346215, 23.762783993701373, 23.74285837909238, 23.728262198544048, 23.732365686464416, 23.745650320191857, 23.727355992938797, 23.691949302204147, 23.761738200849038, 23.851093575476966, 23.921159543732283, 23.942178724053164, 23.926714770098698, 23.863944697527383, 23.80234610270377, 23.75439783707725, 23.828298434919883, 23.913472826393384, 23.880693080408502, 23.825488659174255, 23.81707163494954, 23.80524731891539, 23.819004385399552, 23.831021900203137, 23.834766723572432, 23.840759146381416, 23.87011198392518, 23.890213293763384, 23.90489161860417, 23.95904617175829, 24.02640926645493, 24.01112958521806, 24.029323587547523, 24.11695836518312, 24.125983523870534, 24.06937999806712, 24.043423452374736, 24.07155051101046, 24.159674139786144, 24.127991372315435, 24.081712199374437, 24.067181368852328, 23.983279536070285, 23.946449303669528, 23.953241559692643, 23.978877081934982, 24.041481603303595, 24.09836761819572, 24.14081364125062, 24.150056772796635, 24.111438998010176, 24.085194861343762, 24.08590681005323, 24.10703901555212, 24.128577713618387, 24.097944811020096, 24.139033378567973, 24.12737315545839, 24.11891766573184, 24.141399805465273, 24.18634378055621, 24.1817997830596, 24.139300278434263, 24.093189290283064, 24.0446819867222, 24.103868926777213, 24.09918475656727, 24.086963890211035, 24.07068801465829, 24.067103507842887, 24.0888925940252, 24.09393965621157, 24.09493971471045, 24.086396732045188, 24.03347277094221, 23.988356298546027, 23.934432815398438, 24.12050322188748, 24.228708232767875, 24.244921496115577, 24.25120453239232, 24.235625773309682, 24.21903993266879, 24.203347990182323, 24.20693050378036, 24.271904004619643, 24.38044691466699, 24.404142418233135, 24.332156910064853, 24.24424441738113, 24.149601875043583, 24.07499008534347, 24.003502824228274, 23.93862466228427, 23.906699903286682, 23.87838865319257, 23.848948945805745, 23.83035971110461, 23.81369387813282, 23.80008758490445, 23.808557235767008, 23.851913652615718, 23.953120470762475, 23.984036470632233, 24.0352628358899, 24.088263246293632, 24.087307181482956, 24.041419847114515, 24.00512287681549, 24.00621938145169, 24.01630262247134, 23.99465626953481, 23.908651300500292, 23.87553870587325, 23.967981089736202, 23.930353238998084, 23.897767437097, 23.86637169910243, 23.8388556493137, 23.821500198884024, 23.805731545559382, 23.78830066131448, 23.772097750070134, 23.759651306230197, 23.750374684467612, 23.768695370061234, 23.849077231986445, 23.84768527251026, 23.934883584199486, 23.97494186065323, 23.979926549963306, 23.98498074129812, 23.987155546093533, 23.984744273307367, 23.964952401539865, 23.9098</t>
+  </si>
+  <si>
+    <t>[23.82605756894243, 23.82445003527128, 23.82512603944092, 23.815906227445065, 23.800213831145584, 23.7913347296882, 23.808854144120144, 23.91307805952506, 23.99769978034193, 23.98826557950368, 23.999235932272274, 24.001320884272655, 23.973995912993455, 23.9865768294318, 24.02510549512931, 24.06293444950326, 24.070242829550278, 24.02211809359997, 23.94328384040739, 23.933478476337466, 23.97276963776413, 23.92932688682953, 23.88518370963489, 23.849433628767997, 23.827029679105312, 23.79325896657733, 23.760211622459632, 23.73436036149236, 23.716498440999015, 23.755091748443267, 23.856825455155786, 23.93758174807607, 24.02017342762512, 24.122948876152936, 24.20471871188222, 24.27085444224041, 24.330124530070346, 24.385866056946792, 24.430242665032093, 24.473020813440105, 24.551701897894393, 24.540850118931882, 24.38609434910751, 24.125443209717393, 23.994586363511228, 23.923941701065115, 23.9333757037315, 23.924789891792102, 23.88381493722295, 23.83790224004524, 23.80873637827284, 23.790260458045946, 23.77328248572353, 23.804801515235138, 23.85782754474866, 23.949493140479444, 24.003307638827575, 23.98438976062604, 23.98105871232153, 23.985634409759566, 23.989901534552434, 23.99578900259957, 23.991262386607257, 23.998057155487675, 23.996795906407687, 24.09245514145994, 24.10666576002463, 24.046460433528107, 24.003435676798613, 23.953387795619708, 23.917156019342148, 23.870490732267807, 23.840544216915692, 23.824946286343888, 23.813596610181975, 23.7990507693985, 23.77269829724116, 23.745705041110767, 23.76671432325817, 23.81771547244226, 23.79431543291734, 23.902718622669454, 24.004963285040727, 24.040627514242917, 24.019997412620967, 24.031023880501845, 24.020719535421946, 23.998233342740335, 23.974358554357067, 23.906108708409935, 23.843696084913333, 23.917757964283833, 23.89209364274143, 23.857799107444364, 23.83518656743001, 23.82068093747139, 23.796907013875, 23.772290271970473, 23.742278065228977, 23.72402205726557, 23.717133906666046, 23.73295650785838, 23.808777118711742, 23.919660876022807, 23.899274486793797, 23.88874339958659, 23.890133846608567, 23.856233612286758, 23.819223596346234, 23.82603775949706, 23.842511537337614, 23.82654971865689, 23.78295467836838, 23.908156086258714, 23.903565664206027, 23.85692730662684, 23.80057263183096, 23.75878671704135, 23.73378238779856, 23.71536142619928, 23.700878188194082, 23.691166065679564, 23.696040099033308, 23.698430651159935, 23.689688621002848, 23.68994302795355, 23.746413930984065, 23.87885172555687, 23.911279294696254, 23.866518168206664, 23.868157982055475, 23.849199156554818, 23.965541183389576, 24.12505758177423, 24.15104048896448, 24.135681737588612, 24.103847425346586, 24.07342201299114, 24.027980097862823, 23.99777975253562, 23.975515975240253, 23.949091913307317, 23.935280036514012, 23.940105310616058, 23.928663681780574, 23.898010736261813, 23.885700214993776, 23.88004538801908, 23.842246883207405, 23.856603798981794, 23.88784933604737, 23.959703312473838, 23.9675425018461, 23.95801038886472, 23.96762668428992, 23.952435845181245, 23.924912282919497, 23.929757855946345, 23.965117834964534, 24.00462764313359, 24.019433790487657, 23.994681855835566, 23.95600968198279, 24.011709233832047, 23.99851820710042, 23.949467781263518, 23.927883550328165, 23.902396600354436, 23.879268142771977, 23.861564707132786, 23.84792587106881, 23.83825689700677, 23.83132856056771, 23.84547929758669, 23.890734752180517, 23.983554450485073, 23.989991661204346, 24.05551195879001, 24.100356307277654, 24.10215028221302, 24.085254183524555, 24.080431531893264, 24.09245437814671, 24.05544358431678, 24.017362058089674, 23.973784110103182, 23.928415847722874, 23.948816182518808, 24.054905140822466, 23.967549107119765, 23.87969231653443, 23.831770138025362, 23.804734383962103, 23.78422145124991, 23.788927483828513, 23.77925579271466, 23.76977160225285, 23.81347131037097, 23.904722141324225, 24.098323626648874, 24.17078989448962, 24.208118034784565, 24.24049073820056, 24.307208755306704, 24.345209601556732, 24.34362927461804, 24.307567610671658, 24.27046874109978, 24.23140539945922, 24.168239023203586, 24.065314319527374, 24.005556904321832, 24.008556170593835, 23.958589102890674, 23.958190980036786, 24.096365757606435, 24.24533311776776, 24.33948558264259, 24.39413381172577, 24.429823422746825, 24.454491561835116, 24.492494851276316, 24.55621548959976, 24.6075553778536, 24.60201296661096, 24.584427085663382, 24.556314005751464, 24.520073665590413, 24.49309420340442, 24.49180258965173, 24.49726069050249, 24.472206023789067, 24.419071770681338, 24.370600719493495, 24.32846836305308, 24.217163742672728, 24.146504945087838, 24.085633070150667, 24.01270047759399, 23.948646949534247, 23.917092175860983, 23.888449233983184, 23.872532279458458, 23.858798561966907, 23.866101415371492, 23.90273194797015, 23.98288131464108, 24.10506952702885, 24.134451121889104, 24.175971386669463, 24.228890532106547, 24.289668750455192, 24.355208402771307, 24.432666876396095, 24.4359207694726, 24.404034775386666, 24.350996964636494, 24.246612171301184, 24.140643265115525, 24.024221344204292, 24.03346309910995, 24.036366545823828, 23.975820598309422, 23.916915650535813, 23.89171463480817, 23.846333367413674, 23.823914673629805, 23.80323210053363, 23.78556892132663, 23.79920228704948, 23.888107403676127, 23.961569761320888, 23.978918323697926, 24.06143145021892, 24.15074502637984, 24.270134481701465, 24.398716960231454, 24.44242806475884, 24.445100224793972, 24.412346203752758, 24.37673909768635, 24.354025965796577, 24.347076869101798, 24.365911656552314, 24.402797773713946, 24.433142753778736, 24.389322630389696, 24.20009970781916, 24.095891082793866, 23.97764767521885, 23.895677161631628, 23.864897061384998, 23.849957349944194, 23.85613905087186, 23.926992538152465, 23.93823940765107, 23.90613802551054, 23.94967249449086, 23.96645071317867, 23.94864443870347, 23.922911695231562, 23.92460867051855, 23.941481569247458, 23.918654060079223, 23.899918667681078, 24.020808493358093, 24.013408545073457, 23.972850477646208, 23.941677750953996, 23.912135737932775, 23.89816722845505, 23.874779351163085, 23.86476139970991, 23.851521760730652, 23.82320731176937, 23.802171104028712, 23.778931516322796, 23.787309950587076, 23.87838878504988, 23.977652660082825, 24.00080937567539, 24.07566177908536, 24.111302923763038, 24.101986802596315, 24.069257892472105, 24.060509226155943, 24.083722558573996, 24.088401699727388, 24.03936044196239, 23.968073655694365, 23.866333840773, 23.869875717797253, 23.93378528387883, 23.896961610635557, 23.857390118620327, 23.83230928878812, 23.80866204019992, 23.784249162850532, 23.758839314074738, 23.75081539926728, 23.74695955041996, 23.746328945958016, 23.79138778806931, 23.803356334300375, 23.8866971137256, 23.980599816225453, 24.036886938452696, 24.051022379030204, 24.04136153905397, 24.046732870454434, 24.072220673221135, 24.076418455669824, 24.004329098321595, 23.89356784940396, 23.796272820084756, 23.7795979892887, 23.81259747756712, 23.77302433221794, 23.757800178162285, 23.736709069489184, 23.719781564440137, 23.712126897018038, 23.688484564839822, 23.670857348373048, 23.660003903470862, 23.652564890260944, 23.657078106750237, 23.733966760400023, 23.79087250004889, 23.67753459715701, 23.686175145060744, 23.69749066573003, 23.72112216737155, 23.75465838814628, 23.764516603884104, 23.761010993218814, 23.7367701850351, 23.696158251049578, 23.666744234324238, 23.701278576825136, 23.77106542776309, 23.748720165419417, 23.72709528572479, 23.70248534089649, 23.67292948459249, 23.649686544894706, 23.646988811177938, 23.635860373100154, 23.634500566003812, 23.641571499119134, 23.65021200619832, 23.734226769573734, 23.83427531242694, 23.93184327334818, 23.998298920156525, 24.031381590181024, 24.031709728430656, 24.03022981144301, 24.02579516356398, 24.010525768113933, 23.991453592899944, 23.95925520394617, 23.92954531942659, 23.86559758674382, 23.845883632724554, 23.829577911097346, 23.793870349593888, 23.74687779819784, 23.73433709478385, 23.725545264814816, 23.72768264980154, 23.738055667789613, 23.74056087339419, 23.76695372912155, 23.79620360295853, 23.8275335786436, 23.82047370776007, 23.83142701132279, 23.83767273524433, 23.858300597783142, 23.916440004542796, 23.998955957924313, 24.021763996629414, 23.996050305581164, 24.023595544635526, 24.04067385619402, 24.095319590155437, 24.044437482907288, 24.012826875388296, 23.96107400602907, 23.896901829332503, 23.839055101776268, 23.798423852276404, 23.785555676172454, 23.764611953109846, 23.743708538110713, 23.72661196293735, 23.751544787969305, 23.816579700808262, 23.908262532673906, 23.97081451653914, 23.938182223102604, 23.952490194239434, 24.026464255028717, 24.139896414707298, 24.238728559107187, 24.282760362394225, 24.293353561968804, 24.257704505720056, 24.208105366601117, 24.13274614668315, 24.07020532303149, 23.981289401943794, 23.92216956192243, 23.873414546564607, 23.834530651257342, 23.805711668446147, 23.787761883603196, 23.733756123917786, 23.69737389165692, 23.673952789511674, 23.677970475563544, 23.759569890016994, 23.812932325099013, 23.827018799525046, 23.8901940879506, 23.913515524073052, 23.905458756527903, 23.866518791593062, 23.86484080038232, 23.890053780061578, 23.881352983383604, 23.8325219279544, 23.906570733255776, 23.976597794136904, 23.932035096119872, 23.895535731269835, 23.861036005948353, 23.834756163258522, 23.799258076967714, 23.767931869060344, 23.74351068101994, 23.721346976364874, 23.70933462570505, 23.70586759656233, 23.72525987035412, 23.777561688388328, 23.851403966512212, 23.813854285372596, 23.856271357186646, 23.935331440099706, 23.97228434699004, 23.971936097657984, 23.98432390945183, 24.020327352675135, 24.04331117592271, 24.038624617460368, 23.993807119254413, 23.885568304712297, 23.879239206711627, 23.94050451538718, 23.909538710296932, 23.881422362841978, 23.862806780528796, 23.83108791388319, 23.80244103847757, 23.782301921374824, 23.76595622327932, 23.759486552394034, 23.76233700039784, 23.782721953053667, 23.839552077339203, 23.79848419129002, 23.853628115841463, 23.865289433432924, 23.864811521596977, 23.896222969958757, 23.915010622945918, 23.92110570115284, 23.9019250092162, 23.87892834922899, 23.85390566086029, 23.96483812666682, 23.905373140191468, 23.8170654451514, 23.754245213488048, 23.698002910995, 23.656911610755987, 23.63197298226291, 23.621995027255945, 23.623639547826542, 23.619961706661343, 23.654100745560765, 23.691005325708193, 23.712727373497927, 23.78100273953689, 23.84491313756097, 23.91605382022649, 23.962117337901947, 23.987719740737862, 23.994653025249722, 24.036809509492866, 24.031357221812485, 24.014312302721148, 23.97262210784442, 23.986114336147168, 23.958062407238145, 23.88834272638049, 23.80012013981555, 23.715885024058462, 23.679957447607695, 23.68254692169313, 23.705927846760858, 23.71471364607247, 23.729772247127865, 23.75385393089024, 23.777142269399736, 23.817039229962162, 23.873535440119856, 23.970667971426554, 24.05348930522857, 24.08256564301732, 24.10989651499428, 24.123920912086135, 24.132450552363764, 24.106021568738356, 24.042366443773062, 23.985479910812114, 23.968967675363412, 23.951907951775855, 24.047170076387275, 24.050510807480673, 24.04477370900052, 24.02597024363023, 24.000683909345454, 23.986274409541135, 23.952043421174267, 23.91273316262563, 23.881982016983596, 23.85296258227538, 23.816026071714465, 23.79227904681062, 23.817363046632124, 23.93393606979386, 23.959691045465913, 23.96037624931849, 24.005273410335786, 24.02167219601967, 24.000443039119457, 24.00116072334639, 24.02295790809428, 24.05398497367791, 24.065578601827127, 24.036711704528425, 23.98771316934192, 24.014297350056847, 24.014910183967377, 23.966603740726487, 23.894953864503112, 23.825034965732442, 23.785422043787502, 23.76325820078127, 23.75636309133978, 23.741686738581347, 23.72806175649178, 23.734583921068168, 23.76121910917169, 23.80740894650313, 23.86850043081469, 23.952781573549945, 23.98094648647519, 23.908111814243256, 23.86431699215207, 23.848006981914654, 23.86358500255477, 23.89213668473744, 23.901915366354075, 23.851038097443872, 23.92903968733582, 23.96050429070532, 23.921808925146376, 23.88350154056488, 23.841871934044775, 23.809556637609372, 23.774147358113385, 23.751051746011075, 23.736884811631963, 23.72202138513919, 23.707596444417135, 23.701243431018472, 23.73284570947259, 23.819008031239395, 23.78092027862417, 23.844520060852503, 23.9198442576777, 23.927833123533507, 23.885855734428105, 23.875126930561475, 23.90003237650527, 23.92281947658836, 23.906290408775888, 23.842396731091508, 23.779499616728092, 23.89138815734466, 23.868955076714258, 23.837628442281495, 23.81281754724021, 23.806532622403626, 23.811469894667983, 23.806354487098986, 23.795474302574046, 23.775832796964547, 23.743442502009756, 23.74232182743253, 23.764566892523348, 23.816203363628915, 23.76054200185605, 23.837184358878215, 23.92726423395653, 23.97549569791043, 23.989861321061102, 23.978659938629757, 23.96523051746964, 23.96691952975883, 23.95436882123592, 23.904532578410283, 23.816056362622117, 23.902375078271717, 23.9027165313401, 23.870294738679476, 23.838448380616693, 23.81248492970769, 23.79265186670992, 23.777316037165814, 23.765394314466334, 23.75896832388101, 23.758064158220108, 23.754812696363405, 23.823438469978132, 23.93067237755631, 23.956750928043828, 24.041847948923365, 24.080075044735036, 24.07148855877884, 24.032038108591365, 24.016897414639043, 24.030969003277804, 24.066047128219058, 24.081294123733624, 24.033940674952458, 23.93012140295929, 23.91591322779694, 23.963886666273908, 23.928475945339887, 23.894071752814707, 23.868605209244564, 23.847191287301843, 23.824255973814086, 23.811109870282426, 23.796571867867016, 23.777034509984233, 23.762472158860394, 23.839018864728928, 23.98512013449006, 24.00806674105799, 24.102750230388352, 24.136542701473132, 24.113164757281186, 24.069335356787818, 24.066354104137805, 24.107683323932594, 24.128940165526057, 24.115113830613538, 24.057895465628253, 23.939995782656283, 23.78236179390962, 23.68533019529293, 23.774500405545847, 23.820683087616477, 23.798018969530247, 23.78210736920956, 23.752079374805742, 23.731168714660054, 23.724311193915586, 23.724972812284758, 23.721887463503425, 23.72326688880986, 23.78707503391675, 23.870756369471007, 23.93128309195553, 23.84992780996254, 23.80807635806958, 23.836798627612264, 23.862830730292718, 23.88227392167838, 23.87923981987292, 23.847703799626817, 23.787917240091133, 23.903262861611186, 23.930843000508006, 23.879194941333953, 23.844198887371068, 23.81615282708223, 23.787135462728017, 23.751596336691833, 23.713061869162555, 23.67760970944664, 23.64920916564977, 23.630619732486707, 23.636179153098045, 23.692597968300234, 23.787875236111972, 23.9850345888462, 24.10292844288928, 24.179902846152757, 24.193451662333132, 24.115835720183323, 24.039198684342313, 24.043747873322427, 24.053903332415103, 24.037161164690612, 23.95300770697861, 23.836828710944314, 23.82031168375913, 23.85876428918351, 23.822031165414856, 23.804068924812995, 23.791699618714997, 23.774169169072497, 23.75146080332759, 23.74333905844111, 23.735235640501244, 23.725537765791604, 23.729455207269464, 23.790225981010206, 23.788703688412824, 23.901872577643246, 23.99392051560925, 24.037239539593713, 24.022906148820137, 23.980994503027304, 23.968193538935125, 23.987601793253816, 24.011598028623595, 24.019911012229837, 23.98704998544608, 23.884463265619036, 23.769325024917094, 23.666848278498108, 23.63914139245391, 23.72491967973255, 23.87184767702992, 23.870798639805127, 23.786362257785555, 23.598284075329065, 23.54526524448076, 23.533032821452377, 23.51328191694888, 23.54219912035705, 23.81220868658266, 23.959716731658176, 24.0269205700064, 23.964100998494683, 23.947098463359804, 23.91504423014152, 23.887530580583114, 23.897228881302443, 23.875182248207377, 23.8170189194491, 23.767691996309992, 23.865760112225598, 23.833751923594857, 23.814575088714307, 23.790827566624767, 23.777893068593063, 23.78566921339883, 23.774532899237723, 23.77890128229933, 23.7784491624188, 23.76866524994755, 23.771153860176835, 23.775670292942902, 23.84142113309302, 23.946774091561007, 23.95102712766129, 24.03274413206161, 24.074700919326926, 24.074344553175138, 24.038341400102414, 24.006394693190924, 23.952770122323855, 23.912816166259784, 23.95037244592923, 24.0814235913936, 24.055285937018056, 23.98597732745814, 23.896758045506004, 23.817544636288716, 23.752408460416802, 23.7310479743783, 23.72369950938453, 23.712847519189012, 23.70311153717543, 23.67723212699832, 23.64480988478189, 23.646609739604866, 23.650799897376118, 23.7158334152612, 23.824804029649954, 23.93498797828119, 23.90445555232489, 24.034008225522857, 24.08045851419809, 24.033090332813348, 23.99308687829272, 23.97464434457893, 23.957440948965324, 23.934030693844317, 23.958387081950445, 24.013930869416054, 23.98162932029271, 23.927500579829253, 23.871849551384, 23.82660949348813, 23.797793311300342, 23.776766762290496, 23.758939336044985, 23.74434977123327, 23.72754123481363, 23.716041165491834, 23.774488895400026, 23.86810624821391, 23.914058170747822, 24.02591816270176, 24.083989457748704, 24.075110585579562, 24.043065662259455, 24.04387420938626, 24.067398465998718, 24.077236714911056, 24.067265954909377, 24.016416241450514, 23.890168273610303, 23.839743769939588, 23.923189978739668, 23.887079775894037, 23.851572175988355, 23.8132765649209, 23.781764242224643, 23.75134160874597, 23.726882797339076, 23.702318084660575, 23.680039119165944, 23.67314147644591, 23.741904690276943, 23.820513548015793, 23.935065102591, 24.046546036353806, 24.09868243269732, 24.087892540998354, 24.049607224731243, 24.05784161861348, 24.091494847748862, 24.113753519665224, 24.106653574819216, 24.05199677944459, 23.930184543704186, 23.910423755860062, 23.982994621028297, 23.94022601983164, 23.890678052747063, 23.857149275947958, 23.835588739445736, 23.816707021422513, 23.791180729670987, 23.76475327318761, 23.740980887646433, 23.751054739210755, 23.81231770445082, 23.860284948504724, 23.899052027594134, 24.006786126061968, 24.094218098146687, 24.118944253256462, 24.10211587878216, 24.116488551619142, 24.1452980381862, 24.14520562906144, 24.090898160713962, 23.987635425313727, 23.873069773961635, 23.734266813416536, 23.76015592999563, 23.84265705340656, 23.80772022990091, 23.761756550811985, 23.74167775637153, 23.724984790398477, 23.70834963351774, 23.698068682331847, 23.69744164011102, 23.680755722906525, 23.694303692507265, 23.743426761252007, 23.78434813317139, 23.832631462526795, 23.843758647019555, 23.746645431364502, 23.77523630883037, 23.816895455233293, 23.859732118958494, 23.89056228355764, 23.90217872448999, 23.868134636073545, 23.795944504857246, 23.90328537583312, 23.884618847166355, 23.858172248523754, 23.85069446959523, 23.833218730398915, 23.80414533453254, 23.77661651126087, 23.76373027409048, 23.758416886642866, 23.755864799039525, 23.75958113099047, 23.796120476243804, 23.876392932975005, 23.906437286283467, 23.831555688120773, 23.8773259783691, 23.945414534040136, 23.9834753201264, 24.010446429769605, 24.04971605332307, 23.968414525133227, 23.807074744442705, 23.767998731156794, 23.856980732846107, 23.8218294656234, 23.78208208750915, 23.740208477485456, 23.72640235543831, 23.705261020829983, 23.682172571441168, 23.65406839081219, 23.648161153951204, 23.64358664515349, 23.627317768629876, 23.628683337637387, 23.638296208474475, 23.70348376761906, 23.76918951820298, 23.831766501372694, 23.889329163536644, 23.93891871651186, 23.980501484582803, 24.012552185631346, 24.040412646040693, 24.050083387938624, 24.046252030875213, 24.025888535833033, 23.993571017617498, 23.933182565640788, 23.87579301862253, 23.822530243444863, 23.79384252543062, 23.777968303361245, 23.75885102603969, 23.72284137656156, 23.69239612106048, 23.668937591045093, 23.64521474078697, 23.628302008445996, 23.702631429350884, 23.83547138532688, 23.916186531034445, 24.034299568988036, 24.09092367600071, 24.09104485232056, 24.060580523886287, 24.042161072694885, 24.052612267579153, 24.082664605630157, 24.09224025292146, 24.027839779732137, 23.920983535757298, 23.90644176092697, 23.951235973695635, 23.90740922014029, 23.86296591047375, 23.828803901538937, 23.806502454474707, 23.78068914366121, 23.760842084359012, 23.750050102361158, 23.731244789479764, 23.724135854751932, 23.790961870045503, 23.907294907054247, 24.006115415410815, 24.1139686766148, 24.16702020876212, 24.1607162547768, 24.104985365609025, 24.069984404213628, 24.087960325416844, 24.110918182491798, 24.092455079807184, 24.020839285223644, 23.89940469505763, 23.80228299707922, 23.90094530581116, 23.883115826592633, 23.85485397147073, 23.835017587919427, 23.800889173517717, 23.764830495923366, 23.754213840666793, 23.742035516477344, 23.72720000321174, 23.720203446831366, 23.736684806505423, 23.75267392920102, 23.73929760883036, 23.81216154987153, 23.873604418104943, 23.906011484127593, 23.909880166962978, 23.90319192933079, 23.889872760130114, 23.85413231283989, 23.80582376629684, 23.75950207184674, 23.70906021484794, 23.749386917364664, 23.814348872642565, 23.792169315778946, 23.761220553741285, 23.73819783044321, 23.717250381460843, 23.69045999320242, 23.66447182143452, 23.651231934142924, 23.645380389335617, 23.65070609034876, 23.668395799613133, 23.687904386068197, 23.70050411492451, 23.76753589547005, 23.796010679269767, 23.79682053155223, 23.78521779293158, 23.765446563367195, 23.75369205801285, 23.763201089619155, 23.916340490456975, 23.92526690133933, 23.895852620843083, 23.827283288519144, 23.75677301025567, 23.710500145015576, 23.681265353561315, 23.669360136935314, 23.6641413910228, 23.656229389847216, 23.635514666852497, 23.62640009062889, 23.639609929332348, 23.661942047101366, 23.669613709431562, 23.674395647134435, 23.73378241752698, 23.78729105937361, 23.66642245026642, 23.687610274010424, 23.85513780744635, 23.74054194259629, 23.611518169034678, 23.537127312827206, 23.52788506073104, 23.511670502085433, 23.591148614559074, 23.672848408775085, 23.690760270612817, 23.693578663264088, 23.689085773746143, 23.679906915156554, 23.668301080330878, 23.667467935095146, 23.683898313867005, 23.691978437309178, 23.690649850765045, 23.698605237203548, 23.760201086748356, 23.882865836530318, 23.907317813142242, 23.902810863241353, 23.937073736926465, 23.931111878869697, 23.88880882092376, 23.87173515841667, 23.8807460997642, 23.894810831738994, 23.912657796825982, 23.969528760686696, 24.04622655722677, 24.015412591134773, 23.969722686229108, 23.95496587762536, 23.93411140752737, 23.925731701661068, 23.925851917886916, 23.89923233109845, 23.852223237000505, 23.818364013267672, 23.82556648921449, 23.84321376710085, 23.871379164026564, 23.959871497686652, 24.054393926815738, 24.069230301574223, 24.07152356553497, 24.049587698336136, 24.03440917106259, 24.03986417205715, 24.06864960183704, 24.095360736138442, 24.10049271776317, 24.08387014451181, 24.050806560967484, 24.056680335551164, 24.01330271287917, 23.96645083757649, 23.927677948112105, 23.895780601296064, 23.85073193069313, 23.811851074067377, 23.78779472539504, 23.765738448990703, 23.744968724694747, 23.74174699092944, 23.800353097194975, 23.91548661679867, 23.96826866612894, 24.084717722743843, 24.136890110898772, 24.134442804854903, 24.090654345275862, 24.06548845522754, 24.078609181599067, 24.099311629825312, 24.100579023003693, 24.027484452098978, 23.900842530469514, 23.80910803501452, 23.911183783920567, 23.882911756705877, 23.840613884737106, 23.81203427303342, 23.778598996659326, 23.757712171461733, 23.743320964430826, 23.736085056271957, 23.730464320526497, 23.726300595464185, 23.789201497325106, 23.89600739589559, 23.904709101723963, 23.99672777979939, 24.087233839555463, 24.125234244337975, 24.119959258997948, 24.126616258247395, 24.153089165324165, 24.13095321454278, 24.07054737977529, 24.000133894541026, 23.899749620064625, 23.831816937464215, 23.933967406552185, 23.909445303086702, 23.86010102146379, 23.813556476764628, 23.79810783492388, 23.771922901255436, 23.73879932565858, 23.716561518586133, 23.708383776244002, 23.682854928803398, 23.6589890750989, 23.702217246270127, 23.775692637620235, 23.844155697913607, 23.90542136961287, 23.820054286921174, 23.704600250427415, 23.797149047097452, 23.89486445226478, 23.78319443865782, 23.754989655462015, 23.74461695374477, 23.718459732639506, 23.803227926558545, 23.75933292468513, 23.710831682454725, 23.68326615683848, 23.66783465728351, 23.686460746055516, 23.705933564041633, 23.69694694891476, 23.689018783038666, 23.727142866319614, 23.80941332559398, 23.922770602730694, 24.078689839888128, 24.15752733496682, 24.182407035273073, 24.20970723456162, 24.240761703843315, 24.27695214812435, 24.306743659824274, 24.31408453821133, 24.29359337789171, 24.20856965672199, 24.12058913237213, 24.09870657122143, 24.097871890628383, 24.0624367891665, 24.03792925515023, 24.026126569515796, 24.019567433824733, 24.026404965842193, 24.022880353027315, 24.026489698356443, 24.03154448649761, 24.019985965758423, 23.997586086544988, 23.99088929201086, 24.01084455647403, 24.030322265362106, 24.064231484634025, 24.115451652120143, 24.15561871242869, 24.165762026008636, 24.152985594740926, 24.12125645989778, 24.101146972770795, 24.076707162509887, 24.061878541776412, 24.031983638628205, 24.002289692877625, 23.972334139704262, 23.941686809141867, 23.88844029851246, 23.8222854488898, 23.777227428532143, 23.76506850340827, 23.74788135809931, 23.733557223487185, 23.709398048172957, 23.69889223387526, 23.72265478326253, 23.805922885450247, 23.894674328684825, 23.83106009989822, 23.831635675843646, 23.848042740181967, 23.86601075623915, 23.878494095142372, 23.893220344490103, 23.901205075989324, 23.867091724954985, 23.787395158641733, 23.809747631216805, 23.87703654310712, 23.844869536665076, 23.814860135890708, 23.777934621666915, 23.748438474064354, 23.7276360416431, 23.714903732975745, 23.687648450474118, 23.685866111632738, 23.669309895061787, 23.656263283790633, 23.719211278189082, 23.78633816251305, 23.895794951599758, 23.99863662344266, 24.04489822176758, 24.03251434967127, 23.97946368847038, 23.96652526523123, 23.984195584607434, 23.990226164697216, 23.95568030081921, 23.87351945327583, 23.97498689027384, 23.97775896554427, 23.913233174758904, 23.85855416429392, 23.81038142966032, 23.790261936605955, 23.777187397460263, 23.78130195421082, 23.76921766459596, 23.763076941722574, 23.76653499001985, 23.755900873119575, 23.761217382055204, 23.8511304998911, 23.97175984089552, 24.066177321533456, 24.111723140202855, 24.138694563989933, 24.1688772731688, 24.159252143808924, 24.136459910303696, 24.119292093629536, 24.095248809770485, 24.107367803632897, 24.14309132944378, 24.087248753139548, 24.050167593255622, 24.01334599795018, 23.98493176010165, 23.95793801043327, 23.922108180726372, 23.890540238495806, 23.86616838340643, 23.849398795434595, 23.85124342436231, 23.864673382369613, 23.908524839668832, 23.98398328660691, 23.999803937771144, 24.0068101944229, 24.075620682812428, 24.09390993435696, 24.060798871918752, 24.050433470357863, 24.061523627316628, 24.042225975572403, 23.986330699058595, 23.89851457792071, 23.795622538511115, 23.802090100862397, 23.867092710992726, 23.83414681399527, 23.811218989572705, 23.783325915799406, 23.739339238980815, 23.713930976044736, 23.710135144680702, 23.696746220932138, 23.675874075240753, 23.66145004532334, 23.70393618150132, 23.78717134781331, 23.908104431838265, 24.075534103182832, 24.17645924911102, 24.20567502692194, 24.18057364746095, 24.161180436042297, 24.17338823691725, 24.168806491085817, 24.108665107493607, 24.01238353320383, 23.91335977746871, 23.844728220068475, 23.93849842457081, 23.89894122519321, 23.848059605921218, 23.807304458459342, 23.779132831719036, 23.75046542790974, 23.729539242103318, 23.710819676865714, 23.69272266890019, 23.686926759099432, 23.74404874079166, 23.85746450540648, 23.957313688678408, 24.087811436967243, 24.167425772667126, 24.172299006365492, 24.13057642175782, 24.113502518015125, 24.125046700536803, 24.124001367586956, 24.07411986070387, 23.98488762238704, 23.882595317874248, 23.79969560734067, 23.899839312457004, 23.88393955768794, 23.85205578887118, 23.80870409990675, 23.77599341627427, 23.773003456881497, 23.733746616334884, 23.720079646337542, 23.706729165154794, 23.71762867652929, 23.737610464830457, 23.83002794172222, 23.780956526170005, 23.786497305435194, 23.849167644693548, 23.872311208793974, 23.83187798047806, 23.778088086924644, 23.757365382164277, 23.77013080838024, 23.8071877323304, 23.75057386765037, 23.821209768688657, 23.863284139517035, 23.821828717537713, 23.791292671545865, 23.775041016993985, 23.74934040869488, 23.7339251390874, 23.7154837462225, 23.692775636683706, 23.67635900850222, 23.666612520667844, 23.6533426150215, 23.712391325611048, 23.784827121202067, 23.84643014779567, 23.968184642860162, 24.05087301779395, 24.06825293451635, 24.03103565360887, 24.009268413121703, 24.01215863572844, 24.020540110951625, 24.001577411172786, 23.920694431638278, 23.78904524232846, 23.766144570519504, 23.871917747974333, 23.85591159324406, 23.838000491643395, 23.816446858886675, 23.790982028339972, 23.774781039408634, 23.7428785267379, 23.712066296435562, 23.69343422232566, 23.681744566717796, 23.73356742858193, 23.809251382225472, 23.971442835848723, 24.11560545359122, 24.19516413320292, 24.210343544838086, 24.18018680140945, 24.15236356465606, 24.147864736587582, 24.15284415575052, 24.13625371020686, 24.058604815277537, 23.929354756959693, 23.772842521316814, 23.67321771439209, 23.731776952791346, 23.82563065150087, 23.799074047690272, 23.779079403063943, 23.76772686787184, 23.76010154230559, 23.747032842545917, 23.732830436336076, 23.71248207594751, 23.765774713675203, 23.83999027304907, 23.96254610518464, 24.114237350804235, 24.208697517981022, 24.22080963880246, 24.184563973330416, 24.16925896656461, 24.16023085221882, 24.113832118165174, 23.999359697592794, 23.88349569008992, 23.813885756190853, 23.831688775553967, 23.890205408799172, 23.863591044525435, 23.824689406931256, 23.77670452787015, 23.75469191599017, 23.733154972530816, 23.71234151425936, 23.69250524366244, 23.677833652359613, 23.682131001405565, 23.69532691498677, 23.677144400629356, 23.6418807440939, 23.711502451269002, 23.800555847400478, 23.870305261111202, 23.89116342578524, 23.87568357105306, 23.81308092437929, 23.7518058860764, 23.704048849219458, 23.777640268528035, 23.86258214478126, 23.829841918294875, 23.77490841094006, 23.766499480127106, 23.75472188268525, 23.768397088172815, 23.780168663441902, 23.78320082072092, 23.788516942351134, 23.817343320753935, 23.83708067801618, 23.851541071163386, 23.905431408346896, 23.97276529860523, 23.956764344975586, 23.97752627948418, 24.06535022833781, 24.074057861873417, 24.017080020154967, 23.99076518545532, 24.01886257782594, 24.107580014036447, 24.075697876618765, 24.029209812747993, 24.015116077471735, 23.931444644927286, 23.894144864075198, 23.900506923986537, 23.925718016215082, 23.98847362755112, 24.044576598192435, 24.08692957473428, 24.096154481870414, 24.05773037773137, 24.031573121558296, 24.032224885972713, 24.053328226652997, 24.075068884261835, 24.04508450868904, 24.086935167187267, 24.075003143295337, 24.06621245544191, 24.088173178015662, 24.132818338475825, 24.12828209610821, 24.085846794275714, 24.039714811754113, 23.99108489281447, 24.051410906690133, 24.046550451255737, 24.034020095758816, 24.017484999955016, 24.01417817779218, 24.0352831686567, 24.040184925988683, 24.04111473981067, 24.039167778068474, 23.991692445835753, 23.948109148245553, 23.895170895736644, 24.074217920106353, 24.174536053463044, 24.19132093874143, 24.198323320494726, 24.183188639322186, 24.16581488071768, 24.149974612948075, 24.153794469016457, 24.2184185038363, 24.32638038733603, 24.350056157824906, 24.27821095538911, 24.190657069549513, 24.09685950650497, 24.02276274840415, 23.951659024028487, 23.885482149580167, 23.855006981074144, 23.82733054443872, 23.797909660313504, 23.779363469635964, 23.762727998871714, 23.748841316798305, 23.756598923451673, 23.79967086540017, 23.90172684187765, 23.932609469482184, 23.983898518566303, 24.036627682850867, 24.03558885591957, 23.98980990681677, 23.953673560469912, 23.954824048391487, 23.96488353227593, 23.943259456428923, 23.85748008617159, 23.82442744132598, 23.916623137543052, 23.879143764026633, 23.846690977480392, 23.81475077389334, 23.78680850478757, 23.770774596316183, 23.755083025004037, 23.73771462379082, 23.721592005590423, 23.709206026313378, 23.69998862752399, 23.718430232837566, 23.798607893406132, 23.797140932715866, 23.884030094266222, 23.923879163031117, 23.928775562620498, 23.93379445466009, 23.935931345592678, 23.933509470458205, 23.91374519976519, 23.</t>
+  </si>
+  <si>
+    <t>[22.438176855410102, 22.542208175870115, 22.676116666613122, 22.799165375933153, 22.89215487822968, 22.961396459731628, 23.035258436237424, 23.205818901518892, 23.184485029793866, 23.14835003200292, 23.13863936823817, 23.180609514175014, 23.268451296196346, 23.374794326418694, 23.47122831261129, 23.559588631348873, 23.633865855109253, 23.684780596273082, 23.73236026095113, 23.70939730160465, 23.44587153956995, 23.109740665671712, 22.808454805568655, 22.567794640391423, 22.351840041791174, 22.134523070874973, 21.944243482595965, 21.924886550253362, 21.937058472415714, 21.947703222377783, 21.958238057688174, 21.99806497949945, 22.01594312456525, 22.134368114920836, 22.351818686475898, 22.55237864059916, 22.84207056458365, 23.25035632321412, 23.72293222326053, 24.13507965918478, 24.21491283238373, 24.18581628117086, 24.02495121997988, 23.52951747967359, 23.034432473829764, 22.639638019239936, 22.30523895974983, 22.06036037559066, 22.02037637220027, 22.024459533079, 22.02865811658302, 22.030688179494533, 22.033284363484054, 22.037486033058958, 22.043409708290877, 22.075208263894257, 22.08184935150968, 22.098210453524697, 22.116960435492487, 22.27221824007202, 22.48428101970731, 22.76037948399995, 23.06498665561379, 23.340514356907317, 23.436353424984464, 23.353562036127034, 23.25850074700511, 22.85940229862631, 22.34573491113599, 22.00890645351789, 21.966386487500653, 21.972222190530204, 21.978239785669675, 21.984047005202942, 21.983659886120947, 21.978702173169086, 21.98023329044501, 21.990333158200485, 22.007154964333864, 22.056032960152503, 22.077909094389526, 22.10617347458641, 22.12844615131212, 22.277844256981112, 22.63608126974067, 23.13765733021879, 23.693958326790234, 24.12431413446893, 24.143033036150346, 24.10712149383828, 24.046852532485758, 23.61619335624268, 23.14107571758034, 22.76367934884389, 22.455759271374873, 22.22307358792835, 22.024635059450873, 21.89982095642085, 21.897749840474518, 21.899180381309375, 21.898079701891493, 21.89749921271981, 21.89925956572539, 21.902869107776514, 21.90968112833137, 21.9271675300798, 21.935204201997806, 21.94763701065401, 22.21259176244752, 22.706042852508734, 23.253963294347756, 23.7429155094143, 23.799920580040624, 23.730659260056314, 23.630111453128347, 23.429233718770657, 23.14954451298159, 22.857143311098724, 22.59121193629696, 22.36982524103154, 22.161930114436846, 21.912814476550995, 21.73483291573706, 21.753079807676638, 21.756675441912265, 21.75542612882467, 21.756839234803255, 21.76201378888994, 21.770896424323038, 21.787330855794664, 21.790951423794954, 21.83311418413756, 22.140602181383176, 22.634739907260663, 23.21866561096625, 23.73463657187493, 23.793506661198744, 23.772519555108158, 23.67349553780447, 23.420708116336424, 23.102382775863173, 22.77092723935279, 22.47130565753154, 22.21087196212734, 21.96221087759872, 21.806541282621893, 21.8147745969292, 21.830965904660758, 21.851952271978295, 21.868652851385246, 21.87699048763696, 21.909644673911625, 21.934298976875397, 22.028981217672225, 22.293544607903883, 22.58592822426951, 23.00647413798239, 23.527342132827716, 23.99808812495858, 24.113346341077165, 24.109683344748664, 24.08822267697742, 24.016177192408524, 23.524755519423465, 22.93465322322447, 22.521636497336413, 22.271786186898918, 22.056715902669158, 22.026510584908277, 22.029218459334118, 22.027972995379127, 22.024817053138033, 22.02027030203107, 22.018813523566223, 22.02045746174554, 22.05732648649853, 22.07306012121238, 22.102886821836226, 22.117897220472866, 22.182293412497035, 22.450764371451566, 22.878393480378744, 23.388779065576728, 23.90205116111079, 24.188648694347723, 24.155374435445605, 23.94218232345662, 23.396965529996937, 22.814504134627786, 22.31826994506378, 22.064138918413448, 22.079293284066733, 22.09975424928761, 22.116247195558103, 22.12301866326645, 22.131592273020065, 22.136929127025947, 22.137795321558915, 22.130878196188235, 22.147542122329725, 22.147656606744988, 22.16735379679675, 22.17542977314578, 22.18520667694668, 22.45881802292676, 23.004125778550144, 23.626869702292467, 24.106924123461813, 24.09598331487953, 24.028895552144927, 23.970837125731066, 23.566720930174057, 22.970366917596476, 22.71700527058756, 22.452952245170223, 22.058901216130142, 21.949949986131518, 21.952051061628932, 21.960889751927468, 21.957398776526585, 21.939331265239932, 21.927953333847153, 21.92457114669322, 21.95843582978829, 21.969912758026865, 21.994631102866506, 22.01561791464144, 22.17405048920998, 22.605130802097644, 23.15735112549905, 23.71240372034734, 24.064891511659876, 24.052980049719604, 24.006725964246513, 23.952506349726196, 23.750222104783948, 23.36642851318082, 22.996639363148375, 22.646351698512557, 22.304947761779562, 21.995364433545515, 21.950583602167004, 21.98145817868422, 22.001637825474017, 22.013253085991963, 22.019409716751046, 22.02340374811904, 22.052459424365924, 22.057090092150148, 22.07475216164802, 22.079415025525467, 22.199736298191947, 22.615985566482664, 23.177508682064754, 23.771246444945046, 24.04590588757874, 24.009298299497914, 23.95673771840158, 23.904060202233055, 23.55165037499084, 22.922959186134634, 22.522065295545648, 22.213269639455813, 21.99487403459654, 21.944033870121302, 21.94223841365039, 21.942871414722465, 21.947754391330964, 21.956072389825554, 21.969795200585207, 21.98601058816662, 22.004127564966975, 22.022709083900974, 22.0513718661052, 22.06706306688397, 22.066039243255215, 22.204702565325775, 22.6930424435081, 23.242269196173982, 23.789020463202338, 23.943020323776626, 23.87428954068206, 23.75645362013901, 23.48200033195202, 23.0401654168449, 22.72351690534012, 22.6115895343698, 22.449383651338405, 22.2887107888093, 22.1523241058625, 22.043652523793693, 21.950138009253582, 21.928511361237174, 21.99068061304295, 22.050189120365005, 22.10152921637994, 22.14753428128618, 22.19440528538988, 22.218821578035477, 22.23836169151565, 22.26612798713153, 22.410302613880535, 22.790815529116244, 23.219892196209404, 23.50691615071459, 23.447013891027364, 23.092724160353317, 22.720520107152144, 22.35725529519183, 22.130261603391414, 22.111293939134626, 22.112696058765565, 22.12509429230518, 22.14251305879434, 22.15738812260354, 22.17140672687172, 22.180989173687582, 22.186992698392903, 22.18965977749676, 22.216190051396705, 22.220925474627638, 22.242330143265548, 22.2460269667741, 22.24431270912275, 22.38701380603024, 22.83096722851454, 23.36989305109637, 23.92403644137042, 24.21577596231442, 24.174427842493643, 24.050197914181947, 23.570702281272673, 23.04084028207247, 22.607572493166405, 22.242852263174033, 22.05196830317267, 22.062041837582623, 22.077367928135246, 22.09142153714544, 22.105013475470344, 22.11657367367845, 22.126861273744968, 22.13298628877875, 22.161815321642248, 22.171460485549925, 22.19447072269446, 22.2035608970223, 22.233579733548396, 22.55060384357027, 23.095880889307093, 23.719885835264762, 24.179146944928775, 24.169087665353143, 24.11700923361678, 24.062855286369984, 23.877372178895556, 23.366398315840186, 22.805155336763875, 22.293765907784515, 22.034884920554447, 22.058017044358305, 22.081434147151924, 22.093160662718414, 22.094069574888636, 22.09642827340234, 22.100086625084703, 22.102107695730357, 22.12638817193596, 22.138267631069525, 22.162115589373396, 22.168092626258456, 22.18535838891559, 22.518072439202427, 23.15556912010871, 23.8324269728716, 24.08542140630705, 24.003293222131774, 23.910649317526083, 23.821848557011247, 23.701326395387984, 23.461066387374647, 23.215503928527095, 23.00484423137615, 22.8233300975909, 22.660544655949042, 22.520909127241183, 22.412299945851384, 22.32104367373937, 22.22352090632344, 22.146472071052198, 22.131786735157334, 22.360808916296644, 22.57523536660383, 22.79438253780864, 23.08254088242816, 23.41916384456088, 23.580880495809456, 23.559330550019723, 23.5264106858679, 23.478820934396357, 23.448337233880206, 23.40788828253875, 23.37362955977693, 23.240792721463816, 23.06270211290783, 22.942787012277467, 22.90019375532826, 22.890521138234377, 22.858613045039743, 22.832407696440498, 22.836118154301207, 22.808229725486104, 22.75847284960045, 22.730519673704986, 22.742770203442873, 22.983635480921198, 23.14268065887603, 23.16885792738151, 23.18644695800786, 23.22453346249182, 23.28334184006833, 23.389254821652603, 23.463198346599853, 23.525703406127217, 23.591437810003757, 23.618947657048277, 23.623965024431943, 23.43568547068109, 23.034197683789102, 22.683449449640687, 22.415155635038627, 22.176897817572257, 21.96220863191935, 21.840229116940435, 21.86253539883324, 21.8918416492958, 21.918434281549974, 21.91299147141979, 21.909008946852936, 21.908920395626055, 21.91433815739158, 21.92831303457989, 21.925408594837922, 21.920098863703988, 21.928460399983383, 22.008678169442163, 22.28744494592891, 22.600521139080715, 22.884899188732675, 22.936148096989267, 22.716123151092066, 22.490330403494827, 22.298763084819658, 22.120490725903537, 21.97332424164456, 21.873063271166, 21.79548009694319, 21.71621320127974, 21.621392438182486, 21.591768496913517, 21.592957974205788, 21.592930924611437, 21.59287435341149, 21.591376364450667, 21.577880450777343, 21.57351890478134, 21.580087088123832, 21.585419128204396, 21.628044992027302, 21.853360026231403, 22.297495500784695, 22.72618487409955, 23.072429499646216, 23.146086069313558, 22.90681194111099, 22.644075795756745, 22.40057551558213, 22.165374654830856, 21.894264112821173, 21.623131035978147, 21.601018081049165, 21.65567321073749, 21.69571254984149, 21.728603446814024, 21.76116049330102, 21.792613712382728, 21.81360622106776, 21.855660200491382, 21.874782879449757, 21.912009581588432, 21.929869499825255, 22.05136583874236, 22.410293277694223, 22.920428914154417, 23.48449368659155, 23.951791149982085, 24.003440448340317, 23.985141464040243, 23.93144847672542, 23.585870072609993, 23.097854933761738, 22.67792171915779, 22.313258550907666, 22.00923362054915, 21.78408917089222, 21.775854280058244, 21.795884816570567, 21.80997989038053, 21.81971805353048, 21.82510103128421, 21.84165847477173, 21.884231173613973, 21.90194261342062, 21.93853386098577, 21.978448894963336, 22.152052070092555, 22.462736037811215, 22.945287971670968, 23.55939090228407, 23.963297953437287, 23.962387965137513, 23.922245811378463, 23.86759545491513, 23.613313893456347, 23.199646861519394, 22.8301783832999, 22.51415750623626, 22.2567476414546, 22.026936030512577, 21.797352396000793, 21.782228740180116, 21.81114828545535, 21.821001809624963, 21.832043089873068, 21.84852031406743, 21.896923251497498, 21.917084732759932, 21.94507641355592, 22.00502274951612, 22.256780651658932, 22.586249036867887, 22.962510911532167, 23.308548006441356, 23.599187407280322, 23.774423945412494, 23.750018930915562, 23.682712840694638, 23.294356621742253, 22.90075003891946, 22.686840840511536, 22.533647468337495, 22.416536757266112, 22.323652861699426, 22.205998973240355, 22.078241861805967, 22.016775558299102, 21.93486772810874, 21.840649157097687, 21.790232489009643, 21.963233524488544, 22.138986915331227, 22.294498077720572, 22.516805705475587, 22.77012287652848, 23.050568985584615, 23.41339550749335, 23.481322568305018, 23.461310093653577, 23.438296534420676, 23.434570256186845, 23.406297953473906, 23.34968287695695, 23.322841004099683, 23.2468389503212, 23.135865812565072, 23.023109377578237, 22.921083702993453, 22.816006410651344, 22.686954957913127, 22.551745923917505, 22.365184214123257, 22.188801136186616, 22.16205846639843, 22.384612988313815, 22.587840519812094, 22.91580019500341, 23.2535932368514, 23.482689677927926, 23.484807264629026, 23.461476840440742, 23.44438486289393, 23.461688430764355, 23.489272829176073, 23.47680885220903, 23.443637294965825, 23.401380959524545, 23.376491143915654, 23.332233327044204, 23.17388193649361, 23.01075819872435, 22.856615513527192, 22.71521925592476, 22.579157017726207, 22.44786272834173, 22.328823314707932, 22.22625168719036, 22.139889099193187, 22.027836511313183, 21.918010121904604, 21.933757383280803, 22.067715607719517, 22.285011406334238, 22.484446316142634, 22.681867870841312, 22.92168788502484, 23.09330435819564, 23.197534152568902, 23.212409471221516, 23.159244105269167, 23.084658540183103, 22.98559833194389, 22.87653486101861, 22.683043785954354, 22.445293397070568, 22.348292379111285, 22.2406698417012, 22.10229370931921, 22.002821345104866, 21.845728384624397, 21.64748442790997, 21.571198970368513, 21.54053413799635, 21.5680914316687, 21.609223145104867, 21.656564400421583, 21.82372273611313, 22.116786454900367, 22.46396756059364, 22.82268416263631, 23.112692155348668, 23.423745556952497, 23.457276363520208, 23.291829733792195, 23.062232866096775, 22.77446671109595, 22.476197308713363, 22.213580495537798, 22.01730225933601, 21.842375467547615, 21.675768416230387, 21.603320125191185, 21.628122129597553, 21.653526211551238, 21.676704058379283, 21.700069921127863, 21.751551820894136, 21.76504699648196, 21.82283757794171, 22.06989236480892, 22.446015802660384, 22.919277476143638, 23.480331930020526, 23.742063642365455, 23.71799168202089, 23.699823936086034, 23.665799172112063, 23.613762595600917, 23.397581767268928, 23.024126118429788, 22.847781863998872, 22.724051743298883, 22.59610810470996, 22.481631673811894, 22.36861804088336, 22.24988962235466, 22.154762764401955, 22.062290277324987, 21.96099542160715, 21.832507531925753, 21.972526646915366, 22.204811308483112, 22.405149226801367, 22.64039787616043, 22.894013200033964, 23.14999707231077, 23.374895529430287, 23.39273107143009, 23.359121805582443, 23.32444412517428, 23.29437378461984, 23.273226572000084, 23.133223345129966, 22.925188906425102, 22.76414730483111, 22.644092974405893, 22.5631560978651, 22.500723667170206, 22.445706686243827, 22.38570909028257, 22.336777019410686, 22.288421206629963, 22.249299619016426, 22.246389500629736, 22.496531604937456, 22.744969671966317, 22.96334828384329, 23.182660973517255, 23.232187364264963, 23.210815432821935, 23.204919238402255, 23.204464896293047, 23.218865760585675, 23.230737823705553, 23.21783724775894, 23.200498129624716, 23.161837415761656, 23.14627590162914, 23.019794126518647, 22.850738010121514, 22.663363038363773, 22.497808947493127, 22.377111368695566, 22.270757663942103, 22.20079400517092, 22.153917169969862, 22.104105087599425, 22.104276377912885, 22.35956335027878, 22.59022634333472, 22.76550585590749, 23.01911850583061, 23.30662527986296, 23.400619548456206, 23.405675338738387, 23.409123445027216, 23.421306492005368, 23.451281354329186, 23.461402904290747, 23.445849119257293, 23.40505093842572, 23.386490697559665, 23.30538170794992, 23.088263461082636, 22.830037941060823, 22.551632426171096, 22.26409076807252, 22.005026936409923, 21.7846194186089, 21.635312838537008, 21.671876552717055, 21.719484570189092, 21.766390610088184, 21.77793191120193, 21.879029967393066, 22.068137141173413, 22.2869625184202, 22.70836015690145, 23.26838079659913, 23.685812544106494, 23.735148427778388, 23.717695058443628, 23.68497803242691, 23.64204064342044, 23.289328253048723, 22.837008764368704, 22.557391087165897, 22.34425356716393, 22.141106448996112, 21.91078758999468, 21.718395215733526, 21.68799732798468, 21.708967804684864, 21.71058144099001, 21.706565336193194, 21.702859291621774, 21.699873050782546, 21.698647392413026, 21.700354386177594, 21.703402775577448, 21.834103361121535, 22.072491436913733, 22.34618180942476, 22.714296471666316, 23.05315805444317, 23.20974094604743, 23.10226547632833, 22.83740691905785, 22.57470678801049, 22.38945067755816, 22.273413096774714, 22.178089364728294, 22.049811034703897, 21.879114801758504, 21.747992109908324, 21.734231050958922, 21.740613070930777, 21.745278744885905, 21.75011200523573, 21.760741146147307, 21.770677391091066, 21.784113478075046, 21.80485145531917, 21.79354195338105, 21.870729199822275, 22.127927736835044, 22.464208108676328, 22.945083331299028, 23.492480139803604, 23.77809420004417, 23.755867446504322, 23.503422760217518, 23.171122953605686, 22.81123316910151, 22.427503859144434, 22.219185825636462, 22.001396209654104, 21.74467878084002, 21.654930711673003, 21.69162059277971, 21.721748379029055, 21.73531735098634, 21.74876604920404, 21.75960952819625, 21.80627993127661, 21.828085356155466, 21.88919076005816, 22.098647388490537, 22.398829234361003, 22.83299713265934, 23.515206039871103, 23.863423209881258, 23.852106399923017, 23.837863993534793, 23.827368802177705, 23.804964886448573, 23.753184070964426, 23.582228116890196, 23.2155244116063, 22.84091810677405, 22.525504604993753, 22.268306202643945, 22.02249507964719, 21.742406709019587, 21.651313385672136, 21.673892749276636, 21.69460060265274, 21.707872310954084, 21.742267237863434, 21.765851052258053, 22.00844135416204, 22.33939501788825, 22.709460749470576, 23.13752838234711, 23.616107509690703, 23.794500234043394, 23.824864179760386, 23.803263637869478, 23.758019689236985, 23.707573643301618, 23.66282781901022, 23.52902978531212, 23.247680341524415, 22.958823735289005, 22.678433829974157, 22.442849195193947, 22.218239689632956, 21.96128173786306, 21.78986355983122, 21.75604654730859, 21.784588113565604, 21.805409718324217, 21.83842272371703, 21.920303146875227, 22.36008736969829, 22.7423368751386, 23.04955647969946, 23.461311152791055, 23.872226321230215, 23.89109311972231, 23.875698809531595, 23.852733902923116, 23.81683801684258, 23.773128577150832, 23.735864324007533, 23.629784872915007, 23.3564177993641, 23.06570544462011, 22.7417487470607, 22.528153185233748, 22.308885010143968, 22.115022917498163, 21.948503592763995, 21.787872597952667, 21.74953368686472, 21.755776868032005, 21.900344158546073, 22.048986347769453, 22.205965893630918, 22.447271408450806, 22.702565528790426, 22.934740295850503, 23.27426476750814, 23.556566303914565, 23.705025901464285, 23.68484575350463, 23.6583202777687, 23.640752612824176, 23.436171683458287, 23.027969534656958, 22.79841393301911, 22.635419195856887, 22.37005043931099, 22.09905440438908, 21.92502289428606, 21.780281257526752, 21.673434889971713, 21.671970383698635, 21.69071204755093, 21.708192166155538, 21.741756343965704, 21.77347415643653, 22.04638341955416, 22.44122941589976, 22.90110813611339, 23.406838597850975, 23.81045679348421, 23.848478638684686, 23.845507747525186, 23.825628998804273, 23.797739827575707, 23.754732309757888, 23.723159231711502, 23.697142834308774, 23.49075622047887, 23.18581450965381, 22.867851576858385, 22.625799775767046, 22.420635770403283, 22.211057150205946, 22.062324599028543, 21.933486421934116, 21.823738675934806, 21.723718068878195, 21.69880801500864, 21.72620512071588, 21.86657924519709, 22.038605912935008, 22.281871891098373, 22.749102956829063, 23.363844649462717, 23.80794174757356, 23.85966619887208, 23.87989126508521, 23.87971379666344, 23.843330996527744, 23.79782257520438, 23.66360785932845, 23.376953654064067, 23.102660168855184, 22.852997849859793, 22.650309836057005, 22.489697543963825, 22.357407772452785, 22.258020500921972, 22.14652343307627, 22.042130415796283, 21.988600056895887, 21.964741489798445, 21.937339125494717, 22.100519291573633, 22.464781558778913, 22.804626490226127, 23.137737143834098, 23.562406559019006, 23.733296239115017, 23.728785405996536, 23.72972058771289, 23.7152883107857, 23.67878908621566, 23.64211403826566, 23.479446376643462, 23.25837469409022, 23.058157529781457, 22.85709960231718, 22.727357636113556, 22.591359556836277, 22.428938657919833, 22.304972021221317, 22.135163443988734, 21.98120646828612, 21.880012402179833, 22.027960709680514, 22.251393013241387, 22.73785910710357, 23.167871639916942, 23.52651252978192, 23.669413378937993, 23.64713701017996, 23.61532141820975, 23.59424851127353, 23.6060131036791, 23.581747054722012, 23.544594310574336, 23.524047208476123, 23.520602399784334, 23.445706309741052, 23.298307310585116, 23.08803010358423, 22.870182382520525, 22.653739710348972, 22.447769180117657, 22.252420655947844, 22.04776986726735, 21.87277159329484, 21.75006221906555, 21.889206920391917, 22.095408404654265, 22.62375717791002, 23.147852496718173, 23.514552169350377, 23.769399318052468, 23.738573857864576, 23.69379240589497, 23.688209816739718, 23.6831160438454, 23.654817937445625, 23.609315663383857, 23.55358596473104, 23.52022595338327, 23.4761232965155, 23.353479860376538, 23.180245093021796, 23.005253286028776, 22.860998880743452, 22.754310526687235, 22.656875771097162, 22.573795991654112, 22.500817254181346, 22.436239445734927, 22.593858548540613, 22.729718327861942, 22.860552056098154, 23.082697094399702, 23.29102657707344, 23.433277895439414, 23.51285877877312, 23.498640699294985, 23.49339974233028, 23.48368088237667, 23.46271137467696, 23.43151509849295, 23.39965845274, 23.35016137965987, 23.24529239351368, 23.088188816280027, 22.86728127587041, 22.723302492541407, 22.601561753138046, 22.41189361404575, 22.2612803350256, 22.18712676100696, 22.15536457051741, 22.03439644768531, 22.087441264280667, 22.322002469911585, 22.860307695977824, 23.336883889716244, 23.671962350141097, 23.7339326212189, 23.747143886265196, 23.744025250840213, 23.72348065308667, 23.71182226429866, 23.688626503720304, 23.67063664415087, 23.66335082285085, 23.621071118087766, 23.400392200196894, 23.184321263316203, 23.028556396095777, 22.931694653676725, 22.860195086158928, 22.756888055494674, 22.64509117760863, 22.510580382210815, 22.448930785243068, 22.407437950087125, 22.546944055064937, 22.73370264784242, 23.091426039870072, 23.416376670816067, 23.62700656238269, 23.704571003011626, 23.72135108909059, 23.734755647612985, 23.74527553027976, 23.782114719323427, 23.780750844911193, 23.762639140424536, 23.507070927035656, 23.131095327529266, 22.863022897788245, 22.6253066839183, 22.453878632588864, 22.31032614253216, 22.202247045503157, 22.116749179776374, 21.99766236775064, 21.859790375760102, 21.73165941715786, 21.72862679825127, 21.730957955447952, 21.74613403255646, 21.860669760279478, 22.176753566426967, 22.493945526183506, 22.73413524362759, 23.07062367953776, 23.37841902458096, 23.490203612041075, 23.47339330735011, 23.372498653768847, 23.14875579692691, 22.927879184240467, 22.74535269378859, 22.54979664806213, 22.378127538203028, 22.218747600021814, 22.011955264085653, 21.79839609727627, 21.734660761223182, 21.75969964434445, 21.776933185917965, 21.792017597031204, 21.82791981260767, 21.870758751032145, 21.925226657854022, 21.99040373882421, 22.088504819982077, 22.325952698169203, 22.57878295128513, 23.055598340260417, 23.723908266373687, 24.04585332717105, 24.038592192430713, 24.013229695325823, 23.96115353207881, 23.667699340298473, 23.255660840758964, 22.96888328457202, 22.747705973418146, 22.523887397336523, 22.336299022127204, 22.123554434889446, 21.939996079084022, 21.782360101894284, 21.70315531251903, 21.71682945411814, 21.729882344084103, 21.765056985710398, 21.85136342897711, 22.18707709567579, 22.46856508396155, 22.69776912047027, 22.90049374132199, 23.212078159749595, 23.619757995583313, 23.79986970537433, 23.759615439002957, 23.715512537149625, 23.676986527801095, 23.49052972326153, 23.153519639771947, 22.90538656274836, 22.68475476996861, 22.420240378275086, 22.223347710709064, 22.09017134696701, 21.919224531120516, 21.714820061569668, 21.618029392420894, 21.630828929451297, 21.649262753178174, 21.737563137828285, 21.904458611342793, 22.30486236595316, 22.747083789012663, 23.107344680977906, 23.54020057848842, 23.80434231860609, 23.80200178055608, 23.774217943960185, 23.75898784723162, 23.728384628040647, 23.688659748624065, 23.6374201967292, 23.576169459909078, 23.35589959727355, 23.12985428910271, 22.886818136482713, 22.611923456855152, 22.35235042215896, 22.188377200765117, 22.077767813501925, 21.94835726916666, 21.732959837159726, 21.64910426849495, 21.717625726412262, 21.83484092088985, 22.24810094884732, 22.762102874640032, 23.276687223694566, 23.825156377356137, 23.908080976192966, 23.884020577369835, 23.854021121605783, 23.835709892481834, 23.806342248386912, 23.769971758826216, 23.719352635627896, 23.699335271148005, 23.577456943693146, 23.32998688798368, 23.098318217415713, 22.89100467096911, 22.721741535476156, 22.56140463937841, 22.4090819438786, 22.251799006426562, 22.113218249813514, 21.96708680855679, 22.07986537792009, 22.272978963256943, 22.72801463627805, 23.156039979990414, 23.456144138707927, 23.739153280915293, 23.71795998418298, 23.67025134446637, 23.65497762804145, 23.612218564349842, 23.570949178638106, 23.52905447723913, 23.442259839892618, 23.38405237475456, 23.277580941121045, 23.170010038726, 23.078640993219825, 23.002135278748266, 22.936738219439434, 22.883854215608476, 22.807213570545972, 22.675570701787876, 22.495743296208655, 22.314657036167556, 22.45408387526192, 22.651249935691084, 22.88666731673092, 23.255536978785088, 23.65377449927359, 23.793589381418176, 23.84915514651102, 23.903012525731814, 23.929599354204253, 23.977728597965847, 24.010123297749114, 24.020212161829523, 23.984894659179687, 23.79265140411457, 23.47530168366674, 23.159982854216647, 22.89072443696543, 22.7109511956405, 22.497848833830663, 22.223063014992334, 22.064607060832017, 21.93816211221588, 21.888437485095864, 21.90263730976193, 21.91419208385729, 21.946988699813087, 22.064044553870854, 22.388720154010766, 22.69074720011717, 23.013397013102168, 23.38663603058737, 23.829139062648085, 23.956983933967948, 23.966691241935393, 23.960238406882016, 23.837639152634107, 23.41719408127223, 23.028688437485517, 22.726496503835723, 22.426198069539186, 22.152312748229033, 21.94391982307566, 21.932360478179273, 21.947347763922778, 21.957100117598234, 21.955120141200577, 21.95781029977394, 21.961336233531796, 21.961016273170653, 21.989576048249095, 22.019991308015488, 22.037895266606174, 22.246236420413293, 22.517673667154202, 22.874566085106242, 23.453387214306257, 23.881998711457005, 24.0618088894779, 24.044340412956544, 24.008456414427894, 23.72875325712215, 23.260979620184447, 22.870981197464605, 22.553382472583532, 22.261482154090434, 22.042625666361218, 21.966893454499115, 21.9575800231317, 21.948810209020035, 21.9326960720888, 21.908226260315942, 21.893862393766856, 21.889546855842756, 21.878765560780845, 22.027344286929992, 22.421337122748522, 23.005776257976336, 23.559509270414114, 23.735757636392645, 23.720338183588183, 23.693721978030528, 23.689650719801378, 23.691764819548542, 23.680156613193045, 23.562438030586975, 23.232355467030587, 22.943627580086382, 22.70040661708831, 22.510866884910303, 22.25423149407005, 21.993193324519567, 21.839593399156158, 21.829049509502926, 21.840999813866116, 21.85201293121816, 21.854269582537217, 21.867438562365212, 21.939470513549335, 22.45444731813572, 23.008313676521794, 23.48045945155837, 23.83647589552095, 23.876289147566727, 23.84063171289117, 23.783783876349943, 23.718742634825727, 23.652240872660524, 23.599409403692977, 23.560383524613016, 23.505507124609665, 23.271801661043515, 23.083147857302134, 22.95820219624433, 22.88302938975713, 22.769930415411295, 22.645274233741404, 22.55307944572785, 22.4486228103053, 22.34308821060569, 22.25638452532081, 22.40164919402069, 22.707806229230233, 23.29066008603816, 23.52914219634721, 23.50172514327878, 23.49318049920681, 23.504100443526585, 23.54072390959576, 23.566237846375472, 23.560951680398784, 23.551319650826372, 23.54478183539619, 23.532388641181566, 23.542774910308257, 23.53518453665283, 23.514253285098942, 23.377250556890896, 23.248822521452343, 23.06065534911515, 22.82562279731223, 22.69285274559122, 22.590144193261484, 22.51257605709895, 22.47311668645098, 22.667217936147143, 22.977597907664016, 23.517088854488645, 23.66039417941356, 23.659393413820297, 23.669014588326107, 23.667005157997, 23.67278157949202, 23.674005243996064, 23.68922880652829, 23.694084452936266, 23.669756720720397, 23.58871625699177, 23.561882576349976, 23.541474242355832, 23.549964894838116, 23.494261946389045, 23.223697112626834, 22.90224365647192, 22.595632675490425, 22.340079513987657, 22.126275637198678, 22.13314934317656, 22.182306606357432, 22.23358394084522, 22.26984711848601, 22.52935659399456, 22.889294371596367, 23.238270298307977, 23.474276331047445, 23.782329873854057, 24.30590065655149, 24.46391348169733, 24.472904558580797, 24.458740014609443, 24.396817839578897, 23.884958629128253, 23.351535490065064, 22.876710492971498, 22.462072713510974, 22.321284722808738, 22.325935612522244, 22.327626939582633, 22.329469990946446, 22.325885091917538, 22.31275605157367, 22.306351081299066, 22.302372351853833, 22.30179685387013, 22.30317983544512, 22.32583371394094, 22.31396509013575, 22.329485418043408, 22.523773364079023, 22.86627761034686, 23.444263671028057, 23.884286988465863, 24.1631135777203, 24.33410450463829, 24.142977655024367, 23.660183178709957, 23.252414053787387, 22.946309363183403, 22.63999371461668, 22.30759134790262, 22.080673091383925, 22.033919062750588, 22.0227990651337, 22.013907137515606, 22.0063135802142, 21.997454440183787, 22.002330944289056, 22.03485845081788, 22.071690829936824, 22.09668449525128, 22.260526120547876, 22.666884825357098, 22.956334322772918, 23.31512070054727, 23.82254857829264, 24.11530622514523, 24.109426864544613, 24.084717795302364, 24.022397914326092, 23.83299409675249, 23.602464609539776, 23.347791360474517, 23.127517103600653, 22.73634944994967, 22.535690028676868, 22.4196741115465, 22.192183292671672, 22.055130061948578, 22.01183388792128, 22.019285158670176, 22.024366527087636, 22.06716114874706, 22.249160142946952, 22.725281288213804, 23.26984476869394, 23.758239543105944, 24.140472449982642, 24.127264072412505, 24.099890828458204, 24.07603420603695, 24.05385057769664, 24.023868128132463, 24.00513135642976, 23.93615850954483, 23.86702778669355, 23.808769008219258, 23.617274607614664, 23.4051813576253, 23.240225014547008, 23.11404677038487, 23.017331067579693, 22.847061713224104, 22.665705851143453, 22.572970759636135, 22.40611777151936, 22.484934039444735, 22.638628976827984, 22.79190723665177, 22.96575104807505, 23.401561814721152, 23.61848722802237, 23.694223182153582, 23.646688835467046, 23.631956910682206, 23.610661890311885, 23.557193020874312, 23.514719258424453, 23.454804010734403, 23.312359964483278, 23.065916176512218, 22.91937934498378, 22.89082602037598, 22.793914289164103, 22.6479961236335, 22.508620129568254, 22.373694044672153, 22.264386940284822, 22.19812007785988, 22.093153354772763, 22.308880493650218, 22.61057989933607, 23.03127308350795, 23.50057839566625, 23.63041035681627, 23.659728487899645, 23.69308485547599, 23.732844965370234, 23.76241648912612, 23.766641524433258, 23.748336242933053, 23.729296726679234, 23.654451020197758, 23.58478025154514, 23.510324337080657, 23.400533498762954, 23.270307141470255, 23.114512363268414, 23.00722736602363, 22.91904228139714, 22.78087251699311, 22.570847365368923, 22.38810517123154, 22.20963222095769, 22.31989503409628, 22.66827109863479, 23.227771921406156, 23.704143758314512, 23.730763602858033, 23.7332520551555, 23.74125592858158, 23.756669526825647, 23.794107265369565, 23.815825828563902, 23.820326430704565, 23.821607003635737, 23.781688191628152, 23.767635026680654, 23.727896922405623, 23.58684812324672, 23.307069609216473, 23.082816792316255, 22.950940281656916, 22.78346993984213, 22.62392807296889, 22.47146696952697, 22.36101390958739, 22.2111745655546, 22.311469921649433, 22.693429803157915, 23.360981052103664, 23.780490165479502, 23.781539350429398, 23.794804645757438, 23.82053982687022, 23.872162429398603, 23.927994478197842, 23.987223038841368, 24.02646587629822, 24.041794711996783, 24.009620417537572, 23.977514955619483, 23.922640801214317, 23.78303327481903, 23.563594127606184, 23.423059110783544, 23.282948062136395, 23.12865564456739, 22.928636504665743, 22.663783113697487, 22.49877518478509, 22.368692308559417, 22.22820194469239, 22.381087563369874, 22.94638219885812, 23.52938677050361, 23.771341828273282, 23.770377661594807, 23.780123659399692, 23.80598418962099, 23.840421015901796, 23.857874400032074, 23.865882479572665, 23.871250905807557, 23.854671641283343, 23.827306648951254, 23.795600391045053, 23.70635617692651, 23.468962598394597, 23.29524034967316, 23.185481133100776, 23.017912888360758, 22.85926956411302, 22.75746334179512, 22.67409148152807, 22.636421216386932, 22.500320902692795, 22.571907771271867, 23.091596833473705, 23.6384567468728, 23.783596656253156, 23.80818357071054, 23.821351660350555, 23.869089537125408, 23.923475250127737, 23.954311284537336, 23.967471722137663, 23.972632510832256, 23.95911686013335, 23.947115679179188, 23.94518998984948, 23.823312430305453, 23.59241840369469, 23.4408001853251, 23.279395888534044, 23.134509816819115, 23.040966549436494, 22.946227673382637, 22.84259937247836, 22.734080476725477, 22.86750872379604, 23.164160121657957, 23.67644380655347, 23.921323249052303, 23.929016224385595, 23.947764104905122, 23.934237211912063, 23.947854858191135, 23.9</t>
+  </si>
+  <si>
+    <t>[22.806077172452458, 22.90160577563049, 23.02620248050445, 23.13987371430655, 23.22439510939519, 23.287488776320235, 23.35628108872064, 23.654355704100567, 23.829478518567782, 23.80022301995241, 23.78724066674796, 23.809334608170513, 23.882692733812235, 23.990669634397978, 24.091281645815844, 24.190341518740535, 24.273827225829933, 24.337673155370748, 24.38385426680166, 24.253629090157474, 23.885887686714042, 23.520563102377995, 23.202925964847267, 22.95024282026874, 22.724713516062263, 22.49957487649723, 22.269290115430863, 22.04369012699351, 21.848723784060596, 21.705656618942772, 21.581758076480593, 21.739277929773213, 21.94967744983292, 22.250003535614947, 22.52402695674597, 22.750962528970437, 23.05819884889822, 23.478870486972173, 23.959714745106794, 24.40756430355582, 24.69135139647155, 24.63180552007195, 24.340550467044807, 23.815513663424085, 23.312667984114018, 22.913773729741198, 22.5765130212535, 22.301347128539778, 22.055923912850286, 21.830429742067867, 21.62948305251801, 21.443152593345875, 21.28465531725214, 21.170079260332738, 21.08567697856293, 21.26694548923665, 21.445928598281295, 21.67723682233884, 21.91748516351163, 22.203497030035606, 22.468293980027266, 22.77862673223019, 23.107567798102195, 23.400554256703874, 23.507690659403035, 23.433218893863, 23.345626216261454, 22.949482854883797, 22.44046507160345, 22.094119295750016, 21.90417914126571, 21.710493208395576, 21.527005897226275, 21.35557189795212, 21.20180641977694, 21.057189180311408, 20.92210976798599, 20.855476313763308, 20.87547718632283, 20.955107305496963, 21.119017813513988, 21.440987662583662, 21.74374821783142, 22.027258270453633, 22.445150001527722, 22.987270064672884, 23.573185450911414, 24.14702540754061, 24.58548332390839, 24.637460580028858, 24.275280146389875, 23.67971331325864, 23.1686374651081, 22.776351690489175, 22.45983690015707, 22.221487644060534, 22.018772319559705, 21.83445692959715, 21.661515597034448, 21.499722449416907, 21.35618693465621, 21.233264377464007, 21.1193982269011, 21.01141096409012, 20.924335463822292, 21.00824161077763, 21.203221497870498, 21.492744268703802, 21.917366693449154, 22.47022600869379, 23.055985144847586, 23.622293817787778, 23.994799123555026, 23.98153201792861, 23.671968771222414, 23.369723975016473, 23.067868954156257, 22.76783170967306, 22.49887391543444, 22.276128810964053, 22.067303016417338, 21.816832352237356, 21.58114458358852, 21.48879414867046, 21.413293112374955, 21.30750939311248, 21.198428623450187, 21.094264870172236, 21.01964380605585, 21.12049742431084, 21.272595193027275, 21.507299260872532, 21.891154296926643, 22.420862373052532, 23.032260984729422, 23.682892022215174, 24.101675213550067, 24.062128829273053, 23.71291561582791, 23.351221922476213, 23.005046285496675, 22.6626458783425, 22.3576518427116, 22.094219518029664, 21.843461704592116, 21.59988149561686, 21.36041463683443, 21.19088253146762, 21.11673358294487, 21.033820890943897, 20.96398676030552, 21.08631304472861, 21.22231486692556, 21.60334125445219, 21.973289179030473, 22.309409377148143, 22.76110145031068, 23.309279640730825, 23.832419537157502, 24.286618037100684, 24.55371986628751, 24.46855756413873, 24.09839478112271, 23.463647214707407, 22.83541094404768, 22.407107176879986, 22.14837271856878, 21.894820989109558, 21.665176324913535, 21.472463796864123, 21.311235104406567, 21.166191645644524, 21.014303912862957, 20.877352973683056, 20.87828402161917, 20.91393144045963, 20.96910408813955, 21.224235320706622, 21.48326683423684, 21.720845268671102, 22.05956569985442, 22.529194277283693, 23.070385766129444, 23.607080780000505, 23.983253319446025, 23.988535737962508, 23.709303890780486, 23.1500382571206, 22.565415222356105, 22.070268104684, 21.65399288380534, 21.338226731418498, 21.06046020944004, 20.957766765754496, 20.976616076565218, 20.990284411108146, 20.998469736446467, 21.001037231929292, 20.994653144920218, 21.010416186103456, 21.009878019469188, 21.0223170739889, 21.12665813942448, 21.42130998244129, 21.893310446042193, 22.509870971153642, 23.1792903814391, 23.860792301452268, 24.360044707891337, 24.416097574342587, 24.13354841327221, 23.43829362775524, 22.73557730378063, 22.455632625544567, 22.176017915431164, 21.750997912637573, 21.46886361288143, 21.27794208465256, 20.97841802294963, 20.916433389716712, 20.848754755715266, 20.769802662515108, 20.77614716312068, 20.80653848740732, 20.838518766409816, 21.034569022896424, 21.254233296235356, 21.59374232764577, 22.08945040114752, 22.684300314935125, 23.27172908725314, 23.8605359305506, 24.295017199031467, 24.37719643732534, 24.154253797522315, 23.645476208028466, 23.131243440550577, 22.72147093698148, 22.351116897570666, 21.997210453568982, 21.651009670116338, 21.334170157959903, 21.06518334191636, 20.859373756771202, 20.85231810271514, 20.869447103986175, 20.876812931658836, 20.90553279537912, 20.905261608160284, 20.996715767896536, 21.236970978187685, 21.57269180757118, 22.064552727276354, 22.67260498594281, 23.3067970873939, 23.943066686690496, 24.388322365734698, 24.43381047047281, 24.15374613583532, 23.449320992332687, 22.678244307075477, 22.238130993328507, 21.90845661179983, 21.66662457027711, 21.469330157831262, 21.284527149440724, 21.0897436264646, 20.90191950391946, 20.793237795185746, 20.81209373949542, 20.83708106765157, 20.858266069386108, 20.878249930460452, 20.90697786820107, 20.917937409632493, 21.046255178383092, 21.49917776756708, 22.10269836477899, 22.711831768555204, 23.32002360801628, 23.739451305200262, 23.771167895046048, 23.474681249825263, 23.099521765303678, 22.63405918876928, 22.310930629818547, 22.201373927690536, 22.040372002169736, 21.88121333893427, 21.74681580508543, 21.640444660556142, 21.54922483604426, 21.42238638536257, 21.227309876992795, 21.044723258962254, 20.954699613950595, 20.999016300700184, 21.04929398072073, 21.075930750358854, 21.11831338149724, 21.353495508992648, 21.754922451808103, 22.21805602985464, 22.689481021255364, 23.004014253670977, 22.958862660315535, 22.614178215025916, 22.24962604454642, 21.892169529629125, 21.53908248118081, 21.221149318933062, 20.984398653441758, 20.965852259598403, 20.989577391051533, 21.00778728757807, 21.023657990581196, 21.034127865184008, 21.040387307673505, 21.042785144797715, 21.07066285537707, 21.076020765928217, 21.09617562759335, 21.11139821778549, 21.280027793938775, 21.66464397313624, 22.193828356301292, 22.7782221607635, 23.367617290432207, 23.81051968959336, 23.898075586057548, 23.645303454317574, 23.09904475518212, 22.553070554583638, 22.114262100910693, 21.748483273461336, 21.465097946109655, 21.2150632186674, 20.979205763668414, 20.927807761408868, 20.94872405788964, 20.963620015783235, 20.975812006406304, 20.983037068921455, 21.012453854203038, 21.022790961179993, 21.04380368986287, 21.10948119392737, 21.398329456137088, 21.858371522486504, 22.461238403795992, 23.131809417554894, 23.82731928517022, 24.33992826982497, 24.478853083446253, 24.269732892039315, 23.700659235312752, 23.007615407513484, 22.39212999634273, 21.855041235903787, 21.464167145019484, 21.196545896952298, 20.971898009714995, 20.922223736725652, 20.9343128737022, 20.94054380156287, 20.946876155162027, 20.950181648531217, 20.97454379934665, 20.987116596275357, 21.0055016511588, 21.02952231847461, 21.274929233160325, 21.79232860457718, 22.49666677188868, 23.231175341147466, 23.85100988861603, 24.297958764093398, 24.398702881335947, 24.120404158448014, 23.58275157785219, 23.142845003357944, 22.842255604990395, 22.602125377759638, 22.402588571081704, 22.227693172151035, 22.079892094988242, 21.966125967280913, 21.871556133504466, 21.771828321295903, 21.693849262266983, 21.679610543497258, 21.912820547790044, 22.130864653398813, 22.353853024972924, 22.64852721705681, 23.002418001771435, 23.39748515641631, 23.723466342340572, 23.83533054369592, 23.742379669623535, 23.634990149807724, 23.566184402648815, 23.43510708997449, 23.087587841311947, 22.797045629535972, 22.643822442257974, 22.585317747080698, 22.565266126205717, 22.527636620850604, 22.49734037920409, 22.497748538566757, 22.46815793443818, 22.417079990975363, 22.38732241479686, 22.39855891180028, 22.647032943733993, 22.895334103994568, 23.085683586896746, 23.216736730069815, 23.301067567238643, 23.420845348097128, 23.49183829678795, 23.71739939359699, 23.85181598520508, 24.11081892773179, 24.228208677409228, 24.013189657296067, 23.458396835997075, 22.912022350645703, 22.513475154668964, 22.21811392810243, 21.96104698080774, 21.7327024206659, 21.518838965821626, 21.310446167805797, 21.107943843941253, 20.939311525379008, 20.798547231184546, 20.750456740875286, 20.75577983730479, 20.768536194305845, 20.77795852538613, 20.7756220448488, 20.83788541718239, 21.05565599574835, 21.381047602537212, 21.75740251011513, 22.11817410450834, 22.43522968357551, 22.508104769512745, 22.303091932205025, 22.089561082471665, 21.907955382216244, 21.737702764048105, 21.59728994135162, 21.502760867056576, 21.42971744644427, 21.354113098882337, 21.25788194307177, 21.16106364022252, 21.090699417730107, 21.063468384621142, 21.0517747672172, 21.03929253616818, 20.96786418403126, 20.8903768909187, 20.921902792735768, 21.083401222041864, 21.201996906145137, 21.454408714233608, 21.91632618490843, 22.35998045027567, 22.718524048509014, 22.797054067574, 22.558547963007708, 22.296122800701767, 22.052022507783434, 21.817223464979932, 21.545492376556805, 21.253957316362715, 21.014037257455804, 20.818796067315077, 20.66040625347999, 20.571850621225053, 20.61162970816711, 20.648660869384802, 20.671617938582024, 20.713510747495647, 20.73333652146062, 20.91533861395912, 21.166958192939862, 21.459396743032613, 21.87994741283221, 22.432084066316857, 23.03346859320743, 23.62370347500689, 24.06863742295575, 24.20630245718589, 23.93792312868634, 23.34480711334321, 22.78716990824057, 22.34237071458318, 21.965350142782437, 21.65402883599735, 21.37598982483425, 21.137590472133898, 20.94322809443251, 20.768740793928828, 20.659886350212517, 20.669968383295792, 20.69256268284528, 20.733498460514863, 20.760395991943984, 20.99690779132363, 21.266539621140705, 21.564567624889026, 21.92495703744065, 22.443916665554926, 23.091466978832006, 23.79298606584092, 24.30882128085547, 24.39345544264296, 24.090143616327655, 23.480187825944284, 22.940093038513893, 22.527976237874082, 22.18991481998233, 21.919025225356574, 21.680003693898865, 21.396624447483223, 21.109475311018098, 20.94822985299469, 20.792913942379673, 20.671778218854183, 20.689346521777836, 20.73930738020824, 20.77601461920425, 21.03727994513737, 21.332126585988423, 21.680470328535066, 22.055383158056006, 22.464649150091635, 22.836736178603758, 23.15355070159269, 23.381590362026817, 23.420635009251694, 23.307039912450673, 22.894842330360877, 22.489571269570387, 22.27558317291546, 22.12479210747306, 22.010403716994276, 21.920193506195393, 21.804007489249823, 21.677376758830672, 21.618672694891988, 21.538432944166377, 21.445390508364966, 21.39714417393208, 21.574306413679622, 21.75262884361352, 21.911012021574066, 22.13751716025958, 22.39566942107147, 22.682444899428685, 23.126246261893773, 23.686345756599195, 24.08418389379914, 24.083544178783868, 24.061703620790293, 24.021692260048535, 23.778252200057025, 23.35769740928436, 23.155990924700262, 22.99076013505581, 22.84396303388196, 22.718294520911343, 22.595865538808066, 22.453409814317837, 22.308254332227722, 22.1133664425651, 21.931369591993427, 21.902500223164477, 22.125960206599398, 22.328676556444275, 22.657481408872425, 22.999524811812364, 23.418948857407738, 23.875797864211194, 24.102676448936748, 24.090622809958717, 24.093993420448275, 24.098770246788916, 24.08307668462457, 24.049181204815753, 23.995537839195077, 23.808929763654522, 23.492019774837917, 23.20137989549879, 22.988273420735236, 22.803222906515952, 22.639895238015512, 22.487526935753646, 22.344007328381167, 22.21578054052023, 22.106246771977755, 22.01452931301233, 21.897878247576767, 21.785225101125878, 21.800110248421607, 21.93409825945767, 22.152182844270982, 22.35269145230229, 22.55118237350059, 22.791898640653432, 22.96504449927943, 23.071651230384262, 23.08650504550432, 23.030703981079427, 22.95491337800442, 22.85499134246619, 22.745472146672352, 22.548952836683927, 22.3095965293934, 22.214203583340325, 22.10649848511331, 21.967782028134167, 21.86895701888262, 21.711138310704282, 21.51282370885598, 21.43833371140076, 21.38333064087767, 21.268809356866928, 21.194736030122858, 21.311849769604514, 21.61515352089306, 21.939175581971465, 22.300702085727437, 22.670012955106007, 22.96954895807559, 23.349878325898487, 23.51189905905539, 23.214375684829037, 22.94677290588662, 22.648951728451436, 22.346809760935653, 22.082979503518093, 21.886610539791548, 21.711543300265845, 21.544894207037913, 21.389902127203854, 21.242895903648385, 21.102577139354427, 20.97806438229424, 20.868986224437247, 21.012023667308608, 21.188078869586302, 21.456022507950205, 21.785448857488465, 22.197110360271434, 22.695600250517202, 23.279299280524537, 23.74143895776405, 24.035064563393956, 24.24852909535645, 24.30304177239094, 24.128394414041832, 23.56405893806181, 23.02164224754119, 22.80107557823175, 22.654953001771037, 22.51216395850462, 22.38749422803191, 22.266813013328658, 22.14240499816763, 22.043534440651612, 21.948166598566573, 21.844643077154192, 21.7138397556342, 21.855324879974503, 22.088458141105672, 22.289022735973674, 22.525006881691052, 22.779695547595768, 23.037269174266385, 23.294883349649336, 23.53059544255969, 23.701021674080483, 23.750742144152785, 23.696917839183214, 23.601612284290326, 23.250783526805026, 22.925537437215457, 22.73156115061876, 22.595356565134733, 22.50426642365365, 22.434568514092643, 22.37417214617729, 22.310084172269445, 22.25852176712816, 22.2081072485546, 22.16768806387513, 22.16426793139925, 22.41667638537078, 22.665507876024922, 22.884735172830684, 23.15868701466734, 23.535979908419648, 23.81405980806282, 23.850618605416287, 23.833484252545034, 23.824777217622152, 23.816024964048136, 23.804021996163584, 23.797226806408457, 23.686976070927766, 23.38964595816074, 23.15168519927754, 22.940139767525547, 22.727410691345224, 22.544560963777105, 22.411234148694206, 22.295051670154674, 22.217862316449523, 22.164937207145382, 22.110773195252573, 22.108061185194902, 22.362907344664375, 22.59090860648526, 22.764038416061087, 23.016862450843245, 23.33209274290157, 23.76013442147519, 24.04835050188403, 24.062873047477066, 24.067258195936173, 24.06549554975616, 24.068820238173952, 24.05707658523603, 24.00679643805738, 23.8219980313674, 23.54686567417508, 23.264490399936165, 22.975050032724464, 22.67576328568619, 22.372982345718103, 22.10282646668993, 21.874097564458207, 21.658841569866013, 21.467891899134997, 21.354426678670837, 21.561758352558744, 21.719687536837398, 21.864405816774802, 22.070122786915395, 22.299162434481065, 22.729524822607186, 23.29534923203582, 23.76478936505255, 24.184437243041543, 24.37118634410717, 24.335590159528774, 24.16157311723875, 23.532792324934253, 23.007654913425828, 22.699327366301606, 22.467522905334643, 22.250566155843284, 22.009864279663528, 21.80429541024249, 21.659009602446258, 21.56689113896141, 21.512920643705712, 21.43863538730875, 21.367919146157707, 21.303533390842645, 21.25403725634953, 21.266917720501993, 21.430289098850086, 21.721179651536108, 22.004183389763778, 22.301279890527823, 22.68576395725093, 23.035533402870715, 23.197653267330807, 23.09298787863655, 22.831230288504695, 22.57206077695477, 22.39040291593847, 22.277198682789685, 22.183644833411787, 22.056017213147342, 21.88579834218076, 21.739548127018434, 21.607405202741035, 21.485094951129096, 21.374099393574827, 21.237238555260287, 21.122813187351777, 21.071148067667572, 21.06179134531281, 21.230327678754247, 21.44787428202592, 21.671616880337655, 21.97796392241675, 22.34176016751974, 22.844442847763975, 23.409818089628704, 23.732965853653045, 23.765341120319302, 23.458713383797896, 23.114133065158793, 22.751112599470165, 22.368567916500453, 22.163433250562523, 21.946406462011836, 21.68798452160429, 21.453986417771727, 21.25801817240671, 21.13064712078118, 21.019718897656915, 20.898547952918573, 20.75038105374175, 20.81856959971724, 20.978269179994637, 21.373210156442628, 21.77655545001438, 22.139041478440998, 22.613264518868665, 23.338313739986713, 24.10559365242464, 24.49656833853909, 24.495147196557213, 24.476722475741923, 24.441707917367438, 24.223524964011762, 23.739113283600716, 23.283661079488258, 22.869650049623747, 22.530475498608478, 22.257054005377025, 21.99840289159947, 21.7082163798608, 21.517515951841062, 21.384739321247324, 21.295942232361288, 21.20325169288161, 21.365865137495657, 21.523589990833685, 21.848365071007027, 22.20673137233572, 22.592793016631333, 23.03231259119964, 23.567274618379894, 24.230347744224332, 24.480386316877567, 24.459203551324872, 24.406616142026227, 24.34586540040613, 24.18946222388128, 23.74212598516233, 23.365235903548456, 23.03581463669455, 22.72990558167395, 22.476673641779737, 22.23833403599942, 21.971147524255176, 21.786041246868525, 21.607774045355637, 21.436905937278663, 21.311661794030076, 21.4758220544738, 21.758592842550474, 22.252208886757654, 22.655049617090068, 22.9748916854973, 23.397517978385263, 24.086719213613534, 24.539754272380204, 24.530492213588328, 24.50471620289852, 24.462650736257814, 24.409106160837734, 24.274207870597834, 23.879833976558483, 23.508839952303234, 23.178350975927614, 22.830214883289784, 22.600018107271666, 22.36759357177337, 22.164187038689818, 21.99012116239523, 21.820939239952626, 21.706121622776305, 21.644204289833493, 21.862639106018502, 22.04512661051545, 22.20874401268809, 22.45405858086161, 22.711033546739984, 22.94464217755034, 23.285650920912833, 23.567464866780796, 23.81022859182582, 23.962936634974017, 23.987850177885566, 23.9914201868642, 23.635163639279654, 23.108244274947364, 22.854391602401876, 22.680513891492836, 22.407039716923066, 22.13138473898506, 21.954927736579165, 21.807754965409245, 21.67623543608532, 21.54086602527055, 21.38724657177741, 21.300714383851254, 21.468397094702482, 21.609421309856803, 21.968798680975876, 22.390892289826642, 22.865591559016284, 23.381203324066234, 23.985841758121285, 24.481113931064183, 24.504475149265684, 24.48063277971759, 24.447968758555053, 24.39889732796801, 24.3239187396025, 24.036838319639767, 23.693626027891863, 23.341836258238374, 22.997363889421134, 22.73760537831751, 22.518560069241904, 22.29842603321464, 22.14200280815145, 22.006887492363717, 21.89226413384226, 21.78303190342707, 21.663940622863517, 21.609016439468334, 21.86187249561249, 22.064187760699014, 22.316109573874105, 22.788244075984835, 23.405646673524085, 24.119723615971598, 24.507198075811335, 24.534392211439556, 24.527580835260142, 24.480736533316378, 24.267200503651548, 23.912001432085844, 23.556985825608525, 23.253936821399506, 22.986496244978692, 22.77146748881817, 22.601120293016958, 22.461377454984046, 22.35639824804772, 22.23993007072437, 22.13171657313384, 22.075692325780143, 22.04926308866359, 22.01953687036121, 22.1825164124613, 22.546670816358304, 22.884490269445877, 23.214099143690998, 23.665286517786598, 24.248912470570843, 24.38622266640586, 24.38108912303262, 24.361163805534257, 24.319034109439396, 24.12749919997096, 23.743478692320014, 23.46181573416415, 23.234331398674996, 23.01588209542002, 22.87401375806797, 22.727905424794475, 22.558435304727226, 22.429126460575002, 22.254381612322593, 22.097506087863128, 21.994000217892477, 22.141433067368254, 22.362817183871158, 22.849142099303993, 23.27724090151294, 23.646045778703524, 24.091863922041213, 24.30124156128979, 24.270265951450266, 24.248665226035012, 24.258949794045304, 24.23278935564836, 24.190138014247708, 24.15921433799329, 23.990412149646914, 23.750261006580445, 23.551858549997277, 23.314534736621606, 23.078775549878017, 22.849219852846435, 22.633590796822844, 22.43080211077761, 22.219998700272345, 22.040544793605203, 21.914243630999007, 22.052048695490935, 22.25527459206816, 22.783715079518757, 23.30525963153651, 23.666923599445834, 24.111602088833546, 24.389543901513814, 24.350624950049603, 24.343012499049994, 24.329629504607805, 24.300238397042193, 24.26036161052173, 24.198517808687615, 24.156634060762837, 23.964069670610172, 23.69130958026891, 23.473021035989813, 23.272976862226567, 23.111650941091384, 22.992376996149986, 22.88475808287122, 22.793752204591325, 22.714426930398247, 22.64461548817935, 22.79940632758735, 22.93115299151057, 23.058999972886156, 23.27934934044437, 23.482927327832797, 23.654908988574096, 23.959174105177183, 24.1154635327636, 24.148616729790163, 24.13352738659231, 24.10679759058912, 24.073873877476, 23.967030464798896, 23.71266250925831, 23.54940772700606, 23.365518294984067, 23.128647004109737, 22.974150636099736, 22.84285198999237, 22.645646238486815, 22.49004845828652, 22.41185020616015, 22.376034272096856, 22.250347996363065, 22.302074223166997, 22.535097608921074, 23.07307988586196, 23.546880483619734, 23.9343717896476, 24.317500141620343, 24.408275598023607, 24.404226478538558, 24.382233692451198, 24.368362059004763, 24.34408471258179, 24.32038005602144, 24.270615629226793, 24.03482524808255, 23.73949904382381, 23.494766241506685, 23.320295334247604, 23.209521693374086, 23.125673472337454, 23.012337541128474, 22.893015533753573, 22.75307763370976, 22.68810863289445, 22.643549089122427, 22.78170387352397, 22.965096336996584, 23.322013471732998, 23.64402418223253, 23.867237518956955, 24.15492414027945, 24.374618309988147, 24.395283596612586, 24.400598264939067, 24.43490903552228, 24.43161648650536, 24.39494411403867, 23.94026486921463, 23.477499316282973, 23.18117460439498, 22.92551118021378, 22.74107643763963, 22.587204782037478, 22.471547925505934, 22.380274314058905, 22.25601552032137, 22.113942587887347, 21.970179325004917, 21.857285522063194, 21.752408178615298, 21.718455523477093, 21.98542066471686, 22.355951013399704, 22.68584724279786, 22.93148387251075, 23.271899632791204, 23.580647922994462, 23.691657871607802, 23.67499713449622, 23.574393822729974, 23.350272738147936, 23.129572337689904, 22.94708055182237, 22.75172930359865, 22.58046721980324, 22.420564652111697, 22.212604092483527, 21.99499184052358, 21.801202599540783, 21.6921716800382, 21.60644555008808, 21.45183677209579, 21.33404344478053, 21.184726380190842, 21.10341425953789, 21.478796504878403, 21.94420122678008, 22.280044793013555, 22.576939782154938, 23.084990560518577, 23.773370031144793, 24.23984352177352, 24.605531696697867, 24.671653826545963, 24.438696122165748, 23.906290010032524, 23.439974501281338, 23.135644582101822, 22.90363772540118, 22.672541678363796, 22.479409444920275, 22.26214811368551, 22.075729860230027, 21.914391800457334, 21.751630427900995, 21.629439303877657, 21.52628583242866, 21.67641243032327, 21.884418706741112, 22.251699656990557, 22.544865175264533, 22.781055675550608, 22.988284275503485, 23.303777554594205, 23.714602451710103, 24.092492231315486, 24.346878012056568, 24.36667150935712, 24.280690603077165, 23.838030060154352, 23.365876053676015, 23.084509863986938, 22.846432070642468, 22.570482456001276, 22.366298846355136, 22.22742649465553, 22.05089952143297, 21.842816507941663, 21.71534213325344, 21.608927184011907, 21.531528596374653, 21.73578564768768, 21.970124233004345, 22.386551146524827, 22.83634968352896, 23.19970740882087, 23.632780479707495, 24.193390411000674, 24.461545043986565, 24.435792075302874, 24.412714543186553, 24.37750162275314, 24.33940484193059, 24.25336258021007, 23.955793719562493, 23.632474116024536, 23.36894836126885, 23.102705947507918, 22.810852118594767, 22.53954789568333, 22.366827251884462, 22.249129670471678, 22.112990766029338, 21.891906363298087, 21.717045928651697, 21.80965220291314, 21.96583732172186, 22.38635894052335, 22.9032118017993, 23.417342754609763, 24.06305244329498, 24.54660757888827, 24.54193146981564, 24.51116227741365, 24.490132722713568, 24.459507476543553, 24.418829838580645, 24.361821992820094, 24.241068194866855, 23.922106897574775, 23.614067265145078, 23.35484080075661, 23.129334761366078, 22.946534702709613, 22.776195501451866, 22.615607546545615, 22.45205394166187, 22.308305518074164, 22.15815379464893, 22.269329131539404, 22.459369079863606, 22.914322808131953, 23.339416817828532, 23.635763394940856, 24.112832415365336, 24.371369838662172, 24.325202003730965, 24.304226368087242, 24.257871554536887, 24.215167467098254, 24.17195482934503, 24.04323304552743, 23.813492550148236, 23.599003700782987, 23.455603981896825, 23.34306913620082, 23.25149580891542, 23.174466786206423, 23.112567257921395, 23.028770987516026, 22.891819170714328, 22.708032667197486, 22.524790339646007, 22.664047511365904, 22.858300862076334, 23.091901258570015, 23.45923917240549, 23.873045048571992, 24.270876693506406, 24.512052295363336, 24.566587096073956, 24.59357877839305, 24.639761641345157, 24.671049368991685, 24.676925432292876, 24.580352104936093, 24.185588023277234, 23.81007207949553, 23.467052482179657, 23.17952496304804, 22.98691999452545, 22.76256767737968, 22.47943889626762, 22.3158009785718, 22.16461537661029, 21.887884428241723, 21.660940187252283, 21.52722386635202, 21.58462706530405, 22.004178268215313, 22.45406776375157, 22.791525046223914, 23.133613468028347, 23.520521351583003, 23.985118308477734, 24.28283165662444, 24.439022023462964, 24.491772985643554, 24.140150518992314, 23.646332370329812, 23.24165793348433, 22.931435006361323, 22.624619422081224, 22.34618014900219, 22.091618728680107, 21.85214275581639, 21.64958514477811, 21.526526513026095, 21.387164288524627, 21.186450543201058, 21.069557260658666, 20.96726666235698, 21.035045338057163, 21.41848265669394, 21.759681339536225, 22.097526045992, 22.42515869878576, 22.82057427868241, 23.42805599522353, 23.874306020294664, 24.21268925188545, 24.405462053301516, 24.249484521738584, 23.83867659054141, 23.341603163602713, 22.94454360153631, 22.623445271406254, 22.328926729935308, 22.10895170375233, 21.98069684814806, 21.852186871046957, 21.74480463475423, 21.645887891505566, 21.49867492964189, 21.34728058432726, 21.53225731949816, 21.748185549638695, 21.956430496559378, 22.37860390902387, 22.98217712038172, 23.567104714938722, 24.06686323744071, 24.36463185962634, 24.34583832026233, 24.342131350407403, 24.334959567595387, 24.320648623100848, 23.95019104999447, 23.45220039006213, 23.11607566891269, 22.8463761245941, 22.638539376019565, 22.36734543670657, 22.096105047400957, 21.924515339735365, 21.80216154280505, 21.6450087096048, 21.48517511719999, 21.402747317979927, 21.55090165046329, 21.80191542016675, 22.40555318895718, 22.987093255084872, 23.47492424656544, 23.852201179410287, 24.182164401934063, 24.492088841219807, 24.44333285298298, 24.371025398464692, 24.299925536023753, 24.241414364945324, 24.164721971330607, 23.849012760495835, 23.500325571789613, 23.271705602774215, 23.12219370961139, 23.028959328854953, 22.90196304660706, 22.767486691022356, 22.667813428128678, 22.55705531485729, 22.446911419697383, 22.356503537336494, 22.500688929791465, 22.805279833922878, 23.397179005085405, 23.908515676680043, 24.145219836007566, 24.144001633501503, 24.15897788554787, 24.174172003390094, 24.201675482210703, 24.229313155679705, 24.219031922208487, 24.220285338485013, 24.182619101412794, 24.187630985650742, 24.17367165794298, 23.988532082367133, 23.69434810491693, 23.520502282106946, 23.30500232999609, 23.0515507737307, 22.906148120696713, 22.793180003146947, 22.70730770936568, 22.660878097344796, 22.851269546485657, 23.15681518696395, 23.751951826423028, 24.261264766780613, 24.318446156736645, 24.32232296749122, 24.32222077531758, 24.322181168141274, 24.319651285573368, 24.335018001939137, 24.34079748320886, 24.317327863509473, 24.239603931714708, 24.206904497275318, 24.186342752503975, 24.16101508698027, 23.909021726278464, 23.56601196706008, 23.215466709387886, 22.88971377186981, 22.61990963910939, 22.366766941208265, 22.132313786391848, 21.94436964805912, 22.04201795342881, 22.21485865677346, 22.63003166956086, 23.02732257347691, 23.392610947301808, 23.63688685144528, 23.952613871971, 24.499987637093408, 24.912246719769275, 25.10782587188228, 25.090876172537055, 24.800647954675046, 24.174719205927058, 23.61281226864882, 23.12242780646498, 22.692937455907966, 22.286215909275125, 21.915832774497385, 21.658913466707983, 21.397583118772257, 21.20418438585342, 21.173993541674424, 21.173682494113233, 21.179305862003755, 21.183062701319628, 21.180864558144446, 21.30364722371338, 21.552176573887035, 21.801145637533903, 22.24543321116471, 22.671420825362812, 23.302381466601872, 23.776522768501355, 24.079864449356023, 24.285481096482698, 24.09993386320271, 23.618429025859285, 23.218607579291714, 22.919552135190646, 22.617760193739386, 22.289075314669876, 22.046752754651433, 21.85309744006061, 21.679708778150452, 21.543417716590692, 21.426530922562858, 21.27940753417738, 21.0744562665224, 20.918575443867145, 20.966398519201515, 21.309291291866188, 21.83601542587046, 22.371791594031276, 22.716558856347916, 23.11328570177231, 23.651734057050174, 24.110962708453645, 24.386021601461696, 24.408203720433402, 24.134441599785447, 23.808648420654592, 23.547220980490398, 23.28147389227597, 23.055147406528906, 22.65861317862174, 22.458221832908873, 22.34114515085487, 22.111827323219625, 21.97090123445388, 21.83997323441976, 21.731402580060813, 21.630880632759638, 21.793485778332116, 22.091923011525292, 22.595591705679954, 23.15430684920535, 23.65422920294522, 24.224110676658167, 24.720202679421437, 24.753413958581252, 24.72622177467399, 24.69894491684215, 24.66635969344208, 24.641267544719025, 24.56168418393425, 24.37467678067865, 24.101567754598403, 23.768735542655566, 23.50958435297653, 23.316978627073528, 23.17135120976795, 23.06018752683615, 22.877643909448224, 22.68812199546365, 22.589375276847207, 22.41692280578867, 22.493837143096147, 22.645092572451684, 22.795632497928207, 22.96874124985921, 23.405011036102902, 23.6188364509659, 23.888948812735663, 24.20922598293181, 24.140480394583694, 24.195625182557595, 24.196388139184972, 24.150595717157227, 23.8469982440667, 23.506802591882728, 23.20565425724649, 23.032920760859923, 22.986302481946293, 22.874836995098025, 22.718293271028376, 22.571455626298356, 22.430320625017668, 22.316630099758545, 22.246572242849776, 22.13845478019252, 22.354678184779385, 22.654979227920382, 23.074854272971873, 23.583828835079572, 24.12818564734256, 24.317422762966213, 24.347657065375344, 24.38887074106763, 24.415915730391685, 24.418059295319477, 24.398063543560585, 24.37200042785756, 24.281070366812425, 24.087653752871347, 23.85707618422359, 23.64109677945027, 23.47335456210274, 23.29466359583129, 23.171248207739108, 23.07059638775313, 22.921966782202706, 22.70424859490903, 22.515966714802193, 22.332745143867527, 22.44172683007173, 22.788233079435614, 23.346862424673045, 23.96074689448068, 24.353540539897228, 24.3906702426258, 24.397452486676503, 24.412536652650527, 24.444048165380405, 24.46243212126743, 24.46851405524704, 24.47492338124303, 24.42738018424792, 24.321372096542948, 24.077096898891018, 23.871074856457668, 23.560419332499247, 23.31739288936934, 23.170707689317705, 22.99153600284113, 22.822803671340015, 22.663749014772318, 22.548044662536753, 22.393369400738464, 22.491694749379253, 22.872672197633374, 23.538650465027548, 24.132257456591788, 24.43200188951171, 24.451352850886177, 24.47610157972086, 24.526899816204775, 24.577951769008124, 24.637690320585236, 24.677627664979383, 24.69951031604808, 24.65979579918, 24.62003793761677, 24.445167357439946, 24.149975698659286, 23.880198073791732, 23.715960439557076, 23.55859389801687, 23.391550569503767, 23.18052983617092, 22.907903057937713, 22.737739998097215, 22.602952881302397, 22.45822550573116, 22.61059614328616, 23.174551037950085, 23.76140756904824, 24.191296893573135, 24.358694450292973, 24.434512141575226, 24.460172884455897, 24.498604805711604, 24.51245052099381, 24.521256084176468, 24.524328671040053, 24.503286086677846, 24.472209684705877, 24.366900693525626, 24.124268643418457, 23.815925298630116, 23.617687539926354, 23.491360636197797, 23.31031112404753, 23.142357111513874, 23.03326402992415, 22.943436314789093, 22.90014354490965, 22.75825302154405, 22.82887150699074, 23.34771575149048, 23.930693352041988, 24.375023545303147, 24.470088578882397, 24.4766363093042, 24.52393898117818, 24.583303570221265, 24.614033724120077, 24.626545663019474, 24.626203644381103, 24.609277100085773, 24.570389173870755, 24.397082271909095, 24.198212014145827, 23.939219887785416, 23.77065171148642, 23.59566804243123, 23.4414288752518, 23.340397805478442, 23.2385428300113, 23.12936718150782, 23.016213114677253, 23.147946143229888, 23.44191907852534, 23.959532979912918, 24.497144857512733, 24.59179879000419, 24.60706135477047, 24.594766923864565, 24.60186680113109,</t>
+  </si>
+  <si>
+    <t>[22.779433414874035, 22.87570358112292, 23.00106907053141, 23.11547610134001, 23.20066550885871, 23.264275482394794, 23.333431928031803, 23.63200236203166, 23.780323308858144, 23.746621124534514, 23.733994523803943, 23.75646965476548, 23.832250162531853, 23.940994857645325, 24.03923978866274, 24.13853904423851, 24.22132550051917, 24.284718363848786, 24.330612531088466, 24.212923181653835, 23.852617734122504, 23.48962388053079, 23.173389807835246, 22.92174860698417, 22.697043726113538, 22.472573478950803, 22.242815999726236, 22.017640975118386, 21.822999613230632, 21.680219320049716, 21.556589696367556, 21.714206558631144, 21.924896895757957, 22.22544690170181, 22.499746887973, 22.726961975053317, 23.034407578725546, 23.45527285873472, 23.936354806131394, 24.384471198204384, 24.668575536080127, 24.609354102276622, 24.318352304462508, 23.79354964225166, 23.29066823683334, 22.89176201023227, 22.55450969461357, 22.27937507378398, 22.03401576714188, 21.808592794253656, 21.607723927112602, 21.421484943605805, 21.26330585642106, 21.20887314770403, 21.220198735948454, 21.327095949296208, 21.45917802470072, 21.68070893377563, 21.915898779686767, 22.19858697737401, 22.461083616910503, 22.769751687978935, 23.09749014497724, 23.38963580685224, 23.496282445669593, 23.421434041266593, 23.333462867432388, 22.937229229532466, 22.427922039609566, 22.08121796741192, 21.891093424178468, 21.6973543827277, 21.513834114570745, 21.342384956166438, 21.193069951117895, 21.14690830064403, 21.158391787115676, 21.17194527527434, 21.19117785568677, 21.239653351457974, 21.27440782452909, 21.525056555301457, 21.805491718974952, 22.07582138333878, 22.484399398812666, 23.019502304818996, 23.600067705918075, 24.169762581898613, 24.60488501290124, 24.654906463696978, 24.29194792158516, 23.69566212844659, 23.183675074300535, 22.790591957815863, 22.473408669805607, 22.234504462527884, 22.031362534603755, 21.846713533457944, 21.673505439486245, 21.51149379757348, 21.367769253276723, 21.24468560741365, 21.130688364046687, 21.066029474316085, 21.077986942299578, 21.097957693484464, 21.246078686032096, 21.525266657706013, 21.944774976761455, 22.494106098194678, 23.077153751846808, 23.64105060792727, 24.01252396237165, 23.998793574273904, 23.688843990116542, 23.3864561306856, 23.084385294643766, 22.78414906091163, 22.514952025130167, 22.291965587266507, 22.08294880783552, 21.832386270204324, 21.596538953000376, 21.50394089636139, 21.42829436314012, 21.322416174233833, 21.213234415479615, 21.10897049601219, 21.034237307740916, 21.13489697370157, 21.286802437153295, 21.521280359017826, 21.90485632950301, 22.43417100551888, 23.04492702471425, 23.695278764344934, 24.11447960034433, 24.075248489331077, 23.726180886510775, 23.364625521859892, 23.018563697511023, 22.676261382773507, 22.371290386619393, 22.107820637808597, 21.857029997032758, 21.613416982396217, 21.37391601487138, 21.204245246157697, 21.129947168525717, 21.053271031640566, 21.04407314211858, 21.13900842074341, 21.249388139239336, 21.625509084816922, 21.99308173529478, 22.327595917043013, 22.777881140843757, 23.324711141530788, 23.847127124023817, 24.30098880095379, 24.568041880757352, 24.48284534171339, 24.112889968798076, 23.478517476180922, 22.850369870901613, 22.421867991763673, 22.162919660972804, 21.909281141964737, 21.679551925362407, 21.486740525800055, 21.325409347957535, 21.198961398939616, 21.182835198430563, 21.185721491448117, 21.1905731093393, 21.227491899697814, 21.244427909096895, 21.35812120182642, 21.577939158339717, 21.798590362598834, 22.12617628939392, 22.587505761782456, 23.122415904857963, 23.654258145030525, 24.026829054647347, 24.02988177247273, 23.749120935893348, 23.188978406046175, 22.603565434797474, 22.107609929534462, 21.690583374989885, 21.375195932215018, 21.253529035864187, 21.27706414291559, 21.28801568989149, 21.299113647127186, 21.30578678004374, 21.307248676526232, 21.30032705010166, 21.31643501339745, 21.31659489035389, 21.33546861622966, 21.353720910598497, 21.564858732987755, 22.013465112290564, 22.61552411834593, 23.273989866746337, 23.945644122410542, 24.43986282563912, 24.49296495463796, 24.207471873989363, 23.512130590955508, 22.809463337003052, 22.528057110979233, 22.247233300238662, 21.82154029564592, 21.538443588758863, 21.346648152490374, 21.10936616187652, 21.107666426423076, 21.0969192071701, 21.08860734710647, 21.087454312114655, 21.12145141326447, 21.13297790046109, 21.205936338666486, 21.39157406279912, 21.715538631432228, 22.20031004509138, 22.786446891622045, 23.36675386219861, 23.948274380437223, 24.379350173311533, 24.46062673097246, 24.236444844071883, 23.727609328447887, 23.21383169393179, 22.803979851858212, 22.43328865257618, 22.078922133907426, 21.73224834443559, 21.414913111400796, 21.173609641500985, 21.152604213471978, 21.17142521929934, 21.181200963308285, 21.18727411841209, 21.21586163855928, 21.221282380418074, 21.23660256021647, 21.40079465990043, 21.71494860648315, 22.193747250052116, 22.791720496870244, 23.417126465770167, 24.045403158116404, 24.48804481942717, 24.53093601145522, 24.249570095343685, 23.546462838655216, 22.776698858712212, 22.336067080453848, 22.005545710985277, 21.762798298963997, 21.5646612322892, 21.37913419991391, 21.18383194432224, 21.09420825715395, 21.111718553648604, 21.12956733693135, 21.14876154184668, 21.169019277591648, 21.188321233972612, 21.216644861295404, 21.23242303000225, 21.282838765413626, 21.669840427008356, 22.252542208868345, 22.846776340169345, 23.443884850706834, 23.860354372095983, 23.8884731649065, 23.5885459228557, 23.212099598908193, 22.746734375661863, 22.42325575104246, 22.311845025097167, 22.149357024331668, 21.989036223459497, 21.8536007169381, 21.74623902316283, 21.654104020702167, 21.52664030214844, 21.331499882269593, 21.214786771164153, 21.26237607960425, 21.31234567313525, 21.360932750910933, 21.386438266373474, 21.40617907961922, 21.541567899902773, 21.911501544105178, 22.360932043211363, 22.82312642758842, 23.130955824083543, 23.08187236462038, 22.73459386352643, 22.368196419557226, 22.009386160646347, 21.655129357762007, 21.344123064233816, 21.263309095848232, 21.28124022141613, 21.302201051578468, 21.31879437778319, 21.333865862260165, 21.343805220673193, 21.349746046611497, 21.35221327703978, 21.3797547865472, 21.385081790752352, 21.405572609950337, 21.409124937815864, 21.48846356084118, 21.839935681893603, 22.354532184478842, 22.92862019639067, 23.509011969080564, 23.94193428855603, 24.026025269924293, 23.77516736933745, 23.229608940674762, 22.68362842461941, 22.244831023149953, 21.87845254455546, 21.59418564419433, 21.343294107761725, 21.22804459590453, 21.245004689911415, 21.262498340768172, 21.275704614794396, 21.287013060120557, 21.293720740839365, 21.322931966975133, 21.33322462898946, 21.35568201014466, 21.38040402255855, 21.594191862735684, 22.03402608665317, 22.62408994757169, 23.28252960197426, 23.9704478699672, 24.482018287575627, 24.619367190883853, 24.40874504223092, 23.837676160300642, 23.14533989530153, 22.53081956155769, 21.99386078390128, 21.602326240599606, 21.333739951286358, 21.222357992215507, 21.243006051724233, 21.248505702554656, 21.253581685101096, 21.25886052230742, 21.26164644780225, 21.286042801696336, 21.29856419706989, 21.321948459109112, 21.323496458953333, 21.48723398637877, 21.980948554754207, 22.671264932858378, 23.391832722409788, 24.003290015198598, 24.445125827890195, 24.496197136240596, 24.24777462255402, 23.720260644714287, 23.283631930000464, 22.98218680268218, 22.74209508486373, 22.542198410770567, 22.366799912160882, 22.218410415383328, 22.103925887196567, 22.00859716464932, 21.90813744220856, 21.82946580134138, 21.814407368319404, 22.046173539640325, 22.262532944446182, 22.483956607979906, 22.77634252840809, 23.125537772898937, 23.518606525419997, 23.845876064227664, 23.95850698330929, 23.86418956686006, 23.754363480081622, 23.684627560003573, 23.55161906503409, 23.20658402226174, 22.918445887754988, 22.76500949630469, 22.70515349044869, 22.683831570672407, 22.64449779251902, 22.61302551216573, 22.612766467290253, 22.582204101056337, 22.53046167799774, 22.500542728176402, 22.51158996245086, 22.75761067266808, 23.00273800028428, 23.1921530178145, 23.32341386469037, 23.407119953128046, 23.52656299252656, 23.59855249584488, 23.822722137983764, 23.957096237994204, 24.162568842833554, 24.201086391441724, 24.061644400926415, 23.544190539277434, 23.01002371109217, 22.615548212954636, 22.322015685185907, 22.06601353786834, 21.83835178186149, 21.62484795509036, 21.41652252575416, 21.213913271646287, 21.077485585058337, 21.069758263864543, 21.07286497402215, 21.0753969467524, 21.082173348703243, 21.09644168126195, 21.089967991478392, 21.088138440784107, 21.23663693294158, 21.5428241871282, 21.907781644908585, 22.26012241979302, 22.57069471719211, 22.639017848123814, 22.430715521626155, 22.2146277418793, 22.03097466739202, 21.859055927217995, 21.71725135563825, 21.62150433100761, 21.547441275531785, 21.47092706618353, 21.373895326235413, 21.2763270595199, 21.20524040218618, 21.177266298290736, 21.1648412440676, 21.15160582862173, 21.078942422930783, 21.0002007991223, 21.030994033709003, 21.19178952050606, 21.309181526102893, 21.560440110269752, 22.02110658814563, 22.46285620339748, 22.81916949717117, 22.896922206536473, 22.65849148397021, 22.396591761052544, 22.15354398163795, 21.919230272142844, 21.647977990920293, 21.356921760329246, 21.11696340213092, 20.92147991502379, 20.851269132407555, 20.890573313661033, 20.926870097978142, 20.960556223719937, 20.982620660511014, 21.02389868300997, 21.043020469539698, 21.128731607954904, 21.33422942036368, 21.61086310524286, 22.020680029534358, 22.563757610884142, 23.15585530730208, 23.74027970764287, 24.183999286537652, 24.32093979774309, 24.051134548789538, 23.457851177006432, 22.900422218689926, 22.4557820536303, 22.078492667789686, 21.76671646314733, 21.488232907962114, 21.249273361915996, 21.05415417538519, 20.960079974074546, 20.976180195355603, 20.98566236414658, 21.005018324039685, 21.047707878697825, 21.066039376818857, 21.19696539013172, 21.433270761695443, 21.717100805194615, 22.06795038708242, 22.579047499792154, 23.218411366342547, 23.91316577858788, 24.42853575851181, 24.500689191216242, 24.203470958277368, 23.5954876975435, 23.0564850971203, 22.644775982852703, 22.306583343731926, 22.03521086742676, 21.795639718346816, 21.511883018707483, 21.22442276672571, 21.06252658744788, 20.970225007224652, 20.987853166659946, 21.00900344047119, 21.05874232116563, 21.07813864743418, 21.233802624412125, 21.49805123153523, 21.83315937474526, 22.198878452863042, 22.60070139073569, 22.966568924492076, 23.276342213215155, 23.4995727367229, 23.537653863845133, 23.42288088907293, 23.00975508859573, 22.606022216177703, 22.39198425032325, 22.240458757806262, 22.125261033354608, 22.034255698227145, 21.917514425893597, 21.790568874418355, 21.73120886819639, 21.650382354597856, 21.557000080267088, 21.508175839018225, 21.6845344889992, 21.86207554358747, 22.019657277673165, 22.245046998480614, 22.501804637774, 22.78658702798877, 23.227074473112253, 23.783400652523273, 24.053524444471822, 24.032585747753036, 24.01442834978995, 23.974270447063464, 23.79308037819261, 23.417198794428497, 23.22581388539339, 23.066347813918238, 22.923505709470675, 22.800531546027646, 22.68001496014638, 22.539086986837386, 22.39505416582924, 22.20107975060888, 22.019810536500884, 21.99099468384487, 22.21389621827974, 22.41600460173521, 22.744245928537747, 23.085146156128022, 23.50060454404499, 23.93451073155295, 24.055649061061427, 24.039421016382395, 24.044003924986878, 24.049483778235295, 24.03444453123959, 24.002112986820467, 23.95414331931785, 23.827207935085287, 23.531541957496092, 23.249762142218085, 23.041848690872133, 22.860297862523478, 22.699456200623427, 22.548892200630416, 22.406683923313953, 22.27940577900243, 22.170583766403954, 22.07940847057562, 21.96317936302468, 21.85072702767094, 21.86549583492651, 21.9991701395497, 22.216635567529625, 22.416112555462046, 22.613624081578976, 22.853505847383946, 23.025081045111282, 23.129737141963076, 23.144118732238066, 23.08939868388653, 23.01379015495566, 22.913836586737123, 22.804350112017946, 22.60901160027279, 22.370726977976485, 22.275242859831177, 22.16743093086777, 22.028773247735604, 21.929769398258554, 21.771880635584562, 21.573547220623997, 21.49869798661619, 21.443350179287602, 21.328679276607925, 21.2543748122841, 21.370960752815222, 21.673496026033714, 21.996783802184467, 22.357471396503467, 22.725508296349787, 23.02283258962702, 23.402107564892358, 23.563627463297227, 23.26727506989773, 23.001105397105476, 22.703814032392916, 22.402109773823174, 22.138369336337785, 21.941857238114505, 21.766605975274057, 21.599772154054833, 21.444581124355512, 21.297376045207866, 21.156867000415414, 21.03216427615777, 20.92311483031882, 21.0661239088934, 21.24128620469762, 21.50867847480264, 21.837526042969007, 22.24840712411452, 22.745757401815297, 23.327318762870974, 23.78896706550923, 24.082526984111567, 24.27037585028654, 24.25525458674491, 24.133053906559493, 23.59583055177244, 23.06073326327272, 22.842792702003294, 22.697845839228126, 22.55579834246612, 22.431605281267768, 22.311297226115496, 22.18718321577416, 22.08838875087604, 21.993017274683528, 21.889463085403104, 21.75873257342751, 21.899990215557334, 22.13267346367209, 22.332820919627665, 22.568346871464396, 22.82245900933492, 23.07921495402289, 23.335502587894897, 23.570861751279526, 23.741214729418477, 23.79142630625674, 23.73759169768583, 23.64192150116881, 23.291051968123842, 22.966790519145718, 22.773097146209057, 22.636863683199625, 22.545598357373468, 22.475697418832493, 22.415102853768058, 22.3508426980374, 22.299054886296336, 22.24841230273657, 22.207752042543508, 22.20397958224508, 22.45567059630747, 22.703689354639213, 22.921878814899767, 23.194766750250878, 23.5719829518593, 23.795473916085083, 23.79839083019227, 23.78152987366688, 23.773780736801427, 23.765585136602947, 23.753888304598835, 23.74747605069663, 23.660787139159165, 23.395273722168028, 23.165766231545145, 22.95846730608206, 22.7484639507126, 22.56752156599533, 22.435563439359495, 22.32036623004564, 22.243852086569657, 22.191405145726634, 22.137571544308596, 22.13496432640173, 22.389604934864007, 22.617512845230436, 22.790597410908987, 23.043238528816673, 23.358027325865866, 23.781012638614584, 24.00182279702072, 24.00999926340907, 24.014951765797065, 24.00848674641682, 24.01503688594954, 24.006452750763444, 23.961634149080297, 23.81113220329838, 23.547955308656714, 23.270556544066817, 22.984198681152606, 22.687095282688603, 22.385915869984313, 22.116948450769502, 21.88911634268374, 21.674521308536495, 21.484055129513006, 21.370865891086268, 21.578209939057217, 21.736319764293004, 21.881107152730312, 22.086812243961536, 22.315788500684846, 22.745902016214075, 23.311460516424845, 23.78070191738257, 24.19208190916372, 24.32053136927235, 24.28246532097158, 24.136574701335956, 23.532816374200138, 23.012835673901506, 22.70686755703853, 22.476599525270796, 22.26075765450123, 22.020890975929692, 21.815886362858848, 21.670988138647832, 21.579127680008707, 21.525354903316643, 21.451242443381034, 21.38063726567908, 21.31632273463584, 21.266862875997784, 21.279690865487794, 21.442922194823083, 21.73368679327761, 22.016606734332992, 22.313568682220495, 22.69783671529542, 23.047403620937615, 23.20946777370169, 23.1050889196429, 22.843590403028426, 22.58451954052791, 22.402829454718116, 22.289546731305254, 22.19593898782801, 22.06830465389842, 21.898099942523682, 21.751805260071308, 21.619619474066837, 21.49727919019075, 21.386238062444722, 21.249348107875743, 21.134841485045406, 21.08306710418964, 21.073628198433923, 21.24197403311281, 21.459362973836516, 21.682976004461057, 21.989171558877388, 22.35282462534128, 22.855148908788284, 23.419964122369375, 23.743410709289236, 23.776129641395986, 23.469776136832156, 23.12531930557691, 22.76246673044965, 22.38001132689695, 22.174714653440944, 21.9576867421215, 21.69930187554895, 21.465268779749824, 21.269233258719684, 21.141761567379422, 21.03078195545271, 20.925588986041205, 20.92869508015798, 20.973948402056568, 21.03772272457572, 21.414240220281954, 21.81012790177776, 22.167905046370365, 22.6385265551239, 23.360323663758574, 24.125876720713123, 24.451431115687615, 24.441272579696886, 24.423956899091674, 24.389927649658613, 24.203789603366044, 23.7375980555092, 23.287003149073556, 22.87555224383692, 22.537964393659404, 22.265610389725712, 22.007803286349105, 21.718235105227034, 21.527899328827207, 21.39536994407939, 21.306755971244673, 21.214225354382865, 21.376768395762898, 21.534581000218186, 21.85924812759387, 22.21748448803793, 22.60336145911698, 23.042668980046898, 23.577209896259912, 24.229014246028793, 24.428574546096076, 24.40576392961105, 24.354132449944174, 24.29401981213047, 24.15635015699263, 23.732644171437858, 23.36150220340855, 23.034994139144914, 22.730978493267077, 22.479052890714147, 22.241732227620606, 21.975299307520473, 21.790691129937404, 21.612853814501733, 21.4422970079459, 21.317264947431145, 21.481380840147946, 21.764178940352206, 22.257719086210574, 22.660581214443805, 22.98044129089455, 23.402904576785392, 24.08616639036505, 24.488818453126843, 24.477017610776965, 24.45196207299787, 24.410365807326546, 24.357312178924115, 24.241280292078585, 23.866859000202727, 23.50088202083793, 23.173063177273377, 22.826662860460143, 22.59766216272243, 22.366193560086483, 22.163472904638287, 21.989947557397645, 21.8211731049004, 21.706641000418458, 21.644920916338293, 21.863362803990267, 22.046037932889377, 22.20977221280296, 22.45508538435358, 22.71212362871631, 22.94574828223021, 23.28671803559263, 23.568604691318257, 23.811427818812614, 23.964252563512307, 23.98931553039993, 23.992920833790325, 23.637090074298346, 23.110283720899673, 22.85619705305336, 22.68227639574438, 22.408886400829033, 22.13322735900668, 21.956695751605064, 21.809496613173575, 21.677959678470316, 21.542610578817474, 21.388994874402755, 21.302403615367876, 21.46992962400097, 21.610998191138616, 21.97019577073056, 22.392137626701214, 22.866733754098263, 23.382298659247127, 23.986837975362302, 24.43646475154057, 24.4505610442336, 24.427661194881228, 24.395454262732475, 24.346604225282547, 24.281022231164005, 24.017784706233197, 23.680830327776395, 23.33197432645927, 22.989356933488647, 22.73085773055688, 22.51280828370956, 22.293430561952324, 22.137553607582046, 22.002884753570267, 21.888607798318798, 21.779659563388037, 21.660796836305177, 21.606003293587605, 21.858828426213705, 22.061223843723003, 22.313146441852894, 22.785257468327828, 23.402672536417573, 24.1152255316665, 24.458169755458886, 24.48059931899805, 24.474522391801344, 24.431006144442563, 24.24435372585833, 23.89829101591152, 23.54623251507402, 23.244802690874064, 22.978453420912462, 22.76419053053769, 22.59445509303478, 22.45517901279959, 22.35055136352885, 22.23440005924773, 22.126426916876714, 22.070550857751403, 22.04428224498975, 22.014704745076035, 22.177668356652024, 22.5417976218725, 22.87973690446846, 23.20955770837831, 23.660905368999824, 24.225376589326245, 24.332735053173405, 24.327615814187073, 24.308351859221432, 24.267529526441326, 24.100287047765587, 23.727455716658095, 23.448933059787848, 23.223164961662857, 23.005868424242497, 22.864802452247275, 22.71937564633889, 22.550378983019204, 22.421426402670917, 22.247018883474652, 22.09033574978581, 21.986978006582756, 22.134414791790658, 22.355924868303532, 22.84222590627947, 23.270441784003378, 23.639423865073937, 24.08120096525282, 24.249697937604783, 24.21644951430119, 24.195564135499623, 24.20616647580537, 24.18015004510924, 24.137563943037637, 24.110143489476588, 23.96304125486623, 23.730095196076586, 23.534553609756184, 23.299078257469187, 23.064605037768803, 22.83600454885867, 22.62108140109616, 22.418837974526795, 22.208484924037425, 22.029352791081624, 21.903308834773142, 22.041192544301108, 22.24462904466351, 22.77303377049478, 23.29474492382023, 23.656752301132602, 24.097714612750632, 24.33779336771704, 24.297002930921945, 24.288366475522608, 24.276546101558157, 24.24740379494702, 24.206020437942843, 24.14594804801152, 24.107383514462924, 23.934467311270677, 23.66783691525028, 23.452178246009826, 23.253894357113552, 23.09381941129962, 22.97548030464416, 22.86862056182734, 22.778205383247098, 22.69935291838615, 22.629923672891035, 22.784906497750587, 22.916965465762047, 23.04503301205867, 23.265506028906263, 23.46942540914881, 23.641621274669433, 23.945997564040976, 24.084719639809695, 24.09464253856139, 24.0800039232401, 24.053590128756586, 24.020995236585748, 23.92806597161611, 23.687898532986466, 23.528033758781202, 23.345996477938527, 23.11028706895769, 22.956558253032824, 22.82596203627803, 22.629312752669822, 22.474077327777525, 22.396168080039974, 22.36064382583429, 22.23530769104498, 22.287114271433598, 22.520238110384266, 23.05822248415248, 23.532213300219595, 23.920040998872906, 24.285079206259496, 24.354093141515225, 24.35042079290895, 24.328910864336475, 24.3171844123603, 24.29138268756441, 24.267405251202636, 24.22653160772883, 24.006235513866397, 23.714973072159506, 23.472257204554026, 23.29919506996394, 23.18947907084336, 23.10656787913248, 22.99399312964191, 22.87524576570176, 22.735723336925144, 22.67100691326819, 22.626684840390954, 22.764932875618, 22.94857791573162, 23.305551331468678, 23.627773474706895, 23.851227852466437, 24.139081636191236, 24.3269427219989, 24.34099934377373, 24.346868678293607, 24.381501269610457, 24.378427537535057, 24.35014805172842, 23.912127819609278, 23.453114280632704, 23.158583202814015, 22.904172164252643, 22.7206526419096, 22.567515504975024, 22.452398048771347, 22.36153536649496, 22.237652219515706, 22.095884349907532, 21.952353077444823, 21.839673741331506, 21.73501730769431, 21.7012122930015, 21.968151719367, 22.33873674101974, 22.66887913682378, 22.914782506802194, 23.255359380908235, 23.56437259116413, 23.6756939378774, 23.65921320003333, 23.558728730055574, 23.334751070069462, 23.114122366702627, 22.931695949436676, 22.736383015482343, 22.5651305989883, 22.40530042247018, 22.19745506982937, 21.979919825687745, 21.786148414187362, 21.677063476073787, 21.591432800726324, 21.436922004653166, 21.319172040552846, 21.169964332602678, 21.111614915303548, 21.46995708584762, 21.93252399079496, 22.267736855561804, 22.564427806360214, 23.072200041416803, 23.760845552941486, 24.227532386212392, 24.5785009045386, 24.619129336541388, 24.411109809730192, 23.88835195486851, 23.423985152200576, 23.12036035304745, 22.888870800220232, 22.658125225463326, 22.46528008598972, 22.24826517038733, 22.06199279370838, 21.90081017938135, 21.738171939831584, 21.616085120099385, 21.513034865254067, 21.663126963183487, 21.871269395172607, 22.238610756488722, 22.531945452547046, 22.768287183722943, 22.975674073144436, 23.291258037109856, 23.70229076320112, 24.08063700632665, 24.32235589742673, 24.31330713984383, 24.245122309039107, 23.818900784613486, 23.350342967919733, 23.06998974660186, 22.832564986556424, 22.557052074136028, 22.35311663928215, 22.21445855537763, 22.038197918645846, 21.83026921669324, 21.70288046156171, 21.596581809856044, 21.51927527657125, 21.723471217073637, 21.957990791894446, 22.374376675556288, 22.824225298140576, 23.18780056153933, 23.621236807808284, 24.172638131460047, 24.408223782326772, 24.38196950824586, 24.35796613729624, 24.32334945956048, 24.286615615658874, 24.206691569779228, 23.927772395085665, 23.6095068626695, 23.348339242638357, 23.083658876111674, 22.79297350852802, 22.522474085088636, 22.350361128457134, 22.233165599056775, 22.097518862660774, 21.87681847742162, 21.70218184956303, 21.794870980178132, 21.951275601905284, 22.371790392246414, 22.888690660236566, 23.403058139026445, 24.049225347219544, 24.49732392263914, 24.487933405646643, 24.45780841268443, 24.435258516548327, 24.401447269649452, 24.366127812508413, 24.30922107713796, 24.204560496806963, 23.895699143018806, 23.590685110003616, 23.33321082157698, 23.10893694769075, 22.927075795563926, 22.757431612293743, 22.597430452986917, 22.434322093831522, 22.290947716482776, 22.141087420226047, 22.252374225986927, 22.442651715172005, 22.897605476199804, 23.322957602817297, 23.619632541978486, 24.09338529611142, 24.319090683518027, 24.271418485604375, 24.25088450232525, 24.204875427882012, 24.162275451554525, 24.119334861357327, 24.001288327950544, 23.785457729490783, 23.574462740753418, 23.4329059826697, 23.321682524934744, 23.231082815320935, 23.154818434134626, 23.0935154787178, 23.010218485576022, 22.873633122561802, 22.690119946611816, 22.50701441580615, 22.646264332435067, 22.840736804578942, 23.07447025071328, 23.441932356279633, 23.855981139924143, 24.250677769451112, 24.459080772317577, 24.512051841264125, 24.539668708763458, 24.58657627895447, 24.618010785872105, 24.623386287718898, 24.535407811941038, 24.15528870867764, 23.78343966976371, 23.44239305944239, 23.15620589062846, 22.964545339357755, 22.74103342254274, 22.45852543547981, 22.295269616244525, 22.144557292069788, 21.86820136630875, 21.64149928341173, 21.507942155416355, 21.565430512640102, 21.984962560064037, 22.435055856643675, 22.772859537764845, 23.11529579187071, 23.50243471061556, 23.967373344258295, 24.26564055697359, 24.421946669531962, 24.4749793795995, 24.12358201633046, 23.6297286732436, 23.22488468679748, 22.914592323905723, 22.60784003207964, 22.32944464767603, 22.074924299037207, 21.835494285980417, 21.632933019998205, 21.509877613886022, 21.37064877541158, 21.173045475523804, 21.128618628738348, 21.133111518598707, 21.179235858432104, 21.458608376652, 21.78122823816898, 22.110757553993995, 22.43320068798842, 22.824847282512646, 23.429504498963126, 23.873947594186834, 24.210917189034603, 24.402695904378245, 24.246079769685693, 23.834882595851727, 23.337311015419235, 22.93973487876089, 22.618264578432868, 22.32349891562824, 22.103279282258544, 21.97486273142466, 21.84627570892613, 21.73882879854415, 21.63987764971726, 21.49271057957799, 21.341325091126453, 21.52610293926217, 21.742081854187273, 21.95034569158591, 22.372407336950403, 22.97589404091748, 23.56106897702966, 24.061013945968455, 24.31693813476154, 24.29215333937526, 24.288837820072818, 24.28216342003547, 24.268134532582575, 23.91860473844787, 23.432893179146216, 23.10010448272223, 22.83227456853001, 22.625735091618605, 22.355582575257838, 22.08506758150126, 21.91398497354506, 21.792047633657532, 21.635301886964232, 21.475744727242112, 21.393496998690427, 21.541748557286596, 21.792866420667576, 22.396438795527946, 22.97814306571465, 23.46628456528826, 23.844107765123614, 24.17142688633925, 24.441476314471146, 24.38969821699028, 24.318132861858484, 24.24734069676511, 24.188930636977403, 24.118915207715997, 23.823538952580577, 23.480290625134334, 23.254073519933524, 23.106157140861853, 23.014136120652708, 22.88807540828333, 22.754247097433417, 22.65507887788164, 22.54475682813893, 22.43492997034242, 22.344785338931235, 22.489039805739466, 22.793760676342483, 23.385682737953392, 23.89740072981755, 24.096772101941365, 24.090062679926607, 24.10556857291127, 24.121913856126014, 24.151933644916753, 24.180449024403444, 24.169392613304055, 24.170892534901366, 24.132335146302406, 24.136784080227088, 24.125285391117398, 23.9584898632957, 23.67010879565314, 23.4985526193561, 23.284725043210386, 23.032426988403234, 22.887811275756118, 22.77549760626653, 22.690168690752856, 22.64419896315278, 22.834816311726286, 23.14071430086233, 23.735982548952705, 24.224426192071324, 24.26431236087376, 24.268531118880816, 24.268902473498343, 24.267444547958917, 24.266742092017065, 24.282752960233285, 24.288369464802443, 24.26477111817481, 24.18690594471491, 24.154186746181427, 24.133705285357838, 24.116023316430162, 23.878020538918346, 23.538562086102687, 23.189909865540944, 22.865492341281737, 22.59670354345536, 22.34441227135348, 22.110620929328945, 21.92315758134812, 22.021076916806624, 22.194289298757486, 22.609640969867314, 23.007204106976204, 23.37280164351704, 23.617493925998087, 23.933385287275062, 24.480927707646032, 24.893570304140923, 25.070784031625504, 25.04587321840712, 24.775199978985995, 24.15269349553896, 23.591876062063875, 23.102160629973266, 22.67311445777777, 22.266796039655603, 21.89664058892609, 21.639932882809205, 21.490776355069055, 21.497234863708545, 21.492512357677484, 21.489435470519698, 21.48775397599567, 21.488575643372524, 21.48899334178935, 21.52470828741558, 21.664046944897578, 21.884406689991952, 22.311884152131302, 22.726153315225304, 23.347948342884184, 23.815588873903025, 24.114295130918055, 24.316190764396833, 24.12809303618229, 23.644824415496306, 23.243414587109356, 22.94303331493634, 22.640267663917573, 22.3108236347295, 22.0677939118696, 21.873602971820915, 21.699803511330256, 21.56314170661132, 21.445954172894247, 21.298614311404993, 21.16789998995979, 21.20616202265884, 21.24588986022624, 21.422947398804222, 21.91278396062934, 22.433935111673225, 22.76982665869838, 23.16027845396093, 23.693316820928832, 24.14807074303924, 24.420595581870163, 24.441590742948893, 24.166836534190082, 23.84050216957533, 23.578446575988238, 23.312362329158805, 23.08565916986974, 22.689073600623363, 22.488195148097045, 22.370681723512195, 22.141167703098517, 21.999924339569322, 21.868704512439354, 21.759890253481803, 21.659123762669257, 21.821305842101342, 22.11938424201109, 22.622556215551118, 23.18079604574848, 23.679727142711148, 24.248623378475955, 24.690807471509867, 24.700284255212278, 24.673836223333236, 24.64748371747695, 24.615234728048552, 24.590380197294422, 24.513049548416944, 24.36089527462737, 24.10186867535808, 23.774444222977156, 23.51843300782563, 23.327922078056616, 23.18382740281675, 23.073821244537324, 22.892228872182773, 22.703349377940444, 22.60503318606114, 22.432905841396504, 22.5097943637644, 22.66113658346022, 22.811765045474818, 22.984809402430624, 23.42086013534281, 23.634652124720514, 23.904481447224327, 24.195846526957904, 24.146625840117608, 24.17783937434714, 24.143639406868516, 24.09829892586988, 23.828515422234016, 23.506784493804847, 23.21026007595414, 23.03975220348728, 22.99454805854465, 22.88420168215207, 22.72849855843073, 22.582220364177953, 22.44145806223663, 22.3280101390354, 22.258162291925647, 22.150195626373904, 22.36633817232089, 22.66662825293817, 23.086459235932637, 23.595208497769047, 24.12124225704248, 24.264522735999957, 24.29410655574428, 24.336043090434075, 24.363663473619557, 24.365978339853257, 24.34618046810793, 24.320301655970507, 24.235684677080556, 24.07003766485144, 23.84799751269887, 23.635739972674134, 23.470385911107332, 23.293426928162898, 23.17125872883683, 23.071563291633357, 22.92374211513294, 22.70663803246336, 22.518765062429665, 22.335871276289225, 22.44488698871902, 22.791446126066706, 23.35002490216735, 23.96382939936333, 24.31595573179033, 24.336832658449918, 24.34422162656722, 24.359764539797865, 24.389348656419642, 24.409917350529653, 24.41502420890505, 24.422522704151334, 24.375287803468, 24.28856680030333, 24.05923347642646, 23.857633852039843, 23.549640094926843, 23.308337017403456, 23.162975404559187, 22.98484950596313, 22.816921748686553, 22.658453443182022, 22.543208728539316, 22.38892965533425, 22.487390338269282, 22.86840495981131, 23.534425033013335, 24.126557895066195, 24.382670646022476, 24.39762981731576, 24.422823146889897, 24.47267098567846, 24.52518160580578, 24.584779231944406, 24.624762347546095, 24.64522995870307, 24.607184983265782, 24.569420018872666, 24.41609750324912, 24.12918526433764, 23.862459486979873, 23.700137746110865, 23.544242090216077, 23.37829653204746, 23.16820469337081, 22.896243898633347, 22.726516921585517, 22.592115525190664, 22.447735716030056, 22.60013340951588, 23.164136613542563, 23.7510969979068, 24.181450271295777, 24.340810326987977, 24.38152872820778, 24.40630450973271, 24.445269315861506, 24.458191938210053, 24.465524062745832, 24.47136249736791, 24.45056173691724, 24.42076479745415, 24.335322712381096, 24.100787997583097, 23.795292367813115, 23.598714073899114, 23.473656580113726, 23.293664578780803, 23.126445692557734, 23.017922505055292, 22.928577006816585, 22.885690952691423, 22.74424050574216, 22.814918622366005, 23.333770088044265, 23.91693423061894, 24.34366359479584, 24.41586505457929, 24.423015271534098, 24.47051599859581, 24.53012546730933, 24.55778429511776, 24.573548847025204, 24.5731575468387, 24.556440151323674, 24.52334186097667, 24.367431609798114, 24.1732534769579, 23.916419525892636, 23.74929646525636, 23.575474880111233, 23.42205068028566, 23.32165970675391, 23.220388551934406, 23.11166601879799, 22.998886954220183, 23.13075257626922, 23.424920144052482, 23.94265340520351, 24.45958968493919, 24.53755363410569, 24.553236516055183, 24.541611053826056, 24.547262754152765, 24.560516494586523, 24.571762915840704, 24.5</t>
+  </si>
+  <si>
+    <t>WIP_testing predefined models\BESOS_Output\RV6KV9A7J3F26TO86K2Q</t>
+  </si>
+  <si>
+    <t>WIP_testing predefined models\BESOS_Output\WGILA4RD110REO626Z0H</t>
+  </si>
+  <si>
+    <t>WIP_testing predefined models\BESOS_Output\0WDSII16MSJLRN0LFF54</t>
+  </si>
+  <si>
+    <t>WIP_testing predefined models\BESOS_Output\W2EW6JFLABQ7YS1K30EI</t>
+  </si>
+  <si>
+    <t>WIP_testing predefined models\BESOS_Output\98UN22SKU4J4AH77ZHTZ</t>
+  </si>
+  <si>
+    <t>WIP_testing predefined models\BESOS_Output\E2QEVFPTDTJF9HRB9ZN6</t>
   </si>
   <si>
     <t>Sydney</t>
@@ -597,25 +600,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.5321514029547281</v>
+        <v>0.5031464265479559</v>
       </c>
       <c r="D2">
-        <v>0.2829839489275351</v>
+        <v>0.3465412796256596</v>
       </c>
       <c r="E2">
-        <v>106596860826.8852</v>
+        <v>103927604074.0802</v>
       </c>
       <c r="F2">
         <v>40644496141.83359</v>
       </c>
       <c r="G2">
-        <v>3272531382.64464</v>
+        <v>2590511176.080819</v>
       </c>
       <c r="H2">
-        <v>53456534896.11465</v>
+        <v>51670668340.48123</v>
       </c>
       <c r="I2">
-        <v>65952364685.05161</v>
+        <v>63283107932.2466</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -639,13 +642,13 @@
         <v>36</v>
       </c>
       <c r="Q2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -656,25 +659,25 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.2119304900745062</v>
+        <v>0.3794613546478458</v>
       </c>
       <c r="D3">
-        <v>0.4048732131187578</v>
+        <v>0.5628164531560498</v>
       </c>
       <c r="E3">
-        <v>101035445949.3813</v>
+        <v>96421778274.90843</v>
       </c>
       <c r="F3">
         <v>40644496141.83359</v>
       </c>
       <c r="G3">
-        <v>2281914018.430887</v>
+        <v>994528636.8713595</v>
       </c>
       <c r="H3">
-        <v>49391176511.77821</v>
+        <v>46404743828.10643</v>
       </c>
       <c r="I3">
-        <v>60390949807.54774</v>
+        <v>55777282133.07484</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -698,13 +701,13 @@
         <v>36</v>
       </c>
       <c r="Q3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -715,25 +718,25 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.4258317350376082</v>
+        <v>0.3249874464626548</v>
       </c>
       <c r="D4">
-        <v>0.6125484398725076</v>
+        <v>0.5269927824654598</v>
       </c>
       <c r="E4">
-        <v>95352101862.64183</v>
+        <v>97227621350.30124</v>
       </c>
       <c r="F4">
         <v>40644496141.83359</v>
       </c>
       <c r="G4">
-        <v>674607174.5258012</v>
+        <v>1283405106.484126</v>
       </c>
       <c r="H4">
-        <v>45734393330.47632</v>
+        <v>46870740255.19334</v>
       </c>
       <c r="I4">
-        <v>54707605720.80826</v>
+        <v>56583125208.46766</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -757,13 +760,13 @@
         <v>36</v>
       </c>
       <c r="Q4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="S4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -774,25 +777,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.5321514029547281</v>
+        <v>0.5031464265479559</v>
       </c>
       <c r="D5">
-        <v>0.2829839489275351</v>
+        <v>0.3465412796256596</v>
       </c>
       <c r="E5">
-        <v>103117882550.1255</v>
+        <v>100368993128.0475</v>
       </c>
       <c r="F5">
         <v>40644496141.83359</v>
       </c>
       <c r="G5">
-        <v>3066852756.265043</v>
+        <v>2166786736.361515</v>
       </c>
       <c r="H5">
-        <v>50474759220.92538</v>
+        <v>48818118345.19516</v>
       </c>
       <c r="I5">
-        <v>62473386408.29196</v>
+        <v>59724496986.21395</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -816,13 +819,13 @@
         <v>36</v>
       </c>
       <c r="Q5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -833,25 +836,25 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>0.2119304900745062</v>
+        <v>0.3794613546478458</v>
       </c>
       <c r="D6">
-        <v>0.4048732131187578</v>
+        <v>0.5628164531560498</v>
       </c>
       <c r="E6">
-        <v>97593601687.51506</v>
+        <v>93475577579.81783</v>
       </c>
       <c r="F6">
         <v>40644496141.83359</v>
       </c>
       <c r="G6">
-        <v>1811711140.564898</v>
+        <v>457736982.3687686</v>
       </c>
       <c r="H6">
-        <v>46688410702.20158</v>
+        <v>44248439886.25269</v>
       </c>
       <c r="I6">
-        <v>56949105545.68148</v>
+        <v>52831081437.98425</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -872,16 +875,16 @@
         <v>34</v>
       </c>
       <c r="P6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -892,25 +895,25 @@
         <v>2</v>
       </c>
       <c r="C7">
-        <v>0.4258317350376082</v>
+        <v>0.3249874464626548</v>
       </c>
       <c r="D7">
-        <v>0.6125484398725076</v>
+        <v>0.5269927824654598</v>
       </c>
       <c r="E7">
-        <v>92649938295.62567</v>
+        <v>94120157410.88029</v>
       </c>
       <c r="F7">
         <v>40644496141.83359</v>
       </c>
       <c r="G7">
-        <v>228991608.5561301</v>
+        <v>704093697.4070699</v>
       </c>
       <c r="H7">
-        <v>43727338282.21791</v>
+        <v>44598166742.69411</v>
       </c>
       <c r="I7">
-        <v>52005442153.79209</v>
+        <v>53475661269.04671</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -931,16 +934,16 @@
         <v>35</v>
       </c>
       <c r="P7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
